--- a/dist/DIP_Excel_Template.xlsx
+++ b/dist/DIP_Excel_Template.xlsx
@@ -256,7 +256,7 @@
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <t>title:
-The official title for the datset
+The official title for the dataset
 &lt;dcterms:title&gt;</t>
       </text>
     </comment>
@@ -292,7 +292,7 @@
       <text>
         <t>metadataClassification:
 The classification level of the metadata.
-&lt;usg:metadataClassification&gt;</t>
+&lt;dhs:metadataClassification&gt;</t>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
@@ -306,7 +306,7 @@
       <text>
         <t>component:
 Sub-department (e.g. bureau or component) of the data.
-&lt;usg:component&gt;</t>
+&lt;dhs:component&gt;</t>
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0">
@@ -320,28 +320,28 @@
       <text>
         <t>governance:
 The organization responsible for governance or oversight of the dataset.
-&lt;usg:governance&gt;</t>
+&lt;dhs:governance&gt;</t>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <t>owner:
 The owner of the dataset. Data owners are senior officials or organizations that are responsible for the content and quality of the dataset.
-&lt;usg:owner&gt;</t>
+&lt;dhs:owner&gt;</t>
       </text>
     </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <t>steward:
 The steward of the dataset. Data stewards are responsible for ensuring that data are properly stored, maintained, accessible, and protected.
-&lt;usg:steward&gt;</t>
+&lt;dhs:steward&gt;</t>
       </text>
     </comment>
     <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <t>custodian:
 The custodian of the dataset. Data custodians are the individuals or organizations that have physical posession of the data.
-&lt;usg:custodian&gt;</t>
+&lt;dhs:custodian&gt;</t>
       </text>
     </comment>
     <comment ref="O1" authorId="0" shapeId="0">
@@ -362,7 +362,7 @@
       <text>
         <t>sharingAgreements:
 Any sharing agreements for the dataset that should be documented.
-&lt;usg:sharingAgreements&gt;</t>
+&lt;dhs:sharingAgreements&gt;</t>
       </text>
     </comment>
     <comment ref="R1" authorId="0" shapeId="0">
@@ -376,28 +376,28 @@
       <text>
         <t>collectionAuthority:
 The legal authority under which the data were collected.
-&lt;usg:collectionAuthority&gt;</t>
+&lt;dhs:collectionAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <t>retentionAuthority:
 The legal authority under which the data are retained.
-&lt;usg:retentionAuthority&gt;</t>
+&lt;dhs:retentionAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <t>releaseAuthority:
 The legal authority under which the data may be released.
-&lt;usg:releaseAuthority&gt;</t>
+&lt;dhs:releaseAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <t>recordsSchedule:
 The data records schedule.
-&lt;usg:recordsSchedule&gt;</t>
+&lt;dhs:recordsSchedule&gt;</t>
       </text>
     </comment>
     <comment ref="W1" authorId="0" shapeId="0">
@@ -410,421 +410,400 @@
     <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <t>conformsTo:
-An established standard to which the described resource conforms.
+An established standard to which the described resource conforms. Should use the Dublin Core Standard Class.
 &lt;dcterms:conformsTo&gt;</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="0" shapeId="0">
       <text>
-        <t>Standard:
-A basis for comparison; a reference point against which other things can be evaluated.
-&lt;dcterms:Standard&gt;</t>
+        <t>conformsFIPS:
+Any Federal Information Processing Standard (FIPS) that covers the data.
+&lt;dhs:conformsFIPS&gt;</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="0" shapeId="0">
       <text>
-        <t>conformsFIPS:
-Any Federal Information Processing Standard (FIPS) that covers the data.
-&lt;usg:conformsFIPS&gt;</t>
+        <t>conformsNIEMPercent:
+The percentage of the data schema that conforms to the National Information Exchnage Model (NIEM).
+&lt;dhs:conformsNIEMPercent&gt;</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="0" shapeId="0">
       <text>
-        <t>conformsNIEMPercent:
-The percentage of the data schema that conforms to the National Information Exchnage Model (NIEM).
-&lt;usg:conformsNIEMPercent&gt;</t>
+        <t>conformsUnicode:
+Does the dataset contain unicode information?
+&lt;dhs:conformsUnicode&gt;</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="0" shapeId="0">
       <text>
-        <t>conformsUnicode:
-Does the dataset contain unicode information?
-&lt;usg:conformsUnicode&gt;</t>
+        <t>identitiesNativeScript:
+Are names in the dataset represented in native script?
+&lt;dhs:identitiesNativeScript&gt;</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="0" shapeId="0">
       <text>
-        <t>identitiesNativeScript:
-Are names in the dataset represented in native script?
-&lt;usg:identitiesNativeScript&gt;</t>
+        <t>transliterationStandard:
+The transliteration standard used for names in the dataset, if names are transliterated into English.
+&lt;dhs:transliterationStandard&gt;</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="0" shapeId="0">
       <text>
-        <t>transliterationStandard:
-The transliteration standard used for names in the dataset, if names are transliterated into English.
-&lt;usg:transliterationStandard&gt;</t>
+        <t>sourceDatasets:
+The unique identifiers of the source datasets.
+&lt;dhs:sourceDatasets&gt;</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="0" shapeId="0">
       <text>
-        <t>sourceDatasets:
-The unique identifiers of the source datasets.
-&lt;usg:sourceDatasets&gt;</t>
+        <t>destinationDatasets:
+The unique identifiers of the downstream datasets fed by this dataset.
+&lt;dhs:destinationDatasets&gt;</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="0" shapeId="0">
-      <text>
-        <t>destinationDatasets:
-The unique identifiers of the downstream datasets fed by this dataset.
-&lt;usg:destinationDatasets&gt;</t>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <t>describedBy:
 URL for the JSON Schema file that defines the schema used.
 &lt;usg:describedBy&gt;</t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <t>describedByType:
 The machine-readable file format (IANA Media Type also known as MIME Type) of the dataset’s Data Dictionary (describedBy).
 &lt;usg:describedByType&gt;</t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <t>isPartOf:
 A related resource in which the described resource is physically or logically included.
 &lt;dcterms:isPartOf&gt;</t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <t>accrualPeriodicity:
 The frequency with which items are added to a collection.
 &lt;dcterms:accrualPeriodicity&gt;</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <t>spatial:
 Spatial characteristics of the resource.
 &lt;dcterms:spatial&gt;</t>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <t>spatialResolutionInMeters:
 minimum spatial separation resolvable in a dataset, measured in meters.
 &lt;dcat:spatialResolutionInMeters&gt;</t>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <t>temporal:
 Temporal characteristics of the resource.
 &lt;dcterms:temporal&gt;</t>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <t>temporalResolution:
 minimum time period resolvable in a dataset.
 &lt;dcat:temporalResolution&gt;</t>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityKnown:
 If the data quality is known or not.
-&lt;usg:dataQualityKnown&gt;</t>
+&lt;dhs:dataQualityKnown&gt;</t>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0" shapeId="0">
+      <text>
+        <t>dataQualityPercent:
+A simple measure of the data quality, on a scale from 0-100.
+&lt;dhs:dataQualityPercent&gt;</t>
       </text>
     </comment>
     <comment ref="AP1" authorId="0" shapeId="0">
       <text>
-        <t>dataQualityMetric:
-Metric used to measure data quality.
-&lt;usg:dataQualityMetric&gt;</t>
+        <t>dataQualityAssessment:
+Narrative as to the overall data quality.
+&lt;dhs:dataQualityAssessment&gt;</t>
       </text>
     </comment>
     <comment ref="AQ1" authorId="0" shapeId="0">
-      <text>
-        <t>dataQualityMeasure:
-The measure of the data quality.
-&lt;usg:dataQualityMeasure&gt;</t>
-      </text>
-    </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
-      <text>
-        <t>dataQualityPercent:
-A simple measure of the data quality, on a scale from 0-100.
-&lt;usg:dataQualityPercent&gt;</t>
-      </text>
-    </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
-      <text>
-        <t>dataQualityAssessment:
-Narrative as to the overall data quality.
-&lt;usg:dataQualityAssessment&gt;</t>
-      </text>
-    </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <t>dataQuality:
 Indicates whether a dataset conforms to the agency’s information quality guidelines (boolean).
 &lt;usg:dataQuality&gt;</t>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <t>format:
 The file format, physical medium, or dimensions of the resource.
 &lt;dcterms:format&gt;</t>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <t>accessURL:
 A URL of a resource that gives access to a distribution of the dataset. E.g. landing page, feed, SPARQL endpoint. Use for all cases except a simple download link, in which case downloadURL is preferred.
 &lt;dcat:accessURL&gt;</t>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <t>accessURLNIEM:
 The URL from which the NIEM representation can be accessed.
-&lt;usg:accessURLNIEM&gt;</t>
+&lt;dhs:accessURLNIEM&gt;</t>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <t>modified:
 Most recent date on which the dataset was changed, updated or modified.
 &lt;usg:modified&gt;</t>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <t>vendor:
 Source of the dataset.
-&lt;usg:vendor&gt;</t>
+&lt;dhs:vendor&gt;</t>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <t>license:
 A legal document giving official permission to do something with the resource.
 &lt;dcterms:license&gt;</t>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <t>accessRights:
 Information about who can access the resource or an indication of its security status.
 &lt;dcterms:accessRights&gt;</t>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <t>theme:
 A main category of the resource. A resource can have multiple themes.
 &lt;dcat:theme&gt;</t>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <t>functionalDataDomain:
 Functional data domain of the data.
-&lt;usg:functionalDataDomain&gt;</t>
+&lt;dhs:functionalDataDomain&gt;</t>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <t>mediaType:
 The media type of the distribution as defined by IANA
 &lt;dcat:mediaType&gt;</t>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <t>tableCount:
 Number of 2-dimensional tables in the data.
-&lt;usg:tableCount&gt;</t>
+&lt;dhs:tableCount&gt;</t>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <t>recordCount:
 Total number of records in the data.
-&lt;usg:recordCount&gt;</t>
+&lt;dhs:recordCount&gt;</t>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <t>byteSize:
 The size of a distribution in bytes.
 &lt;dcat:byteSize&gt;</t>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0" shapeId="0">
       <text>
         <t>datasetClassification:
 Security classificaiton of the data.
-&lt;usg:datasetClassification&gt;</t>
+&lt;dhs:datasetClassification&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0">
+      <text>
+        <t>characteristics:
+Specific container to hold various data characteristics.
+&lt;dhs:characteristics&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-person-level:
+The dataset contains person-level records.
+&lt;dhs:ch-person-level&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BH1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-financial:
+The dataset contains financial information.
+&lt;dhs:ch-financial&gt;</t>
       </text>
     </comment>
     <comment ref="BI1" authorId="0" shapeId="0">
       <text>
-        <t>characteristics:
-Specific container to hold various data characteristics.
-&lt;usg:characteristics&gt;</t>
+        <t>ch-event-records:
+The dataset contains information about events that are tagged with a specific place and time.
+&lt;dhs:ch-event-records&gt;</t>
       </text>
     </comment>
     <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
-        <t>ch-person-level:
-The dataset contains person-level records.
-&lt;usg:ch-person-level&gt;</t>
+        <t>ch-faces:
+The dataset contains human faces.
+&lt;dhs:ch-faces&gt;</t>
       </text>
     </comment>
     <comment ref="BK1" authorId="0" shapeId="0">
       <text>
-        <t>ch-financial:
-The dataset contains financial information.
-&lt;usg:ch-financial&gt;</t>
+        <t>ch-fingerprints:
+The dataset contains fingerprints.
+&lt;dhs:ch-fingerprints&gt;</t>
       </text>
     </comment>
     <comment ref="BL1" authorId="0" shapeId="0">
       <text>
-        <t>ch-event-records:
-The dataset contains information about events that are tagged with a specific place and time.
-&lt;usg:ch-event-records&gt;</t>
+        <t>ch-cui:
+The dataset contains controlled unclassified information.
+&lt;dhs:ch-cui&gt;</t>
       </text>
     </comment>
     <comment ref="BM1" authorId="0" shapeId="0">
       <text>
-        <t>ch-faces:
-The dataset contains human faces.
-&lt;usg:ch-faces&gt;</t>
+        <t>ch-phi:
+The dataset contains protected health information.
+&lt;dhs:ch-phi&gt;</t>
       </text>
     </comment>
     <comment ref="BN1" authorId="0" shapeId="0">
       <text>
-        <t>ch-fingerprints:
-The dataset contains fingerprints.
-&lt;usg:ch-fingerprints&gt;</t>
+        <t>ch-pii:
+The dataset contains personally identifiable information under the controlling legal definition of PII.
+&lt;dhs:ch-pii&gt;</t>
       </text>
     </comment>
     <comment ref="BO1" authorId="0" shapeId="0">
       <text>
-        <t>ch-cui:
-The dataset contains controlled unclassified information.
-&lt;usg:ch-cui&gt;</t>
+        <t>ch-geospatial:
+The dataset contains geospatial information.
+&lt;dhs:ch-geospatial&gt;</t>
       </text>
     </comment>
     <comment ref="BP1" authorId="0" shapeId="0">
       <text>
-        <t>ch-phi:
-The dataset contains protected health information.
-&lt;usg:ch-phi&gt;</t>
+        <t>ch-fisa:
+The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
+&lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
     <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
-        <t>ch-pii:
-The dataset contains personally identifiable information under the controlling legal definition of PII.
-&lt;usg:ch-pii&gt;</t>
+        <t>ch-8usc1367:
+The dataset contains 8 USC 1367.
+&lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
     <comment ref="BR1" authorId="0" shapeId="0">
       <text>
-        <t>ch-geospatial:
-The dataset contains geospatial information.
-&lt;usg:ch-geospatial&gt;</t>
+        <t>ch-propin:
+The dataset contains proprietary commercial information.
+&lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
     <comment ref="BS1" authorId="0" shapeId="0">
       <text>
-        <t>ch-fisa:
-The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
-&lt;usg:ch-fisa&gt;</t>
+        <t>ch-immigration:
+The dataset contains information pertaining to immigration.
+&lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
     <comment ref="BT1" authorId="0" shapeId="0">
       <text>
-        <t>ch-8usc1367:
-The dataset contains 8 USC 1367.
-&lt;usg:ch-8usc1367&gt;</t>
+        <t>ch-criticalInfrastructure:
+The dataset contains critical infrastructure information.
+&lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
     <comment ref="BU1" authorId="0" shapeId="0">
       <text>
-        <t>ch-propin:
-The dataset contains proprietary commercial information.
-&lt;usg:ch-propin&gt;</t>
+        <t>ch-disseminationRestrictions:
+The information has dissemination restrictions.
+&lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
     <comment ref="BV1" authorId="0" shapeId="0">
       <text>
-        <t>ch-immigration:
-The dataset contains information pertaining to immigration.
-&lt;usg:ch-immigration&gt;</t>
+        <t>hostingLocation:
+Where the data physically reside.
+&lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
     <comment ref="BW1" authorId="0" shapeId="0">
       <text>
-        <t>ch-criticalInfrastructure:
-The dataset contains critical infrastructure information.
-&lt;usg:ch-criticalInfrastructure&gt;</t>
+        <t>hostedInCloud:
+If the dataset's location is in the cloud.
+&lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
     <comment ref="BX1" authorId="0" shapeId="0">
       <text>
-        <t>ch-disseminationRestrictions:
-The information has dissemination restrictions.
-&lt;usg:ch-disseminationRestrictions&gt;</t>
+        <t>easilyAccessibleByCreatingComponent:
+The information can be easily accessed by individuals within the component that created it.
+&lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
     <comment ref="BY1" authorId="0" shapeId="0">
       <text>
-        <t>hostingLocation:
-Where the data physically reside.
-&lt;usg:hostingLocation&gt;</t>
+        <t>easilyAccessibleByAllComponents:
+The information can be easily accessed by individuals within all department component.
+&lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
     <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
-        <t>hostedInCloud:
-If the dataset's location is in the cloud.
-&lt;usg:hostedInCloud&gt;</t>
+        <t>easilyAccessibleByGeneralPublic:
+The information can be easily accessed by the general public.
+&lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
       </text>
     </comment>
     <comment ref="CA1" authorId="0" shapeId="0">
       <text>
-        <t>easilyAccessibleByCreatingComponent:
-The information can be easily accessed by individuals within the component that created it.
-&lt;usg:easilyAccessibleByCreatingComponent&gt;</t>
+        <t>recordTransmission:
+When the metadata record was transmitted.
+&lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
     <comment ref="CB1" authorId="0" shapeId="0">
       <text>
-        <t>easilyAccessibleByAllComponents:
-The information can be easily accessed by individuals within all department component.
-&lt;usg:easilyAccessibleByAllComponents&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
-      <text>
-        <t>easilyAccessibleByGeneralPublic:
-The information can be easily accessed by the general public.
-&lt;usg:easilyAccessibleByGeneralPublic&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
-      <text>
-        <t>recordTransmission:
-When the metadata record was transmitted.
-&lt;usg:recordTransmission&gt;</t>
-      </text>
-    </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
-      <text>
         <t>validityTime:
 When the metadata record is valid.
-&lt;usg:validityTime&gt;</t>
+&lt;dhs:validityTime&gt;</t>
       </text>
     </comment>
   </commentList>
@@ -1170,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE99"/>
+  <dimension ref="A1:CB99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,9 +1237,6 @@
     <col width="15" customWidth="1" min="78" max="78"/>
     <col width="15" customWidth="1" min="79" max="79"/>
     <col width="15" customWidth="1" min="80" max="80"/>
-    <col width="15" customWidth="1" min="81" max="81"/>
-    <col width="15" customWidth="1" min="82" max="82"/>
-    <col width="15" customWidth="1" min="83" max="83"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1386,295 +1362,280 @@
       </c>
       <c r="Y1" s="7" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>conformsFIPS</t>
         </is>
       </c>
       <c r="Z1" s="7" t="inlineStr">
         <is>
-          <t>conformsFIPS</t>
+          <t>conformsNIEMPercent</t>
         </is>
       </c>
       <c r="AA1" s="7" t="inlineStr">
         <is>
-          <t>conformsNIEMPercent</t>
+          <t>conformsUnicode</t>
         </is>
       </c>
       <c r="AB1" s="7" t="inlineStr">
         <is>
-          <t>conformsUnicode</t>
+          <t>identitiesNativeScript</t>
         </is>
       </c>
       <c r="AC1" s="7" t="inlineStr">
         <is>
-          <t>identitiesNativeScript</t>
-        </is>
-      </c>
-      <c r="AD1" s="7" t="inlineStr">
-        <is>
           <t>transliterationStandard</t>
         </is>
       </c>
-      <c r="AE1" s="8" t="inlineStr">
+      <c r="AD1" s="8" t="inlineStr">
         <is>
           <t>sourceDatasets</t>
         </is>
       </c>
-      <c r="AF1" s="9" t="inlineStr">
+      <c r="AE1" s="9" t="inlineStr">
         <is>
           <t>destinationDatasets</t>
         </is>
       </c>
-      <c r="AG1" s="9" t="inlineStr">
+      <c r="AF1" s="9" t="inlineStr">
         <is>
           <t>describedBy</t>
         </is>
       </c>
-      <c r="AH1" s="9" t="inlineStr">
+      <c r="AG1" s="9" t="inlineStr">
         <is>
           <t>describedByType</t>
         </is>
       </c>
-      <c r="AI1" s="9" t="inlineStr">
+      <c r="AH1" s="9" t="inlineStr">
         <is>
           <t>isPartOf</t>
         </is>
       </c>
-      <c r="AJ1" s="10" t="inlineStr">
+      <c r="AI1" s="10" t="inlineStr">
         <is>
           <t>accrualPeriodicity</t>
         </is>
       </c>
-      <c r="AK1" s="11" t="inlineStr">
+      <c r="AJ1" s="11" t="inlineStr">
         <is>
           <t>spatial</t>
         </is>
       </c>
-      <c r="AL1" s="12" t="inlineStr">
+      <c r="AK1" s="12" t="inlineStr">
         <is>
           <t>spatialResolutionInMeters</t>
         </is>
       </c>
-      <c r="AM1" s="13" t="inlineStr">
+      <c r="AL1" s="13" t="inlineStr">
         <is>
           <t>temporal</t>
         </is>
       </c>
-      <c r="AN1" s="14" t="inlineStr">
+      <c r="AM1" s="14" t="inlineStr">
         <is>
           <t>temporalResolution</t>
         </is>
       </c>
-      <c r="AO1" s="2" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t>dataQualityKnown</t>
         </is>
       </c>
+      <c r="AO1" s="3" t="inlineStr">
+        <is>
+          <t>dataQualityPercent</t>
+        </is>
+      </c>
       <c r="AP1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityMetric</t>
+          <t>dataQualityAssessment</t>
         </is>
       </c>
       <c r="AQ1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityMeasure</t>
-        </is>
-      </c>
-      <c r="AR1" s="3" t="inlineStr">
-        <is>
-          <t>dataQualityPercent</t>
-        </is>
-      </c>
-      <c r="AS1" s="3" t="inlineStr">
-        <is>
-          <t>dataQualityAssessment</t>
-        </is>
-      </c>
-      <c r="AT1" s="3" t="inlineStr">
-        <is>
           <t>dataQuality</t>
         </is>
       </c>
-      <c r="AU1" s="4" t="inlineStr">
+      <c r="AR1" s="4" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="AV1" s="5" t="inlineStr">
+      <c r="AS1" s="5" t="inlineStr">
         <is>
           <t>accessURL</t>
         </is>
       </c>
-      <c r="AW1" s="5" t="inlineStr">
+      <c r="AT1" s="5" t="inlineStr">
         <is>
           <t>accessURLNIEM</t>
         </is>
       </c>
-      <c r="AX1" s="5" t="inlineStr">
+      <c r="AU1" s="5" t="inlineStr">
         <is>
           <t>modified</t>
         </is>
       </c>
-      <c r="AY1" s="5" t="inlineStr">
+      <c r="AV1" s="5" t="inlineStr">
         <is>
           <t>vendor</t>
         </is>
       </c>
-      <c r="AZ1" s="5" t="inlineStr">
+      <c r="AW1" s="5" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="BA1" s="5" t="inlineStr">
+      <c r="AX1" s="5" t="inlineStr">
         <is>
           <t>accessRights</t>
         </is>
       </c>
-      <c r="BB1" s="5" t="inlineStr">
+      <c r="AY1" s="5" t="inlineStr">
         <is>
           <t>theme</t>
         </is>
       </c>
-      <c r="BC1" s="5" t="inlineStr">
+      <c r="AZ1" s="5" t="inlineStr">
         <is>
           <t>functionalDataDomain</t>
         </is>
       </c>
-      <c r="BD1" s="5" t="inlineStr">
+      <c r="BA1" s="5" t="inlineStr">
         <is>
           <t>mediaType</t>
         </is>
       </c>
-      <c r="BE1" s="6" t="inlineStr">
+      <c r="BB1" s="6" t="inlineStr">
         <is>
           <t>tableCount</t>
         </is>
       </c>
-      <c r="BF1" s="7" t="inlineStr">
+      <c r="BC1" s="7" t="inlineStr">
         <is>
           <t>recordCount</t>
         </is>
       </c>
-      <c r="BG1" s="7" t="inlineStr">
+      <c r="BD1" s="7" t="inlineStr">
         <is>
           <t>byteSize</t>
         </is>
       </c>
-      <c r="BH1" s="8" t="inlineStr">
+      <c r="BE1" s="8" t="inlineStr">
         <is>
           <t>datasetClassification</t>
         </is>
       </c>
-      <c r="BI1" s="9" t="inlineStr">
+      <c r="BF1" s="9" t="inlineStr">
         <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="BJ1" s="9" t="inlineStr">
+      <c r="BG1" s="9" t="inlineStr">
         <is>
           <t>ch-person-level</t>
         </is>
       </c>
-      <c r="BK1" s="9" t="inlineStr">
+      <c r="BH1" s="9" t="inlineStr">
         <is>
           <t>ch-financial</t>
         </is>
       </c>
-      <c r="BL1" s="9" t="inlineStr">
+      <c r="BI1" s="9" t="inlineStr">
         <is>
           <t>ch-event-records</t>
         </is>
       </c>
-      <c r="BM1" s="9" t="inlineStr">
+      <c r="BJ1" s="9" t="inlineStr">
         <is>
           <t>ch-faces</t>
         </is>
       </c>
-      <c r="BN1" s="9" t="inlineStr">
+      <c r="BK1" s="9" t="inlineStr">
         <is>
           <t>ch-fingerprints</t>
         </is>
       </c>
-      <c r="BO1" s="9" t="inlineStr">
+      <c r="BL1" s="9" t="inlineStr">
         <is>
           <t>ch-cui</t>
         </is>
       </c>
-      <c r="BP1" s="9" t="inlineStr">
+      <c r="BM1" s="9" t="inlineStr">
         <is>
           <t>ch-phi</t>
         </is>
       </c>
-      <c r="BQ1" s="9" t="inlineStr">
+      <c r="BN1" s="9" t="inlineStr">
         <is>
           <t>ch-pii</t>
         </is>
       </c>
-      <c r="BR1" s="9" t="inlineStr">
+      <c r="BO1" s="9" t="inlineStr">
         <is>
           <t>ch-geospatial</t>
         </is>
       </c>
-      <c r="BS1" s="9" t="inlineStr">
+      <c r="BP1" s="9" t="inlineStr">
         <is>
           <t>ch-fisa</t>
         </is>
       </c>
-      <c r="BT1" s="9" t="inlineStr">
+      <c r="BQ1" s="9" t="inlineStr">
         <is>
           <t>ch-8usc1367</t>
         </is>
       </c>
-      <c r="BU1" s="9" t="inlineStr">
+      <c r="BR1" s="9" t="inlineStr">
         <is>
           <t>ch-propin</t>
         </is>
       </c>
-      <c r="BV1" s="9" t="inlineStr">
+      <c r="BS1" s="9" t="inlineStr">
         <is>
           <t>ch-immigration</t>
         </is>
       </c>
-      <c r="BW1" s="9" t="inlineStr">
+      <c r="BT1" s="9" t="inlineStr">
         <is>
           <t>ch-criticalInfrastructure</t>
         </is>
       </c>
-      <c r="BX1" s="9" t="inlineStr">
+      <c r="BU1" s="9" t="inlineStr">
         <is>
           <t>ch-disseminationRestrictions</t>
         </is>
       </c>
-      <c r="BY1" s="10" t="inlineStr">
+      <c r="BV1" s="10" t="inlineStr">
         <is>
           <t>hostingLocation</t>
         </is>
       </c>
-      <c r="BZ1" s="15" t="inlineStr">
+      <c r="BW1" s="15" t="inlineStr">
         <is>
           <t>hostedInCloud</t>
         </is>
       </c>
-      <c r="CA1" s="15" t="inlineStr">
+      <c r="BX1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByCreatingComponent</t>
         </is>
       </c>
-      <c r="CB1" s="15" t="inlineStr">
+      <c r="BY1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByAllComponents</t>
         </is>
       </c>
-      <c r="CC1" s="15" t="inlineStr">
+      <c r="BZ1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByGeneralPublic</t>
         </is>
       </c>
-      <c r="CD1" s="11" t="inlineStr">
+      <c r="CA1" s="11" t="inlineStr">
         <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="CE1" s="12" t="inlineStr">
+      <c r="CB1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
         </is>
@@ -1710,37 +1671,37 @@
       <c r="AA2" s="21" t="inlineStr"/>
       <c r="AB2" s="21" t="inlineStr"/>
       <c r="AC2" s="21" t="inlineStr"/>
-      <c r="AD2" s="21" t="inlineStr"/>
-      <c r="AE2" s="22" t="inlineStr"/>
+      <c r="AD2" s="22" t="inlineStr"/>
+      <c r="AE2" s="23" t="inlineStr"/>
       <c r="AF2" s="23" t="inlineStr"/>
       <c r="AG2" s="23" t="inlineStr"/>
       <c r="AH2" s="23" t="inlineStr"/>
-      <c r="AI2" s="23" t="inlineStr"/>
-      <c r="AJ2" s="24" t="inlineStr"/>
-      <c r="AK2" s="25" t="inlineStr"/>
-      <c r="AL2" s="26" t="inlineStr"/>
-      <c r="AM2" s="27" t="inlineStr"/>
-      <c r="AN2" s="28" t="inlineStr"/>
-      <c r="AO2" s="16" t="inlineStr"/>
+      <c r="AI2" s="24" t="inlineStr"/>
+      <c r="AJ2" s="25" t="inlineStr"/>
+      <c r="AK2" s="26" t="inlineStr"/>
+      <c r="AL2" s="27" t="inlineStr"/>
+      <c r="AM2" s="28" t="inlineStr"/>
+      <c r="AN2" s="16" t="inlineStr"/>
+      <c r="AO2" s="17" t="inlineStr"/>
       <c r="AP2" s="17" t="inlineStr"/>
       <c r="AQ2" s="17" t="inlineStr"/>
-      <c r="AR2" s="17" t="inlineStr"/>
-      <c r="AS2" s="17" t="inlineStr"/>
-      <c r="AT2" s="17" t="inlineStr"/>
-      <c r="AU2" s="18" t="inlineStr"/>
+      <c r="AR2" s="18" t="inlineStr"/>
+      <c r="AS2" s="19" t="inlineStr"/>
+      <c r="AT2" s="19" t="inlineStr"/>
+      <c r="AU2" s="19" t="inlineStr"/>
       <c r="AV2" s="19" t="inlineStr"/>
       <c r="AW2" s="19" t="inlineStr"/>
       <c r="AX2" s="19" t="inlineStr"/>
       <c r="AY2" s="19" t="inlineStr"/>
       <c r="AZ2" s="19" t="inlineStr"/>
       <c r="BA2" s="19" t="inlineStr"/>
-      <c r="BB2" s="19" t="inlineStr"/>
-      <c r="BC2" s="19" t="inlineStr"/>
-      <c r="BD2" s="19" t="inlineStr"/>
-      <c r="BE2" s="20" t="inlineStr"/>
-      <c r="BF2" s="21" t="inlineStr"/>
-      <c r="BG2" s="21" t="inlineStr"/>
-      <c r="BH2" s="22" t="inlineStr"/>
+      <c r="BB2" s="20" t="inlineStr"/>
+      <c r="BC2" s="21" t="inlineStr"/>
+      <c r="BD2" s="21" t="inlineStr"/>
+      <c r="BE2" s="22" t="inlineStr"/>
+      <c r="BF2" s="23" t="inlineStr"/>
+      <c r="BG2" s="23" t="inlineStr"/>
+      <c r="BH2" s="23" t="inlineStr"/>
       <c r="BI2" s="23" t="inlineStr"/>
       <c r="BJ2" s="23" t="inlineStr"/>
       <c r="BK2" s="23" t="inlineStr"/>
@@ -1754,16 +1715,13 @@
       <c r="BS2" s="23" t="inlineStr"/>
       <c r="BT2" s="23" t="inlineStr"/>
       <c r="BU2" s="23" t="inlineStr"/>
-      <c r="BV2" s="23" t="inlineStr"/>
-      <c r="BW2" s="23" t="inlineStr"/>
-      <c r="BX2" s="23" t="inlineStr"/>
-      <c r="BY2" s="24" t="inlineStr"/>
+      <c r="BV2" s="24" t="inlineStr"/>
+      <c r="BW2" s="29" t="inlineStr"/>
+      <c r="BX2" s="29" t="inlineStr"/>
+      <c r="BY2" s="29" t="inlineStr"/>
       <c r="BZ2" s="29" t="inlineStr"/>
-      <c r="CA2" s="29" t="inlineStr"/>
-      <c r="CB2" s="29" t="inlineStr"/>
-      <c r="CC2" s="29" t="inlineStr"/>
-      <c r="CD2" s="25" t="inlineStr"/>
-      <c r="CE2" s="26" t="inlineStr"/>
+      <c r="CA2" s="25" t="inlineStr"/>
+      <c r="CB2" s="26" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1795,37 +1753,37 @@
       <c r="AA3" s="21" t="inlineStr"/>
       <c r="AB3" s="21" t="inlineStr"/>
       <c r="AC3" s="21" t="inlineStr"/>
-      <c r="AD3" s="21" t="inlineStr"/>
-      <c r="AE3" s="22" t="inlineStr"/>
+      <c r="AD3" s="22" t="inlineStr"/>
+      <c r="AE3" s="23" t="inlineStr"/>
       <c r="AF3" s="23" t="inlineStr"/>
       <c r="AG3" s="23" t="inlineStr"/>
       <c r="AH3" s="23" t="inlineStr"/>
-      <c r="AI3" s="23" t="inlineStr"/>
-      <c r="AJ3" s="24" t="inlineStr"/>
-      <c r="AK3" s="25" t="inlineStr"/>
-      <c r="AL3" s="26" t="inlineStr"/>
-      <c r="AM3" s="27" t="inlineStr"/>
-      <c r="AN3" s="28" t="inlineStr"/>
-      <c r="AO3" s="16" t="inlineStr"/>
+      <c r="AI3" s="24" t="inlineStr"/>
+      <c r="AJ3" s="25" t="inlineStr"/>
+      <c r="AK3" s="26" t="inlineStr"/>
+      <c r="AL3" s="27" t="inlineStr"/>
+      <c r="AM3" s="28" t="inlineStr"/>
+      <c r="AN3" s="16" t="inlineStr"/>
+      <c r="AO3" s="17" t="inlineStr"/>
       <c r="AP3" s="17" t="inlineStr"/>
       <c r="AQ3" s="17" t="inlineStr"/>
-      <c r="AR3" s="17" t="inlineStr"/>
-      <c r="AS3" s="17" t="inlineStr"/>
-      <c r="AT3" s="17" t="inlineStr"/>
-      <c r="AU3" s="18" t="inlineStr"/>
+      <c r="AR3" s="18" t="inlineStr"/>
+      <c r="AS3" s="19" t="inlineStr"/>
+      <c r="AT3" s="19" t="inlineStr"/>
+      <c r="AU3" s="19" t="inlineStr"/>
       <c r="AV3" s="19" t="inlineStr"/>
       <c r="AW3" s="19" t="inlineStr"/>
       <c r="AX3" s="19" t="inlineStr"/>
       <c r="AY3" s="19" t="inlineStr"/>
       <c r="AZ3" s="19" t="inlineStr"/>
       <c r="BA3" s="19" t="inlineStr"/>
-      <c r="BB3" s="19" t="inlineStr"/>
-      <c r="BC3" s="19" t="inlineStr"/>
-      <c r="BD3" s="19" t="inlineStr"/>
-      <c r="BE3" s="20" t="inlineStr"/>
-      <c r="BF3" s="21" t="inlineStr"/>
-      <c r="BG3" s="21" t="inlineStr"/>
-      <c r="BH3" s="22" t="inlineStr"/>
+      <c r="BB3" s="20" t="inlineStr"/>
+      <c r="BC3" s="21" t="inlineStr"/>
+      <c r="BD3" s="21" t="inlineStr"/>
+      <c r="BE3" s="22" t="inlineStr"/>
+      <c r="BF3" s="23" t="inlineStr"/>
+      <c r="BG3" s="23" t="inlineStr"/>
+      <c r="BH3" s="23" t="inlineStr"/>
       <c r="BI3" s="23" t="inlineStr"/>
       <c r="BJ3" s="23" t="inlineStr"/>
       <c r="BK3" s="23" t="inlineStr"/>
@@ -1839,16 +1797,13 @@
       <c r="BS3" s="23" t="inlineStr"/>
       <c r="BT3" s="23" t="inlineStr"/>
       <c r="BU3" s="23" t="inlineStr"/>
-      <c r="BV3" s="23" t="inlineStr"/>
-      <c r="BW3" s="23" t="inlineStr"/>
-      <c r="BX3" s="23" t="inlineStr"/>
-      <c r="BY3" s="24" t="inlineStr"/>
+      <c r="BV3" s="24" t="inlineStr"/>
+      <c r="BW3" s="29" t="inlineStr"/>
+      <c r="BX3" s="29" t="inlineStr"/>
+      <c r="BY3" s="29" t="inlineStr"/>
       <c r="BZ3" s="29" t="inlineStr"/>
-      <c r="CA3" s="29" t="inlineStr"/>
-      <c r="CB3" s="29" t="inlineStr"/>
-      <c r="CC3" s="29" t="inlineStr"/>
-      <c r="CD3" s="25" t="inlineStr"/>
-      <c r="CE3" s="26" t="inlineStr"/>
+      <c r="CA3" s="25" t="inlineStr"/>
+      <c r="CB3" s="26" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1880,37 +1835,37 @@
       <c r="AA4" s="21" t="inlineStr"/>
       <c r="AB4" s="21" t="inlineStr"/>
       <c r="AC4" s="21" t="inlineStr"/>
-      <c r="AD4" s="21" t="inlineStr"/>
-      <c r="AE4" s="22" t="inlineStr"/>
+      <c r="AD4" s="22" t="inlineStr"/>
+      <c r="AE4" s="23" t="inlineStr"/>
       <c r="AF4" s="23" t="inlineStr"/>
       <c r="AG4" s="23" t="inlineStr"/>
       <c r="AH4" s="23" t="inlineStr"/>
-      <c r="AI4" s="23" t="inlineStr"/>
-      <c r="AJ4" s="24" t="inlineStr"/>
-      <c r="AK4" s="25" t="inlineStr"/>
-      <c r="AL4" s="26" t="inlineStr"/>
-      <c r="AM4" s="27" t="inlineStr"/>
-      <c r="AN4" s="28" t="inlineStr"/>
-      <c r="AO4" s="16" t="inlineStr"/>
+      <c r="AI4" s="24" t="inlineStr"/>
+      <c r="AJ4" s="25" t="inlineStr"/>
+      <c r="AK4" s="26" t="inlineStr"/>
+      <c r="AL4" s="27" t="inlineStr"/>
+      <c r="AM4" s="28" t="inlineStr"/>
+      <c r="AN4" s="16" t="inlineStr"/>
+      <c r="AO4" s="17" t="inlineStr"/>
       <c r="AP4" s="17" t="inlineStr"/>
       <c r="AQ4" s="17" t="inlineStr"/>
-      <c r="AR4" s="17" t="inlineStr"/>
-      <c r="AS4" s="17" t="inlineStr"/>
-      <c r="AT4" s="17" t="inlineStr"/>
-      <c r="AU4" s="18" t="inlineStr"/>
+      <c r="AR4" s="18" t="inlineStr"/>
+      <c r="AS4" s="19" t="inlineStr"/>
+      <c r="AT4" s="19" t="inlineStr"/>
+      <c r="AU4" s="19" t="inlineStr"/>
       <c r="AV4" s="19" t="inlineStr"/>
       <c r="AW4" s="19" t="inlineStr"/>
       <c r="AX4" s="19" t="inlineStr"/>
       <c r="AY4" s="19" t="inlineStr"/>
       <c r="AZ4" s="19" t="inlineStr"/>
       <c r="BA4" s="19" t="inlineStr"/>
-      <c r="BB4" s="19" t="inlineStr"/>
-      <c r="BC4" s="19" t="inlineStr"/>
-      <c r="BD4" s="19" t="inlineStr"/>
-      <c r="BE4" s="20" t="inlineStr"/>
-      <c r="BF4" s="21" t="inlineStr"/>
-      <c r="BG4" s="21" t="inlineStr"/>
-      <c r="BH4" s="22" t="inlineStr"/>
+      <c r="BB4" s="20" t="inlineStr"/>
+      <c r="BC4" s="21" t="inlineStr"/>
+      <c r="BD4" s="21" t="inlineStr"/>
+      <c r="BE4" s="22" t="inlineStr"/>
+      <c r="BF4" s="23" t="inlineStr"/>
+      <c r="BG4" s="23" t="inlineStr"/>
+      <c r="BH4" s="23" t="inlineStr"/>
       <c r="BI4" s="23" t="inlineStr"/>
       <c r="BJ4" s="23" t="inlineStr"/>
       <c r="BK4" s="23" t="inlineStr"/>
@@ -1924,16 +1879,13 @@
       <c r="BS4" s="23" t="inlineStr"/>
       <c r="BT4" s="23" t="inlineStr"/>
       <c r="BU4" s="23" t="inlineStr"/>
-      <c r="BV4" s="23" t="inlineStr"/>
-      <c r="BW4" s="23" t="inlineStr"/>
-      <c r="BX4" s="23" t="inlineStr"/>
-      <c r="BY4" s="24" t="inlineStr"/>
+      <c r="BV4" s="24" t="inlineStr"/>
+      <c r="BW4" s="29" t="inlineStr"/>
+      <c r="BX4" s="29" t="inlineStr"/>
+      <c r="BY4" s="29" t="inlineStr"/>
       <c r="BZ4" s="29" t="inlineStr"/>
-      <c r="CA4" s="29" t="inlineStr"/>
-      <c r="CB4" s="29" t="inlineStr"/>
-      <c r="CC4" s="29" t="inlineStr"/>
-      <c r="CD4" s="25" t="inlineStr"/>
-      <c r="CE4" s="26" t="inlineStr"/>
+      <c r="CA4" s="25" t="inlineStr"/>
+      <c r="CB4" s="26" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -1965,37 +1917,37 @@
       <c r="AA5" s="21" t="inlineStr"/>
       <c r="AB5" s="21" t="inlineStr"/>
       <c r="AC5" s="21" t="inlineStr"/>
-      <c r="AD5" s="21" t="inlineStr"/>
-      <c r="AE5" s="22" t="inlineStr"/>
+      <c r="AD5" s="22" t="inlineStr"/>
+      <c r="AE5" s="23" t="inlineStr"/>
       <c r="AF5" s="23" t="inlineStr"/>
       <c r="AG5" s="23" t="inlineStr"/>
       <c r="AH5" s="23" t="inlineStr"/>
-      <c r="AI5" s="23" t="inlineStr"/>
-      <c r="AJ5" s="24" t="inlineStr"/>
-      <c r="AK5" s="25" t="inlineStr"/>
-      <c r="AL5" s="26" t="inlineStr"/>
-      <c r="AM5" s="27" t="inlineStr"/>
-      <c r="AN5" s="28" t="inlineStr"/>
-      <c r="AO5" s="16" t="inlineStr"/>
+      <c r="AI5" s="24" t="inlineStr"/>
+      <c r="AJ5" s="25" t="inlineStr"/>
+      <c r="AK5" s="26" t="inlineStr"/>
+      <c r="AL5" s="27" t="inlineStr"/>
+      <c r="AM5" s="28" t="inlineStr"/>
+      <c r="AN5" s="16" t="inlineStr"/>
+      <c r="AO5" s="17" t="inlineStr"/>
       <c r="AP5" s="17" t="inlineStr"/>
       <c r="AQ5" s="17" t="inlineStr"/>
-      <c r="AR5" s="17" t="inlineStr"/>
-      <c r="AS5" s="17" t="inlineStr"/>
-      <c r="AT5" s="17" t="inlineStr"/>
-      <c r="AU5" s="18" t="inlineStr"/>
+      <c r="AR5" s="18" t="inlineStr"/>
+      <c r="AS5" s="19" t="inlineStr"/>
+      <c r="AT5" s="19" t="inlineStr"/>
+      <c r="AU5" s="19" t="inlineStr"/>
       <c r="AV5" s="19" t="inlineStr"/>
       <c r="AW5" s="19" t="inlineStr"/>
       <c r="AX5" s="19" t="inlineStr"/>
       <c r="AY5" s="19" t="inlineStr"/>
       <c r="AZ5" s="19" t="inlineStr"/>
       <c r="BA5" s="19" t="inlineStr"/>
-      <c r="BB5" s="19" t="inlineStr"/>
-      <c r="BC5" s="19" t="inlineStr"/>
-      <c r="BD5" s="19" t="inlineStr"/>
-      <c r="BE5" s="20" t="inlineStr"/>
-      <c r="BF5" s="21" t="inlineStr"/>
-      <c r="BG5" s="21" t="inlineStr"/>
-      <c r="BH5" s="22" t="inlineStr"/>
+      <c r="BB5" s="20" t="inlineStr"/>
+      <c r="BC5" s="21" t="inlineStr"/>
+      <c r="BD5" s="21" t="inlineStr"/>
+      <c r="BE5" s="22" t="inlineStr"/>
+      <c r="BF5" s="23" t="inlineStr"/>
+      <c r="BG5" s="23" t="inlineStr"/>
+      <c r="BH5" s="23" t="inlineStr"/>
       <c r="BI5" s="23" t="inlineStr"/>
       <c r="BJ5" s="23" t="inlineStr"/>
       <c r="BK5" s="23" t="inlineStr"/>
@@ -2009,16 +1961,13 @@
       <c r="BS5" s="23" t="inlineStr"/>
       <c r="BT5" s="23" t="inlineStr"/>
       <c r="BU5" s="23" t="inlineStr"/>
-      <c r="BV5" s="23" t="inlineStr"/>
-      <c r="BW5" s="23" t="inlineStr"/>
-      <c r="BX5" s="23" t="inlineStr"/>
-      <c r="BY5" s="24" t="inlineStr"/>
+      <c r="BV5" s="24" t="inlineStr"/>
+      <c r="BW5" s="29" t="inlineStr"/>
+      <c r="BX5" s="29" t="inlineStr"/>
+      <c r="BY5" s="29" t="inlineStr"/>
       <c r="BZ5" s="29" t="inlineStr"/>
-      <c r="CA5" s="29" t="inlineStr"/>
-      <c r="CB5" s="29" t="inlineStr"/>
-      <c r="CC5" s="29" t="inlineStr"/>
-      <c r="CD5" s="25" t="inlineStr"/>
-      <c r="CE5" s="26" t="inlineStr"/>
+      <c r="CA5" s="25" t="inlineStr"/>
+      <c r="CB5" s="26" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2050,37 +1999,37 @@
       <c r="AA6" s="21" t="inlineStr"/>
       <c r="AB6" s="21" t="inlineStr"/>
       <c r="AC6" s="21" t="inlineStr"/>
-      <c r="AD6" s="21" t="inlineStr"/>
-      <c r="AE6" s="22" t="inlineStr"/>
+      <c r="AD6" s="22" t="inlineStr"/>
+      <c r="AE6" s="23" t="inlineStr"/>
       <c r="AF6" s="23" t="inlineStr"/>
       <c r="AG6" s="23" t="inlineStr"/>
       <c r="AH6" s="23" t="inlineStr"/>
-      <c r="AI6" s="23" t="inlineStr"/>
-      <c r="AJ6" s="24" t="inlineStr"/>
-      <c r="AK6" s="25" t="inlineStr"/>
-      <c r="AL6" s="26" t="inlineStr"/>
-      <c r="AM6" s="27" t="inlineStr"/>
-      <c r="AN6" s="28" t="inlineStr"/>
-      <c r="AO6" s="16" t="inlineStr"/>
+      <c r="AI6" s="24" t="inlineStr"/>
+      <c r="AJ6" s="25" t="inlineStr"/>
+      <c r="AK6" s="26" t="inlineStr"/>
+      <c r="AL6" s="27" t="inlineStr"/>
+      <c r="AM6" s="28" t="inlineStr"/>
+      <c r="AN6" s="16" t="inlineStr"/>
+      <c r="AO6" s="17" t="inlineStr"/>
       <c r="AP6" s="17" t="inlineStr"/>
       <c r="AQ6" s="17" t="inlineStr"/>
-      <c r="AR6" s="17" t="inlineStr"/>
-      <c r="AS6" s="17" t="inlineStr"/>
-      <c r="AT6" s="17" t="inlineStr"/>
-      <c r="AU6" s="18" t="inlineStr"/>
+      <c r="AR6" s="18" t="inlineStr"/>
+      <c r="AS6" s="19" t="inlineStr"/>
+      <c r="AT6" s="19" t="inlineStr"/>
+      <c r="AU6" s="19" t="inlineStr"/>
       <c r="AV6" s="19" t="inlineStr"/>
       <c r="AW6" s="19" t="inlineStr"/>
       <c r="AX6" s="19" t="inlineStr"/>
       <c r="AY6" s="19" t="inlineStr"/>
       <c r="AZ6" s="19" t="inlineStr"/>
       <c r="BA6" s="19" t="inlineStr"/>
-      <c r="BB6" s="19" t="inlineStr"/>
-      <c r="BC6" s="19" t="inlineStr"/>
-      <c r="BD6" s="19" t="inlineStr"/>
-      <c r="BE6" s="20" t="inlineStr"/>
-      <c r="BF6" s="21" t="inlineStr"/>
-      <c r="BG6" s="21" t="inlineStr"/>
-      <c r="BH6" s="22" t="inlineStr"/>
+      <c r="BB6" s="20" t="inlineStr"/>
+      <c r="BC6" s="21" t="inlineStr"/>
+      <c r="BD6" s="21" t="inlineStr"/>
+      <c r="BE6" s="22" t="inlineStr"/>
+      <c r="BF6" s="23" t="inlineStr"/>
+      <c r="BG6" s="23" t="inlineStr"/>
+      <c r="BH6" s="23" t="inlineStr"/>
       <c r="BI6" s="23" t="inlineStr"/>
       <c r="BJ6" s="23" t="inlineStr"/>
       <c r="BK6" s="23" t="inlineStr"/>
@@ -2094,16 +2043,13 @@
       <c r="BS6" s="23" t="inlineStr"/>
       <c r="BT6" s="23" t="inlineStr"/>
       <c r="BU6" s="23" t="inlineStr"/>
-      <c r="BV6" s="23" t="inlineStr"/>
-      <c r="BW6" s="23" t="inlineStr"/>
-      <c r="BX6" s="23" t="inlineStr"/>
-      <c r="BY6" s="24" t="inlineStr"/>
+      <c r="BV6" s="24" t="inlineStr"/>
+      <c r="BW6" s="29" t="inlineStr"/>
+      <c r="BX6" s="29" t="inlineStr"/>
+      <c r="BY6" s="29" t="inlineStr"/>
       <c r="BZ6" s="29" t="inlineStr"/>
-      <c r="CA6" s="29" t="inlineStr"/>
-      <c r="CB6" s="29" t="inlineStr"/>
-      <c r="CC6" s="29" t="inlineStr"/>
-      <c r="CD6" s="25" t="inlineStr"/>
-      <c r="CE6" s="26" t="inlineStr"/>
+      <c r="CA6" s="25" t="inlineStr"/>
+      <c r="CB6" s="26" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2135,37 +2081,37 @@
       <c r="AA7" s="21" t="inlineStr"/>
       <c r="AB7" s="21" t="inlineStr"/>
       <c r="AC7" s="21" t="inlineStr"/>
-      <c r="AD7" s="21" t="inlineStr"/>
-      <c r="AE7" s="22" t="inlineStr"/>
+      <c r="AD7" s="22" t="inlineStr"/>
+      <c r="AE7" s="23" t="inlineStr"/>
       <c r="AF7" s="23" t="inlineStr"/>
       <c r="AG7" s="23" t="inlineStr"/>
       <c r="AH7" s="23" t="inlineStr"/>
-      <c r="AI7" s="23" t="inlineStr"/>
-      <c r="AJ7" s="24" t="inlineStr"/>
-      <c r="AK7" s="25" t="inlineStr"/>
-      <c r="AL7" s="26" t="inlineStr"/>
-      <c r="AM7" s="27" t="inlineStr"/>
-      <c r="AN7" s="28" t="inlineStr"/>
-      <c r="AO7" s="16" t="inlineStr"/>
+      <c r="AI7" s="24" t="inlineStr"/>
+      <c r="AJ7" s="25" t="inlineStr"/>
+      <c r="AK7" s="26" t="inlineStr"/>
+      <c r="AL7" s="27" t="inlineStr"/>
+      <c r="AM7" s="28" t="inlineStr"/>
+      <c r="AN7" s="16" t="inlineStr"/>
+      <c r="AO7" s="17" t="inlineStr"/>
       <c r="AP7" s="17" t="inlineStr"/>
       <c r="AQ7" s="17" t="inlineStr"/>
-      <c r="AR7" s="17" t="inlineStr"/>
-      <c r="AS7" s="17" t="inlineStr"/>
-      <c r="AT7" s="17" t="inlineStr"/>
-      <c r="AU7" s="18" t="inlineStr"/>
+      <c r="AR7" s="18" t="inlineStr"/>
+      <c r="AS7" s="19" t="inlineStr"/>
+      <c r="AT7" s="19" t="inlineStr"/>
+      <c r="AU7" s="19" t="inlineStr"/>
       <c r="AV7" s="19" t="inlineStr"/>
       <c r="AW7" s="19" t="inlineStr"/>
       <c r="AX7" s="19" t="inlineStr"/>
       <c r="AY7" s="19" t="inlineStr"/>
       <c r="AZ7" s="19" t="inlineStr"/>
       <c r="BA7" s="19" t="inlineStr"/>
-      <c r="BB7" s="19" t="inlineStr"/>
-      <c r="BC7" s="19" t="inlineStr"/>
-      <c r="BD7" s="19" t="inlineStr"/>
-      <c r="BE7" s="20" t="inlineStr"/>
-      <c r="BF7" s="21" t="inlineStr"/>
-      <c r="BG7" s="21" t="inlineStr"/>
-      <c r="BH7" s="22" t="inlineStr"/>
+      <c r="BB7" s="20" t="inlineStr"/>
+      <c r="BC7" s="21" t="inlineStr"/>
+      <c r="BD7" s="21" t="inlineStr"/>
+      <c r="BE7" s="22" t="inlineStr"/>
+      <c r="BF7" s="23" t="inlineStr"/>
+      <c r="BG7" s="23" t="inlineStr"/>
+      <c r="BH7" s="23" t="inlineStr"/>
       <c r="BI7" s="23" t="inlineStr"/>
       <c r="BJ7" s="23" t="inlineStr"/>
       <c r="BK7" s="23" t="inlineStr"/>
@@ -2179,16 +2125,13 @@
       <c r="BS7" s="23" t="inlineStr"/>
       <c r="BT7" s="23" t="inlineStr"/>
       <c r="BU7" s="23" t="inlineStr"/>
-      <c r="BV7" s="23" t="inlineStr"/>
-      <c r="BW7" s="23" t="inlineStr"/>
-      <c r="BX7" s="23" t="inlineStr"/>
-      <c r="BY7" s="24" t="inlineStr"/>
+      <c r="BV7" s="24" t="inlineStr"/>
+      <c r="BW7" s="29" t="inlineStr"/>
+      <c r="BX7" s="29" t="inlineStr"/>
+      <c r="BY7" s="29" t="inlineStr"/>
       <c r="BZ7" s="29" t="inlineStr"/>
-      <c r="CA7" s="29" t="inlineStr"/>
-      <c r="CB7" s="29" t="inlineStr"/>
-      <c r="CC7" s="29" t="inlineStr"/>
-      <c r="CD7" s="25" t="inlineStr"/>
-      <c r="CE7" s="26" t="inlineStr"/>
+      <c r="CA7" s="25" t="inlineStr"/>
+      <c r="CB7" s="26" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2220,37 +2163,37 @@
       <c r="AA8" s="21" t="inlineStr"/>
       <c r="AB8" s="21" t="inlineStr"/>
       <c r="AC8" s="21" t="inlineStr"/>
-      <c r="AD8" s="21" t="inlineStr"/>
-      <c r="AE8" s="22" t="inlineStr"/>
+      <c r="AD8" s="22" t="inlineStr"/>
+      <c r="AE8" s="23" t="inlineStr"/>
       <c r="AF8" s="23" t="inlineStr"/>
       <c r="AG8" s="23" t="inlineStr"/>
       <c r="AH8" s="23" t="inlineStr"/>
-      <c r="AI8" s="23" t="inlineStr"/>
-      <c r="AJ8" s="24" t="inlineStr"/>
-      <c r="AK8" s="25" t="inlineStr"/>
-      <c r="AL8" s="26" t="inlineStr"/>
-      <c r="AM8" s="27" t="inlineStr"/>
-      <c r="AN8" s="28" t="inlineStr"/>
-      <c r="AO8" s="16" t="inlineStr"/>
+      <c r="AI8" s="24" t="inlineStr"/>
+      <c r="AJ8" s="25" t="inlineStr"/>
+      <c r="AK8" s="26" t="inlineStr"/>
+      <c r="AL8" s="27" t="inlineStr"/>
+      <c r="AM8" s="28" t="inlineStr"/>
+      <c r="AN8" s="16" t="inlineStr"/>
+      <c r="AO8" s="17" t="inlineStr"/>
       <c r="AP8" s="17" t="inlineStr"/>
       <c r="AQ8" s="17" t="inlineStr"/>
-      <c r="AR8" s="17" t="inlineStr"/>
-      <c r="AS8" s="17" t="inlineStr"/>
-      <c r="AT8" s="17" t="inlineStr"/>
-      <c r="AU8" s="18" t="inlineStr"/>
+      <c r="AR8" s="18" t="inlineStr"/>
+      <c r="AS8" s="19" t="inlineStr"/>
+      <c r="AT8" s="19" t="inlineStr"/>
+      <c r="AU8" s="19" t="inlineStr"/>
       <c r="AV8" s="19" t="inlineStr"/>
       <c r="AW8" s="19" t="inlineStr"/>
       <c r="AX8" s="19" t="inlineStr"/>
       <c r="AY8" s="19" t="inlineStr"/>
       <c r="AZ8" s="19" t="inlineStr"/>
       <c r="BA8" s="19" t="inlineStr"/>
-      <c r="BB8" s="19" t="inlineStr"/>
-      <c r="BC8" s="19" t="inlineStr"/>
-      <c r="BD8" s="19" t="inlineStr"/>
-      <c r="BE8" s="20" t="inlineStr"/>
-      <c r="BF8" s="21" t="inlineStr"/>
-      <c r="BG8" s="21" t="inlineStr"/>
-      <c r="BH8" s="22" t="inlineStr"/>
+      <c r="BB8" s="20" t="inlineStr"/>
+      <c r="BC8" s="21" t="inlineStr"/>
+      <c r="BD8" s="21" t="inlineStr"/>
+      <c r="BE8" s="22" t="inlineStr"/>
+      <c r="BF8" s="23" t="inlineStr"/>
+      <c r="BG8" s="23" t="inlineStr"/>
+      <c r="BH8" s="23" t="inlineStr"/>
       <c r="BI8" s="23" t="inlineStr"/>
       <c r="BJ8" s="23" t="inlineStr"/>
       <c r="BK8" s="23" t="inlineStr"/>
@@ -2264,16 +2207,13 @@
       <c r="BS8" s="23" t="inlineStr"/>
       <c r="BT8" s="23" t="inlineStr"/>
       <c r="BU8" s="23" t="inlineStr"/>
-      <c r="BV8" s="23" t="inlineStr"/>
-      <c r="BW8" s="23" t="inlineStr"/>
-      <c r="BX8" s="23" t="inlineStr"/>
-      <c r="BY8" s="24" t="inlineStr"/>
+      <c r="BV8" s="24" t="inlineStr"/>
+      <c r="BW8" s="29" t="inlineStr"/>
+      <c r="BX8" s="29" t="inlineStr"/>
+      <c r="BY8" s="29" t="inlineStr"/>
       <c r="BZ8" s="29" t="inlineStr"/>
-      <c r="CA8" s="29" t="inlineStr"/>
-      <c r="CB8" s="29" t="inlineStr"/>
-      <c r="CC8" s="29" t="inlineStr"/>
-      <c r="CD8" s="25" t="inlineStr"/>
-      <c r="CE8" s="26" t="inlineStr"/>
+      <c r="CA8" s="25" t="inlineStr"/>
+      <c r="CB8" s="26" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2305,37 +2245,37 @@
       <c r="AA9" s="21" t="inlineStr"/>
       <c r="AB9" s="21" t="inlineStr"/>
       <c r="AC9" s="21" t="inlineStr"/>
-      <c r="AD9" s="21" t="inlineStr"/>
-      <c r="AE9" s="22" t="inlineStr"/>
+      <c r="AD9" s="22" t="inlineStr"/>
+      <c r="AE9" s="23" t="inlineStr"/>
       <c r="AF9" s="23" t="inlineStr"/>
       <c r="AG9" s="23" t="inlineStr"/>
       <c r="AH9" s="23" t="inlineStr"/>
-      <c r="AI9" s="23" t="inlineStr"/>
-      <c r="AJ9" s="24" t="inlineStr"/>
-      <c r="AK9" s="25" t="inlineStr"/>
-      <c r="AL9" s="26" t="inlineStr"/>
-      <c r="AM9" s="27" t="inlineStr"/>
-      <c r="AN9" s="28" t="inlineStr"/>
-      <c r="AO9" s="16" t="inlineStr"/>
+      <c r="AI9" s="24" t="inlineStr"/>
+      <c r="AJ9" s="25" t="inlineStr"/>
+      <c r="AK9" s="26" t="inlineStr"/>
+      <c r="AL9" s="27" t="inlineStr"/>
+      <c r="AM9" s="28" t="inlineStr"/>
+      <c r="AN9" s="16" t="inlineStr"/>
+      <c r="AO9" s="17" t="inlineStr"/>
       <c r="AP9" s="17" t="inlineStr"/>
       <c r="AQ9" s="17" t="inlineStr"/>
-      <c r="AR9" s="17" t="inlineStr"/>
-      <c r="AS9" s="17" t="inlineStr"/>
-      <c r="AT9" s="17" t="inlineStr"/>
-      <c r="AU9" s="18" t="inlineStr"/>
+      <c r="AR9" s="18" t="inlineStr"/>
+      <c r="AS9" s="19" t="inlineStr"/>
+      <c r="AT9" s="19" t="inlineStr"/>
+      <c r="AU9" s="19" t="inlineStr"/>
       <c r="AV9" s="19" t="inlineStr"/>
       <c r="AW9" s="19" t="inlineStr"/>
       <c r="AX9" s="19" t="inlineStr"/>
       <c r="AY9" s="19" t="inlineStr"/>
       <c r="AZ9" s="19" t="inlineStr"/>
       <c r="BA9" s="19" t="inlineStr"/>
-      <c r="BB9" s="19" t="inlineStr"/>
-      <c r="BC9" s="19" t="inlineStr"/>
-      <c r="BD9" s="19" t="inlineStr"/>
-      <c r="BE9" s="20" t="inlineStr"/>
-      <c r="BF9" s="21" t="inlineStr"/>
-      <c r="BG9" s="21" t="inlineStr"/>
-      <c r="BH9" s="22" t="inlineStr"/>
+      <c r="BB9" s="20" t="inlineStr"/>
+      <c r="BC9" s="21" t="inlineStr"/>
+      <c r="BD9" s="21" t="inlineStr"/>
+      <c r="BE9" s="22" t="inlineStr"/>
+      <c r="BF9" s="23" t="inlineStr"/>
+      <c r="BG9" s="23" t="inlineStr"/>
+      <c r="BH9" s="23" t="inlineStr"/>
       <c r="BI9" s="23" t="inlineStr"/>
       <c r="BJ9" s="23" t="inlineStr"/>
       <c r="BK9" s="23" t="inlineStr"/>
@@ -2349,16 +2289,13 @@
       <c r="BS9" s="23" t="inlineStr"/>
       <c r="BT9" s="23" t="inlineStr"/>
       <c r="BU9" s="23" t="inlineStr"/>
-      <c r="BV9" s="23" t="inlineStr"/>
-      <c r="BW9" s="23" t="inlineStr"/>
-      <c r="BX9" s="23" t="inlineStr"/>
-      <c r="BY9" s="24" t="inlineStr"/>
+      <c r="BV9" s="24" t="inlineStr"/>
+      <c r="BW9" s="29" t="inlineStr"/>
+      <c r="BX9" s="29" t="inlineStr"/>
+      <c r="BY9" s="29" t="inlineStr"/>
       <c r="BZ9" s="29" t="inlineStr"/>
-      <c r="CA9" s="29" t="inlineStr"/>
-      <c r="CB9" s="29" t="inlineStr"/>
-      <c r="CC9" s="29" t="inlineStr"/>
-      <c r="CD9" s="25" t="inlineStr"/>
-      <c r="CE9" s="26" t="inlineStr"/>
+      <c r="CA9" s="25" t="inlineStr"/>
+      <c r="CB9" s="26" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2390,37 +2327,37 @@
       <c r="AA10" s="21" t="inlineStr"/>
       <c r="AB10" s="21" t="inlineStr"/>
       <c r="AC10" s="21" t="inlineStr"/>
-      <c r="AD10" s="21" t="inlineStr"/>
-      <c r="AE10" s="22" t="inlineStr"/>
+      <c r="AD10" s="22" t="inlineStr"/>
+      <c r="AE10" s="23" t="inlineStr"/>
       <c r="AF10" s="23" t="inlineStr"/>
       <c r="AG10" s="23" t="inlineStr"/>
       <c r="AH10" s="23" t="inlineStr"/>
-      <c r="AI10" s="23" t="inlineStr"/>
-      <c r="AJ10" s="24" t="inlineStr"/>
-      <c r="AK10" s="25" t="inlineStr"/>
-      <c r="AL10" s="26" t="inlineStr"/>
-      <c r="AM10" s="27" t="inlineStr"/>
-      <c r="AN10" s="28" t="inlineStr"/>
-      <c r="AO10" s="16" t="inlineStr"/>
+      <c r="AI10" s="24" t="inlineStr"/>
+      <c r="AJ10" s="25" t="inlineStr"/>
+      <c r="AK10" s="26" t="inlineStr"/>
+      <c r="AL10" s="27" t="inlineStr"/>
+      <c r="AM10" s="28" t="inlineStr"/>
+      <c r="AN10" s="16" t="inlineStr"/>
+      <c r="AO10" s="17" t="inlineStr"/>
       <c r="AP10" s="17" t="inlineStr"/>
       <c r="AQ10" s="17" t="inlineStr"/>
-      <c r="AR10" s="17" t="inlineStr"/>
-      <c r="AS10" s="17" t="inlineStr"/>
-      <c r="AT10" s="17" t="inlineStr"/>
-      <c r="AU10" s="18" t="inlineStr"/>
+      <c r="AR10" s="18" t="inlineStr"/>
+      <c r="AS10" s="19" t="inlineStr"/>
+      <c r="AT10" s="19" t="inlineStr"/>
+      <c r="AU10" s="19" t="inlineStr"/>
       <c r="AV10" s="19" t="inlineStr"/>
       <c r="AW10" s="19" t="inlineStr"/>
       <c r="AX10" s="19" t="inlineStr"/>
       <c r="AY10" s="19" t="inlineStr"/>
       <c r="AZ10" s="19" t="inlineStr"/>
       <c r="BA10" s="19" t="inlineStr"/>
-      <c r="BB10" s="19" t="inlineStr"/>
-      <c r="BC10" s="19" t="inlineStr"/>
-      <c r="BD10" s="19" t="inlineStr"/>
-      <c r="BE10" s="20" t="inlineStr"/>
-      <c r="BF10" s="21" t="inlineStr"/>
-      <c r="BG10" s="21" t="inlineStr"/>
-      <c r="BH10" s="22" t="inlineStr"/>
+      <c r="BB10" s="20" t="inlineStr"/>
+      <c r="BC10" s="21" t="inlineStr"/>
+      <c r="BD10" s="21" t="inlineStr"/>
+      <c r="BE10" s="22" t="inlineStr"/>
+      <c r="BF10" s="23" t="inlineStr"/>
+      <c r="BG10" s="23" t="inlineStr"/>
+      <c r="BH10" s="23" t="inlineStr"/>
       <c r="BI10" s="23" t="inlineStr"/>
       <c r="BJ10" s="23" t="inlineStr"/>
       <c r="BK10" s="23" t="inlineStr"/>
@@ -2434,16 +2371,13 @@
       <c r="BS10" s="23" t="inlineStr"/>
       <c r="BT10" s="23" t="inlineStr"/>
       <c r="BU10" s="23" t="inlineStr"/>
-      <c r="BV10" s="23" t="inlineStr"/>
-      <c r="BW10" s="23" t="inlineStr"/>
-      <c r="BX10" s="23" t="inlineStr"/>
-      <c r="BY10" s="24" t="inlineStr"/>
+      <c r="BV10" s="24" t="inlineStr"/>
+      <c r="BW10" s="29" t="inlineStr"/>
+      <c r="BX10" s="29" t="inlineStr"/>
+      <c r="BY10" s="29" t="inlineStr"/>
       <c r="BZ10" s="29" t="inlineStr"/>
-      <c r="CA10" s="29" t="inlineStr"/>
-      <c r="CB10" s="29" t="inlineStr"/>
-      <c r="CC10" s="29" t="inlineStr"/>
-      <c r="CD10" s="25" t="inlineStr"/>
-      <c r="CE10" s="26" t="inlineStr"/>
+      <c r="CA10" s="25" t="inlineStr"/>
+      <c r="CB10" s="26" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2475,37 +2409,37 @@
       <c r="AA11" s="21" t="inlineStr"/>
       <c r="AB11" s="21" t="inlineStr"/>
       <c r="AC11" s="21" t="inlineStr"/>
-      <c r="AD11" s="21" t="inlineStr"/>
-      <c r="AE11" s="22" t="inlineStr"/>
+      <c r="AD11" s="22" t="inlineStr"/>
+      <c r="AE11" s="23" t="inlineStr"/>
       <c r="AF11" s="23" t="inlineStr"/>
       <c r="AG11" s="23" t="inlineStr"/>
       <c r="AH11" s="23" t="inlineStr"/>
-      <c r="AI11" s="23" t="inlineStr"/>
-      <c r="AJ11" s="24" t="inlineStr"/>
-      <c r="AK11" s="25" t="inlineStr"/>
-      <c r="AL11" s="26" t="inlineStr"/>
-      <c r="AM11" s="27" t="inlineStr"/>
-      <c r="AN11" s="28" t="inlineStr"/>
-      <c r="AO11" s="16" t="inlineStr"/>
+      <c r="AI11" s="24" t="inlineStr"/>
+      <c r="AJ11" s="25" t="inlineStr"/>
+      <c r="AK11" s="26" t="inlineStr"/>
+      <c r="AL11" s="27" t="inlineStr"/>
+      <c r="AM11" s="28" t="inlineStr"/>
+      <c r="AN11" s="16" t="inlineStr"/>
+      <c r="AO11" s="17" t="inlineStr"/>
       <c r="AP11" s="17" t="inlineStr"/>
       <c r="AQ11" s="17" t="inlineStr"/>
-      <c r="AR11" s="17" t="inlineStr"/>
-      <c r="AS11" s="17" t="inlineStr"/>
-      <c r="AT11" s="17" t="inlineStr"/>
-      <c r="AU11" s="18" t="inlineStr"/>
+      <c r="AR11" s="18" t="inlineStr"/>
+      <c r="AS11" s="19" t="inlineStr"/>
+      <c r="AT11" s="19" t="inlineStr"/>
+      <c r="AU11" s="19" t="inlineStr"/>
       <c r="AV11" s="19" t="inlineStr"/>
       <c r="AW11" s="19" t="inlineStr"/>
       <c r="AX11" s="19" t="inlineStr"/>
       <c r="AY11" s="19" t="inlineStr"/>
       <c r="AZ11" s="19" t="inlineStr"/>
       <c r="BA11" s="19" t="inlineStr"/>
-      <c r="BB11" s="19" t="inlineStr"/>
-      <c r="BC11" s="19" t="inlineStr"/>
-      <c r="BD11" s="19" t="inlineStr"/>
-      <c r="BE11" s="20" t="inlineStr"/>
-      <c r="BF11" s="21" t="inlineStr"/>
-      <c r="BG11" s="21" t="inlineStr"/>
-      <c r="BH11" s="22" t="inlineStr"/>
+      <c r="BB11" s="20" t="inlineStr"/>
+      <c r="BC11" s="21" t="inlineStr"/>
+      <c r="BD11" s="21" t="inlineStr"/>
+      <c r="BE11" s="22" t="inlineStr"/>
+      <c r="BF11" s="23" t="inlineStr"/>
+      <c r="BG11" s="23" t="inlineStr"/>
+      <c r="BH11" s="23" t="inlineStr"/>
       <c r="BI11" s="23" t="inlineStr"/>
       <c r="BJ11" s="23" t="inlineStr"/>
       <c r="BK11" s="23" t="inlineStr"/>
@@ -2519,16 +2453,13 @@
       <c r="BS11" s="23" t="inlineStr"/>
       <c r="BT11" s="23" t="inlineStr"/>
       <c r="BU11" s="23" t="inlineStr"/>
-      <c r="BV11" s="23" t="inlineStr"/>
-      <c r="BW11" s="23" t="inlineStr"/>
-      <c r="BX11" s="23" t="inlineStr"/>
-      <c r="BY11" s="24" t="inlineStr"/>
+      <c r="BV11" s="24" t="inlineStr"/>
+      <c r="BW11" s="29" t="inlineStr"/>
+      <c r="BX11" s="29" t="inlineStr"/>
+      <c r="BY11" s="29" t="inlineStr"/>
       <c r="BZ11" s="29" t="inlineStr"/>
-      <c r="CA11" s="29" t="inlineStr"/>
-      <c r="CB11" s="29" t="inlineStr"/>
-      <c r="CC11" s="29" t="inlineStr"/>
-      <c r="CD11" s="25" t="inlineStr"/>
-      <c r="CE11" s="26" t="inlineStr"/>
+      <c r="CA11" s="25" t="inlineStr"/>
+      <c r="CB11" s="26" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2560,37 +2491,37 @@
       <c r="AA12" s="21" t="inlineStr"/>
       <c r="AB12" s="21" t="inlineStr"/>
       <c r="AC12" s="21" t="inlineStr"/>
-      <c r="AD12" s="21" t="inlineStr"/>
-      <c r="AE12" s="22" t="inlineStr"/>
+      <c r="AD12" s="22" t="inlineStr"/>
+      <c r="AE12" s="23" t="inlineStr"/>
       <c r="AF12" s="23" t="inlineStr"/>
       <c r="AG12" s="23" t="inlineStr"/>
       <c r="AH12" s="23" t="inlineStr"/>
-      <c r="AI12" s="23" t="inlineStr"/>
-      <c r="AJ12" s="24" t="inlineStr"/>
-      <c r="AK12" s="25" t="inlineStr"/>
-      <c r="AL12" s="26" t="inlineStr"/>
-      <c r="AM12" s="27" t="inlineStr"/>
-      <c r="AN12" s="28" t="inlineStr"/>
-      <c r="AO12" s="16" t="inlineStr"/>
+      <c r="AI12" s="24" t="inlineStr"/>
+      <c r="AJ12" s="25" t="inlineStr"/>
+      <c r="AK12" s="26" t="inlineStr"/>
+      <c r="AL12" s="27" t="inlineStr"/>
+      <c r="AM12" s="28" t="inlineStr"/>
+      <c r="AN12" s="16" t="inlineStr"/>
+      <c r="AO12" s="17" t="inlineStr"/>
       <c r="AP12" s="17" t="inlineStr"/>
       <c r="AQ12" s="17" t="inlineStr"/>
-      <c r="AR12" s="17" t="inlineStr"/>
-      <c r="AS12" s="17" t="inlineStr"/>
-      <c r="AT12" s="17" t="inlineStr"/>
-      <c r="AU12" s="18" t="inlineStr"/>
+      <c r="AR12" s="18" t="inlineStr"/>
+      <c r="AS12" s="19" t="inlineStr"/>
+      <c r="AT12" s="19" t="inlineStr"/>
+      <c r="AU12" s="19" t="inlineStr"/>
       <c r="AV12" s="19" t="inlineStr"/>
       <c r="AW12" s="19" t="inlineStr"/>
       <c r="AX12" s="19" t="inlineStr"/>
       <c r="AY12" s="19" t="inlineStr"/>
       <c r="AZ12" s="19" t="inlineStr"/>
       <c r="BA12" s="19" t="inlineStr"/>
-      <c r="BB12" s="19" t="inlineStr"/>
-      <c r="BC12" s="19" t="inlineStr"/>
-      <c r="BD12" s="19" t="inlineStr"/>
-      <c r="BE12" s="20" t="inlineStr"/>
-      <c r="BF12" s="21" t="inlineStr"/>
-      <c r="BG12" s="21" t="inlineStr"/>
-      <c r="BH12" s="22" t="inlineStr"/>
+      <c r="BB12" s="20" t="inlineStr"/>
+      <c r="BC12" s="21" t="inlineStr"/>
+      <c r="BD12" s="21" t="inlineStr"/>
+      <c r="BE12" s="22" t="inlineStr"/>
+      <c r="BF12" s="23" t="inlineStr"/>
+      <c r="BG12" s="23" t="inlineStr"/>
+      <c r="BH12" s="23" t="inlineStr"/>
       <c r="BI12" s="23" t="inlineStr"/>
       <c r="BJ12" s="23" t="inlineStr"/>
       <c r="BK12" s="23" t="inlineStr"/>
@@ -2604,16 +2535,13 @@
       <c r="BS12" s="23" t="inlineStr"/>
       <c r="BT12" s="23" t="inlineStr"/>
       <c r="BU12" s="23" t="inlineStr"/>
-      <c r="BV12" s="23" t="inlineStr"/>
-      <c r="BW12" s="23" t="inlineStr"/>
-      <c r="BX12" s="23" t="inlineStr"/>
-      <c r="BY12" s="24" t="inlineStr"/>
+      <c r="BV12" s="24" t="inlineStr"/>
+      <c r="BW12" s="29" t="inlineStr"/>
+      <c r="BX12" s="29" t="inlineStr"/>
+      <c r="BY12" s="29" t="inlineStr"/>
       <c r="BZ12" s="29" t="inlineStr"/>
-      <c r="CA12" s="29" t="inlineStr"/>
-      <c r="CB12" s="29" t="inlineStr"/>
-      <c r="CC12" s="29" t="inlineStr"/>
-      <c r="CD12" s="25" t="inlineStr"/>
-      <c r="CE12" s="26" t="inlineStr"/>
+      <c r="CA12" s="25" t="inlineStr"/>
+      <c r="CB12" s="26" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2645,37 +2573,37 @@
       <c r="AA13" s="21" t="inlineStr"/>
       <c r="AB13" s="21" t="inlineStr"/>
       <c r="AC13" s="21" t="inlineStr"/>
-      <c r="AD13" s="21" t="inlineStr"/>
-      <c r="AE13" s="22" t="inlineStr"/>
+      <c r="AD13" s="22" t="inlineStr"/>
+      <c r="AE13" s="23" t="inlineStr"/>
       <c r="AF13" s="23" t="inlineStr"/>
       <c r="AG13" s="23" t="inlineStr"/>
       <c r="AH13" s="23" t="inlineStr"/>
-      <c r="AI13" s="23" t="inlineStr"/>
-      <c r="AJ13" s="24" t="inlineStr"/>
-      <c r="AK13" s="25" t="inlineStr"/>
-      <c r="AL13" s="26" t="inlineStr"/>
-      <c r="AM13" s="27" t="inlineStr"/>
-      <c r="AN13" s="28" t="inlineStr"/>
-      <c r="AO13" s="16" t="inlineStr"/>
+      <c r="AI13" s="24" t="inlineStr"/>
+      <c r="AJ13" s="25" t="inlineStr"/>
+      <c r="AK13" s="26" t="inlineStr"/>
+      <c r="AL13" s="27" t="inlineStr"/>
+      <c r="AM13" s="28" t="inlineStr"/>
+      <c r="AN13" s="16" t="inlineStr"/>
+      <c r="AO13" s="17" t="inlineStr"/>
       <c r="AP13" s="17" t="inlineStr"/>
       <c r="AQ13" s="17" t="inlineStr"/>
-      <c r="AR13" s="17" t="inlineStr"/>
-      <c r="AS13" s="17" t="inlineStr"/>
-      <c r="AT13" s="17" t="inlineStr"/>
-      <c r="AU13" s="18" t="inlineStr"/>
+      <c r="AR13" s="18" t="inlineStr"/>
+      <c r="AS13" s="19" t="inlineStr"/>
+      <c r="AT13" s="19" t="inlineStr"/>
+      <c r="AU13" s="19" t="inlineStr"/>
       <c r="AV13" s="19" t="inlineStr"/>
       <c r="AW13" s="19" t="inlineStr"/>
       <c r="AX13" s="19" t="inlineStr"/>
       <c r="AY13" s="19" t="inlineStr"/>
       <c r="AZ13" s="19" t="inlineStr"/>
       <c r="BA13" s="19" t="inlineStr"/>
-      <c r="BB13" s="19" t="inlineStr"/>
-      <c r="BC13" s="19" t="inlineStr"/>
-      <c r="BD13" s="19" t="inlineStr"/>
-      <c r="BE13" s="20" t="inlineStr"/>
-      <c r="BF13" s="21" t="inlineStr"/>
-      <c r="BG13" s="21" t="inlineStr"/>
-      <c r="BH13" s="22" t="inlineStr"/>
+      <c r="BB13" s="20" t="inlineStr"/>
+      <c r="BC13" s="21" t="inlineStr"/>
+      <c r="BD13" s="21" t="inlineStr"/>
+      <c r="BE13" s="22" t="inlineStr"/>
+      <c r="BF13" s="23" t="inlineStr"/>
+      <c r="BG13" s="23" t="inlineStr"/>
+      <c r="BH13" s="23" t="inlineStr"/>
       <c r="BI13" s="23" t="inlineStr"/>
       <c r="BJ13" s="23" t="inlineStr"/>
       <c r="BK13" s="23" t="inlineStr"/>
@@ -2689,16 +2617,13 @@
       <c r="BS13" s="23" t="inlineStr"/>
       <c r="BT13" s="23" t="inlineStr"/>
       <c r="BU13" s="23" t="inlineStr"/>
-      <c r="BV13" s="23" t="inlineStr"/>
-      <c r="BW13" s="23" t="inlineStr"/>
-      <c r="BX13" s="23" t="inlineStr"/>
-      <c r="BY13" s="24" t="inlineStr"/>
+      <c r="BV13" s="24" t="inlineStr"/>
+      <c r="BW13" s="29" t="inlineStr"/>
+      <c r="BX13" s="29" t="inlineStr"/>
+      <c r="BY13" s="29" t="inlineStr"/>
       <c r="BZ13" s="29" t="inlineStr"/>
-      <c r="CA13" s="29" t="inlineStr"/>
-      <c r="CB13" s="29" t="inlineStr"/>
-      <c r="CC13" s="29" t="inlineStr"/>
-      <c r="CD13" s="25" t="inlineStr"/>
-      <c r="CE13" s="26" t="inlineStr"/>
+      <c r="CA13" s="25" t="inlineStr"/>
+      <c r="CB13" s="26" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2730,37 +2655,37 @@
       <c r="AA14" s="21" t="inlineStr"/>
       <c r="AB14" s="21" t="inlineStr"/>
       <c r="AC14" s="21" t="inlineStr"/>
-      <c r="AD14" s="21" t="inlineStr"/>
-      <c r="AE14" s="22" t="inlineStr"/>
+      <c r="AD14" s="22" t="inlineStr"/>
+      <c r="AE14" s="23" t="inlineStr"/>
       <c r="AF14" s="23" t="inlineStr"/>
       <c r="AG14" s="23" t="inlineStr"/>
       <c r="AH14" s="23" t="inlineStr"/>
-      <c r="AI14" s="23" t="inlineStr"/>
-      <c r="AJ14" s="24" t="inlineStr"/>
-      <c r="AK14" s="25" t="inlineStr"/>
-      <c r="AL14" s="26" t="inlineStr"/>
-      <c r="AM14" s="27" t="inlineStr"/>
-      <c r="AN14" s="28" t="inlineStr"/>
-      <c r="AO14" s="16" t="inlineStr"/>
+      <c r="AI14" s="24" t="inlineStr"/>
+      <c r="AJ14" s="25" t="inlineStr"/>
+      <c r="AK14" s="26" t="inlineStr"/>
+      <c r="AL14" s="27" t="inlineStr"/>
+      <c r="AM14" s="28" t="inlineStr"/>
+      <c r="AN14" s="16" t="inlineStr"/>
+      <c r="AO14" s="17" t="inlineStr"/>
       <c r="AP14" s="17" t="inlineStr"/>
       <c r="AQ14" s="17" t="inlineStr"/>
-      <c r="AR14" s="17" t="inlineStr"/>
-      <c r="AS14" s="17" t="inlineStr"/>
-      <c r="AT14" s="17" t="inlineStr"/>
-      <c r="AU14" s="18" t="inlineStr"/>
+      <c r="AR14" s="18" t="inlineStr"/>
+      <c r="AS14" s="19" t="inlineStr"/>
+      <c r="AT14" s="19" t="inlineStr"/>
+      <c r="AU14" s="19" t="inlineStr"/>
       <c r="AV14" s="19" t="inlineStr"/>
       <c r="AW14" s="19" t="inlineStr"/>
       <c r="AX14" s="19" t="inlineStr"/>
       <c r="AY14" s="19" t="inlineStr"/>
       <c r="AZ14" s="19" t="inlineStr"/>
       <c r="BA14" s="19" t="inlineStr"/>
-      <c r="BB14" s="19" t="inlineStr"/>
-      <c r="BC14" s="19" t="inlineStr"/>
-      <c r="BD14" s="19" t="inlineStr"/>
-      <c r="BE14" s="20" t="inlineStr"/>
-      <c r="BF14" s="21" t="inlineStr"/>
-      <c r="BG14" s="21" t="inlineStr"/>
-      <c r="BH14" s="22" t="inlineStr"/>
+      <c r="BB14" s="20" t="inlineStr"/>
+      <c r="BC14" s="21" t="inlineStr"/>
+      <c r="BD14" s="21" t="inlineStr"/>
+      <c r="BE14" s="22" t="inlineStr"/>
+      <c r="BF14" s="23" t="inlineStr"/>
+      <c r="BG14" s="23" t="inlineStr"/>
+      <c r="BH14" s="23" t="inlineStr"/>
       <c r="BI14" s="23" t="inlineStr"/>
       <c r="BJ14" s="23" t="inlineStr"/>
       <c r="BK14" s="23" t="inlineStr"/>
@@ -2774,16 +2699,13 @@
       <c r="BS14" s="23" t="inlineStr"/>
       <c r="BT14" s="23" t="inlineStr"/>
       <c r="BU14" s="23" t="inlineStr"/>
-      <c r="BV14" s="23" t="inlineStr"/>
-      <c r="BW14" s="23" t="inlineStr"/>
-      <c r="BX14" s="23" t="inlineStr"/>
-      <c r="BY14" s="24" t="inlineStr"/>
+      <c r="BV14" s="24" t="inlineStr"/>
+      <c r="BW14" s="29" t="inlineStr"/>
+      <c r="BX14" s="29" t="inlineStr"/>
+      <c r="BY14" s="29" t="inlineStr"/>
       <c r="BZ14" s="29" t="inlineStr"/>
-      <c r="CA14" s="29" t="inlineStr"/>
-      <c r="CB14" s="29" t="inlineStr"/>
-      <c r="CC14" s="29" t="inlineStr"/>
-      <c r="CD14" s="25" t="inlineStr"/>
-      <c r="CE14" s="26" t="inlineStr"/>
+      <c r="CA14" s="25" t="inlineStr"/>
+      <c r="CB14" s="26" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2815,37 +2737,37 @@
       <c r="AA15" s="21" t="inlineStr"/>
       <c r="AB15" s="21" t="inlineStr"/>
       <c r="AC15" s="21" t="inlineStr"/>
-      <c r="AD15" s="21" t="inlineStr"/>
-      <c r="AE15" s="22" t="inlineStr"/>
+      <c r="AD15" s="22" t="inlineStr"/>
+      <c r="AE15" s="23" t="inlineStr"/>
       <c r="AF15" s="23" t="inlineStr"/>
       <c r="AG15" s="23" t="inlineStr"/>
       <c r="AH15" s="23" t="inlineStr"/>
-      <c r="AI15" s="23" t="inlineStr"/>
-      <c r="AJ15" s="24" t="inlineStr"/>
-      <c r="AK15" s="25" t="inlineStr"/>
-      <c r="AL15" s="26" t="inlineStr"/>
-      <c r="AM15" s="27" t="inlineStr"/>
-      <c r="AN15" s="28" t="inlineStr"/>
-      <c r="AO15" s="16" t="inlineStr"/>
+      <c r="AI15" s="24" t="inlineStr"/>
+      <c r="AJ15" s="25" t="inlineStr"/>
+      <c r="AK15" s="26" t="inlineStr"/>
+      <c r="AL15" s="27" t="inlineStr"/>
+      <c r="AM15" s="28" t="inlineStr"/>
+      <c r="AN15" s="16" t="inlineStr"/>
+      <c r="AO15" s="17" t="inlineStr"/>
       <c r="AP15" s="17" t="inlineStr"/>
       <c r="AQ15" s="17" t="inlineStr"/>
-      <c r="AR15" s="17" t="inlineStr"/>
-      <c r="AS15" s="17" t="inlineStr"/>
-      <c r="AT15" s="17" t="inlineStr"/>
-      <c r="AU15" s="18" t="inlineStr"/>
+      <c r="AR15" s="18" t="inlineStr"/>
+      <c r="AS15" s="19" t="inlineStr"/>
+      <c r="AT15" s="19" t="inlineStr"/>
+      <c r="AU15" s="19" t="inlineStr"/>
       <c r="AV15" s="19" t="inlineStr"/>
       <c r="AW15" s="19" t="inlineStr"/>
       <c r="AX15" s="19" t="inlineStr"/>
       <c r="AY15" s="19" t="inlineStr"/>
       <c r="AZ15" s="19" t="inlineStr"/>
       <c r="BA15" s="19" t="inlineStr"/>
-      <c r="BB15" s="19" t="inlineStr"/>
-      <c r="BC15" s="19" t="inlineStr"/>
-      <c r="BD15" s="19" t="inlineStr"/>
-      <c r="BE15" s="20" t="inlineStr"/>
-      <c r="BF15" s="21" t="inlineStr"/>
-      <c r="BG15" s="21" t="inlineStr"/>
-      <c r="BH15" s="22" t="inlineStr"/>
+      <c r="BB15" s="20" t="inlineStr"/>
+      <c r="BC15" s="21" t="inlineStr"/>
+      <c r="BD15" s="21" t="inlineStr"/>
+      <c r="BE15" s="22" t="inlineStr"/>
+      <c r="BF15" s="23" t="inlineStr"/>
+      <c r="BG15" s="23" t="inlineStr"/>
+      <c r="BH15" s="23" t="inlineStr"/>
       <c r="BI15" s="23" t="inlineStr"/>
       <c r="BJ15" s="23" t="inlineStr"/>
       <c r="BK15" s="23" t="inlineStr"/>
@@ -2859,16 +2781,13 @@
       <c r="BS15" s="23" t="inlineStr"/>
       <c r="BT15" s="23" t="inlineStr"/>
       <c r="BU15" s="23" t="inlineStr"/>
-      <c r="BV15" s="23" t="inlineStr"/>
-      <c r="BW15" s="23" t="inlineStr"/>
-      <c r="BX15" s="23" t="inlineStr"/>
-      <c r="BY15" s="24" t="inlineStr"/>
+      <c r="BV15" s="24" t="inlineStr"/>
+      <c r="BW15" s="29" t="inlineStr"/>
+      <c r="BX15" s="29" t="inlineStr"/>
+      <c r="BY15" s="29" t="inlineStr"/>
       <c r="BZ15" s="29" t="inlineStr"/>
-      <c r="CA15" s="29" t="inlineStr"/>
-      <c r="CB15" s="29" t="inlineStr"/>
-      <c r="CC15" s="29" t="inlineStr"/>
-      <c r="CD15" s="25" t="inlineStr"/>
-      <c r="CE15" s="26" t="inlineStr"/>
+      <c r="CA15" s="25" t="inlineStr"/>
+      <c r="CB15" s="26" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2900,37 +2819,37 @@
       <c r="AA16" s="21" t="inlineStr"/>
       <c r="AB16" s="21" t="inlineStr"/>
       <c r="AC16" s="21" t="inlineStr"/>
-      <c r="AD16" s="21" t="inlineStr"/>
-      <c r="AE16" s="22" t="inlineStr"/>
+      <c r="AD16" s="22" t="inlineStr"/>
+      <c r="AE16" s="23" t="inlineStr"/>
       <c r="AF16" s="23" t="inlineStr"/>
       <c r="AG16" s="23" t="inlineStr"/>
       <c r="AH16" s="23" t="inlineStr"/>
-      <c r="AI16" s="23" t="inlineStr"/>
-      <c r="AJ16" s="24" t="inlineStr"/>
-      <c r="AK16" s="25" t="inlineStr"/>
-      <c r="AL16" s="26" t="inlineStr"/>
-      <c r="AM16" s="27" t="inlineStr"/>
-      <c r="AN16" s="28" t="inlineStr"/>
-      <c r="AO16" s="16" t="inlineStr"/>
+      <c r="AI16" s="24" t="inlineStr"/>
+      <c r="AJ16" s="25" t="inlineStr"/>
+      <c r="AK16" s="26" t="inlineStr"/>
+      <c r="AL16" s="27" t="inlineStr"/>
+      <c r="AM16" s="28" t="inlineStr"/>
+      <c r="AN16" s="16" t="inlineStr"/>
+      <c r="AO16" s="17" t="inlineStr"/>
       <c r="AP16" s="17" t="inlineStr"/>
       <c r="AQ16" s="17" t="inlineStr"/>
-      <c r="AR16" s="17" t="inlineStr"/>
-      <c r="AS16" s="17" t="inlineStr"/>
-      <c r="AT16" s="17" t="inlineStr"/>
-      <c r="AU16" s="18" t="inlineStr"/>
+      <c r="AR16" s="18" t="inlineStr"/>
+      <c r="AS16" s="19" t="inlineStr"/>
+      <c r="AT16" s="19" t="inlineStr"/>
+      <c r="AU16" s="19" t="inlineStr"/>
       <c r="AV16" s="19" t="inlineStr"/>
       <c r="AW16" s="19" t="inlineStr"/>
       <c r="AX16" s="19" t="inlineStr"/>
       <c r="AY16" s="19" t="inlineStr"/>
       <c r="AZ16" s="19" t="inlineStr"/>
       <c r="BA16" s="19" t="inlineStr"/>
-      <c r="BB16" s="19" t="inlineStr"/>
-      <c r="BC16" s="19" t="inlineStr"/>
-      <c r="BD16" s="19" t="inlineStr"/>
-      <c r="BE16" s="20" t="inlineStr"/>
-      <c r="BF16" s="21" t="inlineStr"/>
-      <c r="BG16" s="21" t="inlineStr"/>
-      <c r="BH16" s="22" t="inlineStr"/>
+      <c r="BB16" s="20" t="inlineStr"/>
+      <c r="BC16" s="21" t="inlineStr"/>
+      <c r="BD16" s="21" t="inlineStr"/>
+      <c r="BE16" s="22" t="inlineStr"/>
+      <c r="BF16" s="23" t="inlineStr"/>
+      <c r="BG16" s="23" t="inlineStr"/>
+      <c r="BH16" s="23" t="inlineStr"/>
       <c r="BI16" s="23" t="inlineStr"/>
       <c r="BJ16" s="23" t="inlineStr"/>
       <c r="BK16" s="23" t="inlineStr"/>
@@ -2944,16 +2863,13 @@
       <c r="BS16" s="23" t="inlineStr"/>
       <c r="BT16" s="23" t="inlineStr"/>
       <c r="BU16" s="23" t="inlineStr"/>
-      <c r="BV16" s="23" t="inlineStr"/>
-      <c r="BW16" s="23" t="inlineStr"/>
-      <c r="BX16" s="23" t="inlineStr"/>
-      <c r="BY16" s="24" t="inlineStr"/>
+      <c r="BV16" s="24" t="inlineStr"/>
+      <c r="BW16" s="29" t="inlineStr"/>
+      <c r="BX16" s="29" t="inlineStr"/>
+      <c r="BY16" s="29" t="inlineStr"/>
       <c r="BZ16" s="29" t="inlineStr"/>
-      <c r="CA16" s="29" t="inlineStr"/>
-      <c r="CB16" s="29" t="inlineStr"/>
-      <c r="CC16" s="29" t="inlineStr"/>
-      <c r="CD16" s="25" t="inlineStr"/>
-      <c r="CE16" s="26" t="inlineStr"/>
+      <c r="CA16" s="25" t="inlineStr"/>
+      <c r="CB16" s="26" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -2985,37 +2901,37 @@
       <c r="AA17" s="21" t="inlineStr"/>
       <c r="AB17" s="21" t="inlineStr"/>
       <c r="AC17" s="21" t="inlineStr"/>
-      <c r="AD17" s="21" t="inlineStr"/>
-      <c r="AE17" s="22" t="inlineStr"/>
+      <c r="AD17" s="22" t="inlineStr"/>
+      <c r="AE17" s="23" t="inlineStr"/>
       <c r="AF17" s="23" t="inlineStr"/>
       <c r="AG17" s="23" t="inlineStr"/>
       <c r="AH17" s="23" t="inlineStr"/>
-      <c r="AI17" s="23" t="inlineStr"/>
-      <c r="AJ17" s="24" t="inlineStr"/>
-      <c r="AK17" s="25" t="inlineStr"/>
-      <c r="AL17" s="26" t="inlineStr"/>
-      <c r="AM17" s="27" t="inlineStr"/>
-      <c r="AN17" s="28" t="inlineStr"/>
-      <c r="AO17" s="16" t="inlineStr"/>
+      <c r="AI17" s="24" t="inlineStr"/>
+      <c r="AJ17" s="25" t="inlineStr"/>
+      <c r="AK17" s="26" t="inlineStr"/>
+      <c r="AL17" s="27" t="inlineStr"/>
+      <c r="AM17" s="28" t="inlineStr"/>
+      <c r="AN17" s="16" t="inlineStr"/>
+      <c r="AO17" s="17" t="inlineStr"/>
       <c r="AP17" s="17" t="inlineStr"/>
       <c r="AQ17" s="17" t="inlineStr"/>
-      <c r="AR17" s="17" t="inlineStr"/>
-      <c r="AS17" s="17" t="inlineStr"/>
-      <c r="AT17" s="17" t="inlineStr"/>
-      <c r="AU17" s="18" t="inlineStr"/>
+      <c r="AR17" s="18" t="inlineStr"/>
+      <c r="AS17" s="19" t="inlineStr"/>
+      <c r="AT17" s="19" t="inlineStr"/>
+      <c r="AU17" s="19" t="inlineStr"/>
       <c r="AV17" s="19" t="inlineStr"/>
       <c r="AW17" s="19" t="inlineStr"/>
       <c r="AX17" s="19" t="inlineStr"/>
       <c r="AY17" s="19" t="inlineStr"/>
       <c r="AZ17" s="19" t="inlineStr"/>
       <c r="BA17" s="19" t="inlineStr"/>
-      <c r="BB17" s="19" t="inlineStr"/>
-      <c r="BC17" s="19" t="inlineStr"/>
-      <c r="BD17" s="19" t="inlineStr"/>
-      <c r="BE17" s="20" t="inlineStr"/>
-      <c r="BF17" s="21" t="inlineStr"/>
-      <c r="BG17" s="21" t="inlineStr"/>
-      <c r="BH17" s="22" t="inlineStr"/>
+      <c r="BB17" s="20" t="inlineStr"/>
+      <c r="BC17" s="21" t="inlineStr"/>
+      <c r="BD17" s="21" t="inlineStr"/>
+      <c r="BE17" s="22" t="inlineStr"/>
+      <c r="BF17" s="23" t="inlineStr"/>
+      <c r="BG17" s="23" t="inlineStr"/>
+      <c r="BH17" s="23" t="inlineStr"/>
       <c r="BI17" s="23" t="inlineStr"/>
       <c r="BJ17" s="23" t="inlineStr"/>
       <c r="BK17" s="23" t="inlineStr"/>
@@ -3029,16 +2945,13 @@
       <c r="BS17" s="23" t="inlineStr"/>
       <c r="BT17" s="23" t="inlineStr"/>
       <c r="BU17" s="23" t="inlineStr"/>
-      <c r="BV17" s="23" t="inlineStr"/>
-      <c r="BW17" s="23" t="inlineStr"/>
-      <c r="BX17" s="23" t="inlineStr"/>
-      <c r="BY17" s="24" t="inlineStr"/>
+      <c r="BV17" s="24" t="inlineStr"/>
+      <c r="BW17" s="29" t="inlineStr"/>
+      <c r="BX17" s="29" t="inlineStr"/>
+      <c r="BY17" s="29" t="inlineStr"/>
       <c r="BZ17" s="29" t="inlineStr"/>
-      <c r="CA17" s="29" t="inlineStr"/>
-      <c r="CB17" s="29" t="inlineStr"/>
-      <c r="CC17" s="29" t="inlineStr"/>
-      <c r="CD17" s="25" t="inlineStr"/>
-      <c r="CE17" s="26" t="inlineStr"/>
+      <c r="CA17" s="25" t="inlineStr"/>
+      <c r="CB17" s="26" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3070,37 +2983,37 @@
       <c r="AA18" s="21" t="inlineStr"/>
       <c r="AB18" s="21" t="inlineStr"/>
       <c r="AC18" s="21" t="inlineStr"/>
-      <c r="AD18" s="21" t="inlineStr"/>
-      <c r="AE18" s="22" t="inlineStr"/>
+      <c r="AD18" s="22" t="inlineStr"/>
+      <c r="AE18" s="23" t="inlineStr"/>
       <c r="AF18" s="23" t="inlineStr"/>
       <c r="AG18" s="23" t="inlineStr"/>
       <c r="AH18" s="23" t="inlineStr"/>
-      <c r="AI18" s="23" t="inlineStr"/>
-      <c r="AJ18" s="24" t="inlineStr"/>
-      <c r="AK18" s="25" t="inlineStr"/>
-      <c r="AL18" s="26" t="inlineStr"/>
-      <c r="AM18" s="27" t="inlineStr"/>
-      <c r="AN18" s="28" t="inlineStr"/>
-      <c r="AO18" s="16" t="inlineStr"/>
+      <c r="AI18" s="24" t="inlineStr"/>
+      <c r="AJ18" s="25" t="inlineStr"/>
+      <c r="AK18" s="26" t="inlineStr"/>
+      <c r="AL18" s="27" t="inlineStr"/>
+      <c r="AM18" s="28" t="inlineStr"/>
+      <c r="AN18" s="16" t="inlineStr"/>
+      <c r="AO18" s="17" t="inlineStr"/>
       <c r="AP18" s="17" t="inlineStr"/>
       <c r="AQ18" s="17" t="inlineStr"/>
-      <c r="AR18" s="17" t="inlineStr"/>
-      <c r="AS18" s="17" t="inlineStr"/>
-      <c r="AT18" s="17" t="inlineStr"/>
-      <c r="AU18" s="18" t="inlineStr"/>
+      <c r="AR18" s="18" t="inlineStr"/>
+      <c r="AS18" s="19" t="inlineStr"/>
+      <c r="AT18" s="19" t="inlineStr"/>
+      <c r="AU18" s="19" t="inlineStr"/>
       <c r="AV18" s="19" t="inlineStr"/>
       <c r="AW18" s="19" t="inlineStr"/>
       <c r="AX18" s="19" t="inlineStr"/>
       <c r="AY18" s="19" t="inlineStr"/>
       <c r="AZ18" s="19" t="inlineStr"/>
       <c r="BA18" s="19" t="inlineStr"/>
-      <c r="BB18" s="19" t="inlineStr"/>
-      <c r="BC18" s="19" t="inlineStr"/>
-      <c r="BD18" s="19" t="inlineStr"/>
-      <c r="BE18" s="20" t="inlineStr"/>
-      <c r="BF18" s="21" t="inlineStr"/>
-      <c r="BG18" s="21" t="inlineStr"/>
-      <c r="BH18" s="22" t="inlineStr"/>
+      <c r="BB18" s="20" t="inlineStr"/>
+      <c r="BC18" s="21" t="inlineStr"/>
+      <c r="BD18" s="21" t="inlineStr"/>
+      <c r="BE18" s="22" t="inlineStr"/>
+      <c r="BF18" s="23" t="inlineStr"/>
+      <c r="BG18" s="23" t="inlineStr"/>
+      <c r="BH18" s="23" t="inlineStr"/>
       <c r="BI18" s="23" t="inlineStr"/>
       <c r="BJ18" s="23" t="inlineStr"/>
       <c r="BK18" s="23" t="inlineStr"/>
@@ -3114,16 +3027,13 @@
       <c r="BS18" s="23" t="inlineStr"/>
       <c r="BT18" s="23" t="inlineStr"/>
       <c r="BU18" s="23" t="inlineStr"/>
-      <c r="BV18" s="23" t="inlineStr"/>
-      <c r="BW18" s="23" t="inlineStr"/>
-      <c r="BX18" s="23" t="inlineStr"/>
-      <c r="BY18" s="24" t="inlineStr"/>
+      <c r="BV18" s="24" t="inlineStr"/>
+      <c r="BW18" s="29" t="inlineStr"/>
+      <c r="BX18" s="29" t="inlineStr"/>
+      <c r="BY18" s="29" t="inlineStr"/>
       <c r="BZ18" s="29" t="inlineStr"/>
-      <c r="CA18" s="29" t="inlineStr"/>
-      <c r="CB18" s="29" t="inlineStr"/>
-      <c r="CC18" s="29" t="inlineStr"/>
-      <c r="CD18" s="25" t="inlineStr"/>
-      <c r="CE18" s="26" t="inlineStr"/>
+      <c r="CA18" s="25" t="inlineStr"/>
+      <c r="CB18" s="26" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3155,37 +3065,37 @@
       <c r="AA19" s="21" t="inlineStr"/>
       <c r="AB19" s="21" t="inlineStr"/>
       <c r="AC19" s="21" t="inlineStr"/>
-      <c r="AD19" s="21" t="inlineStr"/>
-      <c r="AE19" s="22" t="inlineStr"/>
+      <c r="AD19" s="22" t="inlineStr"/>
+      <c r="AE19" s="23" t="inlineStr"/>
       <c r="AF19" s="23" t="inlineStr"/>
       <c r="AG19" s="23" t="inlineStr"/>
       <c r="AH19" s="23" t="inlineStr"/>
-      <c r="AI19" s="23" t="inlineStr"/>
-      <c r="AJ19" s="24" t="inlineStr"/>
-      <c r="AK19" s="25" t="inlineStr"/>
-      <c r="AL19" s="26" t="inlineStr"/>
-      <c r="AM19" s="27" t="inlineStr"/>
-      <c r="AN19" s="28" t="inlineStr"/>
-      <c r="AO19" s="16" t="inlineStr"/>
+      <c r="AI19" s="24" t="inlineStr"/>
+      <c r="AJ19" s="25" t="inlineStr"/>
+      <c r="AK19" s="26" t="inlineStr"/>
+      <c r="AL19" s="27" t="inlineStr"/>
+      <c r="AM19" s="28" t="inlineStr"/>
+      <c r="AN19" s="16" t="inlineStr"/>
+      <c r="AO19" s="17" t="inlineStr"/>
       <c r="AP19" s="17" t="inlineStr"/>
       <c r="AQ19" s="17" t="inlineStr"/>
-      <c r="AR19" s="17" t="inlineStr"/>
-      <c r="AS19" s="17" t="inlineStr"/>
-      <c r="AT19" s="17" t="inlineStr"/>
-      <c r="AU19" s="18" t="inlineStr"/>
+      <c r="AR19" s="18" t="inlineStr"/>
+      <c r="AS19" s="19" t="inlineStr"/>
+      <c r="AT19" s="19" t="inlineStr"/>
+      <c r="AU19" s="19" t="inlineStr"/>
       <c r="AV19" s="19" t="inlineStr"/>
       <c r="AW19" s="19" t="inlineStr"/>
       <c r="AX19" s="19" t="inlineStr"/>
       <c r="AY19" s="19" t="inlineStr"/>
       <c r="AZ19" s="19" t="inlineStr"/>
       <c r="BA19" s="19" t="inlineStr"/>
-      <c r="BB19" s="19" t="inlineStr"/>
-      <c r="BC19" s="19" t="inlineStr"/>
-      <c r="BD19" s="19" t="inlineStr"/>
-      <c r="BE19" s="20" t="inlineStr"/>
-      <c r="BF19" s="21" t="inlineStr"/>
-      <c r="BG19" s="21" t="inlineStr"/>
-      <c r="BH19" s="22" t="inlineStr"/>
+      <c r="BB19" s="20" t="inlineStr"/>
+      <c r="BC19" s="21" t="inlineStr"/>
+      <c r="BD19" s="21" t="inlineStr"/>
+      <c r="BE19" s="22" t="inlineStr"/>
+      <c r="BF19" s="23" t="inlineStr"/>
+      <c r="BG19" s="23" t="inlineStr"/>
+      <c r="BH19" s="23" t="inlineStr"/>
       <c r="BI19" s="23" t="inlineStr"/>
       <c r="BJ19" s="23" t="inlineStr"/>
       <c r="BK19" s="23" t="inlineStr"/>
@@ -3199,16 +3109,13 @@
       <c r="BS19" s="23" t="inlineStr"/>
       <c r="BT19" s="23" t="inlineStr"/>
       <c r="BU19" s="23" t="inlineStr"/>
-      <c r="BV19" s="23" t="inlineStr"/>
-      <c r="BW19" s="23" t="inlineStr"/>
-      <c r="BX19" s="23" t="inlineStr"/>
-      <c r="BY19" s="24" t="inlineStr"/>
+      <c r="BV19" s="24" t="inlineStr"/>
+      <c r="BW19" s="29" t="inlineStr"/>
+      <c r="BX19" s="29" t="inlineStr"/>
+      <c r="BY19" s="29" t="inlineStr"/>
       <c r="BZ19" s="29" t="inlineStr"/>
-      <c r="CA19" s="29" t="inlineStr"/>
-      <c r="CB19" s="29" t="inlineStr"/>
-      <c r="CC19" s="29" t="inlineStr"/>
-      <c r="CD19" s="25" t="inlineStr"/>
-      <c r="CE19" s="26" t="inlineStr"/>
+      <c r="CA19" s="25" t="inlineStr"/>
+      <c r="CB19" s="26" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3240,37 +3147,37 @@
       <c r="AA20" s="21" t="inlineStr"/>
       <c r="AB20" s="21" t="inlineStr"/>
       <c r="AC20" s="21" t="inlineStr"/>
-      <c r="AD20" s="21" t="inlineStr"/>
-      <c r="AE20" s="22" t="inlineStr"/>
+      <c r="AD20" s="22" t="inlineStr"/>
+      <c r="AE20" s="23" t="inlineStr"/>
       <c r="AF20" s="23" t="inlineStr"/>
       <c r="AG20" s="23" t="inlineStr"/>
       <c r="AH20" s="23" t="inlineStr"/>
-      <c r="AI20" s="23" t="inlineStr"/>
-      <c r="AJ20" s="24" t="inlineStr"/>
-      <c r="AK20" s="25" t="inlineStr"/>
-      <c r="AL20" s="26" t="inlineStr"/>
-      <c r="AM20" s="27" t="inlineStr"/>
-      <c r="AN20" s="28" t="inlineStr"/>
-      <c r="AO20" s="16" t="inlineStr"/>
+      <c r="AI20" s="24" t="inlineStr"/>
+      <c r="AJ20" s="25" t="inlineStr"/>
+      <c r="AK20" s="26" t="inlineStr"/>
+      <c r="AL20" s="27" t="inlineStr"/>
+      <c r="AM20" s="28" t="inlineStr"/>
+      <c r="AN20" s="16" t="inlineStr"/>
+      <c r="AO20" s="17" t="inlineStr"/>
       <c r="AP20" s="17" t="inlineStr"/>
       <c r="AQ20" s="17" t="inlineStr"/>
-      <c r="AR20" s="17" t="inlineStr"/>
-      <c r="AS20" s="17" t="inlineStr"/>
-      <c r="AT20" s="17" t="inlineStr"/>
-      <c r="AU20" s="18" t="inlineStr"/>
+      <c r="AR20" s="18" t="inlineStr"/>
+      <c r="AS20" s="19" t="inlineStr"/>
+      <c r="AT20" s="19" t="inlineStr"/>
+      <c r="AU20" s="19" t="inlineStr"/>
       <c r="AV20" s="19" t="inlineStr"/>
       <c r="AW20" s="19" t="inlineStr"/>
       <c r="AX20" s="19" t="inlineStr"/>
       <c r="AY20" s="19" t="inlineStr"/>
       <c r="AZ20" s="19" t="inlineStr"/>
       <c r="BA20" s="19" t="inlineStr"/>
-      <c r="BB20" s="19" t="inlineStr"/>
-      <c r="BC20" s="19" t="inlineStr"/>
-      <c r="BD20" s="19" t="inlineStr"/>
-      <c r="BE20" s="20" t="inlineStr"/>
-      <c r="BF20" s="21" t="inlineStr"/>
-      <c r="BG20" s="21" t="inlineStr"/>
-      <c r="BH20" s="22" t="inlineStr"/>
+      <c r="BB20" s="20" t="inlineStr"/>
+      <c r="BC20" s="21" t="inlineStr"/>
+      <c r="BD20" s="21" t="inlineStr"/>
+      <c r="BE20" s="22" t="inlineStr"/>
+      <c r="BF20" s="23" t="inlineStr"/>
+      <c r="BG20" s="23" t="inlineStr"/>
+      <c r="BH20" s="23" t="inlineStr"/>
       <c r="BI20" s="23" t="inlineStr"/>
       <c r="BJ20" s="23" t="inlineStr"/>
       <c r="BK20" s="23" t="inlineStr"/>
@@ -3284,16 +3191,13 @@
       <c r="BS20" s="23" t="inlineStr"/>
       <c r="BT20" s="23" t="inlineStr"/>
       <c r="BU20" s="23" t="inlineStr"/>
-      <c r="BV20" s="23" t="inlineStr"/>
-      <c r="BW20" s="23" t="inlineStr"/>
-      <c r="BX20" s="23" t="inlineStr"/>
-      <c r="BY20" s="24" t="inlineStr"/>
+      <c r="BV20" s="24" t="inlineStr"/>
+      <c r="BW20" s="29" t="inlineStr"/>
+      <c r="BX20" s="29" t="inlineStr"/>
+      <c r="BY20" s="29" t="inlineStr"/>
       <c r="BZ20" s="29" t="inlineStr"/>
-      <c r="CA20" s="29" t="inlineStr"/>
-      <c r="CB20" s="29" t="inlineStr"/>
-      <c r="CC20" s="29" t="inlineStr"/>
-      <c r="CD20" s="25" t="inlineStr"/>
-      <c r="CE20" s="26" t="inlineStr"/>
+      <c r="CA20" s="25" t="inlineStr"/>
+      <c r="CB20" s="26" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3325,37 +3229,37 @@
       <c r="AA21" s="21" t="inlineStr"/>
       <c r="AB21" s="21" t="inlineStr"/>
       <c r="AC21" s="21" t="inlineStr"/>
-      <c r="AD21" s="21" t="inlineStr"/>
-      <c r="AE21" s="22" t="inlineStr"/>
+      <c r="AD21" s="22" t="inlineStr"/>
+      <c r="AE21" s="23" t="inlineStr"/>
       <c r="AF21" s="23" t="inlineStr"/>
       <c r="AG21" s="23" t="inlineStr"/>
       <c r="AH21" s="23" t="inlineStr"/>
-      <c r="AI21" s="23" t="inlineStr"/>
-      <c r="AJ21" s="24" t="inlineStr"/>
-      <c r="AK21" s="25" t="inlineStr"/>
-      <c r="AL21" s="26" t="inlineStr"/>
-      <c r="AM21" s="27" t="inlineStr"/>
-      <c r="AN21" s="28" t="inlineStr"/>
-      <c r="AO21" s="16" t="inlineStr"/>
+      <c r="AI21" s="24" t="inlineStr"/>
+      <c r="AJ21" s="25" t="inlineStr"/>
+      <c r="AK21" s="26" t="inlineStr"/>
+      <c r="AL21" s="27" t="inlineStr"/>
+      <c r="AM21" s="28" t="inlineStr"/>
+      <c r="AN21" s="16" t="inlineStr"/>
+      <c r="AO21" s="17" t="inlineStr"/>
       <c r="AP21" s="17" t="inlineStr"/>
       <c r="AQ21" s="17" t="inlineStr"/>
-      <c r="AR21" s="17" t="inlineStr"/>
-      <c r="AS21" s="17" t="inlineStr"/>
-      <c r="AT21" s="17" t="inlineStr"/>
-      <c r="AU21" s="18" t="inlineStr"/>
+      <c r="AR21" s="18" t="inlineStr"/>
+      <c r="AS21" s="19" t="inlineStr"/>
+      <c r="AT21" s="19" t="inlineStr"/>
+      <c r="AU21" s="19" t="inlineStr"/>
       <c r="AV21" s="19" t="inlineStr"/>
       <c r="AW21" s="19" t="inlineStr"/>
       <c r="AX21" s="19" t="inlineStr"/>
       <c r="AY21" s="19" t="inlineStr"/>
       <c r="AZ21" s="19" t="inlineStr"/>
       <c r="BA21" s="19" t="inlineStr"/>
-      <c r="BB21" s="19" t="inlineStr"/>
-      <c r="BC21" s="19" t="inlineStr"/>
-      <c r="BD21" s="19" t="inlineStr"/>
-      <c r="BE21" s="20" t="inlineStr"/>
-      <c r="BF21" s="21" t="inlineStr"/>
-      <c r="BG21" s="21" t="inlineStr"/>
-      <c r="BH21" s="22" t="inlineStr"/>
+      <c r="BB21" s="20" t="inlineStr"/>
+      <c r="BC21" s="21" t="inlineStr"/>
+      <c r="BD21" s="21" t="inlineStr"/>
+      <c r="BE21" s="22" t="inlineStr"/>
+      <c r="BF21" s="23" t="inlineStr"/>
+      <c r="BG21" s="23" t="inlineStr"/>
+      <c r="BH21" s="23" t="inlineStr"/>
       <c r="BI21" s="23" t="inlineStr"/>
       <c r="BJ21" s="23" t="inlineStr"/>
       <c r="BK21" s="23" t="inlineStr"/>
@@ -3369,16 +3273,13 @@
       <c r="BS21" s="23" t="inlineStr"/>
       <c r="BT21" s="23" t="inlineStr"/>
       <c r="BU21" s="23" t="inlineStr"/>
-      <c r="BV21" s="23" t="inlineStr"/>
-      <c r="BW21" s="23" t="inlineStr"/>
-      <c r="BX21" s="23" t="inlineStr"/>
-      <c r="BY21" s="24" t="inlineStr"/>
+      <c r="BV21" s="24" t="inlineStr"/>
+      <c r="BW21" s="29" t="inlineStr"/>
+      <c r="BX21" s="29" t="inlineStr"/>
+      <c r="BY21" s="29" t="inlineStr"/>
       <c r="BZ21" s="29" t="inlineStr"/>
-      <c r="CA21" s="29" t="inlineStr"/>
-      <c r="CB21" s="29" t="inlineStr"/>
-      <c r="CC21" s="29" t="inlineStr"/>
-      <c r="CD21" s="25" t="inlineStr"/>
-      <c r="CE21" s="26" t="inlineStr"/>
+      <c r="CA21" s="25" t="inlineStr"/>
+      <c r="CB21" s="26" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3410,37 +3311,37 @@
       <c r="AA22" s="21" t="inlineStr"/>
       <c r="AB22" s="21" t="inlineStr"/>
       <c r="AC22" s="21" t="inlineStr"/>
-      <c r="AD22" s="21" t="inlineStr"/>
-      <c r="AE22" s="22" t="inlineStr"/>
+      <c r="AD22" s="22" t="inlineStr"/>
+      <c r="AE22" s="23" t="inlineStr"/>
       <c r="AF22" s="23" t="inlineStr"/>
       <c r="AG22" s="23" t="inlineStr"/>
       <c r="AH22" s="23" t="inlineStr"/>
-      <c r="AI22" s="23" t="inlineStr"/>
-      <c r="AJ22" s="24" t="inlineStr"/>
-      <c r="AK22" s="25" t="inlineStr"/>
-      <c r="AL22" s="26" t="inlineStr"/>
-      <c r="AM22" s="27" t="inlineStr"/>
-      <c r="AN22" s="28" t="inlineStr"/>
-      <c r="AO22" s="16" t="inlineStr"/>
+      <c r="AI22" s="24" t="inlineStr"/>
+      <c r="AJ22" s="25" t="inlineStr"/>
+      <c r="AK22" s="26" t="inlineStr"/>
+      <c r="AL22" s="27" t="inlineStr"/>
+      <c r="AM22" s="28" t="inlineStr"/>
+      <c r="AN22" s="16" t="inlineStr"/>
+      <c r="AO22" s="17" t="inlineStr"/>
       <c r="AP22" s="17" t="inlineStr"/>
       <c r="AQ22" s="17" t="inlineStr"/>
-      <c r="AR22" s="17" t="inlineStr"/>
-      <c r="AS22" s="17" t="inlineStr"/>
-      <c r="AT22" s="17" t="inlineStr"/>
-      <c r="AU22" s="18" t="inlineStr"/>
+      <c r="AR22" s="18" t="inlineStr"/>
+      <c r="AS22" s="19" t="inlineStr"/>
+      <c r="AT22" s="19" t="inlineStr"/>
+      <c r="AU22" s="19" t="inlineStr"/>
       <c r="AV22" s="19" t="inlineStr"/>
       <c r="AW22" s="19" t="inlineStr"/>
       <c r="AX22" s="19" t="inlineStr"/>
       <c r="AY22" s="19" t="inlineStr"/>
       <c r="AZ22" s="19" t="inlineStr"/>
       <c r="BA22" s="19" t="inlineStr"/>
-      <c r="BB22" s="19" t="inlineStr"/>
-      <c r="BC22" s="19" t="inlineStr"/>
-      <c r="BD22" s="19" t="inlineStr"/>
-      <c r="BE22" s="20" t="inlineStr"/>
-      <c r="BF22" s="21" t="inlineStr"/>
-      <c r="BG22" s="21" t="inlineStr"/>
-      <c r="BH22" s="22" t="inlineStr"/>
+      <c r="BB22" s="20" t="inlineStr"/>
+      <c r="BC22" s="21" t="inlineStr"/>
+      <c r="BD22" s="21" t="inlineStr"/>
+      <c r="BE22" s="22" t="inlineStr"/>
+      <c r="BF22" s="23" t="inlineStr"/>
+      <c r="BG22" s="23" t="inlineStr"/>
+      <c r="BH22" s="23" t="inlineStr"/>
       <c r="BI22" s="23" t="inlineStr"/>
       <c r="BJ22" s="23" t="inlineStr"/>
       <c r="BK22" s="23" t="inlineStr"/>
@@ -3454,16 +3355,13 @@
       <c r="BS22" s="23" t="inlineStr"/>
       <c r="BT22" s="23" t="inlineStr"/>
       <c r="BU22" s="23" t="inlineStr"/>
-      <c r="BV22" s="23" t="inlineStr"/>
-      <c r="BW22" s="23" t="inlineStr"/>
-      <c r="BX22" s="23" t="inlineStr"/>
-      <c r="BY22" s="24" t="inlineStr"/>
+      <c r="BV22" s="24" t="inlineStr"/>
+      <c r="BW22" s="29" t="inlineStr"/>
+      <c r="BX22" s="29" t="inlineStr"/>
+      <c r="BY22" s="29" t="inlineStr"/>
       <c r="BZ22" s="29" t="inlineStr"/>
-      <c r="CA22" s="29" t="inlineStr"/>
-      <c r="CB22" s="29" t="inlineStr"/>
-      <c r="CC22" s="29" t="inlineStr"/>
-      <c r="CD22" s="25" t="inlineStr"/>
-      <c r="CE22" s="26" t="inlineStr"/>
+      <c r="CA22" s="25" t="inlineStr"/>
+      <c r="CB22" s="26" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3495,37 +3393,37 @@
       <c r="AA23" s="21" t="inlineStr"/>
       <c r="AB23" s="21" t="inlineStr"/>
       <c r="AC23" s="21" t="inlineStr"/>
-      <c r="AD23" s="21" t="inlineStr"/>
-      <c r="AE23" s="22" t="inlineStr"/>
+      <c r="AD23" s="22" t="inlineStr"/>
+      <c r="AE23" s="23" t="inlineStr"/>
       <c r="AF23" s="23" t="inlineStr"/>
       <c r="AG23" s="23" t="inlineStr"/>
       <c r="AH23" s="23" t="inlineStr"/>
-      <c r="AI23" s="23" t="inlineStr"/>
-      <c r="AJ23" s="24" t="inlineStr"/>
-      <c r="AK23" s="25" t="inlineStr"/>
-      <c r="AL23" s="26" t="inlineStr"/>
-      <c r="AM23" s="27" t="inlineStr"/>
-      <c r="AN23" s="28" t="inlineStr"/>
-      <c r="AO23" s="16" t="inlineStr"/>
+      <c r="AI23" s="24" t="inlineStr"/>
+      <c r="AJ23" s="25" t="inlineStr"/>
+      <c r="AK23" s="26" t="inlineStr"/>
+      <c r="AL23" s="27" t="inlineStr"/>
+      <c r="AM23" s="28" t="inlineStr"/>
+      <c r="AN23" s="16" t="inlineStr"/>
+      <c r="AO23" s="17" t="inlineStr"/>
       <c r="AP23" s="17" t="inlineStr"/>
       <c r="AQ23" s="17" t="inlineStr"/>
-      <c r="AR23" s="17" t="inlineStr"/>
-      <c r="AS23" s="17" t="inlineStr"/>
-      <c r="AT23" s="17" t="inlineStr"/>
-      <c r="AU23" s="18" t="inlineStr"/>
+      <c r="AR23" s="18" t="inlineStr"/>
+      <c r="AS23" s="19" t="inlineStr"/>
+      <c r="AT23" s="19" t="inlineStr"/>
+      <c r="AU23" s="19" t="inlineStr"/>
       <c r="AV23" s="19" t="inlineStr"/>
       <c r="AW23" s="19" t="inlineStr"/>
       <c r="AX23" s="19" t="inlineStr"/>
       <c r="AY23" s="19" t="inlineStr"/>
       <c r="AZ23" s="19" t="inlineStr"/>
       <c r="BA23" s="19" t="inlineStr"/>
-      <c r="BB23" s="19" t="inlineStr"/>
-      <c r="BC23" s="19" t="inlineStr"/>
-      <c r="BD23" s="19" t="inlineStr"/>
-      <c r="BE23" s="20" t="inlineStr"/>
-      <c r="BF23" s="21" t="inlineStr"/>
-      <c r="BG23" s="21" t="inlineStr"/>
-      <c r="BH23" s="22" t="inlineStr"/>
+      <c r="BB23" s="20" t="inlineStr"/>
+      <c r="BC23" s="21" t="inlineStr"/>
+      <c r="BD23" s="21" t="inlineStr"/>
+      <c r="BE23" s="22" t="inlineStr"/>
+      <c r="BF23" s="23" t="inlineStr"/>
+      <c r="BG23" s="23" t="inlineStr"/>
+      <c r="BH23" s="23" t="inlineStr"/>
       <c r="BI23" s="23" t="inlineStr"/>
       <c r="BJ23" s="23" t="inlineStr"/>
       <c r="BK23" s="23" t="inlineStr"/>
@@ -3539,16 +3437,13 @@
       <c r="BS23" s="23" t="inlineStr"/>
       <c r="BT23" s="23" t="inlineStr"/>
       <c r="BU23" s="23" t="inlineStr"/>
-      <c r="BV23" s="23" t="inlineStr"/>
-      <c r="BW23" s="23" t="inlineStr"/>
-      <c r="BX23" s="23" t="inlineStr"/>
-      <c r="BY23" s="24" t="inlineStr"/>
+      <c r="BV23" s="24" t="inlineStr"/>
+      <c r="BW23" s="29" t="inlineStr"/>
+      <c r="BX23" s="29" t="inlineStr"/>
+      <c r="BY23" s="29" t="inlineStr"/>
       <c r="BZ23" s="29" t="inlineStr"/>
-      <c r="CA23" s="29" t="inlineStr"/>
-      <c r="CB23" s="29" t="inlineStr"/>
-      <c r="CC23" s="29" t="inlineStr"/>
-      <c r="CD23" s="25" t="inlineStr"/>
-      <c r="CE23" s="26" t="inlineStr"/>
+      <c r="CA23" s="25" t="inlineStr"/>
+      <c r="CB23" s="26" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3580,37 +3475,37 @@
       <c r="AA24" s="21" t="inlineStr"/>
       <c r="AB24" s="21" t="inlineStr"/>
       <c r="AC24" s="21" t="inlineStr"/>
-      <c r="AD24" s="21" t="inlineStr"/>
-      <c r="AE24" s="22" t="inlineStr"/>
+      <c r="AD24" s="22" t="inlineStr"/>
+      <c r="AE24" s="23" t="inlineStr"/>
       <c r="AF24" s="23" t="inlineStr"/>
       <c r="AG24" s="23" t="inlineStr"/>
       <c r="AH24" s="23" t="inlineStr"/>
-      <c r="AI24" s="23" t="inlineStr"/>
-      <c r="AJ24" s="24" t="inlineStr"/>
-      <c r="AK24" s="25" t="inlineStr"/>
-      <c r="AL24" s="26" t="inlineStr"/>
-      <c r="AM24" s="27" t="inlineStr"/>
-      <c r="AN24" s="28" t="inlineStr"/>
-      <c r="AO24" s="16" t="inlineStr"/>
+      <c r="AI24" s="24" t="inlineStr"/>
+      <c r="AJ24" s="25" t="inlineStr"/>
+      <c r="AK24" s="26" t="inlineStr"/>
+      <c r="AL24" s="27" t="inlineStr"/>
+      <c r="AM24" s="28" t="inlineStr"/>
+      <c r="AN24" s="16" t="inlineStr"/>
+      <c r="AO24" s="17" t="inlineStr"/>
       <c r="AP24" s="17" t="inlineStr"/>
       <c r="AQ24" s="17" t="inlineStr"/>
-      <c r="AR24" s="17" t="inlineStr"/>
-      <c r="AS24" s="17" t="inlineStr"/>
-      <c r="AT24" s="17" t="inlineStr"/>
-      <c r="AU24" s="18" t="inlineStr"/>
+      <c r="AR24" s="18" t="inlineStr"/>
+      <c r="AS24" s="19" t="inlineStr"/>
+      <c r="AT24" s="19" t="inlineStr"/>
+      <c r="AU24" s="19" t="inlineStr"/>
       <c r="AV24" s="19" t="inlineStr"/>
       <c r="AW24" s="19" t="inlineStr"/>
       <c r="AX24" s="19" t="inlineStr"/>
       <c r="AY24" s="19" t="inlineStr"/>
       <c r="AZ24" s="19" t="inlineStr"/>
       <c r="BA24" s="19" t="inlineStr"/>
-      <c r="BB24" s="19" t="inlineStr"/>
-      <c r="BC24" s="19" t="inlineStr"/>
-      <c r="BD24" s="19" t="inlineStr"/>
-      <c r="BE24" s="20" t="inlineStr"/>
-      <c r="BF24" s="21" t="inlineStr"/>
-      <c r="BG24" s="21" t="inlineStr"/>
-      <c r="BH24" s="22" t="inlineStr"/>
+      <c r="BB24" s="20" t="inlineStr"/>
+      <c r="BC24" s="21" t="inlineStr"/>
+      <c r="BD24" s="21" t="inlineStr"/>
+      <c r="BE24" s="22" t="inlineStr"/>
+      <c r="BF24" s="23" t="inlineStr"/>
+      <c r="BG24" s="23" t="inlineStr"/>
+      <c r="BH24" s="23" t="inlineStr"/>
       <c r="BI24" s="23" t="inlineStr"/>
       <c r="BJ24" s="23" t="inlineStr"/>
       <c r="BK24" s="23" t="inlineStr"/>
@@ -3624,16 +3519,13 @@
       <c r="BS24" s="23" t="inlineStr"/>
       <c r="BT24" s="23" t="inlineStr"/>
       <c r="BU24" s="23" t="inlineStr"/>
-      <c r="BV24" s="23" t="inlineStr"/>
-      <c r="BW24" s="23" t="inlineStr"/>
-      <c r="BX24" s="23" t="inlineStr"/>
-      <c r="BY24" s="24" t="inlineStr"/>
+      <c r="BV24" s="24" t="inlineStr"/>
+      <c r="BW24" s="29" t="inlineStr"/>
+      <c r="BX24" s="29" t="inlineStr"/>
+      <c r="BY24" s="29" t="inlineStr"/>
       <c r="BZ24" s="29" t="inlineStr"/>
-      <c r="CA24" s="29" t="inlineStr"/>
-      <c r="CB24" s="29" t="inlineStr"/>
-      <c r="CC24" s="29" t="inlineStr"/>
-      <c r="CD24" s="25" t="inlineStr"/>
-      <c r="CE24" s="26" t="inlineStr"/>
+      <c r="CA24" s="25" t="inlineStr"/>
+      <c r="CB24" s="26" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3665,37 +3557,37 @@
       <c r="AA25" s="21" t="inlineStr"/>
       <c r="AB25" s="21" t="inlineStr"/>
       <c r="AC25" s="21" t="inlineStr"/>
-      <c r="AD25" s="21" t="inlineStr"/>
-      <c r="AE25" s="22" t="inlineStr"/>
+      <c r="AD25" s="22" t="inlineStr"/>
+      <c r="AE25" s="23" t="inlineStr"/>
       <c r="AF25" s="23" t="inlineStr"/>
       <c r="AG25" s="23" t="inlineStr"/>
       <c r="AH25" s="23" t="inlineStr"/>
-      <c r="AI25" s="23" t="inlineStr"/>
-      <c r="AJ25" s="24" t="inlineStr"/>
-      <c r="AK25" s="25" t="inlineStr"/>
-      <c r="AL25" s="26" t="inlineStr"/>
-      <c r="AM25" s="27" t="inlineStr"/>
-      <c r="AN25" s="28" t="inlineStr"/>
-      <c r="AO25" s="16" t="inlineStr"/>
+      <c r="AI25" s="24" t="inlineStr"/>
+      <c r="AJ25" s="25" t="inlineStr"/>
+      <c r="AK25" s="26" t="inlineStr"/>
+      <c r="AL25" s="27" t="inlineStr"/>
+      <c r="AM25" s="28" t="inlineStr"/>
+      <c r="AN25" s="16" t="inlineStr"/>
+      <c r="AO25" s="17" t="inlineStr"/>
       <c r="AP25" s="17" t="inlineStr"/>
       <c r="AQ25" s="17" t="inlineStr"/>
-      <c r="AR25" s="17" t="inlineStr"/>
-      <c r="AS25" s="17" t="inlineStr"/>
-      <c r="AT25" s="17" t="inlineStr"/>
-      <c r="AU25" s="18" t="inlineStr"/>
+      <c r="AR25" s="18" t="inlineStr"/>
+      <c r="AS25" s="19" t="inlineStr"/>
+      <c r="AT25" s="19" t="inlineStr"/>
+      <c r="AU25" s="19" t="inlineStr"/>
       <c r="AV25" s="19" t="inlineStr"/>
       <c r="AW25" s="19" t="inlineStr"/>
       <c r="AX25" s="19" t="inlineStr"/>
       <c r="AY25" s="19" t="inlineStr"/>
       <c r="AZ25" s="19" t="inlineStr"/>
       <c r="BA25" s="19" t="inlineStr"/>
-      <c r="BB25" s="19" t="inlineStr"/>
-      <c r="BC25" s="19" t="inlineStr"/>
-      <c r="BD25" s="19" t="inlineStr"/>
-      <c r="BE25" s="20" t="inlineStr"/>
-      <c r="BF25" s="21" t="inlineStr"/>
-      <c r="BG25" s="21" t="inlineStr"/>
-      <c r="BH25" s="22" t="inlineStr"/>
+      <c r="BB25" s="20" t="inlineStr"/>
+      <c r="BC25" s="21" t="inlineStr"/>
+      <c r="BD25" s="21" t="inlineStr"/>
+      <c r="BE25" s="22" t="inlineStr"/>
+      <c r="BF25" s="23" t="inlineStr"/>
+      <c r="BG25" s="23" t="inlineStr"/>
+      <c r="BH25" s="23" t="inlineStr"/>
       <c r="BI25" s="23" t="inlineStr"/>
       <c r="BJ25" s="23" t="inlineStr"/>
       <c r="BK25" s="23" t="inlineStr"/>
@@ -3709,16 +3601,13 @@
       <c r="BS25" s="23" t="inlineStr"/>
       <c r="BT25" s="23" t="inlineStr"/>
       <c r="BU25" s="23" t="inlineStr"/>
-      <c r="BV25" s="23" t="inlineStr"/>
-      <c r="BW25" s="23" t="inlineStr"/>
-      <c r="BX25" s="23" t="inlineStr"/>
-      <c r="BY25" s="24" t="inlineStr"/>
+      <c r="BV25" s="24" t="inlineStr"/>
+      <c r="BW25" s="29" t="inlineStr"/>
+      <c r="BX25" s="29" t="inlineStr"/>
+      <c r="BY25" s="29" t="inlineStr"/>
       <c r="BZ25" s="29" t="inlineStr"/>
-      <c r="CA25" s="29" t="inlineStr"/>
-      <c r="CB25" s="29" t="inlineStr"/>
-      <c r="CC25" s="29" t="inlineStr"/>
-      <c r="CD25" s="25" t="inlineStr"/>
-      <c r="CE25" s="26" t="inlineStr"/>
+      <c r="CA25" s="25" t="inlineStr"/>
+      <c r="CB25" s="26" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3750,37 +3639,37 @@
       <c r="AA26" s="21" t="inlineStr"/>
       <c r="AB26" s="21" t="inlineStr"/>
       <c r="AC26" s="21" t="inlineStr"/>
-      <c r="AD26" s="21" t="inlineStr"/>
-      <c r="AE26" s="22" t="inlineStr"/>
+      <c r="AD26" s="22" t="inlineStr"/>
+      <c r="AE26" s="23" t="inlineStr"/>
       <c r="AF26" s="23" t="inlineStr"/>
       <c r="AG26" s="23" t="inlineStr"/>
       <c r="AH26" s="23" t="inlineStr"/>
-      <c r="AI26" s="23" t="inlineStr"/>
-      <c r="AJ26" s="24" t="inlineStr"/>
-      <c r="AK26" s="25" t="inlineStr"/>
-      <c r="AL26" s="26" t="inlineStr"/>
-      <c r="AM26" s="27" t="inlineStr"/>
-      <c r="AN26" s="28" t="inlineStr"/>
-      <c r="AO26" s="16" t="inlineStr"/>
+      <c r="AI26" s="24" t="inlineStr"/>
+      <c r="AJ26" s="25" t="inlineStr"/>
+      <c r="AK26" s="26" t="inlineStr"/>
+      <c r="AL26" s="27" t="inlineStr"/>
+      <c r="AM26" s="28" t="inlineStr"/>
+      <c r="AN26" s="16" t="inlineStr"/>
+      <c r="AO26" s="17" t="inlineStr"/>
       <c r="AP26" s="17" t="inlineStr"/>
       <c r="AQ26" s="17" t="inlineStr"/>
-      <c r="AR26" s="17" t="inlineStr"/>
-      <c r="AS26" s="17" t="inlineStr"/>
-      <c r="AT26" s="17" t="inlineStr"/>
-      <c r="AU26" s="18" t="inlineStr"/>
+      <c r="AR26" s="18" t="inlineStr"/>
+      <c r="AS26" s="19" t="inlineStr"/>
+      <c r="AT26" s="19" t="inlineStr"/>
+      <c r="AU26" s="19" t="inlineStr"/>
       <c r="AV26" s="19" t="inlineStr"/>
       <c r="AW26" s="19" t="inlineStr"/>
       <c r="AX26" s="19" t="inlineStr"/>
       <c r="AY26" s="19" t="inlineStr"/>
       <c r="AZ26" s="19" t="inlineStr"/>
       <c r="BA26" s="19" t="inlineStr"/>
-      <c r="BB26" s="19" t="inlineStr"/>
-      <c r="BC26" s="19" t="inlineStr"/>
-      <c r="BD26" s="19" t="inlineStr"/>
-      <c r="BE26" s="20" t="inlineStr"/>
-      <c r="BF26" s="21" t="inlineStr"/>
-      <c r="BG26" s="21" t="inlineStr"/>
-      <c r="BH26" s="22" t="inlineStr"/>
+      <c r="BB26" s="20" t="inlineStr"/>
+      <c r="BC26" s="21" t="inlineStr"/>
+      <c r="BD26" s="21" t="inlineStr"/>
+      <c r="BE26" s="22" t="inlineStr"/>
+      <c r="BF26" s="23" t="inlineStr"/>
+      <c r="BG26" s="23" t="inlineStr"/>
+      <c r="BH26" s="23" t="inlineStr"/>
       <c r="BI26" s="23" t="inlineStr"/>
       <c r="BJ26" s="23" t="inlineStr"/>
       <c r="BK26" s="23" t="inlineStr"/>
@@ -3794,16 +3683,13 @@
       <c r="BS26" s="23" t="inlineStr"/>
       <c r="BT26" s="23" t="inlineStr"/>
       <c r="BU26" s="23" t="inlineStr"/>
-      <c r="BV26" s="23" t="inlineStr"/>
-      <c r="BW26" s="23" t="inlineStr"/>
-      <c r="BX26" s="23" t="inlineStr"/>
-      <c r="BY26" s="24" t="inlineStr"/>
+      <c r="BV26" s="24" t="inlineStr"/>
+      <c r="BW26" s="29" t="inlineStr"/>
+      <c r="BX26" s="29" t="inlineStr"/>
+      <c r="BY26" s="29" t="inlineStr"/>
       <c r="BZ26" s="29" t="inlineStr"/>
-      <c r="CA26" s="29" t="inlineStr"/>
-      <c r="CB26" s="29" t="inlineStr"/>
-      <c r="CC26" s="29" t="inlineStr"/>
-      <c r="CD26" s="25" t="inlineStr"/>
-      <c r="CE26" s="26" t="inlineStr"/>
+      <c r="CA26" s="25" t="inlineStr"/>
+      <c r="CB26" s="26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3835,37 +3721,37 @@
       <c r="AA27" s="21" t="inlineStr"/>
       <c r="AB27" s="21" t="inlineStr"/>
       <c r="AC27" s="21" t="inlineStr"/>
-      <c r="AD27" s="21" t="inlineStr"/>
-      <c r="AE27" s="22" t="inlineStr"/>
+      <c r="AD27" s="22" t="inlineStr"/>
+      <c r="AE27" s="23" t="inlineStr"/>
       <c r="AF27" s="23" t="inlineStr"/>
       <c r="AG27" s="23" t="inlineStr"/>
       <c r="AH27" s="23" t="inlineStr"/>
-      <c r="AI27" s="23" t="inlineStr"/>
-      <c r="AJ27" s="24" t="inlineStr"/>
-      <c r="AK27" s="25" t="inlineStr"/>
-      <c r="AL27" s="26" t="inlineStr"/>
-      <c r="AM27" s="27" t="inlineStr"/>
-      <c r="AN27" s="28" t="inlineStr"/>
-      <c r="AO27" s="16" t="inlineStr"/>
+      <c r="AI27" s="24" t="inlineStr"/>
+      <c r="AJ27" s="25" t="inlineStr"/>
+      <c r="AK27" s="26" t="inlineStr"/>
+      <c r="AL27" s="27" t="inlineStr"/>
+      <c r="AM27" s="28" t="inlineStr"/>
+      <c r="AN27" s="16" t="inlineStr"/>
+      <c r="AO27" s="17" t="inlineStr"/>
       <c r="AP27" s="17" t="inlineStr"/>
       <c r="AQ27" s="17" t="inlineStr"/>
-      <c r="AR27" s="17" t="inlineStr"/>
-      <c r="AS27" s="17" t="inlineStr"/>
-      <c r="AT27" s="17" t="inlineStr"/>
-      <c r="AU27" s="18" t="inlineStr"/>
+      <c r="AR27" s="18" t="inlineStr"/>
+      <c r="AS27" s="19" t="inlineStr"/>
+      <c r="AT27" s="19" t="inlineStr"/>
+      <c r="AU27" s="19" t="inlineStr"/>
       <c r="AV27" s="19" t="inlineStr"/>
       <c r="AW27" s="19" t="inlineStr"/>
       <c r="AX27" s="19" t="inlineStr"/>
       <c r="AY27" s="19" t="inlineStr"/>
       <c r="AZ27" s="19" t="inlineStr"/>
       <c r="BA27" s="19" t="inlineStr"/>
-      <c r="BB27" s="19" t="inlineStr"/>
-      <c r="BC27" s="19" t="inlineStr"/>
-      <c r="BD27" s="19" t="inlineStr"/>
-      <c r="BE27" s="20" t="inlineStr"/>
-      <c r="BF27" s="21" t="inlineStr"/>
-      <c r="BG27" s="21" t="inlineStr"/>
-      <c r="BH27" s="22" t="inlineStr"/>
+      <c r="BB27" s="20" t="inlineStr"/>
+      <c r="BC27" s="21" t="inlineStr"/>
+      <c r="BD27" s="21" t="inlineStr"/>
+      <c r="BE27" s="22" t="inlineStr"/>
+      <c r="BF27" s="23" t="inlineStr"/>
+      <c r="BG27" s="23" t="inlineStr"/>
+      <c r="BH27" s="23" t="inlineStr"/>
       <c r="BI27" s="23" t="inlineStr"/>
       <c r="BJ27" s="23" t="inlineStr"/>
       <c r="BK27" s="23" t="inlineStr"/>
@@ -3879,16 +3765,13 @@
       <c r="BS27" s="23" t="inlineStr"/>
       <c r="BT27" s="23" t="inlineStr"/>
       <c r="BU27" s="23" t="inlineStr"/>
-      <c r="BV27" s="23" t="inlineStr"/>
-      <c r="BW27" s="23" t="inlineStr"/>
-      <c r="BX27" s="23" t="inlineStr"/>
-      <c r="BY27" s="24" t="inlineStr"/>
+      <c r="BV27" s="24" t="inlineStr"/>
+      <c r="BW27" s="29" t="inlineStr"/>
+      <c r="BX27" s="29" t="inlineStr"/>
+      <c r="BY27" s="29" t="inlineStr"/>
       <c r="BZ27" s="29" t="inlineStr"/>
-      <c r="CA27" s="29" t="inlineStr"/>
-      <c r="CB27" s="29" t="inlineStr"/>
-      <c r="CC27" s="29" t="inlineStr"/>
-      <c r="CD27" s="25" t="inlineStr"/>
-      <c r="CE27" s="26" t="inlineStr"/>
+      <c r="CA27" s="25" t="inlineStr"/>
+      <c r="CB27" s="26" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3920,37 +3803,37 @@
       <c r="AA28" s="21" t="inlineStr"/>
       <c r="AB28" s="21" t="inlineStr"/>
       <c r="AC28" s="21" t="inlineStr"/>
-      <c r="AD28" s="21" t="inlineStr"/>
-      <c r="AE28" s="22" t="inlineStr"/>
+      <c r="AD28" s="22" t="inlineStr"/>
+      <c r="AE28" s="23" t="inlineStr"/>
       <c r="AF28" s="23" t="inlineStr"/>
       <c r="AG28" s="23" t="inlineStr"/>
       <c r="AH28" s="23" t="inlineStr"/>
-      <c r="AI28" s="23" t="inlineStr"/>
-      <c r="AJ28" s="24" t="inlineStr"/>
-      <c r="AK28" s="25" t="inlineStr"/>
-      <c r="AL28" s="26" t="inlineStr"/>
-      <c r="AM28" s="27" t="inlineStr"/>
-      <c r="AN28" s="28" t="inlineStr"/>
-      <c r="AO28" s="16" t="inlineStr"/>
+      <c r="AI28" s="24" t="inlineStr"/>
+      <c r="AJ28" s="25" t="inlineStr"/>
+      <c r="AK28" s="26" t="inlineStr"/>
+      <c r="AL28" s="27" t="inlineStr"/>
+      <c r="AM28" s="28" t="inlineStr"/>
+      <c r="AN28" s="16" t="inlineStr"/>
+      <c r="AO28" s="17" t="inlineStr"/>
       <c r="AP28" s="17" t="inlineStr"/>
       <c r="AQ28" s="17" t="inlineStr"/>
-      <c r="AR28" s="17" t="inlineStr"/>
-      <c r="AS28" s="17" t="inlineStr"/>
-      <c r="AT28" s="17" t="inlineStr"/>
-      <c r="AU28" s="18" t="inlineStr"/>
+      <c r="AR28" s="18" t="inlineStr"/>
+      <c r="AS28" s="19" t="inlineStr"/>
+      <c r="AT28" s="19" t="inlineStr"/>
+      <c r="AU28" s="19" t="inlineStr"/>
       <c r="AV28" s="19" t="inlineStr"/>
       <c r="AW28" s="19" t="inlineStr"/>
       <c r="AX28" s="19" t="inlineStr"/>
       <c r="AY28" s="19" t="inlineStr"/>
       <c r="AZ28" s="19" t="inlineStr"/>
       <c r="BA28" s="19" t="inlineStr"/>
-      <c r="BB28" s="19" t="inlineStr"/>
-      <c r="BC28" s="19" t="inlineStr"/>
-      <c r="BD28" s="19" t="inlineStr"/>
-      <c r="BE28" s="20" t="inlineStr"/>
-      <c r="BF28" s="21" t="inlineStr"/>
-      <c r="BG28" s="21" t="inlineStr"/>
-      <c r="BH28" s="22" t="inlineStr"/>
+      <c r="BB28" s="20" t="inlineStr"/>
+      <c r="BC28" s="21" t="inlineStr"/>
+      <c r="BD28" s="21" t="inlineStr"/>
+      <c r="BE28" s="22" t="inlineStr"/>
+      <c r="BF28" s="23" t="inlineStr"/>
+      <c r="BG28" s="23" t="inlineStr"/>
+      <c r="BH28" s="23" t="inlineStr"/>
       <c r="BI28" s="23" t="inlineStr"/>
       <c r="BJ28" s="23" t="inlineStr"/>
       <c r="BK28" s="23" t="inlineStr"/>
@@ -3964,16 +3847,13 @@
       <c r="BS28" s="23" t="inlineStr"/>
       <c r="BT28" s="23" t="inlineStr"/>
       <c r="BU28" s="23" t="inlineStr"/>
-      <c r="BV28" s="23" t="inlineStr"/>
-      <c r="BW28" s="23" t="inlineStr"/>
-      <c r="BX28" s="23" t="inlineStr"/>
-      <c r="BY28" s="24" t="inlineStr"/>
+      <c r="BV28" s="24" t="inlineStr"/>
+      <c r="BW28" s="29" t="inlineStr"/>
+      <c r="BX28" s="29" t="inlineStr"/>
+      <c r="BY28" s="29" t="inlineStr"/>
       <c r="BZ28" s="29" t="inlineStr"/>
-      <c r="CA28" s="29" t="inlineStr"/>
-      <c r="CB28" s="29" t="inlineStr"/>
-      <c r="CC28" s="29" t="inlineStr"/>
-      <c r="CD28" s="25" t="inlineStr"/>
-      <c r="CE28" s="26" t="inlineStr"/>
+      <c r="CA28" s="25" t="inlineStr"/>
+      <c r="CB28" s="26" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -4005,37 +3885,37 @@
       <c r="AA29" s="21" t="inlineStr"/>
       <c r="AB29" s="21" t="inlineStr"/>
       <c r="AC29" s="21" t="inlineStr"/>
-      <c r="AD29" s="21" t="inlineStr"/>
-      <c r="AE29" s="22" t="inlineStr"/>
+      <c r="AD29" s="22" t="inlineStr"/>
+      <c r="AE29" s="23" t="inlineStr"/>
       <c r="AF29" s="23" t="inlineStr"/>
       <c r="AG29" s="23" t="inlineStr"/>
       <c r="AH29" s="23" t="inlineStr"/>
-      <c r="AI29" s="23" t="inlineStr"/>
-      <c r="AJ29" s="24" t="inlineStr"/>
-      <c r="AK29" s="25" t="inlineStr"/>
-      <c r="AL29" s="26" t="inlineStr"/>
-      <c r="AM29" s="27" t="inlineStr"/>
-      <c r="AN29" s="28" t="inlineStr"/>
-      <c r="AO29" s="16" t="inlineStr"/>
+      <c r="AI29" s="24" t="inlineStr"/>
+      <c r="AJ29" s="25" t="inlineStr"/>
+      <c r="AK29" s="26" t="inlineStr"/>
+      <c r="AL29" s="27" t="inlineStr"/>
+      <c r="AM29" s="28" t="inlineStr"/>
+      <c r="AN29" s="16" t="inlineStr"/>
+      <c r="AO29" s="17" t="inlineStr"/>
       <c r="AP29" s="17" t="inlineStr"/>
       <c r="AQ29" s="17" t="inlineStr"/>
-      <c r="AR29" s="17" t="inlineStr"/>
-      <c r="AS29" s="17" t="inlineStr"/>
-      <c r="AT29" s="17" t="inlineStr"/>
-      <c r="AU29" s="18" t="inlineStr"/>
+      <c r="AR29" s="18" t="inlineStr"/>
+      <c r="AS29" s="19" t="inlineStr"/>
+      <c r="AT29" s="19" t="inlineStr"/>
+      <c r="AU29" s="19" t="inlineStr"/>
       <c r="AV29" s="19" t="inlineStr"/>
       <c r="AW29" s="19" t="inlineStr"/>
       <c r="AX29" s="19" t="inlineStr"/>
       <c r="AY29" s="19" t="inlineStr"/>
       <c r="AZ29" s="19" t="inlineStr"/>
       <c r="BA29" s="19" t="inlineStr"/>
-      <c r="BB29" s="19" t="inlineStr"/>
-      <c r="BC29" s="19" t="inlineStr"/>
-      <c r="BD29" s="19" t="inlineStr"/>
-      <c r="BE29" s="20" t="inlineStr"/>
-      <c r="BF29" s="21" t="inlineStr"/>
-      <c r="BG29" s="21" t="inlineStr"/>
-      <c r="BH29" s="22" t="inlineStr"/>
+      <c r="BB29" s="20" t="inlineStr"/>
+      <c r="BC29" s="21" t="inlineStr"/>
+      <c r="BD29" s="21" t="inlineStr"/>
+      <c r="BE29" s="22" t="inlineStr"/>
+      <c r="BF29" s="23" t="inlineStr"/>
+      <c r="BG29" s="23" t="inlineStr"/>
+      <c r="BH29" s="23" t="inlineStr"/>
       <c r="BI29" s="23" t="inlineStr"/>
       <c r="BJ29" s="23" t="inlineStr"/>
       <c r="BK29" s="23" t="inlineStr"/>
@@ -4049,16 +3929,13 @@
       <c r="BS29" s="23" t="inlineStr"/>
       <c r="BT29" s="23" t="inlineStr"/>
       <c r="BU29" s="23" t="inlineStr"/>
-      <c r="BV29" s="23" t="inlineStr"/>
-      <c r="BW29" s="23" t="inlineStr"/>
-      <c r="BX29" s="23" t="inlineStr"/>
-      <c r="BY29" s="24" t="inlineStr"/>
+      <c r="BV29" s="24" t="inlineStr"/>
+      <c r="BW29" s="29" t="inlineStr"/>
+      <c r="BX29" s="29" t="inlineStr"/>
+      <c r="BY29" s="29" t="inlineStr"/>
       <c r="BZ29" s="29" t="inlineStr"/>
-      <c r="CA29" s="29" t="inlineStr"/>
-      <c r="CB29" s="29" t="inlineStr"/>
-      <c r="CC29" s="29" t="inlineStr"/>
-      <c r="CD29" s="25" t="inlineStr"/>
-      <c r="CE29" s="26" t="inlineStr"/>
+      <c r="CA29" s="25" t="inlineStr"/>
+      <c r="CB29" s="26" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4090,37 +3967,37 @@
       <c r="AA30" s="21" t="inlineStr"/>
       <c r="AB30" s="21" t="inlineStr"/>
       <c r="AC30" s="21" t="inlineStr"/>
-      <c r="AD30" s="21" t="inlineStr"/>
-      <c r="AE30" s="22" t="inlineStr"/>
+      <c r="AD30" s="22" t="inlineStr"/>
+      <c r="AE30" s="23" t="inlineStr"/>
       <c r="AF30" s="23" t="inlineStr"/>
       <c r="AG30" s="23" t="inlineStr"/>
       <c r="AH30" s="23" t="inlineStr"/>
-      <c r="AI30" s="23" t="inlineStr"/>
-      <c r="AJ30" s="24" t="inlineStr"/>
-      <c r="AK30" s="25" t="inlineStr"/>
-      <c r="AL30" s="26" t="inlineStr"/>
-      <c r="AM30" s="27" t="inlineStr"/>
-      <c r="AN30" s="28" t="inlineStr"/>
-      <c r="AO30" s="16" t="inlineStr"/>
+      <c r="AI30" s="24" t="inlineStr"/>
+      <c r="AJ30" s="25" t="inlineStr"/>
+      <c r="AK30" s="26" t="inlineStr"/>
+      <c r="AL30" s="27" t="inlineStr"/>
+      <c r="AM30" s="28" t="inlineStr"/>
+      <c r="AN30" s="16" t="inlineStr"/>
+      <c r="AO30" s="17" t="inlineStr"/>
       <c r="AP30" s="17" t="inlineStr"/>
       <c r="AQ30" s="17" t="inlineStr"/>
-      <c r="AR30" s="17" t="inlineStr"/>
-      <c r="AS30" s="17" t="inlineStr"/>
-      <c r="AT30" s="17" t="inlineStr"/>
-      <c r="AU30" s="18" t="inlineStr"/>
+      <c r="AR30" s="18" t="inlineStr"/>
+      <c r="AS30" s="19" t="inlineStr"/>
+      <c r="AT30" s="19" t="inlineStr"/>
+      <c r="AU30" s="19" t="inlineStr"/>
       <c r="AV30" s="19" t="inlineStr"/>
       <c r="AW30" s="19" t="inlineStr"/>
       <c r="AX30" s="19" t="inlineStr"/>
       <c r="AY30" s="19" t="inlineStr"/>
       <c r="AZ30" s="19" t="inlineStr"/>
       <c r="BA30" s="19" t="inlineStr"/>
-      <c r="BB30" s="19" t="inlineStr"/>
-      <c r="BC30" s="19" t="inlineStr"/>
-      <c r="BD30" s="19" t="inlineStr"/>
-      <c r="BE30" s="20" t="inlineStr"/>
-      <c r="BF30" s="21" t="inlineStr"/>
-      <c r="BG30" s="21" t="inlineStr"/>
-      <c r="BH30" s="22" t="inlineStr"/>
+      <c r="BB30" s="20" t="inlineStr"/>
+      <c r="BC30" s="21" t="inlineStr"/>
+      <c r="BD30" s="21" t="inlineStr"/>
+      <c r="BE30" s="22" t="inlineStr"/>
+      <c r="BF30" s="23" t="inlineStr"/>
+      <c r="BG30" s="23" t="inlineStr"/>
+      <c r="BH30" s="23" t="inlineStr"/>
       <c r="BI30" s="23" t="inlineStr"/>
       <c r="BJ30" s="23" t="inlineStr"/>
       <c r="BK30" s="23" t="inlineStr"/>
@@ -4134,16 +4011,13 @@
       <c r="BS30" s="23" t="inlineStr"/>
       <c r="BT30" s="23" t="inlineStr"/>
       <c r="BU30" s="23" t="inlineStr"/>
-      <c r="BV30" s="23" t="inlineStr"/>
-      <c r="BW30" s="23" t="inlineStr"/>
-      <c r="BX30" s="23" t="inlineStr"/>
-      <c r="BY30" s="24" t="inlineStr"/>
+      <c r="BV30" s="24" t="inlineStr"/>
+      <c r="BW30" s="29" t="inlineStr"/>
+      <c r="BX30" s="29" t="inlineStr"/>
+      <c r="BY30" s="29" t="inlineStr"/>
       <c r="BZ30" s="29" t="inlineStr"/>
-      <c r="CA30" s="29" t="inlineStr"/>
-      <c r="CB30" s="29" t="inlineStr"/>
-      <c r="CC30" s="29" t="inlineStr"/>
-      <c r="CD30" s="25" t="inlineStr"/>
-      <c r="CE30" s="26" t="inlineStr"/>
+      <c r="CA30" s="25" t="inlineStr"/>
+      <c r="CB30" s="26" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4175,37 +4049,37 @@
       <c r="AA31" s="21" t="inlineStr"/>
       <c r="AB31" s="21" t="inlineStr"/>
       <c r="AC31" s="21" t="inlineStr"/>
-      <c r="AD31" s="21" t="inlineStr"/>
-      <c r="AE31" s="22" t="inlineStr"/>
+      <c r="AD31" s="22" t="inlineStr"/>
+      <c r="AE31" s="23" t="inlineStr"/>
       <c r="AF31" s="23" t="inlineStr"/>
       <c r="AG31" s="23" t="inlineStr"/>
       <c r="AH31" s="23" t="inlineStr"/>
-      <c r="AI31" s="23" t="inlineStr"/>
-      <c r="AJ31" s="24" t="inlineStr"/>
-      <c r="AK31" s="25" t="inlineStr"/>
-      <c r="AL31" s="26" t="inlineStr"/>
-      <c r="AM31" s="27" t="inlineStr"/>
-      <c r="AN31" s="28" t="inlineStr"/>
-      <c r="AO31" s="16" t="inlineStr"/>
+      <c r="AI31" s="24" t="inlineStr"/>
+      <c r="AJ31" s="25" t="inlineStr"/>
+      <c r="AK31" s="26" t="inlineStr"/>
+      <c r="AL31" s="27" t="inlineStr"/>
+      <c r="AM31" s="28" t="inlineStr"/>
+      <c r="AN31" s="16" t="inlineStr"/>
+      <c r="AO31" s="17" t="inlineStr"/>
       <c r="AP31" s="17" t="inlineStr"/>
       <c r="AQ31" s="17" t="inlineStr"/>
-      <c r="AR31" s="17" t="inlineStr"/>
-      <c r="AS31" s="17" t="inlineStr"/>
-      <c r="AT31" s="17" t="inlineStr"/>
-      <c r="AU31" s="18" t="inlineStr"/>
+      <c r="AR31" s="18" t="inlineStr"/>
+      <c r="AS31" s="19" t="inlineStr"/>
+      <c r="AT31" s="19" t="inlineStr"/>
+      <c r="AU31" s="19" t="inlineStr"/>
       <c r="AV31" s="19" t="inlineStr"/>
       <c r="AW31" s="19" t="inlineStr"/>
       <c r="AX31" s="19" t="inlineStr"/>
       <c r="AY31" s="19" t="inlineStr"/>
       <c r="AZ31" s="19" t="inlineStr"/>
       <c r="BA31" s="19" t="inlineStr"/>
-      <c r="BB31" s="19" t="inlineStr"/>
-      <c r="BC31" s="19" t="inlineStr"/>
-      <c r="BD31" s="19" t="inlineStr"/>
-      <c r="BE31" s="20" t="inlineStr"/>
-      <c r="BF31" s="21" t="inlineStr"/>
-      <c r="BG31" s="21" t="inlineStr"/>
-      <c r="BH31" s="22" t="inlineStr"/>
+      <c r="BB31" s="20" t="inlineStr"/>
+      <c r="BC31" s="21" t="inlineStr"/>
+      <c r="BD31" s="21" t="inlineStr"/>
+      <c r="BE31" s="22" t="inlineStr"/>
+      <c r="BF31" s="23" t="inlineStr"/>
+      <c r="BG31" s="23" t="inlineStr"/>
+      <c r="BH31" s="23" t="inlineStr"/>
       <c r="BI31" s="23" t="inlineStr"/>
       <c r="BJ31" s="23" t="inlineStr"/>
       <c r="BK31" s="23" t="inlineStr"/>
@@ -4219,16 +4093,13 @@
       <c r="BS31" s="23" t="inlineStr"/>
       <c r="BT31" s="23" t="inlineStr"/>
       <c r="BU31" s="23" t="inlineStr"/>
-      <c r="BV31" s="23" t="inlineStr"/>
-      <c r="BW31" s="23" t="inlineStr"/>
-      <c r="BX31" s="23" t="inlineStr"/>
-      <c r="BY31" s="24" t="inlineStr"/>
+      <c r="BV31" s="24" t="inlineStr"/>
+      <c r="BW31" s="29" t="inlineStr"/>
+      <c r="BX31" s="29" t="inlineStr"/>
+      <c r="BY31" s="29" t="inlineStr"/>
       <c r="BZ31" s="29" t="inlineStr"/>
-      <c r="CA31" s="29" t="inlineStr"/>
-      <c r="CB31" s="29" t="inlineStr"/>
-      <c r="CC31" s="29" t="inlineStr"/>
-      <c r="CD31" s="25" t="inlineStr"/>
-      <c r="CE31" s="26" t="inlineStr"/>
+      <c r="CA31" s="25" t="inlineStr"/>
+      <c r="CB31" s="26" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4260,37 +4131,37 @@
       <c r="AA32" s="21" t="inlineStr"/>
       <c r="AB32" s="21" t="inlineStr"/>
       <c r="AC32" s="21" t="inlineStr"/>
-      <c r="AD32" s="21" t="inlineStr"/>
-      <c r="AE32" s="22" t="inlineStr"/>
+      <c r="AD32" s="22" t="inlineStr"/>
+      <c r="AE32" s="23" t="inlineStr"/>
       <c r="AF32" s="23" t="inlineStr"/>
       <c r="AG32" s="23" t="inlineStr"/>
       <c r="AH32" s="23" t="inlineStr"/>
-      <c r="AI32" s="23" t="inlineStr"/>
-      <c r="AJ32" s="24" t="inlineStr"/>
-      <c r="AK32" s="25" t="inlineStr"/>
-      <c r="AL32" s="26" t="inlineStr"/>
-      <c r="AM32" s="27" t="inlineStr"/>
-      <c r="AN32" s="28" t="inlineStr"/>
-      <c r="AO32" s="16" t="inlineStr"/>
+      <c r="AI32" s="24" t="inlineStr"/>
+      <c r="AJ32" s="25" t="inlineStr"/>
+      <c r="AK32" s="26" t="inlineStr"/>
+      <c r="AL32" s="27" t="inlineStr"/>
+      <c r="AM32" s="28" t="inlineStr"/>
+      <c r="AN32" s="16" t="inlineStr"/>
+      <c r="AO32" s="17" t="inlineStr"/>
       <c r="AP32" s="17" t="inlineStr"/>
       <c r="AQ32" s="17" t="inlineStr"/>
-      <c r="AR32" s="17" t="inlineStr"/>
-      <c r="AS32" s="17" t="inlineStr"/>
-      <c r="AT32" s="17" t="inlineStr"/>
-      <c r="AU32" s="18" t="inlineStr"/>
+      <c r="AR32" s="18" t="inlineStr"/>
+      <c r="AS32" s="19" t="inlineStr"/>
+      <c r="AT32" s="19" t="inlineStr"/>
+      <c r="AU32" s="19" t="inlineStr"/>
       <c r="AV32" s="19" t="inlineStr"/>
       <c r="AW32" s="19" t="inlineStr"/>
       <c r="AX32" s="19" t="inlineStr"/>
       <c r="AY32" s="19" t="inlineStr"/>
       <c r="AZ32" s="19" t="inlineStr"/>
       <c r="BA32" s="19" t="inlineStr"/>
-      <c r="BB32" s="19" t="inlineStr"/>
-      <c r="BC32" s="19" t="inlineStr"/>
-      <c r="BD32" s="19" t="inlineStr"/>
-      <c r="BE32" s="20" t="inlineStr"/>
-      <c r="BF32" s="21" t="inlineStr"/>
-      <c r="BG32" s="21" t="inlineStr"/>
-      <c r="BH32" s="22" t="inlineStr"/>
+      <c r="BB32" s="20" t="inlineStr"/>
+      <c r="BC32" s="21" t="inlineStr"/>
+      <c r="BD32" s="21" t="inlineStr"/>
+      <c r="BE32" s="22" t="inlineStr"/>
+      <c r="BF32" s="23" t="inlineStr"/>
+      <c r="BG32" s="23" t="inlineStr"/>
+      <c r="BH32" s="23" t="inlineStr"/>
       <c r="BI32" s="23" t="inlineStr"/>
       <c r="BJ32" s="23" t="inlineStr"/>
       <c r="BK32" s="23" t="inlineStr"/>
@@ -4304,16 +4175,13 @@
       <c r="BS32" s="23" t="inlineStr"/>
       <c r="BT32" s="23" t="inlineStr"/>
       <c r="BU32" s="23" t="inlineStr"/>
-      <c r="BV32" s="23" t="inlineStr"/>
-      <c r="BW32" s="23" t="inlineStr"/>
-      <c r="BX32" s="23" t="inlineStr"/>
-      <c r="BY32" s="24" t="inlineStr"/>
+      <c r="BV32" s="24" t="inlineStr"/>
+      <c r="BW32" s="29" t="inlineStr"/>
+      <c r="BX32" s="29" t="inlineStr"/>
+      <c r="BY32" s="29" t="inlineStr"/>
       <c r="BZ32" s="29" t="inlineStr"/>
-      <c r="CA32" s="29" t="inlineStr"/>
-      <c r="CB32" s="29" t="inlineStr"/>
-      <c r="CC32" s="29" t="inlineStr"/>
-      <c r="CD32" s="25" t="inlineStr"/>
-      <c r="CE32" s="26" t="inlineStr"/>
+      <c r="CA32" s="25" t="inlineStr"/>
+      <c r="CB32" s="26" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4345,37 +4213,37 @@
       <c r="AA33" s="21" t="inlineStr"/>
       <c r="AB33" s="21" t="inlineStr"/>
       <c r="AC33" s="21" t="inlineStr"/>
-      <c r="AD33" s="21" t="inlineStr"/>
-      <c r="AE33" s="22" t="inlineStr"/>
+      <c r="AD33" s="22" t="inlineStr"/>
+      <c r="AE33" s="23" t="inlineStr"/>
       <c r="AF33" s="23" t="inlineStr"/>
       <c r="AG33" s="23" t="inlineStr"/>
       <c r="AH33" s="23" t="inlineStr"/>
-      <c r="AI33" s="23" t="inlineStr"/>
-      <c r="AJ33" s="24" t="inlineStr"/>
-      <c r="AK33" s="25" t="inlineStr"/>
-      <c r="AL33" s="26" t="inlineStr"/>
-      <c r="AM33" s="27" t="inlineStr"/>
-      <c r="AN33" s="28" t="inlineStr"/>
-      <c r="AO33" s="16" t="inlineStr"/>
+      <c r="AI33" s="24" t="inlineStr"/>
+      <c r="AJ33" s="25" t="inlineStr"/>
+      <c r="AK33" s="26" t="inlineStr"/>
+      <c r="AL33" s="27" t="inlineStr"/>
+      <c r="AM33" s="28" t="inlineStr"/>
+      <c r="AN33" s="16" t="inlineStr"/>
+      <c r="AO33" s="17" t="inlineStr"/>
       <c r="AP33" s="17" t="inlineStr"/>
       <c r="AQ33" s="17" t="inlineStr"/>
-      <c r="AR33" s="17" t="inlineStr"/>
-      <c r="AS33" s="17" t="inlineStr"/>
-      <c r="AT33" s="17" t="inlineStr"/>
-      <c r="AU33" s="18" t="inlineStr"/>
+      <c r="AR33" s="18" t="inlineStr"/>
+      <c r="AS33" s="19" t="inlineStr"/>
+      <c r="AT33" s="19" t="inlineStr"/>
+      <c r="AU33" s="19" t="inlineStr"/>
       <c r="AV33" s="19" t="inlineStr"/>
       <c r="AW33" s="19" t="inlineStr"/>
       <c r="AX33" s="19" t="inlineStr"/>
       <c r="AY33" s="19" t="inlineStr"/>
       <c r="AZ33" s="19" t="inlineStr"/>
       <c r="BA33" s="19" t="inlineStr"/>
-      <c r="BB33" s="19" t="inlineStr"/>
-      <c r="BC33" s="19" t="inlineStr"/>
-      <c r="BD33" s="19" t="inlineStr"/>
-      <c r="BE33" s="20" t="inlineStr"/>
-      <c r="BF33" s="21" t="inlineStr"/>
-      <c r="BG33" s="21" t="inlineStr"/>
-      <c r="BH33" s="22" t="inlineStr"/>
+      <c r="BB33" s="20" t="inlineStr"/>
+      <c r="BC33" s="21" t="inlineStr"/>
+      <c r="BD33" s="21" t="inlineStr"/>
+      <c r="BE33" s="22" t="inlineStr"/>
+      <c r="BF33" s="23" t="inlineStr"/>
+      <c r="BG33" s="23" t="inlineStr"/>
+      <c r="BH33" s="23" t="inlineStr"/>
       <c r="BI33" s="23" t="inlineStr"/>
       <c r="BJ33" s="23" t="inlineStr"/>
       <c r="BK33" s="23" t="inlineStr"/>
@@ -4389,16 +4257,13 @@
       <c r="BS33" s="23" t="inlineStr"/>
       <c r="BT33" s="23" t="inlineStr"/>
       <c r="BU33" s="23" t="inlineStr"/>
-      <c r="BV33" s="23" t="inlineStr"/>
-      <c r="BW33" s="23" t="inlineStr"/>
-      <c r="BX33" s="23" t="inlineStr"/>
-      <c r="BY33" s="24" t="inlineStr"/>
+      <c r="BV33" s="24" t="inlineStr"/>
+      <c r="BW33" s="29" t="inlineStr"/>
+      <c r="BX33" s="29" t="inlineStr"/>
+      <c r="BY33" s="29" t="inlineStr"/>
       <c r="BZ33" s="29" t="inlineStr"/>
-      <c r="CA33" s="29" t="inlineStr"/>
-      <c r="CB33" s="29" t="inlineStr"/>
-      <c r="CC33" s="29" t="inlineStr"/>
-      <c r="CD33" s="25" t="inlineStr"/>
-      <c r="CE33" s="26" t="inlineStr"/>
+      <c r="CA33" s="25" t="inlineStr"/>
+      <c r="CB33" s="26" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4430,37 +4295,37 @@
       <c r="AA34" s="21" t="inlineStr"/>
       <c r="AB34" s="21" t="inlineStr"/>
       <c r="AC34" s="21" t="inlineStr"/>
-      <c r="AD34" s="21" t="inlineStr"/>
-      <c r="AE34" s="22" t="inlineStr"/>
+      <c r="AD34" s="22" t="inlineStr"/>
+      <c r="AE34" s="23" t="inlineStr"/>
       <c r="AF34" s="23" t="inlineStr"/>
       <c r="AG34" s="23" t="inlineStr"/>
       <c r="AH34" s="23" t="inlineStr"/>
-      <c r="AI34" s="23" t="inlineStr"/>
-      <c r="AJ34" s="24" t="inlineStr"/>
-      <c r="AK34" s="25" t="inlineStr"/>
-      <c r="AL34" s="26" t="inlineStr"/>
-      <c r="AM34" s="27" t="inlineStr"/>
-      <c r="AN34" s="28" t="inlineStr"/>
-      <c r="AO34" s="16" t="inlineStr"/>
+      <c r="AI34" s="24" t="inlineStr"/>
+      <c r="AJ34" s="25" t="inlineStr"/>
+      <c r="AK34" s="26" t="inlineStr"/>
+      <c r="AL34" s="27" t="inlineStr"/>
+      <c r="AM34" s="28" t="inlineStr"/>
+      <c r="AN34" s="16" t="inlineStr"/>
+      <c r="AO34" s="17" t="inlineStr"/>
       <c r="AP34" s="17" t="inlineStr"/>
       <c r="AQ34" s="17" t="inlineStr"/>
-      <c r="AR34" s="17" t="inlineStr"/>
-      <c r="AS34" s="17" t="inlineStr"/>
-      <c r="AT34" s="17" t="inlineStr"/>
-      <c r="AU34" s="18" t="inlineStr"/>
+      <c r="AR34" s="18" t="inlineStr"/>
+      <c r="AS34" s="19" t="inlineStr"/>
+      <c r="AT34" s="19" t="inlineStr"/>
+      <c r="AU34" s="19" t="inlineStr"/>
       <c r="AV34" s="19" t="inlineStr"/>
       <c r="AW34" s="19" t="inlineStr"/>
       <c r="AX34" s="19" t="inlineStr"/>
       <c r="AY34" s="19" t="inlineStr"/>
       <c r="AZ34" s="19" t="inlineStr"/>
       <c r="BA34" s="19" t="inlineStr"/>
-      <c r="BB34" s="19" t="inlineStr"/>
-      <c r="BC34" s="19" t="inlineStr"/>
-      <c r="BD34" s="19" t="inlineStr"/>
-      <c r="BE34" s="20" t="inlineStr"/>
-      <c r="BF34" s="21" t="inlineStr"/>
-      <c r="BG34" s="21" t="inlineStr"/>
-      <c r="BH34" s="22" t="inlineStr"/>
+      <c r="BB34" s="20" t="inlineStr"/>
+      <c r="BC34" s="21" t="inlineStr"/>
+      <c r="BD34" s="21" t="inlineStr"/>
+      <c r="BE34" s="22" t="inlineStr"/>
+      <c r="BF34" s="23" t="inlineStr"/>
+      <c r="BG34" s="23" t="inlineStr"/>
+      <c r="BH34" s="23" t="inlineStr"/>
       <c r="BI34" s="23" t="inlineStr"/>
       <c r="BJ34" s="23" t="inlineStr"/>
       <c r="BK34" s="23" t="inlineStr"/>
@@ -4474,16 +4339,13 @@
       <c r="BS34" s="23" t="inlineStr"/>
       <c r="BT34" s="23" t="inlineStr"/>
       <c r="BU34" s="23" t="inlineStr"/>
-      <c r="BV34" s="23" t="inlineStr"/>
-      <c r="BW34" s="23" t="inlineStr"/>
-      <c r="BX34" s="23" t="inlineStr"/>
-      <c r="BY34" s="24" t="inlineStr"/>
+      <c r="BV34" s="24" t="inlineStr"/>
+      <c r="BW34" s="29" t="inlineStr"/>
+      <c r="BX34" s="29" t="inlineStr"/>
+      <c r="BY34" s="29" t="inlineStr"/>
       <c r="BZ34" s="29" t="inlineStr"/>
-      <c r="CA34" s="29" t="inlineStr"/>
-      <c r="CB34" s="29" t="inlineStr"/>
-      <c r="CC34" s="29" t="inlineStr"/>
-      <c r="CD34" s="25" t="inlineStr"/>
-      <c r="CE34" s="26" t="inlineStr"/>
+      <c r="CA34" s="25" t="inlineStr"/>
+      <c r="CB34" s="26" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4515,37 +4377,37 @@
       <c r="AA35" s="21" t="inlineStr"/>
       <c r="AB35" s="21" t="inlineStr"/>
       <c r="AC35" s="21" t="inlineStr"/>
-      <c r="AD35" s="21" t="inlineStr"/>
-      <c r="AE35" s="22" t="inlineStr"/>
+      <c r="AD35" s="22" t="inlineStr"/>
+      <c r="AE35" s="23" t="inlineStr"/>
       <c r="AF35" s="23" t="inlineStr"/>
       <c r="AG35" s="23" t="inlineStr"/>
       <c r="AH35" s="23" t="inlineStr"/>
-      <c r="AI35" s="23" t="inlineStr"/>
-      <c r="AJ35" s="24" t="inlineStr"/>
-      <c r="AK35" s="25" t="inlineStr"/>
-      <c r="AL35" s="26" t="inlineStr"/>
-      <c r="AM35" s="27" t="inlineStr"/>
-      <c r="AN35" s="28" t="inlineStr"/>
-      <c r="AO35" s="16" t="inlineStr"/>
+      <c r="AI35" s="24" t="inlineStr"/>
+      <c r="AJ35" s="25" t="inlineStr"/>
+      <c r="AK35" s="26" t="inlineStr"/>
+      <c r="AL35" s="27" t="inlineStr"/>
+      <c r="AM35" s="28" t="inlineStr"/>
+      <c r="AN35" s="16" t="inlineStr"/>
+      <c r="AO35" s="17" t="inlineStr"/>
       <c r="AP35" s="17" t="inlineStr"/>
       <c r="AQ35" s="17" t="inlineStr"/>
-      <c r="AR35" s="17" t="inlineStr"/>
-      <c r="AS35" s="17" t="inlineStr"/>
-      <c r="AT35" s="17" t="inlineStr"/>
-      <c r="AU35" s="18" t="inlineStr"/>
+      <c r="AR35" s="18" t="inlineStr"/>
+      <c r="AS35" s="19" t="inlineStr"/>
+      <c r="AT35" s="19" t="inlineStr"/>
+      <c r="AU35" s="19" t="inlineStr"/>
       <c r="AV35" s="19" t="inlineStr"/>
       <c r="AW35" s="19" t="inlineStr"/>
       <c r="AX35" s="19" t="inlineStr"/>
       <c r="AY35" s="19" t="inlineStr"/>
       <c r="AZ35" s="19" t="inlineStr"/>
       <c r="BA35" s="19" t="inlineStr"/>
-      <c r="BB35" s="19" t="inlineStr"/>
-      <c r="BC35" s="19" t="inlineStr"/>
-      <c r="BD35" s="19" t="inlineStr"/>
-      <c r="BE35" s="20" t="inlineStr"/>
-      <c r="BF35" s="21" t="inlineStr"/>
-      <c r="BG35" s="21" t="inlineStr"/>
-      <c r="BH35" s="22" t="inlineStr"/>
+      <c r="BB35" s="20" t="inlineStr"/>
+      <c r="BC35" s="21" t="inlineStr"/>
+      <c r="BD35" s="21" t="inlineStr"/>
+      <c r="BE35" s="22" t="inlineStr"/>
+      <c r="BF35" s="23" t="inlineStr"/>
+      <c r="BG35" s="23" t="inlineStr"/>
+      <c r="BH35" s="23" t="inlineStr"/>
       <c r="BI35" s="23" t="inlineStr"/>
       <c r="BJ35" s="23" t="inlineStr"/>
       <c r="BK35" s="23" t="inlineStr"/>
@@ -4559,16 +4421,13 @@
       <c r="BS35" s="23" t="inlineStr"/>
       <c r="BT35" s="23" t="inlineStr"/>
       <c r="BU35" s="23" t="inlineStr"/>
-      <c r="BV35" s="23" t="inlineStr"/>
-      <c r="BW35" s="23" t="inlineStr"/>
-      <c r="BX35" s="23" t="inlineStr"/>
-      <c r="BY35" s="24" t="inlineStr"/>
+      <c r="BV35" s="24" t="inlineStr"/>
+      <c r="BW35" s="29" t="inlineStr"/>
+      <c r="BX35" s="29" t="inlineStr"/>
+      <c r="BY35" s="29" t="inlineStr"/>
       <c r="BZ35" s="29" t="inlineStr"/>
-      <c r="CA35" s="29" t="inlineStr"/>
-      <c r="CB35" s="29" t="inlineStr"/>
-      <c r="CC35" s="29" t="inlineStr"/>
-      <c r="CD35" s="25" t="inlineStr"/>
-      <c r="CE35" s="26" t="inlineStr"/>
+      <c r="CA35" s="25" t="inlineStr"/>
+      <c r="CB35" s="26" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4600,37 +4459,37 @@
       <c r="AA36" s="21" t="inlineStr"/>
       <c r="AB36" s="21" t="inlineStr"/>
       <c r="AC36" s="21" t="inlineStr"/>
-      <c r="AD36" s="21" t="inlineStr"/>
-      <c r="AE36" s="22" t="inlineStr"/>
+      <c r="AD36" s="22" t="inlineStr"/>
+      <c r="AE36" s="23" t="inlineStr"/>
       <c r="AF36" s="23" t="inlineStr"/>
       <c r="AG36" s="23" t="inlineStr"/>
       <c r="AH36" s="23" t="inlineStr"/>
-      <c r="AI36" s="23" t="inlineStr"/>
-      <c r="AJ36" s="24" t="inlineStr"/>
-      <c r="AK36" s="25" t="inlineStr"/>
-      <c r="AL36" s="26" t="inlineStr"/>
-      <c r="AM36" s="27" t="inlineStr"/>
-      <c r="AN36" s="28" t="inlineStr"/>
-      <c r="AO36" s="16" t="inlineStr"/>
+      <c r="AI36" s="24" t="inlineStr"/>
+      <c r="AJ36" s="25" t="inlineStr"/>
+      <c r="AK36" s="26" t="inlineStr"/>
+      <c r="AL36" s="27" t="inlineStr"/>
+      <c r="AM36" s="28" t="inlineStr"/>
+      <c r="AN36" s="16" t="inlineStr"/>
+      <c r="AO36" s="17" t="inlineStr"/>
       <c r="AP36" s="17" t="inlineStr"/>
       <c r="AQ36" s="17" t="inlineStr"/>
-      <c r="AR36" s="17" t="inlineStr"/>
-      <c r="AS36" s="17" t="inlineStr"/>
-      <c r="AT36" s="17" t="inlineStr"/>
-      <c r="AU36" s="18" t="inlineStr"/>
+      <c r="AR36" s="18" t="inlineStr"/>
+      <c r="AS36" s="19" t="inlineStr"/>
+      <c r="AT36" s="19" t="inlineStr"/>
+      <c r="AU36" s="19" t="inlineStr"/>
       <c r="AV36" s="19" t="inlineStr"/>
       <c r="AW36" s="19" t="inlineStr"/>
       <c r="AX36" s="19" t="inlineStr"/>
       <c r="AY36" s="19" t="inlineStr"/>
       <c r="AZ36" s="19" t="inlineStr"/>
       <c r="BA36" s="19" t="inlineStr"/>
-      <c r="BB36" s="19" t="inlineStr"/>
-      <c r="BC36" s="19" t="inlineStr"/>
-      <c r="BD36" s="19" t="inlineStr"/>
-      <c r="BE36" s="20" t="inlineStr"/>
-      <c r="BF36" s="21" t="inlineStr"/>
-      <c r="BG36" s="21" t="inlineStr"/>
-      <c r="BH36" s="22" t="inlineStr"/>
+      <c r="BB36" s="20" t="inlineStr"/>
+      <c r="BC36" s="21" t="inlineStr"/>
+      <c r="BD36" s="21" t="inlineStr"/>
+      <c r="BE36" s="22" t="inlineStr"/>
+      <c r="BF36" s="23" t="inlineStr"/>
+      <c r="BG36" s="23" t="inlineStr"/>
+      <c r="BH36" s="23" t="inlineStr"/>
       <c r="BI36" s="23" t="inlineStr"/>
       <c r="BJ36" s="23" t="inlineStr"/>
       <c r="BK36" s="23" t="inlineStr"/>
@@ -4644,16 +4503,13 @@
       <c r="BS36" s="23" t="inlineStr"/>
       <c r="BT36" s="23" t="inlineStr"/>
       <c r="BU36" s="23" t="inlineStr"/>
-      <c r="BV36" s="23" t="inlineStr"/>
-      <c r="BW36" s="23" t="inlineStr"/>
-      <c r="BX36" s="23" t="inlineStr"/>
-      <c r="BY36" s="24" t="inlineStr"/>
+      <c r="BV36" s="24" t="inlineStr"/>
+      <c r="BW36" s="29" t="inlineStr"/>
+      <c r="BX36" s="29" t="inlineStr"/>
+      <c r="BY36" s="29" t="inlineStr"/>
       <c r="BZ36" s="29" t="inlineStr"/>
-      <c r="CA36" s="29" t="inlineStr"/>
-      <c r="CB36" s="29" t="inlineStr"/>
-      <c r="CC36" s="29" t="inlineStr"/>
-      <c r="CD36" s="25" t="inlineStr"/>
-      <c r="CE36" s="26" t="inlineStr"/>
+      <c r="CA36" s="25" t="inlineStr"/>
+      <c r="CB36" s="26" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4685,37 +4541,37 @@
       <c r="AA37" s="21" t="inlineStr"/>
       <c r="AB37" s="21" t="inlineStr"/>
       <c r="AC37" s="21" t="inlineStr"/>
-      <c r="AD37" s="21" t="inlineStr"/>
-      <c r="AE37" s="22" t="inlineStr"/>
+      <c r="AD37" s="22" t="inlineStr"/>
+      <c r="AE37" s="23" t="inlineStr"/>
       <c r="AF37" s="23" t="inlineStr"/>
       <c r="AG37" s="23" t="inlineStr"/>
       <c r="AH37" s="23" t="inlineStr"/>
-      <c r="AI37" s="23" t="inlineStr"/>
-      <c r="AJ37" s="24" t="inlineStr"/>
-      <c r="AK37" s="25" t="inlineStr"/>
-      <c r="AL37" s="26" t="inlineStr"/>
-      <c r="AM37" s="27" t="inlineStr"/>
-      <c r="AN37" s="28" t="inlineStr"/>
-      <c r="AO37" s="16" t="inlineStr"/>
+      <c r="AI37" s="24" t="inlineStr"/>
+      <c r="AJ37" s="25" t="inlineStr"/>
+      <c r="AK37" s="26" t="inlineStr"/>
+      <c r="AL37" s="27" t="inlineStr"/>
+      <c r="AM37" s="28" t="inlineStr"/>
+      <c r="AN37" s="16" t="inlineStr"/>
+      <c r="AO37" s="17" t="inlineStr"/>
       <c r="AP37" s="17" t="inlineStr"/>
       <c r="AQ37" s="17" t="inlineStr"/>
-      <c r="AR37" s="17" t="inlineStr"/>
-      <c r="AS37" s="17" t="inlineStr"/>
-      <c r="AT37" s="17" t="inlineStr"/>
-      <c r="AU37" s="18" t="inlineStr"/>
+      <c r="AR37" s="18" t="inlineStr"/>
+      <c r="AS37" s="19" t="inlineStr"/>
+      <c r="AT37" s="19" t="inlineStr"/>
+      <c r="AU37" s="19" t="inlineStr"/>
       <c r="AV37" s="19" t="inlineStr"/>
       <c r="AW37" s="19" t="inlineStr"/>
       <c r="AX37" s="19" t="inlineStr"/>
       <c r="AY37" s="19" t="inlineStr"/>
       <c r="AZ37" s="19" t="inlineStr"/>
       <c r="BA37" s="19" t="inlineStr"/>
-      <c r="BB37" s="19" t="inlineStr"/>
-      <c r="BC37" s="19" t="inlineStr"/>
-      <c r="BD37" s="19" t="inlineStr"/>
-      <c r="BE37" s="20" t="inlineStr"/>
-      <c r="BF37" s="21" t="inlineStr"/>
-      <c r="BG37" s="21" t="inlineStr"/>
-      <c r="BH37" s="22" t="inlineStr"/>
+      <c r="BB37" s="20" t="inlineStr"/>
+      <c r="BC37" s="21" t="inlineStr"/>
+      <c r="BD37" s="21" t="inlineStr"/>
+      <c r="BE37" s="22" t="inlineStr"/>
+      <c r="BF37" s="23" t="inlineStr"/>
+      <c r="BG37" s="23" t="inlineStr"/>
+      <c r="BH37" s="23" t="inlineStr"/>
       <c r="BI37" s="23" t="inlineStr"/>
       <c r="BJ37" s="23" t="inlineStr"/>
       <c r="BK37" s="23" t="inlineStr"/>
@@ -4729,16 +4585,13 @@
       <c r="BS37" s="23" t="inlineStr"/>
       <c r="BT37" s="23" t="inlineStr"/>
       <c r="BU37" s="23" t="inlineStr"/>
-      <c r="BV37" s="23" t="inlineStr"/>
-      <c r="BW37" s="23" t="inlineStr"/>
-      <c r="BX37" s="23" t="inlineStr"/>
-      <c r="BY37" s="24" t="inlineStr"/>
+      <c r="BV37" s="24" t="inlineStr"/>
+      <c r="BW37" s="29" t="inlineStr"/>
+      <c r="BX37" s="29" t="inlineStr"/>
+      <c r="BY37" s="29" t="inlineStr"/>
       <c r="BZ37" s="29" t="inlineStr"/>
-      <c r="CA37" s="29" t="inlineStr"/>
-      <c r="CB37" s="29" t="inlineStr"/>
-      <c r="CC37" s="29" t="inlineStr"/>
-      <c r="CD37" s="25" t="inlineStr"/>
-      <c r="CE37" s="26" t="inlineStr"/>
+      <c r="CA37" s="25" t="inlineStr"/>
+      <c r="CB37" s="26" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4770,37 +4623,37 @@
       <c r="AA38" s="21" t="inlineStr"/>
       <c r="AB38" s="21" t="inlineStr"/>
       <c r="AC38" s="21" t="inlineStr"/>
-      <c r="AD38" s="21" t="inlineStr"/>
-      <c r="AE38" s="22" t="inlineStr"/>
+      <c r="AD38" s="22" t="inlineStr"/>
+      <c r="AE38" s="23" t="inlineStr"/>
       <c r="AF38" s="23" t="inlineStr"/>
       <c r="AG38" s="23" t="inlineStr"/>
       <c r="AH38" s="23" t="inlineStr"/>
-      <c r="AI38" s="23" t="inlineStr"/>
-      <c r="AJ38" s="24" t="inlineStr"/>
-      <c r="AK38" s="25" t="inlineStr"/>
-      <c r="AL38" s="26" t="inlineStr"/>
-      <c r="AM38" s="27" t="inlineStr"/>
-      <c r="AN38" s="28" t="inlineStr"/>
-      <c r="AO38" s="16" t="inlineStr"/>
+      <c r="AI38" s="24" t="inlineStr"/>
+      <c r="AJ38" s="25" t="inlineStr"/>
+      <c r="AK38" s="26" t="inlineStr"/>
+      <c r="AL38" s="27" t="inlineStr"/>
+      <c r="AM38" s="28" t="inlineStr"/>
+      <c r="AN38" s="16" t="inlineStr"/>
+      <c r="AO38" s="17" t="inlineStr"/>
       <c r="AP38" s="17" t="inlineStr"/>
       <c r="AQ38" s="17" t="inlineStr"/>
-      <c r="AR38" s="17" t="inlineStr"/>
-      <c r="AS38" s="17" t="inlineStr"/>
-      <c r="AT38" s="17" t="inlineStr"/>
-      <c r="AU38" s="18" t="inlineStr"/>
+      <c r="AR38" s="18" t="inlineStr"/>
+      <c r="AS38" s="19" t="inlineStr"/>
+      <c r="AT38" s="19" t="inlineStr"/>
+      <c r="AU38" s="19" t="inlineStr"/>
       <c r="AV38" s="19" t="inlineStr"/>
       <c r="AW38" s="19" t="inlineStr"/>
       <c r="AX38" s="19" t="inlineStr"/>
       <c r="AY38" s="19" t="inlineStr"/>
       <c r="AZ38" s="19" t="inlineStr"/>
       <c r="BA38" s="19" t="inlineStr"/>
-      <c r="BB38" s="19" t="inlineStr"/>
-      <c r="BC38" s="19" t="inlineStr"/>
-      <c r="BD38" s="19" t="inlineStr"/>
-      <c r="BE38" s="20" t="inlineStr"/>
-      <c r="BF38" s="21" t="inlineStr"/>
-      <c r="BG38" s="21" t="inlineStr"/>
-      <c r="BH38" s="22" t="inlineStr"/>
+      <c r="BB38" s="20" t="inlineStr"/>
+      <c r="BC38" s="21" t="inlineStr"/>
+      <c r="BD38" s="21" t="inlineStr"/>
+      <c r="BE38" s="22" t="inlineStr"/>
+      <c r="BF38" s="23" t="inlineStr"/>
+      <c r="BG38" s="23" t="inlineStr"/>
+      <c r="BH38" s="23" t="inlineStr"/>
       <c r="BI38" s="23" t="inlineStr"/>
       <c r="BJ38" s="23" t="inlineStr"/>
       <c r="BK38" s="23" t="inlineStr"/>
@@ -4814,16 +4667,13 @@
       <c r="BS38" s="23" t="inlineStr"/>
       <c r="BT38" s="23" t="inlineStr"/>
       <c r="BU38" s="23" t="inlineStr"/>
-      <c r="BV38" s="23" t="inlineStr"/>
-      <c r="BW38" s="23" t="inlineStr"/>
-      <c r="BX38" s="23" t="inlineStr"/>
-      <c r="BY38" s="24" t="inlineStr"/>
+      <c r="BV38" s="24" t="inlineStr"/>
+      <c r="BW38" s="29" t="inlineStr"/>
+      <c r="BX38" s="29" t="inlineStr"/>
+      <c r="BY38" s="29" t="inlineStr"/>
       <c r="BZ38" s="29" t="inlineStr"/>
-      <c r="CA38" s="29" t="inlineStr"/>
-      <c r="CB38" s="29" t="inlineStr"/>
-      <c r="CC38" s="29" t="inlineStr"/>
-      <c r="CD38" s="25" t="inlineStr"/>
-      <c r="CE38" s="26" t="inlineStr"/>
+      <c r="CA38" s="25" t="inlineStr"/>
+      <c r="CB38" s="26" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4855,37 +4705,37 @@
       <c r="AA39" s="21" t="inlineStr"/>
       <c r="AB39" s="21" t="inlineStr"/>
       <c r="AC39" s="21" t="inlineStr"/>
-      <c r="AD39" s="21" t="inlineStr"/>
-      <c r="AE39" s="22" t="inlineStr"/>
+      <c r="AD39" s="22" t="inlineStr"/>
+      <c r="AE39" s="23" t="inlineStr"/>
       <c r="AF39" s="23" t="inlineStr"/>
       <c r="AG39" s="23" t="inlineStr"/>
       <c r="AH39" s="23" t="inlineStr"/>
-      <c r="AI39" s="23" t="inlineStr"/>
-      <c r="AJ39" s="24" t="inlineStr"/>
-      <c r="AK39" s="25" t="inlineStr"/>
-      <c r="AL39" s="26" t="inlineStr"/>
-      <c r="AM39" s="27" t="inlineStr"/>
-      <c r="AN39" s="28" t="inlineStr"/>
-      <c r="AO39" s="16" t="inlineStr"/>
+      <c r="AI39" s="24" t="inlineStr"/>
+      <c r="AJ39" s="25" t="inlineStr"/>
+      <c r="AK39" s="26" t="inlineStr"/>
+      <c r="AL39" s="27" t="inlineStr"/>
+      <c r="AM39" s="28" t="inlineStr"/>
+      <c r="AN39" s="16" t="inlineStr"/>
+      <c r="AO39" s="17" t="inlineStr"/>
       <c r="AP39" s="17" t="inlineStr"/>
       <c r="AQ39" s="17" t="inlineStr"/>
-      <c r="AR39" s="17" t="inlineStr"/>
-      <c r="AS39" s="17" t="inlineStr"/>
-      <c r="AT39" s="17" t="inlineStr"/>
-      <c r="AU39" s="18" t="inlineStr"/>
+      <c r="AR39" s="18" t="inlineStr"/>
+      <c r="AS39" s="19" t="inlineStr"/>
+      <c r="AT39" s="19" t="inlineStr"/>
+      <c r="AU39" s="19" t="inlineStr"/>
       <c r="AV39" s="19" t="inlineStr"/>
       <c r="AW39" s="19" t="inlineStr"/>
       <c r="AX39" s="19" t="inlineStr"/>
       <c r="AY39" s="19" t="inlineStr"/>
       <c r="AZ39" s="19" t="inlineStr"/>
       <c r="BA39" s="19" t="inlineStr"/>
-      <c r="BB39" s="19" t="inlineStr"/>
-      <c r="BC39" s="19" t="inlineStr"/>
-      <c r="BD39" s="19" t="inlineStr"/>
-      <c r="BE39" s="20" t="inlineStr"/>
-      <c r="BF39" s="21" t="inlineStr"/>
-      <c r="BG39" s="21" t="inlineStr"/>
-      <c r="BH39" s="22" t="inlineStr"/>
+      <c r="BB39" s="20" t="inlineStr"/>
+      <c r="BC39" s="21" t="inlineStr"/>
+      <c r="BD39" s="21" t="inlineStr"/>
+      <c r="BE39" s="22" t="inlineStr"/>
+      <c r="BF39" s="23" t="inlineStr"/>
+      <c r="BG39" s="23" t="inlineStr"/>
+      <c r="BH39" s="23" t="inlineStr"/>
       <c r="BI39" s="23" t="inlineStr"/>
       <c r="BJ39" s="23" t="inlineStr"/>
       <c r="BK39" s="23" t="inlineStr"/>
@@ -4899,16 +4749,13 @@
       <c r="BS39" s="23" t="inlineStr"/>
       <c r="BT39" s="23" t="inlineStr"/>
       <c r="BU39" s="23" t="inlineStr"/>
-      <c r="BV39" s="23" t="inlineStr"/>
-      <c r="BW39" s="23" t="inlineStr"/>
-      <c r="BX39" s="23" t="inlineStr"/>
-      <c r="BY39" s="24" t="inlineStr"/>
+      <c r="BV39" s="24" t="inlineStr"/>
+      <c r="BW39" s="29" t="inlineStr"/>
+      <c r="BX39" s="29" t="inlineStr"/>
+      <c r="BY39" s="29" t="inlineStr"/>
       <c r="BZ39" s="29" t="inlineStr"/>
-      <c r="CA39" s="29" t="inlineStr"/>
-      <c r="CB39" s="29" t="inlineStr"/>
-      <c r="CC39" s="29" t="inlineStr"/>
-      <c r="CD39" s="25" t="inlineStr"/>
-      <c r="CE39" s="26" t="inlineStr"/>
+      <c r="CA39" s="25" t="inlineStr"/>
+      <c r="CB39" s="26" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4940,37 +4787,37 @@
       <c r="AA40" s="21" t="inlineStr"/>
       <c r="AB40" s="21" t="inlineStr"/>
       <c r="AC40" s="21" t="inlineStr"/>
-      <c r="AD40" s="21" t="inlineStr"/>
-      <c r="AE40" s="22" t="inlineStr"/>
+      <c r="AD40" s="22" t="inlineStr"/>
+      <c r="AE40" s="23" t="inlineStr"/>
       <c r="AF40" s="23" t="inlineStr"/>
       <c r="AG40" s="23" t="inlineStr"/>
       <c r="AH40" s="23" t="inlineStr"/>
-      <c r="AI40" s="23" t="inlineStr"/>
-      <c r="AJ40" s="24" t="inlineStr"/>
-      <c r="AK40" s="25" t="inlineStr"/>
-      <c r="AL40" s="26" t="inlineStr"/>
-      <c r="AM40" s="27" t="inlineStr"/>
-      <c r="AN40" s="28" t="inlineStr"/>
-      <c r="AO40" s="16" t="inlineStr"/>
+      <c r="AI40" s="24" t="inlineStr"/>
+      <c r="AJ40" s="25" t="inlineStr"/>
+      <c r="AK40" s="26" t="inlineStr"/>
+      <c r="AL40" s="27" t="inlineStr"/>
+      <c r="AM40" s="28" t="inlineStr"/>
+      <c r="AN40" s="16" t="inlineStr"/>
+      <c r="AO40" s="17" t="inlineStr"/>
       <c r="AP40" s="17" t="inlineStr"/>
       <c r="AQ40" s="17" t="inlineStr"/>
-      <c r="AR40" s="17" t="inlineStr"/>
-      <c r="AS40" s="17" t="inlineStr"/>
-      <c r="AT40" s="17" t="inlineStr"/>
-      <c r="AU40" s="18" t="inlineStr"/>
+      <c r="AR40" s="18" t="inlineStr"/>
+      <c r="AS40" s="19" t="inlineStr"/>
+      <c r="AT40" s="19" t="inlineStr"/>
+      <c r="AU40" s="19" t="inlineStr"/>
       <c r="AV40" s="19" t="inlineStr"/>
       <c r="AW40" s="19" t="inlineStr"/>
       <c r="AX40" s="19" t="inlineStr"/>
       <c r="AY40" s="19" t="inlineStr"/>
       <c r="AZ40" s="19" t="inlineStr"/>
       <c r="BA40" s="19" t="inlineStr"/>
-      <c r="BB40" s="19" t="inlineStr"/>
-      <c r="BC40" s="19" t="inlineStr"/>
-      <c r="BD40" s="19" t="inlineStr"/>
-      <c r="BE40" s="20" t="inlineStr"/>
-      <c r="BF40" s="21" t="inlineStr"/>
-      <c r="BG40" s="21" t="inlineStr"/>
-      <c r="BH40" s="22" t="inlineStr"/>
+      <c r="BB40" s="20" t="inlineStr"/>
+      <c r="BC40" s="21" t="inlineStr"/>
+      <c r="BD40" s="21" t="inlineStr"/>
+      <c r="BE40" s="22" t="inlineStr"/>
+      <c r="BF40" s="23" t="inlineStr"/>
+      <c r="BG40" s="23" t="inlineStr"/>
+      <c r="BH40" s="23" t="inlineStr"/>
       <c r="BI40" s="23" t="inlineStr"/>
       <c r="BJ40" s="23" t="inlineStr"/>
       <c r="BK40" s="23" t="inlineStr"/>
@@ -4984,16 +4831,13 @@
       <c r="BS40" s="23" t="inlineStr"/>
       <c r="BT40" s="23" t="inlineStr"/>
       <c r="BU40" s="23" t="inlineStr"/>
-      <c r="BV40" s="23" t="inlineStr"/>
-      <c r="BW40" s="23" t="inlineStr"/>
-      <c r="BX40" s="23" t="inlineStr"/>
-      <c r="BY40" s="24" t="inlineStr"/>
+      <c r="BV40" s="24" t="inlineStr"/>
+      <c r="BW40" s="29" t="inlineStr"/>
+      <c r="BX40" s="29" t="inlineStr"/>
+      <c r="BY40" s="29" t="inlineStr"/>
       <c r="BZ40" s="29" t="inlineStr"/>
-      <c r="CA40" s="29" t="inlineStr"/>
-      <c r="CB40" s="29" t="inlineStr"/>
-      <c r="CC40" s="29" t="inlineStr"/>
-      <c r="CD40" s="25" t="inlineStr"/>
-      <c r="CE40" s="26" t="inlineStr"/>
+      <c r="CA40" s="25" t="inlineStr"/>
+      <c r="CB40" s="26" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -5025,37 +4869,37 @@
       <c r="AA41" s="21" t="inlineStr"/>
       <c r="AB41" s="21" t="inlineStr"/>
       <c r="AC41" s="21" t="inlineStr"/>
-      <c r="AD41" s="21" t="inlineStr"/>
-      <c r="AE41" s="22" t="inlineStr"/>
+      <c r="AD41" s="22" t="inlineStr"/>
+      <c r="AE41" s="23" t="inlineStr"/>
       <c r="AF41" s="23" t="inlineStr"/>
       <c r="AG41" s="23" t="inlineStr"/>
       <c r="AH41" s="23" t="inlineStr"/>
-      <c r="AI41" s="23" t="inlineStr"/>
-      <c r="AJ41" s="24" t="inlineStr"/>
-      <c r="AK41" s="25" t="inlineStr"/>
-      <c r="AL41" s="26" t="inlineStr"/>
-      <c r="AM41" s="27" t="inlineStr"/>
-      <c r="AN41" s="28" t="inlineStr"/>
-      <c r="AO41" s="16" t="inlineStr"/>
+      <c r="AI41" s="24" t="inlineStr"/>
+      <c r="AJ41" s="25" t="inlineStr"/>
+      <c r="AK41" s="26" t="inlineStr"/>
+      <c r="AL41" s="27" t="inlineStr"/>
+      <c r="AM41" s="28" t="inlineStr"/>
+      <c r="AN41" s="16" t="inlineStr"/>
+      <c r="AO41" s="17" t="inlineStr"/>
       <c r="AP41" s="17" t="inlineStr"/>
       <c r="AQ41" s="17" t="inlineStr"/>
-      <c r="AR41" s="17" t="inlineStr"/>
-      <c r="AS41" s="17" t="inlineStr"/>
-      <c r="AT41" s="17" t="inlineStr"/>
-      <c r="AU41" s="18" t="inlineStr"/>
+      <c r="AR41" s="18" t="inlineStr"/>
+      <c r="AS41" s="19" t="inlineStr"/>
+      <c r="AT41" s="19" t="inlineStr"/>
+      <c r="AU41" s="19" t="inlineStr"/>
       <c r="AV41" s="19" t="inlineStr"/>
       <c r="AW41" s="19" t="inlineStr"/>
       <c r="AX41" s="19" t="inlineStr"/>
       <c r="AY41" s="19" t="inlineStr"/>
       <c r="AZ41" s="19" t="inlineStr"/>
       <c r="BA41" s="19" t="inlineStr"/>
-      <c r="BB41" s="19" t="inlineStr"/>
-      <c r="BC41" s="19" t="inlineStr"/>
-      <c r="BD41" s="19" t="inlineStr"/>
-      <c r="BE41" s="20" t="inlineStr"/>
-      <c r="BF41" s="21" t="inlineStr"/>
-      <c r="BG41" s="21" t="inlineStr"/>
-      <c r="BH41" s="22" t="inlineStr"/>
+      <c r="BB41" s="20" t="inlineStr"/>
+      <c r="BC41" s="21" t="inlineStr"/>
+      <c r="BD41" s="21" t="inlineStr"/>
+      <c r="BE41" s="22" t="inlineStr"/>
+      <c r="BF41" s="23" t="inlineStr"/>
+      <c r="BG41" s="23" t="inlineStr"/>
+      <c r="BH41" s="23" t="inlineStr"/>
       <c r="BI41" s="23" t="inlineStr"/>
       <c r="BJ41" s="23" t="inlineStr"/>
       <c r="BK41" s="23" t="inlineStr"/>
@@ -5069,16 +4913,13 @@
       <c r="BS41" s="23" t="inlineStr"/>
       <c r="BT41" s="23" t="inlineStr"/>
       <c r="BU41" s="23" t="inlineStr"/>
-      <c r="BV41" s="23" t="inlineStr"/>
-      <c r="BW41" s="23" t="inlineStr"/>
-      <c r="BX41" s="23" t="inlineStr"/>
-      <c r="BY41" s="24" t="inlineStr"/>
+      <c r="BV41" s="24" t="inlineStr"/>
+      <c r="BW41" s="29" t="inlineStr"/>
+      <c r="BX41" s="29" t="inlineStr"/>
+      <c r="BY41" s="29" t="inlineStr"/>
       <c r="BZ41" s="29" t="inlineStr"/>
-      <c r="CA41" s="29" t="inlineStr"/>
-      <c r="CB41" s="29" t="inlineStr"/>
-      <c r="CC41" s="29" t="inlineStr"/>
-      <c r="CD41" s="25" t="inlineStr"/>
-      <c r="CE41" s="26" t="inlineStr"/>
+      <c r="CA41" s="25" t="inlineStr"/>
+      <c r="CB41" s="26" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5110,37 +4951,37 @@
       <c r="AA42" s="21" t="inlineStr"/>
       <c r="AB42" s="21" t="inlineStr"/>
       <c r="AC42" s="21" t="inlineStr"/>
-      <c r="AD42" s="21" t="inlineStr"/>
-      <c r="AE42" s="22" t="inlineStr"/>
+      <c r="AD42" s="22" t="inlineStr"/>
+      <c r="AE42" s="23" t="inlineStr"/>
       <c r="AF42" s="23" t="inlineStr"/>
       <c r="AG42" s="23" t="inlineStr"/>
       <c r="AH42" s="23" t="inlineStr"/>
-      <c r="AI42" s="23" t="inlineStr"/>
-      <c r="AJ42" s="24" t="inlineStr"/>
-      <c r="AK42" s="25" t="inlineStr"/>
-      <c r="AL42" s="26" t="inlineStr"/>
-      <c r="AM42" s="27" t="inlineStr"/>
-      <c r="AN42" s="28" t="inlineStr"/>
-      <c r="AO42" s="16" t="inlineStr"/>
+      <c r="AI42" s="24" t="inlineStr"/>
+      <c r="AJ42" s="25" t="inlineStr"/>
+      <c r="AK42" s="26" t="inlineStr"/>
+      <c r="AL42" s="27" t="inlineStr"/>
+      <c r="AM42" s="28" t="inlineStr"/>
+      <c r="AN42" s="16" t="inlineStr"/>
+      <c r="AO42" s="17" t="inlineStr"/>
       <c r="AP42" s="17" t="inlineStr"/>
       <c r="AQ42" s="17" t="inlineStr"/>
-      <c r="AR42" s="17" t="inlineStr"/>
-      <c r="AS42" s="17" t="inlineStr"/>
-      <c r="AT42" s="17" t="inlineStr"/>
-      <c r="AU42" s="18" t="inlineStr"/>
+      <c r="AR42" s="18" t="inlineStr"/>
+      <c r="AS42" s="19" t="inlineStr"/>
+      <c r="AT42" s="19" t="inlineStr"/>
+      <c r="AU42" s="19" t="inlineStr"/>
       <c r="AV42" s="19" t="inlineStr"/>
       <c r="AW42" s="19" t="inlineStr"/>
       <c r="AX42" s="19" t="inlineStr"/>
       <c r="AY42" s="19" t="inlineStr"/>
       <c r="AZ42" s="19" t="inlineStr"/>
       <c r="BA42" s="19" t="inlineStr"/>
-      <c r="BB42" s="19" t="inlineStr"/>
-      <c r="BC42" s="19" t="inlineStr"/>
-      <c r="BD42" s="19" t="inlineStr"/>
-      <c r="BE42" s="20" t="inlineStr"/>
-      <c r="BF42" s="21" t="inlineStr"/>
-      <c r="BG42" s="21" t="inlineStr"/>
-      <c r="BH42" s="22" t="inlineStr"/>
+      <c r="BB42" s="20" t="inlineStr"/>
+      <c r="BC42" s="21" t="inlineStr"/>
+      <c r="BD42" s="21" t="inlineStr"/>
+      <c r="BE42" s="22" t="inlineStr"/>
+      <c r="BF42" s="23" t="inlineStr"/>
+      <c r="BG42" s="23" t="inlineStr"/>
+      <c r="BH42" s="23" t="inlineStr"/>
       <c r="BI42" s="23" t="inlineStr"/>
       <c r="BJ42" s="23" t="inlineStr"/>
       <c r="BK42" s="23" t="inlineStr"/>
@@ -5154,16 +4995,13 @@
       <c r="BS42" s="23" t="inlineStr"/>
       <c r="BT42" s="23" t="inlineStr"/>
       <c r="BU42" s="23" t="inlineStr"/>
-      <c r="BV42" s="23" t="inlineStr"/>
-      <c r="BW42" s="23" t="inlineStr"/>
-      <c r="BX42" s="23" t="inlineStr"/>
-      <c r="BY42" s="24" t="inlineStr"/>
+      <c r="BV42" s="24" t="inlineStr"/>
+      <c r="BW42" s="29" t="inlineStr"/>
+      <c r="BX42" s="29" t="inlineStr"/>
+      <c r="BY42" s="29" t="inlineStr"/>
       <c r="BZ42" s="29" t="inlineStr"/>
-      <c r="CA42" s="29" t="inlineStr"/>
-      <c r="CB42" s="29" t="inlineStr"/>
-      <c r="CC42" s="29" t="inlineStr"/>
-      <c r="CD42" s="25" t="inlineStr"/>
-      <c r="CE42" s="26" t="inlineStr"/>
+      <c r="CA42" s="25" t="inlineStr"/>
+      <c r="CB42" s="26" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5195,37 +5033,37 @@
       <c r="AA43" s="21" t="inlineStr"/>
       <c r="AB43" s="21" t="inlineStr"/>
       <c r="AC43" s="21" t="inlineStr"/>
-      <c r="AD43" s="21" t="inlineStr"/>
-      <c r="AE43" s="22" t="inlineStr"/>
+      <c r="AD43" s="22" t="inlineStr"/>
+      <c r="AE43" s="23" t="inlineStr"/>
       <c r="AF43" s="23" t="inlineStr"/>
       <c r="AG43" s="23" t="inlineStr"/>
       <c r="AH43" s="23" t="inlineStr"/>
-      <c r="AI43" s="23" t="inlineStr"/>
-      <c r="AJ43" s="24" t="inlineStr"/>
-      <c r="AK43" s="25" t="inlineStr"/>
-      <c r="AL43" s="26" t="inlineStr"/>
-      <c r="AM43" s="27" t="inlineStr"/>
-      <c r="AN43" s="28" t="inlineStr"/>
-      <c r="AO43" s="16" t="inlineStr"/>
+      <c r="AI43" s="24" t="inlineStr"/>
+      <c r="AJ43" s="25" t="inlineStr"/>
+      <c r="AK43" s="26" t="inlineStr"/>
+      <c r="AL43" s="27" t="inlineStr"/>
+      <c r="AM43" s="28" t="inlineStr"/>
+      <c r="AN43" s="16" t="inlineStr"/>
+      <c r="AO43" s="17" t="inlineStr"/>
       <c r="AP43" s="17" t="inlineStr"/>
       <c r="AQ43" s="17" t="inlineStr"/>
-      <c r="AR43" s="17" t="inlineStr"/>
-      <c r="AS43" s="17" t="inlineStr"/>
-      <c r="AT43" s="17" t="inlineStr"/>
-      <c r="AU43" s="18" t="inlineStr"/>
+      <c r="AR43" s="18" t="inlineStr"/>
+      <c r="AS43" s="19" t="inlineStr"/>
+      <c r="AT43" s="19" t="inlineStr"/>
+      <c r="AU43" s="19" t="inlineStr"/>
       <c r="AV43" s="19" t="inlineStr"/>
       <c r="AW43" s="19" t="inlineStr"/>
       <c r="AX43" s="19" t="inlineStr"/>
       <c r="AY43" s="19" t="inlineStr"/>
       <c r="AZ43" s="19" t="inlineStr"/>
       <c r="BA43" s="19" t="inlineStr"/>
-      <c r="BB43" s="19" t="inlineStr"/>
-      <c r="BC43" s="19" t="inlineStr"/>
-      <c r="BD43" s="19" t="inlineStr"/>
-      <c r="BE43" s="20" t="inlineStr"/>
-      <c r="BF43" s="21" t="inlineStr"/>
-      <c r="BG43" s="21" t="inlineStr"/>
-      <c r="BH43" s="22" t="inlineStr"/>
+      <c r="BB43" s="20" t="inlineStr"/>
+      <c r="BC43" s="21" t="inlineStr"/>
+      <c r="BD43" s="21" t="inlineStr"/>
+      <c r="BE43" s="22" t="inlineStr"/>
+      <c r="BF43" s="23" t="inlineStr"/>
+      <c r="BG43" s="23" t="inlineStr"/>
+      <c r="BH43" s="23" t="inlineStr"/>
       <c r="BI43" s="23" t="inlineStr"/>
       <c r="BJ43" s="23" t="inlineStr"/>
       <c r="BK43" s="23" t="inlineStr"/>
@@ -5239,16 +5077,13 @@
       <c r="BS43" s="23" t="inlineStr"/>
       <c r="BT43" s="23" t="inlineStr"/>
       <c r="BU43" s="23" t="inlineStr"/>
-      <c r="BV43" s="23" t="inlineStr"/>
-      <c r="BW43" s="23" t="inlineStr"/>
-      <c r="BX43" s="23" t="inlineStr"/>
-      <c r="BY43" s="24" t="inlineStr"/>
+      <c r="BV43" s="24" t="inlineStr"/>
+      <c r="BW43" s="29" t="inlineStr"/>
+      <c r="BX43" s="29" t="inlineStr"/>
+      <c r="BY43" s="29" t="inlineStr"/>
       <c r="BZ43" s="29" t="inlineStr"/>
-      <c r="CA43" s="29" t="inlineStr"/>
-      <c r="CB43" s="29" t="inlineStr"/>
-      <c r="CC43" s="29" t="inlineStr"/>
-      <c r="CD43" s="25" t="inlineStr"/>
-      <c r="CE43" s="26" t="inlineStr"/>
+      <c r="CA43" s="25" t="inlineStr"/>
+      <c r="CB43" s="26" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5280,37 +5115,37 @@
       <c r="AA44" s="21" t="inlineStr"/>
       <c r="AB44" s="21" t="inlineStr"/>
       <c r="AC44" s="21" t="inlineStr"/>
-      <c r="AD44" s="21" t="inlineStr"/>
-      <c r="AE44" s="22" t="inlineStr"/>
+      <c r="AD44" s="22" t="inlineStr"/>
+      <c r="AE44" s="23" t="inlineStr"/>
       <c r="AF44" s="23" t="inlineStr"/>
       <c r="AG44" s="23" t="inlineStr"/>
       <c r="AH44" s="23" t="inlineStr"/>
-      <c r="AI44" s="23" t="inlineStr"/>
-      <c r="AJ44" s="24" t="inlineStr"/>
-      <c r="AK44" s="25" t="inlineStr"/>
-      <c r="AL44" s="26" t="inlineStr"/>
-      <c r="AM44" s="27" t="inlineStr"/>
-      <c r="AN44" s="28" t="inlineStr"/>
-      <c r="AO44" s="16" t="inlineStr"/>
+      <c r="AI44" s="24" t="inlineStr"/>
+      <c r="AJ44" s="25" t="inlineStr"/>
+      <c r="AK44" s="26" t="inlineStr"/>
+      <c r="AL44" s="27" t="inlineStr"/>
+      <c r="AM44" s="28" t="inlineStr"/>
+      <c r="AN44" s="16" t="inlineStr"/>
+      <c r="AO44" s="17" t="inlineStr"/>
       <c r="AP44" s="17" t="inlineStr"/>
       <c r="AQ44" s="17" t="inlineStr"/>
-      <c r="AR44" s="17" t="inlineStr"/>
-      <c r="AS44" s="17" t="inlineStr"/>
-      <c r="AT44" s="17" t="inlineStr"/>
-      <c r="AU44" s="18" t="inlineStr"/>
+      <c r="AR44" s="18" t="inlineStr"/>
+      <c r="AS44" s="19" t="inlineStr"/>
+      <c r="AT44" s="19" t="inlineStr"/>
+      <c r="AU44" s="19" t="inlineStr"/>
       <c r="AV44" s="19" t="inlineStr"/>
       <c r="AW44" s="19" t="inlineStr"/>
       <c r="AX44" s="19" t="inlineStr"/>
       <c r="AY44" s="19" t="inlineStr"/>
       <c r="AZ44" s="19" t="inlineStr"/>
       <c r="BA44" s="19" t="inlineStr"/>
-      <c r="BB44" s="19" t="inlineStr"/>
-      <c r="BC44" s="19" t="inlineStr"/>
-      <c r="BD44" s="19" t="inlineStr"/>
-      <c r="BE44" s="20" t="inlineStr"/>
-      <c r="BF44" s="21" t="inlineStr"/>
-      <c r="BG44" s="21" t="inlineStr"/>
-      <c r="BH44" s="22" t="inlineStr"/>
+      <c r="BB44" s="20" t="inlineStr"/>
+      <c r="BC44" s="21" t="inlineStr"/>
+      <c r="BD44" s="21" t="inlineStr"/>
+      <c r="BE44" s="22" t="inlineStr"/>
+      <c r="BF44" s="23" t="inlineStr"/>
+      <c r="BG44" s="23" t="inlineStr"/>
+      <c r="BH44" s="23" t="inlineStr"/>
       <c r="BI44" s="23" t="inlineStr"/>
       <c r="BJ44" s="23" t="inlineStr"/>
       <c r="BK44" s="23" t="inlineStr"/>
@@ -5324,16 +5159,13 @@
       <c r="BS44" s="23" t="inlineStr"/>
       <c r="BT44" s="23" t="inlineStr"/>
       <c r="BU44" s="23" t="inlineStr"/>
-      <c r="BV44" s="23" t="inlineStr"/>
-      <c r="BW44" s="23" t="inlineStr"/>
-      <c r="BX44" s="23" t="inlineStr"/>
-      <c r="BY44" s="24" t="inlineStr"/>
+      <c r="BV44" s="24" t="inlineStr"/>
+      <c r="BW44" s="29" t="inlineStr"/>
+      <c r="BX44" s="29" t="inlineStr"/>
+      <c r="BY44" s="29" t="inlineStr"/>
       <c r="BZ44" s="29" t="inlineStr"/>
-      <c r="CA44" s="29" t="inlineStr"/>
-      <c r="CB44" s="29" t="inlineStr"/>
-      <c r="CC44" s="29" t="inlineStr"/>
-      <c r="CD44" s="25" t="inlineStr"/>
-      <c r="CE44" s="26" t="inlineStr"/>
+      <c r="CA44" s="25" t="inlineStr"/>
+      <c r="CB44" s="26" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5365,37 +5197,37 @@
       <c r="AA45" s="21" t="inlineStr"/>
       <c r="AB45" s="21" t="inlineStr"/>
       <c r="AC45" s="21" t="inlineStr"/>
-      <c r="AD45" s="21" t="inlineStr"/>
-      <c r="AE45" s="22" t="inlineStr"/>
+      <c r="AD45" s="22" t="inlineStr"/>
+      <c r="AE45" s="23" t="inlineStr"/>
       <c r="AF45" s="23" t="inlineStr"/>
       <c r="AG45" s="23" t="inlineStr"/>
       <c r="AH45" s="23" t="inlineStr"/>
-      <c r="AI45" s="23" t="inlineStr"/>
-      <c r="AJ45" s="24" t="inlineStr"/>
-      <c r="AK45" s="25" t="inlineStr"/>
-      <c r="AL45" s="26" t="inlineStr"/>
-      <c r="AM45" s="27" t="inlineStr"/>
-      <c r="AN45" s="28" t="inlineStr"/>
-      <c r="AO45" s="16" t="inlineStr"/>
+      <c r="AI45" s="24" t="inlineStr"/>
+      <c r="AJ45" s="25" t="inlineStr"/>
+      <c r="AK45" s="26" t="inlineStr"/>
+      <c r="AL45" s="27" t="inlineStr"/>
+      <c r="AM45" s="28" t="inlineStr"/>
+      <c r="AN45" s="16" t="inlineStr"/>
+      <c r="AO45" s="17" t="inlineStr"/>
       <c r="AP45" s="17" t="inlineStr"/>
       <c r="AQ45" s="17" t="inlineStr"/>
-      <c r="AR45" s="17" t="inlineStr"/>
-      <c r="AS45" s="17" t="inlineStr"/>
-      <c r="AT45" s="17" t="inlineStr"/>
-      <c r="AU45" s="18" t="inlineStr"/>
+      <c r="AR45" s="18" t="inlineStr"/>
+      <c r="AS45" s="19" t="inlineStr"/>
+      <c r="AT45" s="19" t="inlineStr"/>
+      <c r="AU45" s="19" t="inlineStr"/>
       <c r="AV45" s="19" t="inlineStr"/>
       <c r="AW45" s="19" t="inlineStr"/>
       <c r="AX45" s="19" t="inlineStr"/>
       <c r="AY45" s="19" t="inlineStr"/>
       <c r="AZ45" s="19" t="inlineStr"/>
       <c r="BA45" s="19" t="inlineStr"/>
-      <c r="BB45" s="19" t="inlineStr"/>
-      <c r="BC45" s="19" t="inlineStr"/>
-      <c r="BD45" s="19" t="inlineStr"/>
-      <c r="BE45" s="20" t="inlineStr"/>
-      <c r="BF45" s="21" t="inlineStr"/>
-      <c r="BG45" s="21" t="inlineStr"/>
-      <c r="BH45" s="22" t="inlineStr"/>
+      <c r="BB45" s="20" t="inlineStr"/>
+      <c r="BC45" s="21" t="inlineStr"/>
+      <c r="BD45" s="21" t="inlineStr"/>
+      <c r="BE45" s="22" t="inlineStr"/>
+      <c r="BF45" s="23" t="inlineStr"/>
+      <c r="BG45" s="23" t="inlineStr"/>
+      <c r="BH45" s="23" t="inlineStr"/>
       <c r="BI45" s="23" t="inlineStr"/>
       <c r="BJ45" s="23" t="inlineStr"/>
       <c r="BK45" s="23" t="inlineStr"/>
@@ -5409,16 +5241,13 @@
       <c r="BS45" s="23" t="inlineStr"/>
       <c r="BT45" s="23" t="inlineStr"/>
       <c r="BU45" s="23" t="inlineStr"/>
-      <c r="BV45" s="23" t="inlineStr"/>
-      <c r="BW45" s="23" t="inlineStr"/>
-      <c r="BX45" s="23" t="inlineStr"/>
-      <c r="BY45" s="24" t="inlineStr"/>
+      <c r="BV45" s="24" t="inlineStr"/>
+      <c r="BW45" s="29" t="inlineStr"/>
+      <c r="BX45" s="29" t="inlineStr"/>
+      <c r="BY45" s="29" t="inlineStr"/>
       <c r="BZ45" s="29" t="inlineStr"/>
-      <c r="CA45" s="29" t="inlineStr"/>
-      <c r="CB45" s="29" t="inlineStr"/>
-      <c r="CC45" s="29" t="inlineStr"/>
-      <c r="CD45" s="25" t="inlineStr"/>
-      <c r="CE45" s="26" t="inlineStr"/>
+      <c r="CA45" s="25" t="inlineStr"/>
+      <c r="CB45" s="26" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5450,37 +5279,37 @@
       <c r="AA46" s="21" t="inlineStr"/>
       <c r="AB46" s="21" t="inlineStr"/>
       <c r="AC46" s="21" t="inlineStr"/>
-      <c r="AD46" s="21" t="inlineStr"/>
-      <c r="AE46" s="22" t="inlineStr"/>
+      <c r="AD46" s="22" t="inlineStr"/>
+      <c r="AE46" s="23" t="inlineStr"/>
       <c r="AF46" s="23" t="inlineStr"/>
       <c r="AG46" s="23" t="inlineStr"/>
       <c r="AH46" s="23" t="inlineStr"/>
-      <c r="AI46" s="23" t="inlineStr"/>
-      <c r="AJ46" s="24" t="inlineStr"/>
-      <c r="AK46" s="25" t="inlineStr"/>
-      <c r="AL46" s="26" t="inlineStr"/>
-      <c r="AM46" s="27" t="inlineStr"/>
-      <c r="AN46" s="28" t="inlineStr"/>
-      <c r="AO46" s="16" t="inlineStr"/>
+      <c r="AI46" s="24" t="inlineStr"/>
+      <c r="AJ46" s="25" t="inlineStr"/>
+      <c r="AK46" s="26" t="inlineStr"/>
+      <c r="AL46" s="27" t="inlineStr"/>
+      <c r="AM46" s="28" t="inlineStr"/>
+      <c r="AN46" s="16" t="inlineStr"/>
+      <c r="AO46" s="17" t="inlineStr"/>
       <c r="AP46" s="17" t="inlineStr"/>
       <c r="AQ46" s="17" t="inlineStr"/>
-      <c r="AR46" s="17" t="inlineStr"/>
-      <c r="AS46" s="17" t="inlineStr"/>
-      <c r="AT46" s="17" t="inlineStr"/>
-      <c r="AU46" s="18" t="inlineStr"/>
+      <c r="AR46" s="18" t="inlineStr"/>
+      <c r="AS46" s="19" t="inlineStr"/>
+      <c r="AT46" s="19" t="inlineStr"/>
+      <c r="AU46" s="19" t="inlineStr"/>
       <c r="AV46" s="19" t="inlineStr"/>
       <c r="AW46" s="19" t="inlineStr"/>
       <c r="AX46" s="19" t="inlineStr"/>
       <c r="AY46" s="19" t="inlineStr"/>
       <c r="AZ46" s="19" t="inlineStr"/>
       <c r="BA46" s="19" t="inlineStr"/>
-      <c r="BB46" s="19" t="inlineStr"/>
-      <c r="BC46" s="19" t="inlineStr"/>
-      <c r="BD46" s="19" t="inlineStr"/>
-      <c r="BE46" s="20" t="inlineStr"/>
-      <c r="BF46" s="21" t="inlineStr"/>
-      <c r="BG46" s="21" t="inlineStr"/>
-      <c r="BH46" s="22" t="inlineStr"/>
+      <c r="BB46" s="20" t="inlineStr"/>
+      <c r="BC46" s="21" t="inlineStr"/>
+      <c r="BD46" s="21" t="inlineStr"/>
+      <c r="BE46" s="22" t="inlineStr"/>
+      <c r="BF46" s="23" t="inlineStr"/>
+      <c r="BG46" s="23" t="inlineStr"/>
+      <c r="BH46" s="23" t="inlineStr"/>
       <c r="BI46" s="23" t="inlineStr"/>
       <c r="BJ46" s="23" t="inlineStr"/>
       <c r="BK46" s="23" t="inlineStr"/>
@@ -5494,16 +5323,13 @@
       <c r="BS46" s="23" t="inlineStr"/>
       <c r="BT46" s="23" t="inlineStr"/>
       <c r="BU46" s="23" t="inlineStr"/>
-      <c r="BV46" s="23" t="inlineStr"/>
-      <c r="BW46" s="23" t="inlineStr"/>
-      <c r="BX46" s="23" t="inlineStr"/>
-      <c r="BY46" s="24" t="inlineStr"/>
+      <c r="BV46" s="24" t="inlineStr"/>
+      <c r="BW46" s="29" t="inlineStr"/>
+      <c r="BX46" s="29" t="inlineStr"/>
+      <c r="BY46" s="29" t="inlineStr"/>
       <c r="BZ46" s="29" t="inlineStr"/>
-      <c r="CA46" s="29" t="inlineStr"/>
-      <c r="CB46" s="29" t="inlineStr"/>
-      <c r="CC46" s="29" t="inlineStr"/>
-      <c r="CD46" s="25" t="inlineStr"/>
-      <c r="CE46" s="26" t="inlineStr"/>
+      <c r="CA46" s="25" t="inlineStr"/>
+      <c r="CB46" s="26" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5535,37 +5361,37 @@
       <c r="AA47" s="21" t="inlineStr"/>
       <c r="AB47" s="21" t="inlineStr"/>
       <c r="AC47" s="21" t="inlineStr"/>
-      <c r="AD47" s="21" t="inlineStr"/>
-      <c r="AE47" s="22" t="inlineStr"/>
+      <c r="AD47" s="22" t="inlineStr"/>
+      <c r="AE47" s="23" t="inlineStr"/>
       <c r="AF47" s="23" t="inlineStr"/>
       <c r="AG47" s="23" t="inlineStr"/>
       <c r="AH47" s="23" t="inlineStr"/>
-      <c r="AI47" s="23" t="inlineStr"/>
-      <c r="AJ47" s="24" t="inlineStr"/>
-      <c r="AK47" s="25" t="inlineStr"/>
-      <c r="AL47" s="26" t="inlineStr"/>
-      <c r="AM47" s="27" t="inlineStr"/>
-      <c r="AN47" s="28" t="inlineStr"/>
-      <c r="AO47" s="16" t="inlineStr"/>
+      <c r="AI47" s="24" t="inlineStr"/>
+      <c r="AJ47" s="25" t="inlineStr"/>
+      <c r="AK47" s="26" t="inlineStr"/>
+      <c r="AL47" s="27" t="inlineStr"/>
+      <c r="AM47" s="28" t="inlineStr"/>
+      <c r="AN47" s="16" t="inlineStr"/>
+      <c r="AO47" s="17" t="inlineStr"/>
       <c r="AP47" s="17" t="inlineStr"/>
       <c r="AQ47" s="17" t="inlineStr"/>
-      <c r="AR47" s="17" t="inlineStr"/>
-      <c r="AS47" s="17" t="inlineStr"/>
-      <c r="AT47" s="17" t="inlineStr"/>
-      <c r="AU47" s="18" t="inlineStr"/>
+      <c r="AR47" s="18" t="inlineStr"/>
+      <c r="AS47" s="19" t="inlineStr"/>
+      <c r="AT47" s="19" t="inlineStr"/>
+      <c r="AU47" s="19" t="inlineStr"/>
       <c r="AV47" s="19" t="inlineStr"/>
       <c r="AW47" s="19" t="inlineStr"/>
       <c r="AX47" s="19" t="inlineStr"/>
       <c r="AY47" s="19" t="inlineStr"/>
       <c r="AZ47" s="19" t="inlineStr"/>
       <c r="BA47" s="19" t="inlineStr"/>
-      <c r="BB47" s="19" t="inlineStr"/>
-      <c r="BC47" s="19" t="inlineStr"/>
-      <c r="BD47" s="19" t="inlineStr"/>
-      <c r="BE47" s="20" t="inlineStr"/>
-      <c r="BF47" s="21" t="inlineStr"/>
-      <c r="BG47" s="21" t="inlineStr"/>
-      <c r="BH47" s="22" t="inlineStr"/>
+      <c r="BB47" s="20" t="inlineStr"/>
+      <c r="BC47" s="21" t="inlineStr"/>
+      <c r="BD47" s="21" t="inlineStr"/>
+      <c r="BE47" s="22" t="inlineStr"/>
+      <c r="BF47" s="23" t="inlineStr"/>
+      <c r="BG47" s="23" t="inlineStr"/>
+      <c r="BH47" s="23" t="inlineStr"/>
       <c r="BI47" s="23" t="inlineStr"/>
       <c r="BJ47" s="23" t="inlineStr"/>
       <c r="BK47" s="23" t="inlineStr"/>
@@ -5579,16 +5405,13 @@
       <c r="BS47" s="23" t="inlineStr"/>
       <c r="BT47" s="23" t="inlineStr"/>
       <c r="BU47" s="23" t="inlineStr"/>
-      <c r="BV47" s="23" t="inlineStr"/>
-      <c r="BW47" s="23" t="inlineStr"/>
-      <c r="BX47" s="23" t="inlineStr"/>
-      <c r="BY47" s="24" t="inlineStr"/>
+      <c r="BV47" s="24" t="inlineStr"/>
+      <c r="BW47" s="29" t="inlineStr"/>
+      <c r="BX47" s="29" t="inlineStr"/>
+      <c r="BY47" s="29" t="inlineStr"/>
       <c r="BZ47" s="29" t="inlineStr"/>
-      <c r="CA47" s="29" t="inlineStr"/>
-      <c r="CB47" s="29" t="inlineStr"/>
-      <c r="CC47" s="29" t="inlineStr"/>
-      <c r="CD47" s="25" t="inlineStr"/>
-      <c r="CE47" s="26" t="inlineStr"/>
+      <c r="CA47" s="25" t="inlineStr"/>
+      <c r="CB47" s="26" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5620,37 +5443,37 @@
       <c r="AA48" s="21" t="inlineStr"/>
       <c r="AB48" s="21" t="inlineStr"/>
       <c r="AC48" s="21" t="inlineStr"/>
-      <c r="AD48" s="21" t="inlineStr"/>
-      <c r="AE48" s="22" t="inlineStr"/>
+      <c r="AD48" s="22" t="inlineStr"/>
+      <c r="AE48" s="23" t="inlineStr"/>
       <c r="AF48" s="23" t="inlineStr"/>
       <c r="AG48" s="23" t="inlineStr"/>
       <c r="AH48" s="23" t="inlineStr"/>
-      <c r="AI48" s="23" t="inlineStr"/>
-      <c r="AJ48" s="24" t="inlineStr"/>
-      <c r="AK48" s="25" t="inlineStr"/>
-      <c r="AL48" s="26" t="inlineStr"/>
-      <c r="AM48" s="27" t="inlineStr"/>
-      <c r="AN48" s="28" t="inlineStr"/>
-      <c r="AO48" s="16" t="inlineStr"/>
+      <c r="AI48" s="24" t="inlineStr"/>
+      <c r="AJ48" s="25" t="inlineStr"/>
+      <c r="AK48" s="26" t="inlineStr"/>
+      <c r="AL48" s="27" t="inlineStr"/>
+      <c r="AM48" s="28" t="inlineStr"/>
+      <c r="AN48" s="16" t="inlineStr"/>
+      <c r="AO48" s="17" t="inlineStr"/>
       <c r="AP48" s="17" t="inlineStr"/>
       <c r="AQ48" s="17" t="inlineStr"/>
-      <c r="AR48" s="17" t="inlineStr"/>
-      <c r="AS48" s="17" t="inlineStr"/>
-      <c r="AT48" s="17" t="inlineStr"/>
-      <c r="AU48" s="18" t="inlineStr"/>
+      <c r="AR48" s="18" t="inlineStr"/>
+      <c r="AS48" s="19" t="inlineStr"/>
+      <c r="AT48" s="19" t="inlineStr"/>
+      <c r="AU48" s="19" t="inlineStr"/>
       <c r="AV48" s="19" t="inlineStr"/>
       <c r="AW48" s="19" t="inlineStr"/>
       <c r="AX48" s="19" t="inlineStr"/>
       <c r="AY48" s="19" t="inlineStr"/>
       <c r="AZ48" s="19" t="inlineStr"/>
       <c r="BA48" s="19" t="inlineStr"/>
-      <c r="BB48" s="19" t="inlineStr"/>
-      <c r="BC48" s="19" t="inlineStr"/>
-      <c r="BD48" s="19" t="inlineStr"/>
-      <c r="BE48" s="20" t="inlineStr"/>
-      <c r="BF48" s="21" t="inlineStr"/>
-      <c r="BG48" s="21" t="inlineStr"/>
-      <c r="BH48" s="22" t="inlineStr"/>
+      <c r="BB48" s="20" t="inlineStr"/>
+      <c r="BC48" s="21" t="inlineStr"/>
+      <c r="BD48" s="21" t="inlineStr"/>
+      <c r="BE48" s="22" t="inlineStr"/>
+      <c r="BF48" s="23" t="inlineStr"/>
+      <c r="BG48" s="23" t="inlineStr"/>
+      <c r="BH48" s="23" t="inlineStr"/>
       <c r="BI48" s="23" t="inlineStr"/>
       <c r="BJ48" s="23" t="inlineStr"/>
       <c r="BK48" s="23" t="inlineStr"/>
@@ -5664,16 +5487,13 @@
       <c r="BS48" s="23" t="inlineStr"/>
       <c r="BT48" s="23" t="inlineStr"/>
       <c r="BU48" s="23" t="inlineStr"/>
-      <c r="BV48" s="23" t="inlineStr"/>
-      <c r="BW48" s="23" t="inlineStr"/>
-      <c r="BX48" s="23" t="inlineStr"/>
-      <c r="BY48" s="24" t="inlineStr"/>
+      <c r="BV48" s="24" t="inlineStr"/>
+      <c r="BW48" s="29" t="inlineStr"/>
+      <c r="BX48" s="29" t="inlineStr"/>
+      <c r="BY48" s="29" t="inlineStr"/>
       <c r="BZ48" s="29" t="inlineStr"/>
-      <c r="CA48" s="29" t="inlineStr"/>
-      <c r="CB48" s="29" t="inlineStr"/>
-      <c r="CC48" s="29" t="inlineStr"/>
-      <c r="CD48" s="25" t="inlineStr"/>
-      <c r="CE48" s="26" t="inlineStr"/>
+      <c r="CA48" s="25" t="inlineStr"/>
+      <c r="CB48" s="26" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5705,37 +5525,37 @@
       <c r="AA49" s="21" t="inlineStr"/>
       <c r="AB49" s="21" t="inlineStr"/>
       <c r="AC49" s="21" t="inlineStr"/>
-      <c r="AD49" s="21" t="inlineStr"/>
-      <c r="AE49" s="22" t="inlineStr"/>
+      <c r="AD49" s="22" t="inlineStr"/>
+      <c r="AE49" s="23" t="inlineStr"/>
       <c r="AF49" s="23" t="inlineStr"/>
       <c r="AG49" s="23" t="inlineStr"/>
       <c r="AH49" s="23" t="inlineStr"/>
-      <c r="AI49" s="23" t="inlineStr"/>
-      <c r="AJ49" s="24" t="inlineStr"/>
-      <c r="AK49" s="25" t="inlineStr"/>
-      <c r="AL49" s="26" t="inlineStr"/>
-      <c r="AM49" s="27" t="inlineStr"/>
-      <c r="AN49" s="28" t="inlineStr"/>
-      <c r="AO49" s="16" t="inlineStr"/>
+      <c r="AI49" s="24" t="inlineStr"/>
+      <c r="AJ49" s="25" t="inlineStr"/>
+      <c r="AK49" s="26" t="inlineStr"/>
+      <c r="AL49" s="27" t="inlineStr"/>
+      <c r="AM49" s="28" t="inlineStr"/>
+      <c r="AN49" s="16" t="inlineStr"/>
+      <c r="AO49" s="17" t="inlineStr"/>
       <c r="AP49" s="17" t="inlineStr"/>
       <c r="AQ49" s="17" t="inlineStr"/>
-      <c r="AR49" s="17" t="inlineStr"/>
-      <c r="AS49" s="17" t="inlineStr"/>
-      <c r="AT49" s="17" t="inlineStr"/>
-      <c r="AU49" s="18" t="inlineStr"/>
+      <c r="AR49" s="18" t="inlineStr"/>
+      <c r="AS49" s="19" t="inlineStr"/>
+      <c r="AT49" s="19" t="inlineStr"/>
+      <c r="AU49" s="19" t="inlineStr"/>
       <c r="AV49" s="19" t="inlineStr"/>
       <c r="AW49" s="19" t="inlineStr"/>
       <c r="AX49" s="19" t="inlineStr"/>
       <c r="AY49" s="19" t="inlineStr"/>
       <c r="AZ49" s="19" t="inlineStr"/>
       <c r="BA49" s="19" t="inlineStr"/>
-      <c r="BB49" s="19" t="inlineStr"/>
-      <c r="BC49" s="19" t="inlineStr"/>
-      <c r="BD49" s="19" t="inlineStr"/>
-      <c r="BE49" s="20" t="inlineStr"/>
-      <c r="BF49" s="21" t="inlineStr"/>
-      <c r="BG49" s="21" t="inlineStr"/>
-      <c r="BH49" s="22" t="inlineStr"/>
+      <c r="BB49" s="20" t="inlineStr"/>
+      <c r="BC49" s="21" t="inlineStr"/>
+      <c r="BD49" s="21" t="inlineStr"/>
+      <c r="BE49" s="22" t="inlineStr"/>
+      <c r="BF49" s="23" t="inlineStr"/>
+      <c r="BG49" s="23" t="inlineStr"/>
+      <c r="BH49" s="23" t="inlineStr"/>
       <c r="BI49" s="23" t="inlineStr"/>
       <c r="BJ49" s="23" t="inlineStr"/>
       <c r="BK49" s="23" t="inlineStr"/>
@@ -5749,16 +5569,13 @@
       <c r="BS49" s="23" t="inlineStr"/>
       <c r="BT49" s="23" t="inlineStr"/>
       <c r="BU49" s="23" t="inlineStr"/>
-      <c r="BV49" s="23" t="inlineStr"/>
-      <c r="BW49" s="23" t="inlineStr"/>
-      <c r="BX49" s="23" t="inlineStr"/>
-      <c r="BY49" s="24" t="inlineStr"/>
+      <c r="BV49" s="24" t="inlineStr"/>
+      <c r="BW49" s="29" t="inlineStr"/>
+      <c r="BX49" s="29" t="inlineStr"/>
+      <c r="BY49" s="29" t="inlineStr"/>
       <c r="BZ49" s="29" t="inlineStr"/>
-      <c r="CA49" s="29" t="inlineStr"/>
-      <c r="CB49" s="29" t="inlineStr"/>
-      <c r="CC49" s="29" t="inlineStr"/>
-      <c r="CD49" s="25" t="inlineStr"/>
-      <c r="CE49" s="26" t="inlineStr"/>
+      <c r="CA49" s="25" t="inlineStr"/>
+      <c r="CB49" s="26" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5790,37 +5607,37 @@
       <c r="AA50" s="21" t="inlineStr"/>
       <c r="AB50" s="21" t="inlineStr"/>
       <c r="AC50" s="21" t="inlineStr"/>
-      <c r="AD50" s="21" t="inlineStr"/>
-      <c r="AE50" s="22" t="inlineStr"/>
+      <c r="AD50" s="22" t="inlineStr"/>
+      <c r="AE50" s="23" t="inlineStr"/>
       <c r="AF50" s="23" t="inlineStr"/>
       <c r="AG50" s="23" t="inlineStr"/>
       <c r="AH50" s="23" t="inlineStr"/>
-      <c r="AI50" s="23" t="inlineStr"/>
-      <c r="AJ50" s="24" t="inlineStr"/>
-      <c r="AK50" s="25" t="inlineStr"/>
-      <c r="AL50" s="26" t="inlineStr"/>
-      <c r="AM50" s="27" t="inlineStr"/>
-      <c r="AN50" s="28" t="inlineStr"/>
-      <c r="AO50" s="16" t="inlineStr"/>
+      <c r="AI50" s="24" t="inlineStr"/>
+      <c r="AJ50" s="25" t="inlineStr"/>
+      <c r="AK50" s="26" t="inlineStr"/>
+      <c r="AL50" s="27" t="inlineStr"/>
+      <c r="AM50" s="28" t="inlineStr"/>
+      <c r="AN50" s="16" t="inlineStr"/>
+      <c r="AO50" s="17" t="inlineStr"/>
       <c r="AP50" s="17" t="inlineStr"/>
       <c r="AQ50" s="17" t="inlineStr"/>
-      <c r="AR50" s="17" t="inlineStr"/>
-      <c r="AS50" s="17" t="inlineStr"/>
-      <c r="AT50" s="17" t="inlineStr"/>
-      <c r="AU50" s="18" t="inlineStr"/>
+      <c r="AR50" s="18" t="inlineStr"/>
+      <c r="AS50" s="19" t="inlineStr"/>
+      <c r="AT50" s="19" t="inlineStr"/>
+      <c r="AU50" s="19" t="inlineStr"/>
       <c r="AV50" s="19" t="inlineStr"/>
       <c r="AW50" s="19" t="inlineStr"/>
       <c r="AX50" s="19" t="inlineStr"/>
       <c r="AY50" s="19" t="inlineStr"/>
       <c r="AZ50" s="19" t="inlineStr"/>
       <c r="BA50" s="19" t="inlineStr"/>
-      <c r="BB50" s="19" t="inlineStr"/>
-      <c r="BC50" s="19" t="inlineStr"/>
-      <c r="BD50" s="19" t="inlineStr"/>
-      <c r="BE50" s="20" t="inlineStr"/>
-      <c r="BF50" s="21" t="inlineStr"/>
-      <c r="BG50" s="21" t="inlineStr"/>
-      <c r="BH50" s="22" t="inlineStr"/>
+      <c r="BB50" s="20" t="inlineStr"/>
+      <c r="BC50" s="21" t="inlineStr"/>
+      <c r="BD50" s="21" t="inlineStr"/>
+      <c r="BE50" s="22" t="inlineStr"/>
+      <c r="BF50" s="23" t="inlineStr"/>
+      <c r="BG50" s="23" t="inlineStr"/>
+      <c r="BH50" s="23" t="inlineStr"/>
       <c r="BI50" s="23" t="inlineStr"/>
       <c r="BJ50" s="23" t="inlineStr"/>
       <c r="BK50" s="23" t="inlineStr"/>
@@ -5834,16 +5651,13 @@
       <c r="BS50" s="23" t="inlineStr"/>
       <c r="BT50" s="23" t="inlineStr"/>
       <c r="BU50" s="23" t="inlineStr"/>
-      <c r="BV50" s="23" t="inlineStr"/>
-      <c r="BW50" s="23" t="inlineStr"/>
-      <c r="BX50" s="23" t="inlineStr"/>
-      <c r="BY50" s="24" t="inlineStr"/>
+      <c r="BV50" s="24" t="inlineStr"/>
+      <c r="BW50" s="29" t="inlineStr"/>
+      <c r="BX50" s="29" t="inlineStr"/>
+      <c r="BY50" s="29" t="inlineStr"/>
       <c r="BZ50" s="29" t="inlineStr"/>
-      <c r="CA50" s="29" t="inlineStr"/>
-      <c r="CB50" s="29" t="inlineStr"/>
-      <c r="CC50" s="29" t="inlineStr"/>
-      <c r="CD50" s="25" t="inlineStr"/>
-      <c r="CE50" s="26" t="inlineStr"/>
+      <c r="CA50" s="25" t="inlineStr"/>
+      <c r="CB50" s="26" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5875,37 +5689,37 @@
       <c r="AA51" s="21" t="inlineStr"/>
       <c r="AB51" s="21" t="inlineStr"/>
       <c r="AC51" s="21" t="inlineStr"/>
-      <c r="AD51" s="21" t="inlineStr"/>
-      <c r="AE51" s="22" t="inlineStr"/>
+      <c r="AD51" s="22" t="inlineStr"/>
+      <c r="AE51" s="23" t="inlineStr"/>
       <c r="AF51" s="23" t="inlineStr"/>
       <c r="AG51" s="23" t="inlineStr"/>
       <c r="AH51" s="23" t="inlineStr"/>
-      <c r="AI51" s="23" t="inlineStr"/>
-      <c r="AJ51" s="24" t="inlineStr"/>
-      <c r="AK51" s="25" t="inlineStr"/>
-      <c r="AL51" s="26" t="inlineStr"/>
-      <c r="AM51" s="27" t="inlineStr"/>
-      <c r="AN51" s="28" t="inlineStr"/>
-      <c r="AO51" s="16" t="inlineStr"/>
+      <c r="AI51" s="24" t="inlineStr"/>
+      <c r="AJ51" s="25" t="inlineStr"/>
+      <c r="AK51" s="26" t="inlineStr"/>
+      <c r="AL51" s="27" t="inlineStr"/>
+      <c r="AM51" s="28" t="inlineStr"/>
+      <c r="AN51" s="16" t="inlineStr"/>
+      <c r="AO51" s="17" t="inlineStr"/>
       <c r="AP51" s="17" t="inlineStr"/>
       <c r="AQ51" s="17" t="inlineStr"/>
-      <c r="AR51" s="17" t="inlineStr"/>
-      <c r="AS51" s="17" t="inlineStr"/>
-      <c r="AT51" s="17" t="inlineStr"/>
-      <c r="AU51" s="18" t="inlineStr"/>
+      <c r="AR51" s="18" t="inlineStr"/>
+      <c r="AS51" s="19" t="inlineStr"/>
+      <c r="AT51" s="19" t="inlineStr"/>
+      <c r="AU51" s="19" t="inlineStr"/>
       <c r="AV51" s="19" t="inlineStr"/>
       <c r="AW51" s="19" t="inlineStr"/>
       <c r="AX51" s="19" t="inlineStr"/>
       <c r="AY51" s="19" t="inlineStr"/>
       <c r="AZ51" s="19" t="inlineStr"/>
       <c r="BA51" s="19" t="inlineStr"/>
-      <c r="BB51" s="19" t="inlineStr"/>
-      <c r="BC51" s="19" t="inlineStr"/>
-      <c r="BD51" s="19" t="inlineStr"/>
-      <c r="BE51" s="20" t="inlineStr"/>
-      <c r="BF51" s="21" t="inlineStr"/>
-      <c r="BG51" s="21" t="inlineStr"/>
-      <c r="BH51" s="22" t="inlineStr"/>
+      <c r="BB51" s="20" t="inlineStr"/>
+      <c r="BC51" s="21" t="inlineStr"/>
+      <c r="BD51" s="21" t="inlineStr"/>
+      <c r="BE51" s="22" t="inlineStr"/>
+      <c r="BF51" s="23" t="inlineStr"/>
+      <c r="BG51" s="23" t="inlineStr"/>
+      <c r="BH51" s="23" t="inlineStr"/>
       <c r="BI51" s="23" t="inlineStr"/>
       <c r="BJ51" s="23" t="inlineStr"/>
       <c r="BK51" s="23" t="inlineStr"/>
@@ -5919,16 +5733,13 @@
       <c r="BS51" s="23" t="inlineStr"/>
       <c r="BT51" s="23" t="inlineStr"/>
       <c r="BU51" s="23" t="inlineStr"/>
-      <c r="BV51" s="23" t="inlineStr"/>
-      <c r="BW51" s="23" t="inlineStr"/>
-      <c r="BX51" s="23" t="inlineStr"/>
-      <c r="BY51" s="24" t="inlineStr"/>
+      <c r="BV51" s="24" t="inlineStr"/>
+      <c r="BW51" s="29" t="inlineStr"/>
+      <c r="BX51" s="29" t="inlineStr"/>
+      <c r="BY51" s="29" t="inlineStr"/>
       <c r="BZ51" s="29" t="inlineStr"/>
-      <c r="CA51" s="29" t="inlineStr"/>
-      <c r="CB51" s="29" t="inlineStr"/>
-      <c r="CC51" s="29" t="inlineStr"/>
-      <c r="CD51" s="25" t="inlineStr"/>
-      <c r="CE51" s="26" t="inlineStr"/>
+      <c r="CA51" s="25" t="inlineStr"/>
+      <c r="CB51" s="26" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -5960,37 +5771,37 @@
       <c r="AA52" s="21" t="inlineStr"/>
       <c r="AB52" s="21" t="inlineStr"/>
       <c r="AC52" s="21" t="inlineStr"/>
-      <c r="AD52" s="21" t="inlineStr"/>
-      <c r="AE52" s="22" t="inlineStr"/>
+      <c r="AD52" s="22" t="inlineStr"/>
+      <c r="AE52" s="23" t="inlineStr"/>
       <c r="AF52" s="23" t="inlineStr"/>
       <c r="AG52" s="23" t="inlineStr"/>
       <c r="AH52" s="23" t="inlineStr"/>
-      <c r="AI52" s="23" t="inlineStr"/>
-      <c r="AJ52" s="24" t="inlineStr"/>
-      <c r="AK52" s="25" t="inlineStr"/>
-      <c r="AL52" s="26" t="inlineStr"/>
-      <c r="AM52" s="27" t="inlineStr"/>
-      <c r="AN52" s="28" t="inlineStr"/>
-      <c r="AO52" s="16" t="inlineStr"/>
+      <c r="AI52" s="24" t="inlineStr"/>
+      <c r="AJ52" s="25" t="inlineStr"/>
+      <c r="AK52" s="26" t="inlineStr"/>
+      <c r="AL52" s="27" t="inlineStr"/>
+      <c r="AM52" s="28" t="inlineStr"/>
+      <c r="AN52" s="16" t="inlineStr"/>
+      <c r="AO52" s="17" t="inlineStr"/>
       <c r="AP52" s="17" t="inlineStr"/>
       <c r="AQ52" s="17" t="inlineStr"/>
-      <c r="AR52" s="17" t="inlineStr"/>
-      <c r="AS52" s="17" t="inlineStr"/>
-      <c r="AT52" s="17" t="inlineStr"/>
-      <c r="AU52" s="18" t="inlineStr"/>
+      <c r="AR52" s="18" t="inlineStr"/>
+      <c r="AS52" s="19" t="inlineStr"/>
+      <c r="AT52" s="19" t="inlineStr"/>
+      <c r="AU52" s="19" t="inlineStr"/>
       <c r="AV52" s="19" t="inlineStr"/>
       <c r="AW52" s="19" t="inlineStr"/>
       <c r="AX52" s="19" t="inlineStr"/>
       <c r="AY52" s="19" t="inlineStr"/>
       <c r="AZ52" s="19" t="inlineStr"/>
       <c r="BA52" s="19" t="inlineStr"/>
-      <c r="BB52" s="19" t="inlineStr"/>
-      <c r="BC52" s="19" t="inlineStr"/>
-      <c r="BD52" s="19" t="inlineStr"/>
-      <c r="BE52" s="20" t="inlineStr"/>
-      <c r="BF52" s="21" t="inlineStr"/>
-      <c r="BG52" s="21" t="inlineStr"/>
-      <c r="BH52" s="22" t="inlineStr"/>
+      <c r="BB52" s="20" t="inlineStr"/>
+      <c r="BC52" s="21" t="inlineStr"/>
+      <c r="BD52" s="21" t="inlineStr"/>
+      <c r="BE52" s="22" t="inlineStr"/>
+      <c r="BF52" s="23" t="inlineStr"/>
+      <c r="BG52" s="23" t="inlineStr"/>
+      <c r="BH52" s="23" t="inlineStr"/>
       <c r="BI52" s="23" t="inlineStr"/>
       <c r="BJ52" s="23" t="inlineStr"/>
       <c r="BK52" s="23" t="inlineStr"/>
@@ -6004,16 +5815,13 @@
       <c r="BS52" s="23" t="inlineStr"/>
       <c r="BT52" s="23" t="inlineStr"/>
       <c r="BU52" s="23" t="inlineStr"/>
-      <c r="BV52" s="23" t="inlineStr"/>
-      <c r="BW52" s="23" t="inlineStr"/>
-      <c r="BX52" s="23" t="inlineStr"/>
-      <c r="BY52" s="24" t="inlineStr"/>
+      <c r="BV52" s="24" t="inlineStr"/>
+      <c r="BW52" s="29" t="inlineStr"/>
+      <c r="BX52" s="29" t="inlineStr"/>
+      <c r="BY52" s="29" t="inlineStr"/>
       <c r="BZ52" s="29" t="inlineStr"/>
-      <c r="CA52" s="29" t="inlineStr"/>
-      <c r="CB52" s="29" t="inlineStr"/>
-      <c r="CC52" s="29" t="inlineStr"/>
-      <c r="CD52" s="25" t="inlineStr"/>
-      <c r="CE52" s="26" t="inlineStr"/>
+      <c r="CA52" s="25" t="inlineStr"/>
+      <c r="CB52" s="26" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -6045,37 +5853,37 @@
       <c r="AA53" s="21" t="inlineStr"/>
       <c r="AB53" s="21" t="inlineStr"/>
       <c r="AC53" s="21" t="inlineStr"/>
-      <c r="AD53" s="21" t="inlineStr"/>
-      <c r="AE53" s="22" t="inlineStr"/>
+      <c r="AD53" s="22" t="inlineStr"/>
+      <c r="AE53" s="23" t="inlineStr"/>
       <c r="AF53" s="23" t="inlineStr"/>
       <c r="AG53" s="23" t="inlineStr"/>
       <c r="AH53" s="23" t="inlineStr"/>
-      <c r="AI53" s="23" t="inlineStr"/>
-      <c r="AJ53" s="24" t="inlineStr"/>
-      <c r="AK53" s="25" t="inlineStr"/>
-      <c r="AL53" s="26" t="inlineStr"/>
-      <c r="AM53" s="27" t="inlineStr"/>
-      <c r="AN53" s="28" t="inlineStr"/>
-      <c r="AO53" s="16" t="inlineStr"/>
+      <c r="AI53" s="24" t="inlineStr"/>
+      <c r="AJ53" s="25" t="inlineStr"/>
+      <c r="AK53" s="26" t="inlineStr"/>
+      <c r="AL53" s="27" t="inlineStr"/>
+      <c r="AM53" s="28" t="inlineStr"/>
+      <c r="AN53" s="16" t="inlineStr"/>
+      <c r="AO53" s="17" t="inlineStr"/>
       <c r="AP53" s="17" t="inlineStr"/>
       <c r="AQ53" s="17" t="inlineStr"/>
-      <c r="AR53" s="17" t="inlineStr"/>
-      <c r="AS53" s="17" t="inlineStr"/>
-      <c r="AT53" s="17" t="inlineStr"/>
-      <c r="AU53" s="18" t="inlineStr"/>
+      <c r="AR53" s="18" t="inlineStr"/>
+      <c r="AS53" s="19" t="inlineStr"/>
+      <c r="AT53" s="19" t="inlineStr"/>
+      <c r="AU53" s="19" t="inlineStr"/>
       <c r="AV53" s="19" t="inlineStr"/>
       <c r="AW53" s="19" t="inlineStr"/>
       <c r="AX53" s="19" t="inlineStr"/>
       <c r="AY53" s="19" t="inlineStr"/>
       <c r="AZ53" s="19" t="inlineStr"/>
       <c r="BA53" s="19" t="inlineStr"/>
-      <c r="BB53" s="19" t="inlineStr"/>
-      <c r="BC53" s="19" t="inlineStr"/>
-      <c r="BD53" s="19" t="inlineStr"/>
-      <c r="BE53" s="20" t="inlineStr"/>
-      <c r="BF53" s="21" t="inlineStr"/>
-      <c r="BG53" s="21" t="inlineStr"/>
-      <c r="BH53" s="22" t="inlineStr"/>
+      <c r="BB53" s="20" t="inlineStr"/>
+      <c r="BC53" s="21" t="inlineStr"/>
+      <c r="BD53" s="21" t="inlineStr"/>
+      <c r="BE53" s="22" t="inlineStr"/>
+      <c r="BF53" s="23" t="inlineStr"/>
+      <c r="BG53" s="23" t="inlineStr"/>
+      <c r="BH53" s="23" t="inlineStr"/>
       <c r="BI53" s="23" t="inlineStr"/>
       <c r="BJ53" s="23" t="inlineStr"/>
       <c r="BK53" s="23" t="inlineStr"/>
@@ -6089,16 +5897,13 @@
       <c r="BS53" s="23" t="inlineStr"/>
       <c r="BT53" s="23" t="inlineStr"/>
       <c r="BU53" s="23" t="inlineStr"/>
-      <c r="BV53" s="23" t="inlineStr"/>
-      <c r="BW53" s="23" t="inlineStr"/>
-      <c r="BX53" s="23" t="inlineStr"/>
-      <c r="BY53" s="24" t="inlineStr"/>
+      <c r="BV53" s="24" t="inlineStr"/>
+      <c r="BW53" s="29" t="inlineStr"/>
+      <c r="BX53" s="29" t="inlineStr"/>
+      <c r="BY53" s="29" t="inlineStr"/>
       <c r="BZ53" s="29" t="inlineStr"/>
-      <c r="CA53" s="29" t="inlineStr"/>
-      <c r="CB53" s="29" t="inlineStr"/>
-      <c r="CC53" s="29" t="inlineStr"/>
-      <c r="CD53" s="25" t="inlineStr"/>
-      <c r="CE53" s="26" t="inlineStr"/>
+      <c r="CA53" s="25" t="inlineStr"/>
+      <c r="CB53" s="26" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -6130,37 +5935,37 @@
       <c r="AA54" s="21" t="inlineStr"/>
       <c r="AB54" s="21" t="inlineStr"/>
       <c r="AC54" s="21" t="inlineStr"/>
-      <c r="AD54" s="21" t="inlineStr"/>
-      <c r="AE54" s="22" t="inlineStr"/>
+      <c r="AD54" s="22" t="inlineStr"/>
+      <c r="AE54" s="23" t="inlineStr"/>
       <c r="AF54" s="23" t="inlineStr"/>
       <c r="AG54" s="23" t="inlineStr"/>
       <c r="AH54" s="23" t="inlineStr"/>
-      <c r="AI54" s="23" t="inlineStr"/>
-      <c r="AJ54" s="24" t="inlineStr"/>
-      <c r="AK54" s="25" t="inlineStr"/>
-      <c r="AL54" s="26" t="inlineStr"/>
-      <c r="AM54" s="27" t="inlineStr"/>
-      <c r="AN54" s="28" t="inlineStr"/>
-      <c r="AO54" s="16" t="inlineStr"/>
+      <c r="AI54" s="24" t="inlineStr"/>
+      <c r="AJ54" s="25" t="inlineStr"/>
+      <c r="AK54" s="26" t="inlineStr"/>
+      <c r="AL54" s="27" t="inlineStr"/>
+      <c r="AM54" s="28" t="inlineStr"/>
+      <c r="AN54" s="16" t="inlineStr"/>
+      <c r="AO54" s="17" t="inlineStr"/>
       <c r="AP54" s="17" t="inlineStr"/>
       <c r="AQ54" s="17" t="inlineStr"/>
-      <c r="AR54" s="17" t="inlineStr"/>
-      <c r="AS54" s="17" t="inlineStr"/>
-      <c r="AT54" s="17" t="inlineStr"/>
-      <c r="AU54" s="18" t="inlineStr"/>
+      <c r="AR54" s="18" t="inlineStr"/>
+      <c r="AS54" s="19" t="inlineStr"/>
+      <c r="AT54" s="19" t="inlineStr"/>
+      <c r="AU54" s="19" t="inlineStr"/>
       <c r="AV54" s="19" t="inlineStr"/>
       <c r="AW54" s="19" t="inlineStr"/>
       <c r="AX54" s="19" t="inlineStr"/>
       <c r="AY54" s="19" t="inlineStr"/>
       <c r="AZ54" s="19" t="inlineStr"/>
       <c r="BA54" s="19" t="inlineStr"/>
-      <c r="BB54" s="19" t="inlineStr"/>
-      <c r="BC54" s="19" t="inlineStr"/>
-      <c r="BD54" s="19" t="inlineStr"/>
-      <c r="BE54" s="20" t="inlineStr"/>
-      <c r="BF54" s="21" t="inlineStr"/>
-      <c r="BG54" s="21" t="inlineStr"/>
-      <c r="BH54" s="22" t="inlineStr"/>
+      <c r="BB54" s="20" t="inlineStr"/>
+      <c r="BC54" s="21" t="inlineStr"/>
+      <c r="BD54" s="21" t="inlineStr"/>
+      <c r="BE54" s="22" t="inlineStr"/>
+      <c r="BF54" s="23" t="inlineStr"/>
+      <c r="BG54" s="23" t="inlineStr"/>
+      <c r="BH54" s="23" t="inlineStr"/>
       <c r="BI54" s="23" t="inlineStr"/>
       <c r="BJ54" s="23" t="inlineStr"/>
       <c r="BK54" s="23" t="inlineStr"/>
@@ -6174,16 +5979,13 @@
       <c r="BS54" s="23" t="inlineStr"/>
       <c r="BT54" s="23" t="inlineStr"/>
       <c r="BU54" s="23" t="inlineStr"/>
-      <c r="BV54" s="23" t="inlineStr"/>
-      <c r="BW54" s="23" t="inlineStr"/>
-      <c r="BX54" s="23" t="inlineStr"/>
-      <c r="BY54" s="24" t="inlineStr"/>
+      <c r="BV54" s="24" t="inlineStr"/>
+      <c r="BW54" s="29" t="inlineStr"/>
+      <c r="BX54" s="29" t="inlineStr"/>
+      <c r="BY54" s="29" t="inlineStr"/>
       <c r="BZ54" s="29" t="inlineStr"/>
-      <c r="CA54" s="29" t="inlineStr"/>
-      <c r="CB54" s="29" t="inlineStr"/>
-      <c r="CC54" s="29" t="inlineStr"/>
-      <c r="CD54" s="25" t="inlineStr"/>
-      <c r="CE54" s="26" t="inlineStr"/>
+      <c r="CA54" s="25" t="inlineStr"/>
+      <c r="CB54" s="26" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6215,37 +6017,37 @@
       <c r="AA55" s="21" t="inlineStr"/>
       <c r="AB55" s="21" t="inlineStr"/>
       <c r="AC55" s="21" t="inlineStr"/>
-      <c r="AD55" s="21" t="inlineStr"/>
-      <c r="AE55" s="22" t="inlineStr"/>
+      <c r="AD55" s="22" t="inlineStr"/>
+      <c r="AE55" s="23" t="inlineStr"/>
       <c r="AF55" s="23" t="inlineStr"/>
       <c r="AG55" s="23" t="inlineStr"/>
       <c r="AH55" s="23" t="inlineStr"/>
-      <c r="AI55" s="23" t="inlineStr"/>
-      <c r="AJ55" s="24" t="inlineStr"/>
-      <c r="AK55" s="25" t="inlineStr"/>
-      <c r="AL55" s="26" t="inlineStr"/>
-      <c r="AM55" s="27" t="inlineStr"/>
-      <c r="AN55" s="28" t="inlineStr"/>
-      <c r="AO55" s="16" t="inlineStr"/>
+      <c r="AI55" s="24" t="inlineStr"/>
+      <c r="AJ55" s="25" t="inlineStr"/>
+      <c r="AK55" s="26" t="inlineStr"/>
+      <c r="AL55" s="27" t="inlineStr"/>
+      <c r="AM55" s="28" t="inlineStr"/>
+      <c r="AN55" s="16" t="inlineStr"/>
+      <c r="AO55" s="17" t="inlineStr"/>
       <c r="AP55" s="17" t="inlineStr"/>
       <c r="AQ55" s="17" t="inlineStr"/>
-      <c r="AR55" s="17" t="inlineStr"/>
-      <c r="AS55" s="17" t="inlineStr"/>
-      <c r="AT55" s="17" t="inlineStr"/>
-      <c r="AU55" s="18" t="inlineStr"/>
+      <c r="AR55" s="18" t="inlineStr"/>
+      <c r="AS55" s="19" t="inlineStr"/>
+      <c r="AT55" s="19" t="inlineStr"/>
+      <c r="AU55" s="19" t="inlineStr"/>
       <c r="AV55" s="19" t="inlineStr"/>
       <c r="AW55" s="19" t="inlineStr"/>
       <c r="AX55" s="19" t="inlineStr"/>
       <c r="AY55" s="19" t="inlineStr"/>
       <c r="AZ55" s="19" t="inlineStr"/>
       <c r="BA55" s="19" t="inlineStr"/>
-      <c r="BB55" s="19" t="inlineStr"/>
-      <c r="BC55" s="19" t="inlineStr"/>
-      <c r="BD55" s="19" t="inlineStr"/>
-      <c r="BE55" s="20" t="inlineStr"/>
-      <c r="BF55" s="21" t="inlineStr"/>
-      <c r="BG55" s="21" t="inlineStr"/>
-      <c r="BH55" s="22" t="inlineStr"/>
+      <c r="BB55" s="20" t="inlineStr"/>
+      <c r="BC55" s="21" t="inlineStr"/>
+      <c r="BD55" s="21" t="inlineStr"/>
+      <c r="BE55" s="22" t="inlineStr"/>
+      <c r="BF55" s="23" t="inlineStr"/>
+      <c r="BG55" s="23" t="inlineStr"/>
+      <c r="BH55" s="23" t="inlineStr"/>
       <c r="BI55" s="23" t="inlineStr"/>
       <c r="BJ55" s="23" t="inlineStr"/>
       <c r="BK55" s="23" t="inlineStr"/>
@@ -6259,16 +6061,13 @@
       <c r="BS55" s="23" t="inlineStr"/>
       <c r="BT55" s="23" t="inlineStr"/>
       <c r="BU55" s="23" t="inlineStr"/>
-      <c r="BV55" s="23" t="inlineStr"/>
-      <c r="BW55" s="23" t="inlineStr"/>
-      <c r="BX55" s="23" t="inlineStr"/>
-      <c r="BY55" s="24" t="inlineStr"/>
+      <c r="BV55" s="24" t="inlineStr"/>
+      <c r="BW55" s="29" t="inlineStr"/>
+      <c r="BX55" s="29" t="inlineStr"/>
+      <c r="BY55" s="29" t="inlineStr"/>
       <c r="BZ55" s="29" t="inlineStr"/>
-      <c r="CA55" s="29" t="inlineStr"/>
-      <c r="CB55" s="29" t="inlineStr"/>
-      <c r="CC55" s="29" t="inlineStr"/>
-      <c r="CD55" s="25" t="inlineStr"/>
-      <c r="CE55" s="26" t="inlineStr"/>
+      <c r="CA55" s="25" t="inlineStr"/>
+      <c r="CB55" s="26" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6300,37 +6099,37 @@
       <c r="AA56" s="21" t="inlineStr"/>
       <c r="AB56" s="21" t="inlineStr"/>
       <c r="AC56" s="21" t="inlineStr"/>
-      <c r="AD56" s="21" t="inlineStr"/>
-      <c r="AE56" s="22" t="inlineStr"/>
+      <c r="AD56" s="22" t="inlineStr"/>
+      <c r="AE56" s="23" t="inlineStr"/>
       <c r="AF56" s="23" t="inlineStr"/>
       <c r="AG56" s="23" t="inlineStr"/>
       <c r="AH56" s="23" t="inlineStr"/>
-      <c r="AI56" s="23" t="inlineStr"/>
-      <c r="AJ56" s="24" t="inlineStr"/>
-      <c r="AK56" s="25" t="inlineStr"/>
-      <c r="AL56" s="26" t="inlineStr"/>
-      <c r="AM56" s="27" t="inlineStr"/>
-      <c r="AN56" s="28" t="inlineStr"/>
-      <c r="AO56" s="16" t="inlineStr"/>
+      <c r="AI56" s="24" t="inlineStr"/>
+      <c r="AJ56" s="25" t="inlineStr"/>
+      <c r="AK56" s="26" t="inlineStr"/>
+      <c r="AL56" s="27" t="inlineStr"/>
+      <c r="AM56" s="28" t="inlineStr"/>
+      <c r="AN56" s="16" t="inlineStr"/>
+      <c r="AO56" s="17" t="inlineStr"/>
       <c r="AP56" s="17" t="inlineStr"/>
       <c r="AQ56" s="17" t="inlineStr"/>
-      <c r="AR56" s="17" t="inlineStr"/>
-      <c r="AS56" s="17" t="inlineStr"/>
-      <c r="AT56" s="17" t="inlineStr"/>
-      <c r="AU56" s="18" t="inlineStr"/>
+      <c r="AR56" s="18" t="inlineStr"/>
+      <c r="AS56" s="19" t="inlineStr"/>
+      <c r="AT56" s="19" t="inlineStr"/>
+      <c r="AU56" s="19" t="inlineStr"/>
       <c r="AV56" s="19" t="inlineStr"/>
       <c r="AW56" s="19" t="inlineStr"/>
       <c r="AX56" s="19" t="inlineStr"/>
       <c r="AY56" s="19" t="inlineStr"/>
       <c r="AZ56" s="19" t="inlineStr"/>
       <c r="BA56" s="19" t="inlineStr"/>
-      <c r="BB56" s="19" t="inlineStr"/>
-      <c r="BC56" s="19" t="inlineStr"/>
-      <c r="BD56" s="19" t="inlineStr"/>
-      <c r="BE56" s="20" t="inlineStr"/>
-      <c r="BF56" s="21" t="inlineStr"/>
-      <c r="BG56" s="21" t="inlineStr"/>
-      <c r="BH56" s="22" t="inlineStr"/>
+      <c r="BB56" s="20" t="inlineStr"/>
+      <c r="BC56" s="21" t="inlineStr"/>
+      <c r="BD56" s="21" t="inlineStr"/>
+      <c r="BE56" s="22" t="inlineStr"/>
+      <c r="BF56" s="23" t="inlineStr"/>
+      <c r="BG56" s="23" t="inlineStr"/>
+      <c r="BH56" s="23" t="inlineStr"/>
       <c r="BI56" s="23" t="inlineStr"/>
       <c r="BJ56" s="23" t="inlineStr"/>
       <c r="BK56" s="23" t="inlineStr"/>
@@ -6344,16 +6143,13 @@
       <c r="BS56" s="23" t="inlineStr"/>
       <c r="BT56" s="23" t="inlineStr"/>
       <c r="BU56" s="23" t="inlineStr"/>
-      <c r="BV56" s="23" t="inlineStr"/>
-      <c r="BW56" s="23" t="inlineStr"/>
-      <c r="BX56" s="23" t="inlineStr"/>
-      <c r="BY56" s="24" t="inlineStr"/>
+      <c r="BV56" s="24" t="inlineStr"/>
+      <c r="BW56" s="29" t="inlineStr"/>
+      <c r="BX56" s="29" t="inlineStr"/>
+      <c r="BY56" s="29" t="inlineStr"/>
       <c r="BZ56" s="29" t="inlineStr"/>
-      <c r="CA56" s="29" t="inlineStr"/>
-      <c r="CB56" s="29" t="inlineStr"/>
-      <c r="CC56" s="29" t="inlineStr"/>
-      <c r="CD56" s="25" t="inlineStr"/>
-      <c r="CE56" s="26" t="inlineStr"/>
+      <c r="CA56" s="25" t="inlineStr"/>
+      <c r="CB56" s="26" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6385,37 +6181,37 @@
       <c r="AA57" s="21" t="inlineStr"/>
       <c r="AB57" s="21" t="inlineStr"/>
       <c r="AC57" s="21" t="inlineStr"/>
-      <c r="AD57" s="21" t="inlineStr"/>
-      <c r="AE57" s="22" t="inlineStr"/>
+      <c r="AD57" s="22" t="inlineStr"/>
+      <c r="AE57" s="23" t="inlineStr"/>
       <c r="AF57" s="23" t="inlineStr"/>
       <c r="AG57" s="23" t="inlineStr"/>
       <c r="AH57" s="23" t="inlineStr"/>
-      <c r="AI57" s="23" t="inlineStr"/>
-      <c r="AJ57" s="24" t="inlineStr"/>
-      <c r="AK57" s="25" t="inlineStr"/>
-      <c r="AL57" s="26" t="inlineStr"/>
-      <c r="AM57" s="27" t="inlineStr"/>
-      <c r="AN57" s="28" t="inlineStr"/>
-      <c r="AO57" s="16" t="inlineStr"/>
+      <c r="AI57" s="24" t="inlineStr"/>
+      <c r="AJ57" s="25" t="inlineStr"/>
+      <c r="AK57" s="26" t="inlineStr"/>
+      <c r="AL57" s="27" t="inlineStr"/>
+      <c r="AM57" s="28" t="inlineStr"/>
+      <c r="AN57" s="16" t="inlineStr"/>
+      <c r="AO57" s="17" t="inlineStr"/>
       <c r="AP57" s="17" t="inlineStr"/>
       <c r="AQ57" s="17" t="inlineStr"/>
-      <c r="AR57" s="17" t="inlineStr"/>
-      <c r="AS57" s="17" t="inlineStr"/>
-      <c r="AT57" s="17" t="inlineStr"/>
-      <c r="AU57" s="18" t="inlineStr"/>
+      <c r="AR57" s="18" t="inlineStr"/>
+      <c r="AS57" s="19" t="inlineStr"/>
+      <c r="AT57" s="19" t="inlineStr"/>
+      <c r="AU57" s="19" t="inlineStr"/>
       <c r="AV57" s="19" t="inlineStr"/>
       <c r="AW57" s="19" t="inlineStr"/>
       <c r="AX57" s="19" t="inlineStr"/>
       <c r="AY57" s="19" t="inlineStr"/>
       <c r="AZ57" s="19" t="inlineStr"/>
       <c r="BA57" s="19" t="inlineStr"/>
-      <c r="BB57" s="19" t="inlineStr"/>
-      <c r="BC57" s="19" t="inlineStr"/>
-      <c r="BD57" s="19" t="inlineStr"/>
-      <c r="BE57" s="20" t="inlineStr"/>
-      <c r="BF57" s="21" t="inlineStr"/>
-      <c r="BG57" s="21" t="inlineStr"/>
-      <c r="BH57" s="22" t="inlineStr"/>
+      <c r="BB57" s="20" t="inlineStr"/>
+      <c r="BC57" s="21" t="inlineStr"/>
+      <c r="BD57" s="21" t="inlineStr"/>
+      <c r="BE57" s="22" t="inlineStr"/>
+      <c r="BF57" s="23" t="inlineStr"/>
+      <c r="BG57" s="23" t="inlineStr"/>
+      <c r="BH57" s="23" t="inlineStr"/>
       <c r="BI57" s="23" t="inlineStr"/>
       <c r="BJ57" s="23" t="inlineStr"/>
       <c r="BK57" s="23" t="inlineStr"/>
@@ -6429,16 +6225,13 @@
       <c r="BS57" s="23" t="inlineStr"/>
       <c r="BT57" s="23" t="inlineStr"/>
       <c r="BU57" s="23" t="inlineStr"/>
-      <c r="BV57" s="23" t="inlineStr"/>
-      <c r="BW57" s="23" t="inlineStr"/>
-      <c r="BX57" s="23" t="inlineStr"/>
-      <c r="BY57" s="24" t="inlineStr"/>
+      <c r="BV57" s="24" t="inlineStr"/>
+      <c r="BW57" s="29" t="inlineStr"/>
+      <c r="BX57" s="29" t="inlineStr"/>
+      <c r="BY57" s="29" t="inlineStr"/>
       <c r="BZ57" s="29" t="inlineStr"/>
-      <c r="CA57" s="29" t="inlineStr"/>
-      <c r="CB57" s="29" t="inlineStr"/>
-      <c r="CC57" s="29" t="inlineStr"/>
-      <c r="CD57" s="25" t="inlineStr"/>
-      <c r="CE57" s="26" t="inlineStr"/>
+      <c r="CA57" s="25" t="inlineStr"/>
+      <c r="CB57" s="26" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6470,37 +6263,37 @@
       <c r="AA58" s="21" t="inlineStr"/>
       <c r="AB58" s="21" t="inlineStr"/>
       <c r="AC58" s="21" t="inlineStr"/>
-      <c r="AD58" s="21" t="inlineStr"/>
-      <c r="AE58" s="22" t="inlineStr"/>
+      <c r="AD58" s="22" t="inlineStr"/>
+      <c r="AE58" s="23" t="inlineStr"/>
       <c r="AF58" s="23" t="inlineStr"/>
       <c r="AG58" s="23" t="inlineStr"/>
       <c r="AH58" s="23" t="inlineStr"/>
-      <c r="AI58" s="23" t="inlineStr"/>
-      <c r="AJ58" s="24" t="inlineStr"/>
-      <c r="AK58" s="25" t="inlineStr"/>
-      <c r="AL58" s="26" t="inlineStr"/>
-      <c r="AM58" s="27" t="inlineStr"/>
-      <c r="AN58" s="28" t="inlineStr"/>
-      <c r="AO58" s="16" t="inlineStr"/>
+      <c r="AI58" s="24" t="inlineStr"/>
+      <c r="AJ58" s="25" t="inlineStr"/>
+      <c r="AK58" s="26" t="inlineStr"/>
+      <c r="AL58" s="27" t="inlineStr"/>
+      <c r="AM58" s="28" t="inlineStr"/>
+      <c r="AN58" s="16" t="inlineStr"/>
+      <c r="AO58" s="17" t="inlineStr"/>
       <c r="AP58" s="17" t="inlineStr"/>
       <c r="AQ58" s="17" t="inlineStr"/>
-      <c r="AR58" s="17" t="inlineStr"/>
-      <c r="AS58" s="17" t="inlineStr"/>
-      <c r="AT58" s="17" t="inlineStr"/>
-      <c r="AU58" s="18" t="inlineStr"/>
+      <c r="AR58" s="18" t="inlineStr"/>
+      <c r="AS58" s="19" t="inlineStr"/>
+      <c r="AT58" s="19" t="inlineStr"/>
+      <c r="AU58" s="19" t="inlineStr"/>
       <c r="AV58" s="19" t="inlineStr"/>
       <c r="AW58" s="19" t="inlineStr"/>
       <c r="AX58" s="19" t="inlineStr"/>
       <c r="AY58" s="19" t="inlineStr"/>
       <c r="AZ58" s="19" t="inlineStr"/>
       <c r="BA58" s="19" t="inlineStr"/>
-      <c r="BB58" s="19" t="inlineStr"/>
-      <c r="BC58" s="19" t="inlineStr"/>
-      <c r="BD58" s="19" t="inlineStr"/>
-      <c r="BE58" s="20" t="inlineStr"/>
-      <c r="BF58" s="21" t="inlineStr"/>
-      <c r="BG58" s="21" t="inlineStr"/>
-      <c r="BH58" s="22" t="inlineStr"/>
+      <c r="BB58" s="20" t="inlineStr"/>
+      <c r="BC58" s="21" t="inlineStr"/>
+      <c r="BD58" s="21" t="inlineStr"/>
+      <c r="BE58" s="22" t="inlineStr"/>
+      <c r="BF58" s="23" t="inlineStr"/>
+      <c r="BG58" s="23" t="inlineStr"/>
+      <c r="BH58" s="23" t="inlineStr"/>
       <c r="BI58" s="23" t="inlineStr"/>
       <c r="BJ58" s="23" t="inlineStr"/>
       <c r="BK58" s="23" t="inlineStr"/>
@@ -6514,16 +6307,13 @@
       <c r="BS58" s="23" t="inlineStr"/>
       <c r="BT58" s="23" t="inlineStr"/>
       <c r="BU58" s="23" t="inlineStr"/>
-      <c r="BV58" s="23" t="inlineStr"/>
-      <c r="BW58" s="23" t="inlineStr"/>
-      <c r="BX58" s="23" t="inlineStr"/>
-      <c r="BY58" s="24" t="inlineStr"/>
+      <c r="BV58" s="24" t="inlineStr"/>
+      <c r="BW58" s="29" t="inlineStr"/>
+      <c r="BX58" s="29" t="inlineStr"/>
+      <c r="BY58" s="29" t="inlineStr"/>
       <c r="BZ58" s="29" t="inlineStr"/>
-      <c r="CA58" s="29" t="inlineStr"/>
-      <c r="CB58" s="29" t="inlineStr"/>
-      <c r="CC58" s="29" t="inlineStr"/>
-      <c r="CD58" s="25" t="inlineStr"/>
-      <c r="CE58" s="26" t="inlineStr"/>
+      <c r="CA58" s="25" t="inlineStr"/>
+      <c r="CB58" s="26" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6555,37 +6345,37 @@
       <c r="AA59" s="21" t="inlineStr"/>
       <c r="AB59" s="21" t="inlineStr"/>
       <c r="AC59" s="21" t="inlineStr"/>
-      <c r="AD59" s="21" t="inlineStr"/>
-      <c r="AE59" s="22" t="inlineStr"/>
+      <c r="AD59" s="22" t="inlineStr"/>
+      <c r="AE59" s="23" t="inlineStr"/>
       <c r="AF59" s="23" t="inlineStr"/>
       <c r="AG59" s="23" t="inlineStr"/>
       <c r="AH59" s="23" t="inlineStr"/>
-      <c r="AI59" s="23" t="inlineStr"/>
-      <c r="AJ59" s="24" t="inlineStr"/>
-      <c r="AK59" s="25" t="inlineStr"/>
-      <c r="AL59" s="26" t="inlineStr"/>
-      <c r="AM59" s="27" t="inlineStr"/>
-      <c r="AN59" s="28" t="inlineStr"/>
-      <c r="AO59" s="16" t="inlineStr"/>
+      <c r="AI59" s="24" t="inlineStr"/>
+      <c r="AJ59" s="25" t="inlineStr"/>
+      <c r="AK59" s="26" t="inlineStr"/>
+      <c r="AL59" s="27" t="inlineStr"/>
+      <c r="AM59" s="28" t="inlineStr"/>
+      <c r="AN59" s="16" t="inlineStr"/>
+      <c r="AO59" s="17" t="inlineStr"/>
       <c r="AP59" s="17" t="inlineStr"/>
       <c r="AQ59" s="17" t="inlineStr"/>
-      <c r="AR59" s="17" t="inlineStr"/>
-      <c r="AS59" s="17" t="inlineStr"/>
-      <c r="AT59" s="17" t="inlineStr"/>
-      <c r="AU59" s="18" t="inlineStr"/>
+      <c r="AR59" s="18" t="inlineStr"/>
+      <c r="AS59" s="19" t="inlineStr"/>
+      <c r="AT59" s="19" t="inlineStr"/>
+      <c r="AU59" s="19" t="inlineStr"/>
       <c r="AV59" s="19" t="inlineStr"/>
       <c r="AW59" s="19" t="inlineStr"/>
       <c r="AX59" s="19" t="inlineStr"/>
       <c r="AY59" s="19" t="inlineStr"/>
       <c r="AZ59" s="19" t="inlineStr"/>
       <c r="BA59" s="19" t="inlineStr"/>
-      <c r="BB59" s="19" t="inlineStr"/>
-      <c r="BC59" s="19" t="inlineStr"/>
-      <c r="BD59" s="19" t="inlineStr"/>
-      <c r="BE59" s="20" t="inlineStr"/>
-      <c r="BF59" s="21" t="inlineStr"/>
-      <c r="BG59" s="21" t="inlineStr"/>
-      <c r="BH59" s="22" t="inlineStr"/>
+      <c r="BB59" s="20" t="inlineStr"/>
+      <c r="BC59" s="21" t="inlineStr"/>
+      <c r="BD59" s="21" t="inlineStr"/>
+      <c r="BE59" s="22" t="inlineStr"/>
+      <c r="BF59" s="23" t="inlineStr"/>
+      <c r="BG59" s="23" t="inlineStr"/>
+      <c r="BH59" s="23" t="inlineStr"/>
       <c r="BI59" s="23" t="inlineStr"/>
       <c r="BJ59" s="23" t="inlineStr"/>
       <c r="BK59" s="23" t="inlineStr"/>
@@ -6599,16 +6389,13 @@
       <c r="BS59" s="23" t="inlineStr"/>
       <c r="BT59" s="23" t="inlineStr"/>
       <c r="BU59" s="23" t="inlineStr"/>
-      <c r="BV59" s="23" t="inlineStr"/>
-      <c r="BW59" s="23" t="inlineStr"/>
-      <c r="BX59" s="23" t="inlineStr"/>
-      <c r="BY59" s="24" t="inlineStr"/>
+      <c r="BV59" s="24" t="inlineStr"/>
+      <c r="BW59" s="29" t="inlineStr"/>
+      <c r="BX59" s="29" t="inlineStr"/>
+      <c r="BY59" s="29" t="inlineStr"/>
       <c r="BZ59" s="29" t="inlineStr"/>
-      <c r="CA59" s="29" t="inlineStr"/>
-      <c r="CB59" s="29" t="inlineStr"/>
-      <c r="CC59" s="29" t="inlineStr"/>
-      <c r="CD59" s="25" t="inlineStr"/>
-      <c r="CE59" s="26" t="inlineStr"/>
+      <c r="CA59" s="25" t="inlineStr"/>
+      <c r="CB59" s="26" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6640,37 +6427,37 @@
       <c r="AA60" s="21" t="inlineStr"/>
       <c r="AB60" s="21" t="inlineStr"/>
       <c r="AC60" s="21" t="inlineStr"/>
-      <c r="AD60" s="21" t="inlineStr"/>
-      <c r="AE60" s="22" t="inlineStr"/>
+      <c r="AD60" s="22" t="inlineStr"/>
+      <c r="AE60" s="23" t="inlineStr"/>
       <c r="AF60" s="23" t="inlineStr"/>
       <c r="AG60" s="23" t="inlineStr"/>
       <c r="AH60" s="23" t="inlineStr"/>
-      <c r="AI60" s="23" t="inlineStr"/>
-      <c r="AJ60" s="24" t="inlineStr"/>
-      <c r="AK60" s="25" t="inlineStr"/>
-      <c r="AL60" s="26" t="inlineStr"/>
-      <c r="AM60" s="27" t="inlineStr"/>
-      <c r="AN60" s="28" t="inlineStr"/>
-      <c r="AO60" s="16" t="inlineStr"/>
+      <c r="AI60" s="24" t="inlineStr"/>
+      <c r="AJ60" s="25" t="inlineStr"/>
+      <c r="AK60" s="26" t="inlineStr"/>
+      <c r="AL60" s="27" t="inlineStr"/>
+      <c r="AM60" s="28" t="inlineStr"/>
+      <c r="AN60" s="16" t="inlineStr"/>
+      <c r="AO60" s="17" t="inlineStr"/>
       <c r="AP60" s="17" t="inlineStr"/>
       <c r="AQ60" s="17" t="inlineStr"/>
-      <c r="AR60" s="17" t="inlineStr"/>
-      <c r="AS60" s="17" t="inlineStr"/>
-      <c r="AT60" s="17" t="inlineStr"/>
-      <c r="AU60" s="18" t="inlineStr"/>
+      <c r="AR60" s="18" t="inlineStr"/>
+      <c r="AS60" s="19" t="inlineStr"/>
+      <c r="AT60" s="19" t="inlineStr"/>
+      <c r="AU60" s="19" t="inlineStr"/>
       <c r="AV60" s="19" t="inlineStr"/>
       <c r="AW60" s="19" t="inlineStr"/>
       <c r="AX60" s="19" t="inlineStr"/>
       <c r="AY60" s="19" t="inlineStr"/>
       <c r="AZ60" s="19" t="inlineStr"/>
       <c r="BA60" s="19" t="inlineStr"/>
-      <c r="BB60" s="19" t="inlineStr"/>
-      <c r="BC60" s="19" t="inlineStr"/>
-      <c r="BD60" s="19" t="inlineStr"/>
-      <c r="BE60" s="20" t="inlineStr"/>
-      <c r="BF60" s="21" t="inlineStr"/>
-      <c r="BG60" s="21" t="inlineStr"/>
-      <c r="BH60" s="22" t="inlineStr"/>
+      <c r="BB60" s="20" t="inlineStr"/>
+      <c r="BC60" s="21" t="inlineStr"/>
+      <c r="BD60" s="21" t="inlineStr"/>
+      <c r="BE60" s="22" t="inlineStr"/>
+      <c r="BF60" s="23" t="inlineStr"/>
+      <c r="BG60" s="23" t="inlineStr"/>
+      <c r="BH60" s="23" t="inlineStr"/>
       <c r="BI60" s="23" t="inlineStr"/>
       <c r="BJ60" s="23" t="inlineStr"/>
       <c r="BK60" s="23" t="inlineStr"/>
@@ -6684,16 +6471,13 @@
       <c r="BS60" s="23" t="inlineStr"/>
       <c r="BT60" s="23" t="inlineStr"/>
       <c r="BU60" s="23" t="inlineStr"/>
-      <c r="BV60" s="23" t="inlineStr"/>
-      <c r="BW60" s="23" t="inlineStr"/>
-      <c r="BX60" s="23" t="inlineStr"/>
-      <c r="BY60" s="24" t="inlineStr"/>
+      <c r="BV60" s="24" t="inlineStr"/>
+      <c r="BW60" s="29" t="inlineStr"/>
+      <c r="BX60" s="29" t="inlineStr"/>
+      <c r="BY60" s="29" t="inlineStr"/>
       <c r="BZ60" s="29" t="inlineStr"/>
-      <c r="CA60" s="29" t="inlineStr"/>
-      <c r="CB60" s="29" t="inlineStr"/>
-      <c r="CC60" s="29" t="inlineStr"/>
-      <c r="CD60" s="25" t="inlineStr"/>
-      <c r="CE60" s="26" t="inlineStr"/>
+      <c r="CA60" s="25" t="inlineStr"/>
+      <c r="CB60" s="26" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6725,37 +6509,37 @@
       <c r="AA61" s="21" t="inlineStr"/>
       <c r="AB61" s="21" t="inlineStr"/>
       <c r="AC61" s="21" t="inlineStr"/>
-      <c r="AD61" s="21" t="inlineStr"/>
-      <c r="AE61" s="22" t="inlineStr"/>
+      <c r="AD61" s="22" t="inlineStr"/>
+      <c r="AE61" s="23" t="inlineStr"/>
       <c r="AF61" s="23" t="inlineStr"/>
       <c r="AG61" s="23" t="inlineStr"/>
       <c r="AH61" s="23" t="inlineStr"/>
-      <c r="AI61" s="23" t="inlineStr"/>
-      <c r="AJ61" s="24" t="inlineStr"/>
-      <c r="AK61" s="25" t="inlineStr"/>
-      <c r="AL61" s="26" t="inlineStr"/>
-      <c r="AM61" s="27" t="inlineStr"/>
-      <c r="AN61" s="28" t="inlineStr"/>
-      <c r="AO61" s="16" t="inlineStr"/>
+      <c r="AI61" s="24" t="inlineStr"/>
+      <c r="AJ61" s="25" t="inlineStr"/>
+      <c r="AK61" s="26" t="inlineStr"/>
+      <c r="AL61" s="27" t="inlineStr"/>
+      <c r="AM61" s="28" t="inlineStr"/>
+      <c r="AN61" s="16" t="inlineStr"/>
+      <c r="AO61" s="17" t="inlineStr"/>
       <c r="AP61" s="17" t="inlineStr"/>
       <c r="AQ61" s="17" t="inlineStr"/>
-      <c r="AR61" s="17" t="inlineStr"/>
-      <c r="AS61" s="17" t="inlineStr"/>
-      <c r="AT61" s="17" t="inlineStr"/>
-      <c r="AU61" s="18" t="inlineStr"/>
+      <c r="AR61" s="18" t="inlineStr"/>
+      <c r="AS61" s="19" t="inlineStr"/>
+      <c r="AT61" s="19" t="inlineStr"/>
+      <c r="AU61" s="19" t="inlineStr"/>
       <c r="AV61" s="19" t="inlineStr"/>
       <c r="AW61" s="19" t="inlineStr"/>
       <c r="AX61" s="19" t="inlineStr"/>
       <c r="AY61" s="19" t="inlineStr"/>
       <c r="AZ61" s="19" t="inlineStr"/>
       <c r="BA61" s="19" t="inlineStr"/>
-      <c r="BB61" s="19" t="inlineStr"/>
-      <c r="BC61" s="19" t="inlineStr"/>
-      <c r="BD61" s="19" t="inlineStr"/>
-      <c r="BE61" s="20" t="inlineStr"/>
-      <c r="BF61" s="21" t="inlineStr"/>
-      <c r="BG61" s="21" t="inlineStr"/>
-      <c r="BH61" s="22" t="inlineStr"/>
+      <c r="BB61" s="20" t="inlineStr"/>
+      <c r="BC61" s="21" t="inlineStr"/>
+      <c r="BD61" s="21" t="inlineStr"/>
+      <c r="BE61" s="22" t="inlineStr"/>
+      <c r="BF61" s="23" t="inlineStr"/>
+      <c r="BG61" s="23" t="inlineStr"/>
+      <c r="BH61" s="23" t="inlineStr"/>
       <c r="BI61" s="23" t="inlineStr"/>
       <c r="BJ61" s="23" t="inlineStr"/>
       <c r="BK61" s="23" t="inlineStr"/>
@@ -6769,16 +6553,13 @@
       <c r="BS61" s="23" t="inlineStr"/>
       <c r="BT61" s="23" t="inlineStr"/>
       <c r="BU61" s="23" t="inlineStr"/>
-      <c r="BV61" s="23" t="inlineStr"/>
-      <c r="BW61" s="23" t="inlineStr"/>
-      <c r="BX61" s="23" t="inlineStr"/>
-      <c r="BY61" s="24" t="inlineStr"/>
+      <c r="BV61" s="24" t="inlineStr"/>
+      <c r="BW61" s="29" t="inlineStr"/>
+      <c r="BX61" s="29" t="inlineStr"/>
+      <c r="BY61" s="29" t="inlineStr"/>
       <c r="BZ61" s="29" t="inlineStr"/>
-      <c r="CA61" s="29" t="inlineStr"/>
-      <c r="CB61" s="29" t="inlineStr"/>
-      <c r="CC61" s="29" t="inlineStr"/>
-      <c r="CD61" s="25" t="inlineStr"/>
-      <c r="CE61" s="26" t="inlineStr"/>
+      <c r="CA61" s="25" t="inlineStr"/>
+      <c r="CB61" s="26" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6810,37 +6591,37 @@
       <c r="AA62" s="21" t="inlineStr"/>
       <c r="AB62" s="21" t="inlineStr"/>
       <c r="AC62" s="21" t="inlineStr"/>
-      <c r="AD62" s="21" t="inlineStr"/>
-      <c r="AE62" s="22" t="inlineStr"/>
+      <c r="AD62" s="22" t="inlineStr"/>
+      <c r="AE62" s="23" t="inlineStr"/>
       <c r="AF62" s="23" t="inlineStr"/>
       <c r="AG62" s="23" t="inlineStr"/>
       <c r="AH62" s="23" t="inlineStr"/>
-      <c r="AI62" s="23" t="inlineStr"/>
-      <c r="AJ62" s="24" t="inlineStr"/>
-      <c r="AK62" s="25" t="inlineStr"/>
-      <c r="AL62" s="26" t="inlineStr"/>
-      <c r="AM62" s="27" t="inlineStr"/>
-      <c r="AN62" s="28" t="inlineStr"/>
-      <c r="AO62" s="16" t="inlineStr"/>
+      <c r="AI62" s="24" t="inlineStr"/>
+      <c r="AJ62" s="25" t="inlineStr"/>
+      <c r="AK62" s="26" t="inlineStr"/>
+      <c r="AL62" s="27" t="inlineStr"/>
+      <c r="AM62" s="28" t="inlineStr"/>
+      <c r="AN62" s="16" t="inlineStr"/>
+      <c r="AO62" s="17" t="inlineStr"/>
       <c r="AP62" s="17" t="inlineStr"/>
       <c r="AQ62" s="17" t="inlineStr"/>
-      <c r="AR62" s="17" t="inlineStr"/>
-      <c r="AS62" s="17" t="inlineStr"/>
-      <c r="AT62" s="17" t="inlineStr"/>
-      <c r="AU62" s="18" t="inlineStr"/>
+      <c r="AR62" s="18" t="inlineStr"/>
+      <c r="AS62" s="19" t="inlineStr"/>
+      <c r="AT62" s="19" t="inlineStr"/>
+      <c r="AU62" s="19" t="inlineStr"/>
       <c r="AV62" s="19" t="inlineStr"/>
       <c r="AW62" s="19" t="inlineStr"/>
       <c r="AX62" s="19" t="inlineStr"/>
       <c r="AY62" s="19" t="inlineStr"/>
       <c r="AZ62" s="19" t="inlineStr"/>
       <c r="BA62" s="19" t="inlineStr"/>
-      <c r="BB62" s="19" t="inlineStr"/>
-      <c r="BC62" s="19" t="inlineStr"/>
-      <c r="BD62" s="19" t="inlineStr"/>
-      <c r="BE62" s="20" t="inlineStr"/>
-      <c r="BF62" s="21" t="inlineStr"/>
-      <c r="BG62" s="21" t="inlineStr"/>
-      <c r="BH62" s="22" t="inlineStr"/>
+      <c r="BB62" s="20" t="inlineStr"/>
+      <c r="BC62" s="21" t="inlineStr"/>
+      <c r="BD62" s="21" t="inlineStr"/>
+      <c r="BE62" s="22" t="inlineStr"/>
+      <c r="BF62" s="23" t="inlineStr"/>
+      <c r="BG62" s="23" t="inlineStr"/>
+      <c r="BH62" s="23" t="inlineStr"/>
       <c r="BI62" s="23" t="inlineStr"/>
       <c r="BJ62" s="23" t="inlineStr"/>
       <c r="BK62" s="23" t="inlineStr"/>
@@ -6854,16 +6635,13 @@
       <c r="BS62" s="23" t="inlineStr"/>
       <c r="BT62" s="23" t="inlineStr"/>
       <c r="BU62" s="23" t="inlineStr"/>
-      <c r="BV62" s="23" t="inlineStr"/>
-      <c r="BW62" s="23" t="inlineStr"/>
-      <c r="BX62" s="23" t="inlineStr"/>
-      <c r="BY62" s="24" t="inlineStr"/>
+      <c r="BV62" s="24" t="inlineStr"/>
+      <c r="BW62" s="29" t="inlineStr"/>
+      <c r="BX62" s="29" t="inlineStr"/>
+      <c r="BY62" s="29" t="inlineStr"/>
       <c r="BZ62" s="29" t="inlineStr"/>
-      <c r="CA62" s="29" t="inlineStr"/>
-      <c r="CB62" s="29" t="inlineStr"/>
-      <c r="CC62" s="29" t="inlineStr"/>
-      <c r="CD62" s="25" t="inlineStr"/>
-      <c r="CE62" s="26" t="inlineStr"/>
+      <c r="CA62" s="25" t="inlineStr"/>
+      <c r="CB62" s="26" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6895,37 +6673,37 @@
       <c r="AA63" s="21" t="inlineStr"/>
       <c r="AB63" s="21" t="inlineStr"/>
       <c r="AC63" s="21" t="inlineStr"/>
-      <c r="AD63" s="21" t="inlineStr"/>
-      <c r="AE63" s="22" t="inlineStr"/>
+      <c r="AD63" s="22" t="inlineStr"/>
+      <c r="AE63" s="23" t="inlineStr"/>
       <c r="AF63" s="23" t="inlineStr"/>
       <c r="AG63" s="23" t="inlineStr"/>
       <c r="AH63" s="23" t="inlineStr"/>
-      <c r="AI63" s="23" t="inlineStr"/>
-      <c r="AJ63" s="24" t="inlineStr"/>
-      <c r="AK63" s="25" t="inlineStr"/>
-      <c r="AL63" s="26" t="inlineStr"/>
-      <c r="AM63" s="27" t="inlineStr"/>
-      <c r="AN63" s="28" t="inlineStr"/>
-      <c r="AO63" s="16" t="inlineStr"/>
+      <c r="AI63" s="24" t="inlineStr"/>
+      <c r="AJ63" s="25" t="inlineStr"/>
+      <c r="AK63" s="26" t="inlineStr"/>
+      <c r="AL63" s="27" t="inlineStr"/>
+      <c r="AM63" s="28" t="inlineStr"/>
+      <c r="AN63" s="16" t="inlineStr"/>
+      <c r="AO63" s="17" t="inlineStr"/>
       <c r="AP63" s="17" t="inlineStr"/>
       <c r="AQ63" s="17" t="inlineStr"/>
-      <c r="AR63" s="17" t="inlineStr"/>
-      <c r="AS63" s="17" t="inlineStr"/>
-      <c r="AT63" s="17" t="inlineStr"/>
-      <c r="AU63" s="18" t="inlineStr"/>
+      <c r="AR63" s="18" t="inlineStr"/>
+      <c r="AS63" s="19" t="inlineStr"/>
+      <c r="AT63" s="19" t="inlineStr"/>
+      <c r="AU63" s="19" t="inlineStr"/>
       <c r="AV63" s="19" t="inlineStr"/>
       <c r="AW63" s="19" t="inlineStr"/>
       <c r="AX63" s="19" t="inlineStr"/>
       <c r="AY63" s="19" t="inlineStr"/>
       <c r="AZ63" s="19" t="inlineStr"/>
       <c r="BA63" s="19" t="inlineStr"/>
-      <c r="BB63" s="19" t="inlineStr"/>
-      <c r="BC63" s="19" t="inlineStr"/>
-      <c r="BD63" s="19" t="inlineStr"/>
-      <c r="BE63" s="20" t="inlineStr"/>
-      <c r="BF63" s="21" t="inlineStr"/>
-      <c r="BG63" s="21" t="inlineStr"/>
-      <c r="BH63" s="22" t="inlineStr"/>
+      <c r="BB63" s="20" t="inlineStr"/>
+      <c r="BC63" s="21" t="inlineStr"/>
+      <c r="BD63" s="21" t="inlineStr"/>
+      <c r="BE63" s="22" t="inlineStr"/>
+      <c r="BF63" s="23" t="inlineStr"/>
+      <c r="BG63" s="23" t="inlineStr"/>
+      <c r="BH63" s="23" t="inlineStr"/>
       <c r="BI63" s="23" t="inlineStr"/>
       <c r="BJ63" s="23" t="inlineStr"/>
       <c r="BK63" s="23" t="inlineStr"/>
@@ -6939,16 +6717,13 @@
       <c r="BS63" s="23" t="inlineStr"/>
       <c r="BT63" s="23" t="inlineStr"/>
       <c r="BU63" s="23" t="inlineStr"/>
-      <c r="BV63" s="23" t="inlineStr"/>
-      <c r="BW63" s="23" t="inlineStr"/>
-      <c r="BX63" s="23" t="inlineStr"/>
-      <c r="BY63" s="24" t="inlineStr"/>
+      <c r="BV63" s="24" t="inlineStr"/>
+      <c r="BW63" s="29" t="inlineStr"/>
+      <c r="BX63" s="29" t="inlineStr"/>
+      <c r="BY63" s="29" t="inlineStr"/>
       <c r="BZ63" s="29" t="inlineStr"/>
-      <c r="CA63" s="29" t="inlineStr"/>
-      <c r="CB63" s="29" t="inlineStr"/>
-      <c r="CC63" s="29" t="inlineStr"/>
-      <c r="CD63" s="25" t="inlineStr"/>
-      <c r="CE63" s="26" t="inlineStr"/>
+      <c r="CA63" s="25" t="inlineStr"/>
+      <c r="CB63" s="26" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -6980,37 +6755,37 @@
       <c r="AA64" s="21" t="inlineStr"/>
       <c r="AB64" s="21" t="inlineStr"/>
       <c r="AC64" s="21" t="inlineStr"/>
-      <c r="AD64" s="21" t="inlineStr"/>
-      <c r="AE64" s="22" t="inlineStr"/>
+      <c r="AD64" s="22" t="inlineStr"/>
+      <c r="AE64" s="23" t="inlineStr"/>
       <c r="AF64" s="23" t="inlineStr"/>
       <c r="AG64" s="23" t="inlineStr"/>
       <c r="AH64" s="23" t="inlineStr"/>
-      <c r="AI64" s="23" t="inlineStr"/>
-      <c r="AJ64" s="24" t="inlineStr"/>
-      <c r="AK64" s="25" t="inlineStr"/>
-      <c r="AL64" s="26" t="inlineStr"/>
-      <c r="AM64" s="27" t="inlineStr"/>
-      <c r="AN64" s="28" t="inlineStr"/>
-      <c r="AO64" s="16" t="inlineStr"/>
+      <c r="AI64" s="24" t="inlineStr"/>
+      <c r="AJ64" s="25" t="inlineStr"/>
+      <c r="AK64" s="26" t="inlineStr"/>
+      <c r="AL64" s="27" t="inlineStr"/>
+      <c r="AM64" s="28" t="inlineStr"/>
+      <c r="AN64" s="16" t="inlineStr"/>
+      <c r="AO64" s="17" t="inlineStr"/>
       <c r="AP64" s="17" t="inlineStr"/>
       <c r="AQ64" s="17" t="inlineStr"/>
-      <c r="AR64" s="17" t="inlineStr"/>
-      <c r="AS64" s="17" t="inlineStr"/>
-      <c r="AT64" s="17" t="inlineStr"/>
-      <c r="AU64" s="18" t="inlineStr"/>
+      <c r="AR64" s="18" t="inlineStr"/>
+      <c r="AS64" s="19" t="inlineStr"/>
+      <c r="AT64" s="19" t="inlineStr"/>
+      <c r="AU64" s="19" t="inlineStr"/>
       <c r="AV64" s="19" t="inlineStr"/>
       <c r="AW64" s="19" t="inlineStr"/>
       <c r="AX64" s="19" t="inlineStr"/>
       <c r="AY64" s="19" t="inlineStr"/>
       <c r="AZ64" s="19" t="inlineStr"/>
       <c r="BA64" s="19" t="inlineStr"/>
-      <c r="BB64" s="19" t="inlineStr"/>
-      <c r="BC64" s="19" t="inlineStr"/>
-      <c r="BD64" s="19" t="inlineStr"/>
-      <c r="BE64" s="20" t="inlineStr"/>
-      <c r="BF64" s="21" t="inlineStr"/>
-      <c r="BG64" s="21" t="inlineStr"/>
-      <c r="BH64" s="22" t="inlineStr"/>
+      <c r="BB64" s="20" t="inlineStr"/>
+      <c r="BC64" s="21" t="inlineStr"/>
+      <c r="BD64" s="21" t="inlineStr"/>
+      <c r="BE64" s="22" t="inlineStr"/>
+      <c r="BF64" s="23" t="inlineStr"/>
+      <c r="BG64" s="23" t="inlineStr"/>
+      <c r="BH64" s="23" t="inlineStr"/>
       <c r="BI64" s="23" t="inlineStr"/>
       <c r="BJ64" s="23" t="inlineStr"/>
       <c r="BK64" s="23" t="inlineStr"/>
@@ -7024,16 +6799,13 @@
       <c r="BS64" s="23" t="inlineStr"/>
       <c r="BT64" s="23" t="inlineStr"/>
       <c r="BU64" s="23" t="inlineStr"/>
-      <c r="BV64" s="23" t="inlineStr"/>
-      <c r="BW64" s="23" t="inlineStr"/>
-      <c r="BX64" s="23" t="inlineStr"/>
-      <c r="BY64" s="24" t="inlineStr"/>
+      <c r="BV64" s="24" t="inlineStr"/>
+      <c r="BW64" s="29" t="inlineStr"/>
+      <c r="BX64" s="29" t="inlineStr"/>
+      <c r="BY64" s="29" t="inlineStr"/>
       <c r="BZ64" s="29" t="inlineStr"/>
-      <c r="CA64" s="29" t="inlineStr"/>
-      <c r="CB64" s="29" t="inlineStr"/>
-      <c r="CC64" s="29" t="inlineStr"/>
-      <c r="CD64" s="25" t="inlineStr"/>
-      <c r="CE64" s="26" t="inlineStr"/>
+      <c r="CA64" s="25" t="inlineStr"/>
+      <c r="CB64" s="26" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -7065,37 +6837,37 @@
       <c r="AA65" s="21" t="inlineStr"/>
       <c r="AB65" s="21" t="inlineStr"/>
       <c r="AC65" s="21" t="inlineStr"/>
-      <c r="AD65" s="21" t="inlineStr"/>
-      <c r="AE65" s="22" t="inlineStr"/>
+      <c r="AD65" s="22" t="inlineStr"/>
+      <c r="AE65" s="23" t="inlineStr"/>
       <c r="AF65" s="23" t="inlineStr"/>
       <c r="AG65" s="23" t="inlineStr"/>
       <c r="AH65" s="23" t="inlineStr"/>
-      <c r="AI65" s="23" t="inlineStr"/>
-      <c r="AJ65" s="24" t="inlineStr"/>
-      <c r="AK65" s="25" t="inlineStr"/>
-      <c r="AL65" s="26" t="inlineStr"/>
-      <c r="AM65" s="27" t="inlineStr"/>
-      <c r="AN65" s="28" t="inlineStr"/>
-      <c r="AO65" s="16" t="inlineStr"/>
+      <c r="AI65" s="24" t="inlineStr"/>
+      <c r="AJ65" s="25" t="inlineStr"/>
+      <c r="AK65" s="26" t="inlineStr"/>
+      <c r="AL65" s="27" t="inlineStr"/>
+      <c r="AM65" s="28" t="inlineStr"/>
+      <c r="AN65" s="16" t="inlineStr"/>
+      <c r="AO65" s="17" t="inlineStr"/>
       <c r="AP65" s="17" t="inlineStr"/>
       <c r="AQ65" s="17" t="inlineStr"/>
-      <c r="AR65" s="17" t="inlineStr"/>
-      <c r="AS65" s="17" t="inlineStr"/>
-      <c r="AT65" s="17" t="inlineStr"/>
-      <c r="AU65" s="18" t="inlineStr"/>
+      <c r="AR65" s="18" t="inlineStr"/>
+      <c r="AS65" s="19" t="inlineStr"/>
+      <c r="AT65" s="19" t="inlineStr"/>
+      <c r="AU65" s="19" t="inlineStr"/>
       <c r="AV65" s="19" t="inlineStr"/>
       <c r="AW65" s="19" t="inlineStr"/>
       <c r="AX65" s="19" t="inlineStr"/>
       <c r="AY65" s="19" t="inlineStr"/>
       <c r="AZ65" s="19" t="inlineStr"/>
       <c r="BA65" s="19" t="inlineStr"/>
-      <c r="BB65" s="19" t="inlineStr"/>
-      <c r="BC65" s="19" t="inlineStr"/>
-      <c r="BD65" s="19" t="inlineStr"/>
-      <c r="BE65" s="20" t="inlineStr"/>
-      <c r="BF65" s="21" t="inlineStr"/>
-      <c r="BG65" s="21" t="inlineStr"/>
-      <c r="BH65" s="22" t="inlineStr"/>
+      <c r="BB65" s="20" t="inlineStr"/>
+      <c r="BC65" s="21" t="inlineStr"/>
+      <c r="BD65" s="21" t="inlineStr"/>
+      <c r="BE65" s="22" t="inlineStr"/>
+      <c r="BF65" s="23" t="inlineStr"/>
+      <c r="BG65" s="23" t="inlineStr"/>
+      <c r="BH65" s="23" t="inlineStr"/>
       <c r="BI65" s="23" t="inlineStr"/>
       <c r="BJ65" s="23" t="inlineStr"/>
       <c r="BK65" s="23" t="inlineStr"/>
@@ -7109,16 +6881,13 @@
       <c r="BS65" s="23" t="inlineStr"/>
       <c r="BT65" s="23" t="inlineStr"/>
       <c r="BU65" s="23" t="inlineStr"/>
-      <c r="BV65" s="23" t="inlineStr"/>
-      <c r="BW65" s="23" t="inlineStr"/>
-      <c r="BX65" s="23" t="inlineStr"/>
-      <c r="BY65" s="24" t="inlineStr"/>
+      <c r="BV65" s="24" t="inlineStr"/>
+      <c r="BW65" s="29" t="inlineStr"/>
+      <c r="BX65" s="29" t="inlineStr"/>
+      <c r="BY65" s="29" t="inlineStr"/>
       <c r="BZ65" s="29" t="inlineStr"/>
-      <c r="CA65" s="29" t="inlineStr"/>
-      <c r="CB65" s="29" t="inlineStr"/>
-      <c r="CC65" s="29" t="inlineStr"/>
-      <c r="CD65" s="25" t="inlineStr"/>
-      <c r="CE65" s="26" t="inlineStr"/>
+      <c r="CA65" s="25" t="inlineStr"/>
+      <c r="CB65" s="26" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -7150,37 +6919,37 @@
       <c r="AA66" s="21" t="inlineStr"/>
       <c r="AB66" s="21" t="inlineStr"/>
       <c r="AC66" s="21" t="inlineStr"/>
-      <c r="AD66" s="21" t="inlineStr"/>
-      <c r="AE66" s="22" t="inlineStr"/>
+      <c r="AD66" s="22" t="inlineStr"/>
+      <c r="AE66" s="23" t="inlineStr"/>
       <c r="AF66" s="23" t="inlineStr"/>
       <c r="AG66" s="23" t="inlineStr"/>
       <c r="AH66" s="23" t="inlineStr"/>
-      <c r="AI66" s="23" t="inlineStr"/>
-      <c r="AJ66" s="24" t="inlineStr"/>
-      <c r="AK66" s="25" t="inlineStr"/>
-      <c r="AL66" s="26" t="inlineStr"/>
-      <c r="AM66" s="27" t="inlineStr"/>
-      <c r="AN66" s="28" t="inlineStr"/>
-      <c r="AO66" s="16" t="inlineStr"/>
+      <c r="AI66" s="24" t="inlineStr"/>
+      <c r="AJ66" s="25" t="inlineStr"/>
+      <c r="AK66" s="26" t="inlineStr"/>
+      <c r="AL66" s="27" t="inlineStr"/>
+      <c r="AM66" s="28" t="inlineStr"/>
+      <c r="AN66" s="16" t="inlineStr"/>
+      <c r="AO66" s="17" t="inlineStr"/>
       <c r="AP66" s="17" t="inlineStr"/>
       <c r="AQ66" s="17" t="inlineStr"/>
-      <c r="AR66" s="17" t="inlineStr"/>
-      <c r="AS66" s="17" t="inlineStr"/>
-      <c r="AT66" s="17" t="inlineStr"/>
-      <c r="AU66" s="18" t="inlineStr"/>
+      <c r="AR66" s="18" t="inlineStr"/>
+      <c r="AS66" s="19" t="inlineStr"/>
+      <c r="AT66" s="19" t="inlineStr"/>
+      <c r="AU66" s="19" t="inlineStr"/>
       <c r="AV66" s="19" t="inlineStr"/>
       <c r="AW66" s="19" t="inlineStr"/>
       <c r="AX66" s="19" t="inlineStr"/>
       <c r="AY66" s="19" t="inlineStr"/>
       <c r="AZ66" s="19" t="inlineStr"/>
       <c r="BA66" s="19" t="inlineStr"/>
-      <c r="BB66" s="19" t="inlineStr"/>
-      <c r="BC66" s="19" t="inlineStr"/>
-      <c r="BD66" s="19" t="inlineStr"/>
-      <c r="BE66" s="20" t="inlineStr"/>
-      <c r="BF66" s="21" t="inlineStr"/>
-      <c r="BG66" s="21" t="inlineStr"/>
-      <c r="BH66" s="22" t="inlineStr"/>
+      <c r="BB66" s="20" t="inlineStr"/>
+      <c r="BC66" s="21" t="inlineStr"/>
+      <c r="BD66" s="21" t="inlineStr"/>
+      <c r="BE66" s="22" t="inlineStr"/>
+      <c r="BF66" s="23" t="inlineStr"/>
+      <c r="BG66" s="23" t="inlineStr"/>
+      <c r="BH66" s="23" t="inlineStr"/>
       <c r="BI66" s="23" t="inlineStr"/>
       <c r="BJ66" s="23" t="inlineStr"/>
       <c r="BK66" s="23" t="inlineStr"/>
@@ -7194,16 +6963,13 @@
       <c r="BS66" s="23" t="inlineStr"/>
       <c r="BT66" s="23" t="inlineStr"/>
       <c r="BU66" s="23" t="inlineStr"/>
-      <c r="BV66" s="23" t="inlineStr"/>
-      <c r="BW66" s="23" t="inlineStr"/>
-      <c r="BX66" s="23" t="inlineStr"/>
-      <c r="BY66" s="24" t="inlineStr"/>
+      <c r="BV66" s="24" t="inlineStr"/>
+      <c r="BW66" s="29" t="inlineStr"/>
+      <c r="BX66" s="29" t="inlineStr"/>
+      <c r="BY66" s="29" t="inlineStr"/>
       <c r="BZ66" s="29" t="inlineStr"/>
-      <c r="CA66" s="29" t="inlineStr"/>
-      <c r="CB66" s="29" t="inlineStr"/>
-      <c r="CC66" s="29" t="inlineStr"/>
-      <c r="CD66" s="25" t="inlineStr"/>
-      <c r="CE66" s="26" t="inlineStr"/>
+      <c r="CA66" s="25" t="inlineStr"/>
+      <c r="CB66" s="26" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -7235,37 +7001,37 @@
       <c r="AA67" s="21" t="inlineStr"/>
       <c r="AB67" s="21" t="inlineStr"/>
       <c r="AC67" s="21" t="inlineStr"/>
-      <c r="AD67" s="21" t="inlineStr"/>
-      <c r="AE67" s="22" t="inlineStr"/>
+      <c r="AD67" s="22" t="inlineStr"/>
+      <c r="AE67" s="23" t="inlineStr"/>
       <c r="AF67" s="23" t="inlineStr"/>
       <c r="AG67" s="23" t="inlineStr"/>
       <c r="AH67" s="23" t="inlineStr"/>
-      <c r="AI67" s="23" t="inlineStr"/>
-      <c r="AJ67" s="24" t="inlineStr"/>
-      <c r="AK67" s="25" t="inlineStr"/>
-      <c r="AL67" s="26" t="inlineStr"/>
-      <c r="AM67" s="27" t="inlineStr"/>
-      <c r="AN67" s="28" t="inlineStr"/>
-      <c r="AO67" s="16" t="inlineStr"/>
+      <c r="AI67" s="24" t="inlineStr"/>
+      <c r="AJ67" s="25" t="inlineStr"/>
+      <c r="AK67" s="26" t="inlineStr"/>
+      <c r="AL67" s="27" t="inlineStr"/>
+      <c r="AM67" s="28" t="inlineStr"/>
+      <c r="AN67" s="16" t="inlineStr"/>
+      <c r="AO67" s="17" t="inlineStr"/>
       <c r="AP67" s="17" t="inlineStr"/>
       <c r="AQ67" s="17" t="inlineStr"/>
-      <c r="AR67" s="17" t="inlineStr"/>
-      <c r="AS67" s="17" t="inlineStr"/>
-      <c r="AT67" s="17" t="inlineStr"/>
-      <c r="AU67" s="18" t="inlineStr"/>
+      <c r="AR67" s="18" t="inlineStr"/>
+      <c r="AS67" s="19" t="inlineStr"/>
+      <c r="AT67" s="19" t="inlineStr"/>
+      <c r="AU67" s="19" t="inlineStr"/>
       <c r="AV67" s="19" t="inlineStr"/>
       <c r="AW67" s="19" t="inlineStr"/>
       <c r="AX67" s="19" t="inlineStr"/>
       <c r="AY67" s="19" t="inlineStr"/>
       <c r="AZ67" s="19" t="inlineStr"/>
       <c r="BA67" s="19" t="inlineStr"/>
-      <c r="BB67" s="19" t="inlineStr"/>
-      <c r="BC67" s="19" t="inlineStr"/>
-      <c r="BD67" s="19" t="inlineStr"/>
-      <c r="BE67" s="20" t="inlineStr"/>
-      <c r="BF67" s="21" t="inlineStr"/>
-      <c r="BG67" s="21" t="inlineStr"/>
-      <c r="BH67" s="22" t="inlineStr"/>
+      <c r="BB67" s="20" t="inlineStr"/>
+      <c r="BC67" s="21" t="inlineStr"/>
+      <c r="BD67" s="21" t="inlineStr"/>
+      <c r="BE67" s="22" t="inlineStr"/>
+      <c r="BF67" s="23" t="inlineStr"/>
+      <c r="BG67" s="23" t="inlineStr"/>
+      <c r="BH67" s="23" t="inlineStr"/>
       <c r="BI67" s="23" t="inlineStr"/>
       <c r="BJ67" s="23" t="inlineStr"/>
       <c r="BK67" s="23" t="inlineStr"/>
@@ -7279,16 +7045,13 @@
       <c r="BS67" s="23" t="inlineStr"/>
       <c r="BT67" s="23" t="inlineStr"/>
       <c r="BU67" s="23" t="inlineStr"/>
-      <c r="BV67" s="23" t="inlineStr"/>
-      <c r="BW67" s="23" t="inlineStr"/>
-      <c r="BX67" s="23" t="inlineStr"/>
-      <c r="BY67" s="24" t="inlineStr"/>
+      <c r="BV67" s="24" t="inlineStr"/>
+      <c r="BW67" s="29" t="inlineStr"/>
+      <c r="BX67" s="29" t="inlineStr"/>
+      <c r="BY67" s="29" t="inlineStr"/>
       <c r="BZ67" s="29" t="inlineStr"/>
-      <c r="CA67" s="29" t="inlineStr"/>
-      <c r="CB67" s="29" t="inlineStr"/>
-      <c r="CC67" s="29" t="inlineStr"/>
-      <c r="CD67" s="25" t="inlineStr"/>
-      <c r="CE67" s="26" t="inlineStr"/>
+      <c r="CA67" s="25" t="inlineStr"/>
+      <c r="CB67" s="26" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7320,37 +7083,37 @@
       <c r="AA68" s="21" t="inlineStr"/>
       <c r="AB68" s="21" t="inlineStr"/>
       <c r="AC68" s="21" t="inlineStr"/>
-      <c r="AD68" s="21" t="inlineStr"/>
-      <c r="AE68" s="22" t="inlineStr"/>
+      <c r="AD68" s="22" t="inlineStr"/>
+      <c r="AE68" s="23" t="inlineStr"/>
       <c r="AF68" s="23" t="inlineStr"/>
       <c r="AG68" s="23" t="inlineStr"/>
       <c r="AH68" s="23" t="inlineStr"/>
-      <c r="AI68" s="23" t="inlineStr"/>
-      <c r="AJ68" s="24" t="inlineStr"/>
-      <c r="AK68" s="25" t="inlineStr"/>
-      <c r="AL68" s="26" t="inlineStr"/>
-      <c r="AM68" s="27" t="inlineStr"/>
-      <c r="AN68" s="28" t="inlineStr"/>
-      <c r="AO68" s="16" t="inlineStr"/>
+      <c r="AI68" s="24" t="inlineStr"/>
+      <c r="AJ68" s="25" t="inlineStr"/>
+      <c r="AK68" s="26" t="inlineStr"/>
+      <c r="AL68" s="27" t="inlineStr"/>
+      <c r="AM68" s="28" t="inlineStr"/>
+      <c r="AN68" s="16" t="inlineStr"/>
+      <c r="AO68" s="17" t="inlineStr"/>
       <c r="AP68" s="17" t="inlineStr"/>
       <c r="AQ68" s="17" t="inlineStr"/>
-      <c r="AR68" s="17" t="inlineStr"/>
-      <c r="AS68" s="17" t="inlineStr"/>
-      <c r="AT68" s="17" t="inlineStr"/>
-      <c r="AU68" s="18" t="inlineStr"/>
+      <c r="AR68" s="18" t="inlineStr"/>
+      <c r="AS68" s="19" t="inlineStr"/>
+      <c r="AT68" s="19" t="inlineStr"/>
+      <c r="AU68" s="19" t="inlineStr"/>
       <c r="AV68" s="19" t="inlineStr"/>
       <c r="AW68" s="19" t="inlineStr"/>
       <c r="AX68" s="19" t="inlineStr"/>
       <c r="AY68" s="19" t="inlineStr"/>
       <c r="AZ68" s="19" t="inlineStr"/>
       <c r="BA68" s="19" t="inlineStr"/>
-      <c r="BB68" s="19" t="inlineStr"/>
-      <c r="BC68" s="19" t="inlineStr"/>
-      <c r="BD68" s="19" t="inlineStr"/>
-      <c r="BE68" s="20" t="inlineStr"/>
-      <c r="BF68" s="21" t="inlineStr"/>
-      <c r="BG68" s="21" t="inlineStr"/>
-      <c r="BH68" s="22" t="inlineStr"/>
+      <c r="BB68" s="20" t="inlineStr"/>
+      <c r="BC68" s="21" t="inlineStr"/>
+      <c r="BD68" s="21" t="inlineStr"/>
+      <c r="BE68" s="22" t="inlineStr"/>
+      <c r="BF68" s="23" t="inlineStr"/>
+      <c r="BG68" s="23" t="inlineStr"/>
+      <c r="BH68" s="23" t="inlineStr"/>
       <c r="BI68" s="23" t="inlineStr"/>
       <c r="BJ68" s="23" t="inlineStr"/>
       <c r="BK68" s="23" t="inlineStr"/>
@@ -7364,16 +7127,13 @@
       <c r="BS68" s="23" t="inlineStr"/>
       <c r="BT68" s="23" t="inlineStr"/>
       <c r="BU68" s="23" t="inlineStr"/>
-      <c r="BV68" s="23" t="inlineStr"/>
-      <c r="BW68" s="23" t="inlineStr"/>
-      <c r="BX68" s="23" t="inlineStr"/>
-      <c r="BY68" s="24" t="inlineStr"/>
+      <c r="BV68" s="24" t="inlineStr"/>
+      <c r="BW68" s="29" t="inlineStr"/>
+      <c r="BX68" s="29" t="inlineStr"/>
+      <c r="BY68" s="29" t="inlineStr"/>
       <c r="BZ68" s="29" t="inlineStr"/>
-      <c r="CA68" s="29" t="inlineStr"/>
-      <c r="CB68" s="29" t="inlineStr"/>
-      <c r="CC68" s="29" t="inlineStr"/>
-      <c r="CD68" s="25" t="inlineStr"/>
-      <c r="CE68" s="26" t="inlineStr"/>
+      <c r="CA68" s="25" t="inlineStr"/>
+      <c r="CB68" s="26" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7405,37 +7165,37 @@
       <c r="AA69" s="21" t="inlineStr"/>
       <c r="AB69" s="21" t="inlineStr"/>
       <c r="AC69" s="21" t="inlineStr"/>
-      <c r="AD69" s="21" t="inlineStr"/>
-      <c r="AE69" s="22" t="inlineStr"/>
+      <c r="AD69" s="22" t="inlineStr"/>
+      <c r="AE69" s="23" t="inlineStr"/>
       <c r="AF69" s="23" t="inlineStr"/>
       <c r="AG69" s="23" t="inlineStr"/>
       <c r="AH69" s="23" t="inlineStr"/>
-      <c r="AI69" s="23" t="inlineStr"/>
-      <c r="AJ69" s="24" t="inlineStr"/>
-      <c r="AK69" s="25" t="inlineStr"/>
-      <c r="AL69" s="26" t="inlineStr"/>
-      <c r="AM69" s="27" t="inlineStr"/>
-      <c r="AN69" s="28" t="inlineStr"/>
-      <c r="AO69" s="16" t="inlineStr"/>
+      <c r="AI69" s="24" t="inlineStr"/>
+      <c r="AJ69" s="25" t="inlineStr"/>
+      <c r="AK69" s="26" t="inlineStr"/>
+      <c r="AL69" s="27" t="inlineStr"/>
+      <c r="AM69" s="28" t="inlineStr"/>
+      <c r="AN69" s="16" t="inlineStr"/>
+      <c r="AO69" s="17" t="inlineStr"/>
       <c r="AP69" s="17" t="inlineStr"/>
       <c r="AQ69" s="17" t="inlineStr"/>
-      <c r="AR69" s="17" t="inlineStr"/>
-      <c r="AS69" s="17" t="inlineStr"/>
-      <c r="AT69" s="17" t="inlineStr"/>
-      <c r="AU69" s="18" t="inlineStr"/>
+      <c r="AR69" s="18" t="inlineStr"/>
+      <c r="AS69" s="19" t="inlineStr"/>
+      <c r="AT69" s="19" t="inlineStr"/>
+      <c r="AU69" s="19" t="inlineStr"/>
       <c r="AV69" s="19" t="inlineStr"/>
       <c r="AW69" s="19" t="inlineStr"/>
       <c r="AX69" s="19" t="inlineStr"/>
       <c r="AY69" s="19" t="inlineStr"/>
       <c r="AZ69" s="19" t="inlineStr"/>
       <c r="BA69" s="19" t="inlineStr"/>
-      <c r="BB69" s="19" t="inlineStr"/>
-      <c r="BC69" s="19" t="inlineStr"/>
-      <c r="BD69" s="19" t="inlineStr"/>
-      <c r="BE69" s="20" t="inlineStr"/>
-      <c r="BF69" s="21" t="inlineStr"/>
-      <c r="BG69" s="21" t="inlineStr"/>
-      <c r="BH69" s="22" t="inlineStr"/>
+      <c r="BB69" s="20" t="inlineStr"/>
+      <c r="BC69" s="21" t="inlineStr"/>
+      <c r="BD69" s="21" t="inlineStr"/>
+      <c r="BE69" s="22" t="inlineStr"/>
+      <c r="BF69" s="23" t="inlineStr"/>
+      <c r="BG69" s="23" t="inlineStr"/>
+      <c r="BH69" s="23" t="inlineStr"/>
       <c r="BI69" s="23" t="inlineStr"/>
       <c r="BJ69" s="23" t="inlineStr"/>
       <c r="BK69" s="23" t="inlineStr"/>
@@ -7449,16 +7209,13 @@
       <c r="BS69" s="23" t="inlineStr"/>
       <c r="BT69" s="23" t="inlineStr"/>
       <c r="BU69" s="23" t="inlineStr"/>
-      <c r="BV69" s="23" t="inlineStr"/>
-      <c r="BW69" s="23" t="inlineStr"/>
-      <c r="BX69" s="23" t="inlineStr"/>
-      <c r="BY69" s="24" t="inlineStr"/>
+      <c r="BV69" s="24" t="inlineStr"/>
+      <c r="BW69" s="29" t="inlineStr"/>
+      <c r="BX69" s="29" t="inlineStr"/>
+      <c r="BY69" s="29" t="inlineStr"/>
       <c r="BZ69" s="29" t="inlineStr"/>
-      <c r="CA69" s="29" t="inlineStr"/>
-      <c r="CB69" s="29" t="inlineStr"/>
-      <c r="CC69" s="29" t="inlineStr"/>
-      <c r="CD69" s="25" t="inlineStr"/>
-      <c r="CE69" s="26" t="inlineStr"/>
+      <c r="CA69" s="25" t="inlineStr"/>
+      <c r="CB69" s="26" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7490,37 +7247,37 @@
       <c r="AA70" s="21" t="inlineStr"/>
       <c r="AB70" s="21" t="inlineStr"/>
       <c r="AC70" s="21" t="inlineStr"/>
-      <c r="AD70" s="21" t="inlineStr"/>
-      <c r="AE70" s="22" t="inlineStr"/>
+      <c r="AD70" s="22" t="inlineStr"/>
+      <c r="AE70" s="23" t="inlineStr"/>
       <c r="AF70" s="23" t="inlineStr"/>
       <c r="AG70" s="23" t="inlineStr"/>
       <c r="AH70" s="23" t="inlineStr"/>
-      <c r="AI70" s="23" t="inlineStr"/>
-      <c r="AJ70" s="24" t="inlineStr"/>
-      <c r="AK70" s="25" t="inlineStr"/>
-      <c r="AL70" s="26" t="inlineStr"/>
-      <c r="AM70" s="27" t="inlineStr"/>
-      <c r="AN70" s="28" t="inlineStr"/>
-      <c r="AO70" s="16" t="inlineStr"/>
+      <c r="AI70" s="24" t="inlineStr"/>
+      <c r="AJ70" s="25" t="inlineStr"/>
+      <c r="AK70" s="26" t="inlineStr"/>
+      <c r="AL70" s="27" t="inlineStr"/>
+      <c r="AM70" s="28" t="inlineStr"/>
+      <c r="AN70" s="16" t="inlineStr"/>
+      <c r="AO70" s="17" t="inlineStr"/>
       <c r="AP70" s="17" t="inlineStr"/>
       <c r="AQ70" s="17" t="inlineStr"/>
-      <c r="AR70" s="17" t="inlineStr"/>
-      <c r="AS70" s="17" t="inlineStr"/>
-      <c r="AT70" s="17" t="inlineStr"/>
-      <c r="AU70" s="18" t="inlineStr"/>
+      <c r="AR70" s="18" t="inlineStr"/>
+      <c r="AS70" s="19" t="inlineStr"/>
+      <c r="AT70" s="19" t="inlineStr"/>
+      <c r="AU70" s="19" t="inlineStr"/>
       <c r="AV70" s="19" t="inlineStr"/>
       <c r="AW70" s="19" t="inlineStr"/>
       <c r="AX70" s="19" t="inlineStr"/>
       <c r="AY70" s="19" t="inlineStr"/>
       <c r="AZ70" s="19" t="inlineStr"/>
       <c r="BA70" s="19" t="inlineStr"/>
-      <c r="BB70" s="19" t="inlineStr"/>
-      <c r="BC70" s="19" t="inlineStr"/>
-      <c r="BD70" s="19" t="inlineStr"/>
-      <c r="BE70" s="20" t="inlineStr"/>
-      <c r="BF70" s="21" t="inlineStr"/>
-      <c r="BG70" s="21" t="inlineStr"/>
-      <c r="BH70" s="22" t="inlineStr"/>
+      <c r="BB70" s="20" t="inlineStr"/>
+      <c r="BC70" s="21" t="inlineStr"/>
+      <c r="BD70" s="21" t="inlineStr"/>
+      <c r="BE70" s="22" t="inlineStr"/>
+      <c r="BF70" s="23" t="inlineStr"/>
+      <c r="BG70" s="23" t="inlineStr"/>
+      <c r="BH70" s="23" t="inlineStr"/>
       <c r="BI70" s="23" t="inlineStr"/>
       <c r="BJ70" s="23" t="inlineStr"/>
       <c r="BK70" s="23" t="inlineStr"/>
@@ -7534,16 +7291,13 @@
       <c r="BS70" s="23" t="inlineStr"/>
       <c r="BT70" s="23" t="inlineStr"/>
       <c r="BU70" s="23" t="inlineStr"/>
-      <c r="BV70" s="23" t="inlineStr"/>
-      <c r="BW70" s="23" t="inlineStr"/>
-      <c r="BX70" s="23" t="inlineStr"/>
-      <c r="BY70" s="24" t="inlineStr"/>
+      <c r="BV70" s="24" t="inlineStr"/>
+      <c r="BW70" s="29" t="inlineStr"/>
+      <c r="BX70" s="29" t="inlineStr"/>
+      <c r="BY70" s="29" t="inlineStr"/>
       <c r="BZ70" s="29" t="inlineStr"/>
-      <c r="CA70" s="29" t="inlineStr"/>
-      <c r="CB70" s="29" t="inlineStr"/>
-      <c r="CC70" s="29" t="inlineStr"/>
-      <c r="CD70" s="25" t="inlineStr"/>
-      <c r="CE70" s="26" t="inlineStr"/>
+      <c r="CA70" s="25" t="inlineStr"/>
+      <c r="CB70" s="26" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7575,37 +7329,37 @@
       <c r="AA71" s="21" t="inlineStr"/>
       <c r="AB71" s="21" t="inlineStr"/>
       <c r="AC71" s="21" t="inlineStr"/>
-      <c r="AD71" s="21" t="inlineStr"/>
-      <c r="AE71" s="22" t="inlineStr"/>
+      <c r="AD71" s="22" t="inlineStr"/>
+      <c r="AE71" s="23" t="inlineStr"/>
       <c r="AF71" s="23" t="inlineStr"/>
       <c r="AG71" s="23" t="inlineStr"/>
       <c r="AH71" s="23" t="inlineStr"/>
-      <c r="AI71" s="23" t="inlineStr"/>
-      <c r="AJ71" s="24" t="inlineStr"/>
-      <c r="AK71" s="25" t="inlineStr"/>
-      <c r="AL71" s="26" t="inlineStr"/>
-      <c r="AM71" s="27" t="inlineStr"/>
-      <c r="AN71" s="28" t="inlineStr"/>
-      <c r="AO71" s="16" t="inlineStr"/>
+      <c r="AI71" s="24" t="inlineStr"/>
+      <c r="AJ71" s="25" t="inlineStr"/>
+      <c r="AK71" s="26" t="inlineStr"/>
+      <c r="AL71" s="27" t="inlineStr"/>
+      <c r="AM71" s="28" t="inlineStr"/>
+      <c r="AN71" s="16" t="inlineStr"/>
+      <c r="AO71" s="17" t="inlineStr"/>
       <c r="AP71" s="17" t="inlineStr"/>
       <c r="AQ71" s="17" t="inlineStr"/>
-      <c r="AR71" s="17" t="inlineStr"/>
-      <c r="AS71" s="17" t="inlineStr"/>
-      <c r="AT71" s="17" t="inlineStr"/>
-      <c r="AU71" s="18" t="inlineStr"/>
+      <c r="AR71" s="18" t="inlineStr"/>
+      <c r="AS71" s="19" t="inlineStr"/>
+      <c r="AT71" s="19" t="inlineStr"/>
+      <c r="AU71" s="19" t="inlineStr"/>
       <c r="AV71" s="19" t="inlineStr"/>
       <c r="AW71" s="19" t="inlineStr"/>
       <c r="AX71" s="19" t="inlineStr"/>
       <c r="AY71" s="19" t="inlineStr"/>
       <c r="AZ71" s="19" t="inlineStr"/>
       <c r="BA71" s="19" t="inlineStr"/>
-      <c r="BB71" s="19" t="inlineStr"/>
-      <c r="BC71" s="19" t="inlineStr"/>
-      <c r="BD71" s="19" t="inlineStr"/>
-      <c r="BE71" s="20" t="inlineStr"/>
-      <c r="BF71" s="21" t="inlineStr"/>
-      <c r="BG71" s="21" t="inlineStr"/>
-      <c r="BH71" s="22" t="inlineStr"/>
+      <c r="BB71" s="20" t="inlineStr"/>
+      <c r="BC71" s="21" t="inlineStr"/>
+      <c r="BD71" s="21" t="inlineStr"/>
+      <c r="BE71" s="22" t="inlineStr"/>
+      <c r="BF71" s="23" t="inlineStr"/>
+      <c r="BG71" s="23" t="inlineStr"/>
+      <c r="BH71" s="23" t="inlineStr"/>
       <c r="BI71" s="23" t="inlineStr"/>
       <c r="BJ71" s="23" t="inlineStr"/>
       <c r="BK71" s="23" t="inlineStr"/>
@@ -7619,16 +7373,13 @@
       <c r="BS71" s="23" t="inlineStr"/>
       <c r="BT71" s="23" t="inlineStr"/>
       <c r="BU71" s="23" t="inlineStr"/>
-      <c r="BV71" s="23" t="inlineStr"/>
-      <c r="BW71" s="23" t="inlineStr"/>
-      <c r="BX71" s="23" t="inlineStr"/>
-      <c r="BY71" s="24" t="inlineStr"/>
+      <c r="BV71" s="24" t="inlineStr"/>
+      <c r="BW71" s="29" t="inlineStr"/>
+      <c r="BX71" s="29" t="inlineStr"/>
+      <c r="BY71" s="29" t="inlineStr"/>
       <c r="BZ71" s="29" t="inlineStr"/>
-      <c r="CA71" s="29" t="inlineStr"/>
-      <c r="CB71" s="29" t="inlineStr"/>
-      <c r="CC71" s="29" t="inlineStr"/>
-      <c r="CD71" s="25" t="inlineStr"/>
-      <c r="CE71" s="26" t="inlineStr"/>
+      <c r="CA71" s="25" t="inlineStr"/>
+      <c r="CB71" s="26" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7660,37 +7411,37 @@
       <c r="AA72" s="21" t="inlineStr"/>
       <c r="AB72" s="21" t="inlineStr"/>
       <c r="AC72" s="21" t="inlineStr"/>
-      <c r="AD72" s="21" t="inlineStr"/>
-      <c r="AE72" s="22" t="inlineStr"/>
+      <c r="AD72" s="22" t="inlineStr"/>
+      <c r="AE72" s="23" t="inlineStr"/>
       <c r="AF72" s="23" t="inlineStr"/>
       <c r="AG72" s="23" t="inlineStr"/>
       <c r="AH72" s="23" t="inlineStr"/>
-      <c r="AI72" s="23" t="inlineStr"/>
-      <c r="AJ72" s="24" t="inlineStr"/>
-      <c r="AK72" s="25" t="inlineStr"/>
-      <c r="AL72" s="26" t="inlineStr"/>
-      <c r="AM72" s="27" t="inlineStr"/>
-      <c r="AN72" s="28" t="inlineStr"/>
-      <c r="AO72" s="16" t="inlineStr"/>
+      <c r="AI72" s="24" t="inlineStr"/>
+      <c r="AJ72" s="25" t="inlineStr"/>
+      <c r="AK72" s="26" t="inlineStr"/>
+      <c r="AL72" s="27" t="inlineStr"/>
+      <c r="AM72" s="28" t="inlineStr"/>
+      <c r="AN72" s="16" t="inlineStr"/>
+      <c r="AO72" s="17" t="inlineStr"/>
       <c r="AP72" s="17" t="inlineStr"/>
       <c r="AQ72" s="17" t="inlineStr"/>
-      <c r="AR72" s="17" t="inlineStr"/>
-      <c r="AS72" s="17" t="inlineStr"/>
-      <c r="AT72" s="17" t="inlineStr"/>
-      <c r="AU72" s="18" t="inlineStr"/>
+      <c r="AR72" s="18" t="inlineStr"/>
+      <c r="AS72" s="19" t="inlineStr"/>
+      <c r="AT72" s="19" t="inlineStr"/>
+      <c r="AU72" s="19" t="inlineStr"/>
       <c r="AV72" s="19" t="inlineStr"/>
       <c r="AW72" s="19" t="inlineStr"/>
       <c r="AX72" s="19" t="inlineStr"/>
       <c r="AY72" s="19" t="inlineStr"/>
       <c r="AZ72" s="19" t="inlineStr"/>
       <c r="BA72" s="19" t="inlineStr"/>
-      <c r="BB72" s="19" t="inlineStr"/>
-      <c r="BC72" s="19" t="inlineStr"/>
-      <c r="BD72" s="19" t="inlineStr"/>
-      <c r="BE72" s="20" t="inlineStr"/>
-      <c r="BF72" s="21" t="inlineStr"/>
-      <c r="BG72" s="21" t="inlineStr"/>
-      <c r="BH72" s="22" t="inlineStr"/>
+      <c r="BB72" s="20" t="inlineStr"/>
+      <c r="BC72" s="21" t="inlineStr"/>
+      <c r="BD72" s="21" t="inlineStr"/>
+      <c r="BE72" s="22" t="inlineStr"/>
+      <c r="BF72" s="23" t="inlineStr"/>
+      <c r="BG72" s="23" t="inlineStr"/>
+      <c r="BH72" s="23" t="inlineStr"/>
       <c r="BI72" s="23" t="inlineStr"/>
       <c r="BJ72" s="23" t="inlineStr"/>
       <c r="BK72" s="23" t="inlineStr"/>
@@ -7704,16 +7455,13 @@
       <c r="BS72" s="23" t="inlineStr"/>
       <c r="BT72" s="23" t="inlineStr"/>
       <c r="BU72" s="23" t="inlineStr"/>
-      <c r="BV72" s="23" t="inlineStr"/>
-      <c r="BW72" s="23" t="inlineStr"/>
-      <c r="BX72" s="23" t="inlineStr"/>
-      <c r="BY72" s="24" t="inlineStr"/>
+      <c r="BV72" s="24" t="inlineStr"/>
+      <c r="BW72" s="29" t="inlineStr"/>
+      <c r="BX72" s="29" t="inlineStr"/>
+      <c r="BY72" s="29" t="inlineStr"/>
       <c r="BZ72" s="29" t="inlineStr"/>
-      <c r="CA72" s="29" t="inlineStr"/>
-      <c r="CB72" s="29" t="inlineStr"/>
-      <c r="CC72" s="29" t="inlineStr"/>
-      <c r="CD72" s="25" t="inlineStr"/>
-      <c r="CE72" s="26" t="inlineStr"/>
+      <c r="CA72" s="25" t="inlineStr"/>
+      <c r="CB72" s="26" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7745,37 +7493,37 @@
       <c r="AA73" s="21" t="inlineStr"/>
       <c r="AB73" s="21" t="inlineStr"/>
       <c r="AC73" s="21" t="inlineStr"/>
-      <c r="AD73" s="21" t="inlineStr"/>
-      <c r="AE73" s="22" t="inlineStr"/>
+      <c r="AD73" s="22" t="inlineStr"/>
+      <c r="AE73" s="23" t="inlineStr"/>
       <c r="AF73" s="23" t="inlineStr"/>
       <c r="AG73" s="23" t="inlineStr"/>
       <c r="AH73" s="23" t="inlineStr"/>
-      <c r="AI73" s="23" t="inlineStr"/>
-      <c r="AJ73" s="24" t="inlineStr"/>
-      <c r="AK73" s="25" t="inlineStr"/>
-      <c r="AL73" s="26" t="inlineStr"/>
-      <c r="AM73" s="27" t="inlineStr"/>
-      <c r="AN73" s="28" t="inlineStr"/>
-      <c r="AO73" s="16" t="inlineStr"/>
+      <c r="AI73" s="24" t="inlineStr"/>
+      <c r="AJ73" s="25" t="inlineStr"/>
+      <c r="AK73" s="26" t="inlineStr"/>
+      <c r="AL73" s="27" t="inlineStr"/>
+      <c r="AM73" s="28" t="inlineStr"/>
+      <c r="AN73" s="16" t="inlineStr"/>
+      <c r="AO73" s="17" t="inlineStr"/>
       <c r="AP73" s="17" t="inlineStr"/>
       <c r="AQ73" s="17" t="inlineStr"/>
-      <c r="AR73" s="17" t="inlineStr"/>
-      <c r="AS73" s="17" t="inlineStr"/>
-      <c r="AT73" s="17" t="inlineStr"/>
-      <c r="AU73" s="18" t="inlineStr"/>
+      <c r="AR73" s="18" t="inlineStr"/>
+      <c r="AS73" s="19" t="inlineStr"/>
+      <c r="AT73" s="19" t="inlineStr"/>
+      <c r="AU73" s="19" t="inlineStr"/>
       <c r="AV73" s="19" t="inlineStr"/>
       <c r="AW73" s="19" t="inlineStr"/>
       <c r="AX73" s="19" t="inlineStr"/>
       <c r="AY73" s="19" t="inlineStr"/>
       <c r="AZ73" s="19" t="inlineStr"/>
       <c r="BA73" s="19" t="inlineStr"/>
-      <c r="BB73" s="19" t="inlineStr"/>
-      <c r="BC73" s="19" t="inlineStr"/>
-      <c r="BD73" s="19" t="inlineStr"/>
-      <c r="BE73" s="20" t="inlineStr"/>
-      <c r="BF73" s="21" t="inlineStr"/>
-      <c r="BG73" s="21" t="inlineStr"/>
-      <c r="BH73" s="22" t="inlineStr"/>
+      <c r="BB73" s="20" t="inlineStr"/>
+      <c r="BC73" s="21" t="inlineStr"/>
+      <c r="BD73" s="21" t="inlineStr"/>
+      <c r="BE73" s="22" t="inlineStr"/>
+      <c r="BF73" s="23" t="inlineStr"/>
+      <c r="BG73" s="23" t="inlineStr"/>
+      <c r="BH73" s="23" t="inlineStr"/>
       <c r="BI73" s="23" t="inlineStr"/>
       <c r="BJ73" s="23" t="inlineStr"/>
       <c r="BK73" s="23" t="inlineStr"/>
@@ -7789,16 +7537,13 @@
       <c r="BS73" s="23" t="inlineStr"/>
       <c r="BT73" s="23" t="inlineStr"/>
       <c r="BU73" s="23" t="inlineStr"/>
-      <c r="BV73" s="23" t="inlineStr"/>
-      <c r="BW73" s="23" t="inlineStr"/>
-      <c r="BX73" s="23" t="inlineStr"/>
-      <c r="BY73" s="24" t="inlineStr"/>
+      <c r="BV73" s="24" t="inlineStr"/>
+      <c r="BW73" s="29" t="inlineStr"/>
+      <c r="BX73" s="29" t="inlineStr"/>
+      <c r="BY73" s="29" t="inlineStr"/>
       <c r="BZ73" s="29" t="inlineStr"/>
-      <c r="CA73" s="29" t="inlineStr"/>
-      <c r="CB73" s="29" t="inlineStr"/>
-      <c r="CC73" s="29" t="inlineStr"/>
-      <c r="CD73" s="25" t="inlineStr"/>
-      <c r="CE73" s="26" t="inlineStr"/>
+      <c r="CA73" s="25" t="inlineStr"/>
+      <c r="CB73" s="26" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7830,37 +7575,37 @@
       <c r="AA74" s="21" t="inlineStr"/>
       <c r="AB74" s="21" t="inlineStr"/>
       <c r="AC74" s="21" t="inlineStr"/>
-      <c r="AD74" s="21" t="inlineStr"/>
-      <c r="AE74" s="22" t="inlineStr"/>
+      <c r="AD74" s="22" t="inlineStr"/>
+      <c r="AE74" s="23" t="inlineStr"/>
       <c r="AF74" s="23" t="inlineStr"/>
       <c r="AG74" s="23" t="inlineStr"/>
       <c r="AH74" s="23" t="inlineStr"/>
-      <c r="AI74" s="23" t="inlineStr"/>
-      <c r="AJ74" s="24" t="inlineStr"/>
-      <c r="AK74" s="25" t="inlineStr"/>
-      <c r="AL74" s="26" t="inlineStr"/>
-      <c r="AM74" s="27" t="inlineStr"/>
-      <c r="AN74" s="28" t="inlineStr"/>
-      <c r="AO74" s="16" t="inlineStr"/>
+      <c r="AI74" s="24" t="inlineStr"/>
+      <c r="AJ74" s="25" t="inlineStr"/>
+      <c r="AK74" s="26" t="inlineStr"/>
+      <c r="AL74" s="27" t="inlineStr"/>
+      <c r="AM74" s="28" t="inlineStr"/>
+      <c r="AN74" s="16" t="inlineStr"/>
+      <c r="AO74" s="17" t="inlineStr"/>
       <c r="AP74" s="17" t="inlineStr"/>
       <c r="AQ74" s="17" t="inlineStr"/>
-      <c r="AR74" s="17" t="inlineStr"/>
-      <c r="AS74" s="17" t="inlineStr"/>
-      <c r="AT74" s="17" t="inlineStr"/>
-      <c r="AU74" s="18" t="inlineStr"/>
+      <c r="AR74" s="18" t="inlineStr"/>
+      <c r="AS74" s="19" t="inlineStr"/>
+      <c r="AT74" s="19" t="inlineStr"/>
+      <c r="AU74" s="19" t="inlineStr"/>
       <c r="AV74" s="19" t="inlineStr"/>
       <c r="AW74" s="19" t="inlineStr"/>
       <c r="AX74" s="19" t="inlineStr"/>
       <c r="AY74" s="19" t="inlineStr"/>
       <c r="AZ74" s="19" t="inlineStr"/>
       <c r="BA74" s="19" t="inlineStr"/>
-      <c r="BB74" s="19" t="inlineStr"/>
-      <c r="BC74" s="19" t="inlineStr"/>
-      <c r="BD74" s="19" t="inlineStr"/>
-      <c r="BE74" s="20" t="inlineStr"/>
-      <c r="BF74" s="21" t="inlineStr"/>
-      <c r="BG74" s="21" t="inlineStr"/>
-      <c r="BH74" s="22" t="inlineStr"/>
+      <c r="BB74" s="20" t="inlineStr"/>
+      <c r="BC74" s="21" t="inlineStr"/>
+      <c r="BD74" s="21" t="inlineStr"/>
+      <c r="BE74" s="22" t="inlineStr"/>
+      <c r="BF74" s="23" t="inlineStr"/>
+      <c r="BG74" s="23" t="inlineStr"/>
+      <c r="BH74" s="23" t="inlineStr"/>
       <c r="BI74" s="23" t="inlineStr"/>
       <c r="BJ74" s="23" t="inlineStr"/>
       <c r="BK74" s="23" t="inlineStr"/>
@@ -7874,16 +7619,13 @@
       <c r="BS74" s="23" t="inlineStr"/>
       <c r="BT74" s="23" t="inlineStr"/>
       <c r="BU74" s="23" t="inlineStr"/>
-      <c r="BV74" s="23" t="inlineStr"/>
-      <c r="BW74" s="23" t="inlineStr"/>
-      <c r="BX74" s="23" t="inlineStr"/>
-      <c r="BY74" s="24" t="inlineStr"/>
+      <c r="BV74" s="24" t="inlineStr"/>
+      <c r="BW74" s="29" t="inlineStr"/>
+      <c r="BX74" s="29" t="inlineStr"/>
+      <c r="BY74" s="29" t="inlineStr"/>
       <c r="BZ74" s="29" t="inlineStr"/>
-      <c r="CA74" s="29" t="inlineStr"/>
-      <c r="CB74" s="29" t="inlineStr"/>
-      <c r="CC74" s="29" t="inlineStr"/>
-      <c r="CD74" s="25" t="inlineStr"/>
-      <c r="CE74" s="26" t="inlineStr"/>
+      <c r="CA74" s="25" t="inlineStr"/>
+      <c r="CB74" s="26" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7915,37 +7657,37 @@
       <c r="AA75" s="21" t="inlineStr"/>
       <c r="AB75" s="21" t="inlineStr"/>
       <c r="AC75" s="21" t="inlineStr"/>
-      <c r="AD75" s="21" t="inlineStr"/>
-      <c r="AE75" s="22" t="inlineStr"/>
+      <c r="AD75" s="22" t="inlineStr"/>
+      <c r="AE75" s="23" t="inlineStr"/>
       <c r="AF75" s="23" t="inlineStr"/>
       <c r="AG75" s="23" t="inlineStr"/>
       <c r="AH75" s="23" t="inlineStr"/>
-      <c r="AI75" s="23" t="inlineStr"/>
-      <c r="AJ75" s="24" t="inlineStr"/>
-      <c r="AK75" s="25" t="inlineStr"/>
-      <c r="AL75" s="26" t="inlineStr"/>
-      <c r="AM75" s="27" t="inlineStr"/>
-      <c r="AN75" s="28" t="inlineStr"/>
-      <c r="AO75" s="16" t="inlineStr"/>
+      <c r="AI75" s="24" t="inlineStr"/>
+      <c r="AJ75" s="25" t="inlineStr"/>
+      <c r="AK75" s="26" t="inlineStr"/>
+      <c r="AL75" s="27" t="inlineStr"/>
+      <c r="AM75" s="28" t="inlineStr"/>
+      <c r="AN75" s="16" t="inlineStr"/>
+      <c r="AO75" s="17" t="inlineStr"/>
       <c r="AP75" s="17" t="inlineStr"/>
       <c r="AQ75" s="17" t="inlineStr"/>
-      <c r="AR75" s="17" t="inlineStr"/>
-      <c r="AS75" s="17" t="inlineStr"/>
-      <c r="AT75" s="17" t="inlineStr"/>
-      <c r="AU75" s="18" t="inlineStr"/>
+      <c r="AR75" s="18" t="inlineStr"/>
+      <c r="AS75" s="19" t="inlineStr"/>
+      <c r="AT75" s="19" t="inlineStr"/>
+      <c r="AU75" s="19" t="inlineStr"/>
       <c r="AV75" s="19" t="inlineStr"/>
       <c r="AW75" s="19" t="inlineStr"/>
       <c r="AX75" s="19" t="inlineStr"/>
       <c r="AY75" s="19" t="inlineStr"/>
       <c r="AZ75" s="19" t="inlineStr"/>
       <c r="BA75" s="19" t="inlineStr"/>
-      <c r="BB75" s="19" t="inlineStr"/>
-      <c r="BC75" s="19" t="inlineStr"/>
-      <c r="BD75" s="19" t="inlineStr"/>
-      <c r="BE75" s="20" t="inlineStr"/>
-      <c r="BF75" s="21" t="inlineStr"/>
-      <c r="BG75" s="21" t="inlineStr"/>
-      <c r="BH75" s="22" t="inlineStr"/>
+      <c r="BB75" s="20" t="inlineStr"/>
+      <c r="BC75" s="21" t="inlineStr"/>
+      <c r="BD75" s="21" t="inlineStr"/>
+      <c r="BE75" s="22" t="inlineStr"/>
+      <c r="BF75" s="23" t="inlineStr"/>
+      <c r="BG75" s="23" t="inlineStr"/>
+      <c r="BH75" s="23" t="inlineStr"/>
       <c r="BI75" s="23" t="inlineStr"/>
       <c r="BJ75" s="23" t="inlineStr"/>
       <c r="BK75" s="23" t="inlineStr"/>
@@ -7959,16 +7701,13 @@
       <c r="BS75" s="23" t="inlineStr"/>
       <c r="BT75" s="23" t="inlineStr"/>
       <c r="BU75" s="23" t="inlineStr"/>
-      <c r="BV75" s="23" t="inlineStr"/>
-      <c r="BW75" s="23" t="inlineStr"/>
-      <c r="BX75" s="23" t="inlineStr"/>
-      <c r="BY75" s="24" t="inlineStr"/>
+      <c r="BV75" s="24" t="inlineStr"/>
+      <c r="BW75" s="29" t="inlineStr"/>
+      <c r="BX75" s="29" t="inlineStr"/>
+      <c r="BY75" s="29" t="inlineStr"/>
       <c r="BZ75" s="29" t="inlineStr"/>
-      <c r="CA75" s="29" t="inlineStr"/>
-      <c r="CB75" s="29" t="inlineStr"/>
-      <c r="CC75" s="29" t="inlineStr"/>
-      <c r="CD75" s="25" t="inlineStr"/>
-      <c r="CE75" s="26" t="inlineStr"/>
+      <c r="CA75" s="25" t="inlineStr"/>
+      <c r="CB75" s="26" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -8000,37 +7739,37 @@
       <c r="AA76" s="21" t="inlineStr"/>
       <c r="AB76" s="21" t="inlineStr"/>
       <c r="AC76" s="21" t="inlineStr"/>
-      <c r="AD76" s="21" t="inlineStr"/>
-      <c r="AE76" s="22" t="inlineStr"/>
+      <c r="AD76" s="22" t="inlineStr"/>
+      <c r="AE76" s="23" t="inlineStr"/>
       <c r="AF76" s="23" t="inlineStr"/>
       <c r="AG76" s="23" t="inlineStr"/>
       <c r="AH76" s="23" t="inlineStr"/>
-      <c r="AI76" s="23" t="inlineStr"/>
-      <c r="AJ76" s="24" t="inlineStr"/>
-      <c r="AK76" s="25" t="inlineStr"/>
-      <c r="AL76" s="26" t="inlineStr"/>
-      <c r="AM76" s="27" t="inlineStr"/>
-      <c r="AN76" s="28" t="inlineStr"/>
-      <c r="AO76" s="16" t="inlineStr"/>
+      <c r="AI76" s="24" t="inlineStr"/>
+      <c r="AJ76" s="25" t="inlineStr"/>
+      <c r="AK76" s="26" t="inlineStr"/>
+      <c r="AL76" s="27" t="inlineStr"/>
+      <c r="AM76" s="28" t="inlineStr"/>
+      <c r="AN76" s="16" t="inlineStr"/>
+      <c r="AO76" s="17" t="inlineStr"/>
       <c r="AP76" s="17" t="inlineStr"/>
       <c r="AQ76" s="17" t="inlineStr"/>
-      <c r="AR76" s="17" t="inlineStr"/>
-      <c r="AS76" s="17" t="inlineStr"/>
-      <c r="AT76" s="17" t="inlineStr"/>
-      <c r="AU76" s="18" t="inlineStr"/>
+      <c r="AR76" s="18" t="inlineStr"/>
+      <c r="AS76" s="19" t="inlineStr"/>
+      <c r="AT76" s="19" t="inlineStr"/>
+      <c r="AU76" s="19" t="inlineStr"/>
       <c r="AV76" s="19" t="inlineStr"/>
       <c r="AW76" s="19" t="inlineStr"/>
       <c r="AX76" s="19" t="inlineStr"/>
       <c r="AY76" s="19" t="inlineStr"/>
       <c r="AZ76" s="19" t="inlineStr"/>
       <c r="BA76" s="19" t="inlineStr"/>
-      <c r="BB76" s="19" t="inlineStr"/>
-      <c r="BC76" s="19" t="inlineStr"/>
-      <c r="BD76" s="19" t="inlineStr"/>
-      <c r="BE76" s="20" t="inlineStr"/>
-      <c r="BF76" s="21" t="inlineStr"/>
-      <c r="BG76" s="21" t="inlineStr"/>
-      <c r="BH76" s="22" t="inlineStr"/>
+      <c r="BB76" s="20" t="inlineStr"/>
+      <c r="BC76" s="21" t="inlineStr"/>
+      <c r="BD76" s="21" t="inlineStr"/>
+      <c r="BE76" s="22" t="inlineStr"/>
+      <c r="BF76" s="23" t="inlineStr"/>
+      <c r="BG76" s="23" t="inlineStr"/>
+      <c r="BH76" s="23" t="inlineStr"/>
       <c r="BI76" s="23" t="inlineStr"/>
       <c r="BJ76" s="23" t="inlineStr"/>
       <c r="BK76" s="23" t="inlineStr"/>
@@ -8044,16 +7783,13 @@
       <c r="BS76" s="23" t="inlineStr"/>
       <c r="BT76" s="23" t="inlineStr"/>
       <c r="BU76" s="23" t="inlineStr"/>
-      <c r="BV76" s="23" t="inlineStr"/>
-      <c r="BW76" s="23" t="inlineStr"/>
-      <c r="BX76" s="23" t="inlineStr"/>
-      <c r="BY76" s="24" t="inlineStr"/>
+      <c r="BV76" s="24" t="inlineStr"/>
+      <c r="BW76" s="29" t="inlineStr"/>
+      <c r="BX76" s="29" t="inlineStr"/>
+      <c r="BY76" s="29" t="inlineStr"/>
       <c r="BZ76" s="29" t="inlineStr"/>
-      <c r="CA76" s="29" t="inlineStr"/>
-      <c r="CB76" s="29" t="inlineStr"/>
-      <c r="CC76" s="29" t="inlineStr"/>
-      <c r="CD76" s="25" t="inlineStr"/>
-      <c r="CE76" s="26" t="inlineStr"/>
+      <c r="CA76" s="25" t="inlineStr"/>
+      <c r="CB76" s="26" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -8085,37 +7821,37 @@
       <c r="AA77" s="21" t="inlineStr"/>
       <c r="AB77" s="21" t="inlineStr"/>
       <c r="AC77" s="21" t="inlineStr"/>
-      <c r="AD77" s="21" t="inlineStr"/>
-      <c r="AE77" s="22" t="inlineStr"/>
+      <c r="AD77" s="22" t="inlineStr"/>
+      <c r="AE77" s="23" t="inlineStr"/>
       <c r="AF77" s="23" t="inlineStr"/>
       <c r="AG77" s="23" t="inlineStr"/>
       <c r="AH77" s="23" t="inlineStr"/>
-      <c r="AI77" s="23" t="inlineStr"/>
-      <c r="AJ77" s="24" t="inlineStr"/>
-      <c r="AK77" s="25" t="inlineStr"/>
-      <c r="AL77" s="26" t="inlineStr"/>
-      <c r="AM77" s="27" t="inlineStr"/>
-      <c r="AN77" s="28" t="inlineStr"/>
-      <c r="AO77" s="16" t="inlineStr"/>
+      <c r="AI77" s="24" t="inlineStr"/>
+      <c r="AJ77" s="25" t="inlineStr"/>
+      <c r="AK77" s="26" t="inlineStr"/>
+      <c r="AL77" s="27" t="inlineStr"/>
+      <c r="AM77" s="28" t="inlineStr"/>
+      <c r="AN77" s="16" t="inlineStr"/>
+      <c r="AO77" s="17" t="inlineStr"/>
       <c r="AP77" s="17" t="inlineStr"/>
       <c r="AQ77" s="17" t="inlineStr"/>
-      <c r="AR77" s="17" t="inlineStr"/>
-      <c r="AS77" s="17" t="inlineStr"/>
-      <c r="AT77" s="17" t="inlineStr"/>
-      <c r="AU77" s="18" t="inlineStr"/>
+      <c r="AR77" s="18" t="inlineStr"/>
+      <c r="AS77" s="19" t="inlineStr"/>
+      <c r="AT77" s="19" t="inlineStr"/>
+      <c r="AU77" s="19" t="inlineStr"/>
       <c r="AV77" s="19" t="inlineStr"/>
       <c r="AW77" s="19" t="inlineStr"/>
       <c r="AX77" s="19" t="inlineStr"/>
       <c r="AY77" s="19" t="inlineStr"/>
       <c r="AZ77" s="19" t="inlineStr"/>
       <c r="BA77" s="19" t="inlineStr"/>
-      <c r="BB77" s="19" t="inlineStr"/>
-      <c r="BC77" s="19" t="inlineStr"/>
-      <c r="BD77" s="19" t="inlineStr"/>
-      <c r="BE77" s="20" t="inlineStr"/>
-      <c r="BF77" s="21" t="inlineStr"/>
-      <c r="BG77" s="21" t="inlineStr"/>
-      <c r="BH77" s="22" t="inlineStr"/>
+      <c r="BB77" s="20" t="inlineStr"/>
+      <c r="BC77" s="21" t="inlineStr"/>
+      <c r="BD77" s="21" t="inlineStr"/>
+      <c r="BE77" s="22" t="inlineStr"/>
+      <c r="BF77" s="23" t="inlineStr"/>
+      <c r="BG77" s="23" t="inlineStr"/>
+      <c r="BH77" s="23" t="inlineStr"/>
       <c r="BI77" s="23" t="inlineStr"/>
       <c r="BJ77" s="23" t="inlineStr"/>
       <c r="BK77" s="23" t="inlineStr"/>
@@ -8129,16 +7865,13 @@
       <c r="BS77" s="23" t="inlineStr"/>
       <c r="BT77" s="23" t="inlineStr"/>
       <c r="BU77" s="23" t="inlineStr"/>
-      <c r="BV77" s="23" t="inlineStr"/>
-      <c r="BW77" s="23" t="inlineStr"/>
-      <c r="BX77" s="23" t="inlineStr"/>
-      <c r="BY77" s="24" t="inlineStr"/>
+      <c r="BV77" s="24" t="inlineStr"/>
+      <c r="BW77" s="29" t="inlineStr"/>
+      <c r="BX77" s="29" t="inlineStr"/>
+      <c r="BY77" s="29" t="inlineStr"/>
       <c r="BZ77" s="29" t="inlineStr"/>
-      <c r="CA77" s="29" t="inlineStr"/>
-      <c r="CB77" s="29" t="inlineStr"/>
-      <c r="CC77" s="29" t="inlineStr"/>
-      <c r="CD77" s="25" t="inlineStr"/>
-      <c r="CE77" s="26" t="inlineStr"/>
+      <c r="CA77" s="25" t="inlineStr"/>
+      <c r="CB77" s="26" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -8170,37 +7903,37 @@
       <c r="AA78" s="21" t="inlineStr"/>
       <c r="AB78" s="21" t="inlineStr"/>
       <c r="AC78" s="21" t="inlineStr"/>
-      <c r="AD78" s="21" t="inlineStr"/>
-      <c r="AE78" s="22" t="inlineStr"/>
+      <c r="AD78" s="22" t="inlineStr"/>
+      <c r="AE78" s="23" t="inlineStr"/>
       <c r="AF78" s="23" t="inlineStr"/>
       <c r="AG78" s="23" t="inlineStr"/>
       <c r="AH78" s="23" t="inlineStr"/>
-      <c r="AI78" s="23" t="inlineStr"/>
-      <c r="AJ78" s="24" t="inlineStr"/>
-      <c r="AK78" s="25" t="inlineStr"/>
-      <c r="AL78" s="26" t="inlineStr"/>
-      <c r="AM78" s="27" t="inlineStr"/>
-      <c r="AN78" s="28" t="inlineStr"/>
-      <c r="AO78" s="16" t="inlineStr"/>
+      <c r="AI78" s="24" t="inlineStr"/>
+      <c r="AJ78" s="25" t="inlineStr"/>
+      <c r="AK78" s="26" t="inlineStr"/>
+      <c r="AL78" s="27" t="inlineStr"/>
+      <c r="AM78" s="28" t="inlineStr"/>
+      <c r="AN78" s="16" t="inlineStr"/>
+      <c r="AO78" s="17" t="inlineStr"/>
       <c r="AP78" s="17" t="inlineStr"/>
       <c r="AQ78" s="17" t="inlineStr"/>
-      <c r="AR78" s="17" t="inlineStr"/>
-      <c r="AS78" s="17" t="inlineStr"/>
-      <c r="AT78" s="17" t="inlineStr"/>
-      <c r="AU78" s="18" t="inlineStr"/>
+      <c r="AR78" s="18" t="inlineStr"/>
+      <c r="AS78" s="19" t="inlineStr"/>
+      <c r="AT78" s="19" t="inlineStr"/>
+      <c r="AU78" s="19" t="inlineStr"/>
       <c r="AV78" s="19" t="inlineStr"/>
       <c r="AW78" s="19" t="inlineStr"/>
       <c r="AX78" s="19" t="inlineStr"/>
       <c r="AY78" s="19" t="inlineStr"/>
       <c r="AZ78" s="19" t="inlineStr"/>
       <c r="BA78" s="19" t="inlineStr"/>
-      <c r="BB78" s="19" t="inlineStr"/>
-      <c r="BC78" s="19" t="inlineStr"/>
-      <c r="BD78" s="19" t="inlineStr"/>
-      <c r="BE78" s="20" t="inlineStr"/>
-      <c r="BF78" s="21" t="inlineStr"/>
-      <c r="BG78" s="21" t="inlineStr"/>
-      <c r="BH78" s="22" t="inlineStr"/>
+      <c r="BB78" s="20" t="inlineStr"/>
+      <c r="BC78" s="21" t="inlineStr"/>
+      <c r="BD78" s="21" t="inlineStr"/>
+      <c r="BE78" s="22" t="inlineStr"/>
+      <c r="BF78" s="23" t="inlineStr"/>
+      <c r="BG78" s="23" t="inlineStr"/>
+      <c r="BH78" s="23" t="inlineStr"/>
       <c r="BI78" s="23" t="inlineStr"/>
       <c r="BJ78" s="23" t="inlineStr"/>
       <c r="BK78" s="23" t="inlineStr"/>
@@ -8214,16 +7947,13 @@
       <c r="BS78" s="23" t="inlineStr"/>
       <c r="BT78" s="23" t="inlineStr"/>
       <c r="BU78" s="23" t="inlineStr"/>
-      <c r="BV78" s="23" t="inlineStr"/>
-      <c r="BW78" s="23" t="inlineStr"/>
-      <c r="BX78" s="23" t="inlineStr"/>
-      <c r="BY78" s="24" t="inlineStr"/>
+      <c r="BV78" s="24" t="inlineStr"/>
+      <c r="BW78" s="29" t="inlineStr"/>
+      <c r="BX78" s="29" t="inlineStr"/>
+      <c r="BY78" s="29" t="inlineStr"/>
       <c r="BZ78" s="29" t="inlineStr"/>
-      <c r="CA78" s="29" t="inlineStr"/>
-      <c r="CB78" s="29" t="inlineStr"/>
-      <c r="CC78" s="29" t="inlineStr"/>
-      <c r="CD78" s="25" t="inlineStr"/>
-      <c r="CE78" s="26" t="inlineStr"/>
+      <c r="CA78" s="25" t="inlineStr"/>
+      <c r="CB78" s="26" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -8255,37 +7985,37 @@
       <c r="AA79" s="21" t="inlineStr"/>
       <c r="AB79" s="21" t="inlineStr"/>
       <c r="AC79" s="21" t="inlineStr"/>
-      <c r="AD79" s="21" t="inlineStr"/>
-      <c r="AE79" s="22" t="inlineStr"/>
+      <c r="AD79" s="22" t="inlineStr"/>
+      <c r="AE79" s="23" t="inlineStr"/>
       <c r="AF79" s="23" t="inlineStr"/>
       <c r="AG79" s="23" t="inlineStr"/>
       <c r="AH79" s="23" t="inlineStr"/>
-      <c r="AI79" s="23" t="inlineStr"/>
-      <c r="AJ79" s="24" t="inlineStr"/>
-      <c r="AK79" s="25" t="inlineStr"/>
-      <c r="AL79" s="26" t="inlineStr"/>
-      <c r="AM79" s="27" t="inlineStr"/>
-      <c r="AN79" s="28" t="inlineStr"/>
-      <c r="AO79" s="16" t="inlineStr"/>
+      <c r="AI79" s="24" t="inlineStr"/>
+      <c r="AJ79" s="25" t="inlineStr"/>
+      <c r="AK79" s="26" t="inlineStr"/>
+      <c r="AL79" s="27" t="inlineStr"/>
+      <c r="AM79" s="28" t="inlineStr"/>
+      <c r="AN79" s="16" t="inlineStr"/>
+      <c r="AO79" s="17" t="inlineStr"/>
       <c r="AP79" s="17" t="inlineStr"/>
       <c r="AQ79" s="17" t="inlineStr"/>
-      <c r="AR79" s="17" t="inlineStr"/>
-      <c r="AS79" s="17" t="inlineStr"/>
-      <c r="AT79" s="17" t="inlineStr"/>
-      <c r="AU79" s="18" t="inlineStr"/>
+      <c r="AR79" s="18" t="inlineStr"/>
+      <c r="AS79" s="19" t="inlineStr"/>
+      <c r="AT79" s="19" t="inlineStr"/>
+      <c r="AU79" s="19" t="inlineStr"/>
       <c r="AV79" s="19" t="inlineStr"/>
       <c r="AW79" s="19" t="inlineStr"/>
       <c r="AX79" s="19" t="inlineStr"/>
       <c r="AY79" s="19" t="inlineStr"/>
       <c r="AZ79" s="19" t="inlineStr"/>
       <c r="BA79" s="19" t="inlineStr"/>
-      <c r="BB79" s="19" t="inlineStr"/>
-      <c r="BC79" s="19" t="inlineStr"/>
-      <c r="BD79" s="19" t="inlineStr"/>
-      <c r="BE79" s="20" t="inlineStr"/>
-      <c r="BF79" s="21" t="inlineStr"/>
-      <c r="BG79" s="21" t="inlineStr"/>
-      <c r="BH79" s="22" t="inlineStr"/>
+      <c r="BB79" s="20" t="inlineStr"/>
+      <c r="BC79" s="21" t="inlineStr"/>
+      <c r="BD79" s="21" t="inlineStr"/>
+      <c r="BE79" s="22" t="inlineStr"/>
+      <c r="BF79" s="23" t="inlineStr"/>
+      <c r="BG79" s="23" t="inlineStr"/>
+      <c r="BH79" s="23" t="inlineStr"/>
       <c r="BI79" s="23" t="inlineStr"/>
       <c r="BJ79" s="23" t="inlineStr"/>
       <c r="BK79" s="23" t="inlineStr"/>
@@ -8299,16 +8029,13 @@
       <c r="BS79" s="23" t="inlineStr"/>
       <c r="BT79" s="23" t="inlineStr"/>
       <c r="BU79" s="23" t="inlineStr"/>
-      <c r="BV79" s="23" t="inlineStr"/>
-      <c r="BW79" s="23" t="inlineStr"/>
-      <c r="BX79" s="23" t="inlineStr"/>
-      <c r="BY79" s="24" t="inlineStr"/>
+      <c r="BV79" s="24" t="inlineStr"/>
+      <c r="BW79" s="29" t="inlineStr"/>
+      <c r="BX79" s="29" t="inlineStr"/>
+      <c r="BY79" s="29" t="inlineStr"/>
       <c r="BZ79" s="29" t="inlineStr"/>
-      <c r="CA79" s="29" t="inlineStr"/>
-      <c r="CB79" s="29" t="inlineStr"/>
-      <c r="CC79" s="29" t="inlineStr"/>
-      <c r="CD79" s="25" t="inlineStr"/>
-      <c r="CE79" s="26" t="inlineStr"/>
+      <c r="CA79" s="25" t="inlineStr"/>
+      <c r="CB79" s="26" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8340,37 +8067,37 @@
       <c r="AA80" s="21" t="inlineStr"/>
       <c r="AB80" s="21" t="inlineStr"/>
       <c r="AC80" s="21" t="inlineStr"/>
-      <c r="AD80" s="21" t="inlineStr"/>
-      <c r="AE80" s="22" t="inlineStr"/>
+      <c r="AD80" s="22" t="inlineStr"/>
+      <c r="AE80" s="23" t="inlineStr"/>
       <c r="AF80" s="23" t="inlineStr"/>
       <c r="AG80" s="23" t="inlineStr"/>
       <c r="AH80" s="23" t="inlineStr"/>
-      <c r="AI80" s="23" t="inlineStr"/>
-      <c r="AJ80" s="24" t="inlineStr"/>
-      <c r="AK80" s="25" t="inlineStr"/>
-      <c r="AL80" s="26" t="inlineStr"/>
-      <c r="AM80" s="27" t="inlineStr"/>
-      <c r="AN80" s="28" t="inlineStr"/>
-      <c r="AO80" s="16" t="inlineStr"/>
+      <c r="AI80" s="24" t="inlineStr"/>
+      <c r="AJ80" s="25" t="inlineStr"/>
+      <c r="AK80" s="26" t="inlineStr"/>
+      <c r="AL80" s="27" t="inlineStr"/>
+      <c r="AM80" s="28" t="inlineStr"/>
+      <c r="AN80" s="16" t="inlineStr"/>
+      <c r="AO80" s="17" t="inlineStr"/>
       <c r="AP80" s="17" t="inlineStr"/>
       <c r="AQ80" s="17" t="inlineStr"/>
-      <c r="AR80" s="17" t="inlineStr"/>
-      <c r="AS80" s="17" t="inlineStr"/>
-      <c r="AT80" s="17" t="inlineStr"/>
-      <c r="AU80" s="18" t="inlineStr"/>
+      <c r="AR80" s="18" t="inlineStr"/>
+      <c r="AS80" s="19" t="inlineStr"/>
+      <c r="AT80" s="19" t="inlineStr"/>
+      <c r="AU80" s="19" t="inlineStr"/>
       <c r="AV80" s="19" t="inlineStr"/>
       <c r="AW80" s="19" t="inlineStr"/>
       <c r="AX80" s="19" t="inlineStr"/>
       <c r="AY80" s="19" t="inlineStr"/>
       <c r="AZ80" s="19" t="inlineStr"/>
       <c r="BA80" s="19" t="inlineStr"/>
-      <c r="BB80" s="19" t="inlineStr"/>
-      <c r="BC80" s="19" t="inlineStr"/>
-      <c r="BD80" s="19" t="inlineStr"/>
-      <c r="BE80" s="20" t="inlineStr"/>
-      <c r="BF80" s="21" t="inlineStr"/>
-      <c r="BG80" s="21" t="inlineStr"/>
-      <c r="BH80" s="22" t="inlineStr"/>
+      <c r="BB80" s="20" t="inlineStr"/>
+      <c r="BC80" s="21" t="inlineStr"/>
+      <c r="BD80" s="21" t="inlineStr"/>
+      <c r="BE80" s="22" t="inlineStr"/>
+      <c r="BF80" s="23" t="inlineStr"/>
+      <c r="BG80" s="23" t="inlineStr"/>
+      <c r="BH80" s="23" t="inlineStr"/>
       <c r="BI80" s="23" t="inlineStr"/>
       <c r="BJ80" s="23" t="inlineStr"/>
       <c r="BK80" s="23" t="inlineStr"/>
@@ -8384,16 +8111,13 @@
       <c r="BS80" s="23" t="inlineStr"/>
       <c r="BT80" s="23" t="inlineStr"/>
       <c r="BU80" s="23" t="inlineStr"/>
-      <c r="BV80" s="23" t="inlineStr"/>
-      <c r="BW80" s="23" t="inlineStr"/>
-      <c r="BX80" s="23" t="inlineStr"/>
-      <c r="BY80" s="24" t="inlineStr"/>
+      <c r="BV80" s="24" t="inlineStr"/>
+      <c r="BW80" s="29" t="inlineStr"/>
+      <c r="BX80" s="29" t="inlineStr"/>
+      <c r="BY80" s="29" t="inlineStr"/>
       <c r="BZ80" s="29" t="inlineStr"/>
-      <c r="CA80" s="29" t="inlineStr"/>
-      <c r="CB80" s="29" t="inlineStr"/>
-      <c r="CC80" s="29" t="inlineStr"/>
-      <c r="CD80" s="25" t="inlineStr"/>
-      <c r="CE80" s="26" t="inlineStr"/>
+      <c r="CA80" s="25" t="inlineStr"/>
+      <c r="CB80" s="26" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8425,37 +8149,37 @@
       <c r="AA81" s="21" t="inlineStr"/>
       <c r="AB81" s="21" t="inlineStr"/>
       <c r="AC81" s="21" t="inlineStr"/>
-      <c r="AD81" s="21" t="inlineStr"/>
-      <c r="AE81" s="22" t="inlineStr"/>
+      <c r="AD81" s="22" t="inlineStr"/>
+      <c r="AE81" s="23" t="inlineStr"/>
       <c r="AF81" s="23" t="inlineStr"/>
       <c r="AG81" s="23" t="inlineStr"/>
       <c r="AH81" s="23" t="inlineStr"/>
-      <c r="AI81" s="23" t="inlineStr"/>
-      <c r="AJ81" s="24" t="inlineStr"/>
-      <c r="AK81" s="25" t="inlineStr"/>
-      <c r="AL81" s="26" t="inlineStr"/>
-      <c r="AM81" s="27" t="inlineStr"/>
-      <c r="AN81" s="28" t="inlineStr"/>
-      <c r="AO81" s="16" t="inlineStr"/>
+      <c r="AI81" s="24" t="inlineStr"/>
+      <c r="AJ81" s="25" t="inlineStr"/>
+      <c r="AK81" s="26" t="inlineStr"/>
+      <c r="AL81" s="27" t="inlineStr"/>
+      <c r="AM81" s="28" t="inlineStr"/>
+      <c r="AN81" s="16" t="inlineStr"/>
+      <c r="AO81" s="17" t="inlineStr"/>
       <c r="AP81" s="17" t="inlineStr"/>
       <c r="AQ81" s="17" t="inlineStr"/>
-      <c r="AR81" s="17" t="inlineStr"/>
-      <c r="AS81" s="17" t="inlineStr"/>
-      <c r="AT81" s="17" t="inlineStr"/>
-      <c r="AU81" s="18" t="inlineStr"/>
+      <c r="AR81" s="18" t="inlineStr"/>
+      <c r="AS81" s="19" t="inlineStr"/>
+      <c r="AT81" s="19" t="inlineStr"/>
+      <c r="AU81" s="19" t="inlineStr"/>
       <c r="AV81" s="19" t="inlineStr"/>
       <c r="AW81" s="19" t="inlineStr"/>
       <c r="AX81" s="19" t="inlineStr"/>
       <c r="AY81" s="19" t="inlineStr"/>
       <c r="AZ81" s="19" t="inlineStr"/>
       <c r="BA81" s="19" t="inlineStr"/>
-      <c r="BB81" s="19" t="inlineStr"/>
-      <c r="BC81" s="19" t="inlineStr"/>
-      <c r="BD81" s="19" t="inlineStr"/>
-      <c r="BE81" s="20" t="inlineStr"/>
-      <c r="BF81" s="21" t="inlineStr"/>
-      <c r="BG81" s="21" t="inlineStr"/>
-      <c r="BH81" s="22" t="inlineStr"/>
+      <c r="BB81" s="20" t="inlineStr"/>
+      <c r="BC81" s="21" t="inlineStr"/>
+      <c r="BD81" s="21" t="inlineStr"/>
+      <c r="BE81" s="22" t="inlineStr"/>
+      <c r="BF81" s="23" t="inlineStr"/>
+      <c r="BG81" s="23" t="inlineStr"/>
+      <c r="BH81" s="23" t="inlineStr"/>
       <c r="BI81" s="23" t="inlineStr"/>
       <c r="BJ81" s="23" t="inlineStr"/>
       <c r="BK81" s="23" t="inlineStr"/>
@@ -8469,16 +8193,13 @@
       <c r="BS81" s="23" t="inlineStr"/>
       <c r="BT81" s="23" t="inlineStr"/>
       <c r="BU81" s="23" t="inlineStr"/>
-      <c r="BV81" s="23" t="inlineStr"/>
-      <c r="BW81" s="23" t="inlineStr"/>
-      <c r="BX81" s="23" t="inlineStr"/>
-      <c r="BY81" s="24" t="inlineStr"/>
+      <c r="BV81" s="24" t="inlineStr"/>
+      <c r="BW81" s="29" t="inlineStr"/>
+      <c r="BX81" s="29" t="inlineStr"/>
+      <c r="BY81" s="29" t="inlineStr"/>
       <c r="BZ81" s="29" t="inlineStr"/>
-      <c r="CA81" s="29" t="inlineStr"/>
-      <c r="CB81" s="29" t="inlineStr"/>
-      <c r="CC81" s="29" t="inlineStr"/>
-      <c r="CD81" s="25" t="inlineStr"/>
-      <c r="CE81" s="26" t="inlineStr"/>
+      <c r="CA81" s="25" t="inlineStr"/>
+      <c r="CB81" s="26" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8510,37 +8231,37 @@
       <c r="AA82" s="21" t="inlineStr"/>
       <c r="AB82" s="21" t="inlineStr"/>
       <c r="AC82" s="21" t="inlineStr"/>
-      <c r="AD82" s="21" t="inlineStr"/>
-      <c r="AE82" s="22" t="inlineStr"/>
+      <c r="AD82" s="22" t="inlineStr"/>
+      <c r="AE82" s="23" t="inlineStr"/>
       <c r="AF82" s="23" t="inlineStr"/>
       <c r="AG82" s="23" t="inlineStr"/>
       <c r="AH82" s="23" t="inlineStr"/>
-      <c r="AI82" s="23" t="inlineStr"/>
-      <c r="AJ82" s="24" t="inlineStr"/>
-      <c r="AK82" s="25" t="inlineStr"/>
-      <c r="AL82" s="26" t="inlineStr"/>
-      <c r="AM82" s="27" t="inlineStr"/>
-      <c r="AN82" s="28" t="inlineStr"/>
-      <c r="AO82" s="16" t="inlineStr"/>
+      <c r="AI82" s="24" t="inlineStr"/>
+      <c r="AJ82" s="25" t="inlineStr"/>
+      <c r="AK82" s="26" t="inlineStr"/>
+      <c r="AL82" s="27" t="inlineStr"/>
+      <c r="AM82" s="28" t="inlineStr"/>
+      <c r="AN82" s="16" t="inlineStr"/>
+      <c r="AO82" s="17" t="inlineStr"/>
       <c r="AP82" s="17" t="inlineStr"/>
       <c r="AQ82" s="17" t="inlineStr"/>
-      <c r="AR82" s="17" t="inlineStr"/>
-      <c r="AS82" s="17" t="inlineStr"/>
-      <c r="AT82" s="17" t="inlineStr"/>
-      <c r="AU82" s="18" t="inlineStr"/>
+      <c r="AR82" s="18" t="inlineStr"/>
+      <c r="AS82" s="19" t="inlineStr"/>
+      <c r="AT82" s="19" t="inlineStr"/>
+      <c r="AU82" s="19" t="inlineStr"/>
       <c r="AV82" s="19" t="inlineStr"/>
       <c r="AW82" s="19" t="inlineStr"/>
       <c r="AX82" s="19" t="inlineStr"/>
       <c r="AY82" s="19" t="inlineStr"/>
       <c r="AZ82" s="19" t="inlineStr"/>
       <c r="BA82" s="19" t="inlineStr"/>
-      <c r="BB82" s="19" t="inlineStr"/>
-      <c r="BC82" s="19" t="inlineStr"/>
-      <c r="BD82" s="19" t="inlineStr"/>
-      <c r="BE82" s="20" t="inlineStr"/>
-      <c r="BF82" s="21" t="inlineStr"/>
-      <c r="BG82" s="21" t="inlineStr"/>
-      <c r="BH82" s="22" t="inlineStr"/>
+      <c r="BB82" s="20" t="inlineStr"/>
+      <c r="BC82" s="21" t="inlineStr"/>
+      <c r="BD82" s="21" t="inlineStr"/>
+      <c r="BE82" s="22" t="inlineStr"/>
+      <c r="BF82" s="23" t="inlineStr"/>
+      <c r="BG82" s="23" t="inlineStr"/>
+      <c r="BH82" s="23" t="inlineStr"/>
       <c r="BI82" s="23" t="inlineStr"/>
       <c r="BJ82" s="23" t="inlineStr"/>
       <c r="BK82" s="23" t="inlineStr"/>
@@ -8554,16 +8275,13 @@
       <c r="BS82" s="23" t="inlineStr"/>
       <c r="BT82" s="23" t="inlineStr"/>
       <c r="BU82" s="23" t="inlineStr"/>
-      <c r="BV82" s="23" t="inlineStr"/>
-      <c r="BW82" s="23" t="inlineStr"/>
-      <c r="BX82" s="23" t="inlineStr"/>
-      <c r="BY82" s="24" t="inlineStr"/>
+      <c r="BV82" s="24" t="inlineStr"/>
+      <c r="BW82" s="29" t="inlineStr"/>
+      <c r="BX82" s="29" t="inlineStr"/>
+      <c r="BY82" s="29" t="inlineStr"/>
       <c r="BZ82" s="29" t="inlineStr"/>
-      <c r="CA82" s="29" t="inlineStr"/>
-      <c r="CB82" s="29" t="inlineStr"/>
-      <c r="CC82" s="29" t="inlineStr"/>
-      <c r="CD82" s="25" t="inlineStr"/>
-      <c r="CE82" s="26" t="inlineStr"/>
+      <c r="CA82" s="25" t="inlineStr"/>
+      <c r="CB82" s="26" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8595,37 +8313,37 @@
       <c r="AA83" s="21" t="inlineStr"/>
       <c r="AB83" s="21" t="inlineStr"/>
       <c r="AC83" s="21" t="inlineStr"/>
-      <c r="AD83" s="21" t="inlineStr"/>
-      <c r="AE83" s="22" t="inlineStr"/>
+      <c r="AD83" s="22" t="inlineStr"/>
+      <c r="AE83" s="23" t="inlineStr"/>
       <c r="AF83" s="23" t="inlineStr"/>
       <c r="AG83" s="23" t="inlineStr"/>
       <c r="AH83" s="23" t="inlineStr"/>
-      <c r="AI83" s="23" t="inlineStr"/>
-      <c r="AJ83" s="24" t="inlineStr"/>
-      <c r="AK83" s="25" t="inlineStr"/>
-      <c r="AL83" s="26" t="inlineStr"/>
-      <c r="AM83" s="27" t="inlineStr"/>
-      <c r="AN83" s="28" t="inlineStr"/>
-      <c r="AO83" s="16" t="inlineStr"/>
+      <c r="AI83" s="24" t="inlineStr"/>
+      <c r="AJ83" s="25" t="inlineStr"/>
+      <c r="AK83" s="26" t="inlineStr"/>
+      <c r="AL83" s="27" t="inlineStr"/>
+      <c r="AM83" s="28" t="inlineStr"/>
+      <c r="AN83" s="16" t="inlineStr"/>
+      <c r="AO83" s="17" t="inlineStr"/>
       <c r="AP83" s="17" t="inlineStr"/>
       <c r="AQ83" s="17" t="inlineStr"/>
-      <c r="AR83" s="17" t="inlineStr"/>
-      <c r="AS83" s="17" t="inlineStr"/>
-      <c r="AT83" s="17" t="inlineStr"/>
-      <c r="AU83" s="18" t="inlineStr"/>
+      <c r="AR83" s="18" t="inlineStr"/>
+      <c r="AS83" s="19" t="inlineStr"/>
+      <c r="AT83" s="19" t="inlineStr"/>
+      <c r="AU83" s="19" t="inlineStr"/>
       <c r="AV83" s="19" t="inlineStr"/>
       <c r="AW83" s="19" t="inlineStr"/>
       <c r="AX83" s="19" t="inlineStr"/>
       <c r="AY83" s="19" t="inlineStr"/>
       <c r="AZ83" s="19" t="inlineStr"/>
       <c r="BA83" s="19" t="inlineStr"/>
-      <c r="BB83" s="19" t="inlineStr"/>
-      <c r="BC83" s="19" t="inlineStr"/>
-      <c r="BD83" s="19" t="inlineStr"/>
-      <c r="BE83" s="20" t="inlineStr"/>
-      <c r="BF83" s="21" t="inlineStr"/>
-      <c r="BG83" s="21" t="inlineStr"/>
-      <c r="BH83" s="22" t="inlineStr"/>
+      <c r="BB83" s="20" t="inlineStr"/>
+      <c r="BC83" s="21" t="inlineStr"/>
+      <c r="BD83" s="21" t="inlineStr"/>
+      <c r="BE83" s="22" t="inlineStr"/>
+      <c r="BF83" s="23" t="inlineStr"/>
+      <c r="BG83" s="23" t="inlineStr"/>
+      <c r="BH83" s="23" t="inlineStr"/>
       <c r="BI83" s="23" t="inlineStr"/>
       <c r="BJ83" s="23" t="inlineStr"/>
       <c r="BK83" s="23" t="inlineStr"/>
@@ -8639,16 +8357,13 @@
       <c r="BS83" s="23" t="inlineStr"/>
       <c r="BT83" s="23" t="inlineStr"/>
       <c r="BU83" s="23" t="inlineStr"/>
-      <c r="BV83" s="23" t="inlineStr"/>
-      <c r="BW83" s="23" t="inlineStr"/>
-      <c r="BX83" s="23" t="inlineStr"/>
-      <c r="BY83" s="24" t="inlineStr"/>
+      <c r="BV83" s="24" t="inlineStr"/>
+      <c r="BW83" s="29" t="inlineStr"/>
+      <c r="BX83" s="29" t="inlineStr"/>
+      <c r="BY83" s="29" t="inlineStr"/>
       <c r="BZ83" s="29" t="inlineStr"/>
-      <c r="CA83" s="29" t="inlineStr"/>
-      <c r="CB83" s="29" t="inlineStr"/>
-      <c r="CC83" s="29" t="inlineStr"/>
-      <c r="CD83" s="25" t="inlineStr"/>
-      <c r="CE83" s="26" t="inlineStr"/>
+      <c r="CA83" s="25" t="inlineStr"/>
+      <c r="CB83" s="26" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8680,37 +8395,37 @@
       <c r="AA84" s="21" t="inlineStr"/>
       <c r="AB84" s="21" t="inlineStr"/>
       <c r="AC84" s="21" t="inlineStr"/>
-      <c r="AD84" s="21" t="inlineStr"/>
-      <c r="AE84" s="22" t="inlineStr"/>
+      <c r="AD84" s="22" t="inlineStr"/>
+      <c r="AE84" s="23" t="inlineStr"/>
       <c r="AF84" s="23" t="inlineStr"/>
       <c r="AG84" s="23" t="inlineStr"/>
       <c r="AH84" s="23" t="inlineStr"/>
-      <c r="AI84" s="23" t="inlineStr"/>
-      <c r="AJ84" s="24" t="inlineStr"/>
-      <c r="AK84" s="25" t="inlineStr"/>
-      <c r="AL84" s="26" t="inlineStr"/>
-      <c r="AM84" s="27" t="inlineStr"/>
-      <c r="AN84" s="28" t="inlineStr"/>
-      <c r="AO84" s="16" t="inlineStr"/>
+      <c r="AI84" s="24" t="inlineStr"/>
+      <c r="AJ84" s="25" t="inlineStr"/>
+      <c r="AK84" s="26" t="inlineStr"/>
+      <c r="AL84" s="27" t="inlineStr"/>
+      <c r="AM84" s="28" t="inlineStr"/>
+      <c r="AN84" s="16" t="inlineStr"/>
+      <c r="AO84" s="17" t="inlineStr"/>
       <c r="AP84" s="17" t="inlineStr"/>
       <c r="AQ84" s="17" t="inlineStr"/>
-      <c r="AR84" s="17" t="inlineStr"/>
-      <c r="AS84" s="17" t="inlineStr"/>
-      <c r="AT84" s="17" t="inlineStr"/>
-      <c r="AU84" s="18" t="inlineStr"/>
+      <c r="AR84" s="18" t="inlineStr"/>
+      <c r="AS84" s="19" t="inlineStr"/>
+      <c r="AT84" s="19" t="inlineStr"/>
+      <c r="AU84" s="19" t="inlineStr"/>
       <c r="AV84" s="19" t="inlineStr"/>
       <c r="AW84" s="19" t="inlineStr"/>
       <c r="AX84" s="19" t="inlineStr"/>
       <c r="AY84" s="19" t="inlineStr"/>
       <c r="AZ84" s="19" t="inlineStr"/>
       <c r="BA84" s="19" t="inlineStr"/>
-      <c r="BB84" s="19" t="inlineStr"/>
-      <c r="BC84" s="19" t="inlineStr"/>
-      <c r="BD84" s="19" t="inlineStr"/>
-      <c r="BE84" s="20" t="inlineStr"/>
-      <c r="BF84" s="21" t="inlineStr"/>
-      <c r="BG84" s="21" t="inlineStr"/>
-      <c r="BH84" s="22" t="inlineStr"/>
+      <c r="BB84" s="20" t="inlineStr"/>
+      <c r="BC84" s="21" t="inlineStr"/>
+      <c r="BD84" s="21" t="inlineStr"/>
+      <c r="BE84" s="22" t="inlineStr"/>
+      <c r="BF84" s="23" t="inlineStr"/>
+      <c r="BG84" s="23" t="inlineStr"/>
+      <c r="BH84" s="23" t="inlineStr"/>
       <c r="BI84" s="23" t="inlineStr"/>
       <c r="BJ84" s="23" t="inlineStr"/>
       <c r="BK84" s="23" t="inlineStr"/>
@@ -8724,16 +8439,13 @@
       <c r="BS84" s="23" t="inlineStr"/>
       <c r="BT84" s="23" t="inlineStr"/>
       <c r="BU84" s="23" t="inlineStr"/>
-      <c r="BV84" s="23" t="inlineStr"/>
-      <c r="BW84" s="23" t="inlineStr"/>
-      <c r="BX84" s="23" t="inlineStr"/>
-      <c r="BY84" s="24" t="inlineStr"/>
+      <c r="BV84" s="24" t="inlineStr"/>
+      <c r="BW84" s="29" t="inlineStr"/>
+      <c r="BX84" s="29" t="inlineStr"/>
+      <c r="BY84" s="29" t="inlineStr"/>
       <c r="BZ84" s="29" t="inlineStr"/>
-      <c r="CA84" s="29" t="inlineStr"/>
-      <c r="CB84" s="29" t="inlineStr"/>
-      <c r="CC84" s="29" t="inlineStr"/>
-      <c r="CD84" s="25" t="inlineStr"/>
-      <c r="CE84" s="26" t="inlineStr"/>
+      <c r="CA84" s="25" t="inlineStr"/>
+      <c r="CB84" s="26" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8765,37 +8477,37 @@
       <c r="AA85" s="21" t="inlineStr"/>
       <c r="AB85" s="21" t="inlineStr"/>
       <c r="AC85" s="21" t="inlineStr"/>
-      <c r="AD85" s="21" t="inlineStr"/>
-      <c r="AE85" s="22" t="inlineStr"/>
+      <c r="AD85" s="22" t="inlineStr"/>
+      <c r="AE85" s="23" t="inlineStr"/>
       <c r="AF85" s="23" t="inlineStr"/>
       <c r="AG85" s="23" t="inlineStr"/>
       <c r="AH85" s="23" t="inlineStr"/>
-      <c r="AI85" s="23" t="inlineStr"/>
-      <c r="AJ85" s="24" t="inlineStr"/>
-      <c r="AK85" s="25" t="inlineStr"/>
-      <c r="AL85" s="26" t="inlineStr"/>
-      <c r="AM85" s="27" t="inlineStr"/>
-      <c r="AN85" s="28" t="inlineStr"/>
-      <c r="AO85" s="16" t="inlineStr"/>
+      <c r="AI85" s="24" t="inlineStr"/>
+      <c r="AJ85" s="25" t="inlineStr"/>
+      <c r="AK85" s="26" t="inlineStr"/>
+      <c r="AL85" s="27" t="inlineStr"/>
+      <c r="AM85" s="28" t="inlineStr"/>
+      <c r="AN85" s="16" t="inlineStr"/>
+      <c r="AO85" s="17" t="inlineStr"/>
       <c r="AP85" s="17" t="inlineStr"/>
       <c r="AQ85" s="17" t="inlineStr"/>
-      <c r="AR85" s="17" t="inlineStr"/>
-      <c r="AS85" s="17" t="inlineStr"/>
-      <c r="AT85" s="17" t="inlineStr"/>
-      <c r="AU85" s="18" t="inlineStr"/>
+      <c r="AR85" s="18" t="inlineStr"/>
+      <c r="AS85" s="19" t="inlineStr"/>
+      <c r="AT85" s="19" t="inlineStr"/>
+      <c r="AU85" s="19" t="inlineStr"/>
       <c r="AV85" s="19" t="inlineStr"/>
       <c r="AW85" s="19" t="inlineStr"/>
       <c r="AX85" s="19" t="inlineStr"/>
       <c r="AY85" s="19" t="inlineStr"/>
       <c r="AZ85" s="19" t="inlineStr"/>
       <c r="BA85" s="19" t="inlineStr"/>
-      <c r="BB85" s="19" t="inlineStr"/>
-      <c r="BC85" s="19" t="inlineStr"/>
-      <c r="BD85" s="19" t="inlineStr"/>
-      <c r="BE85" s="20" t="inlineStr"/>
-      <c r="BF85" s="21" t="inlineStr"/>
-      <c r="BG85" s="21" t="inlineStr"/>
-      <c r="BH85" s="22" t="inlineStr"/>
+      <c r="BB85" s="20" t="inlineStr"/>
+      <c r="BC85" s="21" t="inlineStr"/>
+      <c r="BD85" s="21" t="inlineStr"/>
+      <c r="BE85" s="22" t="inlineStr"/>
+      <c r="BF85" s="23" t="inlineStr"/>
+      <c r="BG85" s="23" t="inlineStr"/>
+      <c r="BH85" s="23" t="inlineStr"/>
       <c r="BI85" s="23" t="inlineStr"/>
       <c r="BJ85" s="23" t="inlineStr"/>
       <c r="BK85" s="23" t="inlineStr"/>
@@ -8809,16 +8521,13 @@
       <c r="BS85" s="23" t="inlineStr"/>
       <c r="BT85" s="23" t="inlineStr"/>
       <c r="BU85" s="23" t="inlineStr"/>
-      <c r="BV85" s="23" t="inlineStr"/>
-      <c r="BW85" s="23" t="inlineStr"/>
-      <c r="BX85" s="23" t="inlineStr"/>
-      <c r="BY85" s="24" t="inlineStr"/>
+      <c r="BV85" s="24" t="inlineStr"/>
+      <c r="BW85" s="29" t="inlineStr"/>
+      <c r="BX85" s="29" t="inlineStr"/>
+      <c r="BY85" s="29" t="inlineStr"/>
       <c r="BZ85" s="29" t="inlineStr"/>
-      <c r="CA85" s="29" t="inlineStr"/>
-      <c r="CB85" s="29" t="inlineStr"/>
-      <c r="CC85" s="29" t="inlineStr"/>
-      <c r="CD85" s="25" t="inlineStr"/>
-      <c r="CE85" s="26" t="inlineStr"/>
+      <c r="CA85" s="25" t="inlineStr"/>
+      <c r="CB85" s="26" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8850,37 +8559,37 @@
       <c r="AA86" s="21" t="inlineStr"/>
       <c r="AB86" s="21" t="inlineStr"/>
       <c r="AC86" s="21" t="inlineStr"/>
-      <c r="AD86" s="21" t="inlineStr"/>
-      <c r="AE86" s="22" t="inlineStr"/>
+      <c r="AD86" s="22" t="inlineStr"/>
+      <c r="AE86" s="23" t="inlineStr"/>
       <c r="AF86" s="23" t="inlineStr"/>
       <c r="AG86" s="23" t="inlineStr"/>
       <c r="AH86" s="23" t="inlineStr"/>
-      <c r="AI86" s="23" t="inlineStr"/>
-      <c r="AJ86" s="24" t="inlineStr"/>
-      <c r="AK86" s="25" t="inlineStr"/>
-      <c r="AL86" s="26" t="inlineStr"/>
-      <c r="AM86" s="27" t="inlineStr"/>
-      <c r="AN86" s="28" t="inlineStr"/>
-      <c r="AO86" s="16" t="inlineStr"/>
+      <c r="AI86" s="24" t="inlineStr"/>
+      <c r="AJ86" s="25" t="inlineStr"/>
+      <c r="AK86" s="26" t="inlineStr"/>
+      <c r="AL86" s="27" t="inlineStr"/>
+      <c r="AM86" s="28" t="inlineStr"/>
+      <c r="AN86" s="16" t="inlineStr"/>
+      <c r="AO86" s="17" t="inlineStr"/>
       <c r="AP86" s="17" t="inlineStr"/>
       <c r="AQ86" s="17" t="inlineStr"/>
-      <c r="AR86" s="17" t="inlineStr"/>
-      <c r="AS86" s="17" t="inlineStr"/>
-      <c r="AT86" s="17" t="inlineStr"/>
-      <c r="AU86" s="18" t="inlineStr"/>
+      <c r="AR86" s="18" t="inlineStr"/>
+      <c r="AS86" s="19" t="inlineStr"/>
+      <c r="AT86" s="19" t="inlineStr"/>
+      <c r="AU86" s="19" t="inlineStr"/>
       <c r="AV86" s="19" t="inlineStr"/>
       <c r="AW86" s="19" t="inlineStr"/>
       <c r="AX86" s="19" t="inlineStr"/>
       <c r="AY86" s="19" t="inlineStr"/>
       <c r="AZ86" s="19" t="inlineStr"/>
       <c r="BA86" s="19" t="inlineStr"/>
-      <c r="BB86" s="19" t="inlineStr"/>
-      <c r="BC86" s="19" t="inlineStr"/>
-      <c r="BD86" s="19" t="inlineStr"/>
-      <c r="BE86" s="20" t="inlineStr"/>
-      <c r="BF86" s="21" t="inlineStr"/>
-      <c r="BG86" s="21" t="inlineStr"/>
-      <c r="BH86" s="22" t="inlineStr"/>
+      <c r="BB86" s="20" t="inlineStr"/>
+      <c r="BC86" s="21" t="inlineStr"/>
+      <c r="BD86" s="21" t="inlineStr"/>
+      <c r="BE86" s="22" t="inlineStr"/>
+      <c r="BF86" s="23" t="inlineStr"/>
+      <c r="BG86" s="23" t="inlineStr"/>
+      <c r="BH86" s="23" t="inlineStr"/>
       <c r="BI86" s="23" t="inlineStr"/>
       <c r="BJ86" s="23" t="inlineStr"/>
       <c r="BK86" s="23" t="inlineStr"/>
@@ -8894,16 +8603,13 @@
       <c r="BS86" s="23" t="inlineStr"/>
       <c r="BT86" s="23" t="inlineStr"/>
       <c r="BU86" s="23" t="inlineStr"/>
-      <c r="BV86" s="23" t="inlineStr"/>
-      <c r="BW86" s="23" t="inlineStr"/>
-      <c r="BX86" s="23" t="inlineStr"/>
-      <c r="BY86" s="24" t="inlineStr"/>
+      <c r="BV86" s="24" t="inlineStr"/>
+      <c r="BW86" s="29" t="inlineStr"/>
+      <c r="BX86" s="29" t="inlineStr"/>
+      <c r="BY86" s="29" t="inlineStr"/>
       <c r="BZ86" s="29" t="inlineStr"/>
-      <c r="CA86" s="29" t="inlineStr"/>
-      <c r="CB86" s="29" t="inlineStr"/>
-      <c r="CC86" s="29" t="inlineStr"/>
-      <c r="CD86" s="25" t="inlineStr"/>
-      <c r="CE86" s="26" t="inlineStr"/>
+      <c r="CA86" s="25" t="inlineStr"/>
+      <c r="CB86" s="26" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8935,37 +8641,37 @@
       <c r="AA87" s="21" t="inlineStr"/>
       <c r="AB87" s="21" t="inlineStr"/>
       <c r="AC87" s="21" t="inlineStr"/>
-      <c r="AD87" s="21" t="inlineStr"/>
-      <c r="AE87" s="22" t="inlineStr"/>
+      <c r="AD87" s="22" t="inlineStr"/>
+      <c r="AE87" s="23" t="inlineStr"/>
       <c r="AF87" s="23" t="inlineStr"/>
       <c r="AG87" s="23" t="inlineStr"/>
       <c r="AH87" s="23" t="inlineStr"/>
-      <c r="AI87" s="23" t="inlineStr"/>
-      <c r="AJ87" s="24" t="inlineStr"/>
-      <c r="AK87" s="25" t="inlineStr"/>
-      <c r="AL87" s="26" t="inlineStr"/>
-      <c r="AM87" s="27" t="inlineStr"/>
-      <c r="AN87" s="28" t="inlineStr"/>
-      <c r="AO87" s="16" t="inlineStr"/>
+      <c r="AI87" s="24" t="inlineStr"/>
+      <c r="AJ87" s="25" t="inlineStr"/>
+      <c r="AK87" s="26" t="inlineStr"/>
+      <c r="AL87" s="27" t="inlineStr"/>
+      <c r="AM87" s="28" t="inlineStr"/>
+      <c r="AN87" s="16" t="inlineStr"/>
+      <c r="AO87" s="17" t="inlineStr"/>
       <c r="AP87" s="17" t="inlineStr"/>
       <c r="AQ87" s="17" t="inlineStr"/>
-      <c r="AR87" s="17" t="inlineStr"/>
-      <c r="AS87" s="17" t="inlineStr"/>
-      <c r="AT87" s="17" t="inlineStr"/>
-      <c r="AU87" s="18" t="inlineStr"/>
+      <c r="AR87" s="18" t="inlineStr"/>
+      <c r="AS87" s="19" t="inlineStr"/>
+      <c r="AT87" s="19" t="inlineStr"/>
+      <c r="AU87" s="19" t="inlineStr"/>
       <c r="AV87" s="19" t="inlineStr"/>
       <c r="AW87" s="19" t="inlineStr"/>
       <c r="AX87" s="19" t="inlineStr"/>
       <c r="AY87" s="19" t="inlineStr"/>
       <c r="AZ87" s="19" t="inlineStr"/>
       <c r="BA87" s="19" t="inlineStr"/>
-      <c r="BB87" s="19" t="inlineStr"/>
-      <c r="BC87" s="19" t="inlineStr"/>
-      <c r="BD87" s="19" t="inlineStr"/>
-      <c r="BE87" s="20" t="inlineStr"/>
-      <c r="BF87" s="21" t="inlineStr"/>
-      <c r="BG87" s="21" t="inlineStr"/>
-      <c r="BH87" s="22" t="inlineStr"/>
+      <c r="BB87" s="20" t="inlineStr"/>
+      <c r="BC87" s="21" t="inlineStr"/>
+      <c r="BD87" s="21" t="inlineStr"/>
+      <c r="BE87" s="22" t="inlineStr"/>
+      <c r="BF87" s="23" t="inlineStr"/>
+      <c r="BG87" s="23" t="inlineStr"/>
+      <c r="BH87" s="23" t="inlineStr"/>
       <c r="BI87" s="23" t="inlineStr"/>
       <c r="BJ87" s="23" t="inlineStr"/>
       <c r="BK87" s="23" t="inlineStr"/>
@@ -8979,16 +8685,13 @@
       <c r="BS87" s="23" t="inlineStr"/>
       <c r="BT87" s="23" t="inlineStr"/>
       <c r="BU87" s="23" t="inlineStr"/>
-      <c r="BV87" s="23" t="inlineStr"/>
-      <c r="BW87" s="23" t="inlineStr"/>
-      <c r="BX87" s="23" t="inlineStr"/>
-      <c r="BY87" s="24" t="inlineStr"/>
+      <c r="BV87" s="24" t="inlineStr"/>
+      <c r="BW87" s="29" t="inlineStr"/>
+      <c r="BX87" s="29" t="inlineStr"/>
+      <c r="BY87" s="29" t="inlineStr"/>
       <c r="BZ87" s="29" t="inlineStr"/>
-      <c r="CA87" s="29" t="inlineStr"/>
-      <c r="CB87" s="29" t="inlineStr"/>
-      <c r="CC87" s="29" t="inlineStr"/>
-      <c r="CD87" s="25" t="inlineStr"/>
-      <c r="CE87" s="26" t="inlineStr"/>
+      <c r="CA87" s="25" t="inlineStr"/>
+      <c r="CB87" s="26" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -9020,37 +8723,37 @@
       <c r="AA88" s="21" t="inlineStr"/>
       <c r="AB88" s="21" t="inlineStr"/>
       <c r="AC88" s="21" t="inlineStr"/>
-      <c r="AD88" s="21" t="inlineStr"/>
-      <c r="AE88" s="22" t="inlineStr"/>
+      <c r="AD88" s="22" t="inlineStr"/>
+      <c r="AE88" s="23" t="inlineStr"/>
       <c r="AF88" s="23" t="inlineStr"/>
       <c r="AG88" s="23" t="inlineStr"/>
       <c r="AH88" s="23" t="inlineStr"/>
-      <c r="AI88" s="23" t="inlineStr"/>
-      <c r="AJ88" s="24" t="inlineStr"/>
-      <c r="AK88" s="25" t="inlineStr"/>
-      <c r="AL88" s="26" t="inlineStr"/>
-      <c r="AM88" s="27" t="inlineStr"/>
-      <c r="AN88" s="28" t="inlineStr"/>
-      <c r="AO88" s="16" t="inlineStr"/>
+      <c r="AI88" s="24" t="inlineStr"/>
+      <c r="AJ88" s="25" t="inlineStr"/>
+      <c r="AK88" s="26" t="inlineStr"/>
+      <c r="AL88" s="27" t="inlineStr"/>
+      <c r="AM88" s="28" t="inlineStr"/>
+      <c r="AN88" s="16" t="inlineStr"/>
+      <c r="AO88" s="17" t="inlineStr"/>
       <c r="AP88" s="17" t="inlineStr"/>
       <c r="AQ88" s="17" t="inlineStr"/>
-      <c r="AR88" s="17" t="inlineStr"/>
-      <c r="AS88" s="17" t="inlineStr"/>
-      <c r="AT88" s="17" t="inlineStr"/>
-      <c r="AU88" s="18" t="inlineStr"/>
+      <c r="AR88" s="18" t="inlineStr"/>
+      <c r="AS88" s="19" t="inlineStr"/>
+      <c r="AT88" s="19" t="inlineStr"/>
+      <c r="AU88" s="19" t="inlineStr"/>
       <c r="AV88" s="19" t="inlineStr"/>
       <c r="AW88" s="19" t="inlineStr"/>
       <c r="AX88" s="19" t="inlineStr"/>
       <c r="AY88" s="19" t="inlineStr"/>
       <c r="AZ88" s="19" t="inlineStr"/>
       <c r="BA88" s="19" t="inlineStr"/>
-      <c r="BB88" s="19" t="inlineStr"/>
-      <c r="BC88" s="19" t="inlineStr"/>
-      <c r="BD88" s="19" t="inlineStr"/>
-      <c r="BE88" s="20" t="inlineStr"/>
-      <c r="BF88" s="21" t="inlineStr"/>
-      <c r="BG88" s="21" t="inlineStr"/>
-      <c r="BH88" s="22" t="inlineStr"/>
+      <c r="BB88" s="20" t="inlineStr"/>
+      <c r="BC88" s="21" t="inlineStr"/>
+      <c r="BD88" s="21" t="inlineStr"/>
+      <c r="BE88" s="22" t="inlineStr"/>
+      <c r="BF88" s="23" t="inlineStr"/>
+      <c r="BG88" s="23" t="inlineStr"/>
+      <c r="BH88" s="23" t="inlineStr"/>
       <c r="BI88" s="23" t="inlineStr"/>
       <c r="BJ88" s="23" t="inlineStr"/>
       <c r="BK88" s="23" t="inlineStr"/>
@@ -9064,16 +8767,13 @@
       <c r="BS88" s="23" t="inlineStr"/>
       <c r="BT88" s="23" t="inlineStr"/>
       <c r="BU88" s="23" t="inlineStr"/>
-      <c r="BV88" s="23" t="inlineStr"/>
-      <c r="BW88" s="23" t="inlineStr"/>
-      <c r="BX88" s="23" t="inlineStr"/>
-      <c r="BY88" s="24" t="inlineStr"/>
+      <c r="BV88" s="24" t="inlineStr"/>
+      <c r="BW88" s="29" t="inlineStr"/>
+      <c r="BX88" s="29" t="inlineStr"/>
+      <c r="BY88" s="29" t="inlineStr"/>
       <c r="BZ88" s="29" t="inlineStr"/>
-      <c r="CA88" s="29" t="inlineStr"/>
-      <c r="CB88" s="29" t="inlineStr"/>
-      <c r="CC88" s="29" t="inlineStr"/>
-      <c r="CD88" s="25" t="inlineStr"/>
-      <c r="CE88" s="26" t="inlineStr"/>
+      <c r="CA88" s="25" t="inlineStr"/>
+      <c r="CB88" s="26" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -9105,37 +8805,37 @@
       <c r="AA89" s="21" t="inlineStr"/>
       <c r="AB89" s="21" t="inlineStr"/>
       <c r="AC89" s="21" t="inlineStr"/>
-      <c r="AD89" s="21" t="inlineStr"/>
-      <c r="AE89" s="22" t="inlineStr"/>
+      <c r="AD89" s="22" t="inlineStr"/>
+      <c r="AE89" s="23" t="inlineStr"/>
       <c r="AF89" s="23" t="inlineStr"/>
       <c r="AG89" s="23" t="inlineStr"/>
       <c r="AH89" s="23" t="inlineStr"/>
-      <c r="AI89" s="23" t="inlineStr"/>
-      <c r="AJ89" s="24" t="inlineStr"/>
-      <c r="AK89" s="25" t="inlineStr"/>
-      <c r="AL89" s="26" t="inlineStr"/>
-      <c r="AM89" s="27" t="inlineStr"/>
-      <c r="AN89" s="28" t="inlineStr"/>
-      <c r="AO89" s="16" t="inlineStr"/>
+      <c r="AI89" s="24" t="inlineStr"/>
+      <c r="AJ89" s="25" t="inlineStr"/>
+      <c r="AK89" s="26" t="inlineStr"/>
+      <c r="AL89" s="27" t="inlineStr"/>
+      <c r="AM89" s="28" t="inlineStr"/>
+      <c r="AN89" s="16" t="inlineStr"/>
+      <c r="AO89" s="17" t="inlineStr"/>
       <c r="AP89" s="17" t="inlineStr"/>
       <c r="AQ89" s="17" t="inlineStr"/>
-      <c r="AR89" s="17" t="inlineStr"/>
-      <c r="AS89" s="17" t="inlineStr"/>
-      <c r="AT89" s="17" t="inlineStr"/>
-      <c r="AU89" s="18" t="inlineStr"/>
+      <c r="AR89" s="18" t="inlineStr"/>
+      <c r="AS89" s="19" t="inlineStr"/>
+      <c r="AT89" s="19" t="inlineStr"/>
+      <c r="AU89" s="19" t="inlineStr"/>
       <c r="AV89" s="19" t="inlineStr"/>
       <c r="AW89" s="19" t="inlineStr"/>
       <c r="AX89" s="19" t="inlineStr"/>
       <c r="AY89" s="19" t="inlineStr"/>
       <c r="AZ89" s="19" t="inlineStr"/>
       <c r="BA89" s="19" t="inlineStr"/>
-      <c r="BB89" s="19" t="inlineStr"/>
-      <c r="BC89" s="19" t="inlineStr"/>
-      <c r="BD89" s="19" t="inlineStr"/>
-      <c r="BE89" s="20" t="inlineStr"/>
-      <c r="BF89" s="21" t="inlineStr"/>
-      <c r="BG89" s="21" t="inlineStr"/>
-      <c r="BH89" s="22" t="inlineStr"/>
+      <c r="BB89" s="20" t="inlineStr"/>
+      <c r="BC89" s="21" t="inlineStr"/>
+      <c r="BD89" s="21" t="inlineStr"/>
+      <c r="BE89" s="22" t="inlineStr"/>
+      <c r="BF89" s="23" t="inlineStr"/>
+      <c r="BG89" s="23" t="inlineStr"/>
+      <c r="BH89" s="23" t="inlineStr"/>
       <c r="BI89" s="23" t="inlineStr"/>
       <c r="BJ89" s="23" t="inlineStr"/>
       <c r="BK89" s="23" t="inlineStr"/>
@@ -9149,16 +8849,13 @@
       <c r="BS89" s="23" t="inlineStr"/>
       <c r="BT89" s="23" t="inlineStr"/>
       <c r="BU89" s="23" t="inlineStr"/>
-      <c r="BV89" s="23" t="inlineStr"/>
-      <c r="BW89" s="23" t="inlineStr"/>
-      <c r="BX89" s="23" t="inlineStr"/>
-      <c r="BY89" s="24" t="inlineStr"/>
+      <c r="BV89" s="24" t="inlineStr"/>
+      <c r="BW89" s="29" t="inlineStr"/>
+      <c r="BX89" s="29" t="inlineStr"/>
+      <c r="BY89" s="29" t="inlineStr"/>
       <c r="BZ89" s="29" t="inlineStr"/>
-      <c r="CA89" s="29" t="inlineStr"/>
-      <c r="CB89" s="29" t="inlineStr"/>
-      <c r="CC89" s="29" t="inlineStr"/>
-      <c r="CD89" s="25" t="inlineStr"/>
-      <c r="CE89" s="26" t="inlineStr"/>
+      <c r="CA89" s="25" t="inlineStr"/>
+      <c r="CB89" s="26" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -9190,37 +8887,37 @@
       <c r="AA90" s="21" t="inlineStr"/>
       <c r="AB90" s="21" t="inlineStr"/>
       <c r="AC90" s="21" t="inlineStr"/>
-      <c r="AD90" s="21" t="inlineStr"/>
-      <c r="AE90" s="22" t="inlineStr"/>
+      <c r="AD90" s="22" t="inlineStr"/>
+      <c r="AE90" s="23" t="inlineStr"/>
       <c r="AF90" s="23" t="inlineStr"/>
       <c r="AG90" s="23" t="inlineStr"/>
       <c r="AH90" s="23" t="inlineStr"/>
-      <c r="AI90" s="23" t="inlineStr"/>
-      <c r="AJ90" s="24" t="inlineStr"/>
-      <c r="AK90" s="25" t="inlineStr"/>
-      <c r="AL90" s="26" t="inlineStr"/>
-      <c r="AM90" s="27" t="inlineStr"/>
-      <c r="AN90" s="28" t="inlineStr"/>
-      <c r="AO90" s="16" t="inlineStr"/>
+      <c r="AI90" s="24" t="inlineStr"/>
+      <c r="AJ90" s="25" t="inlineStr"/>
+      <c r="AK90" s="26" t="inlineStr"/>
+      <c r="AL90" s="27" t="inlineStr"/>
+      <c r="AM90" s="28" t="inlineStr"/>
+      <c r="AN90" s="16" t="inlineStr"/>
+      <c r="AO90" s="17" t="inlineStr"/>
       <c r="AP90" s="17" t="inlineStr"/>
       <c r="AQ90" s="17" t="inlineStr"/>
-      <c r="AR90" s="17" t="inlineStr"/>
-      <c r="AS90" s="17" t="inlineStr"/>
-      <c r="AT90" s="17" t="inlineStr"/>
-      <c r="AU90" s="18" t="inlineStr"/>
+      <c r="AR90" s="18" t="inlineStr"/>
+      <c r="AS90" s="19" t="inlineStr"/>
+      <c r="AT90" s="19" t="inlineStr"/>
+      <c r="AU90" s="19" t="inlineStr"/>
       <c r="AV90" s="19" t="inlineStr"/>
       <c r="AW90" s="19" t="inlineStr"/>
       <c r="AX90" s="19" t="inlineStr"/>
       <c r="AY90" s="19" t="inlineStr"/>
       <c r="AZ90" s="19" t="inlineStr"/>
       <c r="BA90" s="19" t="inlineStr"/>
-      <c r="BB90" s="19" t="inlineStr"/>
-      <c r="BC90" s="19" t="inlineStr"/>
-      <c r="BD90" s="19" t="inlineStr"/>
-      <c r="BE90" s="20" t="inlineStr"/>
-      <c r="BF90" s="21" t="inlineStr"/>
-      <c r="BG90" s="21" t="inlineStr"/>
-      <c r="BH90" s="22" t="inlineStr"/>
+      <c r="BB90" s="20" t="inlineStr"/>
+      <c r="BC90" s="21" t="inlineStr"/>
+      <c r="BD90" s="21" t="inlineStr"/>
+      <c r="BE90" s="22" t="inlineStr"/>
+      <c r="BF90" s="23" t="inlineStr"/>
+      <c r="BG90" s="23" t="inlineStr"/>
+      <c r="BH90" s="23" t="inlineStr"/>
       <c r="BI90" s="23" t="inlineStr"/>
       <c r="BJ90" s="23" t="inlineStr"/>
       <c r="BK90" s="23" t="inlineStr"/>
@@ -9234,16 +8931,13 @@
       <c r="BS90" s="23" t="inlineStr"/>
       <c r="BT90" s="23" t="inlineStr"/>
       <c r="BU90" s="23" t="inlineStr"/>
-      <c r="BV90" s="23" t="inlineStr"/>
-      <c r="BW90" s="23" t="inlineStr"/>
-      <c r="BX90" s="23" t="inlineStr"/>
-      <c r="BY90" s="24" t="inlineStr"/>
+      <c r="BV90" s="24" t="inlineStr"/>
+      <c r="BW90" s="29" t="inlineStr"/>
+      <c r="BX90" s="29" t="inlineStr"/>
+      <c r="BY90" s="29" t="inlineStr"/>
       <c r="BZ90" s="29" t="inlineStr"/>
-      <c r="CA90" s="29" t="inlineStr"/>
-      <c r="CB90" s="29" t="inlineStr"/>
-      <c r="CC90" s="29" t="inlineStr"/>
-      <c r="CD90" s="25" t="inlineStr"/>
-      <c r="CE90" s="26" t="inlineStr"/>
+      <c r="CA90" s="25" t="inlineStr"/>
+      <c r="CB90" s="26" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -9275,37 +8969,37 @@
       <c r="AA91" s="21" t="inlineStr"/>
       <c r="AB91" s="21" t="inlineStr"/>
       <c r="AC91" s="21" t="inlineStr"/>
-      <c r="AD91" s="21" t="inlineStr"/>
-      <c r="AE91" s="22" t="inlineStr"/>
+      <c r="AD91" s="22" t="inlineStr"/>
+      <c r="AE91" s="23" t="inlineStr"/>
       <c r="AF91" s="23" t="inlineStr"/>
       <c r="AG91" s="23" t="inlineStr"/>
       <c r="AH91" s="23" t="inlineStr"/>
-      <c r="AI91" s="23" t="inlineStr"/>
-      <c r="AJ91" s="24" t="inlineStr"/>
-      <c r="AK91" s="25" t="inlineStr"/>
-      <c r="AL91" s="26" t="inlineStr"/>
-      <c r="AM91" s="27" t="inlineStr"/>
-      <c r="AN91" s="28" t="inlineStr"/>
-      <c r="AO91" s="16" t="inlineStr"/>
+      <c r="AI91" s="24" t="inlineStr"/>
+      <c r="AJ91" s="25" t="inlineStr"/>
+      <c r="AK91" s="26" t="inlineStr"/>
+      <c r="AL91" s="27" t="inlineStr"/>
+      <c r="AM91" s="28" t="inlineStr"/>
+      <c r="AN91" s="16" t="inlineStr"/>
+      <c r="AO91" s="17" t="inlineStr"/>
       <c r="AP91" s="17" t="inlineStr"/>
       <c r="AQ91" s="17" t="inlineStr"/>
-      <c r="AR91" s="17" t="inlineStr"/>
-      <c r="AS91" s="17" t="inlineStr"/>
-      <c r="AT91" s="17" t="inlineStr"/>
-      <c r="AU91" s="18" t="inlineStr"/>
+      <c r="AR91" s="18" t="inlineStr"/>
+      <c r="AS91" s="19" t="inlineStr"/>
+      <c r="AT91" s="19" t="inlineStr"/>
+      <c r="AU91" s="19" t="inlineStr"/>
       <c r="AV91" s="19" t="inlineStr"/>
       <c r="AW91" s="19" t="inlineStr"/>
       <c r="AX91" s="19" t="inlineStr"/>
       <c r="AY91" s="19" t="inlineStr"/>
       <c r="AZ91" s="19" t="inlineStr"/>
       <c r="BA91" s="19" t="inlineStr"/>
-      <c r="BB91" s="19" t="inlineStr"/>
-      <c r="BC91" s="19" t="inlineStr"/>
-      <c r="BD91" s="19" t="inlineStr"/>
-      <c r="BE91" s="20" t="inlineStr"/>
-      <c r="BF91" s="21" t="inlineStr"/>
-      <c r="BG91" s="21" t="inlineStr"/>
-      <c r="BH91" s="22" t="inlineStr"/>
+      <c r="BB91" s="20" t="inlineStr"/>
+      <c r="BC91" s="21" t="inlineStr"/>
+      <c r="BD91" s="21" t="inlineStr"/>
+      <c r="BE91" s="22" t="inlineStr"/>
+      <c r="BF91" s="23" t="inlineStr"/>
+      <c r="BG91" s="23" t="inlineStr"/>
+      <c r="BH91" s="23" t="inlineStr"/>
       <c r="BI91" s="23" t="inlineStr"/>
       <c r="BJ91" s="23" t="inlineStr"/>
       <c r="BK91" s="23" t="inlineStr"/>
@@ -9319,16 +9013,13 @@
       <c r="BS91" s="23" t="inlineStr"/>
       <c r="BT91" s="23" t="inlineStr"/>
       <c r="BU91" s="23" t="inlineStr"/>
-      <c r="BV91" s="23" t="inlineStr"/>
-      <c r="BW91" s="23" t="inlineStr"/>
-      <c r="BX91" s="23" t="inlineStr"/>
-      <c r="BY91" s="24" t="inlineStr"/>
+      <c r="BV91" s="24" t="inlineStr"/>
+      <c r="BW91" s="29" t="inlineStr"/>
+      <c r="BX91" s="29" t="inlineStr"/>
+      <c r="BY91" s="29" t="inlineStr"/>
       <c r="BZ91" s="29" t="inlineStr"/>
-      <c r="CA91" s="29" t="inlineStr"/>
-      <c r="CB91" s="29" t="inlineStr"/>
-      <c r="CC91" s="29" t="inlineStr"/>
-      <c r="CD91" s="25" t="inlineStr"/>
-      <c r="CE91" s="26" t="inlineStr"/>
+      <c r="CA91" s="25" t="inlineStr"/>
+      <c r="CB91" s="26" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9360,37 +9051,37 @@
       <c r="AA92" s="21" t="inlineStr"/>
       <c r="AB92" s="21" t="inlineStr"/>
       <c r="AC92" s="21" t="inlineStr"/>
-      <c r="AD92" s="21" t="inlineStr"/>
-      <c r="AE92" s="22" t="inlineStr"/>
+      <c r="AD92" s="22" t="inlineStr"/>
+      <c r="AE92" s="23" t="inlineStr"/>
       <c r="AF92" s="23" t="inlineStr"/>
       <c r="AG92" s="23" t="inlineStr"/>
       <c r="AH92" s="23" t="inlineStr"/>
-      <c r="AI92" s="23" t="inlineStr"/>
-      <c r="AJ92" s="24" t="inlineStr"/>
-      <c r="AK92" s="25" t="inlineStr"/>
-      <c r="AL92" s="26" t="inlineStr"/>
-      <c r="AM92" s="27" t="inlineStr"/>
-      <c r="AN92" s="28" t="inlineStr"/>
-      <c r="AO92" s="16" t="inlineStr"/>
+      <c r="AI92" s="24" t="inlineStr"/>
+      <c r="AJ92" s="25" t="inlineStr"/>
+      <c r="AK92" s="26" t="inlineStr"/>
+      <c r="AL92" s="27" t="inlineStr"/>
+      <c r="AM92" s="28" t="inlineStr"/>
+      <c r="AN92" s="16" t="inlineStr"/>
+      <c r="AO92" s="17" t="inlineStr"/>
       <c r="AP92" s="17" t="inlineStr"/>
       <c r="AQ92" s="17" t="inlineStr"/>
-      <c r="AR92" s="17" t="inlineStr"/>
-      <c r="AS92" s="17" t="inlineStr"/>
-      <c r="AT92" s="17" t="inlineStr"/>
-      <c r="AU92" s="18" t="inlineStr"/>
+      <c r="AR92" s="18" t="inlineStr"/>
+      <c r="AS92" s="19" t="inlineStr"/>
+      <c r="AT92" s="19" t="inlineStr"/>
+      <c r="AU92" s="19" t="inlineStr"/>
       <c r="AV92" s="19" t="inlineStr"/>
       <c r="AW92" s="19" t="inlineStr"/>
       <c r="AX92" s="19" t="inlineStr"/>
       <c r="AY92" s="19" t="inlineStr"/>
       <c r="AZ92" s="19" t="inlineStr"/>
       <c r="BA92" s="19" t="inlineStr"/>
-      <c r="BB92" s="19" t="inlineStr"/>
-      <c r="BC92" s="19" t="inlineStr"/>
-      <c r="BD92" s="19" t="inlineStr"/>
-      <c r="BE92" s="20" t="inlineStr"/>
-      <c r="BF92" s="21" t="inlineStr"/>
-      <c r="BG92" s="21" t="inlineStr"/>
-      <c r="BH92" s="22" t="inlineStr"/>
+      <c r="BB92" s="20" t="inlineStr"/>
+      <c r="BC92" s="21" t="inlineStr"/>
+      <c r="BD92" s="21" t="inlineStr"/>
+      <c r="BE92" s="22" t="inlineStr"/>
+      <c r="BF92" s="23" t="inlineStr"/>
+      <c r="BG92" s="23" t="inlineStr"/>
+      <c r="BH92" s="23" t="inlineStr"/>
       <c r="BI92" s="23" t="inlineStr"/>
       <c r="BJ92" s="23" t="inlineStr"/>
       <c r="BK92" s="23" t="inlineStr"/>
@@ -9404,16 +9095,13 @@
       <c r="BS92" s="23" t="inlineStr"/>
       <c r="BT92" s="23" t="inlineStr"/>
       <c r="BU92" s="23" t="inlineStr"/>
-      <c r="BV92" s="23" t="inlineStr"/>
-      <c r="BW92" s="23" t="inlineStr"/>
-      <c r="BX92" s="23" t="inlineStr"/>
-      <c r="BY92" s="24" t="inlineStr"/>
+      <c r="BV92" s="24" t="inlineStr"/>
+      <c r="BW92" s="29" t="inlineStr"/>
+      <c r="BX92" s="29" t="inlineStr"/>
+      <c r="BY92" s="29" t="inlineStr"/>
       <c r="BZ92" s="29" t="inlineStr"/>
-      <c r="CA92" s="29" t="inlineStr"/>
-      <c r="CB92" s="29" t="inlineStr"/>
-      <c r="CC92" s="29" t="inlineStr"/>
-      <c r="CD92" s="25" t="inlineStr"/>
-      <c r="CE92" s="26" t="inlineStr"/>
+      <c r="CA92" s="25" t="inlineStr"/>
+      <c r="CB92" s="26" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9445,37 +9133,37 @@
       <c r="AA93" s="21" t="inlineStr"/>
       <c r="AB93" s="21" t="inlineStr"/>
       <c r="AC93" s="21" t="inlineStr"/>
-      <c r="AD93" s="21" t="inlineStr"/>
-      <c r="AE93" s="22" t="inlineStr"/>
+      <c r="AD93" s="22" t="inlineStr"/>
+      <c r="AE93" s="23" t="inlineStr"/>
       <c r="AF93" s="23" t="inlineStr"/>
       <c r="AG93" s="23" t="inlineStr"/>
       <c r="AH93" s="23" t="inlineStr"/>
-      <c r="AI93" s="23" t="inlineStr"/>
-      <c r="AJ93" s="24" t="inlineStr"/>
-      <c r="AK93" s="25" t="inlineStr"/>
-      <c r="AL93" s="26" t="inlineStr"/>
-      <c r="AM93" s="27" t="inlineStr"/>
-      <c r="AN93" s="28" t="inlineStr"/>
-      <c r="AO93" s="16" t="inlineStr"/>
+      <c r="AI93" s="24" t="inlineStr"/>
+      <c r="AJ93" s="25" t="inlineStr"/>
+      <c r="AK93" s="26" t="inlineStr"/>
+      <c r="AL93" s="27" t="inlineStr"/>
+      <c r="AM93" s="28" t="inlineStr"/>
+      <c r="AN93" s="16" t="inlineStr"/>
+      <c r="AO93" s="17" t="inlineStr"/>
       <c r="AP93" s="17" t="inlineStr"/>
       <c r="AQ93" s="17" t="inlineStr"/>
-      <c r="AR93" s="17" t="inlineStr"/>
-      <c r="AS93" s="17" t="inlineStr"/>
-      <c r="AT93" s="17" t="inlineStr"/>
-      <c r="AU93" s="18" t="inlineStr"/>
+      <c r="AR93" s="18" t="inlineStr"/>
+      <c r="AS93" s="19" t="inlineStr"/>
+      <c r="AT93" s="19" t="inlineStr"/>
+      <c r="AU93" s="19" t="inlineStr"/>
       <c r="AV93" s="19" t="inlineStr"/>
       <c r="AW93" s="19" t="inlineStr"/>
       <c r="AX93" s="19" t="inlineStr"/>
       <c r="AY93" s="19" t="inlineStr"/>
       <c r="AZ93" s="19" t="inlineStr"/>
       <c r="BA93" s="19" t="inlineStr"/>
-      <c r="BB93" s="19" t="inlineStr"/>
-      <c r="BC93" s="19" t="inlineStr"/>
-      <c r="BD93" s="19" t="inlineStr"/>
-      <c r="BE93" s="20" t="inlineStr"/>
-      <c r="BF93" s="21" t="inlineStr"/>
-      <c r="BG93" s="21" t="inlineStr"/>
-      <c r="BH93" s="22" t="inlineStr"/>
+      <c r="BB93" s="20" t="inlineStr"/>
+      <c r="BC93" s="21" t="inlineStr"/>
+      <c r="BD93" s="21" t="inlineStr"/>
+      <c r="BE93" s="22" t="inlineStr"/>
+      <c r="BF93" s="23" t="inlineStr"/>
+      <c r="BG93" s="23" t="inlineStr"/>
+      <c r="BH93" s="23" t="inlineStr"/>
       <c r="BI93" s="23" t="inlineStr"/>
       <c r="BJ93" s="23" t="inlineStr"/>
       <c r="BK93" s="23" t="inlineStr"/>
@@ -9489,16 +9177,13 @@
       <c r="BS93" s="23" t="inlineStr"/>
       <c r="BT93" s="23" t="inlineStr"/>
       <c r="BU93" s="23" t="inlineStr"/>
-      <c r="BV93" s="23" t="inlineStr"/>
-      <c r="BW93" s="23" t="inlineStr"/>
-      <c r="BX93" s="23" t="inlineStr"/>
-      <c r="BY93" s="24" t="inlineStr"/>
+      <c r="BV93" s="24" t="inlineStr"/>
+      <c r="BW93" s="29" t="inlineStr"/>
+      <c r="BX93" s="29" t="inlineStr"/>
+      <c r="BY93" s="29" t="inlineStr"/>
       <c r="BZ93" s="29" t="inlineStr"/>
-      <c r="CA93" s="29" t="inlineStr"/>
-      <c r="CB93" s="29" t="inlineStr"/>
-      <c r="CC93" s="29" t="inlineStr"/>
-      <c r="CD93" s="25" t="inlineStr"/>
-      <c r="CE93" s="26" t="inlineStr"/>
+      <c r="CA93" s="25" t="inlineStr"/>
+      <c r="CB93" s="26" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9530,37 +9215,37 @@
       <c r="AA94" s="21" t="inlineStr"/>
       <c r="AB94" s="21" t="inlineStr"/>
       <c r="AC94" s="21" t="inlineStr"/>
-      <c r="AD94" s="21" t="inlineStr"/>
-      <c r="AE94" s="22" t="inlineStr"/>
+      <c r="AD94" s="22" t="inlineStr"/>
+      <c r="AE94" s="23" t="inlineStr"/>
       <c r="AF94" s="23" t="inlineStr"/>
       <c r="AG94" s="23" t="inlineStr"/>
       <c r="AH94" s="23" t="inlineStr"/>
-      <c r="AI94" s="23" t="inlineStr"/>
-      <c r="AJ94" s="24" t="inlineStr"/>
-      <c r="AK94" s="25" t="inlineStr"/>
-      <c r="AL94" s="26" t="inlineStr"/>
-      <c r="AM94" s="27" t="inlineStr"/>
-      <c r="AN94" s="28" t="inlineStr"/>
-      <c r="AO94" s="16" t="inlineStr"/>
+      <c r="AI94" s="24" t="inlineStr"/>
+      <c r="AJ94" s="25" t="inlineStr"/>
+      <c r="AK94" s="26" t="inlineStr"/>
+      <c r="AL94" s="27" t="inlineStr"/>
+      <c r="AM94" s="28" t="inlineStr"/>
+      <c r="AN94" s="16" t="inlineStr"/>
+      <c r="AO94" s="17" t="inlineStr"/>
       <c r="AP94" s="17" t="inlineStr"/>
       <c r="AQ94" s="17" t="inlineStr"/>
-      <c r="AR94" s="17" t="inlineStr"/>
-      <c r="AS94" s="17" t="inlineStr"/>
-      <c r="AT94" s="17" t="inlineStr"/>
-      <c r="AU94" s="18" t="inlineStr"/>
+      <c r="AR94" s="18" t="inlineStr"/>
+      <c r="AS94" s="19" t="inlineStr"/>
+      <c r="AT94" s="19" t="inlineStr"/>
+      <c r="AU94" s="19" t="inlineStr"/>
       <c r="AV94" s="19" t="inlineStr"/>
       <c r="AW94" s="19" t="inlineStr"/>
       <c r="AX94" s="19" t="inlineStr"/>
       <c r="AY94" s="19" t="inlineStr"/>
       <c r="AZ94" s="19" t="inlineStr"/>
       <c r="BA94" s="19" t="inlineStr"/>
-      <c r="BB94" s="19" t="inlineStr"/>
-      <c r="BC94" s="19" t="inlineStr"/>
-      <c r="BD94" s="19" t="inlineStr"/>
-      <c r="BE94" s="20" t="inlineStr"/>
-      <c r="BF94" s="21" t="inlineStr"/>
-      <c r="BG94" s="21" t="inlineStr"/>
-      <c r="BH94" s="22" t="inlineStr"/>
+      <c r="BB94" s="20" t="inlineStr"/>
+      <c r="BC94" s="21" t="inlineStr"/>
+      <c r="BD94" s="21" t="inlineStr"/>
+      <c r="BE94" s="22" t="inlineStr"/>
+      <c r="BF94" s="23" t="inlineStr"/>
+      <c r="BG94" s="23" t="inlineStr"/>
+      <c r="BH94" s="23" t="inlineStr"/>
       <c r="BI94" s="23" t="inlineStr"/>
       <c r="BJ94" s="23" t="inlineStr"/>
       <c r="BK94" s="23" t="inlineStr"/>
@@ -9574,16 +9259,13 @@
       <c r="BS94" s="23" t="inlineStr"/>
       <c r="BT94" s="23" t="inlineStr"/>
       <c r="BU94" s="23" t="inlineStr"/>
-      <c r="BV94" s="23" t="inlineStr"/>
-      <c r="BW94" s="23" t="inlineStr"/>
-      <c r="BX94" s="23" t="inlineStr"/>
-      <c r="BY94" s="24" t="inlineStr"/>
+      <c r="BV94" s="24" t="inlineStr"/>
+      <c r="BW94" s="29" t="inlineStr"/>
+      <c r="BX94" s="29" t="inlineStr"/>
+      <c r="BY94" s="29" t="inlineStr"/>
       <c r="BZ94" s="29" t="inlineStr"/>
-      <c r="CA94" s="29" t="inlineStr"/>
-      <c r="CB94" s="29" t="inlineStr"/>
-      <c r="CC94" s="29" t="inlineStr"/>
-      <c r="CD94" s="25" t="inlineStr"/>
-      <c r="CE94" s="26" t="inlineStr"/>
+      <c r="CA94" s="25" t="inlineStr"/>
+      <c r="CB94" s="26" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9615,37 +9297,37 @@
       <c r="AA95" s="21" t="inlineStr"/>
       <c r="AB95" s="21" t="inlineStr"/>
       <c r="AC95" s="21" t="inlineStr"/>
-      <c r="AD95" s="21" t="inlineStr"/>
-      <c r="AE95" s="22" t="inlineStr"/>
+      <c r="AD95" s="22" t="inlineStr"/>
+      <c r="AE95" s="23" t="inlineStr"/>
       <c r="AF95" s="23" t="inlineStr"/>
       <c r="AG95" s="23" t="inlineStr"/>
       <c r="AH95" s="23" t="inlineStr"/>
-      <c r="AI95" s="23" t="inlineStr"/>
-      <c r="AJ95" s="24" t="inlineStr"/>
-      <c r="AK95" s="25" t="inlineStr"/>
-      <c r="AL95" s="26" t="inlineStr"/>
-      <c r="AM95" s="27" t="inlineStr"/>
-      <c r="AN95" s="28" t="inlineStr"/>
-      <c r="AO95" s="16" t="inlineStr"/>
+      <c r="AI95" s="24" t="inlineStr"/>
+      <c r="AJ95" s="25" t="inlineStr"/>
+      <c r="AK95" s="26" t="inlineStr"/>
+      <c r="AL95" s="27" t="inlineStr"/>
+      <c r="AM95" s="28" t="inlineStr"/>
+      <c r="AN95" s="16" t="inlineStr"/>
+      <c r="AO95" s="17" t="inlineStr"/>
       <c r="AP95" s="17" t="inlineStr"/>
       <c r="AQ95" s="17" t="inlineStr"/>
-      <c r="AR95" s="17" t="inlineStr"/>
-      <c r="AS95" s="17" t="inlineStr"/>
-      <c r="AT95" s="17" t="inlineStr"/>
-      <c r="AU95" s="18" t="inlineStr"/>
+      <c r="AR95" s="18" t="inlineStr"/>
+      <c r="AS95" s="19" t="inlineStr"/>
+      <c r="AT95" s="19" t="inlineStr"/>
+      <c r="AU95" s="19" t="inlineStr"/>
       <c r="AV95" s="19" t="inlineStr"/>
       <c r="AW95" s="19" t="inlineStr"/>
       <c r="AX95" s="19" t="inlineStr"/>
       <c r="AY95" s="19" t="inlineStr"/>
       <c r="AZ95" s="19" t="inlineStr"/>
       <c r="BA95" s="19" t="inlineStr"/>
-      <c r="BB95" s="19" t="inlineStr"/>
-      <c r="BC95" s="19" t="inlineStr"/>
-      <c r="BD95" s="19" t="inlineStr"/>
-      <c r="BE95" s="20" t="inlineStr"/>
-      <c r="BF95" s="21" t="inlineStr"/>
-      <c r="BG95" s="21" t="inlineStr"/>
-      <c r="BH95" s="22" t="inlineStr"/>
+      <c r="BB95" s="20" t="inlineStr"/>
+      <c r="BC95" s="21" t="inlineStr"/>
+      <c r="BD95" s="21" t="inlineStr"/>
+      <c r="BE95" s="22" t="inlineStr"/>
+      <c r="BF95" s="23" t="inlineStr"/>
+      <c r="BG95" s="23" t="inlineStr"/>
+      <c r="BH95" s="23" t="inlineStr"/>
       <c r="BI95" s="23" t="inlineStr"/>
       <c r="BJ95" s="23" t="inlineStr"/>
       <c r="BK95" s="23" t="inlineStr"/>
@@ -9659,16 +9341,13 @@
       <c r="BS95" s="23" t="inlineStr"/>
       <c r="BT95" s="23" t="inlineStr"/>
       <c r="BU95" s="23" t="inlineStr"/>
-      <c r="BV95" s="23" t="inlineStr"/>
-      <c r="BW95" s="23" t="inlineStr"/>
-      <c r="BX95" s="23" t="inlineStr"/>
-      <c r="BY95" s="24" t="inlineStr"/>
+      <c r="BV95" s="24" t="inlineStr"/>
+      <c r="BW95" s="29" t="inlineStr"/>
+      <c r="BX95" s="29" t="inlineStr"/>
+      <c r="BY95" s="29" t="inlineStr"/>
       <c r="BZ95" s="29" t="inlineStr"/>
-      <c r="CA95" s="29" t="inlineStr"/>
-      <c r="CB95" s="29" t="inlineStr"/>
-      <c r="CC95" s="29" t="inlineStr"/>
-      <c r="CD95" s="25" t="inlineStr"/>
-      <c r="CE95" s="26" t="inlineStr"/>
+      <c r="CA95" s="25" t="inlineStr"/>
+      <c r="CB95" s="26" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9700,37 +9379,37 @@
       <c r="AA96" s="21" t="inlineStr"/>
       <c r="AB96" s="21" t="inlineStr"/>
       <c r="AC96" s="21" t="inlineStr"/>
-      <c r="AD96" s="21" t="inlineStr"/>
-      <c r="AE96" s="22" t="inlineStr"/>
+      <c r="AD96" s="22" t="inlineStr"/>
+      <c r="AE96" s="23" t="inlineStr"/>
       <c r="AF96" s="23" t="inlineStr"/>
       <c r="AG96" s="23" t="inlineStr"/>
       <c r="AH96" s="23" t="inlineStr"/>
-      <c r="AI96" s="23" t="inlineStr"/>
-      <c r="AJ96" s="24" t="inlineStr"/>
-      <c r="AK96" s="25" t="inlineStr"/>
-      <c r="AL96" s="26" t="inlineStr"/>
-      <c r="AM96" s="27" t="inlineStr"/>
-      <c r="AN96" s="28" t="inlineStr"/>
-      <c r="AO96" s="16" t="inlineStr"/>
+      <c r="AI96" s="24" t="inlineStr"/>
+      <c r="AJ96" s="25" t="inlineStr"/>
+      <c r="AK96" s="26" t="inlineStr"/>
+      <c r="AL96" s="27" t="inlineStr"/>
+      <c r="AM96" s="28" t="inlineStr"/>
+      <c r="AN96" s="16" t="inlineStr"/>
+      <c r="AO96" s="17" t="inlineStr"/>
       <c r="AP96" s="17" t="inlineStr"/>
       <c r="AQ96" s="17" t="inlineStr"/>
-      <c r="AR96" s="17" t="inlineStr"/>
-      <c r="AS96" s="17" t="inlineStr"/>
-      <c r="AT96" s="17" t="inlineStr"/>
-      <c r="AU96" s="18" t="inlineStr"/>
+      <c r="AR96" s="18" t="inlineStr"/>
+      <c r="AS96" s="19" t="inlineStr"/>
+      <c r="AT96" s="19" t="inlineStr"/>
+      <c r="AU96" s="19" t="inlineStr"/>
       <c r="AV96" s="19" t="inlineStr"/>
       <c r="AW96" s="19" t="inlineStr"/>
       <c r="AX96" s="19" t="inlineStr"/>
       <c r="AY96" s="19" t="inlineStr"/>
       <c r="AZ96" s="19" t="inlineStr"/>
       <c r="BA96" s="19" t="inlineStr"/>
-      <c r="BB96" s="19" t="inlineStr"/>
-      <c r="BC96" s="19" t="inlineStr"/>
-      <c r="BD96" s="19" t="inlineStr"/>
-      <c r="BE96" s="20" t="inlineStr"/>
-      <c r="BF96" s="21" t="inlineStr"/>
-      <c r="BG96" s="21" t="inlineStr"/>
-      <c r="BH96" s="22" t="inlineStr"/>
+      <c r="BB96" s="20" t="inlineStr"/>
+      <c r="BC96" s="21" t="inlineStr"/>
+      <c r="BD96" s="21" t="inlineStr"/>
+      <c r="BE96" s="22" t="inlineStr"/>
+      <c r="BF96" s="23" t="inlineStr"/>
+      <c r="BG96" s="23" t="inlineStr"/>
+      <c r="BH96" s="23" t="inlineStr"/>
       <c r="BI96" s="23" t="inlineStr"/>
       <c r="BJ96" s="23" t="inlineStr"/>
       <c r="BK96" s="23" t="inlineStr"/>
@@ -9744,16 +9423,13 @@
       <c r="BS96" s="23" t="inlineStr"/>
       <c r="BT96" s="23" t="inlineStr"/>
       <c r="BU96" s="23" t="inlineStr"/>
-      <c r="BV96" s="23" t="inlineStr"/>
-      <c r="BW96" s="23" t="inlineStr"/>
-      <c r="BX96" s="23" t="inlineStr"/>
-      <c r="BY96" s="24" t="inlineStr"/>
+      <c r="BV96" s="24" t="inlineStr"/>
+      <c r="BW96" s="29" t="inlineStr"/>
+      <c r="BX96" s="29" t="inlineStr"/>
+      <c r="BY96" s="29" t="inlineStr"/>
       <c r="BZ96" s="29" t="inlineStr"/>
-      <c r="CA96" s="29" t="inlineStr"/>
-      <c r="CB96" s="29" t="inlineStr"/>
-      <c r="CC96" s="29" t="inlineStr"/>
-      <c r="CD96" s="25" t="inlineStr"/>
-      <c r="CE96" s="26" t="inlineStr"/>
+      <c r="CA96" s="25" t="inlineStr"/>
+      <c r="CB96" s="26" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9785,37 +9461,37 @@
       <c r="AA97" s="21" t="inlineStr"/>
       <c r="AB97" s="21" t="inlineStr"/>
       <c r="AC97" s="21" t="inlineStr"/>
-      <c r="AD97" s="21" t="inlineStr"/>
-      <c r="AE97" s="22" t="inlineStr"/>
+      <c r="AD97" s="22" t="inlineStr"/>
+      <c r="AE97" s="23" t="inlineStr"/>
       <c r="AF97" s="23" t="inlineStr"/>
       <c r="AG97" s="23" t="inlineStr"/>
       <c r="AH97" s="23" t="inlineStr"/>
-      <c r="AI97" s="23" t="inlineStr"/>
-      <c r="AJ97" s="24" t="inlineStr"/>
-      <c r="AK97" s="25" t="inlineStr"/>
-      <c r="AL97" s="26" t="inlineStr"/>
-      <c r="AM97" s="27" t="inlineStr"/>
-      <c r="AN97" s="28" t="inlineStr"/>
-      <c r="AO97" s="16" t="inlineStr"/>
+      <c r="AI97" s="24" t="inlineStr"/>
+      <c r="AJ97" s="25" t="inlineStr"/>
+      <c r="AK97" s="26" t="inlineStr"/>
+      <c r="AL97" s="27" t="inlineStr"/>
+      <c r="AM97" s="28" t="inlineStr"/>
+      <c r="AN97" s="16" t="inlineStr"/>
+      <c r="AO97" s="17" t="inlineStr"/>
       <c r="AP97" s="17" t="inlineStr"/>
       <c r="AQ97" s="17" t="inlineStr"/>
-      <c r="AR97" s="17" t="inlineStr"/>
-      <c r="AS97" s="17" t="inlineStr"/>
-      <c r="AT97" s="17" t="inlineStr"/>
-      <c r="AU97" s="18" t="inlineStr"/>
+      <c r="AR97" s="18" t="inlineStr"/>
+      <c r="AS97" s="19" t="inlineStr"/>
+      <c r="AT97" s="19" t="inlineStr"/>
+      <c r="AU97" s="19" t="inlineStr"/>
       <c r="AV97" s="19" t="inlineStr"/>
       <c r="AW97" s="19" t="inlineStr"/>
       <c r="AX97" s="19" t="inlineStr"/>
       <c r="AY97" s="19" t="inlineStr"/>
       <c r="AZ97" s="19" t="inlineStr"/>
       <c r="BA97" s="19" t="inlineStr"/>
-      <c r="BB97" s="19" t="inlineStr"/>
-      <c r="BC97" s="19" t="inlineStr"/>
-      <c r="BD97" s="19" t="inlineStr"/>
-      <c r="BE97" s="20" t="inlineStr"/>
-      <c r="BF97" s="21" t="inlineStr"/>
-      <c r="BG97" s="21" t="inlineStr"/>
-      <c r="BH97" s="22" t="inlineStr"/>
+      <c r="BB97" s="20" t="inlineStr"/>
+      <c r="BC97" s="21" t="inlineStr"/>
+      <c r="BD97" s="21" t="inlineStr"/>
+      <c r="BE97" s="22" t="inlineStr"/>
+      <c r="BF97" s="23" t="inlineStr"/>
+      <c r="BG97" s="23" t="inlineStr"/>
+      <c r="BH97" s="23" t="inlineStr"/>
       <c r="BI97" s="23" t="inlineStr"/>
       <c r="BJ97" s="23" t="inlineStr"/>
       <c r="BK97" s="23" t="inlineStr"/>
@@ -9829,16 +9505,13 @@
       <c r="BS97" s="23" t="inlineStr"/>
       <c r="BT97" s="23" t="inlineStr"/>
       <c r="BU97" s="23" t="inlineStr"/>
-      <c r="BV97" s="23" t="inlineStr"/>
-      <c r="BW97" s="23" t="inlineStr"/>
-      <c r="BX97" s="23" t="inlineStr"/>
-      <c r="BY97" s="24" t="inlineStr"/>
+      <c r="BV97" s="24" t="inlineStr"/>
+      <c r="BW97" s="29" t="inlineStr"/>
+      <c r="BX97" s="29" t="inlineStr"/>
+      <c r="BY97" s="29" t="inlineStr"/>
       <c r="BZ97" s="29" t="inlineStr"/>
-      <c r="CA97" s="29" t="inlineStr"/>
-      <c r="CB97" s="29" t="inlineStr"/>
-      <c r="CC97" s="29" t="inlineStr"/>
-      <c r="CD97" s="25" t="inlineStr"/>
-      <c r="CE97" s="26" t="inlineStr"/>
+      <c r="CA97" s="25" t="inlineStr"/>
+      <c r="CB97" s="26" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9870,37 +9543,37 @@
       <c r="AA98" s="21" t="inlineStr"/>
       <c r="AB98" s="21" t="inlineStr"/>
       <c r="AC98" s="21" t="inlineStr"/>
-      <c r="AD98" s="21" t="inlineStr"/>
-      <c r="AE98" s="22" t="inlineStr"/>
+      <c r="AD98" s="22" t="inlineStr"/>
+      <c r="AE98" s="23" t="inlineStr"/>
       <c r="AF98" s="23" t="inlineStr"/>
       <c r="AG98" s="23" t="inlineStr"/>
       <c r="AH98" s="23" t="inlineStr"/>
-      <c r="AI98" s="23" t="inlineStr"/>
-      <c r="AJ98" s="24" t="inlineStr"/>
-      <c r="AK98" s="25" t="inlineStr"/>
-      <c r="AL98" s="26" t="inlineStr"/>
-      <c r="AM98" s="27" t="inlineStr"/>
-      <c r="AN98" s="28" t="inlineStr"/>
-      <c r="AO98" s="16" t="inlineStr"/>
+      <c r="AI98" s="24" t="inlineStr"/>
+      <c r="AJ98" s="25" t="inlineStr"/>
+      <c r="AK98" s="26" t="inlineStr"/>
+      <c r="AL98" s="27" t="inlineStr"/>
+      <c r="AM98" s="28" t="inlineStr"/>
+      <c r="AN98" s="16" t="inlineStr"/>
+      <c r="AO98" s="17" t="inlineStr"/>
       <c r="AP98" s="17" t="inlineStr"/>
       <c r="AQ98" s="17" t="inlineStr"/>
-      <c r="AR98" s="17" t="inlineStr"/>
-      <c r="AS98" s="17" t="inlineStr"/>
-      <c r="AT98" s="17" t="inlineStr"/>
-      <c r="AU98" s="18" t="inlineStr"/>
+      <c r="AR98" s="18" t="inlineStr"/>
+      <c r="AS98" s="19" t="inlineStr"/>
+      <c r="AT98" s="19" t="inlineStr"/>
+      <c r="AU98" s="19" t="inlineStr"/>
       <c r="AV98" s="19" t="inlineStr"/>
       <c r="AW98" s="19" t="inlineStr"/>
       <c r="AX98" s="19" t="inlineStr"/>
       <c r="AY98" s="19" t="inlineStr"/>
       <c r="AZ98" s="19" t="inlineStr"/>
       <c r="BA98" s="19" t="inlineStr"/>
-      <c r="BB98" s="19" t="inlineStr"/>
-      <c r="BC98" s="19" t="inlineStr"/>
-      <c r="BD98" s="19" t="inlineStr"/>
-      <c r="BE98" s="20" t="inlineStr"/>
-      <c r="BF98" s="21" t="inlineStr"/>
-      <c r="BG98" s="21" t="inlineStr"/>
-      <c r="BH98" s="22" t="inlineStr"/>
+      <c r="BB98" s="20" t="inlineStr"/>
+      <c r="BC98" s="21" t="inlineStr"/>
+      <c r="BD98" s="21" t="inlineStr"/>
+      <c r="BE98" s="22" t="inlineStr"/>
+      <c r="BF98" s="23" t="inlineStr"/>
+      <c r="BG98" s="23" t="inlineStr"/>
+      <c r="BH98" s="23" t="inlineStr"/>
       <c r="BI98" s="23" t="inlineStr"/>
       <c r="BJ98" s="23" t="inlineStr"/>
       <c r="BK98" s="23" t="inlineStr"/>
@@ -9914,16 +9587,13 @@
       <c r="BS98" s="23" t="inlineStr"/>
       <c r="BT98" s="23" t="inlineStr"/>
       <c r="BU98" s="23" t="inlineStr"/>
-      <c r="BV98" s="23" t="inlineStr"/>
-      <c r="BW98" s="23" t="inlineStr"/>
-      <c r="BX98" s="23" t="inlineStr"/>
-      <c r="BY98" s="24" t="inlineStr"/>
+      <c r="BV98" s="24" t="inlineStr"/>
+      <c r="BW98" s="29" t="inlineStr"/>
+      <c r="BX98" s="29" t="inlineStr"/>
+      <c r="BY98" s="29" t="inlineStr"/>
       <c r="BZ98" s="29" t="inlineStr"/>
-      <c r="CA98" s="29" t="inlineStr"/>
-      <c r="CB98" s="29" t="inlineStr"/>
-      <c r="CC98" s="29" t="inlineStr"/>
-      <c r="CD98" s="25" t="inlineStr"/>
-      <c r="CE98" s="26" t="inlineStr"/>
+      <c r="CA98" s="25" t="inlineStr"/>
+      <c r="CB98" s="26" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -9955,37 +9625,37 @@
       <c r="AA99" s="21" t="inlineStr"/>
       <c r="AB99" s="21" t="inlineStr"/>
       <c r="AC99" s="21" t="inlineStr"/>
-      <c r="AD99" s="21" t="inlineStr"/>
-      <c r="AE99" s="22" t="inlineStr"/>
+      <c r="AD99" s="22" t="inlineStr"/>
+      <c r="AE99" s="23" t="inlineStr"/>
       <c r="AF99" s="23" t="inlineStr"/>
       <c r="AG99" s="23" t="inlineStr"/>
       <c r="AH99" s="23" t="inlineStr"/>
-      <c r="AI99" s="23" t="inlineStr"/>
-      <c r="AJ99" s="24" t="inlineStr"/>
-      <c r="AK99" s="25" t="inlineStr"/>
-      <c r="AL99" s="26" t="inlineStr"/>
-      <c r="AM99" s="27" t="inlineStr"/>
-      <c r="AN99" s="28" t="inlineStr"/>
-      <c r="AO99" s="16" t="inlineStr"/>
+      <c r="AI99" s="24" t="inlineStr"/>
+      <c r="AJ99" s="25" t="inlineStr"/>
+      <c r="AK99" s="26" t="inlineStr"/>
+      <c r="AL99" s="27" t="inlineStr"/>
+      <c r="AM99" s="28" t="inlineStr"/>
+      <c r="AN99" s="16" t="inlineStr"/>
+      <c r="AO99" s="17" t="inlineStr"/>
       <c r="AP99" s="17" t="inlineStr"/>
       <c r="AQ99" s="17" t="inlineStr"/>
-      <c r="AR99" s="17" t="inlineStr"/>
-      <c r="AS99" s="17" t="inlineStr"/>
-      <c r="AT99" s="17" t="inlineStr"/>
-      <c r="AU99" s="18" t="inlineStr"/>
+      <c r="AR99" s="18" t="inlineStr"/>
+      <c r="AS99" s="19" t="inlineStr"/>
+      <c r="AT99" s="19" t="inlineStr"/>
+      <c r="AU99" s="19" t="inlineStr"/>
       <c r="AV99" s="19" t="inlineStr"/>
       <c r="AW99" s="19" t="inlineStr"/>
       <c r="AX99" s="19" t="inlineStr"/>
       <c r="AY99" s="19" t="inlineStr"/>
       <c r="AZ99" s="19" t="inlineStr"/>
       <c r="BA99" s="19" t="inlineStr"/>
-      <c r="BB99" s="19" t="inlineStr"/>
-      <c r="BC99" s="19" t="inlineStr"/>
-      <c r="BD99" s="19" t="inlineStr"/>
-      <c r="BE99" s="20" t="inlineStr"/>
-      <c r="BF99" s="21" t="inlineStr"/>
-      <c r="BG99" s="21" t="inlineStr"/>
-      <c r="BH99" s="22" t="inlineStr"/>
+      <c r="BB99" s="20" t="inlineStr"/>
+      <c r="BC99" s="21" t="inlineStr"/>
+      <c r="BD99" s="21" t="inlineStr"/>
+      <c r="BE99" s="22" t="inlineStr"/>
+      <c r="BF99" s="23" t="inlineStr"/>
+      <c r="BG99" s="23" t="inlineStr"/>
+      <c r="BH99" s="23" t="inlineStr"/>
       <c r="BI99" s="23" t="inlineStr"/>
       <c r="BJ99" s="23" t="inlineStr"/>
       <c r="BK99" s="23" t="inlineStr"/>
@@ -9999,16 +9669,13 @@
       <c r="BS99" s="23" t="inlineStr"/>
       <c r="BT99" s="23" t="inlineStr"/>
       <c r="BU99" s="23" t="inlineStr"/>
-      <c r="BV99" s="23" t="inlineStr"/>
-      <c r="BW99" s="23" t="inlineStr"/>
-      <c r="BX99" s="23" t="inlineStr"/>
-      <c r="BY99" s="24" t="inlineStr"/>
+      <c r="BV99" s="24" t="inlineStr"/>
+      <c r="BW99" s="29" t="inlineStr"/>
+      <c r="BX99" s="29" t="inlineStr"/>
+      <c r="BY99" s="29" t="inlineStr"/>
       <c r="BZ99" s="29" t="inlineStr"/>
-      <c r="CA99" s="29" t="inlineStr"/>
-      <c r="CB99" s="29" t="inlineStr"/>
-      <c r="CC99" s="29" t="inlineStr"/>
-      <c r="CD99" s="25" t="inlineStr"/>
-      <c r="CE99" s="26" t="inlineStr"/>
+      <c r="CA99" s="25" t="inlineStr"/>
+      <c r="CB99" s="26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dist/DIP_Excel_Template.xlsx
+++ b/dist/DIP_Excel_Template.xlsx
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -156,6 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -163,6 +164,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -717,89 +721,96 @@
     </comment>
     <comment ref="BP1" authorId="0" shapeId="0">
       <text>
+        <t>ch-environmental:
+The dataset contains environmental information.
+&lt;dhs:ch-environmental&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BQ1" authorId="0" shapeId="0">
+      <text>
         <t>ch-fisa:
 The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
 &lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <t>ch-8usc1367:
 The dataset contains 8 USC 1367.
 &lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <t>ch-propin:
 The dataset contains proprietary commercial information.
 &lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <t>ch-immigration:
 The dataset contains information pertaining to immigration.
 &lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <t>ch-criticalInfrastructure:
 The dataset contains critical infrastructure information.
 &lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0" shapeId="0">
       <text>
         <t>ch-disseminationRestrictions:
 The information has dissemination restrictions.
 &lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <t>hostingLocation:
 Where the data physically reside.
 &lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <t>hostedInCloud:
 If the dataset's location is in the cloud.
 &lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByCreatingComponent:
 The information can be easily accessed by individuals within the component that created it.
 &lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByAllComponents:
 The information can be easily accessed by individuals within all department component.
 &lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByGeneralPublic:
 The information can be easily accessed by the general public.
 &lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <t>recordTransmission:
 When the metadata record was transmitted.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
 When the metadata record is valid.
@@ -1149,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB99"/>
+  <dimension ref="A1:CC99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1248,7 @@
     <col width="15" customWidth="1" min="78" max="78"/>
     <col width="15" customWidth="1" min="79" max="79"/>
     <col width="15" customWidth="1" min="80" max="80"/>
+    <col width="15" customWidth="1" min="81" max="81"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1577,65 +1589,70 @@
       </c>
       <c r="BP1" s="9" t="inlineStr">
         <is>
-          <t>ch-fisa</t>
+          <t>ch-environmental</t>
         </is>
       </c>
       <c r="BQ1" s="9" t="inlineStr">
         <is>
-          <t>ch-8usc1367</t>
+          <t>ch-fisa</t>
         </is>
       </c>
       <c r="BR1" s="9" t="inlineStr">
         <is>
-          <t>ch-propin</t>
+          <t>ch-8usc1367</t>
         </is>
       </c>
       <c r="BS1" s="9" t="inlineStr">
         <is>
-          <t>ch-immigration</t>
+          <t>ch-propin</t>
         </is>
       </c>
       <c r="BT1" s="9" t="inlineStr">
         <is>
-          <t>ch-criticalInfrastructure</t>
+          <t>ch-immigration</t>
         </is>
       </c>
       <c r="BU1" s="9" t="inlineStr">
         <is>
+          <t>ch-criticalInfrastructure</t>
+        </is>
+      </c>
+      <c r="BV1" s="9" t="inlineStr">
+        <is>
           <t>ch-disseminationRestrictions</t>
         </is>
       </c>
-      <c r="BV1" s="10" t="inlineStr">
+      <c r="BW1" s="10" t="inlineStr">
         <is>
           <t>hostingLocation</t>
         </is>
       </c>
-      <c r="BW1" s="15" t="inlineStr">
+      <c r="BX1" s="15" t="inlineStr">
         <is>
           <t>hostedInCloud</t>
         </is>
       </c>
-      <c r="BX1" s="15" t="inlineStr">
+      <c r="BY1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByCreatingComponent</t>
         </is>
       </c>
-      <c r="BY1" s="15" t="inlineStr">
+      <c r="BZ1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByAllComponents</t>
         </is>
       </c>
-      <c r="BZ1" s="15" t="inlineStr">
+      <c r="CA1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByGeneralPublic</t>
         </is>
       </c>
-      <c r="CA1" s="11" t="inlineStr">
+      <c r="CB1" s="11" t="inlineStr">
         <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="CB1" s="12" t="inlineStr">
+      <c r="CC1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
         </is>
@@ -1668,23 +1685,23 @@
       <c r="X2" s="20" t="inlineStr"/>
       <c r="Y2" s="21" t="inlineStr"/>
       <c r="Z2" s="21" t="inlineStr"/>
-      <c r="AA2" s="21" t="inlineStr"/>
-      <c r="AB2" s="21" t="inlineStr"/>
+      <c r="AA2" s="22" t="inlineStr"/>
+      <c r="AB2" s="22" t="inlineStr"/>
       <c r="AC2" s="21" t="inlineStr"/>
-      <c r="AD2" s="22" t="inlineStr"/>
-      <c r="AE2" s="23" t="inlineStr"/>
-      <c r="AF2" s="23" t="inlineStr"/>
-      <c r="AG2" s="23" t="inlineStr"/>
-      <c r="AH2" s="23" t="inlineStr"/>
-      <c r="AI2" s="24" t="inlineStr"/>
-      <c r="AJ2" s="25" t="inlineStr"/>
-      <c r="AK2" s="26" t="inlineStr"/>
-      <c r="AL2" s="27" t="inlineStr"/>
-      <c r="AM2" s="28" t="inlineStr"/>
-      <c r="AN2" s="16" t="inlineStr"/>
+      <c r="AD2" s="23" t="inlineStr"/>
+      <c r="AE2" s="24" t="inlineStr"/>
+      <c r="AF2" s="24" t="inlineStr"/>
+      <c r="AG2" s="24" t="inlineStr"/>
+      <c r="AH2" s="24" t="inlineStr"/>
+      <c r="AI2" s="25" t="inlineStr"/>
+      <c r="AJ2" s="26" t="inlineStr"/>
+      <c r="AK2" s="27" t="inlineStr"/>
+      <c r="AL2" s="28" t="inlineStr"/>
+      <c r="AM2" s="29" t="inlineStr"/>
+      <c r="AN2" s="30" t="inlineStr"/>
       <c r="AO2" s="17" t="inlineStr"/>
       <c r="AP2" s="17" t="inlineStr"/>
-      <c r="AQ2" s="17" t="inlineStr"/>
+      <c r="AQ2" s="31" t="inlineStr"/>
       <c r="AR2" s="18" t="inlineStr"/>
       <c r="AS2" s="19" t="inlineStr"/>
       <c r="AT2" s="19" t="inlineStr"/>
@@ -1698,30 +1715,31 @@
       <c r="BB2" s="20" t="inlineStr"/>
       <c r="BC2" s="21" t="inlineStr"/>
       <c r="BD2" s="21" t="inlineStr"/>
-      <c r="BE2" s="22" t="inlineStr"/>
-      <c r="BF2" s="23" t="inlineStr"/>
-      <c r="BG2" s="23" t="inlineStr"/>
-      <c r="BH2" s="23" t="inlineStr"/>
-      <c r="BI2" s="23" t="inlineStr"/>
-      <c r="BJ2" s="23" t="inlineStr"/>
-      <c r="BK2" s="23" t="inlineStr"/>
-      <c r="BL2" s="23" t="inlineStr"/>
-      <c r="BM2" s="23" t="inlineStr"/>
-      <c r="BN2" s="23" t="inlineStr"/>
-      <c r="BO2" s="23" t="inlineStr"/>
-      <c r="BP2" s="23" t="inlineStr"/>
-      <c r="BQ2" s="23" t="inlineStr"/>
-      <c r="BR2" s="23" t="inlineStr"/>
-      <c r="BS2" s="23" t="inlineStr"/>
-      <c r="BT2" s="23" t="inlineStr"/>
-      <c r="BU2" s="23" t="inlineStr"/>
-      <c r="BV2" s="24" t="inlineStr"/>
-      <c r="BW2" s="29" t="inlineStr"/>
-      <c r="BX2" s="29" t="inlineStr"/>
-      <c r="BY2" s="29" t="inlineStr"/>
-      <c r="BZ2" s="29" t="inlineStr"/>
-      <c r="CA2" s="25" t="inlineStr"/>
+      <c r="BE2" s="23" t="inlineStr"/>
+      <c r="BF2" s="24" t="inlineStr"/>
+      <c r="BG2" s="32" t="inlineStr"/>
+      <c r="BH2" s="32" t="inlineStr"/>
+      <c r="BI2" s="32" t="inlineStr"/>
+      <c r="BJ2" s="32" t="inlineStr"/>
+      <c r="BK2" s="32" t="inlineStr"/>
+      <c r="BL2" s="32" t="inlineStr"/>
+      <c r="BM2" s="32" t="inlineStr"/>
+      <c r="BN2" s="32" t="inlineStr"/>
+      <c r="BO2" s="32" t="inlineStr"/>
+      <c r="BP2" s="32" t="inlineStr"/>
+      <c r="BQ2" s="32" t="inlineStr"/>
+      <c r="BR2" s="32" t="inlineStr"/>
+      <c r="BS2" s="32" t="inlineStr"/>
+      <c r="BT2" s="32" t="inlineStr"/>
+      <c r="BU2" s="32" t="inlineStr"/>
+      <c r="BV2" s="32" t="inlineStr"/>
+      <c r="BW2" s="25" t="inlineStr"/>
+      <c r="BX2" s="33" t="inlineStr"/>
+      <c r="BY2" s="33" t="inlineStr"/>
+      <c r="BZ2" s="33" t="inlineStr"/>
+      <c r="CA2" s="33" t="inlineStr"/>
       <c r="CB2" s="26" t="inlineStr"/>
+      <c r="CC2" s="27" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1750,23 +1768,23 @@
       <c r="X3" s="20" t="inlineStr"/>
       <c r="Y3" s="21" t="inlineStr"/>
       <c r="Z3" s="21" t="inlineStr"/>
-      <c r="AA3" s="21" t="inlineStr"/>
-      <c r="AB3" s="21" t="inlineStr"/>
+      <c r="AA3" s="22" t="inlineStr"/>
+      <c r="AB3" s="22" t="inlineStr"/>
       <c r="AC3" s="21" t="inlineStr"/>
-      <c r="AD3" s="22" t="inlineStr"/>
-      <c r="AE3" s="23" t="inlineStr"/>
-      <c r="AF3" s="23" t="inlineStr"/>
-      <c r="AG3" s="23" t="inlineStr"/>
-      <c r="AH3" s="23" t="inlineStr"/>
-      <c r="AI3" s="24" t="inlineStr"/>
-      <c r="AJ3" s="25" t="inlineStr"/>
-      <c r="AK3" s="26" t="inlineStr"/>
-      <c r="AL3" s="27" t="inlineStr"/>
-      <c r="AM3" s="28" t="inlineStr"/>
-      <c r="AN3" s="16" t="inlineStr"/>
+      <c r="AD3" s="23" t="inlineStr"/>
+      <c r="AE3" s="24" t="inlineStr"/>
+      <c r="AF3" s="24" t="inlineStr"/>
+      <c r="AG3" s="24" t="inlineStr"/>
+      <c r="AH3" s="24" t="inlineStr"/>
+      <c r="AI3" s="25" t="inlineStr"/>
+      <c r="AJ3" s="26" t="inlineStr"/>
+      <c r="AK3" s="27" t="inlineStr"/>
+      <c r="AL3" s="28" t="inlineStr"/>
+      <c r="AM3" s="29" t="inlineStr"/>
+      <c r="AN3" s="30" t="inlineStr"/>
       <c r="AO3" s="17" t="inlineStr"/>
       <c r="AP3" s="17" t="inlineStr"/>
-      <c r="AQ3" s="17" t="inlineStr"/>
+      <c r="AQ3" s="31" t="inlineStr"/>
       <c r="AR3" s="18" t="inlineStr"/>
       <c r="AS3" s="19" t="inlineStr"/>
       <c r="AT3" s="19" t="inlineStr"/>
@@ -1780,30 +1798,31 @@
       <c r="BB3" s="20" t="inlineStr"/>
       <c r="BC3" s="21" t="inlineStr"/>
       <c r="BD3" s="21" t="inlineStr"/>
-      <c r="BE3" s="22" t="inlineStr"/>
-      <c r="BF3" s="23" t="inlineStr"/>
-      <c r="BG3" s="23" t="inlineStr"/>
-      <c r="BH3" s="23" t="inlineStr"/>
-      <c r="BI3" s="23" t="inlineStr"/>
-      <c r="BJ3" s="23" t="inlineStr"/>
-      <c r="BK3" s="23" t="inlineStr"/>
-      <c r="BL3" s="23" t="inlineStr"/>
-      <c r="BM3" s="23" t="inlineStr"/>
-      <c r="BN3" s="23" t="inlineStr"/>
-      <c r="BO3" s="23" t="inlineStr"/>
-      <c r="BP3" s="23" t="inlineStr"/>
-      <c r="BQ3" s="23" t="inlineStr"/>
-      <c r="BR3" s="23" t="inlineStr"/>
-      <c r="BS3" s="23" t="inlineStr"/>
-      <c r="BT3" s="23" t="inlineStr"/>
-      <c r="BU3" s="23" t="inlineStr"/>
-      <c r="BV3" s="24" t="inlineStr"/>
-      <c r="BW3" s="29" t="inlineStr"/>
-      <c r="BX3" s="29" t="inlineStr"/>
-      <c r="BY3" s="29" t="inlineStr"/>
-      <c r="BZ3" s="29" t="inlineStr"/>
-      <c r="CA3" s="25" t="inlineStr"/>
+      <c r="BE3" s="23" t="inlineStr"/>
+      <c r="BF3" s="24" t="inlineStr"/>
+      <c r="BG3" s="32" t="inlineStr"/>
+      <c r="BH3" s="32" t="inlineStr"/>
+      <c r="BI3" s="32" t="inlineStr"/>
+      <c r="BJ3" s="32" t="inlineStr"/>
+      <c r="BK3" s="32" t="inlineStr"/>
+      <c r="BL3" s="32" t="inlineStr"/>
+      <c r="BM3" s="32" t="inlineStr"/>
+      <c r="BN3" s="32" t="inlineStr"/>
+      <c r="BO3" s="32" t="inlineStr"/>
+      <c r="BP3" s="32" t="inlineStr"/>
+      <c r="BQ3" s="32" t="inlineStr"/>
+      <c r="BR3" s="32" t="inlineStr"/>
+      <c r="BS3" s="32" t="inlineStr"/>
+      <c r="BT3" s="32" t="inlineStr"/>
+      <c r="BU3" s="32" t="inlineStr"/>
+      <c r="BV3" s="32" t="inlineStr"/>
+      <c r="BW3" s="25" t="inlineStr"/>
+      <c r="BX3" s="33" t="inlineStr"/>
+      <c r="BY3" s="33" t="inlineStr"/>
+      <c r="BZ3" s="33" t="inlineStr"/>
+      <c r="CA3" s="33" t="inlineStr"/>
       <c r="CB3" s="26" t="inlineStr"/>
+      <c r="CC3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1832,23 +1851,23 @@
       <c r="X4" s="20" t="inlineStr"/>
       <c r="Y4" s="21" t="inlineStr"/>
       <c r="Z4" s="21" t="inlineStr"/>
-      <c r="AA4" s="21" t="inlineStr"/>
-      <c r="AB4" s="21" t="inlineStr"/>
+      <c r="AA4" s="22" t="inlineStr"/>
+      <c r="AB4" s="22" t="inlineStr"/>
       <c r="AC4" s="21" t="inlineStr"/>
-      <c r="AD4" s="22" t="inlineStr"/>
-      <c r="AE4" s="23" t="inlineStr"/>
-      <c r="AF4" s="23" t="inlineStr"/>
-      <c r="AG4" s="23" t="inlineStr"/>
-      <c r="AH4" s="23" t="inlineStr"/>
-      <c r="AI4" s="24" t="inlineStr"/>
-      <c r="AJ4" s="25" t="inlineStr"/>
-      <c r="AK4" s="26" t="inlineStr"/>
-      <c r="AL4" s="27" t="inlineStr"/>
-      <c r="AM4" s="28" t="inlineStr"/>
-      <c r="AN4" s="16" t="inlineStr"/>
+      <c r="AD4" s="23" t="inlineStr"/>
+      <c r="AE4" s="24" t="inlineStr"/>
+      <c r="AF4" s="24" t="inlineStr"/>
+      <c r="AG4" s="24" t="inlineStr"/>
+      <c r="AH4" s="24" t="inlineStr"/>
+      <c r="AI4" s="25" t="inlineStr"/>
+      <c r="AJ4" s="26" t="inlineStr"/>
+      <c r="AK4" s="27" t="inlineStr"/>
+      <c r="AL4" s="28" t="inlineStr"/>
+      <c r="AM4" s="29" t="inlineStr"/>
+      <c r="AN4" s="30" t="inlineStr"/>
       <c r="AO4" s="17" t="inlineStr"/>
       <c r="AP4" s="17" t="inlineStr"/>
-      <c r="AQ4" s="17" t="inlineStr"/>
+      <c r="AQ4" s="31" t="inlineStr"/>
       <c r="AR4" s="18" t="inlineStr"/>
       <c r="AS4" s="19" t="inlineStr"/>
       <c r="AT4" s="19" t="inlineStr"/>
@@ -1862,30 +1881,31 @@
       <c r="BB4" s="20" t="inlineStr"/>
       <c r="BC4" s="21" t="inlineStr"/>
       <c r="BD4" s="21" t="inlineStr"/>
-      <c r="BE4" s="22" t="inlineStr"/>
-      <c r="BF4" s="23" t="inlineStr"/>
-      <c r="BG4" s="23" t="inlineStr"/>
-      <c r="BH4" s="23" t="inlineStr"/>
-      <c r="BI4" s="23" t="inlineStr"/>
-      <c r="BJ4" s="23" t="inlineStr"/>
-      <c r="BK4" s="23" t="inlineStr"/>
-      <c r="BL4" s="23" t="inlineStr"/>
-      <c r="BM4" s="23" t="inlineStr"/>
-      <c r="BN4" s="23" t="inlineStr"/>
-      <c r="BO4" s="23" t="inlineStr"/>
-      <c r="BP4" s="23" t="inlineStr"/>
-      <c r="BQ4" s="23" t="inlineStr"/>
-      <c r="BR4" s="23" t="inlineStr"/>
-      <c r="BS4" s="23" t="inlineStr"/>
-      <c r="BT4" s="23" t="inlineStr"/>
-      <c r="BU4" s="23" t="inlineStr"/>
-      <c r="BV4" s="24" t="inlineStr"/>
-      <c r="BW4" s="29" t="inlineStr"/>
-      <c r="BX4" s="29" t="inlineStr"/>
-      <c r="BY4" s="29" t="inlineStr"/>
-      <c r="BZ4" s="29" t="inlineStr"/>
-      <c r="CA4" s="25" t="inlineStr"/>
+      <c r="BE4" s="23" t="inlineStr"/>
+      <c r="BF4" s="24" t="inlineStr"/>
+      <c r="BG4" s="32" t="inlineStr"/>
+      <c r="BH4" s="32" t="inlineStr"/>
+      <c r="BI4" s="32" t="inlineStr"/>
+      <c r="BJ4" s="32" t="inlineStr"/>
+      <c r="BK4" s="32" t="inlineStr"/>
+      <c r="BL4" s="32" t="inlineStr"/>
+      <c r="BM4" s="32" t="inlineStr"/>
+      <c r="BN4" s="32" t="inlineStr"/>
+      <c r="BO4" s="32" t="inlineStr"/>
+      <c r="BP4" s="32" t="inlineStr"/>
+      <c r="BQ4" s="32" t="inlineStr"/>
+      <c r="BR4" s="32" t="inlineStr"/>
+      <c r="BS4" s="32" t="inlineStr"/>
+      <c r="BT4" s="32" t="inlineStr"/>
+      <c r="BU4" s="32" t="inlineStr"/>
+      <c r="BV4" s="32" t="inlineStr"/>
+      <c r="BW4" s="25" t="inlineStr"/>
+      <c r="BX4" s="33" t="inlineStr"/>
+      <c r="BY4" s="33" t="inlineStr"/>
+      <c r="BZ4" s="33" t="inlineStr"/>
+      <c r="CA4" s="33" t="inlineStr"/>
       <c r="CB4" s="26" t="inlineStr"/>
+      <c r="CC4" s="27" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -1914,23 +1934,23 @@
       <c r="X5" s="20" t="inlineStr"/>
       <c r="Y5" s="21" t="inlineStr"/>
       <c r="Z5" s="21" t="inlineStr"/>
-      <c r="AA5" s="21" t="inlineStr"/>
-      <c r="AB5" s="21" t="inlineStr"/>
+      <c r="AA5" s="22" t="inlineStr"/>
+      <c r="AB5" s="22" t="inlineStr"/>
       <c r="AC5" s="21" t="inlineStr"/>
-      <c r="AD5" s="22" t="inlineStr"/>
-      <c r="AE5" s="23" t="inlineStr"/>
-      <c r="AF5" s="23" t="inlineStr"/>
-      <c r="AG5" s="23" t="inlineStr"/>
-      <c r="AH5" s="23" t="inlineStr"/>
-      <c r="AI5" s="24" t="inlineStr"/>
-      <c r="AJ5" s="25" t="inlineStr"/>
-      <c r="AK5" s="26" t="inlineStr"/>
-      <c r="AL5" s="27" t="inlineStr"/>
-      <c r="AM5" s="28" t="inlineStr"/>
-      <c r="AN5" s="16" t="inlineStr"/>
+      <c r="AD5" s="23" t="inlineStr"/>
+      <c r="AE5" s="24" t="inlineStr"/>
+      <c r="AF5" s="24" t="inlineStr"/>
+      <c r="AG5" s="24" t="inlineStr"/>
+      <c r="AH5" s="24" t="inlineStr"/>
+      <c r="AI5" s="25" t="inlineStr"/>
+      <c r="AJ5" s="26" t="inlineStr"/>
+      <c r="AK5" s="27" t="inlineStr"/>
+      <c r="AL5" s="28" t="inlineStr"/>
+      <c r="AM5" s="29" t="inlineStr"/>
+      <c r="AN5" s="30" t="inlineStr"/>
       <c r="AO5" s="17" t="inlineStr"/>
       <c r="AP5" s="17" t="inlineStr"/>
-      <c r="AQ5" s="17" t="inlineStr"/>
+      <c r="AQ5" s="31" t="inlineStr"/>
       <c r="AR5" s="18" t="inlineStr"/>
       <c r="AS5" s="19" t="inlineStr"/>
       <c r="AT5" s="19" t="inlineStr"/>
@@ -1944,30 +1964,31 @@
       <c r="BB5" s="20" t="inlineStr"/>
       <c r="BC5" s="21" t="inlineStr"/>
       <c r="BD5" s="21" t="inlineStr"/>
-      <c r="BE5" s="22" t="inlineStr"/>
-      <c r="BF5" s="23" t="inlineStr"/>
-      <c r="BG5" s="23" t="inlineStr"/>
-      <c r="BH5" s="23" t="inlineStr"/>
-      <c r="BI5" s="23" t="inlineStr"/>
-      <c r="BJ5" s="23" t="inlineStr"/>
-      <c r="BK5" s="23" t="inlineStr"/>
-      <c r="BL5" s="23" t="inlineStr"/>
-      <c r="BM5" s="23" t="inlineStr"/>
-      <c r="BN5" s="23" t="inlineStr"/>
-      <c r="BO5" s="23" t="inlineStr"/>
-      <c r="BP5" s="23" t="inlineStr"/>
-      <c r="BQ5" s="23" t="inlineStr"/>
-      <c r="BR5" s="23" t="inlineStr"/>
-      <c r="BS5" s="23" t="inlineStr"/>
-      <c r="BT5" s="23" t="inlineStr"/>
-      <c r="BU5" s="23" t="inlineStr"/>
-      <c r="BV5" s="24" t="inlineStr"/>
-      <c r="BW5" s="29" t="inlineStr"/>
-      <c r="BX5" s="29" t="inlineStr"/>
-      <c r="BY5" s="29" t="inlineStr"/>
-      <c r="BZ5" s="29" t="inlineStr"/>
-      <c r="CA5" s="25" t="inlineStr"/>
+      <c r="BE5" s="23" t="inlineStr"/>
+      <c r="BF5" s="24" t="inlineStr"/>
+      <c r="BG5" s="32" t="inlineStr"/>
+      <c r="BH5" s="32" t="inlineStr"/>
+      <c r="BI5" s="32" t="inlineStr"/>
+      <c r="BJ5" s="32" t="inlineStr"/>
+      <c r="BK5" s="32" t="inlineStr"/>
+      <c r="BL5" s="32" t="inlineStr"/>
+      <c r="BM5" s="32" t="inlineStr"/>
+      <c r="BN5" s="32" t="inlineStr"/>
+      <c r="BO5" s="32" t="inlineStr"/>
+      <c r="BP5" s="32" t="inlineStr"/>
+      <c r="BQ5" s="32" t="inlineStr"/>
+      <c r="BR5" s="32" t="inlineStr"/>
+      <c r="BS5" s="32" t="inlineStr"/>
+      <c r="BT5" s="32" t="inlineStr"/>
+      <c r="BU5" s="32" t="inlineStr"/>
+      <c r="BV5" s="32" t="inlineStr"/>
+      <c r="BW5" s="25" t="inlineStr"/>
+      <c r="BX5" s="33" t="inlineStr"/>
+      <c r="BY5" s="33" t="inlineStr"/>
+      <c r="BZ5" s="33" t="inlineStr"/>
+      <c r="CA5" s="33" t="inlineStr"/>
       <c r="CB5" s="26" t="inlineStr"/>
+      <c r="CC5" s="27" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -1996,23 +2017,23 @@
       <c r="X6" s="20" t="inlineStr"/>
       <c r="Y6" s="21" t="inlineStr"/>
       <c r="Z6" s="21" t="inlineStr"/>
-      <c r="AA6" s="21" t="inlineStr"/>
-      <c r="AB6" s="21" t="inlineStr"/>
+      <c r="AA6" s="22" t="inlineStr"/>
+      <c r="AB6" s="22" t="inlineStr"/>
       <c r="AC6" s="21" t="inlineStr"/>
-      <c r="AD6" s="22" t="inlineStr"/>
-      <c r="AE6" s="23" t="inlineStr"/>
-      <c r="AF6" s="23" t="inlineStr"/>
-      <c r="AG6" s="23" t="inlineStr"/>
-      <c r="AH6" s="23" t="inlineStr"/>
-      <c r="AI6" s="24" t="inlineStr"/>
-      <c r="AJ6" s="25" t="inlineStr"/>
-      <c r="AK6" s="26" t="inlineStr"/>
-      <c r="AL6" s="27" t="inlineStr"/>
-      <c r="AM6" s="28" t="inlineStr"/>
-      <c r="AN6" s="16" t="inlineStr"/>
+      <c r="AD6" s="23" t="inlineStr"/>
+      <c r="AE6" s="24" t="inlineStr"/>
+      <c r="AF6" s="24" t="inlineStr"/>
+      <c r="AG6" s="24" t="inlineStr"/>
+      <c r="AH6" s="24" t="inlineStr"/>
+      <c r="AI6" s="25" t="inlineStr"/>
+      <c r="AJ6" s="26" t="inlineStr"/>
+      <c r="AK6" s="27" t="inlineStr"/>
+      <c r="AL6" s="28" t="inlineStr"/>
+      <c r="AM6" s="29" t="inlineStr"/>
+      <c r="AN6" s="30" t="inlineStr"/>
       <c r="AO6" s="17" t="inlineStr"/>
       <c r="AP6" s="17" t="inlineStr"/>
-      <c r="AQ6" s="17" t="inlineStr"/>
+      <c r="AQ6" s="31" t="inlineStr"/>
       <c r="AR6" s="18" t="inlineStr"/>
       <c r="AS6" s="19" t="inlineStr"/>
       <c r="AT6" s="19" t="inlineStr"/>
@@ -2026,30 +2047,31 @@
       <c r="BB6" s="20" t="inlineStr"/>
       <c r="BC6" s="21" t="inlineStr"/>
       <c r="BD6" s="21" t="inlineStr"/>
-      <c r="BE6" s="22" t="inlineStr"/>
-      <c r="BF6" s="23" t="inlineStr"/>
-      <c r="BG6" s="23" t="inlineStr"/>
-      <c r="BH6" s="23" t="inlineStr"/>
-      <c r="BI6" s="23" t="inlineStr"/>
-      <c r="BJ6" s="23" t="inlineStr"/>
-      <c r="BK6" s="23" t="inlineStr"/>
-      <c r="BL6" s="23" t="inlineStr"/>
-      <c r="BM6" s="23" t="inlineStr"/>
-      <c r="BN6" s="23" t="inlineStr"/>
-      <c r="BO6" s="23" t="inlineStr"/>
-      <c r="BP6" s="23" t="inlineStr"/>
-      <c r="BQ6" s="23" t="inlineStr"/>
-      <c r="BR6" s="23" t="inlineStr"/>
-      <c r="BS6" s="23" t="inlineStr"/>
-      <c r="BT6" s="23" t="inlineStr"/>
-      <c r="BU6" s="23" t="inlineStr"/>
-      <c r="BV6" s="24" t="inlineStr"/>
-      <c r="BW6" s="29" t="inlineStr"/>
-      <c r="BX6" s="29" t="inlineStr"/>
-      <c r="BY6" s="29" t="inlineStr"/>
-      <c r="BZ6" s="29" t="inlineStr"/>
-      <c r="CA6" s="25" t="inlineStr"/>
+      <c r="BE6" s="23" t="inlineStr"/>
+      <c r="BF6" s="24" t="inlineStr"/>
+      <c r="BG6" s="32" t="inlineStr"/>
+      <c r="BH6" s="32" t="inlineStr"/>
+      <c r="BI6" s="32" t="inlineStr"/>
+      <c r="BJ6" s="32" t="inlineStr"/>
+      <c r="BK6" s="32" t="inlineStr"/>
+      <c r="BL6" s="32" t="inlineStr"/>
+      <c r="BM6" s="32" t="inlineStr"/>
+      <c r="BN6" s="32" t="inlineStr"/>
+      <c r="BO6" s="32" t="inlineStr"/>
+      <c r="BP6" s="32" t="inlineStr"/>
+      <c r="BQ6" s="32" t="inlineStr"/>
+      <c r="BR6" s="32" t="inlineStr"/>
+      <c r="BS6" s="32" t="inlineStr"/>
+      <c r="BT6" s="32" t="inlineStr"/>
+      <c r="BU6" s="32" t="inlineStr"/>
+      <c r="BV6" s="32" t="inlineStr"/>
+      <c r="BW6" s="25" t="inlineStr"/>
+      <c r="BX6" s="33" t="inlineStr"/>
+      <c r="BY6" s="33" t="inlineStr"/>
+      <c r="BZ6" s="33" t="inlineStr"/>
+      <c r="CA6" s="33" t="inlineStr"/>
       <c r="CB6" s="26" t="inlineStr"/>
+      <c r="CC6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2078,23 +2100,23 @@
       <c r="X7" s="20" t="inlineStr"/>
       <c r="Y7" s="21" t="inlineStr"/>
       <c r="Z7" s="21" t="inlineStr"/>
-      <c r="AA7" s="21" t="inlineStr"/>
-      <c r="AB7" s="21" t="inlineStr"/>
+      <c r="AA7" s="22" t="inlineStr"/>
+      <c r="AB7" s="22" t="inlineStr"/>
       <c r="AC7" s="21" t="inlineStr"/>
-      <c r="AD7" s="22" t="inlineStr"/>
-      <c r="AE7" s="23" t="inlineStr"/>
-      <c r="AF7" s="23" t="inlineStr"/>
-      <c r="AG7" s="23" t="inlineStr"/>
-      <c r="AH7" s="23" t="inlineStr"/>
-      <c r="AI7" s="24" t="inlineStr"/>
-      <c r="AJ7" s="25" t="inlineStr"/>
-      <c r="AK7" s="26" t="inlineStr"/>
-      <c r="AL7" s="27" t="inlineStr"/>
-      <c r="AM7" s="28" t="inlineStr"/>
-      <c r="AN7" s="16" t="inlineStr"/>
+      <c r="AD7" s="23" t="inlineStr"/>
+      <c r="AE7" s="24" t="inlineStr"/>
+      <c r="AF7" s="24" t="inlineStr"/>
+      <c r="AG7" s="24" t="inlineStr"/>
+      <c r="AH7" s="24" t="inlineStr"/>
+      <c r="AI7" s="25" t="inlineStr"/>
+      <c r="AJ7" s="26" t="inlineStr"/>
+      <c r="AK7" s="27" t="inlineStr"/>
+      <c r="AL7" s="28" t="inlineStr"/>
+      <c r="AM7" s="29" t="inlineStr"/>
+      <c r="AN7" s="30" t="inlineStr"/>
       <c r="AO7" s="17" t="inlineStr"/>
       <c r="AP7" s="17" t="inlineStr"/>
-      <c r="AQ7" s="17" t="inlineStr"/>
+      <c r="AQ7" s="31" t="inlineStr"/>
       <c r="AR7" s="18" t="inlineStr"/>
       <c r="AS7" s="19" t="inlineStr"/>
       <c r="AT7" s="19" t="inlineStr"/>
@@ -2108,30 +2130,31 @@
       <c r="BB7" s="20" t="inlineStr"/>
       <c r="BC7" s="21" t="inlineStr"/>
       <c r="BD7" s="21" t="inlineStr"/>
-      <c r="BE7" s="22" t="inlineStr"/>
-      <c r="BF7" s="23" t="inlineStr"/>
-      <c r="BG7" s="23" t="inlineStr"/>
-      <c r="BH7" s="23" t="inlineStr"/>
-      <c r="BI7" s="23" t="inlineStr"/>
-      <c r="BJ7" s="23" t="inlineStr"/>
-      <c r="BK7" s="23" t="inlineStr"/>
-      <c r="BL7" s="23" t="inlineStr"/>
-      <c r="BM7" s="23" t="inlineStr"/>
-      <c r="BN7" s="23" t="inlineStr"/>
-      <c r="BO7" s="23" t="inlineStr"/>
-      <c r="BP7" s="23" t="inlineStr"/>
-      <c r="BQ7" s="23" t="inlineStr"/>
-      <c r="BR7" s="23" t="inlineStr"/>
-      <c r="BS7" s="23" t="inlineStr"/>
-      <c r="BT7" s="23" t="inlineStr"/>
-      <c r="BU7" s="23" t="inlineStr"/>
-      <c r="BV7" s="24" t="inlineStr"/>
-      <c r="BW7" s="29" t="inlineStr"/>
-      <c r="BX7" s="29" t="inlineStr"/>
-      <c r="BY7" s="29" t="inlineStr"/>
-      <c r="BZ7" s="29" t="inlineStr"/>
-      <c r="CA7" s="25" t="inlineStr"/>
+      <c r="BE7" s="23" t="inlineStr"/>
+      <c r="BF7" s="24" t="inlineStr"/>
+      <c r="BG7" s="32" t="inlineStr"/>
+      <c r="BH7" s="32" t="inlineStr"/>
+      <c r="BI7" s="32" t="inlineStr"/>
+      <c r="BJ7" s="32" t="inlineStr"/>
+      <c r="BK7" s="32" t="inlineStr"/>
+      <c r="BL7" s="32" t="inlineStr"/>
+      <c r="BM7" s="32" t="inlineStr"/>
+      <c r="BN7" s="32" t="inlineStr"/>
+      <c r="BO7" s="32" t="inlineStr"/>
+      <c r="BP7" s="32" t="inlineStr"/>
+      <c r="BQ7" s="32" t="inlineStr"/>
+      <c r="BR7" s="32" t="inlineStr"/>
+      <c r="BS7" s="32" t="inlineStr"/>
+      <c r="BT7" s="32" t="inlineStr"/>
+      <c r="BU7" s="32" t="inlineStr"/>
+      <c r="BV7" s="32" t="inlineStr"/>
+      <c r="BW7" s="25" t="inlineStr"/>
+      <c r="BX7" s="33" t="inlineStr"/>
+      <c r="BY7" s="33" t="inlineStr"/>
+      <c r="BZ7" s="33" t="inlineStr"/>
+      <c r="CA7" s="33" t="inlineStr"/>
       <c r="CB7" s="26" t="inlineStr"/>
+      <c r="CC7" s="27" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2160,23 +2183,23 @@
       <c r="X8" s="20" t="inlineStr"/>
       <c r="Y8" s="21" t="inlineStr"/>
       <c r="Z8" s="21" t="inlineStr"/>
-      <c r="AA8" s="21" t="inlineStr"/>
-      <c r="AB8" s="21" t="inlineStr"/>
+      <c r="AA8" s="22" t="inlineStr"/>
+      <c r="AB8" s="22" t="inlineStr"/>
       <c r="AC8" s="21" t="inlineStr"/>
-      <c r="AD8" s="22" t="inlineStr"/>
-      <c r="AE8" s="23" t="inlineStr"/>
-      <c r="AF8" s="23" t="inlineStr"/>
-      <c r="AG8" s="23" t="inlineStr"/>
-      <c r="AH8" s="23" t="inlineStr"/>
-      <c r="AI8" s="24" t="inlineStr"/>
-      <c r="AJ8" s="25" t="inlineStr"/>
-      <c r="AK8" s="26" t="inlineStr"/>
-      <c r="AL8" s="27" t="inlineStr"/>
-      <c r="AM8" s="28" t="inlineStr"/>
-      <c r="AN8" s="16" t="inlineStr"/>
+      <c r="AD8" s="23" t="inlineStr"/>
+      <c r="AE8" s="24" t="inlineStr"/>
+      <c r="AF8" s="24" t="inlineStr"/>
+      <c r="AG8" s="24" t="inlineStr"/>
+      <c r="AH8" s="24" t="inlineStr"/>
+      <c r="AI8" s="25" t="inlineStr"/>
+      <c r="AJ8" s="26" t="inlineStr"/>
+      <c r="AK8" s="27" t="inlineStr"/>
+      <c r="AL8" s="28" t="inlineStr"/>
+      <c r="AM8" s="29" t="inlineStr"/>
+      <c r="AN8" s="30" t="inlineStr"/>
       <c r="AO8" s="17" t="inlineStr"/>
       <c r="AP8" s="17" t="inlineStr"/>
-      <c r="AQ8" s="17" t="inlineStr"/>
+      <c r="AQ8" s="31" t="inlineStr"/>
       <c r="AR8" s="18" t="inlineStr"/>
       <c r="AS8" s="19" t="inlineStr"/>
       <c r="AT8" s="19" t="inlineStr"/>
@@ -2190,30 +2213,31 @@
       <c r="BB8" s="20" t="inlineStr"/>
       <c r="BC8" s="21" t="inlineStr"/>
       <c r="BD8" s="21" t="inlineStr"/>
-      <c r="BE8" s="22" t="inlineStr"/>
-      <c r="BF8" s="23" t="inlineStr"/>
-      <c r="BG8" s="23" t="inlineStr"/>
-      <c r="BH8" s="23" t="inlineStr"/>
-      <c r="BI8" s="23" t="inlineStr"/>
-      <c r="BJ8" s="23" t="inlineStr"/>
-      <c r="BK8" s="23" t="inlineStr"/>
-      <c r="BL8" s="23" t="inlineStr"/>
-      <c r="BM8" s="23" t="inlineStr"/>
-      <c r="BN8" s="23" t="inlineStr"/>
-      <c r="BO8" s="23" t="inlineStr"/>
-      <c r="BP8" s="23" t="inlineStr"/>
-      <c r="BQ8" s="23" t="inlineStr"/>
-      <c r="BR8" s="23" t="inlineStr"/>
-      <c r="BS8" s="23" t="inlineStr"/>
-      <c r="BT8" s="23" t="inlineStr"/>
-      <c r="BU8" s="23" t="inlineStr"/>
-      <c r="BV8" s="24" t="inlineStr"/>
-      <c r="BW8" s="29" t="inlineStr"/>
-      <c r="BX8" s="29" t="inlineStr"/>
-      <c r="BY8" s="29" t="inlineStr"/>
-      <c r="BZ8" s="29" t="inlineStr"/>
-      <c r="CA8" s="25" t="inlineStr"/>
+      <c r="BE8" s="23" t="inlineStr"/>
+      <c r="BF8" s="24" t="inlineStr"/>
+      <c r="BG8" s="32" t="inlineStr"/>
+      <c r="BH8" s="32" t="inlineStr"/>
+      <c r="BI8" s="32" t="inlineStr"/>
+      <c r="BJ8" s="32" t="inlineStr"/>
+      <c r="BK8" s="32" t="inlineStr"/>
+      <c r="BL8" s="32" t="inlineStr"/>
+      <c r="BM8" s="32" t="inlineStr"/>
+      <c r="BN8" s="32" t="inlineStr"/>
+      <c r="BO8" s="32" t="inlineStr"/>
+      <c r="BP8" s="32" t="inlineStr"/>
+      <c r="BQ8" s="32" t="inlineStr"/>
+      <c r="BR8" s="32" t="inlineStr"/>
+      <c r="BS8" s="32" t="inlineStr"/>
+      <c r="BT8" s="32" t="inlineStr"/>
+      <c r="BU8" s="32" t="inlineStr"/>
+      <c r="BV8" s="32" t="inlineStr"/>
+      <c r="BW8" s="25" t="inlineStr"/>
+      <c r="BX8" s="33" t="inlineStr"/>
+      <c r="BY8" s="33" t="inlineStr"/>
+      <c r="BZ8" s="33" t="inlineStr"/>
+      <c r="CA8" s="33" t="inlineStr"/>
       <c r="CB8" s="26" t="inlineStr"/>
+      <c r="CC8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2242,23 +2266,23 @@
       <c r="X9" s="20" t="inlineStr"/>
       <c r="Y9" s="21" t="inlineStr"/>
       <c r="Z9" s="21" t="inlineStr"/>
-      <c r="AA9" s="21" t="inlineStr"/>
-      <c r="AB9" s="21" t="inlineStr"/>
+      <c r="AA9" s="22" t="inlineStr"/>
+      <c r="AB9" s="22" t="inlineStr"/>
       <c r="AC9" s="21" t="inlineStr"/>
-      <c r="AD9" s="22" t="inlineStr"/>
-      <c r="AE9" s="23" t="inlineStr"/>
-      <c r="AF9" s="23" t="inlineStr"/>
-      <c r="AG9" s="23" t="inlineStr"/>
-      <c r="AH9" s="23" t="inlineStr"/>
-      <c r="AI9" s="24" t="inlineStr"/>
-      <c r="AJ9" s="25" t="inlineStr"/>
-      <c r="AK9" s="26" t="inlineStr"/>
-      <c r="AL9" s="27" t="inlineStr"/>
-      <c r="AM9" s="28" t="inlineStr"/>
-      <c r="AN9" s="16" t="inlineStr"/>
+      <c r="AD9" s="23" t="inlineStr"/>
+      <c r="AE9" s="24" t="inlineStr"/>
+      <c r="AF9" s="24" t="inlineStr"/>
+      <c r="AG9" s="24" t="inlineStr"/>
+      <c r="AH9" s="24" t="inlineStr"/>
+      <c r="AI9" s="25" t="inlineStr"/>
+      <c r="AJ9" s="26" t="inlineStr"/>
+      <c r="AK9" s="27" t="inlineStr"/>
+      <c r="AL9" s="28" t="inlineStr"/>
+      <c r="AM9" s="29" t="inlineStr"/>
+      <c r="AN9" s="30" t="inlineStr"/>
       <c r="AO9" s="17" t="inlineStr"/>
       <c r="AP9" s="17" t="inlineStr"/>
-      <c r="AQ9" s="17" t="inlineStr"/>
+      <c r="AQ9" s="31" t="inlineStr"/>
       <c r="AR9" s="18" t="inlineStr"/>
       <c r="AS9" s="19" t="inlineStr"/>
       <c r="AT9" s="19" t="inlineStr"/>
@@ -2272,30 +2296,31 @@
       <c r="BB9" s="20" t="inlineStr"/>
       <c r="BC9" s="21" t="inlineStr"/>
       <c r="BD9" s="21" t="inlineStr"/>
-      <c r="BE9" s="22" t="inlineStr"/>
-      <c r="BF9" s="23" t="inlineStr"/>
-      <c r="BG9" s="23" t="inlineStr"/>
-      <c r="BH9" s="23" t="inlineStr"/>
-      <c r="BI9" s="23" t="inlineStr"/>
-      <c r="BJ9" s="23" t="inlineStr"/>
-      <c r="BK9" s="23" t="inlineStr"/>
-      <c r="BL9" s="23" t="inlineStr"/>
-      <c r="BM9" s="23" t="inlineStr"/>
-      <c r="BN9" s="23" t="inlineStr"/>
-      <c r="BO9" s="23" t="inlineStr"/>
-      <c r="BP9" s="23" t="inlineStr"/>
-      <c r="BQ9" s="23" t="inlineStr"/>
-      <c r="BR9" s="23" t="inlineStr"/>
-      <c r="BS9" s="23" t="inlineStr"/>
-      <c r="BT9" s="23" t="inlineStr"/>
-      <c r="BU9" s="23" t="inlineStr"/>
-      <c r="BV9" s="24" t="inlineStr"/>
-      <c r="BW9" s="29" t="inlineStr"/>
-      <c r="BX9" s="29" t="inlineStr"/>
-      <c r="BY9" s="29" t="inlineStr"/>
-      <c r="BZ9" s="29" t="inlineStr"/>
-      <c r="CA9" s="25" t="inlineStr"/>
+      <c r="BE9" s="23" t="inlineStr"/>
+      <c r="BF9" s="24" t="inlineStr"/>
+      <c r="BG9" s="32" t="inlineStr"/>
+      <c r="BH9" s="32" t="inlineStr"/>
+      <c r="BI9" s="32" t="inlineStr"/>
+      <c r="BJ9" s="32" t="inlineStr"/>
+      <c r="BK9" s="32" t="inlineStr"/>
+      <c r="BL9" s="32" t="inlineStr"/>
+      <c r="BM9" s="32" t="inlineStr"/>
+      <c r="BN9" s="32" t="inlineStr"/>
+      <c r="BO9" s="32" t="inlineStr"/>
+      <c r="BP9" s="32" t="inlineStr"/>
+      <c r="BQ9" s="32" t="inlineStr"/>
+      <c r="BR9" s="32" t="inlineStr"/>
+      <c r="BS9" s="32" t="inlineStr"/>
+      <c r="BT9" s="32" t="inlineStr"/>
+      <c r="BU9" s="32" t="inlineStr"/>
+      <c r="BV9" s="32" t="inlineStr"/>
+      <c r="BW9" s="25" t="inlineStr"/>
+      <c r="BX9" s="33" t="inlineStr"/>
+      <c r="BY9" s="33" t="inlineStr"/>
+      <c r="BZ9" s="33" t="inlineStr"/>
+      <c r="CA9" s="33" t="inlineStr"/>
       <c r="CB9" s="26" t="inlineStr"/>
+      <c r="CC9" s="27" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2324,23 +2349,23 @@
       <c r="X10" s="20" t="inlineStr"/>
       <c r="Y10" s="21" t="inlineStr"/>
       <c r="Z10" s="21" t="inlineStr"/>
-      <c r="AA10" s="21" t="inlineStr"/>
-      <c r="AB10" s="21" t="inlineStr"/>
+      <c r="AA10" s="22" t="inlineStr"/>
+      <c r="AB10" s="22" t="inlineStr"/>
       <c r="AC10" s="21" t="inlineStr"/>
-      <c r="AD10" s="22" t="inlineStr"/>
-      <c r="AE10" s="23" t="inlineStr"/>
-      <c r="AF10" s="23" t="inlineStr"/>
-      <c r="AG10" s="23" t="inlineStr"/>
-      <c r="AH10" s="23" t="inlineStr"/>
-      <c r="AI10" s="24" t="inlineStr"/>
-      <c r="AJ10" s="25" t="inlineStr"/>
-      <c r="AK10" s="26" t="inlineStr"/>
-      <c r="AL10" s="27" t="inlineStr"/>
-      <c r="AM10" s="28" t="inlineStr"/>
-      <c r="AN10" s="16" t="inlineStr"/>
+      <c r="AD10" s="23" t="inlineStr"/>
+      <c r="AE10" s="24" t="inlineStr"/>
+      <c r="AF10" s="24" t="inlineStr"/>
+      <c r="AG10" s="24" t="inlineStr"/>
+      <c r="AH10" s="24" t="inlineStr"/>
+      <c r="AI10" s="25" t="inlineStr"/>
+      <c r="AJ10" s="26" t="inlineStr"/>
+      <c r="AK10" s="27" t="inlineStr"/>
+      <c r="AL10" s="28" t="inlineStr"/>
+      <c r="AM10" s="29" t="inlineStr"/>
+      <c r="AN10" s="30" t="inlineStr"/>
       <c r="AO10" s="17" t="inlineStr"/>
       <c r="AP10" s="17" t="inlineStr"/>
-      <c r="AQ10" s="17" t="inlineStr"/>
+      <c r="AQ10" s="31" t="inlineStr"/>
       <c r="AR10" s="18" t="inlineStr"/>
       <c r="AS10" s="19" t="inlineStr"/>
       <c r="AT10" s="19" t="inlineStr"/>
@@ -2354,30 +2379,31 @@
       <c r="BB10" s="20" t="inlineStr"/>
       <c r="BC10" s="21" t="inlineStr"/>
       <c r="BD10" s="21" t="inlineStr"/>
-      <c r="BE10" s="22" t="inlineStr"/>
-      <c r="BF10" s="23" t="inlineStr"/>
-      <c r="BG10" s="23" t="inlineStr"/>
-      <c r="BH10" s="23" t="inlineStr"/>
-      <c r="BI10" s="23" t="inlineStr"/>
-      <c r="BJ10" s="23" t="inlineStr"/>
-      <c r="BK10" s="23" t="inlineStr"/>
-      <c r="BL10" s="23" t="inlineStr"/>
-      <c r="BM10" s="23" t="inlineStr"/>
-      <c r="BN10" s="23" t="inlineStr"/>
-      <c r="BO10" s="23" t="inlineStr"/>
-      <c r="BP10" s="23" t="inlineStr"/>
-      <c r="BQ10" s="23" t="inlineStr"/>
-      <c r="BR10" s="23" t="inlineStr"/>
-      <c r="BS10" s="23" t="inlineStr"/>
-      <c r="BT10" s="23" t="inlineStr"/>
-      <c r="BU10" s="23" t="inlineStr"/>
-      <c r="BV10" s="24" t="inlineStr"/>
-      <c r="BW10" s="29" t="inlineStr"/>
-      <c r="BX10" s="29" t="inlineStr"/>
-      <c r="BY10" s="29" t="inlineStr"/>
-      <c r="BZ10" s="29" t="inlineStr"/>
-      <c r="CA10" s="25" t="inlineStr"/>
+      <c r="BE10" s="23" t="inlineStr"/>
+      <c r="BF10" s="24" t="inlineStr"/>
+      <c r="BG10" s="32" t="inlineStr"/>
+      <c r="BH10" s="32" t="inlineStr"/>
+      <c r="BI10" s="32" t="inlineStr"/>
+      <c r="BJ10" s="32" t="inlineStr"/>
+      <c r="BK10" s="32" t="inlineStr"/>
+      <c r="BL10" s="32" t="inlineStr"/>
+      <c r="BM10" s="32" t="inlineStr"/>
+      <c r="BN10" s="32" t="inlineStr"/>
+      <c r="BO10" s="32" t="inlineStr"/>
+      <c r="BP10" s="32" t="inlineStr"/>
+      <c r="BQ10" s="32" t="inlineStr"/>
+      <c r="BR10" s="32" t="inlineStr"/>
+      <c r="BS10" s="32" t="inlineStr"/>
+      <c r="BT10" s="32" t="inlineStr"/>
+      <c r="BU10" s="32" t="inlineStr"/>
+      <c r="BV10" s="32" t="inlineStr"/>
+      <c r="BW10" s="25" t="inlineStr"/>
+      <c r="BX10" s="33" t="inlineStr"/>
+      <c r="BY10" s="33" t="inlineStr"/>
+      <c r="BZ10" s="33" t="inlineStr"/>
+      <c r="CA10" s="33" t="inlineStr"/>
       <c r="CB10" s="26" t="inlineStr"/>
+      <c r="CC10" s="27" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2406,23 +2432,23 @@
       <c r="X11" s="20" t="inlineStr"/>
       <c r="Y11" s="21" t="inlineStr"/>
       <c r="Z11" s="21" t="inlineStr"/>
-      <c r="AA11" s="21" t="inlineStr"/>
-      <c r="AB11" s="21" t="inlineStr"/>
+      <c r="AA11" s="22" t="inlineStr"/>
+      <c r="AB11" s="22" t="inlineStr"/>
       <c r="AC11" s="21" t="inlineStr"/>
-      <c r="AD11" s="22" t="inlineStr"/>
-      <c r="AE11" s="23" t="inlineStr"/>
-      <c r="AF11" s="23" t="inlineStr"/>
-      <c r="AG11" s="23" t="inlineStr"/>
-      <c r="AH11" s="23" t="inlineStr"/>
-      <c r="AI11" s="24" t="inlineStr"/>
-      <c r="AJ11" s="25" t="inlineStr"/>
-      <c r="AK11" s="26" t="inlineStr"/>
-      <c r="AL11" s="27" t="inlineStr"/>
-      <c r="AM11" s="28" t="inlineStr"/>
-      <c r="AN11" s="16" t="inlineStr"/>
+      <c r="AD11" s="23" t="inlineStr"/>
+      <c r="AE11" s="24" t="inlineStr"/>
+      <c r="AF11" s="24" t="inlineStr"/>
+      <c r="AG11" s="24" t="inlineStr"/>
+      <c r="AH11" s="24" t="inlineStr"/>
+      <c r="AI11" s="25" t="inlineStr"/>
+      <c r="AJ11" s="26" t="inlineStr"/>
+      <c r="AK11" s="27" t="inlineStr"/>
+      <c r="AL11" s="28" t="inlineStr"/>
+      <c r="AM11" s="29" t="inlineStr"/>
+      <c r="AN11" s="30" t="inlineStr"/>
       <c r="AO11" s="17" t="inlineStr"/>
       <c r="AP11" s="17" t="inlineStr"/>
-      <c r="AQ11" s="17" t="inlineStr"/>
+      <c r="AQ11" s="31" t="inlineStr"/>
       <c r="AR11" s="18" t="inlineStr"/>
       <c r="AS11" s="19" t="inlineStr"/>
       <c r="AT11" s="19" t="inlineStr"/>
@@ -2436,30 +2462,31 @@
       <c r="BB11" s="20" t="inlineStr"/>
       <c r="BC11" s="21" t="inlineStr"/>
       <c r="BD11" s="21" t="inlineStr"/>
-      <c r="BE11" s="22" t="inlineStr"/>
-      <c r="BF11" s="23" t="inlineStr"/>
-      <c r="BG11" s="23" t="inlineStr"/>
-      <c r="BH11" s="23" t="inlineStr"/>
-      <c r="BI11" s="23" t="inlineStr"/>
-      <c r="BJ11" s="23" t="inlineStr"/>
-      <c r="BK11" s="23" t="inlineStr"/>
-      <c r="BL11" s="23" t="inlineStr"/>
-      <c r="BM11" s="23" t="inlineStr"/>
-      <c r="BN11" s="23" t="inlineStr"/>
-      <c r="BO11" s="23" t="inlineStr"/>
-      <c r="BP11" s="23" t="inlineStr"/>
-      <c r="BQ11" s="23" t="inlineStr"/>
-      <c r="BR11" s="23" t="inlineStr"/>
-      <c r="BS11" s="23" t="inlineStr"/>
-      <c r="BT11" s="23" t="inlineStr"/>
-      <c r="BU11" s="23" t="inlineStr"/>
-      <c r="BV11" s="24" t="inlineStr"/>
-      <c r="BW11" s="29" t="inlineStr"/>
-      <c r="BX11" s="29" t="inlineStr"/>
-      <c r="BY11" s="29" t="inlineStr"/>
-      <c r="BZ11" s="29" t="inlineStr"/>
-      <c r="CA11" s="25" t="inlineStr"/>
+      <c r="BE11" s="23" t="inlineStr"/>
+      <c r="BF11" s="24" t="inlineStr"/>
+      <c r="BG11" s="32" t="inlineStr"/>
+      <c r="BH11" s="32" t="inlineStr"/>
+      <c r="BI11" s="32" t="inlineStr"/>
+      <c r="BJ11" s="32" t="inlineStr"/>
+      <c r="BK11" s="32" t="inlineStr"/>
+      <c r="BL11" s="32" t="inlineStr"/>
+      <c r="BM11" s="32" t="inlineStr"/>
+      <c r="BN11" s="32" t="inlineStr"/>
+      <c r="BO11" s="32" t="inlineStr"/>
+      <c r="BP11" s="32" t="inlineStr"/>
+      <c r="BQ11" s="32" t="inlineStr"/>
+      <c r="BR11" s="32" t="inlineStr"/>
+      <c r="BS11" s="32" t="inlineStr"/>
+      <c r="BT11" s="32" t="inlineStr"/>
+      <c r="BU11" s="32" t="inlineStr"/>
+      <c r="BV11" s="32" t="inlineStr"/>
+      <c r="BW11" s="25" t="inlineStr"/>
+      <c r="BX11" s="33" t="inlineStr"/>
+      <c r="BY11" s="33" t="inlineStr"/>
+      <c r="BZ11" s="33" t="inlineStr"/>
+      <c r="CA11" s="33" t="inlineStr"/>
       <c r="CB11" s="26" t="inlineStr"/>
+      <c r="CC11" s="27" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2488,23 +2515,23 @@
       <c r="X12" s="20" t="inlineStr"/>
       <c r="Y12" s="21" t="inlineStr"/>
       <c r="Z12" s="21" t="inlineStr"/>
-      <c r="AA12" s="21" t="inlineStr"/>
-      <c r="AB12" s="21" t="inlineStr"/>
+      <c r="AA12" s="22" t="inlineStr"/>
+      <c r="AB12" s="22" t="inlineStr"/>
       <c r="AC12" s="21" t="inlineStr"/>
-      <c r="AD12" s="22" t="inlineStr"/>
-      <c r="AE12" s="23" t="inlineStr"/>
-      <c r="AF12" s="23" t="inlineStr"/>
-      <c r="AG12" s="23" t="inlineStr"/>
-      <c r="AH12" s="23" t="inlineStr"/>
-      <c r="AI12" s="24" t="inlineStr"/>
-      <c r="AJ12" s="25" t="inlineStr"/>
-      <c r="AK12" s="26" t="inlineStr"/>
-      <c r="AL12" s="27" t="inlineStr"/>
-      <c r="AM12" s="28" t="inlineStr"/>
-      <c r="AN12" s="16" t="inlineStr"/>
+      <c r="AD12" s="23" t="inlineStr"/>
+      <c r="AE12" s="24" t="inlineStr"/>
+      <c r="AF12" s="24" t="inlineStr"/>
+      <c r="AG12" s="24" t="inlineStr"/>
+      <c r="AH12" s="24" t="inlineStr"/>
+      <c r="AI12" s="25" t="inlineStr"/>
+      <c r="AJ12" s="26" t="inlineStr"/>
+      <c r="AK12" s="27" t="inlineStr"/>
+      <c r="AL12" s="28" t="inlineStr"/>
+      <c r="AM12" s="29" t="inlineStr"/>
+      <c r="AN12" s="30" t="inlineStr"/>
       <c r="AO12" s="17" t="inlineStr"/>
       <c r="AP12" s="17" t="inlineStr"/>
-      <c r="AQ12" s="17" t="inlineStr"/>
+      <c r="AQ12" s="31" t="inlineStr"/>
       <c r="AR12" s="18" t="inlineStr"/>
       <c r="AS12" s="19" t="inlineStr"/>
       <c r="AT12" s="19" t="inlineStr"/>
@@ -2518,30 +2545,31 @@
       <c r="BB12" s="20" t="inlineStr"/>
       <c r="BC12" s="21" t="inlineStr"/>
       <c r="BD12" s="21" t="inlineStr"/>
-      <c r="BE12" s="22" t="inlineStr"/>
-      <c r="BF12" s="23" t="inlineStr"/>
-      <c r="BG12" s="23" t="inlineStr"/>
-      <c r="BH12" s="23" t="inlineStr"/>
-      <c r="BI12" s="23" t="inlineStr"/>
-      <c r="BJ12" s="23" t="inlineStr"/>
-      <c r="BK12" s="23" t="inlineStr"/>
-      <c r="BL12" s="23" t="inlineStr"/>
-      <c r="BM12" s="23" t="inlineStr"/>
-      <c r="BN12" s="23" t="inlineStr"/>
-      <c r="BO12" s="23" t="inlineStr"/>
-      <c r="BP12" s="23" t="inlineStr"/>
-      <c r="BQ12" s="23" t="inlineStr"/>
-      <c r="BR12" s="23" t="inlineStr"/>
-      <c r="BS12" s="23" t="inlineStr"/>
-      <c r="BT12" s="23" t="inlineStr"/>
-      <c r="BU12" s="23" t="inlineStr"/>
-      <c r="BV12" s="24" t="inlineStr"/>
-      <c r="BW12" s="29" t="inlineStr"/>
-      <c r="BX12" s="29" t="inlineStr"/>
-      <c r="BY12" s="29" t="inlineStr"/>
-      <c r="BZ12" s="29" t="inlineStr"/>
-      <c r="CA12" s="25" t="inlineStr"/>
+      <c r="BE12" s="23" t="inlineStr"/>
+      <c r="BF12" s="24" t="inlineStr"/>
+      <c r="BG12" s="32" t="inlineStr"/>
+      <c r="BH12" s="32" t="inlineStr"/>
+      <c r="BI12" s="32" t="inlineStr"/>
+      <c r="BJ12" s="32" t="inlineStr"/>
+      <c r="BK12" s="32" t="inlineStr"/>
+      <c r="BL12" s="32" t="inlineStr"/>
+      <c r="BM12" s="32" t="inlineStr"/>
+      <c r="BN12" s="32" t="inlineStr"/>
+      <c r="BO12" s="32" t="inlineStr"/>
+      <c r="BP12" s="32" t="inlineStr"/>
+      <c r="BQ12" s="32" t="inlineStr"/>
+      <c r="BR12" s="32" t="inlineStr"/>
+      <c r="BS12" s="32" t="inlineStr"/>
+      <c r="BT12" s="32" t="inlineStr"/>
+      <c r="BU12" s="32" t="inlineStr"/>
+      <c r="BV12" s="32" t="inlineStr"/>
+      <c r="BW12" s="25" t="inlineStr"/>
+      <c r="BX12" s="33" t="inlineStr"/>
+      <c r="BY12" s="33" t="inlineStr"/>
+      <c r="BZ12" s="33" t="inlineStr"/>
+      <c r="CA12" s="33" t="inlineStr"/>
       <c r="CB12" s="26" t="inlineStr"/>
+      <c r="CC12" s="27" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2570,23 +2598,23 @@
       <c r="X13" s="20" t="inlineStr"/>
       <c r="Y13" s="21" t="inlineStr"/>
       <c r="Z13" s="21" t="inlineStr"/>
-      <c r="AA13" s="21" t="inlineStr"/>
-      <c r="AB13" s="21" t="inlineStr"/>
+      <c r="AA13" s="22" t="inlineStr"/>
+      <c r="AB13" s="22" t="inlineStr"/>
       <c r="AC13" s="21" t="inlineStr"/>
-      <c r="AD13" s="22" t="inlineStr"/>
-      <c r="AE13" s="23" t="inlineStr"/>
-      <c r="AF13" s="23" t="inlineStr"/>
-      <c r="AG13" s="23" t="inlineStr"/>
-      <c r="AH13" s="23" t="inlineStr"/>
-      <c r="AI13" s="24" t="inlineStr"/>
-      <c r="AJ13" s="25" t="inlineStr"/>
-      <c r="AK13" s="26" t="inlineStr"/>
-      <c r="AL13" s="27" t="inlineStr"/>
-      <c r="AM13" s="28" t="inlineStr"/>
-      <c r="AN13" s="16" t="inlineStr"/>
+      <c r="AD13" s="23" t="inlineStr"/>
+      <c r="AE13" s="24" t="inlineStr"/>
+      <c r="AF13" s="24" t="inlineStr"/>
+      <c r="AG13" s="24" t="inlineStr"/>
+      <c r="AH13" s="24" t="inlineStr"/>
+      <c r="AI13" s="25" t="inlineStr"/>
+      <c r="AJ13" s="26" t="inlineStr"/>
+      <c r="AK13" s="27" t="inlineStr"/>
+      <c r="AL13" s="28" t="inlineStr"/>
+      <c r="AM13" s="29" t="inlineStr"/>
+      <c r="AN13" s="30" t="inlineStr"/>
       <c r="AO13" s="17" t="inlineStr"/>
       <c r="AP13" s="17" t="inlineStr"/>
-      <c r="AQ13" s="17" t="inlineStr"/>
+      <c r="AQ13" s="31" t="inlineStr"/>
       <c r="AR13" s="18" t="inlineStr"/>
       <c r="AS13" s="19" t="inlineStr"/>
       <c r="AT13" s="19" t="inlineStr"/>
@@ -2600,30 +2628,31 @@
       <c r="BB13" s="20" t="inlineStr"/>
       <c r="BC13" s="21" t="inlineStr"/>
       <c r="BD13" s="21" t="inlineStr"/>
-      <c r="BE13" s="22" t="inlineStr"/>
-      <c r="BF13" s="23" t="inlineStr"/>
-      <c r="BG13" s="23" t="inlineStr"/>
-      <c r="BH13" s="23" t="inlineStr"/>
-      <c r="BI13" s="23" t="inlineStr"/>
-      <c r="BJ13" s="23" t="inlineStr"/>
-      <c r="BK13" s="23" t="inlineStr"/>
-      <c r="BL13" s="23" t="inlineStr"/>
-      <c r="BM13" s="23" t="inlineStr"/>
-      <c r="BN13" s="23" t="inlineStr"/>
-      <c r="BO13" s="23" t="inlineStr"/>
-      <c r="BP13" s="23" t="inlineStr"/>
-      <c r="BQ13" s="23" t="inlineStr"/>
-      <c r="BR13" s="23" t="inlineStr"/>
-      <c r="BS13" s="23" t="inlineStr"/>
-      <c r="BT13" s="23" t="inlineStr"/>
-      <c r="BU13" s="23" t="inlineStr"/>
-      <c r="BV13" s="24" t="inlineStr"/>
-      <c r="BW13" s="29" t="inlineStr"/>
-      <c r="BX13" s="29" t="inlineStr"/>
-      <c r="BY13" s="29" t="inlineStr"/>
-      <c r="BZ13" s="29" t="inlineStr"/>
-      <c r="CA13" s="25" t="inlineStr"/>
+      <c r="BE13" s="23" t="inlineStr"/>
+      <c r="BF13" s="24" t="inlineStr"/>
+      <c r="BG13" s="32" t="inlineStr"/>
+      <c r="BH13" s="32" t="inlineStr"/>
+      <c r="BI13" s="32" t="inlineStr"/>
+      <c r="BJ13" s="32" t="inlineStr"/>
+      <c r="BK13" s="32" t="inlineStr"/>
+      <c r="BL13" s="32" t="inlineStr"/>
+      <c r="BM13" s="32" t="inlineStr"/>
+      <c r="BN13" s="32" t="inlineStr"/>
+      <c r="BO13" s="32" t="inlineStr"/>
+      <c r="BP13" s="32" t="inlineStr"/>
+      <c r="BQ13" s="32" t="inlineStr"/>
+      <c r="BR13" s="32" t="inlineStr"/>
+      <c r="BS13" s="32" t="inlineStr"/>
+      <c r="BT13" s="32" t="inlineStr"/>
+      <c r="BU13" s="32" t="inlineStr"/>
+      <c r="BV13" s="32" t="inlineStr"/>
+      <c r="BW13" s="25" t="inlineStr"/>
+      <c r="BX13" s="33" t="inlineStr"/>
+      <c r="BY13" s="33" t="inlineStr"/>
+      <c r="BZ13" s="33" t="inlineStr"/>
+      <c r="CA13" s="33" t="inlineStr"/>
       <c r="CB13" s="26" t="inlineStr"/>
+      <c r="CC13" s="27" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2652,23 +2681,23 @@
       <c r="X14" s="20" t="inlineStr"/>
       <c r="Y14" s="21" t="inlineStr"/>
       <c r="Z14" s="21" t="inlineStr"/>
-      <c r="AA14" s="21" t="inlineStr"/>
-      <c r="AB14" s="21" t="inlineStr"/>
+      <c r="AA14" s="22" t="inlineStr"/>
+      <c r="AB14" s="22" t="inlineStr"/>
       <c r="AC14" s="21" t="inlineStr"/>
-      <c r="AD14" s="22" t="inlineStr"/>
-      <c r="AE14" s="23" t="inlineStr"/>
-      <c r="AF14" s="23" t="inlineStr"/>
-      <c r="AG14" s="23" t="inlineStr"/>
-      <c r="AH14" s="23" t="inlineStr"/>
-      <c r="AI14" s="24" t="inlineStr"/>
-      <c r="AJ14" s="25" t="inlineStr"/>
-      <c r="AK14" s="26" t="inlineStr"/>
-      <c r="AL14" s="27" t="inlineStr"/>
-      <c r="AM14" s="28" t="inlineStr"/>
-      <c r="AN14" s="16" t="inlineStr"/>
+      <c r="AD14" s="23" t="inlineStr"/>
+      <c r="AE14" s="24" t="inlineStr"/>
+      <c r="AF14" s="24" t="inlineStr"/>
+      <c r="AG14" s="24" t="inlineStr"/>
+      <c r="AH14" s="24" t="inlineStr"/>
+      <c r="AI14" s="25" t="inlineStr"/>
+      <c r="AJ14" s="26" t="inlineStr"/>
+      <c r="AK14" s="27" t="inlineStr"/>
+      <c r="AL14" s="28" t="inlineStr"/>
+      <c r="AM14" s="29" t="inlineStr"/>
+      <c r="AN14" s="30" t="inlineStr"/>
       <c r="AO14" s="17" t="inlineStr"/>
       <c r="AP14" s="17" t="inlineStr"/>
-      <c r="AQ14" s="17" t="inlineStr"/>
+      <c r="AQ14" s="31" t="inlineStr"/>
       <c r="AR14" s="18" t="inlineStr"/>
       <c r="AS14" s="19" t="inlineStr"/>
       <c r="AT14" s="19" t="inlineStr"/>
@@ -2682,30 +2711,31 @@
       <c r="BB14" s="20" t="inlineStr"/>
       <c r="BC14" s="21" t="inlineStr"/>
       <c r="BD14" s="21" t="inlineStr"/>
-      <c r="BE14" s="22" t="inlineStr"/>
-      <c r="BF14" s="23" t="inlineStr"/>
-      <c r="BG14" s="23" t="inlineStr"/>
-      <c r="BH14" s="23" t="inlineStr"/>
-      <c r="BI14" s="23" t="inlineStr"/>
-      <c r="BJ14" s="23" t="inlineStr"/>
-      <c r="BK14" s="23" t="inlineStr"/>
-      <c r="BL14" s="23" t="inlineStr"/>
-      <c r="BM14" s="23" t="inlineStr"/>
-      <c r="BN14" s="23" t="inlineStr"/>
-      <c r="BO14" s="23" t="inlineStr"/>
-      <c r="BP14" s="23" t="inlineStr"/>
-      <c r="BQ14" s="23" t="inlineStr"/>
-      <c r="BR14" s="23" t="inlineStr"/>
-      <c r="BS14" s="23" t="inlineStr"/>
-      <c r="BT14" s="23" t="inlineStr"/>
-      <c r="BU14" s="23" t="inlineStr"/>
-      <c r="BV14" s="24" t="inlineStr"/>
-      <c r="BW14" s="29" t="inlineStr"/>
-      <c r="BX14" s="29" t="inlineStr"/>
-      <c r="BY14" s="29" t="inlineStr"/>
-      <c r="BZ14" s="29" t="inlineStr"/>
-      <c r="CA14" s="25" t="inlineStr"/>
+      <c r="BE14" s="23" t="inlineStr"/>
+      <c r="BF14" s="24" t="inlineStr"/>
+      <c r="BG14" s="32" t="inlineStr"/>
+      <c r="BH14" s="32" t="inlineStr"/>
+      <c r="BI14" s="32" t="inlineStr"/>
+      <c r="BJ14" s="32" t="inlineStr"/>
+      <c r="BK14" s="32" t="inlineStr"/>
+      <c r="BL14" s="32" t="inlineStr"/>
+      <c r="BM14" s="32" t="inlineStr"/>
+      <c r="BN14" s="32" t="inlineStr"/>
+      <c r="BO14" s="32" t="inlineStr"/>
+      <c r="BP14" s="32" t="inlineStr"/>
+      <c r="BQ14" s="32" t="inlineStr"/>
+      <c r="BR14" s="32" t="inlineStr"/>
+      <c r="BS14" s="32" t="inlineStr"/>
+      <c r="BT14" s="32" t="inlineStr"/>
+      <c r="BU14" s="32" t="inlineStr"/>
+      <c r="BV14" s="32" t="inlineStr"/>
+      <c r="BW14" s="25" t="inlineStr"/>
+      <c r="BX14" s="33" t="inlineStr"/>
+      <c r="BY14" s="33" t="inlineStr"/>
+      <c r="BZ14" s="33" t="inlineStr"/>
+      <c r="CA14" s="33" t="inlineStr"/>
       <c r="CB14" s="26" t="inlineStr"/>
+      <c r="CC14" s="27" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2734,23 +2764,23 @@
       <c r="X15" s="20" t="inlineStr"/>
       <c r="Y15" s="21" t="inlineStr"/>
       <c r="Z15" s="21" t="inlineStr"/>
-      <c r="AA15" s="21" t="inlineStr"/>
-      <c r="AB15" s="21" t="inlineStr"/>
+      <c r="AA15" s="22" t="inlineStr"/>
+      <c r="AB15" s="22" t="inlineStr"/>
       <c r="AC15" s="21" t="inlineStr"/>
-      <c r="AD15" s="22" t="inlineStr"/>
-      <c r="AE15" s="23" t="inlineStr"/>
-      <c r="AF15" s="23" t="inlineStr"/>
-      <c r="AG15" s="23" t="inlineStr"/>
-      <c r="AH15" s="23" t="inlineStr"/>
-      <c r="AI15" s="24" t="inlineStr"/>
-      <c r="AJ15" s="25" t="inlineStr"/>
-      <c r="AK15" s="26" t="inlineStr"/>
-      <c r="AL15" s="27" t="inlineStr"/>
-      <c r="AM15" s="28" t="inlineStr"/>
-      <c r="AN15" s="16" t="inlineStr"/>
+      <c r="AD15" s="23" t="inlineStr"/>
+      <c r="AE15" s="24" t="inlineStr"/>
+      <c r="AF15" s="24" t="inlineStr"/>
+      <c r="AG15" s="24" t="inlineStr"/>
+      <c r="AH15" s="24" t="inlineStr"/>
+      <c r="AI15" s="25" t="inlineStr"/>
+      <c r="AJ15" s="26" t="inlineStr"/>
+      <c r="AK15" s="27" t="inlineStr"/>
+      <c r="AL15" s="28" t="inlineStr"/>
+      <c r="AM15" s="29" t="inlineStr"/>
+      <c r="AN15" s="30" t="inlineStr"/>
       <c r="AO15" s="17" t="inlineStr"/>
       <c r="AP15" s="17" t="inlineStr"/>
-      <c r="AQ15" s="17" t="inlineStr"/>
+      <c r="AQ15" s="31" t="inlineStr"/>
       <c r="AR15" s="18" t="inlineStr"/>
       <c r="AS15" s="19" t="inlineStr"/>
       <c r="AT15" s="19" t="inlineStr"/>
@@ -2764,30 +2794,31 @@
       <c r="BB15" s="20" t="inlineStr"/>
       <c r="BC15" s="21" t="inlineStr"/>
       <c r="BD15" s="21" t="inlineStr"/>
-      <c r="BE15" s="22" t="inlineStr"/>
-      <c r="BF15" s="23" t="inlineStr"/>
-      <c r="BG15" s="23" t="inlineStr"/>
-      <c r="BH15" s="23" t="inlineStr"/>
-      <c r="BI15" s="23" t="inlineStr"/>
-      <c r="BJ15" s="23" t="inlineStr"/>
-      <c r="BK15" s="23" t="inlineStr"/>
-      <c r="BL15" s="23" t="inlineStr"/>
-      <c r="BM15" s="23" t="inlineStr"/>
-      <c r="BN15" s="23" t="inlineStr"/>
-      <c r="BO15" s="23" t="inlineStr"/>
-      <c r="BP15" s="23" t="inlineStr"/>
-      <c r="BQ15" s="23" t="inlineStr"/>
-      <c r="BR15" s="23" t="inlineStr"/>
-      <c r="BS15" s="23" t="inlineStr"/>
-      <c r="BT15" s="23" t="inlineStr"/>
-      <c r="BU15" s="23" t="inlineStr"/>
-      <c r="BV15" s="24" t="inlineStr"/>
-      <c r="BW15" s="29" t="inlineStr"/>
-      <c r="BX15" s="29" t="inlineStr"/>
-      <c r="BY15" s="29" t="inlineStr"/>
-      <c r="BZ15" s="29" t="inlineStr"/>
-      <c r="CA15" s="25" t="inlineStr"/>
+      <c r="BE15" s="23" t="inlineStr"/>
+      <c r="BF15" s="24" t="inlineStr"/>
+      <c r="BG15" s="32" t="inlineStr"/>
+      <c r="BH15" s="32" t="inlineStr"/>
+      <c r="BI15" s="32" t="inlineStr"/>
+      <c r="BJ15" s="32" t="inlineStr"/>
+      <c r="BK15" s="32" t="inlineStr"/>
+      <c r="BL15" s="32" t="inlineStr"/>
+      <c r="BM15" s="32" t="inlineStr"/>
+      <c r="BN15" s="32" t="inlineStr"/>
+      <c r="BO15" s="32" t="inlineStr"/>
+      <c r="BP15" s="32" t="inlineStr"/>
+      <c r="BQ15" s="32" t="inlineStr"/>
+      <c r="BR15" s="32" t="inlineStr"/>
+      <c r="BS15" s="32" t="inlineStr"/>
+      <c r="BT15" s="32" t="inlineStr"/>
+      <c r="BU15" s="32" t="inlineStr"/>
+      <c r="BV15" s="32" t="inlineStr"/>
+      <c r="BW15" s="25" t="inlineStr"/>
+      <c r="BX15" s="33" t="inlineStr"/>
+      <c r="BY15" s="33" t="inlineStr"/>
+      <c r="BZ15" s="33" t="inlineStr"/>
+      <c r="CA15" s="33" t="inlineStr"/>
       <c r="CB15" s="26" t="inlineStr"/>
+      <c r="CC15" s="27" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2816,23 +2847,23 @@
       <c r="X16" s="20" t="inlineStr"/>
       <c r="Y16" s="21" t="inlineStr"/>
       <c r="Z16" s="21" t="inlineStr"/>
-      <c r="AA16" s="21" t="inlineStr"/>
-      <c r="AB16" s="21" t="inlineStr"/>
+      <c r="AA16" s="22" t="inlineStr"/>
+      <c r="AB16" s="22" t="inlineStr"/>
       <c r="AC16" s="21" t="inlineStr"/>
-      <c r="AD16" s="22" t="inlineStr"/>
-      <c r="AE16" s="23" t="inlineStr"/>
-      <c r="AF16" s="23" t="inlineStr"/>
-      <c r="AG16" s="23" t="inlineStr"/>
-      <c r="AH16" s="23" t="inlineStr"/>
-      <c r="AI16" s="24" t="inlineStr"/>
-      <c r="AJ16" s="25" t="inlineStr"/>
-      <c r="AK16" s="26" t="inlineStr"/>
-      <c r="AL16" s="27" t="inlineStr"/>
-      <c r="AM16" s="28" t="inlineStr"/>
-      <c r="AN16" s="16" t="inlineStr"/>
+      <c r="AD16" s="23" t="inlineStr"/>
+      <c r="AE16" s="24" t="inlineStr"/>
+      <c r="AF16" s="24" t="inlineStr"/>
+      <c r="AG16" s="24" t="inlineStr"/>
+      <c r="AH16" s="24" t="inlineStr"/>
+      <c r="AI16" s="25" t="inlineStr"/>
+      <c r="AJ16" s="26" t="inlineStr"/>
+      <c r="AK16" s="27" t="inlineStr"/>
+      <c r="AL16" s="28" t="inlineStr"/>
+      <c r="AM16" s="29" t="inlineStr"/>
+      <c r="AN16" s="30" t="inlineStr"/>
       <c r="AO16" s="17" t="inlineStr"/>
       <c r="AP16" s="17" t="inlineStr"/>
-      <c r="AQ16" s="17" t="inlineStr"/>
+      <c r="AQ16" s="31" t="inlineStr"/>
       <c r="AR16" s="18" t="inlineStr"/>
       <c r="AS16" s="19" t="inlineStr"/>
       <c r="AT16" s="19" t="inlineStr"/>
@@ -2846,30 +2877,31 @@
       <c r="BB16" s="20" t="inlineStr"/>
       <c r="BC16" s="21" t="inlineStr"/>
       <c r="BD16" s="21" t="inlineStr"/>
-      <c r="BE16" s="22" t="inlineStr"/>
-      <c r="BF16" s="23" t="inlineStr"/>
-      <c r="BG16" s="23" t="inlineStr"/>
-      <c r="BH16" s="23" t="inlineStr"/>
-      <c r="BI16" s="23" t="inlineStr"/>
-      <c r="BJ16" s="23" t="inlineStr"/>
-      <c r="BK16" s="23" t="inlineStr"/>
-      <c r="BL16" s="23" t="inlineStr"/>
-      <c r="BM16" s="23" t="inlineStr"/>
-      <c r="BN16" s="23" t="inlineStr"/>
-      <c r="BO16" s="23" t="inlineStr"/>
-      <c r="BP16" s="23" t="inlineStr"/>
-      <c r="BQ16" s="23" t="inlineStr"/>
-      <c r="BR16" s="23" t="inlineStr"/>
-      <c r="BS16" s="23" t="inlineStr"/>
-      <c r="BT16" s="23" t="inlineStr"/>
-      <c r="BU16" s="23" t="inlineStr"/>
-      <c r="BV16" s="24" t="inlineStr"/>
-      <c r="BW16" s="29" t="inlineStr"/>
-      <c r="BX16" s="29" t="inlineStr"/>
-      <c r="BY16" s="29" t="inlineStr"/>
-      <c r="BZ16" s="29" t="inlineStr"/>
-      <c r="CA16" s="25" t="inlineStr"/>
+      <c r="BE16" s="23" t="inlineStr"/>
+      <c r="BF16" s="24" t="inlineStr"/>
+      <c r="BG16" s="32" t="inlineStr"/>
+      <c r="BH16" s="32" t="inlineStr"/>
+      <c r="BI16" s="32" t="inlineStr"/>
+      <c r="BJ16" s="32" t="inlineStr"/>
+      <c r="BK16" s="32" t="inlineStr"/>
+      <c r="BL16" s="32" t="inlineStr"/>
+      <c r="BM16" s="32" t="inlineStr"/>
+      <c r="BN16" s="32" t="inlineStr"/>
+      <c r="BO16" s="32" t="inlineStr"/>
+      <c r="BP16" s="32" t="inlineStr"/>
+      <c r="BQ16" s="32" t="inlineStr"/>
+      <c r="BR16" s="32" t="inlineStr"/>
+      <c r="BS16" s="32" t="inlineStr"/>
+      <c r="BT16" s="32" t="inlineStr"/>
+      <c r="BU16" s="32" t="inlineStr"/>
+      <c r="BV16" s="32" t="inlineStr"/>
+      <c r="BW16" s="25" t="inlineStr"/>
+      <c r="BX16" s="33" t="inlineStr"/>
+      <c r="BY16" s="33" t="inlineStr"/>
+      <c r="BZ16" s="33" t="inlineStr"/>
+      <c r="CA16" s="33" t="inlineStr"/>
       <c r="CB16" s="26" t="inlineStr"/>
+      <c r="CC16" s="27" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -2898,23 +2930,23 @@
       <c r="X17" s="20" t="inlineStr"/>
       <c r="Y17" s="21" t="inlineStr"/>
       <c r="Z17" s="21" t="inlineStr"/>
-      <c r="AA17" s="21" t="inlineStr"/>
-      <c r="AB17" s="21" t="inlineStr"/>
+      <c r="AA17" s="22" t="inlineStr"/>
+      <c r="AB17" s="22" t="inlineStr"/>
       <c r="AC17" s="21" t="inlineStr"/>
-      <c r="AD17" s="22" t="inlineStr"/>
-      <c r="AE17" s="23" t="inlineStr"/>
-      <c r="AF17" s="23" t="inlineStr"/>
-      <c r="AG17" s="23" t="inlineStr"/>
-      <c r="AH17" s="23" t="inlineStr"/>
-      <c r="AI17" s="24" t="inlineStr"/>
-      <c r="AJ17" s="25" t="inlineStr"/>
-      <c r="AK17" s="26" t="inlineStr"/>
-      <c r="AL17" s="27" t="inlineStr"/>
-      <c r="AM17" s="28" t="inlineStr"/>
-      <c r="AN17" s="16" t="inlineStr"/>
+      <c r="AD17" s="23" t="inlineStr"/>
+      <c r="AE17" s="24" t="inlineStr"/>
+      <c r="AF17" s="24" t="inlineStr"/>
+      <c r="AG17" s="24" t="inlineStr"/>
+      <c r="AH17" s="24" t="inlineStr"/>
+      <c r="AI17" s="25" t="inlineStr"/>
+      <c r="AJ17" s="26" t="inlineStr"/>
+      <c r="AK17" s="27" t="inlineStr"/>
+      <c r="AL17" s="28" t="inlineStr"/>
+      <c r="AM17" s="29" t="inlineStr"/>
+      <c r="AN17" s="30" t="inlineStr"/>
       <c r="AO17" s="17" t="inlineStr"/>
       <c r="AP17" s="17" t="inlineStr"/>
-      <c r="AQ17" s="17" t="inlineStr"/>
+      <c r="AQ17" s="31" t="inlineStr"/>
       <c r="AR17" s="18" t="inlineStr"/>
       <c r="AS17" s="19" t="inlineStr"/>
       <c r="AT17" s="19" t="inlineStr"/>
@@ -2928,30 +2960,31 @@
       <c r="BB17" s="20" t="inlineStr"/>
       <c r="BC17" s="21" t="inlineStr"/>
       <c r="BD17" s="21" t="inlineStr"/>
-      <c r="BE17" s="22" t="inlineStr"/>
-      <c r="BF17" s="23" t="inlineStr"/>
-      <c r="BG17" s="23" t="inlineStr"/>
-      <c r="BH17" s="23" t="inlineStr"/>
-      <c r="BI17" s="23" t="inlineStr"/>
-      <c r="BJ17" s="23" t="inlineStr"/>
-      <c r="BK17" s="23" t="inlineStr"/>
-      <c r="BL17" s="23" t="inlineStr"/>
-      <c r="BM17" s="23" t="inlineStr"/>
-      <c r="BN17" s="23" t="inlineStr"/>
-      <c r="BO17" s="23" t="inlineStr"/>
-      <c r="BP17" s="23" t="inlineStr"/>
-      <c r="BQ17" s="23" t="inlineStr"/>
-      <c r="BR17" s="23" t="inlineStr"/>
-      <c r="BS17" s="23" t="inlineStr"/>
-      <c r="BT17" s="23" t="inlineStr"/>
-      <c r="BU17" s="23" t="inlineStr"/>
-      <c r="BV17" s="24" t="inlineStr"/>
-      <c r="BW17" s="29" t="inlineStr"/>
-      <c r="BX17" s="29" t="inlineStr"/>
-      <c r="BY17" s="29" t="inlineStr"/>
-      <c r="BZ17" s="29" t="inlineStr"/>
-      <c r="CA17" s="25" t="inlineStr"/>
+      <c r="BE17" s="23" t="inlineStr"/>
+      <c r="BF17" s="24" t="inlineStr"/>
+      <c r="BG17" s="32" t="inlineStr"/>
+      <c r="BH17" s="32" t="inlineStr"/>
+      <c r="BI17" s="32" t="inlineStr"/>
+      <c r="BJ17" s="32" t="inlineStr"/>
+      <c r="BK17" s="32" t="inlineStr"/>
+      <c r="BL17" s="32" t="inlineStr"/>
+      <c r="BM17" s="32" t="inlineStr"/>
+      <c r="BN17" s="32" t="inlineStr"/>
+      <c r="BO17" s="32" t="inlineStr"/>
+      <c r="BP17" s="32" t="inlineStr"/>
+      <c r="BQ17" s="32" t="inlineStr"/>
+      <c r="BR17" s="32" t="inlineStr"/>
+      <c r="BS17" s="32" t="inlineStr"/>
+      <c r="BT17" s="32" t="inlineStr"/>
+      <c r="BU17" s="32" t="inlineStr"/>
+      <c r="BV17" s="32" t="inlineStr"/>
+      <c r="BW17" s="25" t="inlineStr"/>
+      <c r="BX17" s="33" t="inlineStr"/>
+      <c r="BY17" s="33" t="inlineStr"/>
+      <c r="BZ17" s="33" t="inlineStr"/>
+      <c r="CA17" s="33" t="inlineStr"/>
       <c r="CB17" s="26" t="inlineStr"/>
+      <c r="CC17" s="27" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -2980,23 +3013,23 @@
       <c r="X18" s="20" t="inlineStr"/>
       <c r="Y18" s="21" t="inlineStr"/>
       <c r="Z18" s="21" t="inlineStr"/>
-      <c r="AA18" s="21" t="inlineStr"/>
-      <c r="AB18" s="21" t="inlineStr"/>
+      <c r="AA18" s="22" t="inlineStr"/>
+      <c r="AB18" s="22" t="inlineStr"/>
       <c r="AC18" s="21" t="inlineStr"/>
-      <c r="AD18" s="22" t="inlineStr"/>
-      <c r="AE18" s="23" t="inlineStr"/>
-      <c r="AF18" s="23" t="inlineStr"/>
-      <c r="AG18" s="23" t="inlineStr"/>
-      <c r="AH18" s="23" t="inlineStr"/>
-      <c r="AI18" s="24" t="inlineStr"/>
-      <c r="AJ18" s="25" t="inlineStr"/>
-      <c r="AK18" s="26" t="inlineStr"/>
-      <c r="AL18" s="27" t="inlineStr"/>
-      <c r="AM18" s="28" t="inlineStr"/>
-      <c r="AN18" s="16" t="inlineStr"/>
+      <c r="AD18" s="23" t="inlineStr"/>
+      <c r="AE18" s="24" t="inlineStr"/>
+      <c r="AF18" s="24" t="inlineStr"/>
+      <c r="AG18" s="24" t="inlineStr"/>
+      <c r="AH18" s="24" t="inlineStr"/>
+      <c r="AI18" s="25" t="inlineStr"/>
+      <c r="AJ18" s="26" t="inlineStr"/>
+      <c r="AK18" s="27" t="inlineStr"/>
+      <c r="AL18" s="28" t="inlineStr"/>
+      <c r="AM18" s="29" t="inlineStr"/>
+      <c r="AN18" s="30" t="inlineStr"/>
       <c r="AO18" s="17" t="inlineStr"/>
       <c r="AP18" s="17" t="inlineStr"/>
-      <c r="AQ18" s="17" t="inlineStr"/>
+      <c r="AQ18" s="31" t="inlineStr"/>
       <c r="AR18" s="18" t="inlineStr"/>
       <c r="AS18" s="19" t="inlineStr"/>
       <c r="AT18" s="19" t="inlineStr"/>
@@ -3010,30 +3043,31 @@
       <c r="BB18" s="20" t="inlineStr"/>
       <c r="BC18" s="21" t="inlineStr"/>
       <c r="BD18" s="21" t="inlineStr"/>
-      <c r="BE18" s="22" t="inlineStr"/>
-      <c r="BF18" s="23" t="inlineStr"/>
-      <c r="BG18" s="23" t="inlineStr"/>
-      <c r="BH18" s="23" t="inlineStr"/>
-      <c r="BI18" s="23" t="inlineStr"/>
-      <c r="BJ18" s="23" t="inlineStr"/>
-      <c r="BK18" s="23" t="inlineStr"/>
-      <c r="BL18" s="23" t="inlineStr"/>
-      <c r="BM18" s="23" t="inlineStr"/>
-      <c r="BN18" s="23" t="inlineStr"/>
-      <c r="BO18" s="23" t="inlineStr"/>
-      <c r="BP18" s="23" t="inlineStr"/>
-      <c r="BQ18" s="23" t="inlineStr"/>
-      <c r="BR18" s="23" t="inlineStr"/>
-      <c r="BS18" s="23" t="inlineStr"/>
-      <c r="BT18" s="23" t="inlineStr"/>
-      <c r="BU18" s="23" t="inlineStr"/>
-      <c r="BV18" s="24" t="inlineStr"/>
-      <c r="BW18" s="29" t="inlineStr"/>
-      <c r="BX18" s="29" t="inlineStr"/>
-      <c r="BY18" s="29" t="inlineStr"/>
-      <c r="BZ18" s="29" t="inlineStr"/>
-      <c r="CA18" s="25" t="inlineStr"/>
+      <c r="BE18" s="23" t="inlineStr"/>
+      <c r="BF18" s="24" t="inlineStr"/>
+      <c r="BG18" s="32" t="inlineStr"/>
+      <c r="BH18" s="32" t="inlineStr"/>
+      <c r="BI18" s="32" t="inlineStr"/>
+      <c r="BJ18" s="32" t="inlineStr"/>
+      <c r="BK18" s="32" t="inlineStr"/>
+      <c r="BL18" s="32" t="inlineStr"/>
+      <c r="BM18" s="32" t="inlineStr"/>
+      <c r="BN18" s="32" t="inlineStr"/>
+      <c r="BO18" s="32" t="inlineStr"/>
+      <c r="BP18" s="32" t="inlineStr"/>
+      <c r="BQ18" s="32" t="inlineStr"/>
+      <c r="BR18" s="32" t="inlineStr"/>
+      <c r="BS18" s="32" t="inlineStr"/>
+      <c r="BT18" s="32" t="inlineStr"/>
+      <c r="BU18" s="32" t="inlineStr"/>
+      <c r="BV18" s="32" t="inlineStr"/>
+      <c r="BW18" s="25" t="inlineStr"/>
+      <c r="BX18" s="33" t="inlineStr"/>
+      <c r="BY18" s="33" t="inlineStr"/>
+      <c r="BZ18" s="33" t="inlineStr"/>
+      <c r="CA18" s="33" t="inlineStr"/>
       <c r="CB18" s="26" t="inlineStr"/>
+      <c r="CC18" s="27" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3062,23 +3096,23 @@
       <c r="X19" s="20" t="inlineStr"/>
       <c r="Y19" s="21" t="inlineStr"/>
       <c r="Z19" s="21" t="inlineStr"/>
-      <c r="AA19" s="21" t="inlineStr"/>
-      <c r="AB19" s="21" t="inlineStr"/>
+      <c r="AA19" s="22" t="inlineStr"/>
+      <c r="AB19" s="22" t="inlineStr"/>
       <c r="AC19" s="21" t="inlineStr"/>
-      <c r="AD19" s="22" t="inlineStr"/>
-      <c r="AE19" s="23" t="inlineStr"/>
-      <c r="AF19" s="23" t="inlineStr"/>
-      <c r="AG19" s="23" t="inlineStr"/>
-      <c r="AH19" s="23" t="inlineStr"/>
-      <c r="AI19" s="24" t="inlineStr"/>
-      <c r="AJ19" s="25" t="inlineStr"/>
-      <c r="AK19" s="26" t="inlineStr"/>
-      <c r="AL19" s="27" t="inlineStr"/>
-      <c r="AM19" s="28" t="inlineStr"/>
-      <c r="AN19" s="16" t="inlineStr"/>
+      <c r="AD19" s="23" t="inlineStr"/>
+      <c r="AE19" s="24" t="inlineStr"/>
+      <c r="AF19" s="24" t="inlineStr"/>
+      <c r="AG19" s="24" t="inlineStr"/>
+      <c r="AH19" s="24" t="inlineStr"/>
+      <c r="AI19" s="25" t="inlineStr"/>
+      <c r="AJ19" s="26" t="inlineStr"/>
+      <c r="AK19" s="27" t="inlineStr"/>
+      <c r="AL19" s="28" t="inlineStr"/>
+      <c r="AM19" s="29" t="inlineStr"/>
+      <c r="AN19" s="30" t="inlineStr"/>
       <c r="AO19" s="17" t="inlineStr"/>
       <c r="AP19" s="17" t="inlineStr"/>
-      <c r="AQ19" s="17" t="inlineStr"/>
+      <c r="AQ19" s="31" t="inlineStr"/>
       <c r="AR19" s="18" t="inlineStr"/>
       <c r="AS19" s="19" t="inlineStr"/>
       <c r="AT19" s="19" t="inlineStr"/>
@@ -3092,30 +3126,31 @@
       <c r="BB19" s="20" t="inlineStr"/>
       <c r="BC19" s="21" t="inlineStr"/>
       <c r="BD19" s="21" t="inlineStr"/>
-      <c r="BE19" s="22" t="inlineStr"/>
-      <c r="BF19" s="23" t="inlineStr"/>
-      <c r="BG19" s="23" t="inlineStr"/>
-      <c r="BH19" s="23" t="inlineStr"/>
-      <c r="BI19" s="23" t="inlineStr"/>
-      <c r="BJ19" s="23" t="inlineStr"/>
-      <c r="BK19" s="23" t="inlineStr"/>
-      <c r="BL19" s="23" t="inlineStr"/>
-      <c r="BM19" s="23" t="inlineStr"/>
-      <c r="BN19" s="23" t="inlineStr"/>
-      <c r="BO19" s="23" t="inlineStr"/>
-      <c r="BP19" s="23" t="inlineStr"/>
-      <c r="BQ19" s="23" t="inlineStr"/>
-      <c r="BR19" s="23" t="inlineStr"/>
-      <c r="BS19" s="23" t="inlineStr"/>
-      <c r="BT19" s="23" t="inlineStr"/>
-      <c r="BU19" s="23" t="inlineStr"/>
-      <c r="BV19" s="24" t="inlineStr"/>
-      <c r="BW19" s="29" t="inlineStr"/>
-      <c r="BX19" s="29" t="inlineStr"/>
-      <c r="BY19" s="29" t="inlineStr"/>
-      <c r="BZ19" s="29" t="inlineStr"/>
-      <c r="CA19" s="25" t="inlineStr"/>
+      <c r="BE19" s="23" t="inlineStr"/>
+      <c r="BF19" s="24" t="inlineStr"/>
+      <c r="BG19" s="32" t="inlineStr"/>
+      <c r="BH19" s="32" t="inlineStr"/>
+      <c r="BI19" s="32" t="inlineStr"/>
+      <c r="BJ19" s="32" t="inlineStr"/>
+      <c r="BK19" s="32" t="inlineStr"/>
+      <c r="BL19" s="32" t="inlineStr"/>
+      <c r="BM19" s="32" t="inlineStr"/>
+      <c r="BN19" s="32" t="inlineStr"/>
+      <c r="BO19" s="32" t="inlineStr"/>
+      <c r="BP19" s="32" t="inlineStr"/>
+      <c r="BQ19" s="32" t="inlineStr"/>
+      <c r="BR19" s="32" t="inlineStr"/>
+      <c r="BS19" s="32" t="inlineStr"/>
+      <c r="BT19" s="32" t="inlineStr"/>
+      <c r="BU19" s="32" t="inlineStr"/>
+      <c r="BV19" s="32" t="inlineStr"/>
+      <c r="BW19" s="25" t="inlineStr"/>
+      <c r="BX19" s="33" t="inlineStr"/>
+      <c r="BY19" s="33" t="inlineStr"/>
+      <c r="BZ19" s="33" t="inlineStr"/>
+      <c r="CA19" s="33" t="inlineStr"/>
       <c r="CB19" s="26" t="inlineStr"/>
+      <c r="CC19" s="27" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3144,23 +3179,23 @@
       <c r="X20" s="20" t="inlineStr"/>
       <c r="Y20" s="21" t="inlineStr"/>
       <c r="Z20" s="21" t="inlineStr"/>
-      <c r="AA20" s="21" t="inlineStr"/>
-      <c r="AB20" s="21" t="inlineStr"/>
+      <c r="AA20" s="22" t="inlineStr"/>
+      <c r="AB20" s="22" t="inlineStr"/>
       <c r="AC20" s="21" t="inlineStr"/>
-      <c r="AD20" s="22" t="inlineStr"/>
-      <c r="AE20" s="23" t="inlineStr"/>
-      <c r="AF20" s="23" t="inlineStr"/>
-      <c r="AG20" s="23" t="inlineStr"/>
-      <c r="AH20" s="23" t="inlineStr"/>
-      <c r="AI20" s="24" t="inlineStr"/>
-      <c r="AJ20" s="25" t="inlineStr"/>
-      <c r="AK20" s="26" t="inlineStr"/>
-      <c r="AL20" s="27" t="inlineStr"/>
-      <c r="AM20" s="28" t="inlineStr"/>
-      <c r="AN20" s="16" t="inlineStr"/>
+      <c r="AD20" s="23" t="inlineStr"/>
+      <c r="AE20" s="24" t="inlineStr"/>
+      <c r="AF20" s="24" t="inlineStr"/>
+      <c r="AG20" s="24" t="inlineStr"/>
+      <c r="AH20" s="24" t="inlineStr"/>
+      <c r="AI20" s="25" t="inlineStr"/>
+      <c r="AJ20" s="26" t="inlineStr"/>
+      <c r="AK20" s="27" t="inlineStr"/>
+      <c r="AL20" s="28" t="inlineStr"/>
+      <c r="AM20" s="29" t="inlineStr"/>
+      <c r="AN20" s="30" t="inlineStr"/>
       <c r="AO20" s="17" t="inlineStr"/>
       <c r="AP20" s="17" t="inlineStr"/>
-      <c r="AQ20" s="17" t="inlineStr"/>
+      <c r="AQ20" s="31" t="inlineStr"/>
       <c r="AR20" s="18" t="inlineStr"/>
       <c r="AS20" s="19" t="inlineStr"/>
       <c r="AT20" s="19" t="inlineStr"/>
@@ -3174,30 +3209,31 @@
       <c r="BB20" s="20" t="inlineStr"/>
       <c r="BC20" s="21" t="inlineStr"/>
       <c r="BD20" s="21" t="inlineStr"/>
-      <c r="BE20" s="22" t="inlineStr"/>
-      <c r="BF20" s="23" t="inlineStr"/>
-      <c r="BG20" s="23" t="inlineStr"/>
-      <c r="BH20" s="23" t="inlineStr"/>
-      <c r="BI20" s="23" t="inlineStr"/>
-      <c r="BJ20" s="23" t="inlineStr"/>
-      <c r="BK20" s="23" t="inlineStr"/>
-      <c r="BL20" s="23" t="inlineStr"/>
-      <c r="BM20" s="23" t="inlineStr"/>
-      <c r="BN20" s="23" t="inlineStr"/>
-      <c r="BO20" s="23" t="inlineStr"/>
-      <c r="BP20" s="23" t="inlineStr"/>
-      <c r="BQ20" s="23" t="inlineStr"/>
-      <c r="BR20" s="23" t="inlineStr"/>
-      <c r="BS20" s="23" t="inlineStr"/>
-      <c r="BT20" s="23" t="inlineStr"/>
-      <c r="BU20" s="23" t="inlineStr"/>
-      <c r="BV20" s="24" t="inlineStr"/>
-      <c r="BW20" s="29" t="inlineStr"/>
-      <c r="BX20" s="29" t="inlineStr"/>
-      <c r="BY20" s="29" t="inlineStr"/>
-      <c r="BZ20" s="29" t="inlineStr"/>
-      <c r="CA20" s="25" t="inlineStr"/>
+      <c r="BE20" s="23" t="inlineStr"/>
+      <c r="BF20" s="24" t="inlineStr"/>
+      <c r="BG20" s="32" t="inlineStr"/>
+      <c r="BH20" s="32" t="inlineStr"/>
+      <c r="BI20" s="32" t="inlineStr"/>
+      <c r="BJ20" s="32" t="inlineStr"/>
+      <c r="BK20" s="32" t="inlineStr"/>
+      <c r="BL20" s="32" t="inlineStr"/>
+      <c r="BM20" s="32" t="inlineStr"/>
+      <c r="BN20" s="32" t="inlineStr"/>
+      <c r="BO20" s="32" t="inlineStr"/>
+      <c r="BP20" s="32" t="inlineStr"/>
+      <c r="BQ20" s="32" t="inlineStr"/>
+      <c r="BR20" s="32" t="inlineStr"/>
+      <c r="BS20" s="32" t="inlineStr"/>
+      <c r="BT20" s="32" t="inlineStr"/>
+      <c r="BU20" s="32" t="inlineStr"/>
+      <c r="BV20" s="32" t="inlineStr"/>
+      <c r="BW20" s="25" t="inlineStr"/>
+      <c r="BX20" s="33" t="inlineStr"/>
+      <c r="BY20" s="33" t="inlineStr"/>
+      <c r="BZ20" s="33" t="inlineStr"/>
+      <c r="CA20" s="33" t="inlineStr"/>
       <c r="CB20" s="26" t="inlineStr"/>
+      <c r="CC20" s="27" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3226,23 +3262,23 @@
       <c r="X21" s="20" t="inlineStr"/>
       <c r="Y21" s="21" t="inlineStr"/>
       <c r="Z21" s="21" t="inlineStr"/>
-      <c r="AA21" s="21" t="inlineStr"/>
-      <c r="AB21" s="21" t="inlineStr"/>
+      <c r="AA21" s="22" t="inlineStr"/>
+      <c r="AB21" s="22" t="inlineStr"/>
       <c r="AC21" s="21" t="inlineStr"/>
-      <c r="AD21" s="22" t="inlineStr"/>
-      <c r="AE21" s="23" t="inlineStr"/>
-      <c r="AF21" s="23" t="inlineStr"/>
-      <c r="AG21" s="23" t="inlineStr"/>
-      <c r="AH21" s="23" t="inlineStr"/>
-      <c r="AI21" s="24" t="inlineStr"/>
-      <c r="AJ21" s="25" t="inlineStr"/>
-      <c r="AK21" s="26" t="inlineStr"/>
-      <c r="AL21" s="27" t="inlineStr"/>
-      <c r="AM21" s="28" t="inlineStr"/>
-      <c r="AN21" s="16" t="inlineStr"/>
+      <c r="AD21" s="23" t="inlineStr"/>
+      <c r="AE21" s="24" t="inlineStr"/>
+      <c r="AF21" s="24" t="inlineStr"/>
+      <c r="AG21" s="24" t="inlineStr"/>
+      <c r="AH21" s="24" t="inlineStr"/>
+      <c r="AI21" s="25" t="inlineStr"/>
+      <c r="AJ21" s="26" t="inlineStr"/>
+      <c r="AK21" s="27" t="inlineStr"/>
+      <c r="AL21" s="28" t="inlineStr"/>
+      <c r="AM21" s="29" t="inlineStr"/>
+      <c r="AN21" s="30" t="inlineStr"/>
       <c r="AO21" s="17" t="inlineStr"/>
       <c r="AP21" s="17" t="inlineStr"/>
-      <c r="AQ21" s="17" t="inlineStr"/>
+      <c r="AQ21" s="31" t="inlineStr"/>
       <c r="AR21" s="18" t="inlineStr"/>
       <c r="AS21" s="19" t="inlineStr"/>
       <c r="AT21" s="19" t="inlineStr"/>
@@ -3256,30 +3292,31 @@
       <c r="BB21" s="20" t="inlineStr"/>
       <c r="BC21" s="21" t="inlineStr"/>
       <c r="BD21" s="21" t="inlineStr"/>
-      <c r="BE21" s="22" t="inlineStr"/>
-      <c r="BF21" s="23" t="inlineStr"/>
-      <c r="BG21" s="23" t="inlineStr"/>
-      <c r="BH21" s="23" t="inlineStr"/>
-      <c r="BI21" s="23" t="inlineStr"/>
-      <c r="BJ21" s="23" t="inlineStr"/>
-      <c r="BK21" s="23" t="inlineStr"/>
-      <c r="BL21" s="23" t="inlineStr"/>
-      <c r="BM21" s="23" t="inlineStr"/>
-      <c r="BN21" s="23" t="inlineStr"/>
-      <c r="BO21" s="23" t="inlineStr"/>
-      <c r="BP21" s="23" t="inlineStr"/>
-      <c r="BQ21" s="23" t="inlineStr"/>
-      <c r="BR21" s="23" t="inlineStr"/>
-      <c r="BS21" s="23" t="inlineStr"/>
-      <c r="BT21" s="23" t="inlineStr"/>
-      <c r="BU21" s="23" t="inlineStr"/>
-      <c r="BV21" s="24" t="inlineStr"/>
-      <c r="BW21" s="29" t="inlineStr"/>
-      <c r="BX21" s="29" t="inlineStr"/>
-      <c r="BY21" s="29" t="inlineStr"/>
-      <c r="BZ21" s="29" t="inlineStr"/>
-      <c r="CA21" s="25" t="inlineStr"/>
+      <c r="BE21" s="23" t="inlineStr"/>
+      <c r="BF21" s="24" t="inlineStr"/>
+      <c r="BG21" s="32" t="inlineStr"/>
+      <c r="BH21" s="32" t="inlineStr"/>
+      <c r="BI21" s="32" t="inlineStr"/>
+      <c r="BJ21" s="32" t="inlineStr"/>
+      <c r="BK21" s="32" t="inlineStr"/>
+      <c r="BL21" s="32" t="inlineStr"/>
+      <c r="BM21" s="32" t="inlineStr"/>
+      <c r="BN21" s="32" t="inlineStr"/>
+      <c r="BO21" s="32" t="inlineStr"/>
+      <c r="BP21" s="32" t="inlineStr"/>
+      <c r="BQ21" s="32" t="inlineStr"/>
+      <c r="BR21" s="32" t="inlineStr"/>
+      <c r="BS21" s="32" t="inlineStr"/>
+      <c r="BT21" s="32" t="inlineStr"/>
+      <c r="BU21" s="32" t="inlineStr"/>
+      <c r="BV21" s="32" t="inlineStr"/>
+      <c r="BW21" s="25" t="inlineStr"/>
+      <c r="BX21" s="33" t="inlineStr"/>
+      <c r="BY21" s="33" t="inlineStr"/>
+      <c r="BZ21" s="33" t="inlineStr"/>
+      <c r="CA21" s="33" t="inlineStr"/>
       <c r="CB21" s="26" t="inlineStr"/>
+      <c r="CC21" s="27" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3308,23 +3345,23 @@
       <c r="X22" s="20" t="inlineStr"/>
       <c r="Y22" s="21" t="inlineStr"/>
       <c r="Z22" s="21" t="inlineStr"/>
-      <c r="AA22" s="21" t="inlineStr"/>
-      <c r="AB22" s="21" t="inlineStr"/>
+      <c r="AA22" s="22" t="inlineStr"/>
+      <c r="AB22" s="22" t="inlineStr"/>
       <c r="AC22" s="21" t="inlineStr"/>
-      <c r="AD22" s="22" t="inlineStr"/>
-      <c r="AE22" s="23" t="inlineStr"/>
-      <c r="AF22" s="23" t="inlineStr"/>
-      <c r="AG22" s="23" t="inlineStr"/>
-      <c r="AH22" s="23" t="inlineStr"/>
-      <c r="AI22" s="24" t="inlineStr"/>
-      <c r="AJ22" s="25" t="inlineStr"/>
-      <c r="AK22" s="26" t="inlineStr"/>
-      <c r="AL22" s="27" t="inlineStr"/>
-      <c r="AM22" s="28" t="inlineStr"/>
-      <c r="AN22" s="16" t="inlineStr"/>
+      <c r="AD22" s="23" t="inlineStr"/>
+      <c r="AE22" s="24" t="inlineStr"/>
+      <c r="AF22" s="24" t="inlineStr"/>
+      <c r="AG22" s="24" t="inlineStr"/>
+      <c r="AH22" s="24" t="inlineStr"/>
+      <c r="AI22" s="25" t="inlineStr"/>
+      <c r="AJ22" s="26" t="inlineStr"/>
+      <c r="AK22" s="27" t="inlineStr"/>
+      <c r="AL22" s="28" t="inlineStr"/>
+      <c r="AM22" s="29" t="inlineStr"/>
+      <c r="AN22" s="30" t="inlineStr"/>
       <c r="AO22" s="17" t="inlineStr"/>
       <c r="AP22" s="17" t="inlineStr"/>
-      <c r="AQ22" s="17" t="inlineStr"/>
+      <c r="AQ22" s="31" t="inlineStr"/>
       <c r="AR22" s="18" t="inlineStr"/>
       <c r="AS22" s="19" t="inlineStr"/>
       <c r="AT22" s="19" t="inlineStr"/>
@@ -3338,30 +3375,31 @@
       <c r="BB22" s="20" t="inlineStr"/>
       <c r="BC22" s="21" t="inlineStr"/>
       <c r="BD22" s="21" t="inlineStr"/>
-      <c r="BE22" s="22" t="inlineStr"/>
-      <c r="BF22" s="23" t="inlineStr"/>
-      <c r="BG22" s="23" t="inlineStr"/>
-      <c r="BH22" s="23" t="inlineStr"/>
-      <c r="BI22" s="23" t="inlineStr"/>
-      <c r="BJ22" s="23" t="inlineStr"/>
-      <c r="BK22" s="23" t="inlineStr"/>
-      <c r="BL22" s="23" t="inlineStr"/>
-      <c r="BM22" s="23" t="inlineStr"/>
-      <c r="BN22" s="23" t="inlineStr"/>
-      <c r="BO22" s="23" t="inlineStr"/>
-      <c r="BP22" s="23" t="inlineStr"/>
-      <c r="BQ22" s="23" t="inlineStr"/>
-      <c r="BR22" s="23" t="inlineStr"/>
-      <c r="BS22" s="23" t="inlineStr"/>
-      <c r="BT22" s="23" t="inlineStr"/>
-      <c r="BU22" s="23" t="inlineStr"/>
-      <c r="BV22" s="24" t="inlineStr"/>
-      <c r="BW22" s="29" t="inlineStr"/>
-      <c r="BX22" s="29" t="inlineStr"/>
-      <c r="BY22" s="29" t="inlineStr"/>
-      <c r="BZ22" s="29" t="inlineStr"/>
-      <c r="CA22" s="25" t="inlineStr"/>
+      <c r="BE22" s="23" t="inlineStr"/>
+      <c r="BF22" s="24" t="inlineStr"/>
+      <c r="BG22" s="32" t="inlineStr"/>
+      <c r="BH22" s="32" t="inlineStr"/>
+      <c r="BI22" s="32" t="inlineStr"/>
+      <c r="BJ22" s="32" t="inlineStr"/>
+      <c r="BK22" s="32" t="inlineStr"/>
+      <c r="BL22" s="32" t="inlineStr"/>
+      <c r="BM22" s="32" t="inlineStr"/>
+      <c r="BN22" s="32" t="inlineStr"/>
+      <c r="BO22" s="32" t="inlineStr"/>
+      <c r="BP22" s="32" t="inlineStr"/>
+      <c r="BQ22" s="32" t="inlineStr"/>
+      <c r="BR22" s="32" t="inlineStr"/>
+      <c r="BS22" s="32" t="inlineStr"/>
+      <c r="BT22" s="32" t="inlineStr"/>
+      <c r="BU22" s="32" t="inlineStr"/>
+      <c r="BV22" s="32" t="inlineStr"/>
+      <c r="BW22" s="25" t="inlineStr"/>
+      <c r="BX22" s="33" t="inlineStr"/>
+      <c r="BY22" s="33" t="inlineStr"/>
+      <c r="BZ22" s="33" t="inlineStr"/>
+      <c r="CA22" s="33" t="inlineStr"/>
       <c r="CB22" s="26" t="inlineStr"/>
+      <c r="CC22" s="27" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3390,23 +3428,23 @@
       <c r="X23" s="20" t="inlineStr"/>
       <c r="Y23" s="21" t="inlineStr"/>
       <c r="Z23" s="21" t="inlineStr"/>
-      <c r="AA23" s="21" t="inlineStr"/>
-      <c r="AB23" s="21" t="inlineStr"/>
+      <c r="AA23" s="22" t="inlineStr"/>
+      <c r="AB23" s="22" t="inlineStr"/>
       <c r="AC23" s="21" t="inlineStr"/>
-      <c r="AD23" s="22" t="inlineStr"/>
-      <c r="AE23" s="23" t="inlineStr"/>
-      <c r="AF23" s="23" t="inlineStr"/>
-      <c r="AG23" s="23" t="inlineStr"/>
-      <c r="AH23" s="23" t="inlineStr"/>
-      <c r="AI23" s="24" t="inlineStr"/>
-      <c r="AJ23" s="25" t="inlineStr"/>
-      <c r="AK23" s="26" t="inlineStr"/>
-      <c r="AL23" s="27" t="inlineStr"/>
-      <c r="AM23" s="28" t="inlineStr"/>
-      <c r="AN23" s="16" t="inlineStr"/>
+      <c r="AD23" s="23" t="inlineStr"/>
+      <c r="AE23" s="24" t="inlineStr"/>
+      <c r="AF23" s="24" t="inlineStr"/>
+      <c r="AG23" s="24" t="inlineStr"/>
+      <c r="AH23" s="24" t="inlineStr"/>
+      <c r="AI23" s="25" t="inlineStr"/>
+      <c r="AJ23" s="26" t="inlineStr"/>
+      <c r="AK23" s="27" t="inlineStr"/>
+      <c r="AL23" s="28" t="inlineStr"/>
+      <c r="AM23" s="29" t="inlineStr"/>
+      <c r="AN23" s="30" t="inlineStr"/>
       <c r="AO23" s="17" t="inlineStr"/>
       <c r="AP23" s="17" t="inlineStr"/>
-      <c r="AQ23" s="17" t="inlineStr"/>
+      <c r="AQ23" s="31" t="inlineStr"/>
       <c r="AR23" s="18" t="inlineStr"/>
       <c r="AS23" s="19" t="inlineStr"/>
       <c r="AT23" s="19" t="inlineStr"/>
@@ -3420,30 +3458,31 @@
       <c r="BB23" s="20" t="inlineStr"/>
       <c r="BC23" s="21" t="inlineStr"/>
       <c r="BD23" s="21" t="inlineStr"/>
-      <c r="BE23" s="22" t="inlineStr"/>
-      <c r="BF23" s="23" t="inlineStr"/>
-      <c r="BG23" s="23" t="inlineStr"/>
-      <c r="BH23" s="23" t="inlineStr"/>
-      <c r="BI23" s="23" t="inlineStr"/>
-      <c r="BJ23" s="23" t="inlineStr"/>
-      <c r="BK23" s="23" t="inlineStr"/>
-      <c r="BL23" s="23" t="inlineStr"/>
-      <c r="BM23" s="23" t="inlineStr"/>
-      <c r="BN23" s="23" t="inlineStr"/>
-      <c r="BO23" s="23" t="inlineStr"/>
-      <c r="BP23" s="23" t="inlineStr"/>
-      <c r="BQ23" s="23" t="inlineStr"/>
-      <c r="BR23" s="23" t="inlineStr"/>
-      <c r="BS23" s="23" t="inlineStr"/>
-      <c r="BT23" s="23" t="inlineStr"/>
-      <c r="BU23" s="23" t="inlineStr"/>
-      <c r="BV23" s="24" t="inlineStr"/>
-      <c r="BW23" s="29" t="inlineStr"/>
-      <c r="BX23" s="29" t="inlineStr"/>
-      <c r="BY23" s="29" t="inlineStr"/>
-      <c r="BZ23" s="29" t="inlineStr"/>
-      <c r="CA23" s="25" t="inlineStr"/>
+      <c r="BE23" s="23" t="inlineStr"/>
+      <c r="BF23" s="24" t="inlineStr"/>
+      <c r="BG23" s="32" t="inlineStr"/>
+      <c r="BH23" s="32" t="inlineStr"/>
+      <c r="BI23" s="32" t="inlineStr"/>
+      <c r="BJ23" s="32" t="inlineStr"/>
+      <c r="BK23" s="32" t="inlineStr"/>
+      <c r="BL23" s="32" t="inlineStr"/>
+      <c r="BM23" s="32" t="inlineStr"/>
+      <c r="BN23" s="32" t="inlineStr"/>
+      <c r="BO23" s="32" t="inlineStr"/>
+      <c r="BP23" s="32" t="inlineStr"/>
+      <c r="BQ23" s="32" t="inlineStr"/>
+      <c r="BR23" s="32" t="inlineStr"/>
+      <c r="BS23" s="32" t="inlineStr"/>
+      <c r="BT23" s="32" t="inlineStr"/>
+      <c r="BU23" s="32" t="inlineStr"/>
+      <c r="BV23" s="32" t="inlineStr"/>
+      <c r="BW23" s="25" t="inlineStr"/>
+      <c r="BX23" s="33" t="inlineStr"/>
+      <c r="BY23" s="33" t="inlineStr"/>
+      <c r="BZ23" s="33" t="inlineStr"/>
+      <c r="CA23" s="33" t="inlineStr"/>
       <c r="CB23" s="26" t="inlineStr"/>
+      <c r="CC23" s="27" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3472,23 +3511,23 @@
       <c r="X24" s="20" t="inlineStr"/>
       <c r="Y24" s="21" t="inlineStr"/>
       <c r="Z24" s="21" t="inlineStr"/>
-      <c r="AA24" s="21" t="inlineStr"/>
-      <c r="AB24" s="21" t="inlineStr"/>
+      <c r="AA24" s="22" t="inlineStr"/>
+      <c r="AB24" s="22" t="inlineStr"/>
       <c r="AC24" s="21" t="inlineStr"/>
-      <c r="AD24" s="22" t="inlineStr"/>
-      <c r="AE24" s="23" t="inlineStr"/>
-      <c r="AF24" s="23" t="inlineStr"/>
-      <c r="AG24" s="23" t="inlineStr"/>
-      <c r="AH24" s="23" t="inlineStr"/>
-      <c r="AI24" s="24" t="inlineStr"/>
-      <c r="AJ24" s="25" t="inlineStr"/>
-      <c r="AK24" s="26" t="inlineStr"/>
-      <c r="AL24" s="27" t="inlineStr"/>
-      <c r="AM24" s="28" t="inlineStr"/>
-      <c r="AN24" s="16" t="inlineStr"/>
+      <c r="AD24" s="23" t="inlineStr"/>
+      <c r="AE24" s="24" t="inlineStr"/>
+      <c r="AF24" s="24" t="inlineStr"/>
+      <c r="AG24" s="24" t="inlineStr"/>
+      <c r="AH24" s="24" t="inlineStr"/>
+      <c r="AI24" s="25" t="inlineStr"/>
+      <c r="AJ24" s="26" t="inlineStr"/>
+      <c r="AK24" s="27" t="inlineStr"/>
+      <c r="AL24" s="28" t="inlineStr"/>
+      <c r="AM24" s="29" t="inlineStr"/>
+      <c r="AN24" s="30" t="inlineStr"/>
       <c r="AO24" s="17" t="inlineStr"/>
       <c r="AP24" s="17" t="inlineStr"/>
-      <c r="AQ24" s="17" t="inlineStr"/>
+      <c r="AQ24" s="31" t="inlineStr"/>
       <c r="AR24" s="18" t="inlineStr"/>
       <c r="AS24" s="19" t="inlineStr"/>
       <c r="AT24" s="19" t="inlineStr"/>
@@ -3502,30 +3541,31 @@
       <c r="BB24" s="20" t="inlineStr"/>
       <c r="BC24" s="21" t="inlineStr"/>
       <c r="BD24" s="21" t="inlineStr"/>
-      <c r="BE24" s="22" t="inlineStr"/>
-      <c r="BF24" s="23" t="inlineStr"/>
-      <c r="BG24" s="23" t="inlineStr"/>
-      <c r="BH24" s="23" t="inlineStr"/>
-      <c r="BI24" s="23" t="inlineStr"/>
-      <c r="BJ24" s="23" t="inlineStr"/>
-      <c r="BK24" s="23" t="inlineStr"/>
-      <c r="BL24" s="23" t="inlineStr"/>
-      <c r="BM24" s="23" t="inlineStr"/>
-      <c r="BN24" s="23" t="inlineStr"/>
-      <c r="BO24" s="23" t="inlineStr"/>
-      <c r="BP24" s="23" t="inlineStr"/>
-      <c r="BQ24" s="23" t="inlineStr"/>
-      <c r="BR24" s="23" t="inlineStr"/>
-      <c r="BS24" s="23" t="inlineStr"/>
-      <c r="BT24" s="23" t="inlineStr"/>
-      <c r="BU24" s="23" t="inlineStr"/>
-      <c r="BV24" s="24" t="inlineStr"/>
-      <c r="BW24" s="29" t="inlineStr"/>
-      <c r="BX24" s="29" t="inlineStr"/>
-      <c r="BY24" s="29" t="inlineStr"/>
-      <c r="BZ24" s="29" t="inlineStr"/>
-      <c r="CA24" s="25" t="inlineStr"/>
+      <c r="BE24" s="23" t="inlineStr"/>
+      <c r="BF24" s="24" t="inlineStr"/>
+      <c r="BG24" s="32" t="inlineStr"/>
+      <c r="BH24" s="32" t="inlineStr"/>
+      <c r="BI24" s="32" t="inlineStr"/>
+      <c r="BJ24" s="32" t="inlineStr"/>
+      <c r="BK24" s="32" t="inlineStr"/>
+      <c r="BL24" s="32" t="inlineStr"/>
+      <c r="BM24" s="32" t="inlineStr"/>
+      <c r="BN24" s="32" t="inlineStr"/>
+      <c r="BO24" s="32" t="inlineStr"/>
+      <c r="BP24" s="32" t="inlineStr"/>
+      <c r="BQ24" s="32" t="inlineStr"/>
+      <c r="BR24" s="32" t="inlineStr"/>
+      <c r="BS24" s="32" t="inlineStr"/>
+      <c r="BT24" s="32" t="inlineStr"/>
+      <c r="BU24" s="32" t="inlineStr"/>
+      <c r="BV24" s="32" t="inlineStr"/>
+      <c r="BW24" s="25" t="inlineStr"/>
+      <c r="BX24" s="33" t="inlineStr"/>
+      <c r="BY24" s="33" t="inlineStr"/>
+      <c r="BZ24" s="33" t="inlineStr"/>
+      <c r="CA24" s="33" t="inlineStr"/>
       <c r="CB24" s="26" t="inlineStr"/>
+      <c r="CC24" s="27" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3554,23 +3594,23 @@
       <c r="X25" s="20" t="inlineStr"/>
       <c r="Y25" s="21" t="inlineStr"/>
       <c r="Z25" s="21" t="inlineStr"/>
-      <c r="AA25" s="21" t="inlineStr"/>
-      <c r="AB25" s="21" t="inlineStr"/>
+      <c r="AA25" s="22" t="inlineStr"/>
+      <c r="AB25" s="22" t="inlineStr"/>
       <c r="AC25" s="21" t="inlineStr"/>
-      <c r="AD25" s="22" t="inlineStr"/>
-      <c r="AE25" s="23" t="inlineStr"/>
-      <c r="AF25" s="23" t="inlineStr"/>
-      <c r="AG25" s="23" t="inlineStr"/>
-      <c r="AH25" s="23" t="inlineStr"/>
-      <c r="AI25" s="24" t="inlineStr"/>
-      <c r="AJ25" s="25" t="inlineStr"/>
-      <c r="AK25" s="26" t="inlineStr"/>
-      <c r="AL25" s="27" t="inlineStr"/>
-      <c r="AM25" s="28" t="inlineStr"/>
-      <c r="AN25" s="16" t="inlineStr"/>
+      <c r="AD25" s="23" t="inlineStr"/>
+      <c r="AE25" s="24" t="inlineStr"/>
+      <c r="AF25" s="24" t="inlineStr"/>
+      <c r="AG25" s="24" t="inlineStr"/>
+      <c r="AH25" s="24" t="inlineStr"/>
+      <c r="AI25" s="25" t="inlineStr"/>
+      <c r="AJ25" s="26" t="inlineStr"/>
+      <c r="AK25" s="27" t="inlineStr"/>
+      <c r="AL25" s="28" t="inlineStr"/>
+      <c r="AM25" s="29" t="inlineStr"/>
+      <c r="AN25" s="30" t="inlineStr"/>
       <c r="AO25" s="17" t="inlineStr"/>
       <c r="AP25" s="17" t="inlineStr"/>
-      <c r="AQ25" s="17" t="inlineStr"/>
+      <c r="AQ25" s="31" t="inlineStr"/>
       <c r="AR25" s="18" t="inlineStr"/>
       <c r="AS25" s="19" t="inlineStr"/>
       <c r="AT25" s="19" t="inlineStr"/>
@@ -3584,30 +3624,31 @@
       <c r="BB25" s="20" t="inlineStr"/>
       <c r="BC25" s="21" t="inlineStr"/>
       <c r="BD25" s="21" t="inlineStr"/>
-      <c r="BE25" s="22" t="inlineStr"/>
-      <c r="BF25" s="23" t="inlineStr"/>
-      <c r="BG25" s="23" t="inlineStr"/>
-      <c r="BH25" s="23" t="inlineStr"/>
-      <c r="BI25" s="23" t="inlineStr"/>
-      <c r="BJ25" s="23" t="inlineStr"/>
-      <c r="BK25" s="23" t="inlineStr"/>
-      <c r="BL25" s="23" t="inlineStr"/>
-      <c r="BM25" s="23" t="inlineStr"/>
-      <c r="BN25" s="23" t="inlineStr"/>
-      <c r="BO25" s="23" t="inlineStr"/>
-      <c r="BP25" s="23" t="inlineStr"/>
-      <c r="BQ25" s="23" t="inlineStr"/>
-      <c r="BR25" s="23" t="inlineStr"/>
-      <c r="BS25" s="23" t="inlineStr"/>
-      <c r="BT25" s="23" t="inlineStr"/>
-      <c r="BU25" s="23" t="inlineStr"/>
-      <c r="BV25" s="24" t="inlineStr"/>
-      <c r="BW25" s="29" t="inlineStr"/>
-      <c r="BX25" s="29" t="inlineStr"/>
-      <c r="BY25" s="29" t="inlineStr"/>
-      <c r="BZ25" s="29" t="inlineStr"/>
-      <c r="CA25" s="25" t="inlineStr"/>
+      <c r="BE25" s="23" t="inlineStr"/>
+      <c r="BF25" s="24" t="inlineStr"/>
+      <c r="BG25" s="32" t="inlineStr"/>
+      <c r="BH25" s="32" t="inlineStr"/>
+      <c r="BI25" s="32" t="inlineStr"/>
+      <c r="BJ25" s="32" t="inlineStr"/>
+      <c r="BK25" s="32" t="inlineStr"/>
+      <c r="BL25" s="32" t="inlineStr"/>
+      <c r="BM25" s="32" t="inlineStr"/>
+      <c r="BN25" s="32" t="inlineStr"/>
+      <c r="BO25" s="32" t="inlineStr"/>
+      <c r="BP25" s="32" t="inlineStr"/>
+      <c r="BQ25" s="32" t="inlineStr"/>
+      <c r="BR25" s="32" t="inlineStr"/>
+      <c r="BS25" s="32" t="inlineStr"/>
+      <c r="BT25" s="32" t="inlineStr"/>
+      <c r="BU25" s="32" t="inlineStr"/>
+      <c r="BV25" s="32" t="inlineStr"/>
+      <c r="BW25" s="25" t="inlineStr"/>
+      <c r="BX25" s="33" t="inlineStr"/>
+      <c r="BY25" s="33" t="inlineStr"/>
+      <c r="BZ25" s="33" t="inlineStr"/>
+      <c r="CA25" s="33" t="inlineStr"/>
       <c r="CB25" s="26" t="inlineStr"/>
+      <c r="CC25" s="27" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3636,23 +3677,23 @@
       <c r="X26" s="20" t="inlineStr"/>
       <c r="Y26" s="21" t="inlineStr"/>
       <c r="Z26" s="21" t="inlineStr"/>
-      <c r="AA26" s="21" t="inlineStr"/>
-      <c r="AB26" s="21" t="inlineStr"/>
+      <c r="AA26" s="22" t="inlineStr"/>
+      <c r="AB26" s="22" t="inlineStr"/>
       <c r="AC26" s="21" t="inlineStr"/>
-      <c r="AD26" s="22" t="inlineStr"/>
-      <c r="AE26" s="23" t="inlineStr"/>
-      <c r="AF26" s="23" t="inlineStr"/>
-      <c r="AG26" s="23" t="inlineStr"/>
-      <c r="AH26" s="23" t="inlineStr"/>
-      <c r="AI26" s="24" t="inlineStr"/>
-      <c r="AJ26" s="25" t="inlineStr"/>
-      <c r="AK26" s="26" t="inlineStr"/>
-      <c r="AL26" s="27" t="inlineStr"/>
-      <c r="AM26" s="28" t="inlineStr"/>
-      <c r="AN26" s="16" t="inlineStr"/>
+      <c r="AD26" s="23" t="inlineStr"/>
+      <c r="AE26" s="24" t="inlineStr"/>
+      <c r="AF26" s="24" t="inlineStr"/>
+      <c r="AG26" s="24" t="inlineStr"/>
+      <c r="AH26" s="24" t="inlineStr"/>
+      <c r="AI26" s="25" t="inlineStr"/>
+      <c r="AJ26" s="26" t="inlineStr"/>
+      <c r="AK26" s="27" t="inlineStr"/>
+      <c r="AL26" s="28" t="inlineStr"/>
+      <c r="AM26" s="29" t="inlineStr"/>
+      <c r="AN26" s="30" t="inlineStr"/>
       <c r="AO26" s="17" t="inlineStr"/>
       <c r="AP26" s="17" t="inlineStr"/>
-      <c r="AQ26" s="17" t="inlineStr"/>
+      <c r="AQ26" s="31" t="inlineStr"/>
       <c r="AR26" s="18" t="inlineStr"/>
       <c r="AS26" s="19" t="inlineStr"/>
       <c r="AT26" s="19" t="inlineStr"/>
@@ -3666,30 +3707,31 @@
       <c r="BB26" s="20" t="inlineStr"/>
       <c r="BC26" s="21" t="inlineStr"/>
       <c r="BD26" s="21" t="inlineStr"/>
-      <c r="BE26" s="22" t="inlineStr"/>
-      <c r="BF26" s="23" t="inlineStr"/>
-      <c r="BG26" s="23" t="inlineStr"/>
-      <c r="BH26" s="23" t="inlineStr"/>
-      <c r="BI26" s="23" t="inlineStr"/>
-      <c r="BJ26" s="23" t="inlineStr"/>
-      <c r="BK26" s="23" t="inlineStr"/>
-      <c r="BL26" s="23" t="inlineStr"/>
-      <c r="BM26" s="23" t="inlineStr"/>
-      <c r="BN26" s="23" t="inlineStr"/>
-      <c r="BO26" s="23" t="inlineStr"/>
-      <c r="BP26" s="23" t="inlineStr"/>
-      <c r="BQ26" s="23" t="inlineStr"/>
-      <c r="BR26" s="23" t="inlineStr"/>
-      <c r="BS26" s="23" t="inlineStr"/>
-      <c r="BT26" s="23" t="inlineStr"/>
-      <c r="BU26" s="23" t="inlineStr"/>
-      <c r="BV26" s="24" t="inlineStr"/>
-      <c r="BW26" s="29" t="inlineStr"/>
-      <c r="BX26" s="29" t="inlineStr"/>
-      <c r="BY26" s="29" t="inlineStr"/>
-      <c r="BZ26" s="29" t="inlineStr"/>
-      <c r="CA26" s="25" t="inlineStr"/>
+      <c r="BE26" s="23" t="inlineStr"/>
+      <c r="BF26" s="24" t="inlineStr"/>
+      <c r="BG26" s="32" t="inlineStr"/>
+      <c r="BH26" s="32" t="inlineStr"/>
+      <c r="BI26" s="32" t="inlineStr"/>
+      <c r="BJ26" s="32" t="inlineStr"/>
+      <c r="BK26" s="32" t="inlineStr"/>
+      <c r="BL26" s="32" t="inlineStr"/>
+      <c r="BM26" s="32" t="inlineStr"/>
+      <c r="BN26" s="32" t="inlineStr"/>
+      <c r="BO26" s="32" t="inlineStr"/>
+      <c r="BP26" s="32" t="inlineStr"/>
+      <c r="BQ26" s="32" t="inlineStr"/>
+      <c r="BR26" s="32" t="inlineStr"/>
+      <c r="BS26" s="32" t="inlineStr"/>
+      <c r="BT26" s="32" t="inlineStr"/>
+      <c r="BU26" s="32" t="inlineStr"/>
+      <c r="BV26" s="32" t="inlineStr"/>
+      <c r="BW26" s="25" t="inlineStr"/>
+      <c r="BX26" s="33" t="inlineStr"/>
+      <c r="BY26" s="33" t="inlineStr"/>
+      <c r="BZ26" s="33" t="inlineStr"/>
+      <c r="CA26" s="33" t="inlineStr"/>
       <c r="CB26" s="26" t="inlineStr"/>
+      <c r="CC26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3718,23 +3760,23 @@
       <c r="X27" s="20" t="inlineStr"/>
       <c r="Y27" s="21" t="inlineStr"/>
       <c r="Z27" s="21" t="inlineStr"/>
-      <c r="AA27" s="21" t="inlineStr"/>
-      <c r="AB27" s="21" t="inlineStr"/>
+      <c r="AA27" s="22" t="inlineStr"/>
+      <c r="AB27" s="22" t="inlineStr"/>
       <c r="AC27" s="21" t="inlineStr"/>
-      <c r="AD27" s="22" t="inlineStr"/>
-      <c r="AE27" s="23" t="inlineStr"/>
-      <c r="AF27" s="23" t="inlineStr"/>
-      <c r="AG27" s="23" t="inlineStr"/>
-      <c r="AH27" s="23" t="inlineStr"/>
-      <c r="AI27" s="24" t="inlineStr"/>
-      <c r="AJ27" s="25" t="inlineStr"/>
-      <c r="AK27" s="26" t="inlineStr"/>
-      <c r="AL27" s="27" t="inlineStr"/>
-      <c r="AM27" s="28" t="inlineStr"/>
-      <c r="AN27" s="16" t="inlineStr"/>
+      <c r="AD27" s="23" t="inlineStr"/>
+      <c r="AE27" s="24" t="inlineStr"/>
+      <c r="AF27" s="24" t="inlineStr"/>
+      <c r="AG27" s="24" t="inlineStr"/>
+      <c r="AH27" s="24" t="inlineStr"/>
+      <c r="AI27" s="25" t="inlineStr"/>
+      <c r="AJ27" s="26" t="inlineStr"/>
+      <c r="AK27" s="27" t="inlineStr"/>
+      <c r="AL27" s="28" t="inlineStr"/>
+      <c r="AM27" s="29" t="inlineStr"/>
+      <c r="AN27" s="30" t="inlineStr"/>
       <c r="AO27" s="17" t="inlineStr"/>
       <c r="AP27" s="17" t="inlineStr"/>
-      <c r="AQ27" s="17" t="inlineStr"/>
+      <c r="AQ27" s="31" t="inlineStr"/>
       <c r="AR27" s="18" t="inlineStr"/>
       <c r="AS27" s="19" t="inlineStr"/>
       <c r="AT27" s="19" t="inlineStr"/>
@@ -3748,30 +3790,31 @@
       <c r="BB27" s="20" t="inlineStr"/>
       <c r="BC27" s="21" t="inlineStr"/>
       <c r="BD27" s="21" t="inlineStr"/>
-      <c r="BE27" s="22" t="inlineStr"/>
-      <c r="BF27" s="23" t="inlineStr"/>
-      <c r="BG27" s="23" t="inlineStr"/>
-      <c r="BH27" s="23" t="inlineStr"/>
-      <c r="BI27" s="23" t="inlineStr"/>
-      <c r="BJ27" s="23" t="inlineStr"/>
-      <c r="BK27" s="23" t="inlineStr"/>
-      <c r="BL27" s="23" t="inlineStr"/>
-      <c r="BM27" s="23" t="inlineStr"/>
-      <c r="BN27" s="23" t="inlineStr"/>
-      <c r="BO27" s="23" t="inlineStr"/>
-      <c r="BP27" s="23" t="inlineStr"/>
-      <c r="BQ27" s="23" t="inlineStr"/>
-      <c r="BR27" s="23" t="inlineStr"/>
-      <c r="BS27" s="23" t="inlineStr"/>
-      <c r="BT27" s="23" t="inlineStr"/>
-      <c r="BU27" s="23" t="inlineStr"/>
-      <c r="BV27" s="24" t="inlineStr"/>
-      <c r="BW27" s="29" t="inlineStr"/>
-      <c r="BX27" s="29" t="inlineStr"/>
-      <c r="BY27" s="29" t="inlineStr"/>
-      <c r="BZ27" s="29" t="inlineStr"/>
-      <c r="CA27" s="25" t="inlineStr"/>
+      <c r="BE27" s="23" t="inlineStr"/>
+      <c r="BF27" s="24" t="inlineStr"/>
+      <c r="BG27" s="32" t="inlineStr"/>
+      <c r="BH27" s="32" t="inlineStr"/>
+      <c r="BI27" s="32" t="inlineStr"/>
+      <c r="BJ27" s="32" t="inlineStr"/>
+      <c r="BK27" s="32" t="inlineStr"/>
+      <c r="BL27" s="32" t="inlineStr"/>
+      <c r="BM27" s="32" t="inlineStr"/>
+      <c r="BN27" s="32" t="inlineStr"/>
+      <c r="BO27" s="32" t="inlineStr"/>
+      <c r="BP27" s="32" t="inlineStr"/>
+      <c r="BQ27" s="32" t="inlineStr"/>
+      <c r="BR27" s="32" t="inlineStr"/>
+      <c r="BS27" s="32" t="inlineStr"/>
+      <c r="BT27" s="32" t="inlineStr"/>
+      <c r="BU27" s="32" t="inlineStr"/>
+      <c r="BV27" s="32" t="inlineStr"/>
+      <c r="BW27" s="25" t="inlineStr"/>
+      <c r="BX27" s="33" t="inlineStr"/>
+      <c r="BY27" s="33" t="inlineStr"/>
+      <c r="BZ27" s="33" t="inlineStr"/>
+      <c r="CA27" s="33" t="inlineStr"/>
       <c r="CB27" s="26" t="inlineStr"/>
+      <c r="CC27" s="27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3800,23 +3843,23 @@
       <c r="X28" s="20" t="inlineStr"/>
       <c r="Y28" s="21" t="inlineStr"/>
       <c r="Z28" s="21" t="inlineStr"/>
-      <c r="AA28" s="21" t="inlineStr"/>
-      <c r="AB28" s="21" t="inlineStr"/>
+      <c r="AA28" s="22" t="inlineStr"/>
+      <c r="AB28" s="22" t="inlineStr"/>
       <c r="AC28" s="21" t="inlineStr"/>
-      <c r="AD28" s="22" t="inlineStr"/>
-      <c r="AE28" s="23" t="inlineStr"/>
-      <c r="AF28" s="23" t="inlineStr"/>
-      <c r="AG28" s="23" t="inlineStr"/>
-      <c r="AH28" s="23" t="inlineStr"/>
-      <c r="AI28" s="24" t="inlineStr"/>
-      <c r="AJ28" s="25" t="inlineStr"/>
-      <c r="AK28" s="26" t="inlineStr"/>
-      <c r="AL28" s="27" t="inlineStr"/>
-      <c r="AM28" s="28" t="inlineStr"/>
-      <c r="AN28" s="16" t="inlineStr"/>
+      <c r="AD28" s="23" t="inlineStr"/>
+      <c r="AE28" s="24" t="inlineStr"/>
+      <c r="AF28" s="24" t="inlineStr"/>
+      <c r="AG28" s="24" t="inlineStr"/>
+      <c r="AH28" s="24" t="inlineStr"/>
+      <c r="AI28" s="25" t="inlineStr"/>
+      <c r="AJ28" s="26" t="inlineStr"/>
+      <c r="AK28" s="27" t="inlineStr"/>
+      <c r="AL28" s="28" t="inlineStr"/>
+      <c r="AM28" s="29" t="inlineStr"/>
+      <c r="AN28" s="30" t="inlineStr"/>
       <c r="AO28" s="17" t="inlineStr"/>
       <c r="AP28" s="17" t="inlineStr"/>
-      <c r="AQ28" s="17" t="inlineStr"/>
+      <c r="AQ28" s="31" t="inlineStr"/>
       <c r="AR28" s="18" t="inlineStr"/>
       <c r="AS28" s="19" t="inlineStr"/>
       <c r="AT28" s="19" t="inlineStr"/>
@@ -3830,30 +3873,31 @@
       <c r="BB28" s="20" t="inlineStr"/>
       <c r="BC28" s="21" t="inlineStr"/>
       <c r="BD28" s="21" t="inlineStr"/>
-      <c r="BE28" s="22" t="inlineStr"/>
-      <c r="BF28" s="23" t="inlineStr"/>
-      <c r="BG28" s="23" t="inlineStr"/>
-      <c r="BH28" s="23" t="inlineStr"/>
-      <c r="BI28" s="23" t="inlineStr"/>
-      <c r="BJ28" s="23" t="inlineStr"/>
-      <c r="BK28" s="23" t="inlineStr"/>
-      <c r="BL28" s="23" t="inlineStr"/>
-      <c r="BM28" s="23" t="inlineStr"/>
-      <c r="BN28" s="23" t="inlineStr"/>
-      <c r="BO28" s="23" t="inlineStr"/>
-      <c r="BP28" s="23" t="inlineStr"/>
-      <c r="BQ28" s="23" t="inlineStr"/>
-      <c r="BR28" s="23" t="inlineStr"/>
-      <c r="BS28" s="23" t="inlineStr"/>
-      <c r="BT28" s="23" t="inlineStr"/>
-      <c r="BU28" s="23" t="inlineStr"/>
-      <c r="BV28" s="24" t="inlineStr"/>
-      <c r="BW28" s="29" t="inlineStr"/>
-      <c r="BX28" s="29" t="inlineStr"/>
-      <c r="BY28" s="29" t="inlineStr"/>
-      <c r="BZ28" s="29" t="inlineStr"/>
-      <c r="CA28" s="25" t="inlineStr"/>
+      <c r="BE28" s="23" t="inlineStr"/>
+      <c r="BF28" s="24" t="inlineStr"/>
+      <c r="BG28" s="32" t="inlineStr"/>
+      <c r="BH28" s="32" t="inlineStr"/>
+      <c r="BI28" s="32" t="inlineStr"/>
+      <c r="BJ28" s="32" t="inlineStr"/>
+      <c r="BK28" s="32" t="inlineStr"/>
+      <c r="BL28" s="32" t="inlineStr"/>
+      <c r="BM28" s="32" t="inlineStr"/>
+      <c r="BN28" s="32" t="inlineStr"/>
+      <c r="BO28" s="32" t="inlineStr"/>
+      <c r="BP28" s="32" t="inlineStr"/>
+      <c r="BQ28" s="32" t="inlineStr"/>
+      <c r="BR28" s="32" t="inlineStr"/>
+      <c r="BS28" s="32" t="inlineStr"/>
+      <c r="BT28" s="32" t="inlineStr"/>
+      <c r="BU28" s="32" t="inlineStr"/>
+      <c r="BV28" s="32" t="inlineStr"/>
+      <c r="BW28" s="25" t="inlineStr"/>
+      <c r="BX28" s="33" t="inlineStr"/>
+      <c r="BY28" s="33" t="inlineStr"/>
+      <c r="BZ28" s="33" t="inlineStr"/>
+      <c r="CA28" s="33" t="inlineStr"/>
       <c r="CB28" s="26" t="inlineStr"/>
+      <c r="CC28" s="27" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -3882,23 +3926,23 @@
       <c r="X29" s="20" t="inlineStr"/>
       <c r="Y29" s="21" t="inlineStr"/>
       <c r="Z29" s="21" t="inlineStr"/>
-      <c r="AA29" s="21" t="inlineStr"/>
-      <c r="AB29" s="21" t="inlineStr"/>
+      <c r="AA29" s="22" t="inlineStr"/>
+      <c r="AB29" s="22" t="inlineStr"/>
       <c r="AC29" s="21" t="inlineStr"/>
-      <c r="AD29" s="22" t="inlineStr"/>
-      <c r="AE29" s="23" t="inlineStr"/>
-      <c r="AF29" s="23" t="inlineStr"/>
-      <c r="AG29" s="23" t="inlineStr"/>
-      <c r="AH29" s="23" t="inlineStr"/>
-      <c r="AI29" s="24" t="inlineStr"/>
-      <c r="AJ29" s="25" t="inlineStr"/>
-      <c r="AK29" s="26" t="inlineStr"/>
-      <c r="AL29" s="27" t="inlineStr"/>
-      <c r="AM29" s="28" t="inlineStr"/>
-      <c r="AN29" s="16" t="inlineStr"/>
+      <c r="AD29" s="23" t="inlineStr"/>
+      <c r="AE29" s="24" t="inlineStr"/>
+      <c r="AF29" s="24" t="inlineStr"/>
+      <c r="AG29" s="24" t="inlineStr"/>
+      <c r="AH29" s="24" t="inlineStr"/>
+      <c r="AI29" s="25" t="inlineStr"/>
+      <c r="AJ29" s="26" t="inlineStr"/>
+      <c r="AK29" s="27" t="inlineStr"/>
+      <c r="AL29" s="28" t="inlineStr"/>
+      <c r="AM29" s="29" t="inlineStr"/>
+      <c r="AN29" s="30" t="inlineStr"/>
       <c r="AO29" s="17" t="inlineStr"/>
       <c r="AP29" s="17" t="inlineStr"/>
-      <c r="AQ29" s="17" t="inlineStr"/>
+      <c r="AQ29" s="31" t="inlineStr"/>
       <c r="AR29" s="18" t="inlineStr"/>
       <c r="AS29" s="19" t="inlineStr"/>
       <c r="AT29" s="19" t="inlineStr"/>
@@ -3912,30 +3956,31 @@
       <c r="BB29" s="20" t="inlineStr"/>
       <c r="BC29" s="21" t="inlineStr"/>
       <c r="BD29" s="21" t="inlineStr"/>
-      <c r="BE29" s="22" t="inlineStr"/>
-      <c r="BF29" s="23" t="inlineStr"/>
-      <c r="BG29" s="23" t="inlineStr"/>
-      <c r="BH29" s="23" t="inlineStr"/>
-      <c r="BI29" s="23" t="inlineStr"/>
-      <c r="BJ29" s="23" t="inlineStr"/>
-      <c r="BK29" s="23" t="inlineStr"/>
-      <c r="BL29" s="23" t="inlineStr"/>
-      <c r="BM29" s="23" t="inlineStr"/>
-      <c r="BN29" s="23" t="inlineStr"/>
-      <c r="BO29" s="23" t="inlineStr"/>
-      <c r="BP29" s="23" t="inlineStr"/>
-      <c r="BQ29" s="23" t="inlineStr"/>
-      <c r="BR29" s="23" t="inlineStr"/>
-      <c r="BS29" s="23" t="inlineStr"/>
-      <c r="BT29" s="23" t="inlineStr"/>
-      <c r="BU29" s="23" t="inlineStr"/>
-      <c r="BV29" s="24" t="inlineStr"/>
-      <c r="BW29" s="29" t="inlineStr"/>
-      <c r="BX29" s="29" t="inlineStr"/>
-      <c r="BY29" s="29" t="inlineStr"/>
-      <c r="BZ29" s="29" t="inlineStr"/>
-      <c r="CA29" s="25" t="inlineStr"/>
+      <c r="BE29" s="23" t="inlineStr"/>
+      <c r="BF29" s="24" t="inlineStr"/>
+      <c r="BG29" s="32" t="inlineStr"/>
+      <c r="BH29" s="32" t="inlineStr"/>
+      <c r="BI29" s="32" t="inlineStr"/>
+      <c r="BJ29" s="32" t="inlineStr"/>
+      <c r="BK29" s="32" t="inlineStr"/>
+      <c r="BL29" s="32" t="inlineStr"/>
+      <c r="BM29" s="32" t="inlineStr"/>
+      <c r="BN29" s="32" t="inlineStr"/>
+      <c r="BO29" s="32" t="inlineStr"/>
+      <c r="BP29" s="32" t="inlineStr"/>
+      <c r="BQ29" s="32" t="inlineStr"/>
+      <c r="BR29" s="32" t="inlineStr"/>
+      <c r="BS29" s="32" t="inlineStr"/>
+      <c r="BT29" s="32" t="inlineStr"/>
+      <c r="BU29" s="32" t="inlineStr"/>
+      <c r="BV29" s="32" t="inlineStr"/>
+      <c r="BW29" s="25" t="inlineStr"/>
+      <c r="BX29" s="33" t="inlineStr"/>
+      <c r="BY29" s="33" t="inlineStr"/>
+      <c r="BZ29" s="33" t="inlineStr"/>
+      <c r="CA29" s="33" t="inlineStr"/>
       <c r="CB29" s="26" t="inlineStr"/>
+      <c r="CC29" s="27" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -3964,23 +4009,23 @@
       <c r="X30" s="20" t="inlineStr"/>
       <c r="Y30" s="21" t="inlineStr"/>
       <c r="Z30" s="21" t="inlineStr"/>
-      <c r="AA30" s="21" t="inlineStr"/>
-      <c r="AB30" s="21" t="inlineStr"/>
+      <c r="AA30" s="22" t="inlineStr"/>
+      <c r="AB30" s="22" t="inlineStr"/>
       <c r="AC30" s="21" t="inlineStr"/>
-      <c r="AD30" s="22" t="inlineStr"/>
-      <c r="AE30" s="23" t="inlineStr"/>
-      <c r="AF30" s="23" t="inlineStr"/>
-      <c r="AG30" s="23" t="inlineStr"/>
-      <c r="AH30" s="23" t="inlineStr"/>
-      <c r="AI30" s="24" t="inlineStr"/>
-      <c r="AJ30" s="25" t="inlineStr"/>
-      <c r="AK30" s="26" t="inlineStr"/>
-      <c r="AL30" s="27" t="inlineStr"/>
-      <c r="AM30" s="28" t="inlineStr"/>
-      <c r="AN30" s="16" t="inlineStr"/>
+      <c r="AD30" s="23" t="inlineStr"/>
+      <c r="AE30" s="24" t="inlineStr"/>
+      <c r="AF30" s="24" t="inlineStr"/>
+      <c r="AG30" s="24" t="inlineStr"/>
+      <c r="AH30" s="24" t="inlineStr"/>
+      <c r="AI30" s="25" t="inlineStr"/>
+      <c r="AJ30" s="26" t="inlineStr"/>
+      <c r="AK30" s="27" t="inlineStr"/>
+      <c r="AL30" s="28" t="inlineStr"/>
+      <c r="AM30" s="29" t="inlineStr"/>
+      <c r="AN30" s="30" t="inlineStr"/>
       <c r="AO30" s="17" t="inlineStr"/>
       <c r="AP30" s="17" t="inlineStr"/>
-      <c r="AQ30" s="17" t="inlineStr"/>
+      <c r="AQ30" s="31" t="inlineStr"/>
       <c r="AR30" s="18" t="inlineStr"/>
       <c r="AS30" s="19" t="inlineStr"/>
       <c r="AT30" s="19" t="inlineStr"/>
@@ -3994,30 +4039,31 @@
       <c r="BB30" s="20" t="inlineStr"/>
       <c r="BC30" s="21" t="inlineStr"/>
       <c r="BD30" s="21" t="inlineStr"/>
-      <c r="BE30" s="22" t="inlineStr"/>
-      <c r="BF30" s="23" t="inlineStr"/>
-      <c r="BG30" s="23" t="inlineStr"/>
-      <c r="BH30" s="23" t="inlineStr"/>
-      <c r="BI30" s="23" t="inlineStr"/>
-      <c r="BJ30" s="23" t="inlineStr"/>
-      <c r="BK30" s="23" t="inlineStr"/>
-      <c r="BL30" s="23" t="inlineStr"/>
-      <c r="BM30" s="23" t="inlineStr"/>
-      <c r="BN30" s="23" t="inlineStr"/>
-      <c r="BO30" s="23" t="inlineStr"/>
-      <c r="BP30" s="23" t="inlineStr"/>
-      <c r="BQ30" s="23" t="inlineStr"/>
-      <c r="BR30" s="23" t="inlineStr"/>
-      <c r="BS30" s="23" t="inlineStr"/>
-      <c r="BT30" s="23" t="inlineStr"/>
-      <c r="BU30" s="23" t="inlineStr"/>
-      <c r="BV30" s="24" t="inlineStr"/>
-      <c r="BW30" s="29" t="inlineStr"/>
-      <c r="BX30" s="29" t="inlineStr"/>
-      <c r="BY30" s="29" t="inlineStr"/>
-      <c r="BZ30" s="29" t="inlineStr"/>
-      <c r="CA30" s="25" t="inlineStr"/>
+      <c r="BE30" s="23" t="inlineStr"/>
+      <c r="BF30" s="24" t="inlineStr"/>
+      <c r="BG30" s="32" t="inlineStr"/>
+      <c r="BH30" s="32" t="inlineStr"/>
+      <c r="BI30" s="32" t="inlineStr"/>
+      <c r="BJ30" s="32" t="inlineStr"/>
+      <c r="BK30" s="32" t="inlineStr"/>
+      <c r="BL30" s="32" t="inlineStr"/>
+      <c r="BM30" s="32" t="inlineStr"/>
+      <c r="BN30" s="32" t="inlineStr"/>
+      <c r="BO30" s="32" t="inlineStr"/>
+      <c r="BP30" s="32" t="inlineStr"/>
+      <c r="BQ30" s="32" t="inlineStr"/>
+      <c r="BR30" s="32" t="inlineStr"/>
+      <c r="BS30" s="32" t="inlineStr"/>
+      <c r="BT30" s="32" t="inlineStr"/>
+      <c r="BU30" s="32" t="inlineStr"/>
+      <c r="BV30" s="32" t="inlineStr"/>
+      <c r="BW30" s="25" t="inlineStr"/>
+      <c r="BX30" s="33" t="inlineStr"/>
+      <c r="BY30" s="33" t="inlineStr"/>
+      <c r="BZ30" s="33" t="inlineStr"/>
+      <c r="CA30" s="33" t="inlineStr"/>
       <c r="CB30" s="26" t="inlineStr"/>
+      <c r="CC30" s="27" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4046,23 +4092,23 @@
       <c r="X31" s="20" t="inlineStr"/>
       <c r="Y31" s="21" t="inlineStr"/>
       <c r="Z31" s="21" t="inlineStr"/>
-      <c r="AA31" s="21" t="inlineStr"/>
-      <c r="AB31" s="21" t="inlineStr"/>
+      <c r="AA31" s="22" t="inlineStr"/>
+      <c r="AB31" s="22" t="inlineStr"/>
       <c r="AC31" s="21" t="inlineStr"/>
-      <c r="AD31" s="22" t="inlineStr"/>
-      <c r="AE31" s="23" t="inlineStr"/>
-      <c r="AF31" s="23" t="inlineStr"/>
-      <c r="AG31" s="23" t="inlineStr"/>
-      <c r="AH31" s="23" t="inlineStr"/>
-      <c r="AI31" s="24" t="inlineStr"/>
-      <c r="AJ31" s="25" t="inlineStr"/>
-      <c r="AK31" s="26" t="inlineStr"/>
-      <c r="AL31" s="27" t="inlineStr"/>
-      <c r="AM31" s="28" t="inlineStr"/>
-      <c r="AN31" s="16" t="inlineStr"/>
+      <c r="AD31" s="23" t="inlineStr"/>
+      <c r="AE31" s="24" t="inlineStr"/>
+      <c r="AF31" s="24" t="inlineStr"/>
+      <c r="AG31" s="24" t="inlineStr"/>
+      <c r="AH31" s="24" t="inlineStr"/>
+      <c r="AI31" s="25" t="inlineStr"/>
+      <c r="AJ31" s="26" t="inlineStr"/>
+      <c r="AK31" s="27" t="inlineStr"/>
+      <c r="AL31" s="28" t="inlineStr"/>
+      <c r="AM31" s="29" t="inlineStr"/>
+      <c r="AN31" s="30" t="inlineStr"/>
       <c r="AO31" s="17" t="inlineStr"/>
       <c r="AP31" s="17" t="inlineStr"/>
-      <c r="AQ31" s="17" t="inlineStr"/>
+      <c r="AQ31" s="31" t="inlineStr"/>
       <c r="AR31" s="18" t="inlineStr"/>
       <c r="AS31" s="19" t="inlineStr"/>
       <c r="AT31" s="19" t="inlineStr"/>
@@ -4076,30 +4122,31 @@
       <c r="BB31" s="20" t="inlineStr"/>
       <c r="BC31" s="21" t="inlineStr"/>
       <c r="BD31" s="21" t="inlineStr"/>
-      <c r="BE31" s="22" t="inlineStr"/>
-      <c r="BF31" s="23" t="inlineStr"/>
-      <c r="BG31" s="23" t="inlineStr"/>
-      <c r="BH31" s="23" t="inlineStr"/>
-      <c r="BI31" s="23" t="inlineStr"/>
-      <c r="BJ31" s="23" t="inlineStr"/>
-      <c r="BK31" s="23" t="inlineStr"/>
-      <c r="BL31" s="23" t="inlineStr"/>
-      <c r="BM31" s="23" t="inlineStr"/>
-      <c r="BN31" s="23" t="inlineStr"/>
-      <c r="BO31" s="23" t="inlineStr"/>
-      <c r="BP31" s="23" t="inlineStr"/>
-      <c r="BQ31" s="23" t="inlineStr"/>
-      <c r="BR31" s="23" t="inlineStr"/>
-      <c r="BS31" s="23" t="inlineStr"/>
-      <c r="BT31" s="23" t="inlineStr"/>
-      <c r="BU31" s="23" t="inlineStr"/>
-      <c r="BV31" s="24" t="inlineStr"/>
-      <c r="BW31" s="29" t="inlineStr"/>
-      <c r="BX31" s="29" t="inlineStr"/>
-      <c r="BY31" s="29" t="inlineStr"/>
-      <c r="BZ31" s="29" t="inlineStr"/>
-      <c r="CA31" s="25" t="inlineStr"/>
+      <c r="BE31" s="23" t="inlineStr"/>
+      <c r="BF31" s="24" t="inlineStr"/>
+      <c r="BG31" s="32" t="inlineStr"/>
+      <c r="BH31" s="32" t="inlineStr"/>
+      <c r="BI31" s="32" t="inlineStr"/>
+      <c r="BJ31" s="32" t="inlineStr"/>
+      <c r="BK31" s="32" t="inlineStr"/>
+      <c r="BL31" s="32" t="inlineStr"/>
+      <c r="BM31" s="32" t="inlineStr"/>
+      <c r="BN31" s="32" t="inlineStr"/>
+      <c r="BO31" s="32" t="inlineStr"/>
+      <c r="BP31" s="32" t="inlineStr"/>
+      <c r="BQ31" s="32" t="inlineStr"/>
+      <c r="BR31" s="32" t="inlineStr"/>
+      <c r="BS31" s="32" t="inlineStr"/>
+      <c r="BT31" s="32" t="inlineStr"/>
+      <c r="BU31" s="32" t="inlineStr"/>
+      <c r="BV31" s="32" t="inlineStr"/>
+      <c r="BW31" s="25" t="inlineStr"/>
+      <c r="BX31" s="33" t="inlineStr"/>
+      <c r="BY31" s="33" t="inlineStr"/>
+      <c r="BZ31" s="33" t="inlineStr"/>
+      <c r="CA31" s="33" t="inlineStr"/>
       <c r="CB31" s="26" t="inlineStr"/>
+      <c r="CC31" s="27" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4128,23 +4175,23 @@
       <c r="X32" s="20" t="inlineStr"/>
       <c r="Y32" s="21" t="inlineStr"/>
       <c r="Z32" s="21" t="inlineStr"/>
-      <c r="AA32" s="21" t="inlineStr"/>
-      <c r="AB32" s="21" t="inlineStr"/>
+      <c r="AA32" s="22" t="inlineStr"/>
+      <c r="AB32" s="22" t="inlineStr"/>
       <c r="AC32" s="21" t="inlineStr"/>
-      <c r="AD32" s="22" t="inlineStr"/>
-      <c r="AE32" s="23" t="inlineStr"/>
-      <c r="AF32" s="23" t="inlineStr"/>
-      <c r="AG32" s="23" t="inlineStr"/>
-      <c r="AH32" s="23" t="inlineStr"/>
-      <c r="AI32" s="24" t="inlineStr"/>
-      <c r="AJ32" s="25" t="inlineStr"/>
-      <c r="AK32" s="26" t="inlineStr"/>
-      <c r="AL32" s="27" t="inlineStr"/>
-      <c r="AM32" s="28" t="inlineStr"/>
-      <c r="AN32" s="16" t="inlineStr"/>
+      <c r="AD32" s="23" t="inlineStr"/>
+      <c r="AE32" s="24" t="inlineStr"/>
+      <c r="AF32" s="24" t="inlineStr"/>
+      <c r="AG32" s="24" t="inlineStr"/>
+      <c r="AH32" s="24" t="inlineStr"/>
+      <c r="AI32" s="25" t="inlineStr"/>
+      <c r="AJ32" s="26" t="inlineStr"/>
+      <c r="AK32" s="27" t="inlineStr"/>
+      <c r="AL32" s="28" t="inlineStr"/>
+      <c r="AM32" s="29" t="inlineStr"/>
+      <c r="AN32" s="30" t="inlineStr"/>
       <c r="AO32" s="17" t="inlineStr"/>
       <c r="AP32" s="17" t="inlineStr"/>
-      <c r="AQ32" s="17" t="inlineStr"/>
+      <c r="AQ32" s="31" t="inlineStr"/>
       <c r="AR32" s="18" t="inlineStr"/>
       <c r="AS32" s="19" t="inlineStr"/>
       <c r="AT32" s="19" t="inlineStr"/>
@@ -4158,30 +4205,31 @@
       <c r="BB32" s="20" t="inlineStr"/>
       <c r="BC32" s="21" t="inlineStr"/>
       <c r="BD32" s="21" t="inlineStr"/>
-      <c r="BE32" s="22" t="inlineStr"/>
-      <c r="BF32" s="23" t="inlineStr"/>
-      <c r="BG32" s="23" t="inlineStr"/>
-      <c r="BH32" s="23" t="inlineStr"/>
-      <c r="BI32" s="23" t="inlineStr"/>
-      <c r="BJ32" s="23" t="inlineStr"/>
-      <c r="BK32" s="23" t="inlineStr"/>
-      <c r="BL32" s="23" t="inlineStr"/>
-      <c r="BM32" s="23" t="inlineStr"/>
-      <c r="BN32" s="23" t="inlineStr"/>
-      <c r="BO32" s="23" t="inlineStr"/>
-      <c r="BP32" s="23" t="inlineStr"/>
-      <c r="BQ32" s="23" t="inlineStr"/>
-      <c r="BR32" s="23" t="inlineStr"/>
-      <c r="BS32" s="23" t="inlineStr"/>
-      <c r="BT32" s="23" t="inlineStr"/>
-      <c r="BU32" s="23" t="inlineStr"/>
-      <c r="BV32" s="24" t="inlineStr"/>
-      <c r="BW32" s="29" t="inlineStr"/>
-      <c r="BX32" s="29" t="inlineStr"/>
-      <c r="BY32" s="29" t="inlineStr"/>
-      <c r="BZ32" s="29" t="inlineStr"/>
-      <c r="CA32" s="25" t="inlineStr"/>
+      <c r="BE32" s="23" t="inlineStr"/>
+      <c r="BF32" s="24" t="inlineStr"/>
+      <c r="BG32" s="32" t="inlineStr"/>
+      <c r="BH32" s="32" t="inlineStr"/>
+      <c r="BI32" s="32" t="inlineStr"/>
+      <c r="BJ32" s="32" t="inlineStr"/>
+      <c r="BK32" s="32" t="inlineStr"/>
+      <c r="BL32" s="32" t="inlineStr"/>
+      <c r="BM32" s="32" t="inlineStr"/>
+      <c r="BN32" s="32" t="inlineStr"/>
+      <c r="BO32" s="32" t="inlineStr"/>
+      <c r="BP32" s="32" t="inlineStr"/>
+      <c r="BQ32" s="32" t="inlineStr"/>
+      <c r="BR32" s="32" t="inlineStr"/>
+      <c r="BS32" s="32" t="inlineStr"/>
+      <c r="BT32" s="32" t="inlineStr"/>
+      <c r="BU32" s="32" t="inlineStr"/>
+      <c r="BV32" s="32" t="inlineStr"/>
+      <c r="BW32" s="25" t="inlineStr"/>
+      <c r="BX32" s="33" t="inlineStr"/>
+      <c r="BY32" s="33" t="inlineStr"/>
+      <c r="BZ32" s="33" t="inlineStr"/>
+      <c r="CA32" s="33" t="inlineStr"/>
       <c r="CB32" s="26" t="inlineStr"/>
+      <c r="CC32" s="27" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4210,23 +4258,23 @@
       <c r="X33" s="20" t="inlineStr"/>
       <c r="Y33" s="21" t="inlineStr"/>
       <c r="Z33" s="21" t="inlineStr"/>
-      <c r="AA33" s="21" t="inlineStr"/>
-      <c r="AB33" s="21" t="inlineStr"/>
+      <c r="AA33" s="22" t="inlineStr"/>
+      <c r="AB33" s="22" t="inlineStr"/>
       <c r="AC33" s="21" t="inlineStr"/>
-      <c r="AD33" s="22" t="inlineStr"/>
-      <c r="AE33" s="23" t="inlineStr"/>
-      <c r="AF33" s="23" t="inlineStr"/>
-      <c r="AG33" s="23" t="inlineStr"/>
-      <c r="AH33" s="23" t="inlineStr"/>
-      <c r="AI33" s="24" t="inlineStr"/>
-      <c r="AJ33" s="25" t="inlineStr"/>
-      <c r="AK33" s="26" t="inlineStr"/>
-      <c r="AL33" s="27" t="inlineStr"/>
-      <c r="AM33" s="28" t="inlineStr"/>
-      <c r="AN33" s="16" t="inlineStr"/>
+      <c r="AD33" s="23" t="inlineStr"/>
+      <c r="AE33" s="24" t="inlineStr"/>
+      <c r="AF33" s="24" t="inlineStr"/>
+      <c r="AG33" s="24" t="inlineStr"/>
+      <c r="AH33" s="24" t="inlineStr"/>
+      <c r="AI33" s="25" t="inlineStr"/>
+      <c r="AJ33" s="26" t="inlineStr"/>
+      <c r="AK33" s="27" t="inlineStr"/>
+      <c r="AL33" s="28" t="inlineStr"/>
+      <c r="AM33" s="29" t="inlineStr"/>
+      <c r="AN33" s="30" t="inlineStr"/>
       <c r="AO33" s="17" t="inlineStr"/>
       <c r="AP33" s="17" t="inlineStr"/>
-      <c r="AQ33" s="17" t="inlineStr"/>
+      <c r="AQ33" s="31" t="inlineStr"/>
       <c r="AR33" s="18" t="inlineStr"/>
       <c r="AS33" s="19" t="inlineStr"/>
       <c r="AT33" s="19" t="inlineStr"/>
@@ -4240,30 +4288,31 @@
       <c r="BB33" s="20" t="inlineStr"/>
       <c r="BC33" s="21" t="inlineStr"/>
       <c r="BD33" s="21" t="inlineStr"/>
-      <c r="BE33" s="22" t="inlineStr"/>
-      <c r="BF33" s="23" t="inlineStr"/>
-      <c r="BG33" s="23" t="inlineStr"/>
-      <c r="BH33" s="23" t="inlineStr"/>
-      <c r="BI33" s="23" t="inlineStr"/>
-      <c r="BJ33" s="23" t="inlineStr"/>
-      <c r="BK33" s="23" t="inlineStr"/>
-      <c r="BL33" s="23" t="inlineStr"/>
-      <c r="BM33" s="23" t="inlineStr"/>
-      <c r="BN33" s="23" t="inlineStr"/>
-      <c r="BO33" s="23" t="inlineStr"/>
-      <c r="BP33" s="23" t="inlineStr"/>
-      <c r="BQ33" s="23" t="inlineStr"/>
-      <c r="BR33" s="23" t="inlineStr"/>
-      <c r="BS33" s="23" t="inlineStr"/>
-      <c r="BT33" s="23" t="inlineStr"/>
-      <c r="BU33" s="23" t="inlineStr"/>
-      <c r="BV33" s="24" t="inlineStr"/>
-      <c r="BW33" s="29" t="inlineStr"/>
-      <c r="BX33" s="29" t="inlineStr"/>
-      <c r="BY33" s="29" t="inlineStr"/>
-      <c r="BZ33" s="29" t="inlineStr"/>
-      <c r="CA33" s="25" t="inlineStr"/>
+      <c r="BE33" s="23" t="inlineStr"/>
+      <c r="BF33" s="24" t="inlineStr"/>
+      <c r="BG33" s="32" t="inlineStr"/>
+      <c r="BH33" s="32" t="inlineStr"/>
+      <c r="BI33" s="32" t="inlineStr"/>
+      <c r="BJ33" s="32" t="inlineStr"/>
+      <c r="BK33" s="32" t="inlineStr"/>
+      <c r="BL33" s="32" t="inlineStr"/>
+      <c r="BM33" s="32" t="inlineStr"/>
+      <c r="BN33" s="32" t="inlineStr"/>
+      <c r="BO33" s="32" t="inlineStr"/>
+      <c r="BP33" s="32" t="inlineStr"/>
+      <c r="BQ33" s="32" t="inlineStr"/>
+      <c r="BR33" s="32" t="inlineStr"/>
+      <c r="BS33" s="32" t="inlineStr"/>
+      <c r="BT33" s="32" t="inlineStr"/>
+      <c r="BU33" s="32" t="inlineStr"/>
+      <c r="BV33" s="32" t="inlineStr"/>
+      <c r="BW33" s="25" t="inlineStr"/>
+      <c r="BX33" s="33" t="inlineStr"/>
+      <c r="BY33" s="33" t="inlineStr"/>
+      <c r="BZ33" s="33" t="inlineStr"/>
+      <c r="CA33" s="33" t="inlineStr"/>
       <c r="CB33" s="26" t="inlineStr"/>
+      <c r="CC33" s="27" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4292,23 +4341,23 @@
       <c r="X34" s="20" t="inlineStr"/>
       <c r="Y34" s="21" t="inlineStr"/>
       <c r="Z34" s="21" t="inlineStr"/>
-      <c r="AA34" s="21" t="inlineStr"/>
-      <c r="AB34" s="21" t="inlineStr"/>
+      <c r="AA34" s="22" t="inlineStr"/>
+      <c r="AB34" s="22" t="inlineStr"/>
       <c r="AC34" s="21" t="inlineStr"/>
-      <c r="AD34" s="22" t="inlineStr"/>
-      <c r="AE34" s="23" t="inlineStr"/>
-      <c r="AF34" s="23" t="inlineStr"/>
-      <c r="AG34" s="23" t="inlineStr"/>
-      <c r="AH34" s="23" t="inlineStr"/>
-      <c r="AI34" s="24" t="inlineStr"/>
-      <c r="AJ34" s="25" t="inlineStr"/>
-      <c r="AK34" s="26" t="inlineStr"/>
-      <c r="AL34" s="27" t="inlineStr"/>
-      <c r="AM34" s="28" t="inlineStr"/>
-      <c r="AN34" s="16" t="inlineStr"/>
+      <c r="AD34" s="23" t="inlineStr"/>
+      <c r="AE34" s="24" t="inlineStr"/>
+      <c r="AF34" s="24" t="inlineStr"/>
+      <c r="AG34" s="24" t="inlineStr"/>
+      <c r="AH34" s="24" t="inlineStr"/>
+      <c r="AI34" s="25" t="inlineStr"/>
+      <c r="AJ34" s="26" t="inlineStr"/>
+      <c r="AK34" s="27" t="inlineStr"/>
+      <c r="AL34" s="28" t="inlineStr"/>
+      <c r="AM34" s="29" t="inlineStr"/>
+      <c r="AN34" s="30" t="inlineStr"/>
       <c r="AO34" s="17" t="inlineStr"/>
       <c r="AP34" s="17" t="inlineStr"/>
-      <c r="AQ34" s="17" t="inlineStr"/>
+      <c r="AQ34" s="31" t="inlineStr"/>
       <c r="AR34" s="18" t="inlineStr"/>
       <c r="AS34" s="19" t="inlineStr"/>
       <c r="AT34" s="19" t="inlineStr"/>
@@ -4322,30 +4371,31 @@
       <c r="BB34" s="20" t="inlineStr"/>
       <c r="BC34" s="21" t="inlineStr"/>
       <c r="BD34" s="21" t="inlineStr"/>
-      <c r="BE34" s="22" t="inlineStr"/>
-      <c r="BF34" s="23" t="inlineStr"/>
-      <c r="BG34" s="23" t="inlineStr"/>
-      <c r="BH34" s="23" t="inlineStr"/>
-      <c r="BI34" s="23" t="inlineStr"/>
-      <c r="BJ34" s="23" t="inlineStr"/>
-      <c r="BK34" s="23" t="inlineStr"/>
-      <c r="BL34" s="23" t="inlineStr"/>
-      <c r="BM34" s="23" t="inlineStr"/>
-      <c r="BN34" s="23" t="inlineStr"/>
-      <c r="BO34" s="23" t="inlineStr"/>
-      <c r="BP34" s="23" t="inlineStr"/>
-      <c r="BQ34" s="23" t="inlineStr"/>
-      <c r="BR34" s="23" t="inlineStr"/>
-      <c r="BS34" s="23" t="inlineStr"/>
-      <c r="BT34" s="23" t="inlineStr"/>
-      <c r="BU34" s="23" t="inlineStr"/>
-      <c r="BV34" s="24" t="inlineStr"/>
-      <c r="BW34" s="29" t="inlineStr"/>
-      <c r="BX34" s="29" t="inlineStr"/>
-      <c r="BY34" s="29" t="inlineStr"/>
-      <c r="BZ34" s="29" t="inlineStr"/>
-      <c r="CA34" s="25" t="inlineStr"/>
+      <c r="BE34" s="23" t="inlineStr"/>
+      <c r="BF34" s="24" t="inlineStr"/>
+      <c r="BG34" s="32" t="inlineStr"/>
+      <c r="BH34" s="32" t="inlineStr"/>
+      <c r="BI34" s="32" t="inlineStr"/>
+      <c r="BJ34" s="32" t="inlineStr"/>
+      <c r="BK34" s="32" t="inlineStr"/>
+      <c r="BL34" s="32" t="inlineStr"/>
+      <c r="BM34" s="32" t="inlineStr"/>
+      <c r="BN34" s="32" t="inlineStr"/>
+      <c r="BO34" s="32" t="inlineStr"/>
+      <c r="BP34" s="32" t="inlineStr"/>
+      <c r="BQ34" s="32" t="inlineStr"/>
+      <c r="BR34" s="32" t="inlineStr"/>
+      <c r="BS34" s="32" t="inlineStr"/>
+      <c r="BT34" s="32" t="inlineStr"/>
+      <c r="BU34" s="32" t="inlineStr"/>
+      <c r="BV34" s="32" t="inlineStr"/>
+      <c r="BW34" s="25" t="inlineStr"/>
+      <c r="BX34" s="33" t="inlineStr"/>
+      <c r="BY34" s="33" t="inlineStr"/>
+      <c r="BZ34" s="33" t="inlineStr"/>
+      <c r="CA34" s="33" t="inlineStr"/>
       <c r="CB34" s="26" t="inlineStr"/>
+      <c r="CC34" s="27" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4374,23 +4424,23 @@
       <c r="X35" s="20" t="inlineStr"/>
       <c r="Y35" s="21" t="inlineStr"/>
       <c r="Z35" s="21" t="inlineStr"/>
-      <c r="AA35" s="21" t="inlineStr"/>
-      <c r="AB35" s="21" t="inlineStr"/>
+      <c r="AA35" s="22" t="inlineStr"/>
+      <c r="AB35" s="22" t="inlineStr"/>
       <c r="AC35" s="21" t="inlineStr"/>
-      <c r="AD35" s="22" t="inlineStr"/>
-      <c r="AE35" s="23" t="inlineStr"/>
-      <c r="AF35" s="23" t="inlineStr"/>
-      <c r="AG35" s="23" t="inlineStr"/>
-      <c r="AH35" s="23" t="inlineStr"/>
-      <c r="AI35" s="24" t="inlineStr"/>
-      <c r="AJ35" s="25" t="inlineStr"/>
-      <c r="AK35" s="26" t="inlineStr"/>
-      <c r="AL35" s="27" t="inlineStr"/>
-      <c r="AM35" s="28" t="inlineStr"/>
-      <c r="AN35" s="16" t="inlineStr"/>
+      <c r="AD35" s="23" t="inlineStr"/>
+      <c r="AE35" s="24" t="inlineStr"/>
+      <c r="AF35" s="24" t="inlineStr"/>
+      <c r="AG35" s="24" t="inlineStr"/>
+      <c r="AH35" s="24" t="inlineStr"/>
+      <c r="AI35" s="25" t="inlineStr"/>
+      <c r="AJ35" s="26" t="inlineStr"/>
+      <c r="AK35" s="27" t="inlineStr"/>
+      <c r="AL35" s="28" t="inlineStr"/>
+      <c r="AM35" s="29" t="inlineStr"/>
+      <c r="AN35" s="30" t="inlineStr"/>
       <c r="AO35" s="17" t="inlineStr"/>
       <c r="AP35" s="17" t="inlineStr"/>
-      <c r="AQ35" s="17" t="inlineStr"/>
+      <c r="AQ35" s="31" t="inlineStr"/>
       <c r="AR35" s="18" t="inlineStr"/>
       <c r="AS35" s="19" t="inlineStr"/>
       <c r="AT35" s="19" t="inlineStr"/>
@@ -4404,30 +4454,31 @@
       <c r="BB35" s="20" t="inlineStr"/>
       <c r="BC35" s="21" t="inlineStr"/>
       <c r="BD35" s="21" t="inlineStr"/>
-      <c r="BE35" s="22" t="inlineStr"/>
-      <c r="BF35" s="23" t="inlineStr"/>
-      <c r="BG35" s="23" t="inlineStr"/>
-      <c r="BH35" s="23" t="inlineStr"/>
-      <c r="BI35" s="23" t="inlineStr"/>
-      <c r="BJ35" s="23" t="inlineStr"/>
-      <c r="BK35" s="23" t="inlineStr"/>
-      <c r="BL35" s="23" t="inlineStr"/>
-      <c r="BM35" s="23" t="inlineStr"/>
-      <c r="BN35" s="23" t="inlineStr"/>
-      <c r="BO35" s="23" t="inlineStr"/>
-      <c r="BP35" s="23" t="inlineStr"/>
-      <c r="BQ35" s="23" t="inlineStr"/>
-      <c r="BR35" s="23" t="inlineStr"/>
-      <c r="BS35" s="23" t="inlineStr"/>
-      <c r="BT35" s="23" t="inlineStr"/>
-      <c r="BU35" s="23" t="inlineStr"/>
-      <c r="BV35" s="24" t="inlineStr"/>
-      <c r="BW35" s="29" t="inlineStr"/>
-      <c r="BX35" s="29" t="inlineStr"/>
-      <c r="BY35" s="29" t="inlineStr"/>
-      <c r="BZ35" s="29" t="inlineStr"/>
-      <c r="CA35" s="25" t="inlineStr"/>
+      <c r="BE35" s="23" t="inlineStr"/>
+      <c r="BF35" s="24" t="inlineStr"/>
+      <c r="BG35" s="32" t="inlineStr"/>
+      <c r="BH35" s="32" t="inlineStr"/>
+      <c r="BI35" s="32" t="inlineStr"/>
+      <c r="BJ35" s="32" t="inlineStr"/>
+      <c r="BK35" s="32" t="inlineStr"/>
+      <c r="BL35" s="32" t="inlineStr"/>
+      <c r="BM35" s="32" t="inlineStr"/>
+      <c r="BN35" s="32" t="inlineStr"/>
+      <c r="BO35" s="32" t="inlineStr"/>
+      <c r="BP35" s="32" t="inlineStr"/>
+      <c r="BQ35" s="32" t="inlineStr"/>
+      <c r="BR35" s="32" t="inlineStr"/>
+      <c r="BS35" s="32" t="inlineStr"/>
+      <c r="BT35" s="32" t="inlineStr"/>
+      <c r="BU35" s="32" t="inlineStr"/>
+      <c r="BV35" s="32" t="inlineStr"/>
+      <c r="BW35" s="25" t="inlineStr"/>
+      <c r="BX35" s="33" t="inlineStr"/>
+      <c r="BY35" s="33" t="inlineStr"/>
+      <c r="BZ35" s="33" t="inlineStr"/>
+      <c r="CA35" s="33" t="inlineStr"/>
       <c r="CB35" s="26" t="inlineStr"/>
+      <c r="CC35" s="27" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4456,23 +4507,23 @@
       <c r="X36" s="20" t="inlineStr"/>
       <c r="Y36" s="21" t="inlineStr"/>
       <c r="Z36" s="21" t="inlineStr"/>
-      <c r="AA36" s="21" t="inlineStr"/>
-      <c r="AB36" s="21" t="inlineStr"/>
+      <c r="AA36" s="22" t="inlineStr"/>
+      <c r="AB36" s="22" t="inlineStr"/>
       <c r="AC36" s="21" t="inlineStr"/>
-      <c r="AD36" s="22" t="inlineStr"/>
-      <c r="AE36" s="23" t="inlineStr"/>
-      <c r="AF36" s="23" t="inlineStr"/>
-      <c r="AG36" s="23" t="inlineStr"/>
-      <c r="AH36" s="23" t="inlineStr"/>
-      <c r="AI36" s="24" t="inlineStr"/>
-      <c r="AJ36" s="25" t="inlineStr"/>
-      <c r="AK36" s="26" t="inlineStr"/>
-      <c r="AL36" s="27" t="inlineStr"/>
-      <c r="AM36" s="28" t="inlineStr"/>
-      <c r="AN36" s="16" t="inlineStr"/>
+      <c r="AD36" s="23" t="inlineStr"/>
+      <c r="AE36" s="24" t="inlineStr"/>
+      <c r="AF36" s="24" t="inlineStr"/>
+      <c r="AG36" s="24" t="inlineStr"/>
+      <c r="AH36" s="24" t="inlineStr"/>
+      <c r="AI36" s="25" t="inlineStr"/>
+      <c r="AJ36" s="26" t="inlineStr"/>
+      <c r="AK36" s="27" t="inlineStr"/>
+      <c r="AL36" s="28" t="inlineStr"/>
+      <c r="AM36" s="29" t="inlineStr"/>
+      <c r="AN36" s="30" t="inlineStr"/>
       <c r="AO36" s="17" t="inlineStr"/>
       <c r="AP36" s="17" t="inlineStr"/>
-      <c r="AQ36" s="17" t="inlineStr"/>
+      <c r="AQ36" s="31" t="inlineStr"/>
       <c r="AR36" s="18" t="inlineStr"/>
       <c r="AS36" s="19" t="inlineStr"/>
       <c r="AT36" s="19" t="inlineStr"/>
@@ -4486,30 +4537,31 @@
       <c r="BB36" s="20" t="inlineStr"/>
       <c r="BC36" s="21" t="inlineStr"/>
       <c r="BD36" s="21" t="inlineStr"/>
-      <c r="BE36" s="22" t="inlineStr"/>
-      <c r="BF36" s="23" t="inlineStr"/>
-      <c r="BG36" s="23" t="inlineStr"/>
-      <c r="BH36" s="23" t="inlineStr"/>
-      <c r="BI36" s="23" t="inlineStr"/>
-      <c r="BJ36" s="23" t="inlineStr"/>
-      <c r="BK36" s="23" t="inlineStr"/>
-      <c r="BL36" s="23" t="inlineStr"/>
-      <c r="BM36" s="23" t="inlineStr"/>
-      <c r="BN36" s="23" t="inlineStr"/>
-      <c r="BO36" s="23" t="inlineStr"/>
-      <c r="BP36" s="23" t="inlineStr"/>
-      <c r="BQ36" s="23" t="inlineStr"/>
-      <c r="BR36" s="23" t="inlineStr"/>
-      <c r="BS36" s="23" t="inlineStr"/>
-      <c r="BT36" s="23" t="inlineStr"/>
-      <c r="BU36" s="23" t="inlineStr"/>
-      <c r="BV36" s="24" t="inlineStr"/>
-      <c r="BW36" s="29" t="inlineStr"/>
-      <c r="BX36" s="29" t="inlineStr"/>
-      <c r="BY36" s="29" t="inlineStr"/>
-      <c r="BZ36" s="29" t="inlineStr"/>
-      <c r="CA36" s="25" t="inlineStr"/>
+      <c r="BE36" s="23" t="inlineStr"/>
+      <c r="BF36" s="24" t="inlineStr"/>
+      <c r="BG36" s="32" t="inlineStr"/>
+      <c r="BH36" s="32" t="inlineStr"/>
+      <c r="BI36" s="32" t="inlineStr"/>
+      <c r="BJ36" s="32" t="inlineStr"/>
+      <c r="BK36" s="32" t="inlineStr"/>
+      <c r="BL36" s="32" t="inlineStr"/>
+      <c r="BM36" s="32" t="inlineStr"/>
+      <c r="BN36" s="32" t="inlineStr"/>
+      <c r="BO36" s="32" t="inlineStr"/>
+      <c r="BP36" s="32" t="inlineStr"/>
+      <c r="BQ36" s="32" t="inlineStr"/>
+      <c r="BR36" s="32" t="inlineStr"/>
+      <c r="BS36" s="32" t="inlineStr"/>
+      <c r="BT36" s="32" t="inlineStr"/>
+      <c r="BU36" s="32" t="inlineStr"/>
+      <c r="BV36" s="32" t="inlineStr"/>
+      <c r="BW36" s="25" t="inlineStr"/>
+      <c r="BX36" s="33" t="inlineStr"/>
+      <c r="BY36" s="33" t="inlineStr"/>
+      <c r="BZ36" s="33" t="inlineStr"/>
+      <c r="CA36" s="33" t="inlineStr"/>
       <c r="CB36" s="26" t="inlineStr"/>
+      <c r="CC36" s="27" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4538,23 +4590,23 @@
       <c r="X37" s="20" t="inlineStr"/>
       <c r="Y37" s="21" t="inlineStr"/>
       <c r="Z37" s="21" t="inlineStr"/>
-      <c r="AA37" s="21" t="inlineStr"/>
-      <c r="AB37" s="21" t="inlineStr"/>
+      <c r="AA37" s="22" t="inlineStr"/>
+      <c r="AB37" s="22" t="inlineStr"/>
       <c r="AC37" s="21" t="inlineStr"/>
-      <c r="AD37" s="22" t="inlineStr"/>
-      <c r="AE37" s="23" t="inlineStr"/>
-      <c r="AF37" s="23" t="inlineStr"/>
-      <c r="AG37" s="23" t="inlineStr"/>
-      <c r="AH37" s="23" t="inlineStr"/>
-      <c r="AI37" s="24" t="inlineStr"/>
-      <c r="AJ37" s="25" t="inlineStr"/>
-      <c r="AK37" s="26" t="inlineStr"/>
-      <c r="AL37" s="27" t="inlineStr"/>
-      <c r="AM37" s="28" t="inlineStr"/>
-      <c r="AN37" s="16" t="inlineStr"/>
+      <c r="AD37" s="23" t="inlineStr"/>
+      <c r="AE37" s="24" t="inlineStr"/>
+      <c r="AF37" s="24" t="inlineStr"/>
+      <c r="AG37" s="24" t="inlineStr"/>
+      <c r="AH37" s="24" t="inlineStr"/>
+      <c r="AI37" s="25" t="inlineStr"/>
+      <c r="AJ37" s="26" t="inlineStr"/>
+      <c r="AK37" s="27" t="inlineStr"/>
+      <c r="AL37" s="28" t="inlineStr"/>
+      <c r="AM37" s="29" t="inlineStr"/>
+      <c r="AN37" s="30" t="inlineStr"/>
       <c r="AO37" s="17" t="inlineStr"/>
       <c r="AP37" s="17" t="inlineStr"/>
-      <c r="AQ37" s="17" t="inlineStr"/>
+      <c r="AQ37" s="31" t="inlineStr"/>
       <c r="AR37" s="18" t="inlineStr"/>
       <c r="AS37" s="19" t="inlineStr"/>
       <c r="AT37" s="19" t="inlineStr"/>
@@ -4568,30 +4620,31 @@
       <c r="BB37" s="20" t="inlineStr"/>
       <c r="BC37" s="21" t="inlineStr"/>
       <c r="BD37" s="21" t="inlineStr"/>
-      <c r="BE37" s="22" t="inlineStr"/>
-      <c r="BF37" s="23" t="inlineStr"/>
-      <c r="BG37" s="23" t="inlineStr"/>
-      <c r="BH37" s="23" t="inlineStr"/>
-      <c r="BI37" s="23" t="inlineStr"/>
-      <c r="BJ37" s="23" t="inlineStr"/>
-      <c r="BK37" s="23" t="inlineStr"/>
-      <c r="BL37" s="23" t="inlineStr"/>
-      <c r="BM37" s="23" t="inlineStr"/>
-      <c r="BN37" s="23" t="inlineStr"/>
-      <c r="BO37" s="23" t="inlineStr"/>
-      <c r="BP37" s="23" t="inlineStr"/>
-      <c r="BQ37" s="23" t="inlineStr"/>
-      <c r="BR37" s="23" t="inlineStr"/>
-      <c r="BS37" s="23" t="inlineStr"/>
-      <c r="BT37" s="23" t="inlineStr"/>
-      <c r="BU37" s="23" t="inlineStr"/>
-      <c r="BV37" s="24" t="inlineStr"/>
-      <c r="BW37" s="29" t="inlineStr"/>
-      <c r="BX37" s="29" t="inlineStr"/>
-      <c r="BY37" s="29" t="inlineStr"/>
-      <c r="BZ37" s="29" t="inlineStr"/>
-      <c r="CA37" s="25" t="inlineStr"/>
+      <c r="BE37" s="23" t="inlineStr"/>
+      <c r="BF37" s="24" t="inlineStr"/>
+      <c r="BG37" s="32" t="inlineStr"/>
+      <c r="BH37" s="32" t="inlineStr"/>
+      <c r="BI37" s="32" t="inlineStr"/>
+      <c r="BJ37" s="32" t="inlineStr"/>
+      <c r="BK37" s="32" t="inlineStr"/>
+      <c r="BL37" s="32" t="inlineStr"/>
+      <c r="BM37" s="32" t="inlineStr"/>
+      <c r="BN37" s="32" t="inlineStr"/>
+      <c r="BO37" s="32" t="inlineStr"/>
+      <c r="BP37" s="32" t="inlineStr"/>
+      <c r="BQ37" s="32" t="inlineStr"/>
+      <c r="BR37" s="32" t="inlineStr"/>
+      <c r="BS37" s="32" t="inlineStr"/>
+      <c r="BT37" s="32" t="inlineStr"/>
+      <c r="BU37" s="32" t="inlineStr"/>
+      <c r="BV37" s="32" t="inlineStr"/>
+      <c r="BW37" s="25" t="inlineStr"/>
+      <c r="BX37" s="33" t="inlineStr"/>
+      <c r="BY37" s="33" t="inlineStr"/>
+      <c r="BZ37" s="33" t="inlineStr"/>
+      <c r="CA37" s="33" t="inlineStr"/>
       <c r="CB37" s="26" t="inlineStr"/>
+      <c r="CC37" s="27" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4620,23 +4673,23 @@
       <c r="X38" s="20" t="inlineStr"/>
       <c r="Y38" s="21" t="inlineStr"/>
       <c r="Z38" s="21" t="inlineStr"/>
-      <c r="AA38" s="21" t="inlineStr"/>
-      <c r="AB38" s="21" t="inlineStr"/>
+      <c r="AA38" s="22" t="inlineStr"/>
+      <c r="AB38" s="22" t="inlineStr"/>
       <c r="AC38" s="21" t="inlineStr"/>
-      <c r="AD38" s="22" t="inlineStr"/>
-      <c r="AE38" s="23" t="inlineStr"/>
-      <c r="AF38" s="23" t="inlineStr"/>
-      <c r="AG38" s="23" t="inlineStr"/>
-      <c r="AH38" s="23" t="inlineStr"/>
-      <c r="AI38" s="24" t="inlineStr"/>
-      <c r="AJ38" s="25" t="inlineStr"/>
-      <c r="AK38" s="26" t="inlineStr"/>
-      <c r="AL38" s="27" t="inlineStr"/>
-      <c r="AM38" s="28" t="inlineStr"/>
-      <c r="AN38" s="16" t="inlineStr"/>
+      <c r="AD38" s="23" t="inlineStr"/>
+      <c r="AE38" s="24" t="inlineStr"/>
+      <c r="AF38" s="24" t="inlineStr"/>
+      <c r="AG38" s="24" t="inlineStr"/>
+      <c r="AH38" s="24" t="inlineStr"/>
+      <c r="AI38" s="25" t="inlineStr"/>
+      <c r="AJ38" s="26" t="inlineStr"/>
+      <c r="AK38" s="27" t="inlineStr"/>
+      <c r="AL38" s="28" t="inlineStr"/>
+      <c r="AM38" s="29" t="inlineStr"/>
+      <c r="AN38" s="30" t="inlineStr"/>
       <c r="AO38" s="17" t="inlineStr"/>
       <c r="AP38" s="17" t="inlineStr"/>
-      <c r="AQ38" s="17" t="inlineStr"/>
+      <c r="AQ38" s="31" t="inlineStr"/>
       <c r="AR38" s="18" t="inlineStr"/>
       <c r="AS38" s="19" t="inlineStr"/>
       <c r="AT38" s="19" t="inlineStr"/>
@@ -4650,30 +4703,31 @@
       <c r="BB38" s="20" t="inlineStr"/>
       <c r="BC38" s="21" t="inlineStr"/>
       <c r="BD38" s="21" t="inlineStr"/>
-      <c r="BE38" s="22" t="inlineStr"/>
-      <c r="BF38" s="23" t="inlineStr"/>
-      <c r="BG38" s="23" t="inlineStr"/>
-      <c r="BH38" s="23" t="inlineStr"/>
-      <c r="BI38" s="23" t="inlineStr"/>
-      <c r="BJ38" s="23" t="inlineStr"/>
-      <c r="BK38" s="23" t="inlineStr"/>
-      <c r="BL38" s="23" t="inlineStr"/>
-      <c r="BM38" s="23" t="inlineStr"/>
-      <c r="BN38" s="23" t="inlineStr"/>
-      <c r="BO38" s="23" t="inlineStr"/>
-      <c r="BP38" s="23" t="inlineStr"/>
-      <c r="BQ38" s="23" t="inlineStr"/>
-      <c r="BR38" s="23" t="inlineStr"/>
-      <c r="BS38" s="23" t="inlineStr"/>
-      <c r="BT38" s="23" t="inlineStr"/>
-      <c r="BU38" s="23" t="inlineStr"/>
-      <c r="BV38" s="24" t="inlineStr"/>
-      <c r="BW38" s="29" t="inlineStr"/>
-      <c r="BX38" s="29" t="inlineStr"/>
-      <c r="BY38" s="29" t="inlineStr"/>
-      <c r="BZ38" s="29" t="inlineStr"/>
-      <c r="CA38" s="25" t="inlineStr"/>
+      <c r="BE38" s="23" t="inlineStr"/>
+      <c r="BF38" s="24" t="inlineStr"/>
+      <c r="BG38" s="32" t="inlineStr"/>
+      <c r="BH38" s="32" t="inlineStr"/>
+      <c r="BI38" s="32" t="inlineStr"/>
+      <c r="BJ38" s="32" t="inlineStr"/>
+      <c r="BK38" s="32" t="inlineStr"/>
+      <c r="BL38" s="32" t="inlineStr"/>
+      <c r="BM38" s="32" t="inlineStr"/>
+      <c r="BN38" s="32" t="inlineStr"/>
+      <c r="BO38" s="32" t="inlineStr"/>
+      <c r="BP38" s="32" t="inlineStr"/>
+      <c r="BQ38" s="32" t="inlineStr"/>
+      <c r="BR38" s="32" t="inlineStr"/>
+      <c r="BS38" s="32" t="inlineStr"/>
+      <c r="BT38" s="32" t="inlineStr"/>
+      <c r="BU38" s="32" t="inlineStr"/>
+      <c r="BV38" s="32" t="inlineStr"/>
+      <c r="BW38" s="25" t="inlineStr"/>
+      <c r="BX38" s="33" t="inlineStr"/>
+      <c r="BY38" s="33" t="inlineStr"/>
+      <c r="BZ38" s="33" t="inlineStr"/>
+      <c r="CA38" s="33" t="inlineStr"/>
       <c r="CB38" s="26" t="inlineStr"/>
+      <c r="CC38" s="27" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4702,23 +4756,23 @@
       <c r="X39" s="20" t="inlineStr"/>
       <c r="Y39" s="21" t="inlineStr"/>
       <c r="Z39" s="21" t="inlineStr"/>
-      <c r="AA39" s="21" t="inlineStr"/>
-      <c r="AB39" s="21" t="inlineStr"/>
+      <c r="AA39" s="22" t="inlineStr"/>
+      <c r="AB39" s="22" t="inlineStr"/>
       <c r="AC39" s="21" t="inlineStr"/>
-      <c r="AD39" s="22" t="inlineStr"/>
-      <c r="AE39" s="23" t="inlineStr"/>
-      <c r="AF39" s="23" t="inlineStr"/>
-      <c r="AG39" s="23" t="inlineStr"/>
-      <c r="AH39" s="23" t="inlineStr"/>
-      <c r="AI39" s="24" t="inlineStr"/>
-      <c r="AJ39" s="25" t="inlineStr"/>
-      <c r="AK39" s="26" t="inlineStr"/>
-      <c r="AL39" s="27" t="inlineStr"/>
-      <c r="AM39" s="28" t="inlineStr"/>
-      <c r="AN39" s="16" t="inlineStr"/>
+      <c r="AD39" s="23" t="inlineStr"/>
+      <c r="AE39" s="24" t="inlineStr"/>
+      <c r="AF39" s="24" t="inlineStr"/>
+      <c r="AG39" s="24" t="inlineStr"/>
+      <c r="AH39" s="24" t="inlineStr"/>
+      <c r="AI39" s="25" t="inlineStr"/>
+      <c r="AJ39" s="26" t="inlineStr"/>
+      <c r="AK39" s="27" t="inlineStr"/>
+      <c r="AL39" s="28" t="inlineStr"/>
+      <c r="AM39" s="29" t="inlineStr"/>
+      <c r="AN39" s="30" t="inlineStr"/>
       <c r="AO39" s="17" t="inlineStr"/>
       <c r="AP39" s="17" t="inlineStr"/>
-      <c r="AQ39" s="17" t="inlineStr"/>
+      <c r="AQ39" s="31" t="inlineStr"/>
       <c r="AR39" s="18" t="inlineStr"/>
       <c r="AS39" s="19" t="inlineStr"/>
       <c r="AT39" s="19" t="inlineStr"/>
@@ -4732,30 +4786,31 @@
       <c r="BB39" s="20" t="inlineStr"/>
       <c r="BC39" s="21" t="inlineStr"/>
       <c r="BD39" s="21" t="inlineStr"/>
-      <c r="BE39" s="22" t="inlineStr"/>
-      <c r="BF39" s="23" t="inlineStr"/>
-      <c r="BG39" s="23" t="inlineStr"/>
-      <c r="BH39" s="23" t="inlineStr"/>
-      <c r="BI39" s="23" t="inlineStr"/>
-      <c r="BJ39" s="23" t="inlineStr"/>
-      <c r="BK39" s="23" t="inlineStr"/>
-      <c r="BL39" s="23" t="inlineStr"/>
-      <c r="BM39" s="23" t="inlineStr"/>
-      <c r="BN39" s="23" t="inlineStr"/>
-      <c r="BO39" s="23" t="inlineStr"/>
-      <c r="BP39" s="23" t="inlineStr"/>
-      <c r="BQ39" s="23" t="inlineStr"/>
-      <c r="BR39" s="23" t="inlineStr"/>
-      <c r="BS39" s="23" t="inlineStr"/>
-      <c r="BT39" s="23" t="inlineStr"/>
-      <c r="BU39" s="23" t="inlineStr"/>
-      <c r="BV39" s="24" t="inlineStr"/>
-      <c r="BW39" s="29" t="inlineStr"/>
-      <c r="BX39" s="29" t="inlineStr"/>
-      <c r="BY39" s="29" t="inlineStr"/>
-      <c r="BZ39" s="29" t="inlineStr"/>
-      <c r="CA39" s="25" t="inlineStr"/>
+      <c r="BE39" s="23" t="inlineStr"/>
+      <c r="BF39" s="24" t="inlineStr"/>
+      <c r="BG39" s="32" t="inlineStr"/>
+      <c r="BH39" s="32" t="inlineStr"/>
+      <c r="BI39" s="32" t="inlineStr"/>
+      <c r="BJ39" s="32" t="inlineStr"/>
+      <c r="BK39" s="32" t="inlineStr"/>
+      <c r="BL39" s="32" t="inlineStr"/>
+      <c r="BM39" s="32" t="inlineStr"/>
+      <c r="BN39" s="32" t="inlineStr"/>
+      <c r="BO39" s="32" t="inlineStr"/>
+      <c r="BP39" s="32" t="inlineStr"/>
+      <c r="BQ39" s="32" t="inlineStr"/>
+      <c r="BR39" s="32" t="inlineStr"/>
+      <c r="BS39" s="32" t="inlineStr"/>
+      <c r="BT39" s="32" t="inlineStr"/>
+      <c r="BU39" s="32" t="inlineStr"/>
+      <c r="BV39" s="32" t="inlineStr"/>
+      <c r="BW39" s="25" t="inlineStr"/>
+      <c r="BX39" s="33" t="inlineStr"/>
+      <c r="BY39" s="33" t="inlineStr"/>
+      <c r="BZ39" s="33" t="inlineStr"/>
+      <c r="CA39" s="33" t="inlineStr"/>
       <c r="CB39" s="26" t="inlineStr"/>
+      <c r="CC39" s="27" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4784,23 +4839,23 @@
       <c r="X40" s="20" t="inlineStr"/>
       <c r="Y40" s="21" t="inlineStr"/>
       <c r="Z40" s="21" t="inlineStr"/>
-      <c r="AA40" s="21" t="inlineStr"/>
-      <c r="AB40" s="21" t="inlineStr"/>
+      <c r="AA40" s="22" t="inlineStr"/>
+      <c r="AB40" s="22" t="inlineStr"/>
       <c r="AC40" s="21" t="inlineStr"/>
-      <c r="AD40" s="22" t="inlineStr"/>
-      <c r="AE40" s="23" t="inlineStr"/>
-      <c r="AF40" s="23" t="inlineStr"/>
-      <c r="AG40" s="23" t="inlineStr"/>
-      <c r="AH40" s="23" t="inlineStr"/>
-      <c r="AI40" s="24" t="inlineStr"/>
-      <c r="AJ40" s="25" t="inlineStr"/>
-      <c r="AK40" s="26" t="inlineStr"/>
-      <c r="AL40" s="27" t="inlineStr"/>
-      <c r="AM40" s="28" t="inlineStr"/>
-      <c r="AN40" s="16" t="inlineStr"/>
+      <c r="AD40" s="23" t="inlineStr"/>
+      <c r="AE40" s="24" t="inlineStr"/>
+      <c r="AF40" s="24" t="inlineStr"/>
+      <c r="AG40" s="24" t="inlineStr"/>
+      <c r="AH40" s="24" t="inlineStr"/>
+      <c r="AI40" s="25" t="inlineStr"/>
+      <c r="AJ40" s="26" t="inlineStr"/>
+      <c r="AK40" s="27" t="inlineStr"/>
+      <c r="AL40" s="28" t="inlineStr"/>
+      <c r="AM40" s="29" t="inlineStr"/>
+      <c r="AN40" s="30" t="inlineStr"/>
       <c r="AO40" s="17" t="inlineStr"/>
       <c r="AP40" s="17" t="inlineStr"/>
-      <c r="AQ40" s="17" t="inlineStr"/>
+      <c r="AQ40" s="31" t="inlineStr"/>
       <c r="AR40" s="18" t="inlineStr"/>
       <c r="AS40" s="19" t="inlineStr"/>
       <c r="AT40" s="19" t="inlineStr"/>
@@ -4814,30 +4869,31 @@
       <c r="BB40" s="20" t="inlineStr"/>
       <c r="BC40" s="21" t="inlineStr"/>
       <c r="BD40" s="21" t="inlineStr"/>
-      <c r="BE40" s="22" t="inlineStr"/>
-      <c r="BF40" s="23" t="inlineStr"/>
-      <c r="BG40" s="23" t="inlineStr"/>
-      <c r="BH40" s="23" t="inlineStr"/>
-      <c r="BI40" s="23" t="inlineStr"/>
-      <c r="BJ40" s="23" t="inlineStr"/>
-      <c r="BK40" s="23" t="inlineStr"/>
-      <c r="BL40" s="23" t="inlineStr"/>
-      <c r="BM40" s="23" t="inlineStr"/>
-      <c r="BN40" s="23" t="inlineStr"/>
-      <c r="BO40" s="23" t="inlineStr"/>
-      <c r="BP40" s="23" t="inlineStr"/>
-      <c r="BQ40" s="23" t="inlineStr"/>
-      <c r="BR40" s="23" t="inlineStr"/>
-      <c r="BS40" s="23" t="inlineStr"/>
-      <c r="BT40" s="23" t="inlineStr"/>
-      <c r="BU40" s="23" t="inlineStr"/>
-      <c r="BV40" s="24" t="inlineStr"/>
-      <c r="BW40" s="29" t="inlineStr"/>
-      <c r="BX40" s="29" t="inlineStr"/>
-      <c r="BY40" s="29" t="inlineStr"/>
-      <c r="BZ40" s="29" t="inlineStr"/>
-      <c r="CA40" s="25" t="inlineStr"/>
+      <c r="BE40" s="23" t="inlineStr"/>
+      <c r="BF40" s="24" t="inlineStr"/>
+      <c r="BG40" s="32" t="inlineStr"/>
+      <c r="BH40" s="32" t="inlineStr"/>
+      <c r="BI40" s="32" t="inlineStr"/>
+      <c r="BJ40" s="32" t="inlineStr"/>
+      <c r="BK40" s="32" t="inlineStr"/>
+      <c r="BL40" s="32" t="inlineStr"/>
+      <c r="BM40" s="32" t="inlineStr"/>
+      <c r="BN40" s="32" t="inlineStr"/>
+      <c r="BO40" s="32" t="inlineStr"/>
+      <c r="BP40" s="32" t="inlineStr"/>
+      <c r="BQ40" s="32" t="inlineStr"/>
+      <c r="BR40" s="32" t="inlineStr"/>
+      <c r="BS40" s="32" t="inlineStr"/>
+      <c r="BT40" s="32" t="inlineStr"/>
+      <c r="BU40" s="32" t="inlineStr"/>
+      <c r="BV40" s="32" t="inlineStr"/>
+      <c r="BW40" s="25" t="inlineStr"/>
+      <c r="BX40" s="33" t="inlineStr"/>
+      <c r="BY40" s="33" t="inlineStr"/>
+      <c r="BZ40" s="33" t="inlineStr"/>
+      <c r="CA40" s="33" t="inlineStr"/>
       <c r="CB40" s="26" t="inlineStr"/>
+      <c r="CC40" s="27" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -4866,23 +4922,23 @@
       <c r="X41" s="20" t="inlineStr"/>
       <c r="Y41" s="21" t="inlineStr"/>
       <c r="Z41" s="21" t="inlineStr"/>
-      <c r="AA41" s="21" t="inlineStr"/>
-      <c r="AB41" s="21" t="inlineStr"/>
+      <c r="AA41" s="22" t="inlineStr"/>
+      <c r="AB41" s="22" t="inlineStr"/>
       <c r="AC41" s="21" t="inlineStr"/>
-      <c r="AD41" s="22" t="inlineStr"/>
-      <c r="AE41" s="23" t="inlineStr"/>
-      <c r="AF41" s="23" t="inlineStr"/>
-      <c r="AG41" s="23" t="inlineStr"/>
-      <c r="AH41" s="23" t="inlineStr"/>
-      <c r="AI41" s="24" t="inlineStr"/>
-      <c r="AJ41" s="25" t="inlineStr"/>
-      <c r="AK41" s="26" t="inlineStr"/>
-      <c r="AL41" s="27" t="inlineStr"/>
-      <c r="AM41" s="28" t="inlineStr"/>
-      <c r="AN41" s="16" t="inlineStr"/>
+      <c r="AD41" s="23" t="inlineStr"/>
+      <c r="AE41" s="24" t="inlineStr"/>
+      <c r="AF41" s="24" t="inlineStr"/>
+      <c r="AG41" s="24" t="inlineStr"/>
+      <c r="AH41" s="24" t="inlineStr"/>
+      <c r="AI41" s="25" t="inlineStr"/>
+      <c r="AJ41" s="26" t="inlineStr"/>
+      <c r="AK41" s="27" t="inlineStr"/>
+      <c r="AL41" s="28" t="inlineStr"/>
+      <c r="AM41" s="29" t="inlineStr"/>
+      <c r="AN41" s="30" t="inlineStr"/>
       <c r="AO41" s="17" t="inlineStr"/>
       <c r="AP41" s="17" t="inlineStr"/>
-      <c r="AQ41" s="17" t="inlineStr"/>
+      <c r="AQ41" s="31" t="inlineStr"/>
       <c r="AR41" s="18" t="inlineStr"/>
       <c r="AS41" s="19" t="inlineStr"/>
       <c r="AT41" s="19" t="inlineStr"/>
@@ -4896,30 +4952,31 @@
       <c r="BB41" s="20" t="inlineStr"/>
       <c r="BC41" s="21" t="inlineStr"/>
       <c r="BD41" s="21" t="inlineStr"/>
-      <c r="BE41" s="22" t="inlineStr"/>
-      <c r="BF41" s="23" t="inlineStr"/>
-      <c r="BG41" s="23" t="inlineStr"/>
-      <c r="BH41" s="23" t="inlineStr"/>
-      <c r="BI41" s="23" t="inlineStr"/>
-      <c r="BJ41" s="23" t="inlineStr"/>
-      <c r="BK41" s="23" t="inlineStr"/>
-      <c r="BL41" s="23" t="inlineStr"/>
-      <c r="BM41" s="23" t="inlineStr"/>
-      <c r="BN41" s="23" t="inlineStr"/>
-      <c r="BO41" s="23" t="inlineStr"/>
-      <c r="BP41" s="23" t="inlineStr"/>
-      <c r="BQ41" s="23" t="inlineStr"/>
-      <c r="BR41" s="23" t="inlineStr"/>
-      <c r="BS41" s="23" t="inlineStr"/>
-      <c r="BT41" s="23" t="inlineStr"/>
-      <c r="BU41" s="23" t="inlineStr"/>
-      <c r="BV41" s="24" t="inlineStr"/>
-      <c r="BW41" s="29" t="inlineStr"/>
-      <c r="BX41" s="29" t="inlineStr"/>
-      <c r="BY41" s="29" t="inlineStr"/>
-      <c r="BZ41" s="29" t="inlineStr"/>
-      <c r="CA41" s="25" t="inlineStr"/>
+      <c r="BE41" s="23" t="inlineStr"/>
+      <c r="BF41" s="24" t="inlineStr"/>
+      <c r="BG41" s="32" t="inlineStr"/>
+      <c r="BH41" s="32" t="inlineStr"/>
+      <c r="BI41" s="32" t="inlineStr"/>
+      <c r="BJ41" s="32" t="inlineStr"/>
+      <c r="BK41" s="32" t="inlineStr"/>
+      <c r="BL41" s="32" t="inlineStr"/>
+      <c r="BM41" s="32" t="inlineStr"/>
+      <c r="BN41" s="32" t="inlineStr"/>
+      <c r="BO41" s="32" t="inlineStr"/>
+      <c r="BP41" s="32" t="inlineStr"/>
+      <c r="BQ41" s="32" t="inlineStr"/>
+      <c r="BR41" s="32" t="inlineStr"/>
+      <c r="BS41" s="32" t="inlineStr"/>
+      <c r="BT41" s="32" t="inlineStr"/>
+      <c r="BU41" s="32" t="inlineStr"/>
+      <c r="BV41" s="32" t="inlineStr"/>
+      <c r="BW41" s="25" t="inlineStr"/>
+      <c r="BX41" s="33" t="inlineStr"/>
+      <c r="BY41" s="33" t="inlineStr"/>
+      <c r="BZ41" s="33" t="inlineStr"/>
+      <c r="CA41" s="33" t="inlineStr"/>
       <c r="CB41" s="26" t="inlineStr"/>
+      <c r="CC41" s="27" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -4948,23 +5005,23 @@
       <c r="X42" s="20" t="inlineStr"/>
       <c r="Y42" s="21" t="inlineStr"/>
       <c r="Z42" s="21" t="inlineStr"/>
-      <c r="AA42" s="21" t="inlineStr"/>
-      <c r="AB42" s="21" t="inlineStr"/>
+      <c r="AA42" s="22" t="inlineStr"/>
+      <c r="AB42" s="22" t="inlineStr"/>
       <c r="AC42" s="21" t="inlineStr"/>
-      <c r="AD42" s="22" t="inlineStr"/>
-      <c r="AE42" s="23" t="inlineStr"/>
-      <c r="AF42" s="23" t="inlineStr"/>
-      <c r="AG42" s="23" t="inlineStr"/>
-      <c r="AH42" s="23" t="inlineStr"/>
-      <c r="AI42" s="24" t="inlineStr"/>
-      <c r="AJ42" s="25" t="inlineStr"/>
-      <c r="AK42" s="26" t="inlineStr"/>
-      <c r="AL42" s="27" t="inlineStr"/>
-      <c r="AM42" s="28" t="inlineStr"/>
-      <c r="AN42" s="16" t="inlineStr"/>
+      <c r="AD42" s="23" t="inlineStr"/>
+      <c r="AE42" s="24" t="inlineStr"/>
+      <c r="AF42" s="24" t="inlineStr"/>
+      <c r="AG42" s="24" t="inlineStr"/>
+      <c r="AH42" s="24" t="inlineStr"/>
+      <c r="AI42" s="25" t="inlineStr"/>
+      <c r="AJ42" s="26" t="inlineStr"/>
+      <c r="AK42" s="27" t="inlineStr"/>
+      <c r="AL42" s="28" t="inlineStr"/>
+      <c r="AM42" s="29" t="inlineStr"/>
+      <c r="AN42" s="30" t="inlineStr"/>
       <c r="AO42" s="17" t="inlineStr"/>
       <c r="AP42" s="17" t="inlineStr"/>
-      <c r="AQ42" s="17" t="inlineStr"/>
+      <c r="AQ42" s="31" t="inlineStr"/>
       <c r="AR42" s="18" t="inlineStr"/>
       <c r="AS42" s="19" t="inlineStr"/>
       <c r="AT42" s="19" t="inlineStr"/>
@@ -4978,30 +5035,31 @@
       <c r="BB42" s="20" t="inlineStr"/>
       <c r="BC42" s="21" t="inlineStr"/>
       <c r="BD42" s="21" t="inlineStr"/>
-      <c r="BE42" s="22" t="inlineStr"/>
-      <c r="BF42" s="23" t="inlineStr"/>
-      <c r="BG42" s="23" t="inlineStr"/>
-      <c r="BH42" s="23" t="inlineStr"/>
-      <c r="BI42" s="23" t="inlineStr"/>
-      <c r="BJ42" s="23" t="inlineStr"/>
-      <c r="BK42" s="23" t="inlineStr"/>
-      <c r="BL42" s="23" t="inlineStr"/>
-      <c r="BM42" s="23" t="inlineStr"/>
-      <c r="BN42" s="23" t="inlineStr"/>
-      <c r="BO42" s="23" t="inlineStr"/>
-      <c r="BP42" s="23" t="inlineStr"/>
-      <c r="BQ42" s="23" t="inlineStr"/>
-      <c r="BR42" s="23" t="inlineStr"/>
-      <c r="BS42" s="23" t="inlineStr"/>
-      <c r="BT42" s="23" t="inlineStr"/>
-      <c r="BU42" s="23" t="inlineStr"/>
-      <c r="BV42" s="24" t="inlineStr"/>
-      <c r="BW42" s="29" t="inlineStr"/>
-      <c r="BX42" s="29" t="inlineStr"/>
-      <c r="BY42" s="29" t="inlineStr"/>
-      <c r="BZ42" s="29" t="inlineStr"/>
-      <c r="CA42" s="25" t="inlineStr"/>
+      <c r="BE42" s="23" t="inlineStr"/>
+      <c r="BF42" s="24" t="inlineStr"/>
+      <c r="BG42" s="32" t="inlineStr"/>
+      <c r="BH42" s="32" t="inlineStr"/>
+      <c r="BI42" s="32" t="inlineStr"/>
+      <c r="BJ42" s="32" t="inlineStr"/>
+      <c r="BK42" s="32" t="inlineStr"/>
+      <c r="BL42" s="32" t="inlineStr"/>
+      <c r="BM42" s="32" t="inlineStr"/>
+      <c r="BN42" s="32" t="inlineStr"/>
+      <c r="BO42" s="32" t="inlineStr"/>
+      <c r="BP42" s="32" t="inlineStr"/>
+      <c r="BQ42" s="32" t="inlineStr"/>
+      <c r="BR42" s="32" t="inlineStr"/>
+      <c r="BS42" s="32" t="inlineStr"/>
+      <c r="BT42" s="32" t="inlineStr"/>
+      <c r="BU42" s="32" t="inlineStr"/>
+      <c r="BV42" s="32" t="inlineStr"/>
+      <c r="BW42" s="25" t="inlineStr"/>
+      <c r="BX42" s="33" t="inlineStr"/>
+      <c r="BY42" s="33" t="inlineStr"/>
+      <c r="BZ42" s="33" t="inlineStr"/>
+      <c r="CA42" s="33" t="inlineStr"/>
       <c r="CB42" s="26" t="inlineStr"/>
+      <c r="CC42" s="27" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5030,23 +5088,23 @@
       <c r="X43" s="20" t="inlineStr"/>
       <c r="Y43" s="21" t="inlineStr"/>
       <c r="Z43" s="21" t="inlineStr"/>
-      <c r="AA43" s="21" t="inlineStr"/>
-      <c r="AB43" s="21" t="inlineStr"/>
+      <c r="AA43" s="22" t="inlineStr"/>
+      <c r="AB43" s="22" t="inlineStr"/>
       <c r="AC43" s="21" t="inlineStr"/>
-      <c r="AD43" s="22" t="inlineStr"/>
-      <c r="AE43" s="23" t="inlineStr"/>
-      <c r="AF43" s="23" t="inlineStr"/>
-      <c r="AG43" s="23" t="inlineStr"/>
-      <c r="AH43" s="23" t="inlineStr"/>
-      <c r="AI43" s="24" t="inlineStr"/>
-      <c r="AJ43" s="25" t="inlineStr"/>
-      <c r="AK43" s="26" t="inlineStr"/>
-      <c r="AL43" s="27" t="inlineStr"/>
-      <c r="AM43" s="28" t="inlineStr"/>
-      <c r="AN43" s="16" t="inlineStr"/>
+      <c r="AD43" s="23" t="inlineStr"/>
+      <c r="AE43" s="24" t="inlineStr"/>
+      <c r="AF43" s="24" t="inlineStr"/>
+      <c r="AG43" s="24" t="inlineStr"/>
+      <c r="AH43" s="24" t="inlineStr"/>
+      <c r="AI43" s="25" t="inlineStr"/>
+      <c r="AJ43" s="26" t="inlineStr"/>
+      <c r="AK43" s="27" t="inlineStr"/>
+      <c r="AL43" s="28" t="inlineStr"/>
+      <c r="AM43" s="29" t="inlineStr"/>
+      <c r="AN43" s="30" t="inlineStr"/>
       <c r="AO43" s="17" t="inlineStr"/>
       <c r="AP43" s="17" t="inlineStr"/>
-      <c r="AQ43" s="17" t="inlineStr"/>
+      <c r="AQ43" s="31" t="inlineStr"/>
       <c r="AR43" s="18" t="inlineStr"/>
       <c r="AS43" s="19" t="inlineStr"/>
       <c r="AT43" s="19" t="inlineStr"/>
@@ -5060,30 +5118,31 @@
       <c r="BB43" s="20" t="inlineStr"/>
       <c r="BC43" s="21" t="inlineStr"/>
       <c r="BD43" s="21" t="inlineStr"/>
-      <c r="BE43" s="22" t="inlineStr"/>
-      <c r="BF43" s="23" t="inlineStr"/>
-      <c r="BG43" s="23" t="inlineStr"/>
-      <c r="BH43" s="23" t="inlineStr"/>
-      <c r="BI43" s="23" t="inlineStr"/>
-      <c r="BJ43" s="23" t="inlineStr"/>
-      <c r="BK43" s="23" t="inlineStr"/>
-      <c r="BL43" s="23" t="inlineStr"/>
-      <c r="BM43" s="23" t="inlineStr"/>
-      <c r="BN43" s="23" t="inlineStr"/>
-      <c r="BO43" s="23" t="inlineStr"/>
-      <c r="BP43" s="23" t="inlineStr"/>
-      <c r="BQ43" s="23" t="inlineStr"/>
-      <c r="BR43" s="23" t="inlineStr"/>
-      <c r="BS43" s="23" t="inlineStr"/>
-      <c r="BT43" s="23" t="inlineStr"/>
-      <c r="BU43" s="23" t="inlineStr"/>
-      <c r="BV43" s="24" t="inlineStr"/>
-      <c r="BW43" s="29" t="inlineStr"/>
-      <c r="BX43" s="29" t="inlineStr"/>
-      <c r="BY43" s="29" t="inlineStr"/>
-      <c r="BZ43" s="29" t="inlineStr"/>
-      <c r="CA43" s="25" t="inlineStr"/>
+      <c r="BE43" s="23" t="inlineStr"/>
+      <c r="BF43" s="24" t="inlineStr"/>
+      <c r="BG43" s="32" t="inlineStr"/>
+      <c r="BH43" s="32" t="inlineStr"/>
+      <c r="BI43" s="32" t="inlineStr"/>
+      <c r="BJ43" s="32" t="inlineStr"/>
+      <c r="BK43" s="32" t="inlineStr"/>
+      <c r="BL43" s="32" t="inlineStr"/>
+      <c r="BM43" s="32" t="inlineStr"/>
+      <c r="BN43" s="32" t="inlineStr"/>
+      <c r="BO43" s="32" t="inlineStr"/>
+      <c r="BP43" s="32" t="inlineStr"/>
+      <c r="BQ43" s="32" t="inlineStr"/>
+      <c r="BR43" s="32" t="inlineStr"/>
+      <c r="BS43" s="32" t="inlineStr"/>
+      <c r="BT43" s="32" t="inlineStr"/>
+      <c r="BU43" s="32" t="inlineStr"/>
+      <c r="BV43" s="32" t="inlineStr"/>
+      <c r="BW43" s="25" t="inlineStr"/>
+      <c r="BX43" s="33" t="inlineStr"/>
+      <c r="BY43" s="33" t="inlineStr"/>
+      <c r="BZ43" s="33" t="inlineStr"/>
+      <c r="CA43" s="33" t="inlineStr"/>
       <c r="CB43" s="26" t="inlineStr"/>
+      <c r="CC43" s="27" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5112,23 +5171,23 @@
       <c r="X44" s="20" t="inlineStr"/>
       <c r="Y44" s="21" t="inlineStr"/>
       <c r="Z44" s="21" t="inlineStr"/>
-      <c r="AA44" s="21" t="inlineStr"/>
-      <c r="AB44" s="21" t="inlineStr"/>
+      <c r="AA44" s="22" t="inlineStr"/>
+      <c r="AB44" s="22" t="inlineStr"/>
       <c r="AC44" s="21" t="inlineStr"/>
-      <c r="AD44" s="22" t="inlineStr"/>
-      <c r="AE44" s="23" t="inlineStr"/>
-      <c r="AF44" s="23" t="inlineStr"/>
-      <c r="AG44" s="23" t="inlineStr"/>
-      <c r="AH44" s="23" t="inlineStr"/>
-      <c r="AI44" s="24" t="inlineStr"/>
-      <c r="AJ44" s="25" t="inlineStr"/>
-      <c r="AK44" s="26" t="inlineStr"/>
-      <c r="AL44" s="27" t="inlineStr"/>
-      <c r="AM44" s="28" t="inlineStr"/>
-      <c r="AN44" s="16" t="inlineStr"/>
+      <c r="AD44" s="23" t="inlineStr"/>
+      <c r="AE44" s="24" t="inlineStr"/>
+      <c r="AF44" s="24" t="inlineStr"/>
+      <c r="AG44" s="24" t="inlineStr"/>
+      <c r="AH44" s="24" t="inlineStr"/>
+      <c r="AI44" s="25" t="inlineStr"/>
+      <c r="AJ44" s="26" t="inlineStr"/>
+      <c r="AK44" s="27" t="inlineStr"/>
+      <c r="AL44" s="28" t="inlineStr"/>
+      <c r="AM44" s="29" t="inlineStr"/>
+      <c r="AN44" s="30" t="inlineStr"/>
       <c r="AO44" s="17" t="inlineStr"/>
       <c r="AP44" s="17" t="inlineStr"/>
-      <c r="AQ44" s="17" t="inlineStr"/>
+      <c r="AQ44" s="31" t="inlineStr"/>
       <c r="AR44" s="18" t="inlineStr"/>
       <c r="AS44" s="19" t="inlineStr"/>
       <c r="AT44" s="19" t="inlineStr"/>
@@ -5142,30 +5201,31 @@
       <c r="BB44" s="20" t="inlineStr"/>
       <c r="BC44" s="21" t="inlineStr"/>
       <c r="BD44" s="21" t="inlineStr"/>
-      <c r="BE44" s="22" t="inlineStr"/>
-      <c r="BF44" s="23" t="inlineStr"/>
-      <c r="BG44" s="23" t="inlineStr"/>
-      <c r="BH44" s="23" t="inlineStr"/>
-      <c r="BI44" s="23" t="inlineStr"/>
-      <c r="BJ44" s="23" t="inlineStr"/>
-      <c r="BK44" s="23" t="inlineStr"/>
-      <c r="BL44" s="23" t="inlineStr"/>
-      <c r="BM44" s="23" t="inlineStr"/>
-      <c r="BN44" s="23" t="inlineStr"/>
-      <c r="BO44" s="23" t="inlineStr"/>
-      <c r="BP44" s="23" t="inlineStr"/>
-      <c r="BQ44" s="23" t="inlineStr"/>
-      <c r="BR44" s="23" t="inlineStr"/>
-      <c r="BS44" s="23" t="inlineStr"/>
-      <c r="BT44" s="23" t="inlineStr"/>
-      <c r="BU44" s="23" t="inlineStr"/>
-      <c r="BV44" s="24" t="inlineStr"/>
-      <c r="BW44" s="29" t="inlineStr"/>
-      <c r="BX44" s="29" t="inlineStr"/>
-      <c r="BY44" s="29" t="inlineStr"/>
-      <c r="BZ44" s="29" t="inlineStr"/>
-      <c r="CA44" s="25" t="inlineStr"/>
+      <c r="BE44" s="23" t="inlineStr"/>
+      <c r="BF44" s="24" t="inlineStr"/>
+      <c r="BG44" s="32" t="inlineStr"/>
+      <c r="BH44" s="32" t="inlineStr"/>
+      <c r="BI44" s="32" t="inlineStr"/>
+      <c r="BJ44" s="32" t="inlineStr"/>
+      <c r="BK44" s="32" t="inlineStr"/>
+      <c r="BL44" s="32" t="inlineStr"/>
+      <c r="BM44" s="32" t="inlineStr"/>
+      <c r="BN44" s="32" t="inlineStr"/>
+      <c r="BO44" s="32" t="inlineStr"/>
+      <c r="BP44" s="32" t="inlineStr"/>
+      <c r="BQ44" s="32" t="inlineStr"/>
+      <c r="BR44" s="32" t="inlineStr"/>
+      <c r="BS44" s="32" t="inlineStr"/>
+      <c r="BT44" s="32" t="inlineStr"/>
+      <c r="BU44" s="32" t="inlineStr"/>
+      <c r="BV44" s="32" t="inlineStr"/>
+      <c r="BW44" s="25" t="inlineStr"/>
+      <c r="BX44" s="33" t="inlineStr"/>
+      <c r="BY44" s="33" t="inlineStr"/>
+      <c r="BZ44" s="33" t="inlineStr"/>
+      <c r="CA44" s="33" t="inlineStr"/>
       <c r="CB44" s="26" t="inlineStr"/>
+      <c r="CC44" s="27" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5194,23 +5254,23 @@
       <c r="X45" s="20" t="inlineStr"/>
       <c r="Y45" s="21" t="inlineStr"/>
       <c r="Z45" s="21" t="inlineStr"/>
-      <c r="AA45" s="21" t="inlineStr"/>
-      <c r="AB45" s="21" t="inlineStr"/>
+      <c r="AA45" s="22" t="inlineStr"/>
+      <c r="AB45" s="22" t="inlineStr"/>
       <c r="AC45" s="21" t="inlineStr"/>
-      <c r="AD45" s="22" t="inlineStr"/>
-      <c r="AE45" s="23" t="inlineStr"/>
-      <c r="AF45" s="23" t="inlineStr"/>
-      <c r="AG45" s="23" t="inlineStr"/>
-      <c r="AH45" s="23" t="inlineStr"/>
-      <c r="AI45" s="24" t="inlineStr"/>
-      <c r="AJ45" s="25" t="inlineStr"/>
-      <c r="AK45" s="26" t="inlineStr"/>
-      <c r="AL45" s="27" t="inlineStr"/>
-      <c r="AM45" s="28" t="inlineStr"/>
-      <c r="AN45" s="16" t="inlineStr"/>
+      <c r="AD45" s="23" t="inlineStr"/>
+      <c r="AE45" s="24" t="inlineStr"/>
+      <c r="AF45" s="24" t="inlineStr"/>
+      <c r="AG45" s="24" t="inlineStr"/>
+      <c r="AH45" s="24" t="inlineStr"/>
+      <c r="AI45" s="25" t="inlineStr"/>
+      <c r="AJ45" s="26" t="inlineStr"/>
+      <c r="AK45" s="27" t="inlineStr"/>
+      <c r="AL45" s="28" t="inlineStr"/>
+      <c r="AM45" s="29" t="inlineStr"/>
+      <c r="AN45" s="30" t="inlineStr"/>
       <c r="AO45" s="17" t="inlineStr"/>
       <c r="AP45" s="17" t="inlineStr"/>
-      <c r="AQ45" s="17" t="inlineStr"/>
+      <c r="AQ45" s="31" t="inlineStr"/>
       <c r="AR45" s="18" t="inlineStr"/>
       <c r="AS45" s="19" t="inlineStr"/>
       <c r="AT45" s="19" t="inlineStr"/>
@@ -5224,30 +5284,31 @@
       <c r="BB45" s="20" t="inlineStr"/>
       <c r="BC45" s="21" t="inlineStr"/>
       <c r="BD45" s="21" t="inlineStr"/>
-      <c r="BE45" s="22" t="inlineStr"/>
-      <c r="BF45" s="23" t="inlineStr"/>
-      <c r="BG45" s="23" t="inlineStr"/>
-      <c r="BH45" s="23" t="inlineStr"/>
-      <c r="BI45" s="23" t="inlineStr"/>
-      <c r="BJ45" s="23" t="inlineStr"/>
-      <c r="BK45" s="23" t="inlineStr"/>
-      <c r="BL45" s="23" t="inlineStr"/>
-      <c r="BM45" s="23" t="inlineStr"/>
-      <c r="BN45" s="23" t="inlineStr"/>
-      <c r="BO45" s="23" t="inlineStr"/>
-      <c r="BP45" s="23" t="inlineStr"/>
-      <c r="BQ45" s="23" t="inlineStr"/>
-      <c r="BR45" s="23" t="inlineStr"/>
-      <c r="BS45" s="23" t="inlineStr"/>
-      <c r="BT45" s="23" t="inlineStr"/>
-      <c r="BU45" s="23" t="inlineStr"/>
-      <c r="BV45" s="24" t="inlineStr"/>
-      <c r="BW45" s="29" t="inlineStr"/>
-      <c r="BX45" s="29" t="inlineStr"/>
-      <c r="BY45" s="29" t="inlineStr"/>
-      <c r="BZ45" s="29" t="inlineStr"/>
-      <c r="CA45" s="25" t="inlineStr"/>
+      <c r="BE45" s="23" t="inlineStr"/>
+      <c r="BF45" s="24" t="inlineStr"/>
+      <c r="BG45" s="32" t="inlineStr"/>
+      <c r="BH45" s="32" t="inlineStr"/>
+      <c r="BI45" s="32" t="inlineStr"/>
+      <c r="BJ45" s="32" t="inlineStr"/>
+      <c r="BK45" s="32" t="inlineStr"/>
+      <c r="BL45" s="32" t="inlineStr"/>
+      <c r="BM45" s="32" t="inlineStr"/>
+      <c r="BN45" s="32" t="inlineStr"/>
+      <c r="BO45" s="32" t="inlineStr"/>
+      <c r="BP45" s="32" t="inlineStr"/>
+      <c r="BQ45" s="32" t="inlineStr"/>
+      <c r="BR45" s="32" t="inlineStr"/>
+      <c r="BS45" s="32" t="inlineStr"/>
+      <c r="BT45" s="32" t="inlineStr"/>
+      <c r="BU45" s="32" t="inlineStr"/>
+      <c r="BV45" s="32" t="inlineStr"/>
+      <c r="BW45" s="25" t="inlineStr"/>
+      <c r="BX45" s="33" t="inlineStr"/>
+      <c r="BY45" s="33" t="inlineStr"/>
+      <c r="BZ45" s="33" t="inlineStr"/>
+      <c r="CA45" s="33" t="inlineStr"/>
       <c r="CB45" s="26" t="inlineStr"/>
+      <c r="CC45" s="27" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5276,23 +5337,23 @@
       <c r="X46" s="20" t="inlineStr"/>
       <c r="Y46" s="21" t="inlineStr"/>
       <c r="Z46" s="21" t="inlineStr"/>
-      <c r="AA46" s="21" t="inlineStr"/>
-      <c r="AB46" s="21" t="inlineStr"/>
+      <c r="AA46" s="22" t="inlineStr"/>
+      <c r="AB46" s="22" t="inlineStr"/>
       <c r="AC46" s="21" t="inlineStr"/>
-      <c r="AD46" s="22" t="inlineStr"/>
-      <c r="AE46" s="23" t="inlineStr"/>
-      <c r="AF46" s="23" t="inlineStr"/>
-      <c r="AG46" s="23" t="inlineStr"/>
-      <c r="AH46" s="23" t="inlineStr"/>
-      <c r="AI46" s="24" t="inlineStr"/>
-      <c r="AJ46" s="25" t="inlineStr"/>
-      <c r="AK46" s="26" t="inlineStr"/>
-      <c r="AL46" s="27" t="inlineStr"/>
-      <c r="AM46" s="28" t="inlineStr"/>
-      <c r="AN46" s="16" t="inlineStr"/>
+      <c r="AD46" s="23" t="inlineStr"/>
+      <c r="AE46" s="24" t="inlineStr"/>
+      <c r="AF46" s="24" t="inlineStr"/>
+      <c r="AG46" s="24" t="inlineStr"/>
+      <c r="AH46" s="24" t="inlineStr"/>
+      <c r="AI46" s="25" t="inlineStr"/>
+      <c r="AJ46" s="26" t="inlineStr"/>
+      <c r="AK46" s="27" t="inlineStr"/>
+      <c r="AL46" s="28" t="inlineStr"/>
+      <c r="AM46" s="29" t="inlineStr"/>
+      <c r="AN46" s="30" t="inlineStr"/>
       <c r="AO46" s="17" t="inlineStr"/>
       <c r="AP46" s="17" t="inlineStr"/>
-      <c r="AQ46" s="17" t="inlineStr"/>
+      <c r="AQ46" s="31" t="inlineStr"/>
       <c r="AR46" s="18" t="inlineStr"/>
       <c r="AS46" s="19" t="inlineStr"/>
       <c r="AT46" s="19" t="inlineStr"/>
@@ -5306,30 +5367,31 @@
       <c r="BB46" s="20" t="inlineStr"/>
       <c r="BC46" s="21" t="inlineStr"/>
       <c r="BD46" s="21" t="inlineStr"/>
-      <c r="BE46" s="22" t="inlineStr"/>
-      <c r="BF46" s="23" t="inlineStr"/>
-      <c r="BG46" s="23" t="inlineStr"/>
-      <c r="BH46" s="23" t="inlineStr"/>
-      <c r="BI46" s="23" t="inlineStr"/>
-      <c r="BJ46" s="23" t="inlineStr"/>
-      <c r="BK46" s="23" t="inlineStr"/>
-      <c r="BL46" s="23" t="inlineStr"/>
-      <c r="BM46" s="23" t="inlineStr"/>
-      <c r="BN46" s="23" t="inlineStr"/>
-      <c r="BO46" s="23" t="inlineStr"/>
-      <c r="BP46" s="23" t="inlineStr"/>
-      <c r="BQ46" s="23" t="inlineStr"/>
-      <c r="BR46" s="23" t="inlineStr"/>
-      <c r="BS46" s="23" t="inlineStr"/>
-      <c r="BT46" s="23" t="inlineStr"/>
-      <c r="BU46" s="23" t="inlineStr"/>
-      <c r="BV46" s="24" t="inlineStr"/>
-      <c r="BW46" s="29" t="inlineStr"/>
-      <c r="BX46" s="29" t="inlineStr"/>
-      <c r="BY46" s="29" t="inlineStr"/>
-      <c r="BZ46" s="29" t="inlineStr"/>
-      <c r="CA46" s="25" t="inlineStr"/>
+      <c r="BE46" s="23" t="inlineStr"/>
+      <c r="BF46" s="24" t="inlineStr"/>
+      <c r="BG46" s="32" t="inlineStr"/>
+      <c r="BH46" s="32" t="inlineStr"/>
+      <c r="BI46" s="32" t="inlineStr"/>
+      <c r="BJ46" s="32" t="inlineStr"/>
+      <c r="BK46" s="32" t="inlineStr"/>
+      <c r="BL46" s="32" t="inlineStr"/>
+      <c r="BM46" s="32" t="inlineStr"/>
+      <c r="BN46" s="32" t="inlineStr"/>
+      <c r="BO46" s="32" t="inlineStr"/>
+      <c r="BP46" s="32" t="inlineStr"/>
+      <c r="BQ46" s="32" t="inlineStr"/>
+      <c r="BR46" s="32" t="inlineStr"/>
+      <c r="BS46" s="32" t="inlineStr"/>
+      <c r="BT46" s="32" t="inlineStr"/>
+      <c r="BU46" s="32" t="inlineStr"/>
+      <c r="BV46" s="32" t="inlineStr"/>
+      <c r="BW46" s="25" t="inlineStr"/>
+      <c r="BX46" s="33" t="inlineStr"/>
+      <c r="BY46" s="33" t="inlineStr"/>
+      <c r="BZ46" s="33" t="inlineStr"/>
+      <c r="CA46" s="33" t="inlineStr"/>
       <c r="CB46" s="26" t="inlineStr"/>
+      <c r="CC46" s="27" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5358,23 +5420,23 @@
       <c r="X47" s="20" t="inlineStr"/>
       <c r="Y47" s="21" t="inlineStr"/>
       <c r="Z47" s="21" t="inlineStr"/>
-      <c r="AA47" s="21" t="inlineStr"/>
-      <c r="AB47" s="21" t="inlineStr"/>
+      <c r="AA47" s="22" t="inlineStr"/>
+      <c r="AB47" s="22" t="inlineStr"/>
       <c r="AC47" s="21" t="inlineStr"/>
-      <c r="AD47" s="22" t="inlineStr"/>
-      <c r="AE47" s="23" t="inlineStr"/>
-      <c r="AF47" s="23" t="inlineStr"/>
-      <c r="AG47" s="23" t="inlineStr"/>
-      <c r="AH47" s="23" t="inlineStr"/>
-      <c r="AI47" s="24" t="inlineStr"/>
-      <c r="AJ47" s="25" t="inlineStr"/>
-      <c r="AK47" s="26" t="inlineStr"/>
-      <c r="AL47" s="27" t="inlineStr"/>
-      <c r="AM47" s="28" t="inlineStr"/>
-      <c r="AN47" s="16" t="inlineStr"/>
+      <c r="AD47" s="23" t="inlineStr"/>
+      <c r="AE47" s="24" t="inlineStr"/>
+      <c r="AF47" s="24" t="inlineStr"/>
+      <c r="AG47" s="24" t="inlineStr"/>
+      <c r="AH47" s="24" t="inlineStr"/>
+      <c r="AI47" s="25" t="inlineStr"/>
+      <c r="AJ47" s="26" t="inlineStr"/>
+      <c r="AK47" s="27" t="inlineStr"/>
+      <c r="AL47" s="28" t="inlineStr"/>
+      <c r="AM47" s="29" t="inlineStr"/>
+      <c r="AN47" s="30" t="inlineStr"/>
       <c r="AO47" s="17" t="inlineStr"/>
       <c r="AP47" s="17" t="inlineStr"/>
-      <c r="AQ47" s="17" t="inlineStr"/>
+      <c r="AQ47" s="31" t="inlineStr"/>
       <c r="AR47" s="18" t="inlineStr"/>
       <c r="AS47" s="19" t="inlineStr"/>
       <c r="AT47" s="19" t="inlineStr"/>
@@ -5388,30 +5450,31 @@
       <c r="BB47" s="20" t="inlineStr"/>
       <c r="BC47" s="21" t="inlineStr"/>
       <c r="BD47" s="21" t="inlineStr"/>
-      <c r="BE47" s="22" t="inlineStr"/>
-      <c r="BF47" s="23" t="inlineStr"/>
-      <c r="BG47" s="23" t="inlineStr"/>
-      <c r="BH47" s="23" t="inlineStr"/>
-      <c r="BI47" s="23" t="inlineStr"/>
-      <c r="BJ47" s="23" t="inlineStr"/>
-      <c r="BK47" s="23" t="inlineStr"/>
-      <c r="BL47" s="23" t="inlineStr"/>
-      <c r="BM47" s="23" t="inlineStr"/>
-      <c r="BN47" s="23" t="inlineStr"/>
-      <c r="BO47" s="23" t="inlineStr"/>
-      <c r="BP47" s="23" t="inlineStr"/>
-      <c r="BQ47" s="23" t="inlineStr"/>
-      <c r="BR47" s="23" t="inlineStr"/>
-      <c r="BS47" s="23" t="inlineStr"/>
-      <c r="BT47" s="23" t="inlineStr"/>
-      <c r="BU47" s="23" t="inlineStr"/>
-      <c r="BV47" s="24" t="inlineStr"/>
-      <c r="BW47" s="29" t="inlineStr"/>
-      <c r="BX47" s="29" t="inlineStr"/>
-      <c r="BY47" s="29" t="inlineStr"/>
-      <c r="BZ47" s="29" t="inlineStr"/>
-      <c r="CA47" s="25" t="inlineStr"/>
+      <c r="BE47" s="23" t="inlineStr"/>
+      <c r="BF47" s="24" t="inlineStr"/>
+      <c r="BG47" s="32" t="inlineStr"/>
+      <c r="BH47" s="32" t="inlineStr"/>
+      <c r="BI47" s="32" t="inlineStr"/>
+      <c r="BJ47" s="32" t="inlineStr"/>
+      <c r="BK47" s="32" t="inlineStr"/>
+      <c r="BL47" s="32" t="inlineStr"/>
+      <c r="BM47" s="32" t="inlineStr"/>
+      <c r="BN47" s="32" t="inlineStr"/>
+      <c r="BO47" s="32" t="inlineStr"/>
+      <c r="BP47" s="32" t="inlineStr"/>
+      <c r="BQ47" s="32" t="inlineStr"/>
+      <c r="BR47" s="32" t="inlineStr"/>
+      <c r="BS47" s="32" t="inlineStr"/>
+      <c r="BT47" s="32" t="inlineStr"/>
+      <c r="BU47" s="32" t="inlineStr"/>
+      <c r="BV47" s="32" t="inlineStr"/>
+      <c r="BW47" s="25" t="inlineStr"/>
+      <c r="BX47" s="33" t="inlineStr"/>
+      <c r="BY47" s="33" t="inlineStr"/>
+      <c r="BZ47" s="33" t="inlineStr"/>
+      <c r="CA47" s="33" t="inlineStr"/>
       <c r="CB47" s="26" t="inlineStr"/>
+      <c r="CC47" s="27" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5440,23 +5503,23 @@
       <c r="X48" s="20" t="inlineStr"/>
       <c r="Y48" s="21" t="inlineStr"/>
       <c r="Z48" s="21" t="inlineStr"/>
-      <c r="AA48" s="21" t="inlineStr"/>
-      <c r="AB48" s="21" t="inlineStr"/>
+      <c r="AA48" s="22" t="inlineStr"/>
+      <c r="AB48" s="22" t="inlineStr"/>
       <c r="AC48" s="21" t="inlineStr"/>
-      <c r="AD48" s="22" t="inlineStr"/>
-      <c r="AE48" s="23" t="inlineStr"/>
-      <c r="AF48" s="23" t="inlineStr"/>
-      <c r="AG48" s="23" t="inlineStr"/>
-      <c r="AH48" s="23" t="inlineStr"/>
-      <c r="AI48" s="24" t="inlineStr"/>
-      <c r="AJ48" s="25" t="inlineStr"/>
-      <c r="AK48" s="26" t="inlineStr"/>
-      <c r="AL48" s="27" t="inlineStr"/>
-      <c r="AM48" s="28" t="inlineStr"/>
-      <c r="AN48" s="16" t="inlineStr"/>
+      <c r="AD48" s="23" t="inlineStr"/>
+      <c r="AE48" s="24" t="inlineStr"/>
+      <c r="AF48" s="24" t="inlineStr"/>
+      <c r="AG48" s="24" t="inlineStr"/>
+      <c r="AH48" s="24" t="inlineStr"/>
+      <c r="AI48" s="25" t="inlineStr"/>
+      <c r="AJ48" s="26" t="inlineStr"/>
+      <c r="AK48" s="27" t="inlineStr"/>
+      <c r="AL48" s="28" t="inlineStr"/>
+      <c r="AM48" s="29" t="inlineStr"/>
+      <c r="AN48" s="30" t="inlineStr"/>
       <c r="AO48" s="17" t="inlineStr"/>
       <c r="AP48" s="17" t="inlineStr"/>
-      <c r="AQ48" s="17" t="inlineStr"/>
+      <c r="AQ48" s="31" t="inlineStr"/>
       <c r="AR48" s="18" t="inlineStr"/>
       <c r="AS48" s="19" t="inlineStr"/>
       <c r="AT48" s="19" t="inlineStr"/>
@@ -5470,30 +5533,31 @@
       <c r="BB48" s="20" t="inlineStr"/>
       <c r="BC48" s="21" t="inlineStr"/>
       <c r="BD48" s="21" t="inlineStr"/>
-      <c r="BE48" s="22" t="inlineStr"/>
-      <c r="BF48" s="23" t="inlineStr"/>
-      <c r="BG48" s="23" t="inlineStr"/>
-      <c r="BH48" s="23" t="inlineStr"/>
-      <c r="BI48" s="23" t="inlineStr"/>
-      <c r="BJ48" s="23" t="inlineStr"/>
-      <c r="BK48" s="23" t="inlineStr"/>
-      <c r="BL48" s="23" t="inlineStr"/>
-      <c r="BM48" s="23" t="inlineStr"/>
-      <c r="BN48" s="23" t="inlineStr"/>
-      <c r="BO48" s="23" t="inlineStr"/>
-      <c r="BP48" s="23" t="inlineStr"/>
-      <c r="BQ48" s="23" t="inlineStr"/>
-      <c r="BR48" s="23" t="inlineStr"/>
-      <c r="BS48" s="23" t="inlineStr"/>
-      <c r="BT48" s="23" t="inlineStr"/>
-      <c r="BU48" s="23" t="inlineStr"/>
-      <c r="BV48" s="24" t="inlineStr"/>
-      <c r="BW48" s="29" t="inlineStr"/>
-      <c r="BX48" s="29" t="inlineStr"/>
-      <c r="BY48" s="29" t="inlineStr"/>
-      <c r="BZ48" s="29" t="inlineStr"/>
-      <c r="CA48" s="25" t="inlineStr"/>
+      <c r="BE48" s="23" t="inlineStr"/>
+      <c r="BF48" s="24" t="inlineStr"/>
+      <c r="BG48" s="32" t="inlineStr"/>
+      <c r="BH48" s="32" t="inlineStr"/>
+      <c r="BI48" s="32" t="inlineStr"/>
+      <c r="BJ48" s="32" t="inlineStr"/>
+      <c r="BK48" s="32" t="inlineStr"/>
+      <c r="BL48" s="32" t="inlineStr"/>
+      <c r="BM48" s="32" t="inlineStr"/>
+      <c r="BN48" s="32" t="inlineStr"/>
+      <c r="BO48" s="32" t="inlineStr"/>
+      <c r="BP48" s="32" t="inlineStr"/>
+      <c r="BQ48" s="32" t="inlineStr"/>
+      <c r="BR48" s="32" t="inlineStr"/>
+      <c r="BS48" s="32" t="inlineStr"/>
+      <c r="BT48" s="32" t="inlineStr"/>
+      <c r="BU48" s="32" t="inlineStr"/>
+      <c r="BV48" s="32" t="inlineStr"/>
+      <c r="BW48" s="25" t="inlineStr"/>
+      <c r="BX48" s="33" t="inlineStr"/>
+      <c r="BY48" s="33" t="inlineStr"/>
+      <c r="BZ48" s="33" t="inlineStr"/>
+      <c r="CA48" s="33" t="inlineStr"/>
       <c r="CB48" s="26" t="inlineStr"/>
+      <c r="CC48" s="27" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5522,23 +5586,23 @@
       <c r="X49" s="20" t="inlineStr"/>
       <c r="Y49" s="21" t="inlineStr"/>
       <c r="Z49" s="21" t="inlineStr"/>
-      <c r="AA49" s="21" t="inlineStr"/>
-      <c r="AB49" s="21" t="inlineStr"/>
+      <c r="AA49" s="22" t="inlineStr"/>
+      <c r="AB49" s="22" t="inlineStr"/>
       <c r="AC49" s="21" t="inlineStr"/>
-      <c r="AD49" s="22" t="inlineStr"/>
-      <c r="AE49" s="23" t="inlineStr"/>
-      <c r="AF49" s="23" t="inlineStr"/>
-      <c r="AG49" s="23" t="inlineStr"/>
-      <c r="AH49" s="23" t="inlineStr"/>
-      <c r="AI49" s="24" t="inlineStr"/>
-      <c r="AJ49" s="25" t="inlineStr"/>
-      <c r="AK49" s="26" t="inlineStr"/>
-      <c r="AL49" s="27" t="inlineStr"/>
-      <c r="AM49" s="28" t="inlineStr"/>
-      <c r="AN49" s="16" t="inlineStr"/>
+      <c r="AD49" s="23" t="inlineStr"/>
+      <c r="AE49" s="24" t="inlineStr"/>
+      <c r="AF49" s="24" t="inlineStr"/>
+      <c r="AG49" s="24" t="inlineStr"/>
+      <c r="AH49" s="24" t="inlineStr"/>
+      <c r="AI49" s="25" t="inlineStr"/>
+      <c r="AJ49" s="26" t="inlineStr"/>
+      <c r="AK49" s="27" t="inlineStr"/>
+      <c r="AL49" s="28" t="inlineStr"/>
+      <c r="AM49" s="29" t="inlineStr"/>
+      <c r="AN49" s="30" t="inlineStr"/>
       <c r="AO49" s="17" t="inlineStr"/>
       <c r="AP49" s="17" t="inlineStr"/>
-      <c r="AQ49" s="17" t="inlineStr"/>
+      <c r="AQ49" s="31" t="inlineStr"/>
       <c r="AR49" s="18" t="inlineStr"/>
       <c r="AS49" s="19" t="inlineStr"/>
       <c r="AT49" s="19" t="inlineStr"/>
@@ -5552,30 +5616,31 @@
       <c r="BB49" s="20" t="inlineStr"/>
       <c r="BC49" s="21" t="inlineStr"/>
       <c r="BD49" s="21" t="inlineStr"/>
-      <c r="BE49" s="22" t="inlineStr"/>
-      <c r="BF49" s="23" t="inlineStr"/>
-      <c r="BG49" s="23" t="inlineStr"/>
-      <c r="BH49" s="23" t="inlineStr"/>
-      <c r="BI49" s="23" t="inlineStr"/>
-      <c r="BJ49" s="23" t="inlineStr"/>
-      <c r="BK49" s="23" t="inlineStr"/>
-      <c r="BL49" s="23" t="inlineStr"/>
-      <c r="BM49" s="23" t="inlineStr"/>
-      <c r="BN49" s="23" t="inlineStr"/>
-      <c r="BO49" s="23" t="inlineStr"/>
-      <c r="BP49" s="23" t="inlineStr"/>
-      <c r="BQ49" s="23" t="inlineStr"/>
-      <c r="BR49" s="23" t="inlineStr"/>
-      <c r="BS49" s="23" t="inlineStr"/>
-      <c r="BT49" s="23" t="inlineStr"/>
-      <c r="BU49" s="23" t="inlineStr"/>
-      <c r="BV49" s="24" t="inlineStr"/>
-      <c r="BW49" s="29" t="inlineStr"/>
-      <c r="BX49" s="29" t="inlineStr"/>
-      <c r="BY49" s="29" t="inlineStr"/>
-      <c r="BZ49" s="29" t="inlineStr"/>
-      <c r="CA49" s="25" t="inlineStr"/>
+      <c r="BE49" s="23" t="inlineStr"/>
+      <c r="BF49" s="24" t="inlineStr"/>
+      <c r="BG49" s="32" t="inlineStr"/>
+      <c r="BH49" s="32" t="inlineStr"/>
+      <c r="BI49" s="32" t="inlineStr"/>
+      <c r="BJ49" s="32" t="inlineStr"/>
+      <c r="BK49" s="32" t="inlineStr"/>
+      <c r="BL49" s="32" t="inlineStr"/>
+      <c r="BM49" s="32" t="inlineStr"/>
+      <c r="BN49" s="32" t="inlineStr"/>
+      <c r="BO49" s="32" t="inlineStr"/>
+      <c r="BP49" s="32" t="inlineStr"/>
+      <c r="BQ49" s="32" t="inlineStr"/>
+      <c r="BR49" s="32" t="inlineStr"/>
+      <c r="BS49" s="32" t="inlineStr"/>
+      <c r="BT49" s="32" t="inlineStr"/>
+      <c r="BU49" s="32" t="inlineStr"/>
+      <c r="BV49" s="32" t="inlineStr"/>
+      <c r="BW49" s="25" t="inlineStr"/>
+      <c r="BX49" s="33" t="inlineStr"/>
+      <c r="BY49" s="33" t="inlineStr"/>
+      <c r="BZ49" s="33" t="inlineStr"/>
+      <c r="CA49" s="33" t="inlineStr"/>
       <c r="CB49" s="26" t="inlineStr"/>
+      <c r="CC49" s="27" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5604,23 +5669,23 @@
       <c r="X50" s="20" t="inlineStr"/>
       <c r="Y50" s="21" t="inlineStr"/>
       <c r="Z50" s="21" t="inlineStr"/>
-      <c r="AA50" s="21" t="inlineStr"/>
-      <c r="AB50" s="21" t="inlineStr"/>
+      <c r="AA50" s="22" t="inlineStr"/>
+      <c r="AB50" s="22" t="inlineStr"/>
       <c r="AC50" s="21" t="inlineStr"/>
-      <c r="AD50" s="22" t="inlineStr"/>
-      <c r="AE50" s="23" t="inlineStr"/>
-      <c r="AF50" s="23" t="inlineStr"/>
-      <c r="AG50" s="23" t="inlineStr"/>
-      <c r="AH50" s="23" t="inlineStr"/>
-      <c r="AI50" s="24" t="inlineStr"/>
-      <c r="AJ50" s="25" t="inlineStr"/>
-      <c r="AK50" s="26" t="inlineStr"/>
-      <c r="AL50" s="27" t="inlineStr"/>
-      <c r="AM50" s="28" t="inlineStr"/>
-      <c r="AN50" s="16" t="inlineStr"/>
+      <c r="AD50" s="23" t="inlineStr"/>
+      <c r="AE50" s="24" t="inlineStr"/>
+      <c r="AF50" s="24" t="inlineStr"/>
+      <c r="AG50" s="24" t="inlineStr"/>
+      <c r="AH50" s="24" t="inlineStr"/>
+      <c r="AI50" s="25" t="inlineStr"/>
+      <c r="AJ50" s="26" t="inlineStr"/>
+      <c r="AK50" s="27" t="inlineStr"/>
+      <c r="AL50" s="28" t="inlineStr"/>
+      <c r="AM50" s="29" t="inlineStr"/>
+      <c r="AN50" s="30" t="inlineStr"/>
       <c r="AO50" s="17" t="inlineStr"/>
       <c r="AP50" s="17" t="inlineStr"/>
-      <c r="AQ50" s="17" t="inlineStr"/>
+      <c r="AQ50" s="31" t="inlineStr"/>
       <c r="AR50" s="18" t="inlineStr"/>
       <c r="AS50" s="19" t="inlineStr"/>
       <c r="AT50" s="19" t="inlineStr"/>
@@ -5634,30 +5699,31 @@
       <c r="BB50" s="20" t="inlineStr"/>
       <c r="BC50" s="21" t="inlineStr"/>
       <c r="BD50" s="21" t="inlineStr"/>
-      <c r="BE50" s="22" t="inlineStr"/>
-      <c r="BF50" s="23" t="inlineStr"/>
-      <c r="BG50" s="23" t="inlineStr"/>
-      <c r="BH50" s="23" t="inlineStr"/>
-      <c r="BI50" s="23" t="inlineStr"/>
-      <c r="BJ50" s="23" t="inlineStr"/>
-      <c r="BK50" s="23" t="inlineStr"/>
-      <c r="BL50" s="23" t="inlineStr"/>
-      <c r="BM50" s="23" t="inlineStr"/>
-      <c r="BN50" s="23" t="inlineStr"/>
-      <c r="BO50" s="23" t="inlineStr"/>
-      <c r="BP50" s="23" t="inlineStr"/>
-      <c r="BQ50" s="23" t="inlineStr"/>
-      <c r="BR50" s="23" t="inlineStr"/>
-      <c r="BS50" s="23" t="inlineStr"/>
-      <c r="BT50" s="23" t="inlineStr"/>
-      <c r="BU50" s="23" t="inlineStr"/>
-      <c r="BV50" s="24" t="inlineStr"/>
-      <c r="BW50" s="29" t="inlineStr"/>
-      <c r="BX50" s="29" t="inlineStr"/>
-      <c r="BY50" s="29" t="inlineStr"/>
-      <c r="BZ50" s="29" t="inlineStr"/>
-      <c r="CA50" s="25" t="inlineStr"/>
+      <c r="BE50" s="23" t="inlineStr"/>
+      <c r="BF50" s="24" t="inlineStr"/>
+      <c r="BG50" s="32" t="inlineStr"/>
+      <c r="BH50" s="32" t="inlineStr"/>
+      <c r="BI50" s="32" t="inlineStr"/>
+      <c r="BJ50" s="32" t="inlineStr"/>
+      <c r="BK50" s="32" t="inlineStr"/>
+      <c r="BL50" s="32" t="inlineStr"/>
+      <c r="BM50" s="32" t="inlineStr"/>
+      <c r="BN50" s="32" t="inlineStr"/>
+      <c r="BO50" s="32" t="inlineStr"/>
+      <c r="BP50" s="32" t="inlineStr"/>
+      <c r="BQ50" s="32" t="inlineStr"/>
+      <c r="BR50" s="32" t="inlineStr"/>
+      <c r="BS50" s="32" t="inlineStr"/>
+      <c r="BT50" s="32" t="inlineStr"/>
+      <c r="BU50" s="32" t="inlineStr"/>
+      <c r="BV50" s="32" t="inlineStr"/>
+      <c r="BW50" s="25" t="inlineStr"/>
+      <c r="BX50" s="33" t="inlineStr"/>
+      <c r="BY50" s="33" t="inlineStr"/>
+      <c r="BZ50" s="33" t="inlineStr"/>
+      <c r="CA50" s="33" t="inlineStr"/>
       <c r="CB50" s="26" t="inlineStr"/>
+      <c r="CC50" s="27" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5686,23 +5752,23 @@
       <c r="X51" s="20" t="inlineStr"/>
       <c r="Y51" s="21" t="inlineStr"/>
       <c r="Z51" s="21" t="inlineStr"/>
-      <c r="AA51" s="21" t="inlineStr"/>
-      <c r="AB51" s="21" t="inlineStr"/>
+      <c r="AA51" s="22" t="inlineStr"/>
+      <c r="AB51" s="22" t="inlineStr"/>
       <c r="AC51" s="21" t="inlineStr"/>
-      <c r="AD51" s="22" t="inlineStr"/>
-      <c r="AE51" s="23" t="inlineStr"/>
-      <c r="AF51" s="23" t="inlineStr"/>
-      <c r="AG51" s="23" t="inlineStr"/>
-      <c r="AH51" s="23" t="inlineStr"/>
-      <c r="AI51" s="24" t="inlineStr"/>
-      <c r="AJ51" s="25" t="inlineStr"/>
-      <c r="AK51" s="26" t="inlineStr"/>
-      <c r="AL51" s="27" t="inlineStr"/>
-      <c r="AM51" s="28" t="inlineStr"/>
-      <c r="AN51" s="16" t="inlineStr"/>
+      <c r="AD51" s="23" t="inlineStr"/>
+      <c r="AE51" s="24" t="inlineStr"/>
+      <c r="AF51" s="24" t="inlineStr"/>
+      <c r="AG51" s="24" t="inlineStr"/>
+      <c r="AH51" s="24" t="inlineStr"/>
+      <c r="AI51" s="25" t="inlineStr"/>
+      <c r="AJ51" s="26" t="inlineStr"/>
+      <c r="AK51" s="27" t="inlineStr"/>
+      <c r="AL51" s="28" t="inlineStr"/>
+      <c r="AM51" s="29" t="inlineStr"/>
+      <c r="AN51" s="30" t="inlineStr"/>
       <c r="AO51" s="17" t="inlineStr"/>
       <c r="AP51" s="17" t="inlineStr"/>
-      <c r="AQ51" s="17" t="inlineStr"/>
+      <c r="AQ51" s="31" t="inlineStr"/>
       <c r="AR51" s="18" t="inlineStr"/>
       <c r="AS51" s="19" t="inlineStr"/>
       <c r="AT51" s="19" t="inlineStr"/>
@@ -5716,30 +5782,31 @@
       <c r="BB51" s="20" t="inlineStr"/>
       <c r="BC51" s="21" t="inlineStr"/>
       <c r="BD51" s="21" t="inlineStr"/>
-      <c r="BE51" s="22" t="inlineStr"/>
-      <c r="BF51" s="23" t="inlineStr"/>
-      <c r="BG51" s="23" t="inlineStr"/>
-      <c r="BH51" s="23" t="inlineStr"/>
-      <c r="BI51" s="23" t="inlineStr"/>
-      <c r="BJ51" s="23" t="inlineStr"/>
-      <c r="BK51" s="23" t="inlineStr"/>
-      <c r="BL51" s="23" t="inlineStr"/>
-      <c r="BM51" s="23" t="inlineStr"/>
-      <c r="BN51" s="23" t="inlineStr"/>
-      <c r="BO51" s="23" t="inlineStr"/>
-      <c r="BP51" s="23" t="inlineStr"/>
-      <c r="BQ51" s="23" t="inlineStr"/>
-      <c r="BR51" s="23" t="inlineStr"/>
-      <c r="BS51" s="23" t="inlineStr"/>
-      <c r="BT51" s="23" t="inlineStr"/>
-      <c r="BU51" s="23" t="inlineStr"/>
-      <c r="BV51" s="24" t="inlineStr"/>
-      <c r="BW51" s="29" t="inlineStr"/>
-      <c r="BX51" s="29" t="inlineStr"/>
-      <c r="BY51" s="29" t="inlineStr"/>
-      <c r="BZ51" s="29" t="inlineStr"/>
-      <c r="CA51" s="25" t="inlineStr"/>
+      <c r="BE51" s="23" t="inlineStr"/>
+      <c r="BF51" s="24" t="inlineStr"/>
+      <c r="BG51" s="32" t="inlineStr"/>
+      <c r="BH51" s="32" t="inlineStr"/>
+      <c r="BI51" s="32" t="inlineStr"/>
+      <c r="BJ51" s="32" t="inlineStr"/>
+      <c r="BK51" s="32" t="inlineStr"/>
+      <c r="BL51" s="32" t="inlineStr"/>
+      <c r="BM51" s="32" t="inlineStr"/>
+      <c r="BN51" s="32" t="inlineStr"/>
+      <c r="BO51" s="32" t="inlineStr"/>
+      <c r="BP51" s="32" t="inlineStr"/>
+      <c r="BQ51" s="32" t="inlineStr"/>
+      <c r="BR51" s="32" t="inlineStr"/>
+      <c r="BS51" s="32" t="inlineStr"/>
+      <c r="BT51" s="32" t="inlineStr"/>
+      <c r="BU51" s="32" t="inlineStr"/>
+      <c r="BV51" s="32" t="inlineStr"/>
+      <c r="BW51" s="25" t="inlineStr"/>
+      <c r="BX51" s="33" t="inlineStr"/>
+      <c r="BY51" s="33" t="inlineStr"/>
+      <c r="BZ51" s="33" t="inlineStr"/>
+      <c r="CA51" s="33" t="inlineStr"/>
       <c r="CB51" s="26" t="inlineStr"/>
+      <c r="CC51" s="27" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -5768,23 +5835,23 @@
       <c r="X52" s="20" t="inlineStr"/>
       <c r="Y52" s="21" t="inlineStr"/>
       <c r="Z52" s="21" t="inlineStr"/>
-      <c r="AA52" s="21" t="inlineStr"/>
-      <c r="AB52" s="21" t="inlineStr"/>
+      <c r="AA52" s="22" t="inlineStr"/>
+      <c r="AB52" s="22" t="inlineStr"/>
       <c r="AC52" s="21" t="inlineStr"/>
-      <c r="AD52" s="22" t="inlineStr"/>
-      <c r="AE52" s="23" t="inlineStr"/>
-      <c r="AF52" s="23" t="inlineStr"/>
-      <c r="AG52" s="23" t="inlineStr"/>
-      <c r="AH52" s="23" t="inlineStr"/>
-      <c r="AI52" s="24" t="inlineStr"/>
-      <c r="AJ52" s="25" t="inlineStr"/>
-      <c r="AK52" s="26" t="inlineStr"/>
-      <c r="AL52" s="27" t="inlineStr"/>
-      <c r="AM52" s="28" t="inlineStr"/>
-      <c r="AN52" s="16" t="inlineStr"/>
+      <c r="AD52" s="23" t="inlineStr"/>
+      <c r="AE52" s="24" t="inlineStr"/>
+      <c r="AF52" s="24" t="inlineStr"/>
+      <c r="AG52" s="24" t="inlineStr"/>
+      <c r="AH52" s="24" t="inlineStr"/>
+      <c r="AI52" s="25" t="inlineStr"/>
+      <c r="AJ52" s="26" t="inlineStr"/>
+      <c r="AK52" s="27" t="inlineStr"/>
+      <c r="AL52" s="28" t="inlineStr"/>
+      <c r="AM52" s="29" t="inlineStr"/>
+      <c r="AN52" s="30" t="inlineStr"/>
       <c r="AO52" s="17" t="inlineStr"/>
       <c r="AP52" s="17" t="inlineStr"/>
-      <c r="AQ52" s="17" t="inlineStr"/>
+      <c r="AQ52" s="31" t="inlineStr"/>
       <c r="AR52" s="18" t="inlineStr"/>
       <c r="AS52" s="19" t="inlineStr"/>
       <c r="AT52" s="19" t="inlineStr"/>
@@ -5798,30 +5865,31 @@
       <c r="BB52" s="20" t="inlineStr"/>
       <c r="BC52" s="21" t="inlineStr"/>
       <c r="BD52" s="21" t="inlineStr"/>
-      <c r="BE52" s="22" t="inlineStr"/>
-      <c r="BF52" s="23" t="inlineStr"/>
-      <c r="BG52" s="23" t="inlineStr"/>
-      <c r="BH52" s="23" t="inlineStr"/>
-      <c r="BI52" s="23" t="inlineStr"/>
-      <c r="BJ52" s="23" t="inlineStr"/>
-      <c r="BK52" s="23" t="inlineStr"/>
-      <c r="BL52" s="23" t="inlineStr"/>
-      <c r="BM52" s="23" t="inlineStr"/>
-      <c r="BN52" s="23" t="inlineStr"/>
-      <c r="BO52" s="23" t="inlineStr"/>
-      <c r="BP52" s="23" t="inlineStr"/>
-      <c r="BQ52" s="23" t="inlineStr"/>
-      <c r="BR52" s="23" t="inlineStr"/>
-      <c r="BS52" s="23" t="inlineStr"/>
-      <c r="BT52" s="23" t="inlineStr"/>
-      <c r="BU52" s="23" t="inlineStr"/>
-      <c r="BV52" s="24" t="inlineStr"/>
-      <c r="BW52" s="29" t="inlineStr"/>
-      <c r="BX52" s="29" t="inlineStr"/>
-      <c r="BY52" s="29" t="inlineStr"/>
-      <c r="BZ52" s="29" t="inlineStr"/>
-      <c r="CA52" s="25" t="inlineStr"/>
+      <c r="BE52" s="23" t="inlineStr"/>
+      <c r="BF52" s="24" t="inlineStr"/>
+      <c r="BG52" s="32" t="inlineStr"/>
+      <c r="BH52" s="32" t="inlineStr"/>
+      <c r="BI52" s="32" t="inlineStr"/>
+      <c r="BJ52" s="32" t="inlineStr"/>
+      <c r="BK52" s="32" t="inlineStr"/>
+      <c r="BL52" s="32" t="inlineStr"/>
+      <c r="BM52" s="32" t="inlineStr"/>
+      <c r="BN52" s="32" t="inlineStr"/>
+      <c r="BO52" s="32" t="inlineStr"/>
+      <c r="BP52" s="32" t="inlineStr"/>
+      <c r="BQ52" s="32" t="inlineStr"/>
+      <c r="BR52" s="32" t="inlineStr"/>
+      <c r="BS52" s="32" t="inlineStr"/>
+      <c r="BT52" s="32" t="inlineStr"/>
+      <c r="BU52" s="32" t="inlineStr"/>
+      <c r="BV52" s="32" t="inlineStr"/>
+      <c r="BW52" s="25" t="inlineStr"/>
+      <c r="BX52" s="33" t="inlineStr"/>
+      <c r="BY52" s="33" t="inlineStr"/>
+      <c r="BZ52" s="33" t="inlineStr"/>
+      <c r="CA52" s="33" t="inlineStr"/>
       <c r="CB52" s="26" t="inlineStr"/>
+      <c r="CC52" s="27" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -5850,23 +5918,23 @@
       <c r="X53" s="20" t="inlineStr"/>
       <c r="Y53" s="21" t="inlineStr"/>
       <c r="Z53" s="21" t="inlineStr"/>
-      <c r="AA53" s="21" t="inlineStr"/>
-      <c r="AB53" s="21" t="inlineStr"/>
+      <c r="AA53" s="22" t="inlineStr"/>
+      <c r="AB53" s="22" t="inlineStr"/>
       <c r="AC53" s="21" t="inlineStr"/>
-      <c r="AD53" s="22" t="inlineStr"/>
-      <c r="AE53" s="23" t="inlineStr"/>
-      <c r="AF53" s="23" t="inlineStr"/>
-      <c r="AG53" s="23" t="inlineStr"/>
-      <c r="AH53" s="23" t="inlineStr"/>
-      <c r="AI53" s="24" t="inlineStr"/>
-      <c r="AJ53" s="25" t="inlineStr"/>
-      <c r="AK53" s="26" t="inlineStr"/>
-      <c r="AL53" s="27" t="inlineStr"/>
-      <c r="AM53" s="28" t="inlineStr"/>
-      <c r="AN53" s="16" t="inlineStr"/>
+      <c r="AD53" s="23" t="inlineStr"/>
+      <c r="AE53" s="24" t="inlineStr"/>
+      <c r="AF53" s="24" t="inlineStr"/>
+      <c r="AG53" s="24" t="inlineStr"/>
+      <c r="AH53" s="24" t="inlineStr"/>
+      <c r="AI53" s="25" t="inlineStr"/>
+      <c r="AJ53" s="26" t="inlineStr"/>
+      <c r="AK53" s="27" t="inlineStr"/>
+      <c r="AL53" s="28" t="inlineStr"/>
+      <c r="AM53" s="29" t="inlineStr"/>
+      <c r="AN53" s="30" t="inlineStr"/>
       <c r="AO53" s="17" t="inlineStr"/>
       <c r="AP53" s="17" t="inlineStr"/>
-      <c r="AQ53" s="17" t="inlineStr"/>
+      <c r="AQ53" s="31" t="inlineStr"/>
       <c r="AR53" s="18" t="inlineStr"/>
       <c r="AS53" s="19" t="inlineStr"/>
       <c r="AT53" s="19" t="inlineStr"/>
@@ -5880,30 +5948,31 @@
       <c r="BB53" s="20" t="inlineStr"/>
       <c r="BC53" s="21" t="inlineStr"/>
       <c r="BD53" s="21" t="inlineStr"/>
-      <c r="BE53" s="22" t="inlineStr"/>
-      <c r="BF53" s="23" t="inlineStr"/>
-      <c r="BG53" s="23" t="inlineStr"/>
-      <c r="BH53" s="23" t="inlineStr"/>
-      <c r="BI53" s="23" t="inlineStr"/>
-      <c r="BJ53" s="23" t="inlineStr"/>
-      <c r="BK53" s="23" t="inlineStr"/>
-      <c r="BL53" s="23" t="inlineStr"/>
-      <c r="BM53" s="23" t="inlineStr"/>
-      <c r="BN53" s="23" t="inlineStr"/>
-      <c r="BO53" s="23" t="inlineStr"/>
-      <c r="BP53" s="23" t="inlineStr"/>
-      <c r="BQ53" s="23" t="inlineStr"/>
-      <c r="BR53" s="23" t="inlineStr"/>
-      <c r="BS53" s="23" t="inlineStr"/>
-      <c r="BT53" s="23" t="inlineStr"/>
-      <c r="BU53" s="23" t="inlineStr"/>
-      <c r="BV53" s="24" t="inlineStr"/>
-      <c r="BW53" s="29" t="inlineStr"/>
-      <c r="BX53" s="29" t="inlineStr"/>
-      <c r="BY53" s="29" t="inlineStr"/>
-      <c r="BZ53" s="29" t="inlineStr"/>
-      <c r="CA53" s="25" t="inlineStr"/>
+      <c r="BE53" s="23" t="inlineStr"/>
+      <c r="BF53" s="24" t="inlineStr"/>
+      <c r="BG53" s="32" t="inlineStr"/>
+      <c r="BH53" s="32" t="inlineStr"/>
+      <c r="BI53" s="32" t="inlineStr"/>
+      <c r="BJ53" s="32" t="inlineStr"/>
+      <c r="BK53" s="32" t="inlineStr"/>
+      <c r="BL53" s="32" t="inlineStr"/>
+      <c r="BM53" s="32" t="inlineStr"/>
+      <c r="BN53" s="32" t="inlineStr"/>
+      <c r="BO53" s="32" t="inlineStr"/>
+      <c r="BP53" s="32" t="inlineStr"/>
+      <c r="BQ53" s="32" t="inlineStr"/>
+      <c r="BR53" s="32" t="inlineStr"/>
+      <c r="BS53" s="32" t="inlineStr"/>
+      <c r="BT53" s="32" t="inlineStr"/>
+      <c r="BU53" s="32" t="inlineStr"/>
+      <c r="BV53" s="32" t="inlineStr"/>
+      <c r="BW53" s="25" t="inlineStr"/>
+      <c r="BX53" s="33" t="inlineStr"/>
+      <c r="BY53" s="33" t="inlineStr"/>
+      <c r="BZ53" s="33" t="inlineStr"/>
+      <c r="CA53" s="33" t="inlineStr"/>
       <c r="CB53" s="26" t="inlineStr"/>
+      <c r="CC53" s="27" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -5932,23 +6001,23 @@
       <c r="X54" s="20" t="inlineStr"/>
       <c r="Y54" s="21" t="inlineStr"/>
       <c r="Z54" s="21" t="inlineStr"/>
-      <c r="AA54" s="21" t="inlineStr"/>
-      <c r="AB54" s="21" t="inlineStr"/>
+      <c r="AA54" s="22" t="inlineStr"/>
+      <c r="AB54" s="22" t="inlineStr"/>
       <c r="AC54" s="21" t="inlineStr"/>
-      <c r="AD54" s="22" t="inlineStr"/>
-      <c r="AE54" s="23" t="inlineStr"/>
-      <c r="AF54" s="23" t="inlineStr"/>
-      <c r="AG54" s="23" t="inlineStr"/>
-      <c r="AH54" s="23" t="inlineStr"/>
-      <c r="AI54" s="24" t="inlineStr"/>
-      <c r="AJ54" s="25" t="inlineStr"/>
-      <c r="AK54" s="26" t="inlineStr"/>
-      <c r="AL54" s="27" t="inlineStr"/>
-      <c r="AM54" s="28" t="inlineStr"/>
-      <c r="AN54" s="16" t="inlineStr"/>
+      <c r="AD54" s="23" t="inlineStr"/>
+      <c r="AE54" s="24" t="inlineStr"/>
+      <c r="AF54" s="24" t="inlineStr"/>
+      <c r="AG54" s="24" t="inlineStr"/>
+      <c r="AH54" s="24" t="inlineStr"/>
+      <c r="AI54" s="25" t="inlineStr"/>
+      <c r="AJ54" s="26" t="inlineStr"/>
+      <c r="AK54" s="27" t="inlineStr"/>
+      <c r="AL54" s="28" t="inlineStr"/>
+      <c r="AM54" s="29" t="inlineStr"/>
+      <c r="AN54" s="30" t="inlineStr"/>
       <c r="AO54" s="17" t="inlineStr"/>
       <c r="AP54" s="17" t="inlineStr"/>
-      <c r="AQ54" s="17" t="inlineStr"/>
+      <c r="AQ54" s="31" t="inlineStr"/>
       <c r="AR54" s="18" t="inlineStr"/>
       <c r="AS54" s="19" t="inlineStr"/>
       <c r="AT54" s="19" t="inlineStr"/>
@@ -5962,30 +6031,31 @@
       <c r="BB54" s="20" t="inlineStr"/>
       <c r="BC54" s="21" t="inlineStr"/>
       <c r="BD54" s="21" t="inlineStr"/>
-      <c r="BE54" s="22" t="inlineStr"/>
-      <c r="BF54" s="23" t="inlineStr"/>
-      <c r="BG54" s="23" t="inlineStr"/>
-      <c r="BH54" s="23" t="inlineStr"/>
-      <c r="BI54" s="23" t="inlineStr"/>
-      <c r="BJ54" s="23" t="inlineStr"/>
-      <c r="BK54" s="23" t="inlineStr"/>
-      <c r="BL54" s="23" t="inlineStr"/>
-      <c r="BM54" s="23" t="inlineStr"/>
-      <c r="BN54" s="23" t="inlineStr"/>
-      <c r="BO54" s="23" t="inlineStr"/>
-      <c r="BP54" s="23" t="inlineStr"/>
-      <c r="BQ54" s="23" t="inlineStr"/>
-      <c r="BR54" s="23" t="inlineStr"/>
-      <c r="BS54" s="23" t="inlineStr"/>
-      <c r="BT54" s="23" t="inlineStr"/>
-      <c r="BU54" s="23" t="inlineStr"/>
-      <c r="BV54" s="24" t="inlineStr"/>
-      <c r="BW54" s="29" t="inlineStr"/>
-      <c r="BX54" s="29" t="inlineStr"/>
-      <c r="BY54" s="29" t="inlineStr"/>
-      <c r="BZ54" s="29" t="inlineStr"/>
-      <c r="CA54" s="25" t="inlineStr"/>
+      <c r="BE54" s="23" t="inlineStr"/>
+      <c r="BF54" s="24" t="inlineStr"/>
+      <c r="BG54" s="32" t="inlineStr"/>
+      <c r="BH54" s="32" t="inlineStr"/>
+      <c r="BI54" s="32" t="inlineStr"/>
+      <c r="BJ54" s="32" t="inlineStr"/>
+      <c r="BK54" s="32" t="inlineStr"/>
+      <c r="BL54" s="32" t="inlineStr"/>
+      <c r="BM54" s="32" t="inlineStr"/>
+      <c r="BN54" s="32" t="inlineStr"/>
+      <c r="BO54" s="32" t="inlineStr"/>
+      <c r="BP54" s="32" t="inlineStr"/>
+      <c r="BQ54" s="32" t="inlineStr"/>
+      <c r="BR54" s="32" t="inlineStr"/>
+      <c r="BS54" s="32" t="inlineStr"/>
+      <c r="BT54" s="32" t="inlineStr"/>
+      <c r="BU54" s="32" t="inlineStr"/>
+      <c r="BV54" s="32" t="inlineStr"/>
+      <c r="BW54" s="25" t="inlineStr"/>
+      <c r="BX54" s="33" t="inlineStr"/>
+      <c r="BY54" s="33" t="inlineStr"/>
+      <c r="BZ54" s="33" t="inlineStr"/>
+      <c r="CA54" s="33" t="inlineStr"/>
       <c r="CB54" s="26" t="inlineStr"/>
+      <c r="CC54" s="27" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6014,23 +6084,23 @@
       <c r="X55" s="20" t="inlineStr"/>
       <c r="Y55" s="21" t="inlineStr"/>
       <c r="Z55" s="21" t="inlineStr"/>
-      <c r="AA55" s="21" t="inlineStr"/>
-      <c r="AB55" s="21" t="inlineStr"/>
+      <c r="AA55" s="22" t="inlineStr"/>
+      <c r="AB55" s="22" t="inlineStr"/>
       <c r="AC55" s="21" t="inlineStr"/>
-      <c r="AD55" s="22" t="inlineStr"/>
-      <c r="AE55" s="23" t="inlineStr"/>
-      <c r="AF55" s="23" t="inlineStr"/>
-      <c r="AG55" s="23" t="inlineStr"/>
-      <c r="AH55" s="23" t="inlineStr"/>
-      <c r="AI55" s="24" t="inlineStr"/>
-      <c r="AJ55" s="25" t="inlineStr"/>
-      <c r="AK55" s="26" t="inlineStr"/>
-      <c r="AL55" s="27" t="inlineStr"/>
-      <c r="AM55" s="28" t="inlineStr"/>
-      <c r="AN55" s="16" t="inlineStr"/>
+      <c r="AD55" s="23" t="inlineStr"/>
+      <c r="AE55" s="24" t="inlineStr"/>
+      <c r="AF55" s="24" t="inlineStr"/>
+      <c r="AG55" s="24" t="inlineStr"/>
+      <c r="AH55" s="24" t="inlineStr"/>
+      <c r="AI55" s="25" t="inlineStr"/>
+      <c r="AJ55" s="26" t="inlineStr"/>
+      <c r="AK55" s="27" t="inlineStr"/>
+      <c r="AL55" s="28" t="inlineStr"/>
+      <c r="AM55" s="29" t="inlineStr"/>
+      <c r="AN55" s="30" t="inlineStr"/>
       <c r="AO55" s="17" t="inlineStr"/>
       <c r="AP55" s="17" t="inlineStr"/>
-      <c r="AQ55" s="17" t="inlineStr"/>
+      <c r="AQ55" s="31" t="inlineStr"/>
       <c r="AR55" s="18" t="inlineStr"/>
       <c r="AS55" s="19" t="inlineStr"/>
       <c r="AT55" s="19" t="inlineStr"/>
@@ -6044,30 +6114,31 @@
       <c r="BB55" s="20" t="inlineStr"/>
       <c r="BC55" s="21" t="inlineStr"/>
       <c r="BD55" s="21" t="inlineStr"/>
-      <c r="BE55" s="22" t="inlineStr"/>
-      <c r="BF55" s="23" t="inlineStr"/>
-      <c r="BG55" s="23" t="inlineStr"/>
-      <c r="BH55" s="23" t="inlineStr"/>
-      <c r="BI55" s="23" t="inlineStr"/>
-      <c r="BJ55" s="23" t="inlineStr"/>
-      <c r="BK55" s="23" t="inlineStr"/>
-      <c r="BL55" s="23" t="inlineStr"/>
-      <c r="BM55" s="23" t="inlineStr"/>
-      <c r="BN55" s="23" t="inlineStr"/>
-      <c r="BO55" s="23" t="inlineStr"/>
-      <c r="BP55" s="23" t="inlineStr"/>
-      <c r="BQ55" s="23" t="inlineStr"/>
-      <c r="BR55" s="23" t="inlineStr"/>
-      <c r="BS55" s="23" t="inlineStr"/>
-      <c r="BT55" s="23" t="inlineStr"/>
-      <c r="BU55" s="23" t="inlineStr"/>
-      <c r="BV55" s="24" t="inlineStr"/>
-      <c r="BW55" s="29" t="inlineStr"/>
-      <c r="BX55" s="29" t="inlineStr"/>
-      <c r="BY55" s="29" t="inlineStr"/>
-      <c r="BZ55" s="29" t="inlineStr"/>
-      <c r="CA55" s="25" t="inlineStr"/>
+      <c r="BE55" s="23" t="inlineStr"/>
+      <c r="BF55" s="24" t="inlineStr"/>
+      <c r="BG55" s="32" t="inlineStr"/>
+      <c r="BH55" s="32" t="inlineStr"/>
+      <c r="BI55" s="32" t="inlineStr"/>
+      <c r="BJ55" s="32" t="inlineStr"/>
+      <c r="BK55" s="32" t="inlineStr"/>
+      <c r="BL55" s="32" t="inlineStr"/>
+      <c r="BM55" s="32" t="inlineStr"/>
+      <c r="BN55" s="32" t="inlineStr"/>
+      <c r="BO55" s="32" t="inlineStr"/>
+      <c r="BP55" s="32" t="inlineStr"/>
+      <c r="BQ55" s="32" t="inlineStr"/>
+      <c r="BR55" s="32" t="inlineStr"/>
+      <c r="BS55" s="32" t="inlineStr"/>
+      <c r="BT55" s="32" t="inlineStr"/>
+      <c r="BU55" s="32" t="inlineStr"/>
+      <c r="BV55" s="32" t="inlineStr"/>
+      <c r="BW55" s="25" t="inlineStr"/>
+      <c r="BX55" s="33" t="inlineStr"/>
+      <c r="BY55" s="33" t="inlineStr"/>
+      <c r="BZ55" s="33" t="inlineStr"/>
+      <c r="CA55" s="33" t="inlineStr"/>
       <c r="CB55" s="26" t="inlineStr"/>
+      <c r="CC55" s="27" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6096,23 +6167,23 @@
       <c r="X56" s="20" t="inlineStr"/>
       <c r="Y56" s="21" t="inlineStr"/>
       <c r="Z56" s="21" t="inlineStr"/>
-      <c r="AA56" s="21" t="inlineStr"/>
-      <c r="AB56" s="21" t="inlineStr"/>
+      <c r="AA56" s="22" t="inlineStr"/>
+      <c r="AB56" s="22" t="inlineStr"/>
       <c r="AC56" s="21" t="inlineStr"/>
-      <c r="AD56" s="22" t="inlineStr"/>
-      <c r="AE56" s="23" t="inlineStr"/>
-      <c r="AF56" s="23" t="inlineStr"/>
-      <c r="AG56" s="23" t="inlineStr"/>
-      <c r="AH56" s="23" t="inlineStr"/>
-      <c r="AI56" s="24" t="inlineStr"/>
-      <c r="AJ56" s="25" t="inlineStr"/>
-      <c r="AK56" s="26" t="inlineStr"/>
-      <c r="AL56" s="27" t="inlineStr"/>
-      <c r="AM56" s="28" t="inlineStr"/>
-      <c r="AN56" s="16" t="inlineStr"/>
+      <c r="AD56" s="23" t="inlineStr"/>
+      <c r="AE56" s="24" t="inlineStr"/>
+      <c r="AF56" s="24" t="inlineStr"/>
+      <c r="AG56" s="24" t="inlineStr"/>
+      <c r="AH56" s="24" t="inlineStr"/>
+      <c r="AI56" s="25" t="inlineStr"/>
+      <c r="AJ56" s="26" t="inlineStr"/>
+      <c r="AK56" s="27" t="inlineStr"/>
+      <c r="AL56" s="28" t="inlineStr"/>
+      <c r="AM56" s="29" t="inlineStr"/>
+      <c r="AN56" s="30" t="inlineStr"/>
       <c r="AO56" s="17" t="inlineStr"/>
       <c r="AP56" s="17" t="inlineStr"/>
-      <c r="AQ56" s="17" t="inlineStr"/>
+      <c r="AQ56" s="31" t="inlineStr"/>
       <c r="AR56" s="18" t="inlineStr"/>
       <c r="AS56" s="19" t="inlineStr"/>
       <c r="AT56" s="19" t="inlineStr"/>
@@ -6126,30 +6197,31 @@
       <c r="BB56" s="20" t="inlineStr"/>
       <c r="BC56" s="21" t="inlineStr"/>
       <c r="BD56" s="21" t="inlineStr"/>
-      <c r="BE56" s="22" t="inlineStr"/>
-      <c r="BF56" s="23" t="inlineStr"/>
-      <c r="BG56" s="23" t="inlineStr"/>
-      <c r="BH56" s="23" t="inlineStr"/>
-      <c r="BI56" s="23" t="inlineStr"/>
-      <c r="BJ56" s="23" t="inlineStr"/>
-      <c r="BK56" s="23" t="inlineStr"/>
-      <c r="BL56" s="23" t="inlineStr"/>
-      <c r="BM56" s="23" t="inlineStr"/>
-      <c r="BN56" s="23" t="inlineStr"/>
-      <c r="BO56" s="23" t="inlineStr"/>
-      <c r="BP56" s="23" t="inlineStr"/>
-      <c r="BQ56" s="23" t="inlineStr"/>
-      <c r="BR56" s="23" t="inlineStr"/>
-      <c r="BS56" s="23" t="inlineStr"/>
-      <c r="BT56" s="23" t="inlineStr"/>
-      <c r="BU56" s="23" t="inlineStr"/>
-      <c r="BV56" s="24" t="inlineStr"/>
-      <c r="BW56" s="29" t="inlineStr"/>
-      <c r="BX56" s="29" t="inlineStr"/>
-      <c r="BY56" s="29" t="inlineStr"/>
-      <c r="BZ56" s="29" t="inlineStr"/>
-      <c r="CA56" s="25" t="inlineStr"/>
+      <c r="BE56" s="23" t="inlineStr"/>
+      <c r="BF56" s="24" t="inlineStr"/>
+      <c r="BG56" s="32" t="inlineStr"/>
+      <c r="BH56" s="32" t="inlineStr"/>
+      <c r="BI56" s="32" t="inlineStr"/>
+      <c r="BJ56" s="32" t="inlineStr"/>
+      <c r="BK56" s="32" t="inlineStr"/>
+      <c r="BL56" s="32" t="inlineStr"/>
+      <c r="BM56" s="32" t="inlineStr"/>
+      <c r="BN56" s="32" t="inlineStr"/>
+      <c r="BO56" s="32" t="inlineStr"/>
+      <c r="BP56" s="32" t="inlineStr"/>
+      <c r="BQ56" s="32" t="inlineStr"/>
+      <c r="BR56" s="32" t="inlineStr"/>
+      <c r="BS56" s="32" t="inlineStr"/>
+      <c r="BT56" s="32" t="inlineStr"/>
+      <c r="BU56" s="32" t="inlineStr"/>
+      <c r="BV56" s="32" t="inlineStr"/>
+      <c r="BW56" s="25" t="inlineStr"/>
+      <c r="BX56" s="33" t="inlineStr"/>
+      <c r="BY56" s="33" t="inlineStr"/>
+      <c r="BZ56" s="33" t="inlineStr"/>
+      <c r="CA56" s="33" t="inlineStr"/>
       <c r="CB56" s="26" t="inlineStr"/>
+      <c r="CC56" s="27" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6178,23 +6250,23 @@
       <c r="X57" s="20" t="inlineStr"/>
       <c r="Y57" s="21" t="inlineStr"/>
       <c r="Z57" s="21" t="inlineStr"/>
-      <c r="AA57" s="21" t="inlineStr"/>
-      <c r="AB57" s="21" t="inlineStr"/>
+      <c r="AA57" s="22" t="inlineStr"/>
+      <c r="AB57" s="22" t="inlineStr"/>
       <c r="AC57" s="21" t="inlineStr"/>
-      <c r="AD57" s="22" t="inlineStr"/>
-      <c r="AE57" s="23" t="inlineStr"/>
-      <c r="AF57" s="23" t="inlineStr"/>
-      <c r="AG57" s="23" t="inlineStr"/>
-      <c r="AH57" s="23" t="inlineStr"/>
-      <c r="AI57" s="24" t="inlineStr"/>
-      <c r="AJ57" s="25" t="inlineStr"/>
-      <c r="AK57" s="26" t="inlineStr"/>
-      <c r="AL57" s="27" t="inlineStr"/>
-      <c r="AM57" s="28" t="inlineStr"/>
-      <c r="AN57" s="16" t="inlineStr"/>
+      <c r="AD57" s="23" t="inlineStr"/>
+      <c r="AE57" s="24" t="inlineStr"/>
+      <c r="AF57" s="24" t="inlineStr"/>
+      <c r="AG57" s="24" t="inlineStr"/>
+      <c r="AH57" s="24" t="inlineStr"/>
+      <c r="AI57" s="25" t="inlineStr"/>
+      <c r="AJ57" s="26" t="inlineStr"/>
+      <c r="AK57" s="27" t="inlineStr"/>
+      <c r="AL57" s="28" t="inlineStr"/>
+      <c r="AM57" s="29" t="inlineStr"/>
+      <c r="AN57" s="30" t="inlineStr"/>
       <c r="AO57" s="17" t="inlineStr"/>
       <c r="AP57" s="17" t="inlineStr"/>
-      <c r="AQ57" s="17" t="inlineStr"/>
+      <c r="AQ57" s="31" t="inlineStr"/>
       <c r="AR57" s="18" t="inlineStr"/>
       <c r="AS57" s="19" t="inlineStr"/>
       <c r="AT57" s="19" t="inlineStr"/>
@@ -6208,30 +6280,31 @@
       <c r="BB57" s="20" t="inlineStr"/>
       <c r="BC57" s="21" t="inlineStr"/>
       <c r="BD57" s="21" t="inlineStr"/>
-      <c r="BE57" s="22" t="inlineStr"/>
-      <c r="BF57" s="23" t="inlineStr"/>
-      <c r="BG57" s="23" t="inlineStr"/>
-      <c r="BH57" s="23" t="inlineStr"/>
-      <c r="BI57" s="23" t="inlineStr"/>
-      <c r="BJ57" s="23" t="inlineStr"/>
-      <c r="BK57" s="23" t="inlineStr"/>
-      <c r="BL57" s="23" t="inlineStr"/>
-      <c r="BM57" s="23" t="inlineStr"/>
-      <c r="BN57" s="23" t="inlineStr"/>
-      <c r="BO57" s="23" t="inlineStr"/>
-      <c r="BP57" s="23" t="inlineStr"/>
-      <c r="BQ57" s="23" t="inlineStr"/>
-      <c r="BR57" s="23" t="inlineStr"/>
-      <c r="BS57" s="23" t="inlineStr"/>
-      <c r="BT57" s="23" t="inlineStr"/>
-      <c r="BU57" s="23" t="inlineStr"/>
-      <c r="BV57" s="24" t="inlineStr"/>
-      <c r="BW57" s="29" t="inlineStr"/>
-      <c r="BX57" s="29" t="inlineStr"/>
-      <c r="BY57" s="29" t="inlineStr"/>
-      <c r="BZ57" s="29" t="inlineStr"/>
-      <c r="CA57" s="25" t="inlineStr"/>
+      <c r="BE57" s="23" t="inlineStr"/>
+      <c r="BF57" s="24" t="inlineStr"/>
+      <c r="BG57" s="32" t="inlineStr"/>
+      <c r="BH57" s="32" t="inlineStr"/>
+      <c r="BI57" s="32" t="inlineStr"/>
+      <c r="BJ57" s="32" t="inlineStr"/>
+      <c r="BK57" s="32" t="inlineStr"/>
+      <c r="BL57" s="32" t="inlineStr"/>
+      <c r="BM57" s="32" t="inlineStr"/>
+      <c r="BN57" s="32" t="inlineStr"/>
+      <c r="BO57" s="32" t="inlineStr"/>
+      <c r="BP57" s="32" t="inlineStr"/>
+      <c r="BQ57" s="32" t="inlineStr"/>
+      <c r="BR57" s="32" t="inlineStr"/>
+      <c r="BS57" s="32" t="inlineStr"/>
+      <c r="BT57" s="32" t="inlineStr"/>
+      <c r="BU57" s="32" t="inlineStr"/>
+      <c r="BV57" s="32" t="inlineStr"/>
+      <c r="BW57" s="25" t="inlineStr"/>
+      <c r="BX57" s="33" t="inlineStr"/>
+      <c r="BY57" s="33" t="inlineStr"/>
+      <c r="BZ57" s="33" t="inlineStr"/>
+      <c r="CA57" s="33" t="inlineStr"/>
       <c r="CB57" s="26" t="inlineStr"/>
+      <c r="CC57" s="27" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6260,23 +6333,23 @@
       <c r="X58" s="20" t="inlineStr"/>
       <c r="Y58" s="21" t="inlineStr"/>
       <c r="Z58" s="21" t="inlineStr"/>
-      <c r="AA58" s="21" t="inlineStr"/>
-      <c r="AB58" s="21" t="inlineStr"/>
+      <c r="AA58" s="22" t="inlineStr"/>
+      <c r="AB58" s="22" t="inlineStr"/>
       <c r="AC58" s="21" t="inlineStr"/>
-      <c r="AD58" s="22" t="inlineStr"/>
-      <c r="AE58" s="23" t="inlineStr"/>
-      <c r="AF58" s="23" t="inlineStr"/>
-      <c r="AG58" s="23" t="inlineStr"/>
-      <c r="AH58" s="23" t="inlineStr"/>
-      <c r="AI58" s="24" t="inlineStr"/>
-      <c r="AJ58" s="25" t="inlineStr"/>
-      <c r="AK58" s="26" t="inlineStr"/>
-      <c r="AL58" s="27" t="inlineStr"/>
-      <c r="AM58" s="28" t="inlineStr"/>
-      <c r="AN58" s="16" t="inlineStr"/>
+      <c r="AD58" s="23" t="inlineStr"/>
+      <c r="AE58" s="24" t="inlineStr"/>
+      <c r="AF58" s="24" t="inlineStr"/>
+      <c r="AG58" s="24" t="inlineStr"/>
+      <c r="AH58" s="24" t="inlineStr"/>
+      <c r="AI58" s="25" t="inlineStr"/>
+      <c r="AJ58" s="26" t="inlineStr"/>
+      <c r="AK58" s="27" t="inlineStr"/>
+      <c r="AL58" s="28" t="inlineStr"/>
+      <c r="AM58" s="29" t="inlineStr"/>
+      <c r="AN58" s="30" t="inlineStr"/>
       <c r="AO58" s="17" t="inlineStr"/>
       <c r="AP58" s="17" t="inlineStr"/>
-      <c r="AQ58" s="17" t="inlineStr"/>
+      <c r="AQ58" s="31" t="inlineStr"/>
       <c r="AR58" s="18" t="inlineStr"/>
       <c r="AS58" s="19" t="inlineStr"/>
       <c r="AT58" s="19" t="inlineStr"/>
@@ -6290,30 +6363,31 @@
       <c r="BB58" s="20" t="inlineStr"/>
       <c r="BC58" s="21" t="inlineStr"/>
       <c r="BD58" s="21" t="inlineStr"/>
-      <c r="BE58" s="22" t="inlineStr"/>
-      <c r="BF58" s="23" t="inlineStr"/>
-      <c r="BG58" s="23" t="inlineStr"/>
-      <c r="BH58" s="23" t="inlineStr"/>
-      <c r="BI58" s="23" t="inlineStr"/>
-      <c r="BJ58" s="23" t="inlineStr"/>
-      <c r="BK58" s="23" t="inlineStr"/>
-      <c r="BL58" s="23" t="inlineStr"/>
-      <c r="BM58" s="23" t="inlineStr"/>
-      <c r="BN58" s="23" t="inlineStr"/>
-      <c r="BO58" s="23" t="inlineStr"/>
-      <c r="BP58" s="23" t="inlineStr"/>
-      <c r="BQ58" s="23" t="inlineStr"/>
-      <c r="BR58" s="23" t="inlineStr"/>
-      <c r="BS58" s="23" t="inlineStr"/>
-      <c r="BT58" s="23" t="inlineStr"/>
-      <c r="BU58" s="23" t="inlineStr"/>
-      <c r="BV58" s="24" t="inlineStr"/>
-      <c r="BW58" s="29" t="inlineStr"/>
-      <c r="BX58" s="29" t="inlineStr"/>
-      <c r="BY58" s="29" t="inlineStr"/>
-      <c r="BZ58" s="29" t="inlineStr"/>
-      <c r="CA58" s="25" t="inlineStr"/>
+      <c r="BE58" s="23" t="inlineStr"/>
+      <c r="BF58" s="24" t="inlineStr"/>
+      <c r="BG58" s="32" t="inlineStr"/>
+      <c r="BH58" s="32" t="inlineStr"/>
+      <c r="BI58" s="32" t="inlineStr"/>
+      <c r="BJ58" s="32" t="inlineStr"/>
+      <c r="BK58" s="32" t="inlineStr"/>
+      <c r="BL58" s="32" t="inlineStr"/>
+      <c r="BM58" s="32" t="inlineStr"/>
+      <c r="BN58" s="32" t="inlineStr"/>
+      <c r="BO58" s="32" t="inlineStr"/>
+      <c r="BP58" s="32" t="inlineStr"/>
+      <c r="BQ58" s="32" t="inlineStr"/>
+      <c r="BR58" s="32" t="inlineStr"/>
+      <c r="BS58" s="32" t="inlineStr"/>
+      <c r="BT58" s="32" t="inlineStr"/>
+      <c r="BU58" s="32" t="inlineStr"/>
+      <c r="BV58" s="32" t="inlineStr"/>
+      <c r="BW58" s="25" t="inlineStr"/>
+      <c r="BX58" s="33" t="inlineStr"/>
+      <c r="BY58" s="33" t="inlineStr"/>
+      <c r="BZ58" s="33" t="inlineStr"/>
+      <c r="CA58" s="33" t="inlineStr"/>
       <c r="CB58" s="26" t="inlineStr"/>
+      <c r="CC58" s="27" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6342,23 +6416,23 @@
       <c r="X59" s="20" t="inlineStr"/>
       <c r="Y59" s="21" t="inlineStr"/>
       <c r="Z59" s="21" t="inlineStr"/>
-      <c r="AA59" s="21" t="inlineStr"/>
-      <c r="AB59" s="21" t="inlineStr"/>
+      <c r="AA59" s="22" t="inlineStr"/>
+      <c r="AB59" s="22" t="inlineStr"/>
       <c r="AC59" s="21" t="inlineStr"/>
-      <c r="AD59" s="22" t="inlineStr"/>
-      <c r="AE59" s="23" t="inlineStr"/>
-      <c r="AF59" s="23" t="inlineStr"/>
-      <c r="AG59" s="23" t="inlineStr"/>
-      <c r="AH59" s="23" t="inlineStr"/>
-      <c r="AI59" s="24" t="inlineStr"/>
-      <c r="AJ59" s="25" t="inlineStr"/>
-      <c r="AK59" s="26" t="inlineStr"/>
-      <c r="AL59" s="27" t="inlineStr"/>
-      <c r="AM59" s="28" t="inlineStr"/>
-      <c r="AN59" s="16" t="inlineStr"/>
+      <c r="AD59" s="23" t="inlineStr"/>
+      <c r="AE59" s="24" t="inlineStr"/>
+      <c r="AF59" s="24" t="inlineStr"/>
+      <c r="AG59" s="24" t="inlineStr"/>
+      <c r="AH59" s="24" t="inlineStr"/>
+      <c r="AI59" s="25" t="inlineStr"/>
+      <c r="AJ59" s="26" t="inlineStr"/>
+      <c r="AK59" s="27" t="inlineStr"/>
+      <c r="AL59" s="28" t="inlineStr"/>
+      <c r="AM59" s="29" t="inlineStr"/>
+      <c r="AN59" s="30" t="inlineStr"/>
       <c r="AO59" s="17" t="inlineStr"/>
       <c r="AP59" s="17" t="inlineStr"/>
-      <c r="AQ59" s="17" t="inlineStr"/>
+      <c r="AQ59" s="31" t="inlineStr"/>
       <c r="AR59" s="18" t="inlineStr"/>
       <c r="AS59" s="19" t="inlineStr"/>
       <c r="AT59" s="19" t="inlineStr"/>
@@ -6372,30 +6446,31 @@
       <c r="BB59" s="20" t="inlineStr"/>
       <c r="BC59" s="21" t="inlineStr"/>
       <c r="BD59" s="21" t="inlineStr"/>
-      <c r="BE59" s="22" t="inlineStr"/>
-      <c r="BF59" s="23" t="inlineStr"/>
-      <c r="BG59" s="23" t="inlineStr"/>
-      <c r="BH59" s="23" t="inlineStr"/>
-      <c r="BI59" s="23" t="inlineStr"/>
-      <c r="BJ59" s="23" t="inlineStr"/>
-      <c r="BK59" s="23" t="inlineStr"/>
-      <c r="BL59" s="23" t="inlineStr"/>
-      <c r="BM59" s="23" t="inlineStr"/>
-      <c r="BN59" s="23" t="inlineStr"/>
-      <c r="BO59" s="23" t="inlineStr"/>
-      <c r="BP59" s="23" t="inlineStr"/>
-      <c r="BQ59" s="23" t="inlineStr"/>
-      <c r="BR59" s="23" t="inlineStr"/>
-      <c r="BS59" s="23" t="inlineStr"/>
-      <c r="BT59" s="23" t="inlineStr"/>
-      <c r="BU59" s="23" t="inlineStr"/>
-      <c r="BV59" s="24" t="inlineStr"/>
-      <c r="BW59" s="29" t="inlineStr"/>
-      <c r="BX59" s="29" t="inlineStr"/>
-      <c r="BY59" s="29" t="inlineStr"/>
-      <c r="BZ59" s="29" t="inlineStr"/>
-      <c r="CA59" s="25" t="inlineStr"/>
+      <c r="BE59" s="23" t="inlineStr"/>
+      <c r="BF59" s="24" t="inlineStr"/>
+      <c r="BG59" s="32" t="inlineStr"/>
+      <c r="BH59" s="32" t="inlineStr"/>
+      <c r="BI59" s="32" t="inlineStr"/>
+      <c r="BJ59" s="32" t="inlineStr"/>
+      <c r="BK59" s="32" t="inlineStr"/>
+      <c r="BL59" s="32" t="inlineStr"/>
+      <c r="BM59" s="32" t="inlineStr"/>
+      <c r="BN59" s="32" t="inlineStr"/>
+      <c r="BO59" s="32" t="inlineStr"/>
+      <c r="BP59" s="32" t="inlineStr"/>
+      <c r="BQ59" s="32" t="inlineStr"/>
+      <c r="BR59" s="32" t="inlineStr"/>
+      <c r="BS59" s="32" t="inlineStr"/>
+      <c r="BT59" s="32" t="inlineStr"/>
+      <c r="BU59" s="32" t="inlineStr"/>
+      <c r="BV59" s="32" t="inlineStr"/>
+      <c r="BW59" s="25" t="inlineStr"/>
+      <c r="BX59" s="33" t="inlineStr"/>
+      <c r="BY59" s="33" t="inlineStr"/>
+      <c r="BZ59" s="33" t="inlineStr"/>
+      <c r="CA59" s="33" t="inlineStr"/>
       <c r="CB59" s="26" t="inlineStr"/>
+      <c r="CC59" s="27" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6424,23 +6499,23 @@
       <c r="X60" s="20" t="inlineStr"/>
       <c r="Y60" s="21" t="inlineStr"/>
       <c r="Z60" s="21" t="inlineStr"/>
-      <c r="AA60" s="21" t="inlineStr"/>
-      <c r="AB60" s="21" t="inlineStr"/>
+      <c r="AA60" s="22" t="inlineStr"/>
+      <c r="AB60" s="22" t="inlineStr"/>
       <c r="AC60" s="21" t="inlineStr"/>
-      <c r="AD60" s="22" t="inlineStr"/>
-      <c r="AE60" s="23" t="inlineStr"/>
-      <c r="AF60" s="23" t="inlineStr"/>
-      <c r="AG60" s="23" t="inlineStr"/>
-      <c r="AH60" s="23" t="inlineStr"/>
-      <c r="AI60" s="24" t="inlineStr"/>
-      <c r="AJ60" s="25" t="inlineStr"/>
-      <c r="AK60" s="26" t="inlineStr"/>
-      <c r="AL60" s="27" t="inlineStr"/>
-      <c r="AM60" s="28" t="inlineStr"/>
-      <c r="AN60" s="16" t="inlineStr"/>
+      <c r="AD60" s="23" t="inlineStr"/>
+      <c r="AE60" s="24" t="inlineStr"/>
+      <c r="AF60" s="24" t="inlineStr"/>
+      <c r="AG60" s="24" t="inlineStr"/>
+      <c r="AH60" s="24" t="inlineStr"/>
+      <c r="AI60" s="25" t="inlineStr"/>
+      <c r="AJ60" s="26" t="inlineStr"/>
+      <c r="AK60" s="27" t="inlineStr"/>
+      <c r="AL60" s="28" t="inlineStr"/>
+      <c r="AM60" s="29" t="inlineStr"/>
+      <c r="AN60" s="30" t="inlineStr"/>
       <c r="AO60" s="17" t="inlineStr"/>
       <c r="AP60" s="17" t="inlineStr"/>
-      <c r="AQ60" s="17" t="inlineStr"/>
+      <c r="AQ60" s="31" t="inlineStr"/>
       <c r="AR60" s="18" t="inlineStr"/>
       <c r="AS60" s="19" t="inlineStr"/>
       <c r="AT60" s="19" t="inlineStr"/>
@@ -6454,30 +6529,31 @@
       <c r="BB60" s="20" t="inlineStr"/>
       <c r="BC60" s="21" t="inlineStr"/>
       <c r="BD60" s="21" t="inlineStr"/>
-      <c r="BE60" s="22" t="inlineStr"/>
-      <c r="BF60" s="23" t="inlineStr"/>
-      <c r="BG60" s="23" t="inlineStr"/>
-      <c r="BH60" s="23" t="inlineStr"/>
-      <c r="BI60" s="23" t="inlineStr"/>
-      <c r="BJ60" s="23" t="inlineStr"/>
-      <c r="BK60" s="23" t="inlineStr"/>
-      <c r="BL60" s="23" t="inlineStr"/>
-      <c r="BM60" s="23" t="inlineStr"/>
-      <c r="BN60" s="23" t="inlineStr"/>
-      <c r="BO60" s="23" t="inlineStr"/>
-      <c r="BP60" s="23" t="inlineStr"/>
-      <c r="BQ60" s="23" t="inlineStr"/>
-      <c r="BR60" s="23" t="inlineStr"/>
-      <c r="BS60" s="23" t="inlineStr"/>
-      <c r="BT60" s="23" t="inlineStr"/>
-      <c r="BU60" s="23" t="inlineStr"/>
-      <c r="BV60" s="24" t="inlineStr"/>
-      <c r="BW60" s="29" t="inlineStr"/>
-      <c r="BX60" s="29" t="inlineStr"/>
-      <c r="BY60" s="29" t="inlineStr"/>
-      <c r="BZ60" s="29" t="inlineStr"/>
-      <c r="CA60" s="25" t="inlineStr"/>
+      <c r="BE60" s="23" t="inlineStr"/>
+      <c r="BF60" s="24" t="inlineStr"/>
+      <c r="BG60" s="32" t="inlineStr"/>
+      <c r="BH60" s="32" t="inlineStr"/>
+      <c r="BI60" s="32" t="inlineStr"/>
+      <c r="BJ60" s="32" t="inlineStr"/>
+      <c r="BK60" s="32" t="inlineStr"/>
+      <c r="BL60" s="32" t="inlineStr"/>
+      <c r="BM60" s="32" t="inlineStr"/>
+      <c r="BN60" s="32" t="inlineStr"/>
+      <c r="BO60" s="32" t="inlineStr"/>
+      <c r="BP60" s="32" t="inlineStr"/>
+      <c r="BQ60" s="32" t="inlineStr"/>
+      <c r="BR60" s="32" t="inlineStr"/>
+      <c r="BS60" s="32" t="inlineStr"/>
+      <c r="BT60" s="32" t="inlineStr"/>
+      <c r="BU60" s="32" t="inlineStr"/>
+      <c r="BV60" s="32" t="inlineStr"/>
+      <c r="BW60" s="25" t="inlineStr"/>
+      <c r="BX60" s="33" t="inlineStr"/>
+      <c r="BY60" s="33" t="inlineStr"/>
+      <c r="BZ60" s="33" t="inlineStr"/>
+      <c r="CA60" s="33" t="inlineStr"/>
       <c r="CB60" s="26" t="inlineStr"/>
+      <c r="CC60" s="27" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6506,23 +6582,23 @@
       <c r="X61" s="20" t="inlineStr"/>
       <c r="Y61" s="21" t="inlineStr"/>
       <c r="Z61" s="21" t="inlineStr"/>
-      <c r="AA61" s="21" t="inlineStr"/>
-      <c r="AB61" s="21" t="inlineStr"/>
+      <c r="AA61" s="22" t="inlineStr"/>
+      <c r="AB61" s="22" t="inlineStr"/>
       <c r="AC61" s="21" t="inlineStr"/>
-      <c r="AD61" s="22" t="inlineStr"/>
-      <c r="AE61" s="23" t="inlineStr"/>
-      <c r="AF61" s="23" t="inlineStr"/>
-      <c r="AG61" s="23" t="inlineStr"/>
-      <c r="AH61" s="23" t="inlineStr"/>
-      <c r="AI61" s="24" t="inlineStr"/>
-      <c r="AJ61" s="25" t="inlineStr"/>
-      <c r="AK61" s="26" t="inlineStr"/>
-      <c r="AL61" s="27" t="inlineStr"/>
-      <c r="AM61" s="28" t="inlineStr"/>
-      <c r="AN61" s="16" t="inlineStr"/>
+      <c r="AD61" s="23" t="inlineStr"/>
+      <c r="AE61" s="24" t="inlineStr"/>
+      <c r="AF61" s="24" t="inlineStr"/>
+      <c r="AG61" s="24" t="inlineStr"/>
+      <c r="AH61" s="24" t="inlineStr"/>
+      <c r="AI61" s="25" t="inlineStr"/>
+      <c r="AJ61" s="26" t="inlineStr"/>
+      <c r="AK61" s="27" t="inlineStr"/>
+      <c r="AL61" s="28" t="inlineStr"/>
+      <c r="AM61" s="29" t="inlineStr"/>
+      <c r="AN61" s="30" t="inlineStr"/>
       <c r="AO61" s="17" t="inlineStr"/>
       <c r="AP61" s="17" t="inlineStr"/>
-      <c r="AQ61" s="17" t="inlineStr"/>
+      <c r="AQ61" s="31" t="inlineStr"/>
       <c r="AR61" s="18" t="inlineStr"/>
       <c r="AS61" s="19" t="inlineStr"/>
       <c r="AT61" s="19" t="inlineStr"/>
@@ -6536,30 +6612,31 @@
       <c r="BB61" s="20" t="inlineStr"/>
       <c r="BC61" s="21" t="inlineStr"/>
       <c r="BD61" s="21" t="inlineStr"/>
-      <c r="BE61" s="22" t="inlineStr"/>
-      <c r="BF61" s="23" t="inlineStr"/>
-      <c r="BG61" s="23" t="inlineStr"/>
-      <c r="BH61" s="23" t="inlineStr"/>
-      <c r="BI61" s="23" t="inlineStr"/>
-      <c r="BJ61" s="23" t="inlineStr"/>
-      <c r="BK61" s="23" t="inlineStr"/>
-      <c r="BL61" s="23" t="inlineStr"/>
-      <c r="BM61" s="23" t="inlineStr"/>
-      <c r="BN61" s="23" t="inlineStr"/>
-      <c r="BO61" s="23" t="inlineStr"/>
-      <c r="BP61" s="23" t="inlineStr"/>
-      <c r="BQ61" s="23" t="inlineStr"/>
-      <c r="BR61" s="23" t="inlineStr"/>
-      <c r="BS61" s="23" t="inlineStr"/>
-      <c r="BT61" s="23" t="inlineStr"/>
-      <c r="BU61" s="23" t="inlineStr"/>
-      <c r="BV61" s="24" t="inlineStr"/>
-      <c r="BW61" s="29" t="inlineStr"/>
-      <c r="BX61" s="29" t="inlineStr"/>
-      <c r="BY61" s="29" t="inlineStr"/>
-      <c r="BZ61" s="29" t="inlineStr"/>
-      <c r="CA61" s="25" t="inlineStr"/>
+      <c r="BE61" s="23" t="inlineStr"/>
+      <c r="BF61" s="24" t="inlineStr"/>
+      <c r="BG61" s="32" t="inlineStr"/>
+      <c r="BH61" s="32" t="inlineStr"/>
+      <c r="BI61" s="32" t="inlineStr"/>
+      <c r="BJ61" s="32" t="inlineStr"/>
+      <c r="BK61" s="32" t="inlineStr"/>
+      <c r="BL61" s="32" t="inlineStr"/>
+      <c r="BM61" s="32" t="inlineStr"/>
+      <c r="BN61" s="32" t="inlineStr"/>
+      <c r="BO61" s="32" t="inlineStr"/>
+      <c r="BP61" s="32" t="inlineStr"/>
+      <c r="BQ61" s="32" t="inlineStr"/>
+      <c r="BR61" s="32" t="inlineStr"/>
+      <c r="BS61" s="32" t="inlineStr"/>
+      <c r="BT61" s="32" t="inlineStr"/>
+      <c r="BU61" s="32" t="inlineStr"/>
+      <c r="BV61" s="32" t="inlineStr"/>
+      <c r="BW61" s="25" t="inlineStr"/>
+      <c r="BX61" s="33" t="inlineStr"/>
+      <c r="BY61" s="33" t="inlineStr"/>
+      <c r="BZ61" s="33" t="inlineStr"/>
+      <c r="CA61" s="33" t="inlineStr"/>
       <c r="CB61" s="26" t="inlineStr"/>
+      <c r="CC61" s="27" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6588,23 +6665,23 @@
       <c r="X62" s="20" t="inlineStr"/>
       <c r="Y62" s="21" t="inlineStr"/>
       <c r="Z62" s="21" t="inlineStr"/>
-      <c r="AA62" s="21" t="inlineStr"/>
-      <c r="AB62" s="21" t="inlineStr"/>
+      <c r="AA62" s="22" t="inlineStr"/>
+      <c r="AB62" s="22" t="inlineStr"/>
       <c r="AC62" s="21" t="inlineStr"/>
-      <c r="AD62" s="22" t="inlineStr"/>
-      <c r="AE62" s="23" t="inlineStr"/>
-      <c r="AF62" s="23" t="inlineStr"/>
-      <c r="AG62" s="23" t="inlineStr"/>
-      <c r="AH62" s="23" t="inlineStr"/>
-      <c r="AI62" s="24" t="inlineStr"/>
-      <c r="AJ62" s="25" t="inlineStr"/>
-      <c r="AK62" s="26" t="inlineStr"/>
-      <c r="AL62" s="27" t="inlineStr"/>
-      <c r="AM62" s="28" t="inlineStr"/>
-      <c r="AN62" s="16" t="inlineStr"/>
+      <c r="AD62" s="23" t="inlineStr"/>
+      <c r="AE62" s="24" t="inlineStr"/>
+      <c r="AF62" s="24" t="inlineStr"/>
+      <c r="AG62" s="24" t="inlineStr"/>
+      <c r="AH62" s="24" t="inlineStr"/>
+      <c r="AI62" s="25" t="inlineStr"/>
+      <c r="AJ62" s="26" t="inlineStr"/>
+      <c r="AK62" s="27" t="inlineStr"/>
+      <c r="AL62" s="28" t="inlineStr"/>
+      <c r="AM62" s="29" t="inlineStr"/>
+      <c r="AN62" s="30" t="inlineStr"/>
       <c r="AO62" s="17" t="inlineStr"/>
       <c r="AP62" s="17" t="inlineStr"/>
-      <c r="AQ62" s="17" t="inlineStr"/>
+      <c r="AQ62" s="31" t="inlineStr"/>
       <c r="AR62" s="18" t="inlineStr"/>
       <c r="AS62" s="19" t="inlineStr"/>
       <c r="AT62" s="19" t="inlineStr"/>
@@ -6618,30 +6695,31 @@
       <c r="BB62" s="20" t="inlineStr"/>
       <c r="BC62" s="21" t="inlineStr"/>
       <c r="BD62" s="21" t="inlineStr"/>
-      <c r="BE62" s="22" t="inlineStr"/>
-      <c r="BF62" s="23" t="inlineStr"/>
-      <c r="BG62" s="23" t="inlineStr"/>
-      <c r="BH62" s="23" t="inlineStr"/>
-      <c r="BI62" s="23" t="inlineStr"/>
-      <c r="BJ62" s="23" t="inlineStr"/>
-      <c r="BK62" s="23" t="inlineStr"/>
-      <c r="BL62" s="23" t="inlineStr"/>
-      <c r="BM62" s="23" t="inlineStr"/>
-      <c r="BN62" s="23" t="inlineStr"/>
-      <c r="BO62" s="23" t="inlineStr"/>
-      <c r="BP62" s="23" t="inlineStr"/>
-      <c r="BQ62" s="23" t="inlineStr"/>
-      <c r="BR62" s="23" t="inlineStr"/>
-      <c r="BS62" s="23" t="inlineStr"/>
-      <c r="BT62" s="23" t="inlineStr"/>
-      <c r="BU62" s="23" t="inlineStr"/>
-      <c r="BV62" s="24" t="inlineStr"/>
-      <c r="BW62" s="29" t="inlineStr"/>
-      <c r="BX62" s="29" t="inlineStr"/>
-      <c r="BY62" s="29" t="inlineStr"/>
-      <c r="BZ62" s="29" t="inlineStr"/>
-      <c r="CA62" s="25" t="inlineStr"/>
+      <c r="BE62" s="23" t="inlineStr"/>
+      <c r="BF62" s="24" t="inlineStr"/>
+      <c r="BG62" s="32" t="inlineStr"/>
+      <c r="BH62" s="32" t="inlineStr"/>
+      <c r="BI62" s="32" t="inlineStr"/>
+      <c r="BJ62" s="32" t="inlineStr"/>
+      <c r="BK62" s="32" t="inlineStr"/>
+      <c r="BL62" s="32" t="inlineStr"/>
+      <c r="BM62" s="32" t="inlineStr"/>
+      <c r="BN62" s="32" t="inlineStr"/>
+      <c r="BO62" s="32" t="inlineStr"/>
+      <c r="BP62" s="32" t="inlineStr"/>
+      <c r="BQ62" s="32" t="inlineStr"/>
+      <c r="BR62" s="32" t="inlineStr"/>
+      <c r="BS62" s="32" t="inlineStr"/>
+      <c r="BT62" s="32" t="inlineStr"/>
+      <c r="BU62" s="32" t="inlineStr"/>
+      <c r="BV62" s="32" t="inlineStr"/>
+      <c r="BW62" s="25" t="inlineStr"/>
+      <c r="BX62" s="33" t="inlineStr"/>
+      <c r="BY62" s="33" t="inlineStr"/>
+      <c r="BZ62" s="33" t="inlineStr"/>
+      <c r="CA62" s="33" t="inlineStr"/>
       <c r="CB62" s="26" t="inlineStr"/>
+      <c r="CC62" s="27" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6670,23 +6748,23 @@
       <c r="X63" s="20" t="inlineStr"/>
       <c r="Y63" s="21" t="inlineStr"/>
       <c r="Z63" s="21" t="inlineStr"/>
-      <c r="AA63" s="21" t="inlineStr"/>
-      <c r="AB63" s="21" t="inlineStr"/>
+      <c r="AA63" s="22" t="inlineStr"/>
+      <c r="AB63" s="22" t="inlineStr"/>
       <c r="AC63" s="21" t="inlineStr"/>
-      <c r="AD63" s="22" t="inlineStr"/>
-      <c r="AE63" s="23" t="inlineStr"/>
-      <c r="AF63" s="23" t="inlineStr"/>
-      <c r="AG63" s="23" t="inlineStr"/>
-      <c r="AH63" s="23" t="inlineStr"/>
-      <c r="AI63" s="24" t="inlineStr"/>
-      <c r="AJ63" s="25" t="inlineStr"/>
-      <c r="AK63" s="26" t="inlineStr"/>
-      <c r="AL63" s="27" t="inlineStr"/>
-      <c r="AM63" s="28" t="inlineStr"/>
-      <c r="AN63" s="16" t="inlineStr"/>
+      <c r="AD63" s="23" t="inlineStr"/>
+      <c r="AE63" s="24" t="inlineStr"/>
+      <c r="AF63" s="24" t="inlineStr"/>
+      <c r="AG63" s="24" t="inlineStr"/>
+      <c r="AH63" s="24" t="inlineStr"/>
+      <c r="AI63" s="25" t="inlineStr"/>
+      <c r="AJ63" s="26" t="inlineStr"/>
+      <c r="AK63" s="27" t="inlineStr"/>
+      <c r="AL63" s="28" t="inlineStr"/>
+      <c r="AM63" s="29" t="inlineStr"/>
+      <c r="AN63" s="30" t="inlineStr"/>
       <c r="AO63" s="17" t="inlineStr"/>
       <c r="AP63" s="17" t="inlineStr"/>
-      <c r="AQ63" s="17" t="inlineStr"/>
+      <c r="AQ63" s="31" t="inlineStr"/>
       <c r="AR63" s="18" t="inlineStr"/>
       <c r="AS63" s="19" t="inlineStr"/>
       <c r="AT63" s="19" t="inlineStr"/>
@@ -6700,30 +6778,31 @@
       <c r="BB63" s="20" t="inlineStr"/>
       <c r="BC63" s="21" t="inlineStr"/>
       <c r="BD63" s="21" t="inlineStr"/>
-      <c r="BE63" s="22" t="inlineStr"/>
-      <c r="BF63" s="23" t="inlineStr"/>
-      <c r="BG63" s="23" t="inlineStr"/>
-      <c r="BH63" s="23" t="inlineStr"/>
-      <c r="BI63" s="23" t="inlineStr"/>
-      <c r="BJ63" s="23" t="inlineStr"/>
-      <c r="BK63" s="23" t="inlineStr"/>
-      <c r="BL63" s="23" t="inlineStr"/>
-      <c r="BM63" s="23" t="inlineStr"/>
-      <c r="BN63" s="23" t="inlineStr"/>
-      <c r="BO63" s="23" t="inlineStr"/>
-      <c r="BP63" s="23" t="inlineStr"/>
-      <c r="BQ63" s="23" t="inlineStr"/>
-      <c r="BR63" s="23" t="inlineStr"/>
-      <c r="BS63" s="23" t="inlineStr"/>
-      <c r="BT63" s="23" t="inlineStr"/>
-      <c r="BU63" s="23" t="inlineStr"/>
-      <c r="BV63" s="24" t="inlineStr"/>
-      <c r="BW63" s="29" t="inlineStr"/>
-      <c r="BX63" s="29" t="inlineStr"/>
-      <c r="BY63" s="29" t="inlineStr"/>
-      <c r="BZ63" s="29" t="inlineStr"/>
-      <c r="CA63" s="25" t="inlineStr"/>
+      <c r="BE63" s="23" t="inlineStr"/>
+      <c r="BF63" s="24" t="inlineStr"/>
+      <c r="BG63" s="32" t="inlineStr"/>
+      <c r="BH63" s="32" t="inlineStr"/>
+      <c r="BI63" s="32" t="inlineStr"/>
+      <c r="BJ63" s="32" t="inlineStr"/>
+      <c r="BK63" s="32" t="inlineStr"/>
+      <c r="BL63" s="32" t="inlineStr"/>
+      <c r="BM63" s="32" t="inlineStr"/>
+      <c r="BN63" s="32" t="inlineStr"/>
+      <c r="BO63" s="32" t="inlineStr"/>
+      <c r="BP63" s="32" t="inlineStr"/>
+      <c r="BQ63" s="32" t="inlineStr"/>
+      <c r="BR63" s="32" t="inlineStr"/>
+      <c r="BS63" s="32" t="inlineStr"/>
+      <c r="BT63" s="32" t="inlineStr"/>
+      <c r="BU63" s="32" t="inlineStr"/>
+      <c r="BV63" s="32" t="inlineStr"/>
+      <c r="BW63" s="25" t="inlineStr"/>
+      <c r="BX63" s="33" t="inlineStr"/>
+      <c r="BY63" s="33" t="inlineStr"/>
+      <c r="BZ63" s="33" t="inlineStr"/>
+      <c r="CA63" s="33" t="inlineStr"/>
       <c r="CB63" s="26" t="inlineStr"/>
+      <c r="CC63" s="27" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -6752,23 +6831,23 @@
       <c r="X64" s="20" t="inlineStr"/>
       <c r="Y64" s="21" t="inlineStr"/>
       <c r="Z64" s="21" t="inlineStr"/>
-      <c r="AA64" s="21" t="inlineStr"/>
-      <c r="AB64" s="21" t="inlineStr"/>
+      <c r="AA64" s="22" t="inlineStr"/>
+      <c r="AB64" s="22" t="inlineStr"/>
       <c r="AC64" s="21" t="inlineStr"/>
-      <c r="AD64" s="22" t="inlineStr"/>
-      <c r="AE64" s="23" t="inlineStr"/>
-      <c r="AF64" s="23" t="inlineStr"/>
-      <c r="AG64" s="23" t="inlineStr"/>
-      <c r="AH64" s="23" t="inlineStr"/>
-      <c r="AI64" s="24" t="inlineStr"/>
-      <c r="AJ64" s="25" t="inlineStr"/>
-      <c r="AK64" s="26" t="inlineStr"/>
-      <c r="AL64" s="27" t="inlineStr"/>
-      <c r="AM64" s="28" t="inlineStr"/>
-      <c r="AN64" s="16" t="inlineStr"/>
+      <c r="AD64" s="23" t="inlineStr"/>
+      <c r="AE64" s="24" t="inlineStr"/>
+      <c r="AF64" s="24" t="inlineStr"/>
+      <c r="AG64" s="24" t="inlineStr"/>
+      <c r="AH64" s="24" t="inlineStr"/>
+      <c r="AI64" s="25" t="inlineStr"/>
+      <c r="AJ64" s="26" t="inlineStr"/>
+      <c r="AK64" s="27" t="inlineStr"/>
+      <c r="AL64" s="28" t="inlineStr"/>
+      <c r="AM64" s="29" t="inlineStr"/>
+      <c r="AN64" s="30" t="inlineStr"/>
       <c r="AO64" s="17" t="inlineStr"/>
       <c r="AP64" s="17" t="inlineStr"/>
-      <c r="AQ64" s="17" t="inlineStr"/>
+      <c r="AQ64" s="31" t="inlineStr"/>
       <c r="AR64" s="18" t="inlineStr"/>
       <c r="AS64" s="19" t="inlineStr"/>
       <c r="AT64" s="19" t="inlineStr"/>
@@ -6782,30 +6861,31 @@
       <c r="BB64" s="20" t="inlineStr"/>
       <c r="BC64" s="21" t="inlineStr"/>
       <c r="BD64" s="21" t="inlineStr"/>
-      <c r="BE64" s="22" t="inlineStr"/>
-      <c r="BF64" s="23" t="inlineStr"/>
-      <c r="BG64" s="23" t="inlineStr"/>
-      <c r="BH64" s="23" t="inlineStr"/>
-      <c r="BI64" s="23" t="inlineStr"/>
-      <c r="BJ64" s="23" t="inlineStr"/>
-      <c r="BK64" s="23" t="inlineStr"/>
-      <c r="BL64" s="23" t="inlineStr"/>
-      <c r="BM64" s="23" t="inlineStr"/>
-      <c r="BN64" s="23" t="inlineStr"/>
-      <c r="BO64" s="23" t="inlineStr"/>
-      <c r="BP64" s="23" t="inlineStr"/>
-      <c r="BQ64" s="23" t="inlineStr"/>
-      <c r="BR64" s="23" t="inlineStr"/>
-      <c r="BS64" s="23" t="inlineStr"/>
-      <c r="BT64" s="23" t="inlineStr"/>
-      <c r="BU64" s="23" t="inlineStr"/>
-      <c r="BV64" s="24" t="inlineStr"/>
-      <c r="BW64" s="29" t="inlineStr"/>
-      <c r="BX64" s="29" t="inlineStr"/>
-      <c r="BY64" s="29" t="inlineStr"/>
-      <c r="BZ64" s="29" t="inlineStr"/>
-      <c r="CA64" s="25" t="inlineStr"/>
+      <c r="BE64" s="23" t="inlineStr"/>
+      <c r="BF64" s="24" t="inlineStr"/>
+      <c r="BG64" s="32" t="inlineStr"/>
+      <c r="BH64" s="32" t="inlineStr"/>
+      <c r="BI64" s="32" t="inlineStr"/>
+      <c r="BJ64" s="32" t="inlineStr"/>
+      <c r="BK64" s="32" t="inlineStr"/>
+      <c r="BL64" s="32" t="inlineStr"/>
+      <c r="BM64" s="32" t="inlineStr"/>
+      <c r="BN64" s="32" t="inlineStr"/>
+      <c r="BO64" s="32" t="inlineStr"/>
+      <c r="BP64" s="32" t="inlineStr"/>
+      <c r="BQ64" s="32" t="inlineStr"/>
+      <c r="BR64" s="32" t="inlineStr"/>
+      <c r="BS64" s="32" t="inlineStr"/>
+      <c r="BT64" s="32" t="inlineStr"/>
+      <c r="BU64" s="32" t="inlineStr"/>
+      <c r="BV64" s="32" t="inlineStr"/>
+      <c r="BW64" s="25" t="inlineStr"/>
+      <c r="BX64" s="33" t="inlineStr"/>
+      <c r="BY64" s="33" t="inlineStr"/>
+      <c r="BZ64" s="33" t="inlineStr"/>
+      <c r="CA64" s="33" t="inlineStr"/>
       <c r="CB64" s="26" t="inlineStr"/>
+      <c r="CC64" s="27" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -6834,23 +6914,23 @@
       <c r="X65" s="20" t="inlineStr"/>
       <c r="Y65" s="21" t="inlineStr"/>
       <c r="Z65" s="21" t="inlineStr"/>
-      <c r="AA65" s="21" t="inlineStr"/>
-      <c r="AB65" s="21" t="inlineStr"/>
+      <c r="AA65" s="22" t="inlineStr"/>
+      <c r="AB65" s="22" t="inlineStr"/>
       <c r="AC65" s="21" t="inlineStr"/>
-      <c r="AD65" s="22" t="inlineStr"/>
-      <c r="AE65" s="23" t="inlineStr"/>
-      <c r="AF65" s="23" t="inlineStr"/>
-      <c r="AG65" s="23" t="inlineStr"/>
-      <c r="AH65" s="23" t="inlineStr"/>
-      <c r="AI65" s="24" t="inlineStr"/>
-      <c r="AJ65" s="25" t="inlineStr"/>
-      <c r="AK65" s="26" t="inlineStr"/>
-      <c r="AL65" s="27" t="inlineStr"/>
-      <c r="AM65" s="28" t="inlineStr"/>
-      <c r="AN65" s="16" t="inlineStr"/>
+      <c r="AD65" s="23" t="inlineStr"/>
+      <c r="AE65" s="24" t="inlineStr"/>
+      <c r="AF65" s="24" t="inlineStr"/>
+      <c r="AG65" s="24" t="inlineStr"/>
+      <c r="AH65" s="24" t="inlineStr"/>
+      <c r="AI65" s="25" t="inlineStr"/>
+      <c r="AJ65" s="26" t="inlineStr"/>
+      <c r="AK65" s="27" t="inlineStr"/>
+      <c r="AL65" s="28" t="inlineStr"/>
+      <c r="AM65" s="29" t="inlineStr"/>
+      <c r="AN65" s="30" t="inlineStr"/>
       <c r="AO65" s="17" t="inlineStr"/>
       <c r="AP65" s="17" t="inlineStr"/>
-      <c r="AQ65" s="17" t="inlineStr"/>
+      <c r="AQ65" s="31" t="inlineStr"/>
       <c r="AR65" s="18" t="inlineStr"/>
       <c r="AS65" s="19" t="inlineStr"/>
       <c r="AT65" s="19" t="inlineStr"/>
@@ -6864,30 +6944,31 @@
       <c r="BB65" s="20" t="inlineStr"/>
       <c r="BC65" s="21" t="inlineStr"/>
       <c r="BD65" s="21" t="inlineStr"/>
-      <c r="BE65" s="22" t="inlineStr"/>
-      <c r="BF65" s="23" t="inlineStr"/>
-      <c r="BG65" s="23" t="inlineStr"/>
-      <c r="BH65" s="23" t="inlineStr"/>
-      <c r="BI65" s="23" t="inlineStr"/>
-      <c r="BJ65" s="23" t="inlineStr"/>
-      <c r="BK65" s="23" t="inlineStr"/>
-      <c r="BL65" s="23" t="inlineStr"/>
-      <c r="BM65" s="23" t="inlineStr"/>
-      <c r="BN65" s="23" t="inlineStr"/>
-      <c r="BO65" s="23" t="inlineStr"/>
-      <c r="BP65" s="23" t="inlineStr"/>
-      <c r="BQ65" s="23" t="inlineStr"/>
-      <c r="BR65" s="23" t="inlineStr"/>
-      <c r="BS65" s="23" t="inlineStr"/>
-      <c r="BT65" s="23" t="inlineStr"/>
-      <c r="BU65" s="23" t="inlineStr"/>
-      <c r="BV65" s="24" t="inlineStr"/>
-      <c r="BW65" s="29" t="inlineStr"/>
-      <c r="BX65" s="29" t="inlineStr"/>
-      <c r="BY65" s="29" t="inlineStr"/>
-      <c r="BZ65" s="29" t="inlineStr"/>
-      <c r="CA65" s="25" t="inlineStr"/>
+      <c r="BE65" s="23" t="inlineStr"/>
+      <c r="BF65" s="24" t="inlineStr"/>
+      <c r="BG65" s="32" t="inlineStr"/>
+      <c r="BH65" s="32" t="inlineStr"/>
+      <c r="BI65" s="32" t="inlineStr"/>
+      <c r="BJ65" s="32" t="inlineStr"/>
+      <c r="BK65" s="32" t="inlineStr"/>
+      <c r="BL65" s="32" t="inlineStr"/>
+      <c r="BM65" s="32" t="inlineStr"/>
+      <c r="BN65" s="32" t="inlineStr"/>
+      <c r="BO65" s="32" t="inlineStr"/>
+      <c r="BP65" s="32" t="inlineStr"/>
+      <c r="BQ65" s="32" t="inlineStr"/>
+      <c r="BR65" s="32" t="inlineStr"/>
+      <c r="BS65" s="32" t="inlineStr"/>
+      <c r="BT65" s="32" t="inlineStr"/>
+      <c r="BU65" s="32" t="inlineStr"/>
+      <c r="BV65" s="32" t="inlineStr"/>
+      <c r="BW65" s="25" t="inlineStr"/>
+      <c r="BX65" s="33" t="inlineStr"/>
+      <c r="BY65" s="33" t="inlineStr"/>
+      <c r="BZ65" s="33" t="inlineStr"/>
+      <c r="CA65" s="33" t="inlineStr"/>
       <c r="CB65" s="26" t="inlineStr"/>
+      <c r="CC65" s="27" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -6916,23 +6997,23 @@
       <c r="X66" s="20" t="inlineStr"/>
       <c r="Y66" s="21" t="inlineStr"/>
       <c r="Z66" s="21" t="inlineStr"/>
-      <c r="AA66" s="21" t="inlineStr"/>
-      <c r="AB66" s="21" t="inlineStr"/>
+      <c r="AA66" s="22" t="inlineStr"/>
+      <c r="AB66" s="22" t="inlineStr"/>
       <c r="AC66" s="21" t="inlineStr"/>
-      <c r="AD66" s="22" t="inlineStr"/>
-      <c r="AE66" s="23" t="inlineStr"/>
-      <c r="AF66" s="23" t="inlineStr"/>
-      <c r="AG66" s="23" t="inlineStr"/>
-      <c r="AH66" s="23" t="inlineStr"/>
-      <c r="AI66" s="24" t="inlineStr"/>
-      <c r="AJ66" s="25" t="inlineStr"/>
-      <c r="AK66" s="26" t="inlineStr"/>
-      <c r="AL66" s="27" t="inlineStr"/>
-      <c r="AM66" s="28" t="inlineStr"/>
-      <c r="AN66" s="16" t="inlineStr"/>
+      <c r="AD66" s="23" t="inlineStr"/>
+      <c r="AE66" s="24" t="inlineStr"/>
+      <c r="AF66" s="24" t="inlineStr"/>
+      <c r="AG66" s="24" t="inlineStr"/>
+      <c r="AH66" s="24" t="inlineStr"/>
+      <c r="AI66" s="25" t="inlineStr"/>
+      <c r="AJ66" s="26" t="inlineStr"/>
+      <c r="AK66" s="27" t="inlineStr"/>
+      <c r="AL66" s="28" t="inlineStr"/>
+      <c r="AM66" s="29" t="inlineStr"/>
+      <c r="AN66" s="30" t="inlineStr"/>
       <c r="AO66" s="17" t="inlineStr"/>
       <c r="AP66" s="17" t="inlineStr"/>
-      <c r="AQ66" s="17" t="inlineStr"/>
+      <c r="AQ66" s="31" t="inlineStr"/>
       <c r="AR66" s="18" t="inlineStr"/>
       <c r="AS66" s="19" t="inlineStr"/>
       <c r="AT66" s="19" t="inlineStr"/>
@@ -6946,30 +7027,31 @@
       <c r="BB66" s="20" t="inlineStr"/>
       <c r="BC66" s="21" t="inlineStr"/>
       <c r="BD66" s="21" t="inlineStr"/>
-      <c r="BE66" s="22" t="inlineStr"/>
-      <c r="BF66" s="23" t="inlineStr"/>
-      <c r="BG66" s="23" t="inlineStr"/>
-      <c r="BH66" s="23" t="inlineStr"/>
-      <c r="BI66" s="23" t="inlineStr"/>
-      <c r="BJ66" s="23" t="inlineStr"/>
-      <c r="BK66" s="23" t="inlineStr"/>
-      <c r="BL66" s="23" t="inlineStr"/>
-      <c r="BM66" s="23" t="inlineStr"/>
-      <c r="BN66" s="23" t="inlineStr"/>
-      <c r="BO66" s="23" t="inlineStr"/>
-      <c r="BP66" s="23" t="inlineStr"/>
-      <c r="BQ66" s="23" t="inlineStr"/>
-      <c r="BR66" s="23" t="inlineStr"/>
-      <c r="BS66" s="23" t="inlineStr"/>
-      <c r="BT66" s="23" t="inlineStr"/>
-      <c r="BU66" s="23" t="inlineStr"/>
-      <c r="BV66" s="24" t="inlineStr"/>
-      <c r="BW66" s="29" t="inlineStr"/>
-      <c r="BX66" s="29" t="inlineStr"/>
-      <c r="BY66" s="29" t="inlineStr"/>
-      <c r="BZ66" s="29" t="inlineStr"/>
-      <c r="CA66" s="25" t="inlineStr"/>
+      <c r="BE66" s="23" t="inlineStr"/>
+      <c r="BF66" s="24" t="inlineStr"/>
+      <c r="BG66" s="32" t="inlineStr"/>
+      <c r="BH66" s="32" t="inlineStr"/>
+      <c r="BI66" s="32" t="inlineStr"/>
+      <c r="BJ66" s="32" t="inlineStr"/>
+      <c r="BK66" s="32" t="inlineStr"/>
+      <c r="BL66" s="32" t="inlineStr"/>
+      <c r="BM66" s="32" t="inlineStr"/>
+      <c r="BN66" s="32" t="inlineStr"/>
+      <c r="BO66" s="32" t="inlineStr"/>
+      <c r="BP66" s="32" t="inlineStr"/>
+      <c r="BQ66" s="32" t="inlineStr"/>
+      <c r="BR66" s="32" t="inlineStr"/>
+      <c r="BS66" s="32" t="inlineStr"/>
+      <c r="BT66" s="32" t="inlineStr"/>
+      <c r="BU66" s="32" t="inlineStr"/>
+      <c r="BV66" s="32" t="inlineStr"/>
+      <c r="BW66" s="25" t="inlineStr"/>
+      <c r="BX66" s="33" t="inlineStr"/>
+      <c r="BY66" s="33" t="inlineStr"/>
+      <c r="BZ66" s="33" t="inlineStr"/>
+      <c r="CA66" s="33" t="inlineStr"/>
       <c r="CB66" s="26" t="inlineStr"/>
+      <c r="CC66" s="27" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -6998,23 +7080,23 @@
       <c r="X67" s="20" t="inlineStr"/>
       <c r="Y67" s="21" t="inlineStr"/>
       <c r="Z67" s="21" t="inlineStr"/>
-      <c r="AA67" s="21" t="inlineStr"/>
-      <c r="AB67" s="21" t="inlineStr"/>
+      <c r="AA67" s="22" t="inlineStr"/>
+      <c r="AB67" s="22" t="inlineStr"/>
       <c r="AC67" s="21" t="inlineStr"/>
-      <c r="AD67" s="22" t="inlineStr"/>
-      <c r="AE67" s="23" t="inlineStr"/>
-      <c r="AF67" s="23" t="inlineStr"/>
-      <c r="AG67" s="23" t="inlineStr"/>
-      <c r="AH67" s="23" t="inlineStr"/>
-      <c r="AI67" s="24" t="inlineStr"/>
-      <c r="AJ67" s="25" t="inlineStr"/>
-      <c r="AK67" s="26" t="inlineStr"/>
-      <c r="AL67" s="27" t="inlineStr"/>
-      <c r="AM67" s="28" t="inlineStr"/>
-      <c r="AN67" s="16" t="inlineStr"/>
+      <c r="AD67" s="23" t="inlineStr"/>
+      <c r="AE67" s="24" t="inlineStr"/>
+      <c r="AF67" s="24" t="inlineStr"/>
+      <c r="AG67" s="24" t="inlineStr"/>
+      <c r="AH67" s="24" t="inlineStr"/>
+      <c r="AI67" s="25" t="inlineStr"/>
+      <c r="AJ67" s="26" t="inlineStr"/>
+      <c r="AK67" s="27" t="inlineStr"/>
+      <c r="AL67" s="28" t="inlineStr"/>
+      <c r="AM67" s="29" t="inlineStr"/>
+      <c r="AN67" s="30" t="inlineStr"/>
       <c r="AO67" s="17" t="inlineStr"/>
       <c r="AP67" s="17" t="inlineStr"/>
-      <c r="AQ67" s="17" t="inlineStr"/>
+      <c r="AQ67" s="31" t="inlineStr"/>
       <c r="AR67" s="18" t="inlineStr"/>
       <c r="AS67" s="19" t="inlineStr"/>
       <c r="AT67" s="19" t="inlineStr"/>
@@ -7028,30 +7110,31 @@
       <c r="BB67" s="20" t="inlineStr"/>
       <c r="BC67" s="21" t="inlineStr"/>
       <c r="BD67" s="21" t="inlineStr"/>
-      <c r="BE67" s="22" t="inlineStr"/>
-      <c r="BF67" s="23" t="inlineStr"/>
-      <c r="BG67" s="23" t="inlineStr"/>
-      <c r="BH67" s="23" t="inlineStr"/>
-      <c r="BI67" s="23" t="inlineStr"/>
-      <c r="BJ67" s="23" t="inlineStr"/>
-      <c r="BK67" s="23" t="inlineStr"/>
-      <c r="BL67" s="23" t="inlineStr"/>
-      <c r="BM67" s="23" t="inlineStr"/>
-      <c r="BN67" s="23" t="inlineStr"/>
-      <c r="BO67" s="23" t="inlineStr"/>
-      <c r="BP67" s="23" t="inlineStr"/>
-      <c r="BQ67" s="23" t="inlineStr"/>
-      <c r="BR67" s="23" t="inlineStr"/>
-      <c r="BS67" s="23" t="inlineStr"/>
-      <c r="BT67" s="23" t="inlineStr"/>
-      <c r="BU67" s="23" t="inlineStr"/>
-      <c r="BV67" s="24" t="inlineStr"/>
-      <c r="BW67" s="29" t="inlineStr"/>
-      <c r="BX67" s="29" t="inlineStr"/>
-      <c r="BY67" s="29" t="inlineStr"/>
-      <c r="BZ67" s="29" t="inlineStr"/>
-      <c r="CA67" s="25" t="inlineStr"/>
+      <c r="BE67" s="23" t="inlineStr"/>
+      <c r="BF67" s="24" t="inlineStr"/>
+      <c r="BG67" s="32" t="inlineStr"/>
+      <c r="BH67" s="32" t="inlineStr"/>
+      <c r="BI67" s="32" t="inlineStr"/>
+      <c r="BJ67" s="32" t="inlineStr"/>
+      <c r="BK67" s="32" t="inlineStr"/>
+      <c r="BL67" s="32" t="inlineStr"/>
+      <c r="BM67" s="32" t="inlineStr"/>
+      <c r="BN67" s="32" t="inlineStr"/>
+      <c r="BO67" s="32" t="inlineStr"/>
+      <c r="BP67" s="32" t="inlineStr"/>
+      <c r="BQ67" s="32" t="inlineStr"/>
+      <c r="BR67" s="32" t="inlineStr"/>
+      <c r="BS67" s="32" t="inlineStr"/>
+      <c r="BT67" s="32" t="inlineStr"/>
+      <c r="BU67" s="32" t="inlineStr"/>
+      <c r="BV67" s="32" t="inlineStr"/>
+      <c r="BW67" s="25" t="inlineStr"/>
+      <c r="BX67" s="33" t="inlineStr"/>
+      <c r="BY67" s="33" t="inlineStr"/>
+      <c r="BZ67" s="33" t="inlineStr"/>
+      <c r="CA67" s="33" t="inlineStr"/>
       <c r="CB67" s="26" t="inlineStr"/>
+      <c r="CC67" s="27" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7080,23 +7163,23 @@
       <c r="X68" s="20" t="inlineStr"/>
       <c r="Y68" s="21" t="inlineStr"/>
       <c r="Z68" s="21" t="inlineStr"/>
-      <c r="AA68" s="21" t="inlineStr"/>
-      <c r="AB68" s="21" t="inlineStr"/>
+      <c r="AA68" s="22" t="inlineStr"/>
+      <c r="AB68" s="22" t="inlineStr"/>
       <c r="AC68" s="21" t="inlineStr"/>
-      <c r="AD68" s="22" t="inlineStr"/>
-      <c r="AE68" s="23" t="inlineStr"/>
-      <c r="AF68" s="23" t="inlineStr"/>
-      <c r="AG68" s="23" t="inlineStr"/>
-      <c r="AH68" s="23" t="inlineStr"/>
-      <c r="AI68" s="24" t="inlineStr"/>
-      <c r="AJ68" s="25" t="inlineStr"/>
-      <c r="AK68" s="26" t="inlineStr"/>
-      <c r="AL68" s="27" t="inlineStr"/>
-      <c r="AM68" s="28" t="inlineStr"/>
-      <c r="AN68" s="16" t="inlineStr"/>
+      <c r="AD68" s="23" t="inlineStr"/>
+      <c r="AE68" s="24" t="inlineStr"/>
+      <c r="AF68" s="24" t="inlineStr"/>
+      <c r="AG68" s="24" t="inlineStr"/>
+      <c r="AH68" s="24" t="inlineStr"/>
+      <c r="AI68" s="25" t="inlineStr"/>
+      <c r="AJ68" s="26" t="inlineStr"/>
+      <c r="AK68" s="27" t="inlineStr"/>
+      <c r="AL68" s="28" t="inlineStr"/>
+      <c r="AM68" s="29" t="inlineStr"/>
+      <c r="AN68" s="30" t="inlineStr"/>
       <c r="AO68" s="17" t="inlineStr"/>
       <c r="AP68" s="17" t="inlineStr"/>
-      <c r="AQ68" s="17" t="inlineStr"/>
+      <c r="AQ68" s="31" t="inlineStr"/>
       <c r="AR68" s="18" t="inlineStr"/>
       <c r="AS68" s="19" t="inlineStr"/>
       <c r="AT68" s="19" t="inlineStr"/>
@@ -7110,30 +7193,31 @@
       <c r="BB68" s="20" t="inlineStr"/>
       <c r="BC68" s="21" t="inlineStr"/>
       <c r="BD68" s="21" t="inlineStr"/>
-      <c r="BE68" s="22" t="inlineStr"/>
-      <c r="BF68" s="23" t="inlineStr"/>
-      <c r="BG68" s="23" t="inlineStr"/>
-      <c r="BH68" s="23" t="inlineStr"/>
-      <c r="BI68" s="23" t="inlineStr"/>
-      <c r="BJ68" s="23" t="inlineStr"/>
-      <c r="BK68" s="23" t="inlineStr"/>
-      <c r="BL68" s="23" t="inlineStr"/>
-      <c r="BM68" s="23" t="inlineStr"/>
-      <c r="BN68" s="23" t="inlineStr"/>
-      <c r="BO68" s="23" t="inlineStr"/>
-      <c r="BP68" s="23" t="inlineStr"/>
-      <c r="BQ68" s="23" t="inlineStr"/>
-      <c r="BR68" s="23" t="inlineStr"/>
-      <c r="BS68" s="23" t="inlineStr"/>
-      <c r="BT68" s="23" t="inlineStr"/>
-      <c r="BU68" s="23" t="inlineStr"/>
-      <c r="BV68" s="24" t="inlineStr"/>
-      <c r="BW68" s="29" t="inlineStr"/>
-      <c r="BX68" s="29" t="inlineStr"/>
-      <c r="BY68" s="29" t="inlineStr"/>
-      <c r="BZ68" s="29" t="inlineStr"/>
-      <c r="CA68" s="25" t="inlineStr"/>
+      <c r="BE68" s="23" t="inlineStr"/>
+      <c r="BF68" s="24" t="inlineStr"/>
+      <c r="BG68" s="32" t="inlineStr"/>
+      <c r="BH68" s="32" t="inlineStr"/>
+      <c r="BI68" s="32" t="inlineStr"/>
+      <c r="BJ68" s="32" t="inlineStr"/>
+      <c r="BK68" s="32" t="inlineStr"/>
+      <c r="BL68" s="32" t="inlineStr"/>
+      <c r="BM68" s="32" t="inlineStr"/>
+      <c r="BN68" s="32" t="inlineStr"/>
+      <c r="BO68" s="32" t="inlineStr"/>
+      <c r="BP68" s="32" t="inlineStr"/>
+      <c r="BQ68" s="32" t="inlineStr"/>
+      <c r="BR68" s="32" t="inlineStr"/>
+      <c r="BS68" s="32" t="inlineStr"/>
+      <c r="BT68" s="32" t="inlineStr"/>
+      <c r="BU68" s="32" t="inlineStr"/>
+      <c r="BV68" s="32" t="inlineStr"/>
+      <c r="BW68" s="25" t="inlineStr"/>
+      <c r="BX68" s="33" t="inlineStr"/>
+      <c r="BY68" s="33" t="inlineStr"/>
+      <c r="BZ68" s="33" t="inlineStr"/>
+      <c r="CA68" s="33" t="inlineStr"/>
       <c r="CB68" s="26" t="inlineStr"/>
+      <c r="CC68" s="27" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7162,23 +7246,23 @@
       <c r="X69" s="20" t="inlineStr"/>
       <c r="Y69" s="21" t="inlineStr"/>
       <c r="Z69" s="21" t="inlineStr"/>
-      <c r="AA69" s="21" t="inlineStr"/>
-      <c r="AB69" s="21" t="inlineStr"/>
+      <c r="AA69" s="22" t="inlineStr"/>
+      <c r="AB69" s="22" t="inlineStr"/>
       <c r="AC69" s="21" t="inlineStr"/>
-      <c r="AD69" s="22" t="inlineStr"/>
-      <c r="AE69" s="23" t="inlineStr"/>
-      <c r="AF69" s="23" t="inlineStr"/>
-      <c r="AG69" s="23" t="inlineStr"/>
-      <c r="AH69" s="23" t="inlineStr"/>
-      <c r="AI69" s="24" t="inlineStr"/>
-      <c r="AJ69" s="25" t="inlineStr"/>
-      <c r="AK69" s="26" t="inlineStr"/>
-      <c r="AL69" s="27" t="inlineStr"/>
-      <c r="AM69" s="28" t="inlineStr"/>
-      <c r="AN69" s="16" t="inlineStr"/>
+      <c r="AD69" s="23" t="inlineStr"/>
+      <c r="AE69" s="24" t="inlineStr"/>
+      <c r="AF69" s="24" t="inlineStr"/>
+      <c r="AG69" s="24" t="inlineStr"/>
+      <c r="AH69" s="24" t="inlineStr"/>
+      <c r="AI69" s="25" t="inlineStr"/>
+      <c r="AJ69" s="26" t="inlineStr"/>
+      <c r="AK69" s="27" t="inlineStr"/>
+      <c r="AL69" s="28" t="inlineStr"/>
+      <c r="AM69" s="29" t="inlineStr"/>
+      <c r="AN69" s="30" t="inlineStr"/>
       <c r="AO69" s="17" t="inlineStr"/>
       <c r="AP69" s="17" t="inlineStr"/>
-      <c r="AQ69" s="17" t="inlineStr"/>
+      <c r="AQ69" s="31" t="inlineStr"/>
       <c r="AR69" s="18" t="inlineStr"/>
       <c r="AS69" s="19" t="inlineStr"/>
       <c r="AT69" s="19" t="inlineStr"/>
@@ -7192,30 +7276,31 @@
       <c r="BB69" s="20" t="inlineStr"/>
       <c r="BC69" s="21" t="inlineStr"/>
       <c r="BD69" s="21" t="inlineStr"/>
-      <c r="BE69" s="22" t="inlineStr"/>
-      <c r="BF69" s="23" t="inlineStr"/>
-      <c r="BG69" s="23" t="inlineStr"/>
-      <c r="BH69" s="23" t="inlineStr"/>
-      <c r="BI69" s="23" t="inlineStr"/>
-      <c r="BJ69" s="23" t="inlineStr"/>
-      <c r="BK69" s="23" t="inlineStr"/>
-      <c r="BL69" s="23" t="inlineStr"/>
-      <c r="BM69" s="23" t="inlineStr"/>
-      <c r="BN69" s="23" t="inlineStr"/>
-      <c r="BO69" s="23" t="inlineStr"/>
-      <c r="BP69" s="23" t="inlineStr"/>
-      <c r="BQ69" s="23" t="inlineStr"/>
-      <c r="BR69" s="23" t="inlineStr"/>
-      <c r="BS69" s="23" t="inlineStr"/>
-      <c r="BT69" s="23" t="inlineStr"/>
-      <c r="BU69" s="23" t="inlineStr"/>
-      <c r="BV69" s="24" t="inlineStr"/>
-      <c r="BW69" s="29" t="inlineStr"/>
-      <c r="BX69" s="29" t="inlineStr"/>
-      <c r="BY69" s="29" t="inlineStr"/>
-      <c r="BZ69" s="29" t="inlineStr"/>
-      <c r="CA69" s="25" t="inlineStr"/>
+      <c r="BE69" s="23" t="inlineStr"/>
+      <c r="BF69" s="24" t="inlineStr"/>
+      <c r="BG69" s="32" t="inlineStr"/>
+      <c r="BH69" s="32" t="inlineStr"/>
+      <c r="BI69" s="32" t="inlineStr"/>
+      <c r="BJ69" s="32" t="inlineStr"/>
+      <c r="BK69" s="32" t="inlineStr"/>
+      <c r="BL69" s="32" t="inlineStr"/>
+      <c r="BM69" s="32" t="inlineStr"/>
+      <c r="BN69" s="32" t="inlineStr"/>
+      <c r="BO69" s="32" t="inlineStr"/>
+      <c r="BP69" s="32" t="inlineStr"/>
+      <c r="BQ69" s="32" t="inlineStr"/>
+      <c r="BR69" s="32" t="inlineStr"/>
+      <c r="BS69" s="32" t="inlineStr"/>
+      <c r="BT69" s="32" t="inlineStr"/>
+      <c r="BU69" s="32" t="inlineStr"/>
+      <c r="BV69" s="32" t="inlineStr"/>
+      <c r="BW69" s="25" t="inlineStr"/>
+      <c r="BX69" s="33" t="inlineStr"/>
+      <c r="BY69" s="33" t="inlineStr"/>
+      <c r="BZ69" s="33" t="inlineStr"/>
+      <c r="CA69" s="33" t="inlineStr"/>
       <c r="CB69" s="26" t="inlineStr"/>
+      <c r="CC69" s="27" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7244,23 +7329,23 @@
       <c r="X70" s="20" t="inlineStr"/>
       <c r="Y70" s="21" t="inlineStr"/>
       <c r="Z70" s="21" t="inlineStr"/>
-      <c r="AA70" s="21" t="inlineStr"/>
-      <c r="AB70" s="21" t="inlineStr"/>
+      <c r="AA70" s="22" t="inlineStr"/>
+      <c r="AB70" s="22" t="inlineStr"/>
       <c r="AC70" s="21" t="inlineStr"/>
-      <c r="AD70" s="22" t="inlineStr"/>
-      <c r="AE70" s="23" t="inlineStr"/>
-      <c r="AF70" s="23" t="inlineStr"/>
-      <c r="AG70" s="23" t="inlineStr"/>
-      <c r="AH70" s="23" t="inlineStr"/>
-      <c r="AI70" s="24" t="inlineStr"/>
-      <c r="AJ70" s="25" t="inlineStr"/>
-      <c r="AK70" s="26" t="inlineStr"/>
-      <c r="AL70" s="27" t="inlineStr"/>
-      <c r="AM70" s="28" t="inlineStr"/>
-      <c r="AN70" s="16" t="inlineStr"/>
+      <c r="AD70" s="23" t="inlineStr"/>
+      <c r="AE70" s="24" t="inlineStr"/>
+      <c r="AF70" s="24" t="inlineStr"/>
+      <c r="AG70" s="24" t="inlineStr"/>
+      <c r="AH70" s="24" t="inlineStr"/>
+      <c r="AI70" s="25" t="inlineStr"/>
+      <c r="AJ70" s="26" t="inlineStr"/>
+      <c r="AK70" s="27" t="inlineStr"/>
+      <c r="AL70" s="28" t="inlineStr"/>
+      <c r="AM70" s="29" t="inlineStr"/>
+      <c r="AN70" s="30" t="inlineStr"/>
       <c r="AO70" s="17" t="inlineStr"/>
       <c r="AP70" s="17" t="inlineStr"/>
-      <c r="AQ70" s="17" t="inlineStr"/>
+      <c r="AQ70" s="31" t="inlineStr"/>
       <c r="AR70" s="18" t="inlineStr"/>
       <c r="AS70" s="19" t="inlineStr"/>
       <c r="AT70" s="19" t="inlineStr"/>
@@ -7274,30 +7359,31 @@
       <c r="BB70" s="20" t="inlineStr"/>
       <c r="BC70" s="21" t="inlineStr"/>
       <c r="BD70" s="21" t="inlineStr"/>
-      <c r="BE70" s="22" t="inlineStr"/>
-      <c r="BF70" s="23" t="inlineStr"/>
-      <c r="BG70" s="23" t="inlineStr"/>
-      <c r="BH70" s="23" t="inlineStr"/>
-      <c r="BI70" s="23" t="inlineStr"/>
-      <c r="BJ70" s="23" t="inlineStr"/>
-      <c r="BK70" s="23" t="inlineStr"/>
-      <c r="BL70" s="23" t="inlineStr"/>
-      <c r="BM70" s="23" t="inlineStr"/>
-      <c r="BN70" s="23" t="inlineStr"/>
-      <c r="BO70" s="23" t="inlineStr"/>
-      <c r="BP70" s="23" t="inlineStr"/>
-      <c r="BQ70" s="23" t="inlineStr"/>
-      <c r="BR70" s="23" t="inlineStr"/>
-      <c r="BS70" s="23" t="inlineStr"/>
-      <c r="BT70" s="23" t="inlineStr"/>
-      <c r="BU70" s="23" t="inlineStr"/>
-      <c r="BV70" s="24" t="inlineStr"/>
-      <c r="BW70" s="29" t="inlineStr"/>
-      <c r="BX70" s="29" t="inlineStr"/>
-      <c r="BY70" s="29" t="inlineStr"/>
-      <c r="BZ70" s="29" t="inlineStr"/>
-      <c r="CA70" s="25" t="inlineStr"/>
+      <c r="BE70" s="23" t="inlineStr"/>
+      <c r="BF70" s="24" t="inlineStr"/>
+      <c r="BG70" s="32" t="inlineStr"/>
+      <c r="BH70" s="32" t="inlineStr"/>
+      <c r="BI70" s="32" t="inlineStr"/>
+      <c r="BJ70" s="32" t="inlineStr"/>
+      <c r="BK70" s="32" t="inlineStr"/>
+      <c r="BL70" s="32" t="inlineStr"/>
+      <c r="BM70" s="32" t="inlineStr"/>
+      <c r="BN70" s="32" t="inlineStr"/>
+      <c r="BO70" s="32" t="inlineStr"/>
+      <c r="BP70" s="32" t="inlineStr"/>
+      <c r="BQ70" s="32" t="inlineStr"/>
+      <c r="BR70" s="32" t="inlineStr"/>
+      <c r="BS70" s="32" t="inlineStr"/>
+      <c r="BT70" s="32" t="inlineStr"/>
+      <c r="BU70" s="32" t="inlineStr"/>
+      <c r="BV70" s="32" t="inlineStr"/>
+      <c r="BW70" s="25" t="inlineStr"/>
+      <c r="BX70" s="33" t="inlineStr"/>
+      <c r="BY70" s="33" t="inlineStr"/>
+      <c r="BZ70" s="33" t="inlineStr"/>
+      <c r="CA70" s="33" t="inlineStr"/>
       <c r="CB70" s="26" t="inlineStr"/>
+      <c r="CC70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7326,23 +7412,23 @@
       <c r="X71" s="20" t="inlineStr"/>
       <c r="Y71" s="21" t="inlineStr"/>
       <c r="Z71" s="21" t="inlineStr"/>
-      <c r="AA71" s="21" t="inlineStr"/>
-      <c r="AB71" s="21" t="inlineStr"/>
+      <c r="AA71" s="22" t="inlineStr"/>
+      <c r="AB71" s="22" t="inlineStr"/>
       <c r="AC71" s="21" t="inlineStr"/>
-      <c r="AD71" s="22" t="inlineStr"/>
-      <c r="AE71" s="23" t="inlineStr"/>
-      <c r="AF71" s="23" t="inlineStr"/>
-      <c r="AG71" s="23" t="inlineStr"/>
-      <c r="AH71" s="23" t="inlineStr"/>
-      <c r="AI71" s="24" t="inlineStr"/>
-      <c r="AJ71" s="25" t="inlineStr"/>
-      <c r="AK71" s="26" t="inlineStr"/>
-      <c r="AL71" s="27" t="inlineStr"/>
-      <c r="AM71" s="28" t="inlineStr"/>
-      <c r="AN71" s="16" t="inlineStr"/>
+      <c r="AD71" s="23" t="inlineStr"/>
+      <c r="AE71" s="24" t="inlineStr"/>
+      <c r="AF71" s="24" t="inlineStr"/>
+      <c r="AG71" s="24" t="inlineStr"/>
+      <c r="AH71" s="24" t="inlineStr"/>
+      <c r="AI71" s="25" t="inlineStr"/>
+      <c r="AJ71" s="26" t="inlineStr"/>
+      <c r="AK71" s="27" t="inlineStr"/>
+      <c r="AL71" s="28" t="inlineStr"/>
+      <c r="AM71" s="29" t="inlineStr"/>
+      <c r="AN71" s="30" t="inlineStr"/>
       <c r="AO71" s="17" t="inlineStr"/>
       <c r="AP71" s="17" t="inlineStr"/>
-      <c r="AQ71" s="17" t="inlineStr"/>
+      <c r="AQ71" s="31" t="inlineStr"/>
       <c r="AR71" s="18" t="inlineStr"/>
       <c r="AS71" s="19" t="inlineStr"/>
       <c r="AT71" s="19" t="inlineStr"/>
@@ -7356,30 +7442,31 @@
       <c r="BB71" s="20" t="inlineStr"/>
       <c r="BC71" s="21" t="inlineStr"/>
       <c r="BD71" s="21" t="inlineStr"/>
-      <c r="BE71" s="22" t="inlineStr"/>
-      <c r="BF71" s="23" t="inlineStr"/>
-      <c r="BG71" s="23" t="inlineStr"/>
-      <c r="BH71" s="23" t="inlineStr"/>
-      <c r="BI71" s="23" t="inlineStr"/>
-      <c r="BJ71" s="23" t="inlineStr"/>
-      <c r="BK71" s="23" t="inlineStr"/>
-      <c r="BL71" s="23" t="inlineStr"/>
-      <c r="BM71" s="23" t="inlineStr"/>
-      <c r="BN71" s="23" t="inlineStr"/>
-      <c r="BO71" s="23" t="inlineStr"/>
-      <c r="BP71" s="23" t="inlineStr"/>
-      <c r="BQ71" s="23" t="inlineStr"/>
-      <c r="BR71" s="23" t="inlineStr"/>
-      <c r="BS71" s="23" t="inlineStr"/>
-      <c r="BT71" s="23" t="inlineStr"/>
-      <c r="BU71" s="23" t="inlineStr"/>
-      <c r="BV71" s="24" t="inlineStr"/>
-      <c r="BW71" s="29" t="inlineStr"/>
-      <c r="BX71" s="29" t="inlineStr"/>
-      <c r="BY71" s="29" t="inlineStr"/>
-      <c r="BZ71" s="29" t="inlineStr"/>
-      <c r="CA71" s="25" t="inlineStr"/>
+      <c r="BE71" s="23" t="inlineStr"/>
+      <c r="BF71" s="24" t="inlineStr"/>
+      <c r="BG71" s="32" t="inlineStr"/>
+      <c r="BH71" s="32" t="inlineStr"/>
+      <c r="BI71" s="32" t="inlineStr"/>
+      <c r="BJ71" s="32" t="inlineStr"/>
+      <c r="BK71" s="32" t="inlineStr"/>
+      <c r="BL71" s="32" t="inlineStr"/>
+      <c r="BM71" s="32" t="inlineStr"/>
+      <c r="BN71" s="32" t="inlineStr"/>
+      <c r="BO71" s="32" t="inlineStr"/>
+      <c r="BP71" s="32" t="inlineStr"/>
+      <c r="BQ71" s="32" t="inlineStr"/>
+      <c r="BR71" s="32" t="inlineStr"/>
+      <c r="BS71" s="32" t="inlineStr"/>
+      <c r="BT71" s="32" t="inlineStr"/>
+      <c r="BU71" s="32" t="inlineStr"/>
+      <c r="BV71" s="32" t="inlineStr"/>
+      <c r="BW71" s="25" t="inlineStr"/>
+      <c r="BX71" s="33" t="inlineStr"/>
+      <c r="BY71" s="33" t="inlineStr"/>
+      <c r="BZ71" s="33" t="inlineStr"/>
+      <c r="CA71" s="33" t="inlineStr"/>
       <c r="CB71" s="26" t="inlineStr"/>
+      <c r="CC71" s="27" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7408,23 +7495,23 @@
       <c r="X72" s="20" t="inlineStr"/>
       <c r="Y72" s="21" t="inlineStr"/>
       <c r="Z72" s="21" t="inlineStr"/>
-      <c r="AA72" s="21" t="inlineStr"/>
-      <c r="AB72" s="21" t="inlineStr"/>
+      <c r="AA72" s="22" t="inlineStr"/>
+      <c r="AB72" s="22" t="inlineStr"/>
       <c r="AC72" s="21" t="inlineStr"/>
-      <c r="AD72" s="22" t="inlineStr"/>
-      <c r="AE72" s="23" t="inlineStr"/>
-      <c r="AF72" s="23" t="inlineStr"/>
-      <c r="AG72" s="23" t="inlineStr"/>
-      <c r="AH72" s="23" t="inlineStr"/>
-      <c r="AI72" s="24" t="inlineStr"/>
-      <c r="AJ72" s="25" t="inlineStr"/>
-      <c r="AK72" s="26" t="inlineStr"/>
-      <c r="AL72" s="27" t="inlineStr"/>
-      <c r="AM72" s="28" t="inlineStr"/>
-      <c r="AN72" s="16" t="inlineStr"/>
+      <c r="AD72" s="23" t="inlineStr"/>
+      <c r="AE72" s="24" t="inlineStr"/>
+      <c r="AF72" s="24" t="inlineStr"/>
+      <c r="AG72" s="24" t="inlineStr"/>
+      <c r="AH72" s="24" t="inlineStr"/>
+      <c r="AI72" s="25" t="inlineStr"/>
+      <c r="AJ72" s="26" t="inlineStr"/>
+      <c r="AK72" s="27" t="inlineStr"/>
+      <c r="AL72" s="28" t="inlineStr"/>
+      <c r="AM72" s="29" t="inlineStr"/>
+      <c r="AN72" s="30" t="inlineStr"/>
       <c r="AO72" s="17" t="inlineStr"/>
       <c r="AP72" s="17" t="inlineStr"/>
-      <c r="AQ72" s="17" t="inlineStr"/>
+      <c r="AQ72" s="31" t="inlineStr"/>
       <c r="AR72" s="18" t="inlineStr"/>
       <c r="AS72" s="19" t="inlineStr"/>
       <c r="AT72" s="19" t="inlineStr"/>
@@ -7438,30 +7525,31 @@
       <c r="BB72" s="20" t="inlineStr"/>
       <c r="BC72" s="21" t="inlineStr"/>
       <c r="BD72" s="21" t="inlineStr"/>
-      <c r="BE72" s="22" t="inlineStr"/>
-      <c r="BF72" s="23" t="inlineStr"/>
-      <c r="BG72" s="23" t="inlineStr"/>
-      <c r="BH72" s="23" t="inlineStr"/>
-      <c r="BI72" s="23" t="inlineStr"/>
-      <c r="BJ72" s="23" t="inlineStr"/>
-      <c r="BK72" s="23" t="inlineStr"/>
-      <c r="BL72" s="23" t="inlineStr"/>
-      <c r="BM72" s="23" t="inlineStr"/>
-      <c r="BN72" s="23" t="inlineStr"/>
-      <c r="BO72" s="23" t="inlineStr"/>
-      <c r="BP72" s="23" t="inlineStr"/>
-      <c r="BQ72" s="23" t="inlineStr"/>
-      <c r="BR72" s="23" t="inlineStr"/>
-      <c r="BS72" s="23" t="inlineStr"/>
-      <c r="BT72" s="23" t="inlineStr"/>
-      <c r="BU72" s="23" t="inlineStr"/>
-      <c r="BV72" s="24" t="inlineStr"/>
-      <c r="BW72" s="29" t="inlineStr"/>
-      <c r="BX72" s="29" t="inlineStr"/>
-      <c r="BY72" s="29" t="inlineStr"/>
-      <c r="BZ72" s="29" t="inlineStr"/>
-      <c r="CA72" s="25" t="inlineStr"/>
+      <c r="BE72" s="23" t="inlineStr"/>
+      <c r="BF72" s="24" t="inlineStr"/>
+      <c r="BG72" s="32" t="inlineStr"/>
+      <c r="BH72" s="32" t="inlineStr"/>
+      <c r="BI72" s="32" t="inlineStr"/>
+      <c r="BJ72" s="32" t="inlineStr"/>
+      <c r="BK72" s="32" t="inlineStr"/>
+      <c r="BL72" s="32" t="inlineStr"/>
+      <c r="BM72" s="32" t="inlineStr"/>
+      <c r="BN72" s="32" t="inlineStr"/>
+      <c r="BO72" s="32" t="inlineStr"/>
+      <c r="BP72" s="32" t="inlineStr"/>
+      <c r="BQ72" s="32" t="inlineStr"/>
+      <c r="BR72" s="32" t="inlineStr"/>
+      <c r="BS72" s="32" t="inlineStr"/>
+      <c r="BT72" s="32" t="inlineStr"/>
+      <c r="BU72" s="32" t="inlineStr"/>
+      <c r="BV72" s="32" t="inlineStr"/>
+      <c r="BW72" s="25" t="inlineStr"/>
+      <c r="BX72" s="33" t="inlineStr"/>
+      <c r="BY72" s="33" t="inlineStr"/>
+      <c r="BZ72" s="33" t="inlineStr"/>
+      <c r="CA72" s="33" t="inlineStr"/>
       <c r="CB72" s="26" t="inlineStr"/>
+      <c r="CC72" s="27" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7490,23 +7578,23 @@
       <c r="X73" s="20" t="inlineStr"/>
       <c r="Y73" s="21" t="inlineStr"/>
       <c r="Z73" s="21" t="inlineStr"/>
-      <c r="AA73" s="21" t="inlineStr"/>
-      <c r="AB73" s="21" t="inlineStr"/>
+      <c r="AA73" s="22" t="inlineStr"/>
+      <c r="AB73" s="22" t="inlineStr"/>
       <c r="AC73" s="21" t="inlineStr"/>
-      <c r="AD73" s="22" t="inlineStr"/>
-      <c r="AE73" s="23" t="inlineStr"/>
-      <c r="AF73" s="23" t="inlineStr"/>
-      <c r="AG73" s="23" t="inlineStr"/>
-      <c r="AH73" s="23" t="inlineStr"/>
-      <c r="AI73" s="24" t="inlineStr"/>
-      <c r="AJ73" s="25" t="inlineStr"/>
-      <c r="AK73" s="26" t="inlineStr"/>
-      <c r="AL73" s="27" t="inlineStr"/>
-      <c r="AM73" s="28" t="inlineStr"/>
-      <c r="AN73" s="16" t="inlineStr"/>
+      <c r="AD73" s="23" t="inlineStr"/>
+      <c r="AE73" s="24" t="inlineStr"/>
+      <c r="AF73" s="24" t="inlineStr"/>
+      <c r="AG73" s="24" t="inlineStr"/>
+      <c r="AH73" s="24" t="inlineStr"/>
+      <c r="AI73" s="25" t="inlineStr"/>
+      <c r="AJ73" s="26" t="inlineStr"/>
+      <c r="AK73" s="27" t="inlineStr"/>
+      <c r="AL73" s="28" t="inlineStr"/>
+      <c r="AM73" s="29" t="inlineStr"/>
+      <c r="AN73" s="30" t="inlineStr"/>
       <c r="AO73" s="17" t="inlineStr"/>
       <c r="AP73" s="17" t="inlineStr"/>
-      <c r="AQ73" s="17" t="inlineStr"/>
+      <c r="AQ73" s="31" t="inlineStr"/>
       <c r="AR73" s="18" t="inlineStr"/>
       <c r="AS73" s="19" t="inlineStr"/>
       <c r="AT73" s="19" t="inlineStr"/>
@@ -7520,30 +7608,31 @@
       <c r="BB73" s="20" t="inlineStr"/>
       <c r="BC73" s="21" t="inlineStr"/>
       <c r="BD73" s="21" t="inlineStr"/>
-      <c r="BE73" s="22" t="inlineStr"/>
-      <c r="BF73" s="23" t="inlineStr"/>
-      <c r="BG73" s="23" t="inlineStr"/>
-      <c r="BH73" s="23" t="inlineStr"/>
-      <c r="BI73" s="23" t="inlineStr"/>
-      <c r="BJ73" s="23" t="inlineStr"/>
-      <c r="BK73" s="23" t="inlineStr"/>
-      <c r="BL73" s="23" t="inlineStr"/>
-      <c r="BM73" s="23" t="inlineStr"/>
-      <c r="BN73" s="23" t="inlineStr"/>
-      <c r="BO73" s="23" t="inlineStr"/>
-      <c r="BP73" s="23" t="inlineStr"/>
-      <c r="BQ73" s="23" t="inlineStr"/>
-      <c r="BR73" s="23" t="inlineStr"/>
-      <c r="BS73" s="23" t="inlineStr"/>
-      <c r="BT73" s="23" t="inlineStr"/>
-      <c r="BU73" s="23" t="inlineStr"/>
-      <c r="BV73" s="24" t="inlineStr"/>
-      <c r="BW73" s="29" t="inlineStr"/>
-      <c r="BX73" s="29" t="inlineStr"/>
-      <c r="BY73" s="29" t="inlineStr"/>
-      <c r="BZ73" s="29" t="inlineStr"/>
-      <c r="CA73" s="25" t="inlineStr"/>
+      <c r="BE73" s="23" t="inlineStr"/>
+      <c r="BF73" s="24" t="inlineStr"/>
+      <c r="BG73" s="32" t="inlineStr"/>
+      <c r="BH73" s="32" t="inlineStr"/>
+      <c r="BI73" s="32" t="inlineStr"/>
+      <c r="BJ73" s="32" t="inlineStr"/>
+      <c r="BK73" s="32" t="inlineStr"/>
+      <c r="BL73" s="32" t="inlineStr"/>
+      <c r="BM73" s="32" t="inlineStr"/>
+      <c r="BN73" s="32" t="inlineStr"/>
+      <c r="BO73" s="32" t="inlineStr"/>
+      <c r="BP73" s="32" t="inlineStr"/>
+      <c r="BQ73" s="32" t="inlineStr"/>
+      <c r="BR73" s="32" t="inlineStr"/>
+      <c r="BS73" s="32" t="inlineStr"/>
+      <c r="BT73" s="32" t="inlineStr"/>
+      <c r="BU73" s="32" t="inlineStr"/>
+      <c r="BV73" s="32" t="inlineStr"/>
+      <c r="BW73" s="25" t="inlineStr"/>
+      <c r="BX73" s="33" t="inlineStr"/>
+      <c r="BY73" s="33" t="inlineStr"/>
+      <c r="BZ73" s="33" t="inlineStr"/>
+      <c r="CA73" s="33" t="inlineStr"/>
       <c r="CB73" s="26" t="inlineStr"/>
+      <c r="CC73" s="27" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7572,23 +7661,23 @@
       <c r="X74" s="20" t="inlineStr"/>
       <c r="Y74" s="21" t="inlineStr"/>
       <c r="Z74" s="21" t="inlineStr"/>
-      <c r="AA74" s="21" t="inlineStr"/>
-      <c r="AB74" s="21" t="inlineStr"/>
+      <c r="AA74" s="22" t="inlineStr"/>
+      <c r="AB74" s="22" t="inlineStr"/>
       <c r="AC74" s="21" t="inlineStr"/>
-      <c r="AD74" s="22" t="inlineStr"/>
-      <c r="AE74" s="23" t="inlineStr"/>
-      <c r="AF74" s="23" t="inlineStr"/>
-      <c r="AG74" s="23" t="inlineStr"/>
-      <c r="AH74" s="23" t="inlineStr"/>
-      <c r="AI74" s="24" t="inlineStr"/>
-      <c r="AJ74" s="25" t="inlineStr"/>
-      <c r="AK74" s="26" t="inlineStr"/>
-      <c r="AL74" s="27" t="inlineStr"/>
-      <c r="AM74" s="28" t="inlineStr"/>
-      <c r="AN74" s="16" t="inlineStr"/>
+      <c r="AD74" s="23" t="inlineStr"/>
+      <c r="AE74" s="24" t="inlineStr"/>
+      <c r="AF74" s="24" t="inlineStr"/>
+      <c r="AG74" s="24" t="inlineStr"/>
+      <c r="AH74" s="24" t="inlineStr"/>
+      <c r="AI74" s="25" t="inlineStr"/>
+      <c r="AJ74" s="26" t="inlineStr"/>
+      <c r="AK74" s="27" t="inlineStr"/>
+      <c r="AL74" s="28" t="inlineStr"/>
+      <c r="AM74" s="29" t="inlineStr"/>
+      <c r="AN74" s="30" t="inlineStr"/>
       <c r="AO74" s="17" t="inlineStr"/>
       <c r="AP74" s="17" t="inlineStr"/>
-      <c r="AQ74" s="17" t="inlineStr"/>
+      <c r="AQ74" s="31" t="inlineStr"/>
       <c r="AR74" s="18" t="inlineStr"/>
       <c r="AS74" s="19" t="inlineStr"/>
       <c r="AT74" s="19" t="inlineStr"/>
@@ -7602,30 +7691,31 @@
       <c r="BB74" s="20" t="inlineStr"/>
       <c r="BC74" s="21" t="inlineStr"/>
       <c r="BD74" s="21" t="inlineStr"/>
-      <c r="BE74" s="22" t="inlineStr"/>
-      <c r="BF74" s="23" t="inlineStr"/>
-      <c r="BG74" s="23" t="inlineStr"/>
-      <c r="BH74" s="23" t="inlineStr"/>
-      <c r="BI74" s="23" t="inlineStr"/>
-      <c r="BJ74" s="23" t="inlineStr"/>
-      <c r="BK74" s="23" t="inlineStr"/>
-      <c r="BL74" s="23" t="inlineStr"/>
-      <c r="BM74" s="23" t="inlineStr"/>
-      <c r="BN74" s="23" t="inlineStr"/>
-      <c r="BO74" s="23" t="inlineStr"/>
-      <c r="BP74" s="23" t="inlineStr"/>
-      <c r="BQ74" s="23" t="inlineStr"/>
-      <c r="BR74" s="23" t="inlineStr"/>
-      <c r="BS74" s="23" t="inlineStr"/>
-      <c r="BT74" s="23" t="inlineStr"/>
-      <c r="BU74" s="23" t="inlineStr"/>
-      <c r="BV74" s="24" t="inlineStr"/>
-      <c r="BW74" s="29" t="inlineStr"/>
-      <c r="BX74" s="29" t="inlineStr"/>
-      <c r="BY74" s="29" t="inlineStr"/>
-      <c r="BZ74" s="29" t="inlineStr"/>
-      <c r="CA74" s="25" t="inlineStr"/>
+      <c r="BE74" s="23" t="inlineStr"/>
+      <c r="BF74" s="24" t="inlineStr"/>
+      <c r="BG74" s="32" t="inlineStr"/>
+      <c r="BH74" s="32" t="inlineStr"/>
+      <c r="BI74" s="32" t="inlineStr"/>
+      <c r="BJ74" s="32" t="inlineStr"/>
+      <c r="BK74" s="32" t="inlineStr"/>
+      <c r="BL74" s="32" t="inlineStr"/>
+      <c r="BM74" s="32" t="inlineStr"/>
+      <c r="BN74" s="32" t="inlineStr"/>
+      <c r="BO74" s="32" t="inlineStr"/>
+      <c r="BP74" s="32" t="inlineStr"/>
+      <c r="BQ74" s="32" t="inlineStr"/>
+      <c r="BR74" s="32" t="inlineStr"/>
+      <c r="BS74" s="32" t="inlineStr"/>
+      <c r="BT74" s="32" t="inlineStr"/>
+      <c r="BU74" s="32" t="inlineStr"/>
+      <c r="BV74" s="32" t="inlineStr"/>
+      <c r="BW74" s="25" t="inlineStr"/>
+      <c r="BX74" s="33" t="inlineStr"/>
+      <c r="BY74" s="33" t="inlineStr"/>
+      <c r="BZ74" s="33" t="inlineStr"/>
+      <c r="CA74" s="33" t="inlineStr"/>
       <c r="CB74" s="26" t="inlineStr"/>
+      <c r="CC74" s="27" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7654,23 +7744,23 @@
       <c r="X75" s="20" t="inlineStr"/>
       <c r="Y75" s="21" t="inlineStr"/>
       <c r="Z75" s="21" t="inlineStr"/>
-      <c r="AA75" s="21" t="inlineStr"/>
-      <c r="AB75" s="21" t="inlineStr"/>
+      <c r="AA75" s="22" t="inlineStr"/>
+      <c r="AB75" s="22" t="inlineStr"/>
       <c r="AC75" s="21" t="inlineStr"/>
-      <c r="AD75" s="22" t="inlineStr"/>
-      <c r="AE75" s="23" t="inlineStr"/>
-      <c r="AF75" s="23" t="inlineStr"/>
-      <c r="AG75" s="23" t="inlineStr"/>
-      <c r="AH75" s="23" t="inlineStr"/>
-      <c r="AI75" s="24" t="inlineStr"/>
-      <c r="AJ75" s="25" t="inlineStr"/>
-      <c r="AK75" s="26" t="inlineStr"/>
-      <c r="AL75" s="27" t="inlineStr"/>
-      <c r="AM75" s="28" t="inlineStr"/>
-      <c r="AN75" s="16" t="inlineStr"/>
+      <c r="AD75" s="23" t="inlineStr"/>
+      <c r="AE75" s="24" t="inlineStr"/>
+      <c r="AF75" s="24" t="inlineStr"/>
+      <c r="AG75" s="24" t="inlineStr"/>
+      <c r="AH75" s="24" t="inlineStr"/>
+      <c r="AI75" s="25" t="inlineStr"/>
+      <c r="AJ75" s="26" t="inlineStr"/>
+      <c r="AK75" s="27" t="inlineStr"/>
+      <c r="AL75" s="28" t="inlineStr"/>
+      <c r="AM75" s="29" t="inlineStr"/>
+      <c r="AN75" s="30" t="inlineStr"/>
       <c r="AO75" s="17" t="inlineStr"/>
       <c r="AP75" s="17" t="inlineStr"/>
-      <c r="AQ75" s="17" t="inlineStr"/>
+      <c r="AQ75" s="31" t="inlineStr"/>
       <c r="AR75" s="18" t="inlineStr"/>
       <c r="AS75" s="19" t="inlineStr"/>
       <c r="AT75" s="19" t="inlineStr"/>
@@ -7684,30 +7774,31 @@
       <c r="BB75" s="20" t="inlineStr"/>
       <c r="BC75" s="21" t="inlineStr"/>
       <c r="BD75" s="21" t="inlineStr"/>
-      <c r="BE75" s="22" t="inlineStr"/>
-      <c r="BF75" s="23" t="inlineStr"/>
-      <c r="BG75" s="23" t="inlineStr"/>
-      <c r="BH75" s="23" t="inlineStr"/>
-      <c r="BI75" s="23" t="inlineStr"/>
-      <c r="BJ75" s="23" t="inlineStr"/>
-      <c r="BK75" s="23" t="inlineStr"/>
-      <c r="BL75" s="23" t="inlineStr"/>
-      <c r="BM75" s="23" t="inlineStr"/>
-      <c r="BN75" s="23" t="inlineStr"/>
-      <c r="BO75" s="23" t="inlineStr"/>
-      <c r="BP75" s="23" t="inlineStr"/>
-      <c r="BQ75" s="23" t="inlineStr"/>
-      <c r="BR75" s="23" t="inlineStr"/>
-      <c r="BS75" s="23" t="inlineStr"/>
-      <c r="BT75" s="23" t="inlineStr"/>
-      <c r="BU75" s="23" t="inlineStr"/>
-      <c r="BV75" s="24" t="inlineStr"/>
-      <c r="BW75" s="29" t="inlineStr"/>
-      <c r="BX75" s="29" t="inlineStr"/>
-      <c r="BY75" s="29" t="inlineStr"/>
-      <c r="BZ75" s="29" t="inlineStr"/>
-      <c r="CA75" s="25" t="inlineStr"/>
+      <c r="BE75" s="23" t="inlineStr"/>
+      <c r="BF75" s="24" t="inlineStr"/>
+      <c r="BG75" s="32" t="inlineStr"/>
+      <c r="BH75" s="32" t="inlineStr"/>
+      <c r="BI75" s="32" t="inlineStr"/>
+      <c r="BJ75" s="32" t="inlineStr"/>
+      <c r="BK75" s="32" t="inlineStr"/>
+      <c r="BL75" s="32" t="inlineStr"/>
+      <c r="BM75" s="32" t="inlineStr"/>
+      <c r="BN75" s="32" t="inlineStr"/>
+      <c r="BO75" s="32" t="inlineStr"/>
+      <c r="BP75" s="32" t="inlineStr"/>
+      <c r="BQ75" s="32" t="inlineStr"/>
+      <c r="BR75" s="32" t="inlineStr"/>
+      <c r="BS75" s="32" t="inlineStr"/>
+      <c r="BT75" s="32" t="inlineStr"/>
+      <c r="BU75" s="32" t="inlineStr"/>
+      <c r="BV75" s="32" t="inlineStr"/>
+      <c r="BW75" s="25" t="inlineStr"/>
+      <c r="BX75" s="33" t="inlineStr"/>
+      <c r="BY75" s="33" t="inlineStr"/>
+      <c r="BZ75" s="33" t="inlineStr"/>
+      <c r="CA75" s="33" t="inlineStr"/>
       <c r="CB75" s="26" t="inlineStr"/>
+      <c r="CC75" s="27" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -7736,23 +7827,23 @@
       <c r="X76" s="20" t="inlineStr"/>
       <c r="Y76" s="21" t="inlineStr"/>
       <c r="Z76" s="21" t="inlineStr"/>
-      <c r="AA76" s="21" t="inlineStr"/>
-      <c r="AB76" s="21" t="inlineStr"/>
+      <c r="AA76" s="22" t="inlineStr"/>
+      <c r="AB76" s="22" t="inlineStr"/>
       <c r="AC76" s="21" t="inlineStr"/>
-      <c r="AD76" s="22" t="inlineStr"/>
-      <c r="AE76" s="23" t="inlineStr"/>
-      <c r="AF76" s="23" t="inlineStr"/>
-      <c r="AG76" s="23" t="inlineStr"/>
-      <c r="AH76" s="23" t="inlineStr"/>
-      <c r="AI76" s="24" t="inlineStr"/>
-      <c r="AJ76" s="25" t="inlineStr"/>
-      <c r="AK76" s="26" t="inlineStr"/>
-      <c r="AL76" s="27" t="inlineStr"/>
-      <c r="AM76" s="28" t="inlineStr"/>
-      <c r="AN76" s="16" t="inlineStr"/>
+      <c r="AD76" s="23" t="inlineStr"/>
+      <c r="AE76" s="24" t="inlineStr"/>
+      <c r="AF76" s="24" t="inlineStr"/>
+      <c r="AG76" s="24" t="inlineStr"/>
+      <c r="AH76" s="24" t="inlineStr"/>
+      <c r="AI76" s="25" t="inlineStr"/>
+      <c r="AJ76" s="26" t="inlineStr"/>
+      <c r="AK76" s="27" t="inlineStr"/>
+      <c r="AL76" s="28" t="inlineStr"/>
+      <c r="AM76" s="29" t="inlineStr"/>
+      <c r="AN76" s="30" t="inlineStr"/>
       <c r="AO76" s="17" t="inlineStr"/>
       <c r="AP76" s="17" t="inlineStr"/>
-      <c r="AQ76" s="17" t="inlineStr"/>
+      <c r="AQ76" s="31" t="inlineStr"/>
       <c r="AR76" s="18" t="inlineStr"/>
       <c r="AS76" s="19" t="inlineStr"/>
       <c r="AT76" s="19" t="inlineStr"/>
@@ -7766,30 +7857,31 @@
       <c r="BB76" s="20" t="inlineStr"/>
       <c r="BC76" s="21" t="inlineStr"/>
       <c r="BD76" s="21" t="inlineStr"/>
-      <c r="BE76" s="22" t="inlineStr"/>
-      <c r="BF76" s="23" t="inlineStr"/>
-      <c r="BG76" s="23" t="inlineStr"/>
-      <c r="BH76" s="23" t="inlineStr"/>
-      <c r="BI76" s="23" t="inlineStr"/>
-      <c r="BJ76" s="23" t="inlineStr"/>
-      <c r="BK76" s="23" t="inlineStr"/>
-      <c r="BL76" s="23" t="inlineStr"/>
-      <c r="BM76" s="23" t="inlineStr"/>
-      <c r="BN76" s="23" t="inlineStr"/>
-      <c r="BO76" s="23" t="inlineStr"/>
-      <c r="BP76" s="23" t="inlineStr"/>
-      <c r="BQ76" s="23" t="inlineStr"/>
-      <c r="BR76" s="23" t="inlineStr"/>
-      <c r="BS76" s="23" t="inlineStr"/>
-      <c r="BT76" s="23" t="inlineStr"/>
-      <c r="BU76" s="23" t="inlineStr"/>
-      <c r="BV76" s="24" t="inlineStr"/>
-      <c r="BW76" s="29" t="inlineStr"/>
-      <c r="BX76" s="29" t="inlineStr"/>
-      <c r="BY76" s="29" t="inlineStr"/>
-      <c r="BZ76" s="29" t="inlineStr"/>
-      <c r="CA76" s="25" t="inlineStr"/>
+      <c r="BE76" s="23" t="inlineStr"/>
+      <c r="BF76" s="24" t="inlineStr"/>
+      <c r="BG76" s="32" t="inlineStr"/>
+      <c r="BH76" s="32" t="inlineStr"/>
+      <c r="BI76" s="32" t="inlineStr"/>
+      <c r="BJ76" s="32" t="inlineStr"/>
+      <c r="BK76" s="32" t="inlineStr"/>
+      <c r="BL76" s="32" t="inlineStr"/>
+      <c r="BM76" s="32" t="inlineStr"/>
+      <c r="BN76" s="32" t="inlineStr"/>
+      <c r="BO76" s="32" t="inlineStr"/>
+      <c r="BP76" s="32" t="inlineStr"/>
+      <c r="BQ76" s="32" t="inlineStr"/>
+      <c r="BR76" s="32" t="inlineStr"/>
+      <c r="BS76" s="32" t="inlineStr"/>
+      <c r="BT76" s="32" t="inlineStr"/>
+      <c r="BU76" s="32" t="inlineStr"/>
+      <c r="BV76" s="32" t="inlineStr"/>
+      <c r="BW76" s="25" t="inlineStr"/>
+      <c r="BX76" s="33" t="inlineStr"/>
+      <c r="BY76" s="33" t="inlineStr"/>
+      <c r="BZ76" s="33" t="inlineStr"/>
+      <c r="CA76" s="33" t="inlineStr"/>
       <c r="CB76" s="26" t="inlineStr"/>
+      <c r="CC76" s="27" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -7818,23 +7910,23 @@
       <c r="X77" s="20" t="inlineStr"/>
       <c r="Y77" s="21" t="inlineStr"/>
       <c r="Z77" s="21" t="inlineStr"/>
-      <c r="AA77" s="21" t="inlineStr"/>
-      <c r="AB77" s="21" t="inlineStr"/>
+      <c r="AA77" s="22" t="inlineStr"/>
+      <c r="AB77" s="22" t="inlineStr"/>
       <c r="AC77" s="21" t="inlineStr"/>
-      <c r="AD77" s="22" t="inlineStr"/>
-      <c r="AE77" s="23" t="inlineStr"/>
-      <c r="AF77" s="23" t="inlineStr"/>
-      <c r="AG77" s="23" t="inlineStr"/>
-      <c r="AH77" s="23" t="inlineStr"/>
-      <c r="AI77" s="24" t="inlineStr"/>
-      <c r="AJ77" s="25" t="inlineStr"/>
-      <c r="AK77" s="26" t="inlineStr"/>
-      <c r="AL77" s="27" t="inlineStr"/>
-      <c r="AM77" s="28" t="inlineStr"/>
-      <c r="AN77" s="16" t="inlineStr"/>
+      <c r="AD77" s="23" t="inlineStr"/>
+      <c r="AE77" s="24" t="inlineStr"/>
+      <c r="AF77" s="24" t="inlineStr"/>
+      <c r="AG77" s="24" t="inlineStr"/>
+      <c r="AH77" s="24" t="inlineStr"/>
+      <c r="AI77" s="25" t="inlineStr"/>
+      <c r="AJ77" s="26" t="inlineStr"/>
+      <c r="AK77" s="27" t="inlineStr"/>
+      <c r="AL77" s="28" t="inlineStr"/>
+      <c r="AM77" s="29" t="inlineStr"/>
+      <c r="AN77" s="30" t="inlineStr"/>
       <c r="AO77" s="17" t="inlineStr"/>
       <c r="AP77" s="17" t="inlineStr"/>
-      <c r="AQ77" s="17" t="inlineStr"/>
+      <c r="AQ77" s="31" t="inlineStr"/>
       <c r="AR77" s="18" t="inlineStr"/>
       <c r="AS77" s="19" t="inlineStr"/>
       <c r="AT77" s="19" t="inlineStr"/>
@@ -7848,30 +7940,31 @@
       <c r="BB77" s="20" t="inlineStr"/>
       <c r="BC77" s="21" t="inlineStr"/>
       <c r="BD77" s="21" t="inlineStr"/>
-      <c r="BE77" s="22" t="inlineStr"/>
-      <c r="BF77" s="23" t="inlineStr"/>
-      <c r="BG77" s="23" t="inlineStr"/>
-      <c r="BH77" s="23" t="inlineStr"/>
-      <c r="BI77" s="23" t="inlineStr"/>
-      <c r="BJ77" s="23" t="inlineStr"/>
-      <c r="BK77" s="23" t="inlineStr"/>
-      <c r="BL77" s="23" t="inlineStr"/>
-      <c r="BM77" s="23" t="inlineStr"/>
-      <c r="BN77" s="23" t="inlineStr"/>
-      <c r="BO77" s="23" t="inlineStr"/>
-      <c r="BP77" s="23" t="inlineStr"/>
-      <c r="BQ77" s="23" t="inlineStr"/>
-      <c r="BR77" s="23" t="inlineStr"/>
-      <c r="BS77" s="23" t="inlineStr"/>
-      <c r="BT77" s="23" t="inlineStr"/>
-      <c r="BU77" s="23" t="inlineStr"/>
-      <c r="BV77" s="24" t="inlineStr"/>
-      <c r="BW77" s="29" t="inlineStr"/>
-      <c r="BX77" s="29" t="inlineStr"/>
-      <c r="BY77" s="29" t="inlineStr"/>
-      <c r="BZ77" s="29" t="inlineStr"/>
-      <c r="CA77" s="25" t="inlineStr"/>
+      <c r="BE77" s="23" t="inlineStr"/>
+      <c r="BF77" s="24" t="inlineStr"/>
+      <c r="BG77" s="32" t="inlineStr"/>
+      <c r="BH77" s="32" t="inlineStr"/>
+      <c r="BI77" s="32" t="inlineStr"/>
+      <c r="BJ77" s="32" t="inlineStr"/>
+      <c r="BK77" s="32" t="inlineStr"/>
+      <c r="BL77" s="32" t="inlineStr"/>
+      <c r="BM77" s="32" t="inlineStr"/>
+      <c r="BN77" s="32" t="inlineStr"/>
+      <c r="BO77" s="32" t="inlineStr"/>
+      <c r="BP77" s="32" t="inlineStr"/>
+      <c r="BQ77" s="32" t="inlineStr"/>
+      <c r="BR77" s="32" t="inlineStr"/>
+      <c r="BS77" s="32" t="inlineStr"/>
+      <c r="BT77" s="32" t="inlineStr"/>
+      <c r="BU77" s="32" t="inlineStr"/>
+      <c r="BV77" s="32" t="inlineStr"/>
+      <c r="BW77" s="25" t="inlineStr"/>
+      <c r="BX77" s="33" t="inlineStr"/>
+      <c r="BY77" s="33" t="inlineStr"/>
+      <c r="BZ77" s="33" t="inlineStr"/>
+      <c r="CA77" s="33" t="inlineStr"/>
       <c r="CB77" s="26" t="inlineStr"/>
+      <c r="CC77" s="27" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -7900,23 +7993,23 @@
       <c r="X78" s="20" t="inlineStr"/>
       <c r="Y78" s="21" t="inlineStr"/>
       <c r="Z78" s="21" t="inlineStr"/>
-      <c r="AA78" s="21" t="inlineStr"/>
-      <c r="AB78" s="21" t="inlineStr"/>
+      <c r="AA78" s="22" t="inlineStr"/>
+      <c r="AB78" s="22" t="inlineStr"/>
       <c r="AC78" s="21" t="inlineStr"/>
-      <c r="AD78" s="22" t="inlineStr"/>
-      <c r="AE78" s="23" t="inlineStr"/>
-      <c r="AF78" s="23" t="inlineStr"/>
-      <c r="AG78" s="23" t="inlineStr"/>
-      <c r="AH78" s="23" t="inlineStr"/>
-      <c r="AI78" s="24" t="inlineStr"/>
-      <c r="AJ78" s="25" t="inlineStr"/>
-      <c r="AK78" s="26" t="inlineStr"/>
-      <c r="AL78" s="27" t="inlineStr"/>
-      <c r="AM78" s="28" t="inlineStr"/>
-      <c r="AN78" s="16" t="inlineStr"/>
+      <c r="AD78" s="23" t="inlineStr"/>
+      <c r="AE78" s="24" t="inlineStr"/>
+      <c r="AF78" s="24" t="inlineStr"/>
+      <c r="AG78" s="24" t="inlineStr"/>
+      <c r="AH78" s="24" t="inlineStr"/>
+      <c r="AI78" s="25" t="inlineStr"/>
+      <c r="AJ78" s="26" t="inlineStr"/>
+      <c r="AK78" s="27" t="inlineStr"/>
+      <c r="AL78" s="28" t="inlineStr"/>
+      <c r="AM78" s="29" t="inlineStr"/>
+      <c r="AN78" s="30" t="inlineStr"/>
       <c r="AO78" s="17" t="inlineStr"/>
       <c r="AP78" s="17" t="inlineStr"/>
-      <c r="AQ78" s="17" t="inlineStr"/>
+      <c r="AQ78" s="31" t="inlineStr"/>
       <c r="AR78" s="18" t="inlineStr"/>
       <c r="AS78" s="19" t="inlineStr"/>
       <c r="AT78" s="19" t="inlineStr"/>
@@ -7930,30 +8023,31 @@
       <c r="BB78" s="20" t="inlineStr"/>
       <c r="BC78" s="21" t="inlineStr"/>
       <c r="BD78" s="21" t="inlineStr"/>
-      <c r="BE78" s="22" t="inlineStr"/>
-      <c r="BF78" s="23" t="inlineStr"/>
-      <c r="BG78" s="23" t="inlineStr"/>
-      <c r="BH78" s="23" t="inlineStr"/>
-      <c r="BI78" s="23" t="inlineStr"/>
-      <c r="BJ78" s="23" t="inlineStr"/>
-      <c r="BK78" s="23" t="inlineStr"/>
-      <c r="BL78" s="23" t="inlineStr"/>
-      <c r="BM78" s="23" t="inlineStr"/>
-      <c r="BN78" s="23" t="inlineStr"/>
-      <c r="BO78" s="23" t="inlineStr"/>
-      <c r="BP78" s="23" t="inlineStr"/>
-      <c r="BQ78" s="23" t="inlineStr"/>
-      <c r="BR78" s="23" t="inlineStr"/>
-      <c r="BS78" s="23" t="inlineStr"/>
-      <c r="BT78" s="23" t="inlineStr"/>
-      <c r="BU78" s="23" t="inlineStr"/>
-      <c r="BV78" s="24" t="inlineStr"/>
-      <c r="BW78" s="29" t="inlineStr"/>
-      <c r="BX78" s="29" t="inlineStr"/>
-      <c r="BY78" s="29" t="inlineStr"/>
-      <c r="BZ78" s="29" t="inlineStr"/>
-      <c r="CA78" s="25" t="inlineStr"/>
+      <c r="BE78" s="23" t="inlineStr"/>
+      <c r="BF78" s="24" t="inlineStr"/>
+      <c r="BG78" s="32" t="inlineStr"/>
+      <c r="BH78" s="32" t="inlineStr"/>
+      <c r="BI78" s="32" t="inlineStr"/>
+      <c r="BJ78" s="32" t="inlineStr"/>
+      <c r="BK78" s="32" t="inlineStr"/>
+      <c r="BL78" s="32" t="inlineStr"/>
+      <c r="BM78" s="32" t="inlineStr"/>
+      <c r="BN78" s="32" t="inlineStr"/>
+      <c r="BO78" s="32" t="inlineStr"/>
+      <c r="BP78" s="32" t="inlineStr"/>
+      <c r="BQ78" s="32" t="inlineStr"/>
+      <c r="BR78" s="32" t="inlineStr"/>
+      <c r="BS78" s="32" t="inlineStr"/>
+      <c r="BT78" s="32" t="inlineStr"/>
+      <c r="BU78" s="32" t="inlineStr"/>
+      <c r="BV78" s="32" t="inlineStr"/>
+      <c r="BW78" s="25" t="inlineStr"/>
+      <c r="BX78" s="33" t="inlineStr"/>
+      <c r="BY78" s="33" t="inlineStr"/>
+      <c r="BZ78" s="33" t="inlineStr"/>
+      <c r="CA78" s="33" t="inlineStr"/>
       <c r="CB78" s="26" t="inlineStr"/>
+      <c r="CC78" s="27" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -7982,23 +8076,23 @@
       <c r="X79" s="20" t="inlineStr"/>
       <c r="Y79" s="21" t="inlineStr"/>
       <c r="Z79" s="21" t="inlineStr"/>
-      <c r="AA79" s="21" t="inlineStr"/>
-      <c r="AB79" s="21" t="inlineStr"/>
+      <c r="AA79" s="22" t="inlineStr"/>
+      <c r="AB79" s="22" t="inlineStr"/>
       <c r="AC79" s="21" t="inlineStr"/>
-      <c r="AD79" s="22" t="inlineStr"/>
-      <c r="AE79" s="23" t="inlineStr"/>
-      <c r="AF79" s="23" t="inlineStr"/>
-      <c r="AG79" s="23" t="inlineStr"/>
-      <c r="AH79" s="23" t="inlineStr"/>
-      <c r="AI79" s="24" t="inlineStr"/>
-      <c r="AJ79" s="25" t="inlineStr"/>
-      <c r="AK79" s="26" t="inlineStr"/>
-      <c r="AL79" s="27" t="inlineStr"/>
-      <c r="AM79" s="28" t="inlineStr"/>
-      <c r="AN79" s="16" t="inlineStr"/>
+      <c r="AD79" s="23" t="inlineStr"/>
+      <c r="AE79" s="24" t="inlineStr"/>
+      <c r="AF79" s="24" t="inlineStr"/>
+      <c r="AG79" s="24" t="inlineStr"/>
+      <c r="AH79" s="24" t="inlineStr"/>
+      <c r="AI79" s="25" t="inlineStr"/>
+      <c r="AJ79" s="26" t="inlineStr"/>
+      <c r="AK79" s="27" t="inlineStr"/>
+      <c r="AL79" s="28" t="inlineStr"/>
+      <c r="AM79" s="29" t="inlineStr"/>
+      <c r="AN79" s="30" t="inlineStr"/>
       <c r="AO79" s="17" t="inlineStr"/>
       <c r="AP79" s="17" t="inlineStr"/>
-      <c r="AQ79" s="17" t="inlineStr"/>
+      <c r="AQ79" s="31" t="inlineStr"/>
       <c r="AR79" s="18" t="inlineStr"/>
       <c r="AS79" s="19" t="inlineStr"/>
       <c r="AT79" s="19" t="inlineStr"/>
@@ -8012,30 +8106,31 @@
       <c r="BB79" s="20" t="inlineStr"/>
       <c r="BC79" s="21" t="inlineStr"/>
       <c r="BD79" s="21" t="inlineStr"/>
-      <c r="BE79" s="22" t="inlineStr"/>
-      <c r="BF79" s="23" t="inlineStr"/>
-      <c r="BG79" s="23" t="inlineStr"/>
-      <c r="BH79" s="23" t="inlineStr"/>
-      <c r="BI79" s="23" t="inlineStr"/>
-      <c r="BJ79" s="23" t="inlineStr"/>
-      <c r="BK79" s="23" t="inlineStr"/>
-      <c r="BL79" s="23" t="inlineStr"/>
-      <c r="BM79" s="23" t="inlineStr"/>
-      <c r="BN79" s="23" t="inlineStr"/>
-      <c r="BO79" s="23" t="inlineStr"/>
-      <c r="BP79" s="23" t="inlineStr"/>
-      <c r="BQ79" s="23" t="inlineStr"/>
-      <c r="BR79" s="23" t="inlineStr"/>
-      <c r="BS79" s="23" t="inlineStr"/>
-      <c r="BT79" s="23" t="inlineStr"/>
-      <c r="BU79" s="23" t="inlineStr"/>
-      <c r="BV79" s="24" t="inlineStr"/>
-      <c r="BW79" s="29" t="inlineStr"/>
-      <c r="BX79" s="29" t="inlineStr"/>
-      <c r="BY79" s="29" t="inlineStr"/>
-      <c r="BZ79" s="29" t="inlineStr"/>
-      <c r="CA79" s="25" t="inlineStr"/>
+      <c r="BE79" s="23" t="inlineStr"/>
+      <c r="BF79" s="24" t="inlineStr"/>
+      <c r="BG79" s="32" t="inlineStr"/>
+      <c r="BH79" s="32" t="inlineStr"/>
+      <c r="BI79" s="32" t="inlineStr"/>
+      <c r="BJ79" s="32" t="inlineStr"/>
+      <c r="BK79" s="32" t="inlineStr"/>
+      <c r="BL79" s="32" t="inlineStr"/>
+      <c r="BM79" s="32" t="inlineStr"/>
+      <c r="BN79" s="32" t="inlineStr"/>
+      <c r="BO79" s="32" t="inlineStr"/>
+      <c r="BP79" s="32" t="inlineStr"/>
+      <c r="BQ79" s="32" t="inlineStr"/>
+      <c r="BR79" s="32" t="inlineStr"/>
+      <c r="BS79" s="32" t="inlineStr"/>
+      <c r="BT79" s="32" t="inlineStr"/>
+      <c r="BU79" s="32" t="inlineStr"/>
+      <c r="BV79" s="32" t="inlineStr"/>
+      <c r="BW79" s="25" t="inlineStr"/>
+      <c r="BX79" s="33" t="inlineStr"/>
+      <c r="BY79" s="33" t="inlineStr"/>
+      <c r="BZ79" s="33" t="inlineStr"/>
+      <c r="CA79" s="33" t="inlineStr"/>
       <c r="CB79" s="26" t="inlineStr"/>
+      <c r="CC79" s="27" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8064,23 +8159,23 @@
       <c r="X80" s="20" t="inlineStr"/>
       <c r="Y80" s="21" t="inlineStr"/>
       <c r="Z80" s="21" t="inlineStr"/>
-      <c r="AA80" s="21" t="inlineStr"/>
-      <c r="AB80" s="21" t="inlineStr"/>
+      <c r="AA80" s="22" t="inlineStr"/>
+      <c r="AB80" s="22" t="inlineStr"/>
       <c r="AC80" s="21" t="inlineStr"/>
-      <c r="AD80" s="22" t="inlineStr"/>
-      <c r="AE80" s="23" t="inlineStr"/>
-      <c r="AF80" s="23" t="inlineStr"/>
-      <c r="AG80" s="23" t="inlineStr"/>
-      <c r="AH80" s="23" t="inlineStr"/>
-      <c r="AI80" s="24" t="inlineStr"/>
-      <c r="AJ80" s="25" t="inlineStr"/>
-      <c r="AK80" s="26" t="inlineStr"/>
-      <c r="AL80" s="27" t="inlineStr"/>
-      <c r="AM80" s="28" t="inlineStr"/>
-      <c r="AN80" s="16" t="inlineStr"/>
+      <c r="AD80" s="23" t="inlineStr"/>
+      <c r="AE80" s="24" t="inlineStr"/>
+      <c r="AF80" s="24" t="inlineStr"/>
+      <c r="AG80" s="24" t="inlineStr"/>
+      <c r="AH80" s="24" t="inlineStr"/>
+      <c r="AI80" s="25" t="inlineStr"/>
+      <c r="AJ80" s="26" t="inlineStr"/>
+      <c r="AK80" s="27" t="inlineStr"/>
+      <c r="AL80" s="28" t="inlineStr"/>
+      <c r="AM80" s="29" t="inlineStr"/>
+      <c r="AN80" s="30" t="inlineStr"/>
       <c r="AO80" s="17" t="inlineStr"/>
       <c r="AP80" s="17" t="inlineStr"/>
-      <c r="AQ80" s="17" t="inlineStr"/>
+      <c r="AQ80" s="31" t="inlineStr"/>
       <c r="AR80" s="18" t="inlineStr"/>
       <c r="AS80" s="19" t="inlineStr"/>
       <c r="AT80" s="19" t="inlineStr"/>
@@ -8094,30 +8189,31 @@
       <c r="BB80" s="20" t="inlineStr"/>
       <c r="BC80" s="21" t="inlineStr"/>
       <c r="BD80" s="21" t="inlineStr"/>
-      <c r="BE80" s="22" t="inlineStr"/>
-      <c r="BF80" s="23" t="inlineStr"/>
-      <c r="BG80" s="23" t="inlineStr"/>
-      <c r="BH80" s="23" t="inlineStr"/>
-      <c r="BI80" s="23" t="inlineStr"/>
-      <c r="BJ80" s="23" t="inlineStr"/>
-      <c r="BK80" s="23" t="inlineStr"/>
-      <c r="BL80" s="23" t="inlineStr"/>
-      <c r="BM80" s="23" t="inlineStr"/>
-      <c r="BN80" s="23" t="inlineStr"/>
-      <c r="BO80" s="23" t="inlineStr"/>
-      <c r="BP80" s="23" t="inlineStr"/>
-      <c r="BQ80" s="23" t="inlineStr"/>
-      <c r="BR80" s="23" t="inlineStr"/>
-      <c r="BS80" s="23" t="inlineStr"/>
-      <c r="BT80" s="23" t="inlineStr"/>
-      <c r="BU80" s="23" t="inlineStr"/>
-      <c r="BV80" s="24" t="inlineStr"/>
-      <c r="BW80" s="29" t="inlineStr"/>
-      <c r="BX80" s="29" t="inlineStr"/>
-      <c r="BY80" s="29" t="inlineStr"/>
-      <c r="BZ80" s="29" t="inlineStr"/>
-      <c r="CA80" s="25" t="inlineStr"/>
+      <c r="BE80" s="23" t="inlineStr"/>
+      <c r="BF80" s="24" t="inlineStr"/>
+      <c r="BG80" s="32" t="inlineStr"/>
+      <c r="BH80" s="32" t="inlineStr"/>
+      <c r="BI80" s="32" t="inlineStr"/>
+      <c r="BJ80" s="32" t="inlineStr"/>
+      <c r="BK80" s="32" t="inlineStr"/>
+      <c r="BL80" s="32" t="inlineStr"/>
+      <c r="BM80" s="32" t="inlineStr"/>
+      <c r="BN80" s="32" t="inlineStr"/>
+      <c r="BO80" s="32" t="inlineStr"/>
+      <c r="BP80" s="32" t="inlineStr"/>
+      <c r="BQ80" s="32" t="inlineStr"/>
+      <c r="BR80" s="32" t="inlineStr"/>
+      <c r="BS80" s="32" t="inlineStr"/>
+      <c r="BT80" s="32" t="inlineStr"/>
+      <c r="BU80" s="32" t="inlineStr"/>
+      <c r="BV80" s="32" t="inlineStr"/>
+      <c r="BW80" s="25" t="inlineStr"/>
+      <c r="BX80" s="33" t="inlineStr"/>
+      <c r="BY80" s="33" t="inlineStr"/>
+      <c r="BZ80" s="33" t="inlineStr"/>
+      <c r="CA80" s="33" t="inlineStr"/>
       <c r="CB80" s="26" t="inlineStr"/>
+      <c r="CC80" s="27" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8146,23 +8242,23 @@
       <c r="X81" s="20" t="inlineStr"/>
       <c r="Y81" s="21" t="inlineStr"/>
       <c r="Z81" s="21" t="inlineStr"/>
-      <c r="AA81" s="21" t="inlineStr"/>
-      <c r="AB81" s="21" t="inlineStr"/>
+      <c r="AA81" s="22" t="inlineStr"/>
+      <c r="AB81" s="22" t="inlineStr"/>
       <c r="AC81" s="21" t="inlineStr"/>
-      <c r="AD81" s="22" t="inlineStr"/>
-      <c r="AE81" s="23" t="inlineStr"/>
-      <c r="AF81" s="23" t="inlineStr"/>
-      <c r="AG81" s="23" t="inlineStr"/>
-      <c r="AH81" s="23" t="inlineStr"/>
-      <c r="AI81" s="24" t="inlineStr"/>
-      <c r="AJ81" s="25" t="inlineStr"/>
-      <c r="AK81" s="26" t="inlineStr"/>
-      <c r="AL81" s="27" t="inlineStr"/>
-      <c r="AM81" s="28" t="inlineStr"/>
-      <c r="AN81" s="16" t="inlineStr"/>
+      <c r="AD81" s="23" t="inlineStr"/>
+      <c r="AE81" s="24" t="inlineStr"/>
+      <c r="AF81" s="24" t="inlineStr"/>
+      <c r="AG81" s="24" t="inlineStr"/>
+      <c r="AH81" s="24" t="inlineStr"/>
+      <c r="AI81" s="25" t="inlineStr"/>
+      <c r="AJ81" s="26" t="inlineStr"/>
+      <c r="AK81" s="27" t="inlineStr"/>
+      <c r="AL81" s="28" t="inlineStr"/>
+      <c r="AM81" s="29" t="inlineStr"/>
+      <c r="AN81" s="30" t="inlineStr"/>
       <c r="AO81" s="17" t="inlineStr"/>
       <c r="AP81" s="17" t="inlineStr"/>
-      <c r="AQ81" s="17" t="inlineStr"/>
+      <c r="AQ81" s="31" t="inlineStr"/>
       <c r="AR81" s="18" t="inlineStr"/>
       <c r="AS81" s="19" t="inlineStr"/>
       <c r="AT81" s="19" t="inlineStr"/>
@@ -8176,30 +8272,31 @@
       <c r="BB81" s="20" t="inlineStr"/>
       <c r="BC81" s="21" t="inlineStr"/>
       <c r="BD81" s="21" t="inlineStr"/>
-      <c r="BE81" s="22" t="inlineStr"/>
-      <c r="BF81" s="23" t="inlineStr"/>
-      <c r="BG81" s="23" t="inlineStr"/>
-      <c r="BH81" s="23" t="inlineStr"/>
-      <c r="BI81" s="23" t="inlineStr"/>
-      <c r="BJ81" s="23" t="inlineStr"/>
-      <c r="BK81" s="23" t="inlineStr"/>
-      <c r="BL81" s="23" t="inlineStr"/>
-      <c r="BM81" s="23" t="inlineStr"/>
-      <c r="BN81" s="23" t="inlineStr"/>
-      <c r="BO81" s="23" t="inlineStr"/>
-      <c r="BP81" s="23" t="inlineStr"/>
-      <c r="BQ81" s="23" t="inlineStr"/>
-      <c r="BR81" s="23" t="inlineStr"/>
-      <c r="BS81" s="23" t="inlineStr"/>
-      <c r="BT81" s="23" t="inlineStr"/>
-      <c r="BU81" s="23" t="inlineStr"/>
-      <c r="BV81" s="24" t="inlineStr"/>
-      <c r="BW81" s="29" t="inlineStr"/>
-      <c r="BX81" s="29" t="inlineStr"/>
-      <c r="BY81" s="29" t="inlineStr"/>
-      <c r="BZ81" s="29" t="inlineStr"/>
-      <c r="CA81" s="25" t="inlineStr"/>
+      <c r="BE81" s="23" t="inlineStr"/>
+      <c r="BF81" s="24" t="inlineStr"/>
+      <c r="BG81" s="32" t="inlineStr"/>
+      <c r="BH81" s="32" t="inlineStr"/>
+      <c r="BI81" s="32" t="inlineStr"/>
+      <c r="BJ81" s="32" t="inlineStr"/>
+      <c r="BK81" s="32" t="inlineStr"/>
+      <c r="BL81" s="32" t="inlineStr"/>
+      <c r="BM81" s="32" t="inlineStr"/>
+      <c r="BN81" s="32" t="inlineStr"/>
+      <c r="BO81" s="32" t="inlineStr"/>
+      <c r="BP81" s="32" t="inlineStr"/>
+      <c r="BQ81" s="32" t="inlineStr"/>
+      <c r="BR81" s="32" t="inlineStr"/>
+      <c r="BS81" s="32" t="inlineStr"/>
+      <c r="BT81" s="32" t="inlineStr"/>
+      <c r="BU81" s="32" t="inlineStr"/>
+      <c r="BV81" s="32" t="inlineStr"/>
+      <c r="BW81" s="25" t="inlineStr"/>
+      <c r="BX81" s="33" t="inlineStr"/>
+      <c r="BY81" s="33" t="inlineStr"/>
+      <c r="BZ81" s="33" t="inlineStr"/>
+      <c r="CA81" s="33" t="inlineStr"/>
       <c r="CB81" s="26" t="inlineStr"/>
+      <c r="CC81" s="27" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8228,23 +8325,23 @@
       <c r="X82" s="20" t="inlineStr"/>
       <c r="Y82" s="21" t="inlineStr"/>
       <c r="Z82" s="21" t="inlineStr"/>
-      <c r="AA82" s="21" t="inlineStr"/>
-      <c r="AB82" s="21" t="inlineStr"/>
+      <c r="AA82" s="22" t="inlineStr"/>
+      <c r="AB82" s="22" t="inlineStr"/>
       <c r="AC82" s="21" t="inlineStr"/>
-      <c r="AD82" s="22" t="inlineStr"/>
-      <c r="AE82" s="23" t="inlineStr"/>
-      <c r="AF82" s="23" t="inlineStr"/>
-      <c r="AG82" s="23" t="inlineStr"/>
-      <c r="AH82" s="23" t="inlineStr"/>
-      <c r="AI82" s="24" t="inlineStr"/>
-      <c r="AJ82" s="25" t="inlineStr"/>
-      <c r="AK82" s="26" t="inlineStr"/>
-      <c r="AL82" s="27" t="inlineStr"/>
-      <c r="AM82" s="28" t="inlineStr"/>
-      <c r="AN82" s="16" t="inlineStr"/>
+      <c r="AD82" s="23" t="inlineStr"/>
+      <c r="AE82" s="24" t="inlineStr"/>
+      <c r="AF82" s="24" t="inlineStr"/>
+      <c r="AG82" s="24" t="inlineStr"/>
+      <c r="AH82" s="24" t="inlineStr"/>
+      <c r="AI82" s="25" t="inlineStr"/>
+      <c r="AJ82" s="26" t="inlineStr"/>
+      <c r="AK82" s="27" t="inlineStr"/>
+      <c r="AL82" s="28" t="inlineStr"/>
+      <c r="AM82" s="29" t="inlineStr"/>
+      <c r="AN82" s="30" t="inlineStr"/>
       <c r="AO82" s="17" t="inlineStr"/>
       <c r="AP82" s="17" t="inlineStr"/>
-      <c r="AQ82" s="17" t="inlineStr"/>
+      <c r="AQ82" s="31" t="inlineStr"/>
       <c r="AR82" s="18" t="inlineStr"/>
       <c r="AS82" s="19" t="inlineStr"/>
       <c r="AT82" s="19" t="inlineStr"/>
@@ -8258,30 +8355,31 @@
       <c r="BB82" s="20" t="inlineStr"/>
       <c r="BC82" s="21" t="inlineStr"/>
       <c r="BD82" s="21" t="inlineStr"/>
-      <c r="BE82" s="22" t="inlineStr"/>
-      <c r="BF82" s="23" t="inlineStr"/>
-      <c r="BG82" s="23" t="inlineStr"/>
-      <c r="BH82" s="23" t="inlineStr"/>
-      <c r="BI82" s="23" t="inlineStr"/>
-      <c r="BJ82" s="23" t="inlineStr"/>
-      <c r="BK82" s="23" t="inlineStr"/>
-      <c r="BL82" s="23" t="inlineStr"/>
-      <c r="BM82" s="23" t="inlineStr"/>
-      <c r="BN82" s="23" t="inlineStr"/>
-      <c r="BO82" s="23" t="inlineStr"/>
-      <c r="BP82" s="23" t="inlineStr"/>
-      <c r="BQ82" s="23" t="inlineStr"/>
-      <c r="BR82" s="23" t="inlineStr"/>
-      <c r="BS82" s="23" t="inlineStr"/>
-      <c r="BT82" s="23" t="inlineStr"/>
-      <c r="BU82" s="23" t="inlineStr"/>
-      <c r="BV82" s="24" t="inlineStr"/>
-      <c r="BW82" s="29" t="inlineStr"/>
-      <c r="BX82" s="29" t="inlineStr"/>
-      <c r="BY82" s="29" t="inlineStr"/>
-      <c r="BZ82" s="29" t="inlineStr"/>
-      <c r="CA82" s="25" t="inlineStr"/>
+      <c r="BE82" s="23" t="inlineStr"/>
+      <c r="BF82" s="24" t="inlineStr"/>
+      <c r="BG82" s="32" t="inlineStr"/>
+      <c r="BH82" s="32" t="inlineStr"/>
+      <c r="BI82" s="32" t="inlineStr"/>
+      <c r="BJ82" s="32" t="inlineStr"/>
+      <c r="BK82" s="32" t="inlineStr"/>
+      <c r="BL82" s="32" t="inlineStr"/>
+      <c r="BM82" s="32" t="inlineStr"/>
+      <c r="BN82" s="32" t="inlineStr"/>
+      <c r="BO82" s="32" t="inlineStr"/>
+      <c r="BP82" s="32" t="inlineStr"/>
+      <c r="BQ82" s="32" t="inlineStr"/>
+      <c r="BR82" s="32" t="inlineStr"/>
+      <c r="BS82" s="32" t="inlineStr"/>
+      <c r="BT82" s="32" t="inlineStr"/>
+      <c r="BU82" s="32" t="inlineStr"/>
+      <c r="BV82" s="32" t="inlineStr"/>
+      <c r="BW82" s="25" t="inlineStr"/>
+      <c r="BX82" s="33" t="inlineStr"/>
+      <c r="BY82" s="33" t="inlineStr"/>
+      <c r="BZ82" s="33" t="inlineStr"/>
+      <c r="CA82" s="33" t="inlineStr"/>
       <c r="CB82" s="26" t="inlineStr"/>
+      <c r="CC82" s="27" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8310,23 +8408,23 @@
       <c r="X83" s="20" t="inlineStr"/>
       <c r="Y83" s="21" t="inlineStr"/>
       <c r="Z83" s="21" t="inlineStr"/>
-      <c r="AA83" s="21" t="inlineStr"/>
-      <c r="AB83" s="21" t="inlineStr"/>
+      <c r="AA83" s="22" t="inlineStr"/>
+      <c r="AB83" s="22" t="inlineStr"/>
       <c r="AC83" s="21" t="inlineStr"/>
-      <c r="AD83" s="22" t="inlineStr"/>
-      <c r="AE83" s="23" t="inlineStr"/>
-      <c r="AF83" s="23" t="inlineStr"/>
-      <c r="AG83" s="23" t="inlineStr"/>
-      <c r="AH83" s="23" t="inlineStr"/>
-      <c r="AI83" s="24" t="inlineStr"/>
-      <c r="AJ83" s="25" t="inlineStr"/>
-      <c r="AK83" s="26" t="inlineStr"/>
-      <c r="AL83" s="27" t="inlineStr"/>
-      <c r="AM83" s="28" t="inlineStr"/>
-      <c r="AN83" s="16" t="inlineStr"/>
+      <c r="AD83" s="23" t="inlineStr"/>
+      <c r="AE83" s="24" t="inlineStr"/>
+      <c r="AF83" s="24" t="inlineStr"/>
+      <c r="AG83" s="24" t="inlineStr"/>
+      <c r="AH83" s="24" t="inlineStr"/>
+      <c r="AI83" s="25" t="inlineStr"/>
+      <c r="AJ83" s="26" t="inlineStr"/>
+      <c r="AK83" s="27" t="inlineStr"/>
+      <c r="AL83" s="28" t="inlineStr"/>
+      <c r="AM83" s="29" t="inlineStr"/>
+      <c r="AN83" s="30" t="inlineStr"/>
       <c r="AO83" s="17" t="inlineStr"/>
       <c r="AP83" s="17" t="inlineStr"/>
-      <c r="AQ83" s="17" t="inlineStr"/>
+      <c r="AQ83" s="31" t="inlineStr"/>
       <c r="AR83" s="18" t="inlineStr"/>
       <c r="AS83" s="19" t="inlineStr"/>
       <c r="AT83" s="19" t="inlineStr"/>
@@ -8340,30 +8438,31 @@
       <c r="BB83" s="20" t="inlineStr"/>
       <c r="BC83" s="21" t="inlineStr"/>
       <c r="BD83" s="21" t="inlineStr"/>
-      <c r="BE83" s="22" t="inlineStr"/>
-      <c r="BF83" s="23" t="inlineStr"/>
-      <c r="BG83" s="23" t="inlineStr"/>
-      <c r="BH83" s="23" t="inlineStr"/>
-      <c r="BI83" s="23" t="inlineStr"/>
-      <c r="BJ83" s="23" t="inlineStr"/>
-      <c r="BK83" s="23" t="inlineStr"/>
-      <c r="BL83" s="23" t="inlineStr"/>
-      <c r="BM83" s="23" t="inlineStr"/>
-      <c r="BN83" s="23" t="inlineStr"/>
-      <c r="BO83" s="23" t="inlineStr"/>
-      <c r="BP83" s="23" t="inlineStr"/>
-      <c r="BQ83" s="23" t="inlineStr"/>
-      <c r="BR83" s="23" t="inlineStr"/>
-      <c r="BS83" s="23" t="inlineStr"/>
-      <c r="BT83" s="23" t="inlineStr"/>
-      <c r="BU83" s="23" t="inlineStr"/>
-      <c r="BV83" s="24" t="inlineStr"/>
-      <c r="BW83" s="29" t="inlineStr"/>
-      <c r="BX83" s="29" t="inlineStr"/>
-      <c r="BY83" s="29" t="inlineStr"/>
-      <c r="BZ83" s="29" t="inlineStr"/>
-      <c r="CA83" s="25" t="inlineStr"/>
+      <c r="BE83" s="23" t="inlineStr"/>
+      <c r="BF83" s="24" t="inlineStr"/>
+      <c r="BG83" s="32" t="inlineStr"/>
+      <c r="BH83" s="32" t="inlineStr"/>
+      <c r="BI83" s="32" t="inlineStr"/>
+      <c r="BJ83" s="32" t="inlineStr"/>
+      <c r="BK83" s="32" t="inlineStr"/>
+      <c r="BL83" s="32" t="inlineStr"/>
+      <c r="BM83" s="32" t="inlineStr"/>
+      <c r="BN83" s="32" t="inlineStr"/>
+      <c r="BO83" s="32" t="inlineStr"/>
+      <c r="BP83" s="32" t="inlineStr"/>
+      <c r="BQ83" s="32" t="inlineStr"/>
+      <c r="BR83" s="32" t="inlineStr"/>
+      <c r="BS83" s="32" t="inlineStr"/>
+      <c r="BT83" s="32" t="inlineStr"/>
+      <c r="BU83" s="32" t="inlineStr"/>
+      <c r="BV83" s="32" t="inlineStr"/>
+      <c r="BW83" s="25" t="inlineStr"/>
+      <c r="BX83" s="33" t="inlineStr"/>
+      <c r="BY83" s="33" t="inlineStr"/>
+      <c r="BZ83" s="33" t="inlineStr"/>
+      <c r="CA83" s="33" t="inlineStr"/>
       <c r="CB83" s="26" t="inlineStr"/>
+      <c r="CC83" s="27" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8392,23 +8491,23 @@
       <c r="X84" s="20" t="inlineStr"/>
       <c r="Y84" s="21" t="inlineStr"/>
       <c r="Z84" s="21" t="inlineStr"/>
-      <c r="AA84" s="21" t="inlineStr"/>
-      <c r="AB84" s="21" t="inlineStr"/>
+      <c r="AA84" s="22" t="inlineStr"/>
+      <c r="AB84" s="22" t="inlineStr"/>
       <c r="AC84" s="21" t="inlineStr"/>
-      <c r="AD84" s="22" t="inlineStr"/>
-      <c r="AE84" s="23" t="inlineStr"/>
-      <c r="AF84" s="23" t="inlineStr"/>
-      <c r="AG84" s="23" t="inlineStr"/>
-      <c r="AH84" s="23" t="inlineStr"/>
-      <c r="AI84" s="24" t="inlineStr"/>
-      <c r="AJ84" s="25" t="inlineStr"/>
-      <c r="AK84" s="26" t="inlineStr"/>
-      <c r="AL84" s="27" t="inlineStr"/>
-      <c r="AM84" s="28" t="inlineStr"/>
-      <c r="AN84" s="16" t="inlineStr"/>
+      <c r="AD84" s="23" t="inlineStr"/>
+      <c r="AE84" s="24" t="inlineStr"/>
+      <c r="AF84" s="24" t="inlineStr"/>
+      <c r="AG84" s="24" t="inlineStr"/>
+      <c r="AH84" s="24" t="inlineStr"/>
+      <c r="AI84" s="25" t="inlineStr"/>
+      <c r="AJ84" s="26" t="inlineStr"/>
+      <c r="AK84" s="27" t="inlineStr"/>
+      <c r="AL84" s="28" t="inlineStr"/>
+      <c r="AM84" s="29" t="inlineStr"/>
+      <c r="AN84" s="30" t="inlineStr"/>
       <c r="AO84" s="17" t="inlineStr"/>
       <c r="AP84" s="17" t="inlineStr"/>
-      <c r="AQ84" s="17" t="inlineStr"/>
+      <c r="AQ84" s="31" t="inlineStr"/>
       <c r="AR84" s="18" t="inlineStr"/>
       <c r="AS84" s="19" t="inlineStr"/>
       <c r="AT84" s="19" t="inlineStr"/>
@@ -8422,30 +8521,31 @@
       <c r="BB84" s="20" t="inlineStr"/>
       <c r="BC84" s="21" t="inlineStr"/>
       <c r="BD84" s="21" t="inlineStr"/>
-      <c r="BE84" s="22" t="inlineStr"/>
-      <c r="BF84" s="23" t="inlineStr"/>
-      <c r="BG84" s="23" t="inlineStr"/>
-      <c r="BH84" s="23" t="inlineStr"/>
-      <c r="BI84" s="23" t="inlineStr"/>
-      <c r="BJ84" s="23" t="inlineStr"/>
-      <c r="BK84" s="23" t="inlineStr"/>
-      <c r="BL84" s="23" t="inlineStr"/>
-      <c r="BM84" s="23" t="inlineStr"/>
-      <c r="BN84" s="23" t="inlineStr"/>
-      <c r="BO84" s="23" t="inlineStr"/>
-      <c r="BP84" s="23" t="inlineStr"/>
-      <c r="BQ84" s="23" t="inlineStr"/>
-      <c r="BR84" s="23" t="inlineStr"/>
-      <c r="BS84" s="23" t="inlineStr"/>
-      <c r="BT84" s="23" t="inlineStr"/>
-      <c r="BU84" s="23" t="inlineStr"/>
-      <c r="BV84" s="24" t="inlineStr"/>
-      <c r="BW84" s="29" t="inlineStr"/>
-      <c r="BX84" s="29" t="inlineStr"/>
-      <c r="BY84" s="29" t="inlineStr"/>
-      <c r="BZ84" s="29" t="inlineStr"/>
-      <c r="CA84" s="25" t="inlineStr"/>
+      <c r="BE84" s="23" t="inlineStr"/>
+      <c r="BF84" s="24" t="inlineStr"/>
+      <c r="BG84" s="32" t="inlineStr"/>
+      <c r="BH84" s="32" t="inlineStr"/>
+      <c r="BI84" s="32" t="inlineStr"/>
+      <c r="BJ84" s="32" t="inlineStr"/>
+      <c r="BK84" s="32" t="inlineStr"/>
+      <c r="BL84" s="32" t="inlineStr"/>
+      <c r="BM84" s="32" t="inlineStr"/>
+      <c r="BN84" s="32" t="inlineStr"/>
+      <c r="BO84" s="32" t="inlineStr"/>
+      <c r="BP84" s="32" t="inlineStr"/>
+      <c r="BQ84" s="32" t="inlineStr"/>
+      <c r="BR84" s="32" t="inlineStr"/>
+      <c r="BS84" s="32" t="inlineStr"/>
+      <c r="BT84" s="32" t="inlineStr"/>
+      <c r="BU84" s="32" t="inlineStr"/>
+      <c r="BV84" s="32" t="inlineStr"/>
+      <c r="BW84" s="25" t="inlineStr"/>
+      <c r="BX84" s="33" t="inlineStr"/>
+      <c r="BY84" s="33" t="inlineStr"/>
+      <c r="BZ84" s="33" t="inlineStr"/>
+      <c r="CA84" s="33" t="inlineStr"/>
       <c r="CB84" s="26" t="inlineStr"/>
+      <c r="CC84" s="27" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8474,23 +8574,23 @@
       <c r="X85" s="20" t="inlineStr"/>
       <c r="Y85" s="21" t="inlineStr"/>
       <c r="Z85" s="21" t="inlineStr"/>
-      <c r="AA85" s="21" t="inlineStr"/>
-      <c r="AB85" s="21" t="inlineStr"/>
+      <c r="AA85" s="22" t="inlineStr"/>
+      <c r="AB85" s="22" t="inlineStr"/>
       <c r="AC85" s="21" t="inlineStr"/>
-      <c r="AD85" s="22" t="inlineStr"/>
-      <c r="AE85" s="23" t="inlineStr"/>
-      <c r="AF85" s="23" t="inlineStr"/>
-      <c r="AG85" s="23" t="inlineStr"/>
-      <c r="AH85" s="23" t="inlineStr"/>
-      <c r="AI85" s="24" t="inlineStr"/>
-      <c r="AJ85" s="25" t="inlineStr"/>
-      <c r="AK85" s="26" t="inlineStr"/>
-      <c r="AL85" s="27" t="inlineStr"/>
-      <c r="AM85" s="28" t="inlineStr"/>
-      <c r="AN85" s="16" t="inlineStr"/>
+      <c r="AD85" s="23" t="inlineStr"/>
+      <c r="AE85" s="24" t="inlineStr"/>
+      <c r="AF85" s="24" t="inlineStr"/>
+      <c r="AG85" s="24" t="inlineStr"/>
+      <c r="AH85" s="24" t="inlineStr"/>
+      <c r="AI85" s="25" t="inlineStr"/>
+      <c r="AJ85" s="26" t="inlineStr"/>
+      <c r="AK85" s="27" t="inlineStr"/>
+      <c r="AL85" s="28" t="inlineStr"/>
+      <c r="AM85" s="29" t="inlineStr"/>
+      <c r="AN85" s="30" t="inlineStr"/>
       <c r="AO85" s="17" t="inlineStr"/>
       <c r="AP85" s="17" t="inlineStr"/>
-      <c r="AQ85" s="17" t="inlineStr"/>
+      <c r="AQ85" s="31" t="inlineStr"/>
       <c r="AR85" s="18" t="inlineStr"/>
       <c r="AS85" s="19" t="inlineStr"/>
       <c r="AT85" s="19" t="inlineStr"/>
@@ -8504,30 +8604,31 @@
       <c r="BB85" s="20" t="inlineStr"/>
       <c r="BC85" s="21" t="inlineStr"/>
       <c r="BD85" s="21" t="inlineStr"/>
-      <c r="BE85" s="22" t="inlineStr"/>
-      <c r="BF85" s="23" t="inlineStr"/>
-      <c r="BG85" s="23" t="inlineStr"/>
-      <c r="BH85" s="23" t="inlineStr"/>
-      <c r="BI85" s="23" t="inlineStr"/>
-      <c r="BJ85" s="23" t="inlineStr"/>
-      <c r="BK85" s="23" t="inlineStr"/>
-      <c r="BL85" s="23" t="inlineStr"/>
-      <c r="BM85" s="23" t="inlineStr"/>
-      <c r="BN85" s="23" t="inlineStr"/>
-      <c r="BO85" s="23" t="inlineStr"/>
-      <c r="BP85" s="23" t="inlineStr"/>
-      <c r="BQ85" s="23" t="inlineStr"/>
-      <c r="BR85" s="23" t="inlineStr"/>
-      <c r="BS85" s="23" t="inlineStr"/>
-      <c r="BT85" s="23" t="inlineStr"/>
-      <c r="BU85" s="23" t="inlineStr"/>
-      <c r="BV85" s="24" t="inlineStr"/>
-      <c r="BW85" s="29" t="inlineStr"/>
-      <c r="BX85" s="29" t="inlineStr"/>
-      <c r="BY85" s="29" t="inlineStr"/>
-      <c r="BZ85" s="29" t="inlineStr"/>
-      <c r="CA85" s="25" t="inlineStr"/>
+      <c r="BE85" s="23" t="inlineStr"/>
+      <c r="BF85" s="24" t="inlineStr"/>
+      <c r="BG85" s="32" t="inlineStr"/>
+      <c r="BH85" s="32" t="inlineStr"/>
+      <c r="BI85" s="32" t="inlineStr"/>
+      <c r="BJ85" s="32" t="inlineStr"/>
+      <c r="BK85" s="32" t="inlineStr"/>
+      <c r="BL85" s="32" t="inlineStr"/>
+      <c r="BM85" s="32" t="inlineStr"/>
+      <c r="BN85" s="32" t="inlineStr"/>
+      <c r="BO85" s="32" t="inlineStr"/>
+      <c r="BP85" s="32" t="inlineStr"/>
+      <c r="BQ85" s="32" t="inlineStr"/>
+      <c r="BR85" s="32" t="inlineStr"/>
+      <c r="BS85" s="32" t="inlineStr"/>
+      <c r="BT85" s="32" t="inlineStr"/>
+      <c r="BU85" s="32" t="inlineStr"/>
+      <c r="BV85" s="32" t="inlineStr"/>
+      <c r="BW85" s="25" t="inlineStr"/>
+      <c r="BX85" s="33" t="inlineStr"/>
+      <c r="BY85" s="33" t="inlineStr"/>
+      <c r="BZ85" s="33" t="inlineStr"/>
+      <c r="CA85" s="33" t="inlineStr"/>
       <c r="CB85" s="26" t="inlineStr"/>
+      <c r="CC85" s="27" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8556,23 +8657,23 @@
       <c r="X86" s="20" t="inlineStr"/>
       <c r="Y86" s="21" t="inlineStr"/>
       <c r="Z86" s="21" t="inlineStr"/>
-      <c r="AA86" s="21" t="inlineStr"/>
-      <c r="AB86" s="21" t="inlineStr"/>
+      <c r="AA86" s="22" t="inlineStr"/>
+      <c r="AB86" s="22" t="inlineStr"/>
       <c r="AC86" s="21" t="inlineStr"/>
-      <c r="AD86" s="22" t="inlineStr"/>
-      <c r="AE86" s="23" t="inlineStr"/>
-      <c r="AF86" s="23" t="inlineStr"/>
-      <c r="AG86" s="23" t="inlineStr"/>
-      <c r="AH86" s="23" t="inlineStr"/>
-      <c r="AI86" s="24" t="inlineStr"/>
-      <c r="AJ86" s="25" t="inlineStr"/>
-      <c r="AK86" s="26" t="inlineStr"/>
-      <c r="AL86" s="27" t="inlineStr"/>
-      <c r="AM86" s="28" t="inlineStr"/>
-      <c r="AN86" s="16" t="inlineStr"/>
+      <c r="AD86" s="23" t="inlineStr"/>
+      <c r="AE86" s="24" t="inlineStr"/>
+      <c r="AF86" s="24" t="inlineStr"/>
+      <c r="AG86" s="24" t="inlineStr"/>
+      <c r="AH86" s="24" t="inlineStr"/>
+      <c r="AI86" s="25" t="inlineStr"/>
+      <c r="AJ86" s="26" t="inlineStr"/>
+      <c r="AK86" s="27" t="inlineStr"/>
+      <c r="AL86" s="28" t="inlineStr"/>
+      <c r="AM86" s="29" t="inlineStr"/>
+      <c r="AN86" s="30" t="inlineStr"/>
       <c r="AO86" s="17" t="inlineStr"/>
       <c r="AP86" s="17" t="inlineStr"/>
-      <c r="AQ86" s="17" t="inlineStr"/>
+      <c r="AQ86" s="31" t="inlineStr"/>
       <c r="AR86" s="18" t="inlineStr"/>
       <c r="AS86" s="19" t="inlineStr"/>
       <c r="AT86" s="19" t="inlineStr"/>
@@ -8586,30 +8687,31 @@
       <c r="BB86" s="20" t="inlineStr"/>
       <c r="BC86" s="21" t="inlineStr"/>
       <c r="BD86" s="21" t="inlineStr"/>
-      <c r="BE86" s="22" t="inlineStr"/>
-      <c r="BF86" s="23" t="inlineStr"/>
-      <c r="BG86" s="23" t="inlineStr"/>
-      <c r="BH86" s="23" t="inlineStr"/>
-      <c r="BI86" s="23" t="inlineStr"/>
-      <c r="BJ86" s="23" t="inlineStr"/>
-      <c r="BK86" s="23" t="inlineStr"/>
-      <c r="BL86" s="23" t="inlineStr"/>
-      <c r="BM86" s="23" t="inlineStr"/>
-      <c r="BN86" s="23" t="inlineStr"/>
-      <c r="BO86" s="23" t="inlineStr"/>
-      <c r="BP86" s="23" t="inlineStr"/>
-      <c r="BQ86" s="23" t="inlineStr"/>
-      <c r="BR86" s="23" t="inlineStr"/>
-      <c r="BS86" s="23" t="inlineStr"/>
-      <c r="BT86" s="23" t="inlineStr"/>
-      <c r="BU86" s="23" t="inlineStr"/>
-      <c r="BV86" s="24" t="inlineStr"/>
-      <c r="BW86" s="29" t="inlineStr"/>
-      <c r="BX86" s="29" t="inlineStr"/>
-      <c r="BY86" s="29" t="inlineStr"/>
-      <c r="BZ86" s="29" t="inlineStr"/>
-      <c r="CA86" s="25" t="inlineStr"/>
+      <c r="BE86" s="23" t="inlineStr"/>
+      <c r="BF86" s="24" t="inlineStr"/>
+      <c r="BG86" s="32" t="inlineStr"/>
+      <c r="BH86" s="32" t="inlineStr"/>
+      <c r="BI86" s="32" t="inlineStr"/>
+      <c r="BJ86" s="32" t="inlineStr"/>
+      <c r="BK86" s="32" t="inlineStr"/>
+      <c r="BL86" s="32" t="inlineStr"/>
+      <c r="BM86" s="32" t="inlineStr"/>
+      <c r="BN86" s="32" t="inlineStr"/>
+      <c r="BO86" s="32" t="inlineStr"/>
+      <c r="BP86" s="32" t="inlineStr"/>
+      <c r="BQ86" s="32" t="inlineStr"/>
+      <c r="BR86" s="32" t="inlineStr"/>
+      <c r="BS86" s="32" t="inlineStr"/>
+      <c r="BT86" s="32" t="inlineStr"/>
+      <c r="BU86" s="32" t="inlineStr"/>
+      <c r="BV86" s="32" t="inlineStr"/>
+      <c r="BW86" s="25" t="inlineStr"/>
+      <c r="BX86" s="33" t="inlineStr"/>
+      <c r="BY86" s="33" t="inlineStr"/>
+      <c r="BZ86" s="33" t="inlineStr"/>
+      <c r="CA86" s="33" t="inlineStr"/>
       <c r="CB86" s="26" t="inlineStr"/>
+      <c r="CC86" s="27" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8638,23 +8740,23 @@
       <c r="X87" s="20" t="inlineStr"/>
       <c r="Y87" s="21" t="inlineStr"/>
       <c r="Z87" s="21" t="inlineStr"/>
-      <c r="AA87" s="21" t="inlineStr"/>
-      <c r="AB87" s="21" t="inlineStr"/>
+      <c r="AA87" s="22" t="inlineStr"/>
+      <c r="AB87" s="22" t="inlineStr"/>
       <c r="AC87" s="21" t="inlineStr"/>
-      <c r="AD87" s="22" t="inlineStr"/>
-      <c r="AE87" s="23" t="inlineStr"/>
-      <c r="AF87" s="23" t="inlineStr"/>
-      <c r="AG87" s="23" t="inlineStr"/>
-      <c r="AH87" s="23" t="inlineStr"/>
-      <c r="AI87" s="24" t="inlineStr"/>
-      <c r="AJ87" s="25" t="inlineStr"/>
-      <c r="AK87" s="26" t="inlineStr"/>
-      <c r="AL87" s="27" t="inlineStr"/>
-      <c r="AM87" s="28" t="inlineStr"/>
-      <c r="AN87" s="16" t="inlineStr"/>
+      <c r="AD87" s="23" t="inlineStr"/>
+      <c r="AE87" s="24" t="inlineStr"/>
+      <c r="AF87" s="24" t="inlineStr"/>
+      <c r="AG87" s="24" t="inlineStr"/>
+      <c r="AH87" s="24" t="inlineStr"/>
+      <c r="AI87" s="25" t="inlineStr"/>
+      <c r="AJ87" s="26" t="inlineStr"/>
+      <c r="AK87" s="27" t="inlineStr"/>
+      <c r="AL87" s="28" t="inlineStr"/>
+      <c r="AM87" s="29" t="inlineStr"/>
+      <c r="AN87" s="30" t="inlineStr"/>
       <c r="AO87" s="17" t="inlineStr"/>
       <c r="AP87" s="17" t="inlineStr"/>
-      <c r="AQ87" s="17" t="inlineStr"/>
+      <c r="AQ87" s="31" t="inlineStr"/>
       <c r="AR87" s="18" t="inlineStr"/>
       <c r="AS87" s="19" t="inlineStr"/>
       <c r="AT87" s="19" t="inlineStr"/>
@@ -8668,30 +8770,31 @@
       <c r="BB87" s="20" t="inlineStr"/>
       <c r="BC87" s="21" t="inlineStr"/>
       <c r="BD87" s="21" t="inlineStr"/>
-      <c r="BE87" s="22" t="inlineStr"/>
-      <c r="BF87" s="23" t="inlineStr"/>
-      <c r="BG87" s="23" t="inlineStr"/>
-      <c r="BH87" s="23" t="inlineStr"/>
-      <c r="BI87" s="23" t="inlineStr"/>
-      <c r="BJ87" s="23" t="inlineStr"/>
-      <c r="BK87" s="23" t="inlineStr"/>
-      <c r="BL87" s="23" t="inlineStr"/>
-      <c r="BM87" s="23" t="inlineStr"/>
-      <c r="BN87" s="23" t="inlineStr"/>
-      <c r="BO87" s="23" t="inlineStr"/>
-      <c r="BP87" s="23" t="inlineStr"/>
-      <c r="BQ87" s="23" t="inlineStr"/>
-      <c r="BR87" s="23" t="inlineStr"/>
-      <c r="BS87" s="23" t="inlineStr"/>
-      <c r="BT87" s="23" t="inlineStr"/>
-      <c r="BU87" s="23" t="inlineStr"/>
-      <c r="BV87" s="24" t="inlineStr"/>
-      <c r="BW87" s="29" t="inlineStr"/>
-      <c r="BX87" s="29" t="inlineStr"/>
-      <c r="BY87" s="29" t="inlineStr"/>
-      <c r="BZ87" s="29" t="inlineStr"/>
-      <c r="CA87" s="25" t="inlineStr"/>
+      <c r="BE87" s="23" t="inlineStr"/>
+      <c r="BF87" s="24" t="inlineStr"/>
+      <c r="BG87" s="32" t="inlineStr"/>
+      <c r="BH87" s="32" t="inlineStr"/>
+      <c r="BI87" s="32" t="inlineStr"/>
+      <c r="BJ87" s="32" t="inlineStr"/>
+      <c r="BK87" s="32" t="inlineStr"/>
+      <c r="BL87" s="32" t="inlineStr"/>
+      <c r="BM87" s="32" t="inlineStr"/>
+      <c r="BN87" s="32" t="inlineStr"/>
+      <c r="BO87" s="32" t="inlineStr"/>
+      <c r="BP87" s="32" t="inlineStr"/>
+      <c r="BQ87" s="32" t="inlineStr"/>
+      <c r="BR87" s="32" t="inlineStr"/>
+      <c r="BS87" s="32" t="inlineStr"/>
+      <c r="BT87" s="32" t="inlineStr"/>
+      <c r="BU87" s="32" t="inlineStr"/>
+      <c r="BV87" s="32" t="inlineStr"/>
+      <c r="BW87" s="25" t="inlineStr"/>
+      <c r="BX87" s="33" t="inlineStr"/>
+      <c r="BY87" s="33" t="inlineStr"/>
+      <c r="BZ87" s="33" t="inlineStr"/>
+      <c r="CA87" s="33" t="inlineStr"/>
       <c r="CB87" s="26" t="inlineStr"/>
+      <c r="CC87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -8720,23 +8823,23 @@
       <c r="X88" s="20" t="inlineStr"/>
       <c r="Y88" s="21" t="inlineStr"/>
       <c r="Z88" s="21" t="inlineStr"/>
-      <c r="AA88" s="21" t="inlineStr"/>
-      <c r="AB88" s="21" t="inlineStr"/>
+      <c r="AA88" s="22" t="inlineStr"/>
+      <c r="AB88" s="22" t="inlineStr"/>
       <c r="AC88" s="21" t="inlineStr"/>
-      <c r="AD88" s="22" t="inlineStr"/>
-      <c r="AE88" s="23" t="inlineStr"/>
-      <c r="AF88" s="23" t="inlineStr"/>
-      <c r="AG88" s="23" t="inlineStr"/>
-      <c r="AH88" s="23" t="inlineStr"/>
-      <c r="AI88" s="24" t="inlineStr"/>
-      <c r="AJ88" s="25" t="inlineStr"/>
-      <c r="AK88" s="26" t="inlineStr"/>
-      <c r="AL88" s="27" t="inlineStr"/>
-      <c r="AM88" s="28" t="inlineStr"/>
-      <c r="AN88" s="16" t="inlineStr"/>
+      <c r="AD88" s="23" t="inlineStr"/>
+      <c r="AE88" s="24" t="inlineStr"/>
+      <c r="AF88" s="24" t="inlineStr"/>
+      <c r="AG88" s="24" t="inlineStr"/>
+      <c r="AH88" s="24" t="inlineStr"/>
+      <c r="AI88" s="25" t="inlineStr"/>
+      <c r="AJ88" s="26" t="inlineStr"/>
+      <c r="AK88" s="27" t="inlineStr"/>
+      <c r="AL88" s="28" t="inlineStr"/>
+      <c r="AM88" s="29" t="inlineStr"/>
+      <c r="AN88" s="30" t="inlineStr"/>
       <c r="AO88" s="17" t="inlineStr"/>
       <c r="AP88" s="17" t="inlineStr"/>
-      <c r="AQ88" s="17" t="inlineStr"/>
+      <c r="AQ88" s="31" t="inlineStr"/>
       <c r="AR88" s="18" t="inlineStr"/>
       <c r="AS88" s="19" t="inlineStr"/>
       <c r="AT88" s="19" t="inlineStr"/>
@@ -8750,30 +8853,31 @@
       <c r="BB88" s="20" t="inlineStr"/>
       <c r="BC88" s="21" t="inlineStr"/>
       <c r="BD88" s="21" t="inlineStr"/>
-      <c r="BE88" s="22" t="inlineStr"/>
-      <c r="BF88" s="23" t="inlineStr"/>
-      <c r="BG88" s="23" t="inlineStr"/>
-      <c r="BH88" s="23" t="inlineStr"/>
-      <c r="BI88" s="23" t="inlineStr"/>
-      <c r="BJ88" s="23" t="inlineStr"/>
-      <c r="BK88" s="23" t="inlineStr"/>
-      <c r="BL88" s="23" t="inlineStr"/>
-      <c r="BM88" s="23" t="inlineStr"/>
-      <c r="BN88" s="23" t="inlineStr"/>
-      <c r="BO88" s="23" t="inlineStr"/>
-      <c r="BP88" s="23" t="inlineStr"/>
-      <c r="BQ88" s="23" t="inlineStr"/>
-      <c r="BR88" s="23" t="inlineStr"/>
-      <c r="BS88" s="23" t="inlineStr"/>
-      <c r="BT88" s="23" t="inlineStr"/>
-      <c r="BU88" s="23" t="inlineStr"/>
-      <c r="BV88" s="24" t="inlineStr"/>
-      <c r="BW88" s="29" t="inlineStr"/>
-      <c r="BX88" s="29" t="inlineStr"/>
-      <c r="BY88" s="29" t="inlineStr"/>
-      <c r="BZ88" s="29" t="inlineStr"/>
-      <c r="CA88" s="25" t="inlineStr"/>
+      <c r="BE88" s="23" t="inlineStr"/>
+      <c r="BF88" s="24" t="inlineStr"/>
+      <c r="BG88" s="32" t="inlineStr"/>
+      <c r="BH88" s="32" t="inlineStr"/>
+      <c r="BI88" s="32" t="inlineStr"/>
+      <c r="BJ88" s="32" t="inlineStr"/>
+      <c r="BK88" s="32" t="inlineStr"/>
+      <c r="BL88" s="32" t="inlineStr"/>
+      <c r="BM88" s="32" t="inlineStr"/>
+      <c r="BN88" s="32" t="inlineStr"/>
+      <c r="BO88" s="32" t="inlineStr"/>
+      <c r="BP88" s="32" t="inlineStr"/>
+      <c r="BQ88" s="32" t="inlineStr"/>
+      <c r="BR88" s="32" t="inlineStr"/>
+      <c r="BS88" s="32" t="inlineStr"/>
+      <c r="BT88" s="32" t="inlineStr"/>
+      <c r="BU88" s="32" t="inlineStr"/>
+      <c r="BV88" s="32" t="inlineStr"/>
+      <c r="BW88" s="25" t="inlineStr"/>
+      <c r="BX88" s="33" t="inlineStr"/>
+      <c r="BY88" s="33" t="inlineStr"/>
+      <c r="BZ88" s="33" t="inlineStr"/>
+      <c r="CA88" s="33" t="inlineStr"/>
       <c r="CB88" s="26" t="inlineStr"/>
+      <c r="CC88" s="27" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -8802,23 +8906,23 @@
       <c r="X89" s="20" t="inlineStr"/>
       <c r="Y89" s="21" t="inlineStr"/>
       <c r="Z89" s="21" t="inlineStr"/>
-      <c r="AA89" s="21" t="inlineStr"/>
-      <c r="AB89" s="21" t="inlineStr"/>
+      <c r="AA89" s="22" t="inlineStr"/>
+      <c r="AB89" s="22" t="inlineStr"/>
       <c r="AC89" s="21" t="inlineStr"/>
-      <c r="AD89" s="22" t="inlineStr"/>
-      <c r="AE89" s="23" t="inlineStr"/>
-      <c r="AF89" s="23" t="inlineStr"/>
-      <c r="AG89" s="23" t="inlineStr"/>
-      <c r="AH89" s="23" t="inlineStr"/>
-      <c r="AI89" s="24" t="inlineStr"/>
-      <c r="AJ89" s="25" t="inlineStr"/>
-      <c r="AK89" s="26" t="inlineStr"/>
-      <c r="AL89" s="27" t="inlineStr"/>
-      <c r="AM89" s="28" t="inlineStr"/>
-      <c r="AN89" s="16" t="inlineStr"/>
+      <c r="AD89" s="23" t="inlineStr"/>
+      <c r="AE89" s="24" t="inlineStr"/>
+      <c r="AF89" s="24" t="inlineStr"/>
+      <c r="AG89" s="24" t="inlineStr"/>
+      <c r="AH89" s="24" t="inlineStr"/>
+      <c r="AI89" s="25" t="inlineStr"/>
+      <c r="AJ89" s="26" t="inlineStr"/>
+      <c r="AK89" s="27" t="inlineStr"/>
+      <c r="AL89" s="28" t="inlineStr"/>
+      <c r="AM89" s="29" t="inlineStr"/>
+      <c r="AN89" s="30" t="inlineStr"/>
       <c r="AO89" s="17" t="inlineStr"/>
       <c r="AP89" s="17" t="inlineStr"/>
-      <c r="AQ89" s="17" t="inlineStr"/>
+      <c r="AQ89" s="31" t="inlineStr"/>
       <c r="AR89" s="18" t="inlineStr"/>
       <c r="AS89" s="19" t="inlineStr"/>
       <c r="AT89" s="19" t="inlineStr"/>
@@ -8832,30 +8936,31 @@
       <c r="BB89" s="20" t="inlineStr"/>
       <c r="BC89" s="21" t="inlineStr"/>
       <c r="BD89" s="21" t="inlineStr"/>
-      <c r="BE89" s="22" t="inlineStr"/>
-      <c r="BF89" s="23" t="inlineStr"/>
-      <c r="BG89" s="23" t="inlineStr"/>
-      <c r="BH89" s="23" t="inlineStr"/>
-      <c r="BI89" s="23" t="inlineStr"/>
-      <c r="BJ89" s="23" t="inlineStr"/>
-      <c r="BK89" s="23" t="inlineStr"/>
-      <c r="BL89" s="23" t="inlineStr"/>
-      <c r="BM89" s="23" t="inlineStr"/>
-      <c r="BN89" s="23" t="inlineStr"/>
-      <c r="BO89" s="23" t="inlineStr"/>
-      <c r="BP89" s="23" t="inlineStr"/>
-      <c r="BQ89" s="23" t="inlineStr"/>
-      <c r="BR89" s="23" t="inlineStr"/>
-      <c r="BS89" s="23" t="inlineStr"/>
-      <c r="BT89" s="23" t="inlineStr"/>
-      <c r="BU89" s="23" t="inlineStr"/>
-      <c r="BV89" s="24" t="inlineStr"/>
-      <c r="BW89" s="29" t="inlineStr"/>
-      <c r="BX89" s="29" t="inlineStr"/>
-      <c r="BY89" s="29" t="inlineStr"/>
-      <c r="BZ89" s="29" t="inlineStr"/>
-      <c r="CA89" s="25" t="inlineStr"/>
+      <c r="BE89" s="23" t="inlineStr"/>
+      <c r="BF89" s="24" t="inlineStr"/>
+      <c r="BG89" s="32" t="inlineStr"/>
+      <c r="BH89" s="32" t="inlineStr"/>
+      <c r="BI89" s="32" t="inlineStr"/>
+      <c r="BJ89" s="32" t="inlineStr"/>
+      <c r="BK89" s="32" t="inlineStr"/>
+      <c r="BL89" s="32" t="inlineStr"/>
+      <c r="BM89" s="32" t="inlineStr"/>
+      <c r="BN89" s="32" t="inlineStr"/>
+      <c r="BO89" s="32" t="inlineStr"/>
+      <c r="BP89" s="32" t="inlineStr"/>
+      <c r="BQ89" s="32" t="inlineStr"/>
+      <c r="BR89" s="32" t="inlineStr"/>
+      <c r="BS89" s="32" t="inlineStr"/>
+      <c r="BT89" s="32" t="inlineStr"/>
+      <c r="BU89" s="32" t="inlineStr"/>
+      <c r="BV89" s="32" t="inlineStr"/>
+      <c r="BW89" s="25" t="inlineStr"/>
+      <c r="BX89" s="33" t="inlineStr"/>
+      <c r="BY89" s="33" t="inlineStr"/>
+      <c r="BZ89" s="33" t="inlineStr"/>
+      <c r="CA89" s="33" t="inlineStr"/>
       <c r="CB89" s="26" t="inlineStr"/>
+      <c r="CC89" s="27" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -8884,23 +8989,23 @@
       <c r="X90" s="20" t="inlineStr"/>
       <c r="Y90" s="21" t="inlineStr"/>
       <c r="Z90" s="21" t="inlineStr"/>
-      <c r="AA90" s="21" t="inlineStr"/>
-      <c r="AB90" s="21" t="inlineStr"/>
+      <c r="AA90" s="22" t="inlineStr"/>
+      <c r="AB90" s="22" t="inlineStr"/>
       <c r="AC90" s="21" t="inlineStr"/>
-      <c r="AD90" s="22" t="inlineStr"/>
-      <c r="AE90" s="23" t="inlineStr"/>
-      <c r="AF90" s="23" t="inlineStr"/>
-      <c r="AG90" s="23" t="inlineStr"/>
-      <c r="AH90" s="23" t="inlineStr"/>
-      <c r="AI90" s="24" t="inlineStr"/>
-      <c r="AJ90" s="25" t="inlineStr"/>
-      <c r="AK90" s="26" t="inlineStr"/>
-      <c r="AL90" s="27" t="inlineStr"/>
-      <c r="AM90" s="28" t="inlineStr"/>
-      <c r="AN90" s="16" t="inlineStr"/>
+      <c r="AD90" s="23" t="inlineStr"/>
+      <c r="AE90" s="24" t="inlineStr"/>
+      <c r="AF90" s="24" t="inlineStr"/>
+      <c r="AG90" s="24" t="inlineStr"/>
+      <c r="AH90" s="24" t="inlineStr"/>
+      <c r="AI90" s="25" t="inlineStr"/>
+      <c r="AJ90" s="26" t="inlineStr"/>
+      <c r="AK90" s="27" t="inlineStr"/>
+      <c r="AL90" s="28" t="inlineStr"/>
+      <c r="AM90" s="29" t="inlineStr"/>
+      <c r="AN90" s="30" t="inlineStr"/>
       <c r="AO90" s="17" t="inlineStr"/>
       <c r="AP90" s="17" t="inlineStr"/>
-      <c r="AQ90" s="17" t="inlineStr"/>
+      <c r="AQ90" s="31" t="inlineStr"/>
       <c r="AR90" s="18" t="inlineStr"/>
       <c r="AS90" s="19" t="inlineStr"/>
       <c r="AT90" s="19" t="inlineStr"/>
@@ -8914,30 +9019,31 @@
       <c r="BB90" s="20" t="inlineStr"/>
       <c r="BC90" s="21" t="inlineStr"/>
       <c r="BD90" s="21" t="inlineStr"/>
-      <c r="BE90" s="22" t="inlineStr"/>
-      <c r="BF90" s="23" t="inlineStr"/>
-      <c r="BG90" s="23" t="inlineStr"/>
-      <c r="BH90" s="23" t="inlineStr"/>
-      <c r="BI90" s="23" t="inlineStr"/>
-      <c r="BJ90" s="23" t="inlineStr"/>
-      <c r="BK90" s="23" t="inlineStr"/>
-      <c r="BL90" s="23" t="inlineStr"/>
-      <c r="BM90" s="23" t="inlineStr"/>
-      <c r="BN90" s="23" t="inlineStr"/>
-      <c r="BO90" s="23" t="inlineStr"/>
-      <c r="BP90" s="23" t="inlineStr"/>
-      <c r="BQ90" s="23" t="inlineStr"/>
-      <c r="BR90" s="23" t="inlineStr"/>
-      <c r="BS90" s="23" t="inlineStr"/>
-      <c r="BT90" s="23" t="inlineStr"/>
-      <c r="BU90" s="23" t="inlineStr"/>
-      <c r="BV90" s="24" t="inlineStr"/>
-      <c r="BW90" s="29" t="inlineStr"/>
-      <c r="BX90" s="29" t="inlineStr"/>
-      <c r="BY90" s="29" t="inlineStr"/>
-      <c r="BZ90" s="29" t="inlineStr"/>
-      <c r="CA90" s="25" t="inlineStr"/>
+      <c r="BE90" s="23" t="inlineStr"/>
+      <c r="BF90" s="24" t="inlineStr"/>
+      <c r="BG90" s="32" t="inlineStr"/>
+      <c r="BH90" s="32" t="inlineStr"/>
+      <c r="BI90" s="32" t="inlineStr"/>
+      <c r="BJ90" s="32" t="inlineStr"/>
+      <c r="BK90" s="32" t="inlineStr"/>
+      <c r="BL90" s="32" t="inlineStr"/>
+      <c r="BM90" s="32" t="inlineStr"/>
+      <c r="BN90" s="32" t="inlineStr"/>
+      <c r="BO90" s="32" t="inlineStr"/>
+      <c r="BP90" s="32" t="inlineStr"/>
+      <c r="BQ90" s="32" t="inlineStr"/>
+      <c r="BR90" s="32" t="inlineStr"/>
+      <c r="BS90" s="32" t="inlineStr"/>
+      <c r="BT90" s="32" t="inlineStr"/>
+      <c r="BU90" s="32" t="inlineStr"/>
+      <c r="BV90" s="32" t="inlineStr"/>
+      <c r="BW90" s="25" t="inlineStr"/>
+      <c r="BX90" s="33" t="inlineStr"/>
+      <c r="BY90" s="33" t="inlineStr"/>
+      <c r="BZ90" s="33" t="inlineStr"/>
+      <c r="CA90" s="33" t="inlineStr"/>
       <c r="CB90" s="26" t="inlineStr"/>
+      <c r="CC90" s="27" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -8966,23 +9072,23 @@
       <c r="X91" s="20" t="inlineStr"/>
       <c r="Y91" s="21" t="inlineStr"/>
       <c r="Z91" s="21" t="inlineStr"/>
-      <c r="AA91" s="21" t="inlineStr"/>
-      <c r="AB91" s="21" t="inlineStr"/>
+      <c r="AA91" s="22" t="inlineStr"/>
+      <c r="AB91" s="22" t="inlineStr"/>
       <c r="AC91" s="21" t="inlineStr"/>
-      <c r="AD91" s="22" t="inlineStr"/>
-      <c r="AE91" s="23" t="inlineStr"/>
-      <c r="AF91" s="23" t="inlineStr"/>
-      <c r="AG91" s="23" t="inlineStr"/>
-      <c r="AH91" s="23" t="inlineStr"/>
-      <c r="AI91" s="24" t="inlineStr"/>
-      <c r="AJ91" s="25" t="inlineStr"/>
-      <c r="AK91" s="26" t="inlineStr"/>
-      <c r="AL91" s="27" t="inlineStr"/>
-      <c r="AM91" s="28" t="inlineStr"/>
-      <c r="AN91" s="16" t="inlineStr"/>
+      <c r="AD91" s="23" t="inlineStr"/>
+      <c r="AE91" s="24" t="inlineStr"/>
+      <c r="AF91" s="24" t="inlineStr"/>
+      <c r="AG91" s="24" t="inlineStr"/>
+      <c r="AH91" s="24" t="inlineStr"/>
+      <c r="AI91" s="25" t="inlineStr"/>
+      <c r="AJ91" s="26" t="inlineStr"/>
+      <c r="AK91" s="27" t="inlineStr"/>
+      <c r="AL91" s="28" t="inlineStr"/>
+      <c r="AM91" s="29" t="inlineStr"/>
+      <c r="AN91" s="30" t="inlineStr"/>
       <c r="AO91" s="17" t="inlineStr"/>
       <c r="AP91" s="17" t="inlineStr"/>
-      <c r="AQ91" s="17" t="inlineStr"/>
+      <c r="AQ91" s="31" t="inlineStr"/>
       <c r="AR91" s="18" t="inlineStr"/>
       <c r="AS91" s="19" t="inlineStr"/>
       <c r="AT91" s="19" t="inlineStr"/>
@@ -8996,30 +9102,31 @@
       <c r="BB91" s="20" t="inlineStr"/>
       <c r="BC91" s="21" t="inlineStr"/>
       <c r="BD91" s="21" t="inlineStr"/>
-      <c r="BE91" s="22" t="inlineStr"/>
-      <c r="BF91" s="23" t="inlineStr"/>
-      <c r="BG91" s="23" t="inlineStr"/>
-      <c r="BH91" s="23" t="inlineStr"/>
-      <c r="BI91" s="23" t="inlineStr"/>
-      <c r="BJ91" s="23" t="inlineStr"/>
-      <c r="BK91" s="23" t="inlineStr"/>
-      <c r="BL91" s="23" t="inlineStr"/>
-      <c r="BM91" s="23" t="inlineStr"/>
-      <c r="BN91" s="23" t="inlineStr"/>
-      <c r="BO91" s="23" t="inlineStr"/>
-      <c r="BP91" s="23" t="inlineStr"/>
-      <c r="BQ91" s="23" t="inlineStr"/>
-      <c r="BR91" s="23" t="inlineStr"/>
-      <c r="BS91" s="23" t="inlineStr"/>
-      <c r="BT91" s="23" t="inlineStr"/>
-      <c r="BU91" s="23" t="inlineStr"/>
-      <c r="BV91" s="24" t="inlineStr"/>
-      <c r="BW91" s="29" t="inlineStr"/>
-      <c r="BX91" s="29" t="inlineStr"/>
-      <c r="BY91" s="29" t="inlineStr"/>
-      <c r="BZ91" s="29" t="inlineStr"/>
-      <c r="CA91" s="25" t="inlineStr"/>
+      <c r="BE91" s="23" t="inlineStr"/>
+      <c r="BF91" s="24" t="inlineStr"/>
+      <c r="BG91" s="32" t="inlineStr"/>
+      <c r="BH91" s="32" t="inlineStr"/>
+      <c r="BI91" s="32" t="inlineStr"/>
+      <c r="BJ91" s="32" t="inlineStr"/>
+      <c r="BK91" s="32" t="inlineStr"/>
+      <c r="BL91" s="32" t="inlineStr"/>
+      <c r="BM91" s="32" t="inlineStr"/>
+      <c r="BN91" s="32" t="inlineStr"/>
+      <c r="BO91" s="32" t="inlineStr"/>
+      <c r="BP91" s="32" t="inlineStr"/>
+      <c r="BQ91" s="32" t="inlineStr"/>
+      <c r="BR91" s="32" t="inlineStr"/>
+      <c r="BS91" s="32" t="inlineStr"/>
+      <c r="BT91" s="32" t="inlineStr"/>
+      <c r="BU91" s="32" t="inlineStr"/>
+      <c r="BV91" s="32" t="inlineStr"/>
+      <c r="BW91" s="25" t="inlineStr"/>
+      <c r="BX91" s="33" t="inlineStr"/>
+      <c r="BY91" s="33" t="inlineStr"/>
+      <c r="BZ91" s="33" t="inlineStr"/>
+      <c r="CA91" s="33" t="inlineStr"/>
       <c r="CB91" s="26" t="inlineStr"/>
+      <c r="CC91" s="27" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9048,23 +9155,23 @@
       <c r="X92" s="20" t="inlineStr"/>
       <c r="Y92" s="21" t="inlineStr"/>
       <c r="Z92" s="21" t="inlineStr"/>
-      <c r="AA92" s="21" t="inlineStr"/>
-      <c r="AB92" s="21" t="inlineStr"/>
+      <c r="AA92" s="22" t="inlineStr"/>
+      <c r="AB92" s="22" t="inlineStr"/>
       <c r="AC92" s="21" t="inlineStr"/>
-      <c r="AD92" s="22" t="inlineStr"/>
-      <c r="AE92" s="23" t="inlineStr"/>
-      <c r="AF92" s="23" t="inlineStr"/>
-      <c r="AG92" s="23" t="inlineStr"/>
-      <c r="AH92" s="23" t="inlineStr"/>
-      <c r="AI92" s="24" t="inlineStr"/>
-      <c r="AJ92" s="25" t="inlineStr"/>
-      <c r="AK92" s="26" t="inlineStr"/>
-      <c r="AL92" s="27" t="inlineStr"/>
-      <c r="AM92" s="28" t="inlineStr"/>
-      <c r="AN92" s="16" t="inlineStr"/>
+      <c r="AD92" s="23" t="inlineStr"/>
+      <c r="AE92" s="24" t="inlineStr"/>
+      <c r="AF92" s="24" t="inlineStr"/>
+      <c r="AG92" s="24" t="inlineStr"/>
+      <c r="AH92" s="24" t="inlineStr"/>
+      <c r="AI92" s="25" t="inlineStr"/>
+      <c r="AJ92" s="26" t="inlineStr"/>
+      <c r="AK92" s="27" t="inlineStr"/>
+      <c r="AL92" s="28" t="inlineStr"/>
+      <c r="AM92" s="29" t="inlineStr"/>
+      <c r="AN92" s="30" t="inlineStr"/>
       <c r="AO92" s="17" t="inlineStr"/>
       <c r="AP92" s="17" t="inlineStr"/>
-      <c r="AQ92" s="17" t="inlineStr"/>
+      <c r="AQ92" s="31" t="inlineStr"/>
       <c r="AR92" s="18" t="inlineStr"/>
       <c r="AS92" s="19" t="inlineStr"/>
       <c r="AT92" s="19" t="inlineStr"/>
@@ -9078,30 +9185,31 @@
       <c r="BB92" s="20" t="inlineStr"/>
       <c r="BC92" s="21" t="inlineStr"/>
       <c r="BD92" s="21" t="inlineStr"/>
-      <c r="BE92" s="22" t="inlineStr"/>
-      <c r="BF92" s="23" t="inlineStr"/>
-      <c r="BG92" s="23" t="inlineStr"/>
-      <c r="BH92" s="23" t="inlineStr"/>
-      <c r="BI92" s="23" t="inlineStr"/>
-      <c r="BJ92" s="23" t="inlineStr"/>
-      <c r="BK92" s="23" t="inlineStr"/>
-      <c r="BL92" s="23" t="inlineStr"/>
-      <c r="BM92" s="23" t="inlineStr"/>
-      <c r="BN92" s="23" t="inlineStr"/>
-      <c r="BO92" s="23" t="inlineStr"/>
-      <c r="BP92" s="23" t="inlineStr"/>
-      <c r="BQ92" s="23" t="inlineStr"/>
-      <c r="BR92" s="23" t="inlineStr"/>
-      <c r="BS92" s="23" t="inlineStr"/>
-      <c r="BT92" s="23" t="inlineStr"/>
-      <c r="BU92" s="23" t="inlineStr"/>
-      <c r="BV92" s="24" t="inlineStr"/>
-      <c r="BW92" s="29" t="inlineStr"/>
-      <c r="BX92" s="29" t="inlineStr"/>
-      <c r="BY92" s="29" t="inlineStr"/>
-      <c r="BZ92" s="29" t="inlineStr"/>
-      <c r="CA92" s="25" t="inlineStr"/>
+      <c r="BE92" s="23" t="inlineStr"/>
+      <c r="BF92" s="24" t="inlineStr"/>
+      <c r="BG92" s="32" t="inlineStr"/>
+      <c r="BH92" s="32" t="inlineStr"/>
+      <c r="BI92" s="32" t="inlineStr"/>
+      <c r="BJ92" s="32" t="inlineStr"/>
+      <c r="BK92" s="32" t="inlineStr"/>
+      <c r="BL92" s="32" t="inlineStr"/>
+      <c r="BM92" s="32" t="inlineStr"/>
+      <c r="BN92" s="32" t="inlineStr"/>
+      <c r="BO92" s="32" t="inlineStr"/>
+      <c r="BP92" s="32" t="inlineStr"/>
+      <c r="BQ92" s="32" t="inlineStr"/>
+      <c r="BR92" s="32" t="inlineStr"/>
+      <c r="BS92" s="32" t="inlineStr"/>
+      <c r="BT92" s="32" t="inlineStr"/>
+      <c r="BU92" s="32" t="inlineStr"/>
+      <c r="BV92" s="32" t="inlineStr"/>
+      <c r="BW92" s="25" t="inlineStr"/>
+      <c r="BX92" s="33" t="inlineStr"/>
+      <c r="BY92" s="33" t="inlineStr"/>
+      <c r="BZ92" s="33" t="inlineStr"/>
+      <c r="CA92" s="33" t="inlineStr"/>
       <c r="CB92" s="26" t="inlineStr"/>
+      <c r="CC92" s="27" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9130,23 +9238,23 @@
       <c r="X93" s="20" t="inlineStr"/>
       <c r="Y93" s="21" t="inlineStr"/>
       <c r="Z93" s="21" t="inlineStr"/>
-      <c r="AA93" s="21" t="inlineStr"/>
-      <c r="AB93" s="21" t="inlineStr"/>
+      <c r="AA93" s="22" t="inlineStr"/>
+      <c r="AB93" s="22" t="inlineStr"/>
       <c r="AC93" s="21" t="inlineStr"/>
-      <c r="AD93" s="22" t="inlineStr"/>
-      <c r="AE93" s="23" t="inlineStr"/>
-      <c r="AF93" s="23" t="inlineStr"/>
-      <c r="AG93" s="23" t="inlineStr"/>
-      <c r="AH93" s="23" t="inlineStr"/>
-      <c r="AI93" s="24" t="inlineStr"/>
-      <c r="AJ93" s="25" t="inlineStr"/>
-      <c r="AK93" s="26" t="inlineStr"/>
-      <c r="AL93" s="27" t="inlineStr"/>
-      <c r="AM93" s="28" t="inlineStr"/>
-      <c r="AN93" s="16" t="inlineStr"/>
+      <c r="AD93" s="23" t="inlineStr"/>
+      <c r="AE93" s="24" t="inlineStr"/>
+      <c r="AF93" s="24" t="inlineStr"/>
+      <c r="AG93" s="24" t="inlineStr"/>
+      <c r="AH93" s="24" t="inlineStr"/>
+      <c r="AI93" s="25" t="inlineStr"/>
+      <c r="AJ93" s="26" t="inlineStr"/>
+      <c r="AK93" s="27" t="inlineStr"/>
+      <c r="AL93" s="28" t="inlineStr"/>
+      <c r="AM93" s="29" t="inlineStr"/>
+      <c r="AN93" s="30" t="inlineStr"/>
       <c r="AO93" s="17" t="inlineStr"/>
       <c r="AP93" s="17" t="inlineStr"/>
-      <c r="AQ93" s="17" t="inlineStr"/>
+      <c r="AQ93" s="31" t="inlineStr"/>
       <c r="AR93" s="18" t="inlineStr"/>
       <c r="AS93" s="19" t="inlineStr"/>
       <c r="AT93" s="19" t="inlineStr"/>
@@ -9160,30 +9268,31 @@
       <c r="BB93" s="20" t="inlineStr"/>
       <c r="BC93" s="21" t="inlineStr"/>
       <c r="BD93" s="21" t="inlineStr"/>
-      <c r="BE93" s="22" t="inlineStr"/>
-      <c r="BF93" s="23" t="inlineStr"/>
-      <c r="BG93" s="23" t="inlineStr"/>
-      <c r="BH93" s="23" t="inlineStr"/>
-      <c r="BI93" s="23" t="inlineStr"/>
-      <c r="BJ93" s="23" t="inlineStr"/>
-      <c r="BK93" s="23" t="inlineStr"/>
-      <c r="BL93" s="23" t="inlineStr"/>
-      <c r="BM93" s="23" t="inlineStr"/>
-      <c r="BN93" s="23" t="inlineStr"/>
-      <c r="BO93" s="23" t="inlineStr"/>
-      <c r="BP93" s="23" t="inlineStr"/>
-      <c r="BQ93" s="23" t="inlineStr"/>
-      <c r="BR93" s="23" t="inlineStr"/>
-      <c r="BS93" s="23" t="inlineStr"/>
-      <c r="BT93" s="23" t="inlineStr"/>
-      <c r="BU93" s="23" t="inlineStr"/>
-      <c r="BV93" s="24" t="inlineStr"/>
-      <c r="BW93" s="29" t="inlineStr"/>
-      <c r="BX93" s="29" t="inlineStr"/>
-      <c r="BY93" s="29" t="inlineStr"/>
-      <c r="BZ93" s="29" t="inlineStr"/>
-      <c r="CA93" s="25" t="inlineStr"/>
+      <c r="BE93" s="23" t="inlineStr"/>
+      <c r="BF93" s="24" t="inlineStr"/>
+      <c r="BG93" s="32" t="inlineStr"/>
+      <c r="BH93" s="32" t="inlineStr"/>
+      <c r="BI93" s="32" t="inlineStr"/>
+      <c r="BJ93" s="32" t="inlineStr"/>
+      <c r="BK93" s="32" t="inlineStr"/>
+      <c r="BL93" s="32" t="inlineStr"/>
+      <c r="BM93" s="32" t="inlineStr"/>
+      <c r="BN93" s="32" t="inlineStr"/>
+      <c r="BO93" s="32" t="inlineStr"/>
+      <c r="BP93" s="32" t="inlineStr"/>
+      <c r="BQ93" s="32" t="inlineStr"/>
+      <c r="BR93" s="32" t="inlineStr"/>
+      <c r="BS93" s="32" t="inlineStr"/>
+      <c r="BT93" s="32" t="inlineStr"/>
+      <c r="BU93" s="32" t="inlineStr"/>
+      <c r="BV93" s="32" t="inlineStr"/>
+      <c r="BW93" s="25" t="inlineStr"/>
+      <c r="BX93" s="33" t="inlineStr"/>
+      <c r="BY93" s="33" t="inlineStr"/>
+      <c r="BZ93" s="33" t="inlineStr"/>
+      <c r="CA93" s="33" t="inlineStr"/>
       <c r="CB93" s="26" t="inlineStr"/>
+      <c r="CC93" s="27" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9212,23 +9321,23 @@
       <c r="X94" s="20" t="inlineStr"/>
       <c r="Y94" s="21" t="inlineStr"/>
       <c r="Z94" s="21" t="inlineStr"/>
-      <c r="AA94" s="21" t="inlineStr"/>
-      <c r="AB94" s="21" t="inlineStr"/>
+      <c r="AA94" s="22" t="inlineStr"/>
+      <c r="AB94" s="22" t="inlineStr"/>
       <c r="AC94" s="21" t="inlineStr"/>
-      <c r="AD94" s="22" t="inlineStr"/>
-      <c r="AE94" s="23" t="inlineStr"/>
-      <c r="AF94" s="23" t="inlineStr"/>
-      <c r="AG94" s="23" t="inlineStr"/>
-      <c r="AH94" s="23" t="inlineStr"/>
-      <c r="AI94" s="24" t="inlineStr"/>
-      <c r="AJ94" s="25" t="inlineStr"/>
-      <c r="AK94" s="26" t="inlineStr"/>
-      <c r="AL94" s="27" t="inlineStr"/>
-      <c r="AM94" s="28" t="inlineStr"/>
-      <c r="AN94" s="16" t="inlineStr"/>
+      <c r="AD94" s="23" t="inlineStr"/>
+      <c r="AE94" s="24" t="inlineStr"/>
+      <c r="AF94" s="24" t="inlineStr"/>
+      <c r="AG94" s="24" t="inlineStr"/>
+      <c r="AH94" s="24" t="inlineStr"/>
+      <c r="AI94" s="25" t="inlineStr"/>
+      <c r="AJ94" s="26" t="inlineStr"/>
+      <c r="AK94" s="27" t="inlineStr"/>
+      <c r="AL94" s="28" t="inlineStr"/>
+      <c r="AM94" s="29" t="inlineStr"/>
+      <c r="AN94" s="30" t="inlineStr"/>
       <c r="AO94" s="17" t="inlineStr"/>
       <c r="AP94" s="17" t="inlineStr"/>
-      <c r="AQ94" s="17" t="inlineStr"/>
+      <c r="AQ94" s="31" t="inlineStr"/>
       <c r="AR94" s="18" t="inlineStr"/>
       <c r="AS94" s="19" t="inlineStr"/>
       <c r="AT94" s="19" t="inlineStr"/>
@@ -9242,30 +9351,31 @@
       <c r="BB94" s="20" t="inlineStr"/>
       <c r="BC94" s="21" t="inlineStr"/>
       <c r="BD94" s="21" t="inlineStr"/>
-      <c r="BE94" s="22" t="inlineStr"/>
-      <c r="BF94" s="23" t="inlineStr"/>
-      <c r="BG94" s="23" t="inlineStr"/>
-      <c r="BH94" s="23" t="inlineStr"/>
-      <c r="BI94" s="23" t="inlineStr"/>
-      <c r="BJ94" s="23" t="inlineStr"/>
-      <c r="BK94" s="23" t="inlineStr"/>
-      <c r="BL94" s="23" t="inlineStr"/>
-      <c r="BM94" s="23" t="inlineStr"/>
-      <c r="BN94" s="23" t="inlineStr"/>
-      <c r="BO94" s="23" t="inlineStr"/>
-      <c r="BP94" s="23" t="inlineStr"/>
-      <c r="BQ94" s="23" t="inlineStr"/>
-      <c r="BR94" s="23" t="inlineStr"/>
-      <c r="BS94" s="23" t="inlineStr"/>
-      <c r="BT94" s="23" t="inlineStr"/>
-      <c r="BU94" s="23" t="inlineStr"/>
-      <c r="BV94" s="24" t="inlineStr"/>
-      <c r="BW94" s="29" t="inlineStr"/>
-      <c r="BX94" s="29" t="inlineStr"/>
-      <c r="BY94" s="29" t="inlineStr"/>
-      <c r="BZ94" s="29" t="inlineStr"/>
-      <c r="CA94" s="25" t="inlineStr"/>
+      <c r="BE94" s="23" t="inlineStr"/>
+      <c r="BF94" s="24" t="inlineStr"/>
+      <c r="BG94" s="32" t="inlineStr"/>
+      <c r="BH94" s="32" t="inlineStr"/>
+      <c r="BI94" s="32" t="inlineStr"/>
+      <c r="BJ94" s="32" t="inlineStr"/>
+      <c r="BK94" s="32" t="inlineStr"/>
+      <c r="BL94" s="32" t="inlineStr"/>
+      <c r="BM94" s="32" t="inlineStr"/>
+      <c r="BN94" s="32" t="inlineStr"/>
+      <c r="BO94" s="32" t="inlineStr"/>
+      <c r="BP94" s="32" t="inlineStr"/>
+      <c r="BQ94" s="32" t="inlineStr"/>
+      <c r="BR94" s="32" t="inlineStr"/>
+      <c r="BS94" s="32" t="inlineStr"/>
+      <c r="BT94" s="32" t="inlineStr"/>
+      <c r="BU94" s="32" t="inlineStr"/>
+      <c r="BV94" s="32" t="inlineStr"/>
+      <c r="BW94" s="25" t="inlineStr"/>
+      <c r="BX94" s="33" t="inlineStr"/>
+      <c r="BY94" s="33" t="inlineStr"/>
+      <c r="BZ94" s="33" t="inlineStr"/>
+      <c r="CA94" s="33" t="inlineStr"/>
       <c r="CB94" s="26" t="inlineStr"/>
+      <c r="CC94" s="27" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9294,23 +9404,23 @@
       <c r="X95" s="20" t="inlineStr"/>
       <c r="Y95" s="21" t="inlineStr"/>
       <c r="Z95" s="21" t="inlineStr"/>
-      <c r="AA95" s="21" t="inlineStr"/>
-      <c r="AB95" s="21" t="inlineStr"/>
+      <c r="AA95" s="22" t="inlineStr"/>
+      <c r="AB95" s="22" t="inlineStr"/>
       <c r="AC95" s="21" t="inlineStr"/>
-      <c r="AD95" s="22" t="inlineStr"/>
-      <c r="AE95" s="23" t="inlineStr"/>
-      <c r="AF95" s="23" t="inlineStr"/>
-      <c r="AG95" s="23" t="inlineStr"/>
-      <c r="AH95" s="23" t="inlineStr"/>
-      <c r="AI95" s="24" t="inlineStr"/>
-      <c r="AJ95" s="25" t="inlineStr"/>
-      <c r="AK95" s="26" t="inlineStr"/>
-      <c r="AL95" s="27" t="inlineStr"/>
-      <c r="AM95" s="28" t="inlineStr"/>
-      <c r="AN95" s="16" t="inlineStr"/>
+      <c r="AD95" s="23" t="inlineStr"/>
+      <c r="AE95" s="24" t="inlineStr"/>
+      <c r="AF95" s="24" t="inlineStr"/>
+      <c r="AG95" s="24" t="inlineStr"/>
+      <c r="AH95" s="24" t="inlineStr"/>
+      <c r="AI95" s="25" t="inlineStr"/>
+      <c r="AJ95" s="26" t="inlineStr"/>
+      <c r="AK95" s="27" t="inlineStr"/>
+      <c r="AL95" s="28" t="inlineStr"/>
+      <c r="AM95" s="29" t="inlineStr"/>
+      <c r="AN95" s="30" t="inlineStr"/>
       <c r="AO95" s="17" t="inlineStr"/>
       <c r="AP95" s="17" t="inlineStr"/>
-      <c r="AQ95" s="17" t="inlineStr"/>
+      <c r="AQ95" s="31" t="inlineStr"/>
       <c r="AR95" s="18" t="inlineStr"/>
       <c r="AS95" s="19" t="inlineStr"/>
       <c r="AT95" s="19" t="inlineStr"/>
@@ -9324,30 +9434,31 @@
       <c r="BB95" s="20" t="inlineStr"/>
       <c r="BC95" s="21" t="inlineStr"/>
       <c r="BD95" s="21" t="inlineStr"/>
-      <c r="BE95" s="22" t="inlineStr"/>
-      <c r="BF95" s="23" t="inlineStr"/>
-      <c r="BG95" s="23" t="inlineStr"/>
-      <c r="BH95" s="23" t="inlineStr"/>
-      <c r="BI95" s="23" t="inlineStr"/>
-      <c r="BJ95" s="23" t="inlineStr"/>
-      <c r="BK95" s="23" t="inlineStr"/>
-      <c r="BL95" s="23" t="inlineStr"/>
-      <c r="BM95" s="23" t="inlineStr"/>
-      <c r="BN95" s="23" t="inlineStr"/>
-      <c r="BO95" s="23" t="inlineStr"/>
-      <c r="BP95" s="23" t="inlineStr"/>
-      <c r="BQ95" s="23" t="inlineStr"/>
-      <c r="BR95" s="23" t="inlineStr"/>
-      <c r="BS95" s="23" t="inlineStr"/>
-      <c r="BT95" s="23" t="inlineStr"/>
-      <c r="BU95" s="23" t="inlineStr"/>
-      <c r="BV95" s="24" t="inlineStr"/>
-      <c r="BW95" s="29" t="inlineStr"/>
-      <c r="BX95" s="29" t="inlineStr"/>
-      <c r="BY95" s="29" t="inlineStr"/>
-      <c r="BZ95" s="29" t="inlineStr"/>
-      <c r="CA95" s="25" t="inlineStr"/>
+      <c r="BE95" s="23" t="inlineStr"/>
+      <c r="BF95" s="24" t="inlineStr"/>
+      <c r="BG95" s="32" t="inlineStr"/>
+      <c r="BH95" s="32" t="inlineStr"/>
+      <c r="BI95" s="32" t="inlineStr"/>
+      <c r="BJ95" s="32" t="inlineStr"/>
+      <c r="BK95" s="32" t="inlineStr"/>
+      <c r="BL95" s="32" t="inlineStr"/>
+      <c r="BM95" s="32" t="inlineStr"/>
+      <c r="BN95" s="32" t="inlineStr"/>
+      <c r="BO95" s="32" t="inlineStr"/>
+      <c r="BP95" s="32" t="inlineStr"/>
+      <c r="BQ95" s="32" t="inlineStr"/>
+      <c r="BR95" s="32" t="inlineStr"/>
+      <c r="BS95" s="32" t="inlineStr"/>
+      <c r="BT95" s="32" t="inlineStr"/>
+      <c r="BU95" s="32" t="inlineStr"/>
+      <c r="BV95" s="32" t="inlineStr"/>
+      <c r="BW95" s="25" t="inlineStr"/>
+      <c r="BX95" s="33" t="inlineStr"/>
+      <c r="BY95" s="33" t="inlineStr"/>
+      <c r="BZ95" s="33" t="inlineStr"/>
+      <c r="CA95" s="33" t="inlineStr"/>
       <c r="CB95" s="26" t="inlineStr"/>
+      <c r="CC95" s="27" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9376,23 +9487,23 @@
       <c r="X96" s="20" t="inlineStr"/>
       <c r="Y96" s="21" t="inlineStr"/>
       <c r="Z96" s="21" t="inlineStr"/>
-      <c r="AA96" s="21" t="inlineStr"/>
-      <c r="AB96" s="21" t="inlineStr"/>
+      <c r="AA96" s="22" t="inlineStr"/>
+      <c r="AB96" s="22" t="inlineStr"/>
       <c r="AC96" s="21" t="inlineStr"/>
-      <c r="AD96" s="22" t="inlineStr"/>
-      <c r="AE96" s="23" t="inlineStr"/>
-      <c r="AF96" s="23" t="inlineStr"/>
-      <c r="AG96" s="23" t="inlineStr"/>
-      <c r="AH96" s="23" t="inlineStr"/>
-      <c r="AI96" s="24" t="inlineStr"/>
-      <c r="AJ96" s="25" t="inlineStr"/>
-      <c r="AK96" s="26" t="inlineStr"/>
-      <c r="AL96" s="27" t="inlineStr"/>
-      <c r="AM96" s="28" t="inlineStr"/>
-      <c r="AN96" s="16" t="inlineStr"/>
+      <c r="AD96" s="23" t="inlineStr"/>
+      <c r="AE96" s="24" t="inlineStr"/>
+      <c r="AF96" s="24" t="inlineStr"/>
+      <c r="AG96" s="24" t="inlineStr"/>
+      <c r="AH96" s="24" t="inlineStr"/>
+      <c r="AI96" s="25" t="inlineStr"/>
+      <c r="AJ96" s="26" t="inlineStr"/>
+      <c r="AK96" s="27" t="inlineStr"/>
+      <c r="AL96" s="28" t="inlineStr"/>
+      <c r="AM96" s="29" t="inlineStr"/>
+      <c r="AN96" s="30" t="inlineStr"/>
       <c r="AO96" s="17" t="inlineStr"/>
       <c r="AP96" s="17" t="inlineStr"/>
-      <c r="AQ96" s="17" t="inlineStr"/>
+      <c r="AQ96" s="31" t="inlineStr"/>
       <c r="AR96" s="18" t="inlineStr"/>
       <c r="AS96" s="19" t="inlineStr"/>
       <c r="AT96" s="19" t="inlineStr"/>
@@ -9406,30 +9517,31 @@
       <c r="BB96" s="20" t="inlineStr"/>
       <c r="BC96" s="21" t="inlineStr"/>
       <c r="BD96" s="21" t="inlineStr"/>
-      <c r="BE96" s="22" t="inlineStr"/>
-      <c r="BF96" s="23" t="inlineStr"/>
-      <c r="BG96" s="23" t="inlineStr"/>
-      <c r="BH96" s="23" t="inlineStr"/>
-      <c r="BI96" s="23" t="inlineStr"/>
-      <c r="BJ96" s="23" t="inlineStr"/>
-      <c r="BK96" s="23" t="inlineStr"/>
-      <c r="BL96" s="23" t="inlineStr"/>
-      <c r="BM96" s="23" t="inlineStr"/>
-      <c r="BN96" s="23" t="inlineStr"/>
-      <c r="BO96" s="23" t="inlineStr"/>
-      <c r="BP96" s="23" t="inlineStr"/>
-      <c r="BQ96" s="23" t="inlineStr"/>
-      <c r="BR96" s="23" t="inlineStr"/>
-      <c r="BS96" s="23" t="inlineStr"/>
-      <c r="BT96" s="23" t="inlineStr"/>
-      <c r="BU96" s="23" t="inlineStr"/>
-      <c r="BV96" s="24" t="inlineStr"/>
-      <c r="BW96" s="29" t="inlineStr"/>
-      <c r="BX96" s="29" t="inlineStr"/>
-      <c r="BY96" s="29" t="inlineStr"/>
-      <c r="BZ96" s="29" t="inlineStr"/>
-      <c r="CA96" s="25" t="inlineStr"/>
+      <c r="BE96" s="23" t="inlineStr"/>
+      <c r="BF96" s="24" t="inlineStr"/>
+      <c r="BG96" s="32" t="inlineStr"/>
+      <c r="BH96" s="32" t="inlineStr"/>
+      <c r="BI96" s="32" t="inlineStr"/>
+      <c r="BJ96" s="32" t="inlineStr"/>
+      <c r="BK96" s="32" t="inlineStr"/>
+      <c r="BL96" s="32" t="inlineStr"/>
+      <c r="BM96" s="32" t="inlineStr"/>
+      <c r="BN96" s="32" t="inlineStr"/>
+      <c r="BO96" s="32" t="inlineStr"/>
+      <c r="BP96" s="32" t="inlineStr"/>
+      <c r="BQ96" s="32" t="inlineStr"/>
+      <c r="BR96" s="32" t="inlineStr"/>
+      <c r="BS96" s="32" t="inlineStr"/>
+      <c r="BT96" s="32" t="inlineStr"/>
+      <c r="BU96" s="32" t="inlineStr"/>
+      <c r="BV96" s="32" t="inlineStr"/>
+      <c r="BW96" s="25" t="inlineStr"/>
+      <c r="BX96" s="33" t="inlineStr"/>
+      <c r="BY96" s="33" t="inlineStr"/>
+      <c r="BZ96" s="33" t="inlineStr"/>
+      <c r="CA96" s="33" t="inlineStr"/>
       <c r="CB96" s="26" t="inlineStr"/>
+      <c r="CC96" s="27" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9458,23 +9570,23 @@
       <c r="X97" s="20" t="inlineStr"/>
       <c r="Y97" s="21" t="inlineStr"/>
       <c r="Z97" s="21" t="inlineStr"/>
-      <c r="AA97" s="21" t="inlineStr"/>
-      <c r="AB97" s="21" t="inlineStr"/>
+      <c r="AA97" s="22" t="inlineStr"/>
+      <c r="AB97" s="22" t="inlineStr"/>
       <c r="AC97" s="21" t="inlineStr"/>
-      <c r="AD97" s="22" t="inlineStr"/>
-      <c r="AE97" s="23" t="inlineStr"/>
-      <c r="AF97" s="23" t="inlineStr"/>
-      <c r="AG97" s="23" t="inlineStr"/>
-      <c r="AH97" s="23" t="inlineStr"/>
-      <c r="AI97" s="24" t="inlineStr"/>
-      <c r="AJ97" s="25" t="inlineStr"/>
-      <c r="AK97" s="26" t="inlineStr"/>
-      <c r="AL97" s="27" t="inlineStr"/>
-      <c r="AM97" s="28" t="inlineStr"/>
-      <c r="AN97" s="16" t="inlineStr"/>
+      <c r="AD97" s="23" t="inlineStr"/>
+      <c r="AE97" s="24" t="inlineStr"/>
+      <c r="AF97" s="24" t="inlineStr"/>
+      <c r="AG97" s="24" t="inlineStr"/>
+      <c r="AH97" s="24" t="inlineStr"/>
+      <c r="AI97" s="25" t="inlineStr"/>
+      <c r="AJ97" s="26" t="inlineStr"/>
+      <c r="AK97" s="27" t="inlineStr"/>
+      <c r="AL97" s="28" t="inlineStr"/>
+      <c r="AM97" s="29" t="inlineStr"/>
+      <c r="AN97" s="30" t="inlineStr"/>
       <c r="AO97" s="17" t="inlineStr"/>
       <c r="AP97" s="17" t="inlineStr"/>
-      <c r="AQ97" s="17" t="inlineStr"/>
+      <c r="AQ97" s="31" t="inlineStr"/>
       <c r="AR97" s="18" t="inlineStr"/>
       <c r="AS97" s="19" t="inlineStr"/>
       <c r="AT97" s="19" t="inlineStr"/>
@@ -9488,30 +9600,31 @@
       <c r="BB97" s="20" t="inlineStr"/>
       <c r="BC97" s="21" t="inlineStr"/>
       <c r="BD97" s="21" t="inlineStr"/>
-      <c r="BE97" s="22" t="inlineStr"/>
-      <c r="BF97" s="23" t="inlineStr"/>
-      <c r="BG97" s="23" t="inlineStr"/>
-      <c r="BH97" s="23" t="inlineStr"/>
-      <c r="BI97" s="23" t="inlineStr"/>
-      <c r="BJ97" s="23" t="inlineStr"/>
-      <c r="BK97" s="23" t="inlineStr"/>
-      <c r="BL97" s="23" t="inlineStr"/>
-      <c r="BM97" s="23" t="inlineStr"/>
-      <c r="BN97" s="23" t="inlineStr"/>
-      <c r="BO97" s="23" t="inlineStr"/>
-      <c r="BP97" s="23" t="inlineStr"/>
-      <c r="BQ97" s="23" t="inlineStr"/>
-      <c r="BR97" s="23" t="inlineStr"/>
-      <c r="BS97" s="23" t="inlineStr"/>
-      <c r="BT97" s="23" t="inlineStr"/>
-      <c r="BU97" s="23" t="inlineStr"/>
-      <c r="BV97" s="24" t="inlineStr"/>
-      <c r="BW97" s="29" t="inlineStr"/>
-      <c r="BX97" s="29" t="inlineStr"/>
-      <c r="BY97" s="29" t="inlineStr"/>
-      <c r="BZ97" s="29" t="inlineStr"/>
-      <c r="CA97" s="25" t="inlineStr"/>
+      <c r="BE97" s="23" t="inlineStr"/>
+      <c r="BF97" s="24" t="inlineStr"/>
+      <c r="BG97" s="32" t="inlineStr"/>
+      <c r="BH97" s="32" t="inlineStr"/>
+      <c r="BI97" s="32" t="inlineStr"/>
+      <c r="BJ97" s="32" t="inlineStr"/>
+      <c r="BK97" s="32" t="inlineStr"/>
+      <c r="BL97" s="32" t="inlineStr"/>
+      <c r="BM97" s="32" t="inlineStr"/>
+      <c r="BN97" s="32" t="inlineStr"/>
+      <c r="BO97" s="32" t="inlineStr"/>
+      <c r="BP97" s="32" t="inlineStr"/>
+      <c r="BQ97" s="32" t="inlineStr"/>
+      <c r="BR97" s="32" t="inlineStr"/>
+      <c r="BS97" s="32" t="inlineStr"/>
+      <c r="BT97" s="32" t="inlineStr"/>
+      <c r="BU97" s="32" t="inlineStr"/>
+      <c r="BV97" s="32" t="inlineStr"/>
+      <c r="BW97" s="25" t="inlineStr"/>
+      <c r="BX97" s="33" t="inlineStr"/>
+      <c r="BY97" s="33" t="inlineStr"/>
+      <c r="BZ97" s="33" t="inlineStr"/>
+      <c r="CA97" s="33" t="inlineStr"/>
       <c r="CB97" s="26" t="inlineStr"/>
+      <c r="CC97" s="27" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9540,23 +9653,23 @@
       <c r="X98" s="20" t="inlineStr"/>
       <c r="Y98" s="21" t="inlineStr"/>
       <c r="Z98" s="21" t="inlineStr"/>
-      <c r="AA98" s="21" t="inlineStr"/>
-      <c r="AB98" s="21" t="inlineStr"/>
+      <c r="AA98" s="22" t="inlineStr"/>
+      <c r="AB98" s="22" t="inlineStr"/>
       <c r="AC98" s="21" t="inlineStr"/>
-      <c r="AD98" s="22" t="inlineStr"/>
-      <c r="AE98" s="23" t="inlineStr"/>
-      <c r="AF98" s="23" t="inlineStr"/>
-      <c r="AG98" s="23" t="inlineStr"/>
-      <c r="AH98" s="23" t="inlineStr"/>
-      <c r="AI98" s="24" t="inlineStr"/>
-      <c r="AJ98" s="25" t="inlineStr"/>
-      <c r="AK98" s="26" t="inlineStr"/>
-      <c r="AL98" s="27" t="inlineStr"/>
-      <c r="AM98" s="28" t="inlineStr"/>
-      <c r="AN98" s="16" t="inlineStr"/>
+      <c r="AD98" s="23" t="inlineStr"/>
+      <c r="AE98" s="24" t="inlineStr"/>
+      <c r="AF98" s="24" t="inlineStr"/>
+      <c r="AG98" s="24" t="inlineStr"/>
+      <c r="AH98" s="24" t="inlineStr"/>
+      <c r="AI98" s="25" t="inlineStr"/>
+      <c r="AJ98" s="26" t="inlineStr"/>
+      <c r="AK98" s="27" t="inlineStr"/>
+      <c r="AL98" s="28" t="inlineStr"/>
+      <c r="AM98" s="29" t="inlineStr"/>
+      <c r="AN98" s="30" t="inlineStr"/>
       <c r="AO98" s="17" t="inlineStr"/>
       <c r="AP98" s="17" t="inlineStr"/>
-      <c r="AQ98" s="17" t="inlineStr"/>
+      <c r="AQ98" s="31" t="inlineStr"/>
       <c r="AR98" s="18" t="inlineStr"/>
       <c r="AS98" s="19" t="inlineStr"/>
       <c r="AT98" s="19" t="inlineStr"/>
@@ -9570,30 +9683,31 @@
       <c r="BB98" s="20" t="inlineStr"/>
       <c r="BC98" s="21" t="inlineStr"/>
       <c r="BD98" s="21" t="inlineStr"/>
-      <c r="BE98" s="22" t="inlineStr"/>
-      <c r="BF98" s="23" t="inlineStr"/>
-      <c r="BG98" s="23" t="inlineStr"/>
-      <c r="BH98" s="23" t="inlineStr"/>
-      <c r="BI98" s="23" t="inlineStr"/>
-      <c r="BJ98" s="23" t="inlineStr"/>
-      <c r="BK98" s="23" t="inlineStr"/>
-      <c r="BL98" s="23" t="inlineStr"/>
-      <c r="BM98" s="23" t="inlineStr"/>
-      <c r="BN98" s="23" t="inlineStr"/>
-      <c r="BO98" s="23" t="inlineStr"/>
-      <c r="BP98" s="23" t="inlineStr"/>
-      <c r="BQ98" s="23" t="inlineStr"/>
-      <c r="BR98" s="23" t="inlineStr"/>
-      <c r="BS98" s="23" t="inlineStr"/>
-      <c r="BT98" s="23" t="inlineStr"/>
-      <c r="BU98" s="23" t="inlineStr"/>
-      <c r="BV98" s="24" t="inlineStr"/>
-      <c r="BW98" s="29" t="inlineStr"/>
-      <c r="BX98" s="29" t="inlineStr"/>
-      <c r="BY98" s="29" t="inlineStr"/>
-      <c r="BZ98" s="29" t="inlineStr"/>
-      <c r="CA98" s="25" t="inlineStr"/>
+      <c r="BE98" s="23" t="inlineStr"/>
+      <c r="BF98" s="24" t="inlineStr"/>
+      <c r="BG98" s="32" t="inlineStr"/>
+      <c r="BH98" s="32" t="inlineStr"/>
+      <c r="BI98" s="32" t="inlineStr"/>
+      <c r="BJ98" s="32" t="inlineStr"/>
+      <c r="BK98" s="32" t="inlineStr"/>
+      <c r="BL98" s="32" t="inlineStr"/>
+      <c r="BM98" s="32" t="inlineStr"/>
+      <c r="BN98" s="32" t="inlineStr"/>
+      <c r="BO98" s="32" t="inlineStr"/>
+      <c r="BP98" s="32" t="inlineStr"/>
+      <c r="BQ98" s="32" t="inlineStr"/>
+      <c r="BR98" s="32" t="inlineStr"/>
+      <c r="BS98" s="32" t="inlineStr"/>
+      <c r="BT98" s="32" t="inlineStr"/>
+      <c r="BU98" s="32" t="inlineStr"/>
+      <c r="BV98" s="32" t="inlineStr"/>
+      <c r="BW98" s="25" t="inlineStr"/>
+      <c r="BX98" s="33" t="inlineStr"/>
+      <c r="BY98" s="33" t="inlineStr"/>
+      <c r="BZ98" s="33" t="inlineStr"/>
+      <c r="CA98" s="33" t="inlineStr"/>
       <c r="CB98" s="26" t="inlineStr"/>
+      <c r="CC98" s="27" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -9622,23 +9736,23 @@
       <c r="X99" s="20" t="inlineStr"/>
       <c r="Y99" s="21" t="inlineStr"/>
       <c r="Z99" s="21" t="inlineStr"/>
-      <c r="AA99" s="21" t="inlineStr"/>
-      <c r="AB99" s="21" t="inlineStr"/>
+      <c r="AA99" s="22" t="inlineStr"/>
+      <c r="AB99" s="22" t="inlineStr"/>
       <c r="AC99" s="21" t="inlineStr"/>
-      <c r="AD99" s="22" t="inlineStr"/>
-      <c r="AE99" s="23" t="inlineStr"/>
-      <c r="AF99" s="23" t="inlineStr"/>
-      <c r="AG99" s="23" t="inlineStr"/>
-      <c r="AH99" s="23" t="inlineStr"/>
-      <c r="AI99" s="24" t="inlineStr"/>
-      <c r="AJ99" s="25" t="inlineStr"/>
-      <c r="AK99" s="26" t="inlineStr"/>
-      <c r="AL99" s="27" t="inlineStr"/>
-      <c r="AM99" s="28" t="inlineStr"/>
-      <c r="AN99" s="16" t="inlineStr"/>
+      <c r="AD99" s="23" t="inlineStr"/>
+      <c r="AE99" s="24" t="inlineStr"/>
+      <c r="AF99" s="24" t="inlineStr"/>
+      <c r="AG99" s="24" t="inlineStr"/>
+      <c r="AH99" s="24" t="inlineStr"/>
+      <c r="AI99" s="25" t="inlineStr"/>
+      <c r="AJ99" s="26" t="inlineStr"/>
+      <c r="AK99" s="27" t="inlineStr"/>
+      <c r="AL99" s="28" t="inlineStr"/>
+      <c r="AM99" s="29" t="inlineStr"/>
+      <c r="AN99" s="30" t="inlineStr"/>
       <c r="AO99" s="17" t="inlineStr"/>
       <c r="AP99" s="17" t="inlineStr"/>
-      <c r="AQ99" s="17" t="inlineStr"/>
+      <c r="AQ99" s="31" t="inlineStr"/>
       <c r="AR99" s="18" t="inlineStr"/>
       <c r="AS99" s="19" t="inlineStr"/>
       <c r="AT99" s="19" t="inlineStr"/>
@@ -9652,32 +9766,45 @@
       <c r="BB99" s="20" t="inlineStr"/>
       <c r="BC99" s="21" t="inlineStr"/>
       <c r="BD99" s="21" t="inlineStr"/>
-      <c r="BE99" s="22" t="inlineStr"/>
-      <c r="BF99" s="23" t="inlineStr"/>
-      <c r="BG99" s="23" t="inlineStr"/>
-      <c r="BH99" s="23" t="inlineStr"/>
-      <c r="BI99" s="23" t="inlineStr"/>
-      <c r="BJ99" s="23" t="inlineStr"/>
-      <c r="BK99" s="23" t="inlineStr"/>
-      <c r="BL99" s="23" t="inlineStr"/>
-      <c r="BM99" s="23" t="inlineStr"/>
-      <c r="BN99" s="23" t="inlineStr"/>
-      <c r="BO99" s="23" t="inlineStr"/>
-      <c r="BP99" s="23" t="inlineStr"/>
-      <c r="BQ99" s="23" t="inlineStr"/>
-      <c r="BR99" s="23" t="inlineStr"/>
-      <c r="BS99" s="23" t="inlineStr"/>
-      <c r="BT99" s="23" t="inlineStr"/>
-      <c r="BU99" s="23" t="inlineStr"/>
-      <c r="BV99" s="24" t="inlineStr"/>
-      <c r="BW99" s="29" t="inlineStr"/>
-      <c r="BX99" s="29" t="inlineStr"/>
-      <c r="BY99" s="29" t="inlineStr"/>
-      <c r="BZ99" s="29" t="inlineStr"/>
-      <c r="CA99" s="25" t="inlineStr"/>
+      <c r="BE99" s="23" t="inlineStr"/>
+      <c r="BF99" s="24" t="inlineStr"/>
+      <c r="BG99" s="32" t="inlineStr"/>
+      <c r="BH99" s="32" t="inlineStr"/>
+      <c r="BI99" s="32" t="inlineStr"/>
+      <c r="BJ99" s="32" t="inlineStr"/>
+      <c r="BK99" s="32" t="inlineStr"/>
+      <c r="BL99" s="32" t="inlineStr"/>
+      <c r="BM99" s="32" t="inlineStr"/>
+      <c r="BN99" s="32" t="inlineStr"/>
+      <c r="BO99" s="32" t="inlineStr"/>
+      <c r="BP99" s="32" t="inlineStr"/>
+      <c r="BQ99" s="32" t="inlineStr"/>
+      <c r="BR99" s="32" t="inlineStr"/>
+      <c r="BS99" s="32" t="inlineStr"/>
+      <c r="BT99" s="32" t="inlineStr"/>
+      <c r="BU99" s="32" t="inlineStr"/>
+      <c r="BV99" s="32" t="inlineStr"/>
+      <c r="BW99" s="25" t="inlineStr"/>
+      <c r="BX99" s="33" t="inlineStr"/>
+      <c r="BY99" s="33" t="inlineStr"/>
+      <c r="BZ99" s="33" t="inlineStr"/>
+      <c r="CA99" s="33" t="inlineStr"/>
       <c r="CB99" s="26" t="inlineStr"/>
+      <c r="CC99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="AA2:AA100 AB2:AB100 AN2:AN100 AQ2:AQ100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H100 AU2:AU100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;public restricted&quot; " type="list">
+      <formula1>"public,non-public,public restricted"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Z2:Z100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
+      <formula1>101</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>

--- a/dist/DIP_Excel_Template.xlsx
+++ b/dist/DIP_Excel_Template.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -247,573 +247,802 @@
 <file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <t>unique identifier:
-A unique identifier for the dataset
+Similar to a serial number associated with your laptop, the identifier is a unique and specific combination of characters that identify the resource. The combination must start with the DHS component code, is limited to 128 characters, and be in the following format: code-xxx-x
+Example:
+mgmt-test-2
+fema-1234-D
 &lt;dcterms:identifier&gt;</t>
       </text>
     </comment>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <t>title:
-The official title for the dataset
+The official name (title) given to the resource, limited to 255 characters. Acronyms should be used sparingly and only when explained in the description.
+Example:
+DHS Data Inventory Introduction
 &lt;dcterms:title&gt;</t>
       </text>
     </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <t>description:
-An account of the resource.
+A summary of the resource, limited to 4,000 characters.
+Example:
+A mission and overview of the Data Inventory Program (DIP) containing instructions, references, terminology, and explanations designed  for users to understand and be able to use the features it contains.
 &lt;dcterms:description&gt;</t>
       </text>
     </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <t>keyword:
-A keyword or tag describing a resource.
+A keyword or multiple (comma delimited) keywords describing the resource.
+Example:
+City of New York, Universities, Immigration
 &lt;dcat:keyword&gt;</t>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <t>publisher:
-An entity responsible for making the resource available.
+The entity responsible for making the resource available.
+Entity may include federal agency, sub- agency, state or local agencies, an organization, a network, a service, or a POC.
+Example:
+DHS/MGMT/OCHCO
 &lt;dcterms:publisher&gt;</t>
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <t>accessLevel:
-The degree to which this dataset could be made publicly-available, regardless of whether it has been made available. Choices: public (Data asset is or could be made publicly available to all without restrictions), restricted public (Data asset is available under certain use restrictions), or non-public (Data asset is not available to members of the public).
+The three levels that determine how publicly-available the resource is:
+Public: is/could be publicly-available without restrictions.
+Restricted Public: is available under certain restrictions.
+Non-Public: is not available to the public.
 &lt;usg:accessLevel&gt;</t>
       </text>
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
       <text>
-        <t>metadataClassification:
-The classification level of the metadata.
-&lt;dhs:metadataClassification&gt;</t>
+        <t>dataCatalogRecordAccessLevel:
+The classification of this Data Inventory Record as either Public or Non-Public.
+Can this record be published in data.gov?
+Yes = Public
+No = Non-Public
+&lt;dhs:dataCatalogRecordAccessLevel&gt;</t>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <t>issued:
-Date of formal issuance (e.g., publication) of the resource.
+The issued date of the dataset (if not published this may be the date the data was first made available internally).
+Records submitted via JSON must be in ISO 8601 format (YYYY-MM-DD). Records submitted via Excel must be in standard format (MM/DD/YYYY).
 &lt;dcterms:issued&gt;</t>
       </text>
     </comment>
     <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <t>component:
-Sub-department (e.g. bureau or component) of the data.
+The DHS Component (sub-agency) the data pertains too.
+MGMT
+CISA
+CBP
+FEMA
+S&amp;T
+TSA
+ICE
+USCIS
+FPS
+FLETC
+USSS
+USCG
 &lt;dhs:component&gt;</t>
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <t>creator:
-An entity primarily responsible for making the resource.
+Either a name or email (individual or group) of the individual responsible for creating the resource. Include the point of contact information with either a name or email (individual or group) when submitting via Excel or a full Vcard when submitting via JSON.
 &lt;dcterms:creator&gt;</t>
       </text>
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <t>governance:
-The organization responsible for governance or oversight of the dataset.
+Either a name or email (individual or group) of the individual responsible for overseeing the information contained in the resource. Include the point of contact information with  either a name or email (individual or group) when submitting via Excel or a full Vcard when submitting via JSON.
 &lt;dhs:governance&gt;</t>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <t>owner:
-The owner of the dataset. Data owners are senior officials or organizations that are responsible for the content and quality of the dataset.
+Either a name or email (individual or group) of the individual responsible for the accuracy of the information contained in the resource when submitting via Excel or a full Vcard when submitting via JSON.
 &lt;dhs:owner&gt;</t>
       </text>
     </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <t>steward:
-The steward of the dataset. Data stewards are responsible for ensuring that data are properly stored, maintained, accessible, and protected.
+Either a name or email (individual or group) of the administrator of the dataset who ensures the information is properly stored, maintained, accessible, and protected. If submitting via JSON, a full Vcard.
 &lt;dhs:steward&gt;</t>
       </text>
     </comment>
     <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <t>custodian:
-The custodian of the dataset. Data custodians are the individuals or organizations that have physical posession of the data.
+Either a name or email (individual or group) of the individual who has physical possession of the information. If submitting via JSON, a full Vcard.
 &lt;dhs:custodian&gt;</t>
       </text>
     </comment>
     <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <t>primaryITInvestmentUII:
-For linking a dataset with an IT Unique Investment Identifier (UII).
+Used for linking a dataset with an IT UII. A Unique Investment Identifier (UII) is an established and unique identifier of an investment, assigned at the Component level.
+Example: 010-999992220
+Non-Tech Example: The number/ identifier on the 'Property of...' sticker on your laptop.
 &lt;usg:primaryITInvestmentUII&gt;</t>
       </text>
     </comment>
     <comment ref="P1" authorId="0" shapeId="0">
       <text>
-        <t>references:
-A related resource that is referenced, cited, or otherwise pointed to by the described resource.
-&lt;dcterms:references&gt;</t>
+        <t>fismaID:
+The FISMA ID is a unique identifier that describes various key characteristics of a specific system.
+If the dataset is part of a system that has a FISMA ID then the FISMA ID should be provided.
+Example:
+FSA-00100-MAJ-00100
+- OR -
+TSA-02379-SUB-00465
+&lt;dhs:fismaID&gt;</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="0" shapeId="0">
       <text>
-        <t>sharingAgreements:
-Any sharing agreements for the dataset that should be documented.
-&lt;dhs:sharingAgreements&gt;</t>
+        <t>references:
+A related piece of information from another source (typically linked via URL) that provides additional related information about the resource.
+&lt;dcterms:references&gt;</t>
       </text>
     </comment>
     <comment ref="R1" authorId="0" shapeId="0">
       <text>
-        <t>contactPoint:
-Relevant contact information for the catalogued resource. Use of vCard is recommended.
-&lt;dcat:contactPoint&gt;</t>
+        <t>sharingAgreements:
+A contract that states what and how  information can be shared or utilized.
+Example:
+https://www.dhs.gov/sites/default/files/publications/privacy_crcl_guidance_ise_2009-01_0.pdf
+DHS
+https://catalog.data.gov/dataset/fingerprint
+&lt;dhs:sharingAgreements&gt;</t>
       </text>
     </comment>
     <comment ref="S1" authorId="0" shapeId="0">
       <text>
-        <t>collectionAuthority:
-The legal authority under which the data were collected.
-&lt;dhs:collectionAuthority&gt;</t>
+        <t>contactPoint:
+The contact information  (name and email preferred) of the main individual to contact with questions about the dataset.
+&lt;dcat:contactPoint&gt;</t>
       </text>
     </comment>
     <comment ref="T1" authorId="0" shapeId="0">
       <text>
-        <t>retentionAuthority:
-The legal authority under which the data are retained.
-&lt;dhs:retentionAuthority&gt;</t>
+        <t>collectionAuthority:
+The legislation or executive order under which the data was collected.
+The specific document or policy that grants you permission to collect specific data.
+Example:
+https://www.ecfr.gov/current/title-28/chapter-I/part-28/subpart-B/section-28.12
+&lt;dhs:collectionAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="U1" authorId="0" shapeId="0">
       <text>
-        <t>releaseAuthority:
-The legal authority under which the data may be released.
-&lt;dhs:releaseAuthority&gt;</t>
+        <t>retentionAuthority:
+The legislation or executive order under which the data was retained. The document will state who, how, and duration period of the information being retained.
+Example:
+https://www.govinfo.gov/content/pkg/CFR-2020-title21-vol5/xml/CFR-2020-title21-vol5-sec320-38.xml
+&lt;dhs:retentionAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="V1" authorId="0" shapeId="0">
       <text>
-        <t>recordsSchedule:
-The data records schedule.
-&lt;dhs:recordsSchedule&gt;</t>
+        <t>releaseAuthority:
+The document, legislation or executive order under which he data can be released.
+Examples:
+https://www.ecfr.gov/current/title-6/chapter-I/part-7/subpart-B/section-7.23
+https://irp.fas.org/dni/icd/icd-403.pdf
+&lt;dhs:releaseAuthority&gt;</t>
       </text>
     </comment>
     <comment ref="W1" authorId="0" shapeId="0">
       <text>
-        <t>systemOfRecords:
-The system of records notice (SORN) in which the dataset appears.
-&lt;usg:systemOfRecords&gt;</t>
+        <t>recordsSchedule:
+The policy indicating the time period in which the records are retained.
+Example:
+DAA-0563-2013-0005 (link below)
+&lt;dhs:recordsSchedule&gt;</t>
       </text>
     </comment>
     <comment ref="X1" authorId="0" shapeId="0">
       <text>
-        <t>conformsTo:
-An established standard to which the described resource conforms. Should use the Dublin Core Standard Class.
-&lt;dcterms:conformsTo&gt;</t>
+        <t>systemOfRecords:
+If the system is designated as a system of records under the Privacy Act of 1974, provide the URL to the System of Records Notice that relates to the dataset. The URL should be from FederalRegister.gov  or point to an entry from the Federal Register.
+&lt;usg:systemOfRecords&gt;</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="0" shapeId="0">
       <text>
-        <t>conformsFIPS:
-Any Federal Information Processing Standard (FIPS) that covers the data.
-&lt;dhs:conformsFIPS&gt;</t>
+        <t>conformsTo:
+A technical standard that the dataset conforms to.
+Example:
+WGS84 is standard for GPS. The Global Positioning System uses the World Geodetic System (WGS84) as its reference coordinate system.
+&lt;dcterms:conformsTo&gt;</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="0" shapeId="0">
       <text>
-        <t>conformsNIEMPercent:
-The percentage of the data schema that conforms to the National Information Exchnage Model (NIEM).
-&lt;dhs:conformsNIEMPercent&gt;</t>
+        <t>conformsFIPS:
+The Federal Inventory Processing Standard that the dataset conforms to, if any.
+Example:
+FIPS201-3
+https://csrc.nist.gov/publications/detail/fips/201/3/final
+&lt;dhs:conformsFIPS&gt;</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="0" shapeId="0">
       <text>
-        <t>conformsUnicode:
-Does the dataset contain unicode information?
-&lt;dhs:conformsUnicode&gt;</t>
+        <t>conformsNIEMPercent:
+The numerical percentage (0-100) of the dataset that is NIEM compliant.
+&lt;dhs:conformsNIEMPercent&gt;</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="0" shapeId="0">
       <text>
-        <t>identitiesNativeScript:
-Are names in the dataset represented in native script?
-&lt;dhs:identitiesNativeScript&gt;</t>
+        <t>conformsUnicode:
+True or False
+Is the information in the resource written in Unicode (does the code given to each character start with the letter 'u')?
+Information containing foreign languages/characters are typically written in Unicode format (U+XXX).
+&lt;dhs:conformsUnicode&gt;</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="0" shapeId="0">
       <text>
-        <t>transliterationStandard:
-The transliteration standard used for names in the dataset, if names are transliterated into English.
-&lt;dhs:transliterationStandard&gt;</t>
+        <t>identitiesNativeScript:
+True or False
+Are the names of individuals and other entities stored in a way (e.g. Roman characters) that can be shared across systems?
+&lt;dhs:identitiesNativeScript&gt;</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="0" shapeId="0">
       <text>
-        <t>sourceDatasets:
-The unique identifiers of the source datasets.
-&lt;dhs:sourceDatasets&gt;</t>
+        <t>transliterationStandard:
+The standard of converting  text  from one language to Roman characters.
+Example:
+https://www.iso.org/ics/01.140.10/x/
+&lt;dhs:transliterationStandard&gt;</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="0" shapeId="0">
       <text>
-        <t>destinationDatasets:
-The unique identifiers of the downstream datasets fed by this dataset.
-&lt;dhs:destinationDatasets&gt;</t>
+        <t>sourceDatasets:
+An identifier for the originating dataset (the DHS Unique Identifier if possible or DOI or URL for externally developed datasets).
+Example:
+Mobius - creates TRM Data which TRM team uses for various projects.
+&lt;dhs:sourceDatasets&gt;</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="0" shapeId="0">
       <text>
-        <t>describedBy:
-URL for the JSON Schema file that defines the schema used.
-&lt;usg:describedBy&gt;</t>
+        <t>destinationDatasets:
+The unique identifier of downstream datasets fed by this dataset.
+&lt;P&gt;Example:
+In this instance, Mobius would include the unique identifier for downstream datasets.
+&lt;dhs:destinationDatasets&gt;</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="0" shapeId="0">
       <text>
-        <t>describedByType:
-The machine-readable file format (IANA Media Type also known as MIME Type) of the dataset’s Data Dictionary (describedBy).
-&lt;usg:describedByType&gt;</t>
+        <t>describedBy:
+A URL link to the  dictionary that defines the fields or column heading of the information.
+&lt;usg:describedBy&gt;</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="0" shapeId="0">
       <text>
-        <t>isPartOf:
-A related resource in which the described resource is physically or logically included.
-&lt;dcterms:isPartOf&gt;</t>
+        <t>describedByType:
+The file format of the describedBy URL link. Should be a standard mime (IANA media)type.
+Examples:
+application/xml
+&lt;usg:describedByType&gt;</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="0" shapeId="0">
       <text>
-        <t>accrualPeriodicity:
-The frequency with which items are added to a collection.
-&lt;dcterms:accrualPeriodicity&gt;</t>
+        <t>isPartOf:
+The source in which a grouping of related resources are included in. This is typically the name of the system in which the dataset resides.
+Example:
+TRM isPartOf Mobius.
+&lt;dcterms:isPartOf&gt;</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
-        <t>spatial:
-Spatial characteristics of the resource.
-&lt;dcterms:spatial&gt;</t>
+        <t>accrualPeriodicity:
+The frequency with which resources or sets of information are added to the dataset. Recommend timeframes (or frequency) can be found in the Collection Description Accrual Policy Vocabulary. 
+&lt;dcterms:accrualPeriodicity&gt;</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="0" shapeId="0">
       <text>
-        <t>spatialResolutionInMeters:
-minimum spatial separation resolvable in a dataset, measured in meters.
-&lt;dcat:spatialResolutionInMeters&gt;</t>
+        <t>spatial:
+A named local or geographic area.
+Example:
+St. Elizabeth Campus, Dowtown DC, Arlington County, United States
+&lt;dcterms:spatial&gt;</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="0" shapeId="0">
       <text>
-        <t>temporal:
-Temporal characteristics of the resource.
-&lt;dcterms:temporal&gt;</t>
+        <t>spatialResolutionInMeters:
+How small of an area, in meters, you can make (or zoom into) an image that will still provide a quality resolution in order to identify the content in the image.
+Example:
+5x5 meters
+&lt;dcat:spatialResolutionInMeters&gt;</t>
       </text>
     </comment>
     <comment ref="AM1" authorId="0" shapeId="0">
       <text>
-        <t>temporalResolution:
-minimum time period resolvable in a dataset.
-&lt;dcat:temporalResolution&gt;</t>
+        <t>temporal:
+The period of time that the dataset covers.
+Example:
+December 2021
+2012-2018
+&lt;dcterms:temporal&gt;</t>
       </text>
     </comment>
     <comment ref="AN1" authorId="0" shapeId="0">
       <text>
-        <t>dataQualityKnown:
-If the data quality is known or not.
-&lt;dhs:dataQualityKnown&gt;</t>
+        <t>temporalResolution:
+The smallest amount of time between records in dataset.
+Example:
+P1Y
+P1M
+P7D
+&lt;dcat:temporalResolution&gt;</t>
       </text>
     </comment>
     <comment ref="AO1" authorId="0" shapeId="0">
       <text>
-        <t>dataQualityPercent:
-A simple measure of the data quality, on a scale from 0-100.
-&lt;dhs:dataQualityPercent&gt;</t>
+        <t>dataQualityKnown:
+True or False
+Is the quality of the information in the resource known?
+&lt;dhs:dataQualityKnown&gt;</t>
       </text>
     </comment>
     <comment ref="AP1" authorId="0" shapeId="0">
       <text>
-        <t>dataQualityAssessment:
-Narrative as to the overall data quality.
-&lt;dhs:dataQualityAssessment&gt;</t>
+        <t>dataQualityPercent:
+A simple measure of the data quality, on a scale of 0-100.
+&lt;dhs:dataQualityPercent&gt;</t>
       </text>
     </comment>
     <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
-        <t>dataQuality:
-Indicates whether a dataset conforms to the agency’s information quality guidelines (boolean).
-&lt;usg:dataQuality&gt;</t>
+        <t>dataQualityAssessment:
+A written account evaluating the quality of the information contained within the resource.
+Example:
+This dataset has some gaps in critical areas. Efforts are underway to remediate.
+&amp;nbsp;
+This dataset is based on information obtained in 2017. Efforts underway to obtain current data.
+&lt;dhs:dataQualityAssessment&gt;</t>
       </text>
     </comment>
     <comment ref="AR1" authorId="0" shapeId="0">
       <text>
-        <t>format:
-The file format, physical medium, or dimensions of the resource.
-&lt;dcterms:format&gt;</t>
+        <t>dataQuality:
+True or False
+Does the information contained in the resource meet the agency's Information Quality Guidelines?
+&lt;usg:dataQuality&gt;</t>
       </text>
     </comment>
     <comment ref="AS1" authorId="0" shapeId="0">
       <text>
-        <t>accessURL:
-A URL of a resource that gives access to a distribution of the dataset. E.g. landing page, feed, SPARQL endpoint. Use for all cases except a simple download link, in which case downloadURL is preferred.
-&lt;dcat:accessURL&gt;</t>
+        <t>format:
+The file format, physical medium, or dimension of the resource.
+Examples:
+File Format - CSV, HTML, JSON, MySQL
+Physical Medium - USB drives, CD
+Dimension - Size, Duration
+&lt;dcterms:format&gt;</t>
       </text>
     </comment>
     <comment ref="AT1" authorId="0" shapeId="0">
       <text>
-        <t>accessURLNIEM:
-The URL from which the NIEM representation can be accessed.
-&lt;dhs:accessURLNIEM&gt;</t>
+        <t>accessURL:
+The landing page (URL) that gives access to the resource.
+Must be a URL.
+https://ea.dhs.gov/mobius
+Example:
+The Netflix login page your required to complete in order to gain access to their content.
+&lt;dcat:accessURL&gt;</t>
       </text>
     </comment>
     <comment ref="AU1" authorId="0" shapeId="0">
       <text>
-        <t>modified:
-Most recent date on which the dataset was changed, updated or modified.
-&lt;usg:modified&gt;</t>
+        <t>accessURLNIEM:
+The landing page (URL) that provides you access to the NIEM interface.
+Must be a URL.
+&lt;dhs:accessURLNIEM&gt;</t>
       </text>
     </comment>
     <comment ref="AV1" authorId="0" shapeId="0">
       <text>
-        <t>vendor:
-Source of the dataset.
-&lt;dhs:vendor&gt;</t>
+        <t>modified:
+The most recent date on  which the information contained in the resource was changed, updated, or modified.
+&lt;usg:modified&gt;</t>
       </text>
     </comment>
     <comment ref="AW1" authorId="0" shapeId="0">
       <text>
-        <t>license:
-A legal document giving official permission to do something with the resource.
-&lt;dcterms:license&gt;</t>
+        <t>vendor:
+The vendor, supplier, or set of suppliers who supplied the information contained in the resource.
+Example:
+ECS
+ECS, GeoMgmt Inc.
+&lt;dhs:vendor&gt;</t>
       </text>
     </comment>
     <comment ref="AX1" authorId="0" shapeId="0">
       <text>
-        <t>accessRights:
-Information about who can access the resource or an indication of its security status.
-&lt;dcterms:accessRights&gt;</t>
+        <t>license:
+The legal structure that gives official permission to utilize or  distribute information contained in the resource.
+Example:
+MIT
+&lt;dcterms:license&gt;</t>
       </text>
     </comment>
     <comment ref="AY1" authorId="0" shapeId="0">
       <text>
-        <t>theme:
-A main category of the resource. A resource can have multiple themes.
-&lt;dcat:theme&gt;</t>
+        <t>accessRights:
+Provides information regarding access or restrictions to data based on privacy, security, or other policies
+Example:
+User must have PIV card and be granted permission by System Owner
+&lt;dcterms:accessRights&gt;</t>
       </text>
     </comment>
     <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
-        <t>functionalDataDomain:
-Functional data domain of the data.
-&lt;dhs:functionalDataDomain&gt;</t>
+        <t>theme:
+The main category of the information contained in the resource. A resource can have multiple themes.
+Theme is similar to a Keyword but at a much higher level.
+Example:
+Policy
+Data Mgmt.
+Data Inventory
+Data Governance
+&lt;dcat:theme&gt;</t>
       </text>
     </comment>
     <comment ref="BA1" authorId="0" shapeId="0">
       <text>
-        <t>mediaType:
-The media type of the distribution as defined by IANA
-&lt;dcat:mediaType&gt;</t>
+        <t>functionalDataDomain:
+The functional subject area of the resource.
+List:
+Biometrics
+CBRN
+Cybersecurity
+Emergency Mgmt. Geospatial
+Immigration
+Infra. Protection
+Intelligence
+International Trade
+Law Enforcement
+Maritime
+Mission Support &amp; Mgmt.
+Screening
+&lt;dhs:functionalDataDomain&gt;</t>
       </text>
     </comment>
     <comment ref="BB1" authorId="0" shapeId="0">
       <text>
-        <t>tableCount:
-Number of 2-dimensional tables in the data.
-&lt;dhs:tableCount&gt;</t>
+        <t>mediaType:
+The media type of the distribution as defined by IANA.
+Example:
+application/node
+audio/mp4
+font/otf
+image/png
+message/http
+model/obj
+text/csv
+&lt;dcat:mediaType&gt;</t>
       </text>
     </comment>
     <comment ref="BC1" authorId="0" shapeId="0">
       <text>
-        <t>recordCount:
-Total number of records in the data.
-&lt;dhs:recordCount&gt;</t>
+        <t>tableCount:
+The number of 2-dimensional tables in the data.
+&lt;dhs:tableCount&gt;</t>
       </text>
     </comment>
     <comment ref="BD1" authorId="0" shapeId="0">
       <text>
-        <t>byteSize:
-The size of a distribution in bytes.
-&lt;dcat:byteSize&gt;</t>
+        <t>recordCount:
+The total number of records in the data.
+&lt;dhs:recordCount&gt;</t>
       </text>
     </comment>
     <comment ref="BE1" authorId="0" shapeId="0">
       <text>
-        <t>datasetClassification:
-Security classificaiton of the data.
-&lt;dhs:datasetClassification&gt;</t>
+        <t>byteSize:
+The size of the distribution in bytes.
+The size in bytes can be approximated (as a integer) when the precise size is not known.
+&lt;dcat:byteSize&gt;</t>
       </text>
     </comment>
     <comment ref="BF1" authorId="0" shapeId="0">
       <text>
-        <t>characteristics:
-Specific container to hold various data characteristics.
-&lt;dhs:characteristics&gt;</t>
+        <t>datasetClassification:
+The security classification of the data.
+Example:
+CUI
+Confidential
+Secret
+Top Secret
+&lt;dhs:datasetClassification&gt;</t>
       </text>
     </comment>
     <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <t>ch-person-level:
-The dataset contains person-level records.
+True or False
+The information in the resource contains enough personal records or enough personal information in order to identify an individual.
 &lt;dhs:ch-person-level&gt;</t>
       </text>
     </comment>
     <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <t>ch-financial:
-The dataset contains financial information.
+True or False
+The information in the resource contains financial information.
+Example:
+Bank Statements
+Credit Reports
+W2
+Net Worth
+Bank Secrecy
 &lt;dhs:ch-financial&gt;</t>
       </text>
     </comment>
     <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <t>ch-event-records:
-The dataset contains information about events that are tagged with a specific place and time.
+True or False
+The information in the resource contains information about events which are tagged with a specific place and time.
 &lt;dhs:ch-event-records&gt;</t>
       </text>
     </comment>
     <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <t>ch-faces:
-The dataset contains human faces.
+True or False
+The information in the resource contains facial recognition data or images of human faces.
+Example:
+https://catalog.data.gov/dataset/global-entry-master-dataset
 &lt;dhs:ch-faces&gt;</t>
       </text>
     </comment>
     <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <t>ch-fingerprints:
-The dataset contains fingerprints.
+True or False
+The information in the resource contains fingerprint data or images of fingerprints.
+Example:
+https://catalog.data.gov/dataset/global-entry-master-dataset
 &lt;dhs:ch-fingerprints&gt;</t>
       </text>
     </comment>
     <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <t>ch-cui:
-The dataset contains controlled unclassified information.
+True or False
+The information in the resource contains Controlled Unclassified Information (CUI).
 &lt;dhs:ch-cui&gt;</t>
       </text>
     </comment>
     <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <t>ch-phi:
-The dataset contains protected health information.
+True or False
+The information in the resource contains Protected Health Information (PHI).
+Examples:
+Medical Records
+Diagnoses
+Medicul Results
 &lt;dhs:ch-phi&gt;</t>
       </text>
     </comment>
     <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <t>ch-pii:
-The dataset contains personally identifiable information under the controlling legal definition of PII.
+True or False
+The information in the resource contains Personally Identifiable Information (PII).
+Reference: &lt;a href='https://www.dhs.gov/sites/default/files/publications/dhs%20policy%20directive%20047-01-007%20handbook%20for%20safeguarding%20sensitive%20PII%2012-4-2017.pdf'&gt;https://www.dhs.gov/sites/default/files/publications/dhs%20policy%20directive%20047-01-007%20handbook%20for%20safeguarding%20sensitive%20PII%2012-4-2017.pdf&lt;/a&gt;
 &lt;dhs:ch-pii&gt;</t>
       </text>
     </comment>
     <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <t>ch-geospatial:
-The dataset contains geospatial information.
+True or False
+The information in the resource contains geospatial information.
+Example:
+https://catalog.data.gov/dataset/fema-historical-disaster-declarations-shp
+https://catalog.data.gov/dataset/formerly-used-defense-sites-fuds-public-properties
 &lt;dhs:ch-geospatial&gt;</t>
       </text>
     </comment>
     <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <t>ch-environmental:
-The dataset contains environmental information.
+True or False
+The information in the resource contains environmental information.
+Example:
+https://catalog.data.gov/dataset/environmental-planning-historic-preservation-2dedc
 &lt;dhs:ch-environmental&gt;</t>
       </text>
     </comment>
     <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <t>ch-fisa:
-The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
+True or False
+The information in the resource contains information pertaining to the Foreign Intelligence Surveillance Act (FISA).
 &lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
     <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <t>ch-8usc1367:
-The dataset contains 8 USC 1367.
+True or False
+The information in the resource contains  8 USC 1367.
+Reference: &lt;a href='https://www.dhs.gov/sites/default/files/publications/dhs_foia_instruction_section_1367_information.pdf'&gt;https://www.dhs.gov/sites/default/files/publications/dhs_foia_instruction_section_1367_information.pdf&lt;/a&gt;
 &lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
     <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <t>ch-propin:
-The dataset contains proprietary commercial information.
+True or False
+The information in the resource contains propriety commercial information.
+Example:
+https://catalog.data.gov/dataset/automated-commercial-environment-international-trade-data-system-master-dataset
 &lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
     <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <t>ch-immigration:
-The dataset contains information pertaining to immigration.
+True or False
+The information in the resource contains information pertaining to immigration.
+Example:
+Asylee
+Resident Status
+Visas
+Victims of Human Trafficking
+ https://catalog.data.gov/dataset/immigration-statistics-ef958
 &lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
     <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <t>ch-criticalInfrastructure:
-The dataset contains critical infrastructure information.
+True or False
+The information in the resource contains critical infrastructure information.
+Example:
+https://catalog.data.gov/dataset/emergency-medical-service-ems-stations
+https://catalog.data.gov/dataset/ilss-data
 &lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
     <comment ref="BV1" authorId="0" shapeId="0">
       <text>
-        <t>ch-disseminationRestrictions:
-The information has dissemination restrictions.
-&lt;dhs:ch-disseminationRestrictions&gt;</t>
+        <t>ch-pcii:
+True or False
+The information in the resource contains protected critical infrastructure information.
+&lt;dhs:ch-pcii&gt;</t>
       </text>
     </comment>
     <comment ref="BW1" authorId="0" shapeId="0">
       <text>
-        <t>hostingLocation:
-Where the data physically reside.
-&lt;dhs:hostingLocation&gt;</t>
+        <t>ch-biometrics:
+True or False
+The information in the resource contains biometric information.
+Example:
+https://catalog.data.gov/dataset/global-entry-master-dataset
+https://catalog.data.gov/dataset/arrival-departure-information-system-b3b75
+&lt;dhs:ch-biometrics&gt;</t>
       </text>
     </comment>
     <comment ref="BX1" authorId="0" shapeId="0">
       <text>
-        <t>hostedInCloud:
-If the dataset's location is in the cloud.
-&lt;dhs:hostedInCloud&gt;</t>
+        <t>ch-disseminationRestrictions:
+True or False
+The information  has dissemination restrictions.
+&lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
     <comment ref="BY1" authorId="0" shapeId="0">
       <text>
-        <t>easilyAccessibleByCreatingComponent:
-The information can be easily accessed by individuals within the component that created it.
-&lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
+        <t>hostingLocation:
+Where the data is located?
+Example:
+CIRRUS
+AWS GovCloud
+&lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
     <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
-        <t>easilyAccessibleByAllComponents:
-The information can be easily accessed by individuals within all department component.
-&lt;dhs:easilyAccessibleByAllComponents&gt;</t>
+        <t>hostedInCloud:
+True or False
+Is the dataset stored in the cloud?
+&lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
     <comment ref="CA1" authorId="0" shapeId="0">
       <text>
-        <t>easilyAccessibleByGeneralPublic:
-The information can be easily accessed by the general public.
-&lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
+        <t>easilyAccessibleByCreatingComponent:
+True or False
+The information can be easily accessed by individuals within the DHS component that created it?
+&lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
     <comment ref="CB1" authorId="0" shapeId="0">
       <text>
-        <t>recordTransmission:
-When the metadata record was transmitted.
-&lt;dhs:recordTransmission&gt;</t>
+        <t>easilyAccessibleByAllComponents:
+True or False
+The information can be easily accessed by individuals within all of DHS?
+&lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
     <comment ref="CC1" authorId="0" shapeId="0">
       <text>
+        <t>easilyAccessibleByGeneralPublic:
+True or False
+The information can be easily accessed by the general public?
+&lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
+      </text>
+    </comment>
+    <comment ref="CD1" authorId="0" shapeId="0">
+      <text>
+        <t>encryptionAlgorithm:
+The specific encryption algorithm used to protect data at rest.
+Can have multiple comma separated values.
+Example:
+3DES
+AES
+RSA
+&lt;usg:encryptionAlgorithm&gt;</t>
+      </text>
+    </comment>
+    <comment ref="CE1" authorId="0" shapeId="0">
+      <text>
+        <t>recordTransmission:
+The date of when the information was submitted into the system.
+&lt;dhs:recordTransmission&gt;</t>
+      </text>
+    </comment>
+    <comment ref="CF1" authorId="0" shapeId="0">
+      <text>
         <t>validityTime:
-When the metadata record is valid.
+The period of time the metadata record is valid for.
+Must be in xsd duration form.
+Example:
+P1Y=Period 1 Year
+P2M=Period 2 Months
+P3W=Period 3 Weeks
+P4D=Period 4 Days
+P1Y2M=Period 1 Year &amp; 2 Months
 &lt;dhs:validityTime&gt;</t>
       </text>
     </comment>
@@ -1121,7 +1350,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FY22 Data Inventory Collection Instrument</t>
+          <t>FY22 Data Inventory Collection Instrument - Version 1.5</t>
         </is>
       </c>
     </row>
@@ -1135,20 +1364,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>These instructions are stored in the file instructions.md.</t>
+          <t>Detailed instructions, including field definitions, can be found at: https://usdhs.github.io/dcat-tool/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>For an actual data inventory, you would use instructions that are not in this repo.</t>
+          <t>Data can be submitted via upload or API using the DHS Mobius platform.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1160,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC99"/>
+  <dimension ref="A1:CF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1476,9 @@
     <col width="15" customWidth="1" min="79" max="79"/>
     <col width="15" customWidth="1" min="80" max="80"/>
     <col width="15" customWidth="1" min="81" max="81"/>
+    <col width="15" customWidth="1" min="82" max="82"/>
+    <col width="15" customWidth="1" min="83" max="83"/>
+    <col width="15" customWidth="1" min="84" max="84"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1284,7 +1514,7 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>metadataClassification</t>
+          <t>dataCatalogRecordAccessLevel</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
@@ -1329,217 +1559,217 @@
       </c>
       <c r="P1" s="5" t="inlineStr">
         <is>
-          <t>references</t>
+          <t>fismaID</t>
         </is>
       </c>
       <c r="Q1" s="5" t="inlineStr">
         <is>
-          <t>sharingAgreements</t>
+          <t>references</t>
         </is>
       </c>
       <c r="R1" s="5" t="inlineStr">
         <is>
-          <t>contactPoint</t>
+          <t>sharingAgreements</t>
         </is>
       </c>
       <c r="S1" s="5" t="inlineStr">
         <is>
-          <t>collectionAuthority</t>
+          <t>contactPoint</t>
         </is>
       </c>
       <c r="T1" s="5" t="inlineStr">
         <is>
-          <t>retentionAuthority</t>
+          <t>collectionAuthority</t>
         </is>
       </c>
       <c r="U1" s="5" t="inlineStr">
         <is>
-          <t>releaseAuthority</t>
+          <t>retentionAuthority</t>
         </is>
       </c>
       <c r="V1" s="5" t="inlineStr">
         <is>
-          <t>recordsSchedule</t>
+          <t>releaseAuthority</t>
         </is>
       </c>
       <c r="W1" s="5" t="inlineStr">
         <is>
+          <t>recordsSchedule</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
           <t>systemOfRecords</t>
         </is>
       </c>
-      <c r="X1" s="6" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>conformsTo</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="inlineStr">
+      <c r="Z1" s="7" t="inlineStr">
         <is>
           <t>conformsFIPS</t>
         </is>
       </c>
-      <c r="Z1" s="7" t="inlineStr">
+      <c r="AA1" s="7" t="inlineStr">
         <is>
           <t>conformsNIEMPercent</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="inlineStr">
+      <c r="AB1" s="7" t="inlineStr">
         <is>
           <t>conformsUnicode</t>
         </is>
       </c>
-      <c r="AB1" s="7" t="inlineStr">
+      <c r="AC1" s="7" t="inlineStr">
         <is>
           <t>identitiesNativeScript</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="inlineStr">
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>transliterationStandard</t>
         </is>
       </c>
-      <c r="AD1" s="8" t="inlineStr">
+      <c r="AE1" s="8" t="inlineStr">
         <is>
           <t>sourceDatasets</t>
         </is>
       </c>
-      <c r="AE1" s="9" t="inlineStr">
+      <c r="AF1" s="9" t="inlineStr">
         <is>
           <t>destinationDatasets</t>
         </is>
       </c>
-      <c r="AF1" s="9" t="inlineStr">
+      <c r="AG1" s="9" t="inlineStr">
         <is>
           <t>describedBy</t>
         </is>
       </c>
-      <c r="AG1" s="9" t="inlineStr">
+      <c r="AH1" s="9" t="inlineStr">
         <is>
           <t>describedByType</t>
         </is>
       </c>
-      <c r="AH1" s="9" t="inlineStr">
+      <c r="AI1" s="9" t="inlineStr">
         <is>
           <t>isPartOf</t>
         </is>
       </c>
-      <c r="AI1" s="10" t="inlineStr">
+      <c r="AJ1" s="10" t="inlineStr">
         <is>
           <t>accrualPeriodicity</t>
         </is>
       </c>
-      <c r="AJ1" s="11" t="inlineStr">
+      <c r="AK1" s="11" t="inlineStr">
         <is>
           <t>spatial</t>
         </is>
       </c>
-      <c r="AK1" s="12" t="inlineStr">
+      <c r="AL1" s="12" t="inlineStr">
         <is>
           <t>spatialResolutionInMeters</t>
         </is>
       </c>
-      <c r="AL1" s="13" t="inlineStr">
+      <c r="AM1" s="13" t="inlineStr">
         <is>
           <t>temporal</t>
         </is>
       </c>
-      <c r="AM1" s="14" t="inlineStr">
+      <c r="AN1" s="14" t="inlineStr">
         <is>
           <t>temporalResolution</t>
         </is>
       </c>
-      <c r="AN1" s="2" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t>dataQualityKnown</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>dataQualityPercent</t>
         </is>
       </c>
-      <c r="AP1" s="3" t="inlineStr">
+      <c r="AQ1" s="3" t="inlineStr">
         <is>
           <t>dataQualityAssessment</t>
         </is>
       </c>
-      <c r="AQ1" s="3" t="inlineStr">
+      <c r="AR1" s="3" t="inlineStr">
         <is>
           <t>dataQuality</t>
         </is>
       </c>
-      <c r="AR1" s="4" t="inlineStr">
+      <c r="AS1" s="4" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="AS1" s="5" t="inlineStr">
+      <c r="AT1" s="5" t="inlineStr">
         <is>
           <t>accessURL</t>
         </is>
       </c>
-      <c r="AT1" s="5" t="inlineStr">
+      <c r="AU1" s="5" t="inlineStr">
         <is>
           <t>accessURLNIEM</t>
         </is>
       </c>
-      <c r="AU1" s="5" t="inlineStr">
+      <c r="AV1" s="5" t="inlineStr">
         <is>
           <t>modified</t>
         </is>
       </c>
-      <c r="AV1" s="5" t="inlineStr">
+      <c r="AW1" s="5" t="inlineStr">
         <is>
           <t>vendor</t>
         </is>
       </c>
-      <c r="AW1" s="5" t="inlineStr">
+      <c r="AX1" s="5" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="AX1" s="5" t="inlineStr">
+      <c r="AY1" s="5" t="inlineStr">
         <is>
           <t>accessRights</t>
         </is>
       </c>
-      <c r="AY1" s="5" t="inlineStr">
+      <c r="AZ1" s="5" t="inlineStr">
         <is>
           <t>theme</t>
         </is>
       </c>
-      <c r="AZ1" s="5" t="inlineStr">
+      <c r="BA1" s="5" t="inlineStr">
         <is>
           <t>functionalDataDomain</t>
         </is>
       </c>
-      <c r="BA1" s="5" t="inlineStr">
+      <c r="BB1" s="5" t="inlineStr">
         <is>
           <t>mediaType</t>
         </is>
       </c>
-      <c r="BB1" s="6" t="inlineStr">
+      <c r="BC1" s="6" t="inlineStr">
         <is>
           <t>tableCount</t>
         </is>
       </c>
-      <c r="BC1" s="7" t="inlineStr">
+      <c r="BD1" s="7" t="inlineStr">
         <is>
           <t>recordCount</t>
         </is>
       </c>
-      <c r="BD1" s="7" t="inlineStr">
+      <c r="BE1" s="7" t="inlineStr">
         <is>
           <t>byteSize</t>
         </is>
       </c>
-      <c r="BE1" s="8" t="inlineStr">
+      <c r="BF1" s="8" t="inlineStr">
         <is>
           <t>datasetClassification</t>
-        </is>
-      </c>
-      <c r="BF1" s="9" t="inlineStr">
-        <is>
-          <t>characteristics</t>
         </is>
       </c>
       <c r="BG1" s="9" t="inlineStr">
@@ -1619,40 +1849,55 @@
       </c>
       <c r="BV1" s="9" t="inlineStr">
         <is>
+          <t>ch-pcii</t>
+        </is>
+      </c>
+      <c r="BW1" s="9" t="inlineStr">
+        <is>
+          <t>ch-biometrics</t>
+        </is>
+      </c>
+      <c r="BX1" s="9" t="inlineStr">
+        <is>
           <t>ch-disseminationRestrictions</t>
         </is>
       </c>
-      <c r="BW1" s="10" t="inlineStr">
+      <c r="BY1" s="10" t="inlineStr">
         <is>
           <t>hostingLocation</t>
         </is>
       </c>
-      <c r="BX1" s="15" t="inlineStr">
+      <c r="BZ1" s="15" t="inlineStr">
         <is>
           <t>hostedInCloud</t>
         </is>
       </c>
-      <c r="BY1" s="15" t="inlineStr">
+      <c r="CA1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByCreatingComponent</t>
         </is>
       </c>
-      <c r="BZ1" s="15" t="inlineStr">
+      <c r="CB1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByAllComponents</t>
         </is>
       </c>
-      <c r="CA1" s="15" t="inlineStr">
+      <c r="CC1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByGeneralPublic</t>
         </is>
       </c>
-      <c r="CB1" s="11" t="inlineStr">
+      <c r="CD1" s="11" t="inlineStr">
+        <is>
+          <t>encryptionAlgorithm</t>
+        </is>
+      </c>
+      <c r="CE1" s="12" t="inlineStr">
         <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="CC1" s="12" t="inlineStr">
+      <c r="CF1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
         </is>
@@ -1682,28 +1927,28 @@
       <c r="U2" s="19" t="inlineStr"/>
       <c r="V2" s="19" t="inlineStr"/>
       <c r="W2" s="19" t="inlineStr"/>
-      <c r="X2" s="20" t="inlineStr"/>
-      <c r="Y2" s="21" t="inlineStr"/>
+      <c r="X2" s="19" t="inlineStr"/>
+      <c r="Y2" s="20" t="inlineStr"/>
       <c r="Z2" s="21" t="inlineStr"/>
-      <c r="AA2" s="22" t="inlineStr"/>
+      <c r="AA2" s="21" t="inlineStr"/>
       <c r="AB2" s="22" t="inlineStr"/>
-      <c r="AC2" s="21" t="inlineStr"/>
-      <c r="AD2" s="23" t="inlineStr"/>
-      <c r="AE2" s="24" t="inlineStr"/>
+      <c r="AC2" s="22" t="inlineStr"/>
+      <c r="AD2" s="21" t="inlineStr"/>
+      <c r="AE2" s="23" t="inlineStr"/>
       <c r="AF2" s="24" t="inlineStr"/>
       <c r="AG2" s="24" t="inlineStr"/>
       <c r="AH2" s="24" t="inlineStr"/>
-      <c r="AI2" s="25" t="inlineStr"/>
-      <c r="AJ2" s="26" t="inlineStr"/>
-      <c r="AK2" s="27" t="inlineStr"/>
-      <c r="AL2" s="28" t="inlineStr"/>
-      <c r="AM2" s="29" t="inlineStr"/>
-      <c r="AN2" s="30" t="inlineStr"/>
-      <c r="AO2" s="17" t="inlineStr"/>
+      <c r="AI2" s="24" t="inlineStr"/>
+      <c r="AJ2" s="25" t="inlineStr"/>
+      <c r="AK2" s="26" t="inlineStr"/>
+      <c r="AL2" s="27" t="inlineStr"/>
+      <c r="AM2" s="28" t="inlineStr"/>
+      <c r="AN2" s="29" t="inlineStr"/>
+      <c r="AO2" s="30" t="inlineStr"/>
       <c r="AP2" s="17" t="inlineStr"/>
-      <c r="AQ2" s="31" t="inlineStr"/>
-      <c r="AR2" s="18" t="inlineStr"/>
-      <c r="AS2" s="19" t="inlineStr"/>
+      <c r="AQ2" s="17" t="inlineStr"/>
+      <c r="AR2" s="31" t="inlineStr"/>
+      <c r="AS2" s="18" t="inlineStr"/>
       <c r="AT2" s="19" t="inlineStr"/>
       <c r="AU2" s="19" t="inlineStr"/>
       <c r="AV2" s="19" t="inlineStr"/>
@@ -1712,11 +1957,11 @@
       <c r="AY2" s="19" t="inlineStr"/>
       <c r="AZ2" s="19" t="inlineStr"/>
       <c r="BA2" s="19" t="inlineStr"/>
-      <c r="BB2" s="20" t="inlineStr"/>
-      <c r="BC2" s="21" t="inlineStr"/>
+      <c r="BB2" s="19" t="inlineStr"/>
+      <c r="BC2" s="20" t="inlineStr"/>
       <c r="BD2" s="21" t="inlineStr"/>
-      <c r="BE2" s="23" t="inlineStr"/>
-      <c r="BF2" s="24" t="inlineStr"/>
+      <c r="BE2" s="21" t="inlineStr"/>
+      <c r="BF2" s="23" t="inlineStr"/>
       <c r="BG2" s="32" t="inlineStr"/>
       <c r="BH2" s="32" t="inlineStr"/>
       <c r="BI2" s="32" t="inlineStr"/>
@@ -1733,13 +1978,16 @@
       <c r="BT2" s="32" t="inlineStr"/>
       <c r="BU2" s="32" t="inlineStr"/>
       <c r="BV2" s="32" t="inlineStr"/>
-      <c r="BW2" s="25" t="inlineStr"/>
-      <c r="BX2" s="33" t="inlineStr"/>
-      <c r="BY2" s="33" t="inlineStr"/>
+      <c r="BW2" s="32" t="inlineStr"/>
+      <c r="BX2" s="32" t="inlineStr"/>
+      <c r="BY2" s="25" t="inlineStr"/>
       <c r="BZ2" s="33" t="inlineStr"/>
       <c r="CA2" s="33" t="inlineStr"/>
-      <c r="CB2" s="26" t="inlineStr"/>
-      <c r="CC2" s="27" t="inlineStr"/>
+      <c r="CB2" s="33" t="inlineStr"/>
+      <c r="CC2" s="33" t="inlineStr"/>
+      <c r="CD2" s="26" t="inlineStr"/>
+      <c r="CE2" s="27" t="inlineStr"/>
+      <c r="CF2" s="27" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1765,28 +2013,28 @@
       <c r="U3" s="19" t="inlineStr"/>
       <c r="V3" s="19" t="inlineStr"/>
       <c r="W3" s="19" t="inlineStr"/>
-      <c r="X3" s="20" t="inlineStr"/>
-      <c r="Y3" s="21" t="inlineStr"/>
+      <c r="X3" s="19" t="inlineStr"/>
+      <c r="Y3" s="20" t="inlineStr"/>
       <c r="Z3" s="21" t="inlineStr"/>
-      <c r="AA3" s="22" t="inlineStr"/>
+      <c r="AA3" s="21" t="inlineStr"/>
       <c r="AB3" s="22" t="inlineStr"/>
-      <c r="AC3" s="21" t="inlineStr"/>
-      <c r="AD3" s="23" t="inlineStr"/>
-      <c r="AE3" s="24" t="inlineStr"/>
+      <c r="AC3" s="22" t="inlineStr"/>
+      <c r="AD3" s="21" t="inlineStr"/>
+      <c r="AE3" s="23" t="inlineStr"/>
       <c r="AF3" s="24" t="inlineStr"/>
       <c r="AG3" s="24" t="inlineStr"/>
       <c r="AH3" s="24" t="inlineStr"/>
-      <c r="AI3" s="25" t="inlineStr"/>
-      <c r="AJ3" s="26" t="inlineStr"/>
-      <c r="AK3" s="27" t="inlineStr"/>
-      <c r="AL3" s="28" t="inlineStr"/>
-      <c r="AM3" s="29" t="inlineStr"/>
-      <c r="AN3" s="30" t="inlineStr"/>
-      <c r="AO3" s="17" t="inlineStr"/>
+      <c r="AI3" s="24" t="inlineStr"/>
+      <c r="AJ3" s="25" t="inlineStr"/>
+      <c r="AK3" s="26" t="inlineStr"/>
+      <c r="AL3" s="27" t="inlineStr"/>
+      <c r="AM3" s="28" t="inlineStr"/>
+      <c r="AN3" s="29" t="inlineStr"/>
+      <c r="AO3" s="30" t="inlineStr"/>
       <c r="AP3" s="17" t="inlineStr"/>
-      <c r="AQ3" s="31" t="inlineStr"/>
-      <c r="AR3" s="18" t="inlineStr"/>
-      <c r="AS3" s="19" t="inlineStr"/>
+      <c r="AQ3" s="17" t="inlineStr"/>
+      <c r="AR3" s="31" t="inlineStr"/>
+      <c r="AS3" s="18" t="inlineStr"/>
       <c r="AT3" s="19" t="inlineStr"/>
       <c r="AU3" s="19" t="inlineStr"/>
       <c r="AV3" s="19" t="inlineStr"/>
@@ -1795,11 +2043,11 @@
       <c r="AY3" s="19" t="inlineStr"/>
       <c r="AZ3" s="19" t="inlineStr"/>
       <c r="BA3" s="19" t="inlineStr"/>
-      <c r="BB3" s="20" t="inlineStr"/>
-      <c r="BC3" s="21" t="inlineStr"/>
+      <c r="BB3" s="19" t="inlineStr"/>
+      <c r="BC3" s="20" t="inlineStr"/>
       <c r="BD3" s="21" t="inlineStr"/>
-      <c r="BE3" s="23" t="inlineStr"/>
-      <c r="BF3" s="24" t="inlineStr"/>
+      <c r="BE3" s="21" t="inlineStr"/>
+      <c r="BF3" s="23" t="inlineStr"/>
       <c r="BG3" s="32" t="inlineStr"/>
       <c r="BH3" s="32" t="inlineStr"/>
       <c r="BI3" s="32" t="inlineStr"/>
@@ -1816,13 +2064,16 @@
       <c r="BT3" s="32" t="inlineStr"/>
       <c r="BU3" s="32" t="inlineStr"/>
       <c r="BV3" s="32" t="inlineStr"/>
-      <c r="BW3" s="25" t="inlineStr"/>
-      <c r="BX3" s="33" t="inlineStr"/>
-      <c r="BY3" s="33" t="inlineStr"/>
+      <c r="BW3" s="32" t="inlineStr"/>
+      <c r="BX3" s="32" t="inlineStr"/>
+      <c r="BY3" s="25" t="inlineStr"/>
       <c r="BZ3" s="33" t="inlineStr"/>
       <c r="CA3" s="33" t="inlineStr"/>
-      <c r="CB3" s="26" t="inlineStr"/>
-      <c r="CC3" s="27" t="inlineStr"/>
+      <c r="CB3" s="33" t="inlineStr"/>
+      <c r="CC3" s="33" t="inlineStr"/>
+      <c r="CD3" s="26" t="inlineStr"/>
+      <c r="CE3" s="27" t="inlineStr"/>
+      <c r="CF3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1848,28 +2099,28 @@
       <c r="U4" s="19" t="inlineStr"/>
       <c r="V4" s="19" t="inlineStr"/>
       <c r="W4" s="19" t="inlineStr"/>
-      <c r="X4" s="20" t="inlineStr"/>
-      <c r="Y4" s="21" t="inlineStr"/>
+      <c r="X4" s="19" t="inlineStr"/>
+      <c r="Y4" s="20" t="inlineStr"/>
       <c r="Z4" s="21" t="inlineStr"/>
-      <c r="AA4" s="22" t="inlineStr"/>
+      <c r="AA4" s="21" t="inlineStr"/>
       <c r="AB4" s="22" t="inlineStr"/>
-      <c r="AC4" s="21" t="inlineStr"/>
-      <c r="AD4" s="23" t="inlineStr"/>
-      <c r="AE4" s="24" t="inlineStr"/>
+      <c r="AC4" s="22" t="inlineStr"/>
+      <c r="AD4" s="21" t="inlineStr"/>
+      <c r="AE4" s="23" t="inlineStr"/>
       <c r="AF4" s="24" t="inlineStr"/>
       <c r="AG4" s="24" t="inlineStr"/>
       <c r="AH4" s="24" t="inlineStr"/>
-      <c r="AI4" s="25" t="inlineStr"/>
-      <c r="AJ4" s="26" t="inlineStr"/>
-      <c r="AK4" s="27" t="inlineStr"/>
-      <c r="AL4" s="28" t="inlineStr"/>
-      <c r="AM4" s="29" t="inlineStr"/>
-      <c r="AN4" s="30" t="inlineStr"/>
-      <c r="AO4" s="17" t="inlineStr"/>
+      <c r="AI4" s="24" t="inlineStr"/>
+      <c r="AJ4" s="25" t="inlineStr"/>
+      <c r="AK4" s="26" t="inlineStr"/>
+      <c r="AL4" s="27" t="inlineStr"/>
+      <c r="AM4" s="28" t="inlineStr"/>
+      <c r="AN4" s="29" t="inlineStr"/>
+      <c r="AO4" s="30" t="inlineStr"/>
       <c r="AP4" s="17" t="inlineStr"/>
-      <c r="AQ4" s="31" t="inlineStr"/>
-      <c r="AR4" s="18" t="inlineStr"/>
-      <c r="AS4" s="19" t="inlineStr"/>
+      <c r="AQ4" s="17" t="inlineStr"/>
+      <c r="AR4" s="31" t="inlineStr"/>
+      <c r="AS4" s="18" t="inlineStr"/>
       <c r="AT4" s="19" t="inlineStr"/>
       <c r="AU4" s="19" t="inlineStr"/>
       <c r="AV4" s="19" t="inlineStr"/>
@@ -1878,11 +2129,11 @@
       <c r="AY4" s="19" t="inlineStr"/>
       <c r="AZ4" s="19" t="inlineStr"/>
       <c r="BA4" s="19" t="inlineStr"/>
-      <c r="BB4" s="20" t="inlineStr"/>
-      <c r="BC4" s="21" t="inlineStr"/>
+      <c r="BB4" s="19" t="inlineStr"/>
+      <c r="BC4" s="20" t="inlineStr"/>
       <c r="BD4" s="21" t="inlineStr"/>
-      <c r="BE4" s="23" t="inlineStr"/>
-      <c r="BF4" s="24" t="inlineStr"/>
+      <c r="BE4" s="21" t="inlineStr"/>
+      <c r="BF4" s="23" t="inlineStr"/>
       <c r="BG4" s="32" t="inlineStr"/>
       <c r="BH4" s="32" t="inlineStr"/>
       <c r="BI4" s="32" t="inlineStr"/>
@@ -1899,13 +2150,16 @@
       <c r="BT4" s="32" t="inlineStr"/>
       <c r="BU4" s="32" t="inlineStr"/>
       <c r="BV4" s="32" t="inlineStr"/>
-      <c r="BW4" s="25" t="inlineStr"/>
-      <c r="BX4" s="33" t="inlineStr"/>
-      <c r="BY4" s="33" t="inlineStr"/>
+      <c r="BW4" s="32" t="inlineStr"/>
+      <c r="BX4" s="32" t="inlineStr"/>
+      <c r="BY4" s="25" t="inlineStr"/>
       <c r="BZ4" s="33" t="inlineStr"/>
       <c r="CA4" s="33" t="inlineStr"/>
-      <c r="CB4" s="26" t="inlineStr"/>
-      <c r="CC4" s="27" t="inlineStr"/>
+      <c r="CB4" s="33" t="inlineStr"/>
+      <c r="CC4" s="33" t="inlineStr"/>
+      <c r="CD4" s="26" t="inlineStr"/>
+      <c r="CE4" s="27" t="inlineStr"/>
+      <c r="CF4" s="27" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -1931,28 +2185,28 @@
       <c r="U5" s="19" t="inlineStr"/>
       <c r="V5" s="19" t="inlineStr"/>
       <c r="W5" s="19" t="inlineStr"/>
-      <c r="X5" s="20" t="inlineStr"/>
-      <c r="Y5" s="21" t="inlineStr"/>
+      <c r="X5" s="19" t="inlineStr"/>
+      <c r="Y5" s="20" t="inlineStr"/>
       <c r="Z5" s="21" t="inlineStr"/>
-      <c r="AA5" s="22" t="inlineStr"/>
+      <c r="AA5" s="21" t="inlineStr"/>
       <c r="AB5" s="22" t="inlineStr"/>
-      <c r="AC5" s="21" t="inlineStr"/>
-      <c r="AD5" s="23" t="inlineStr"/>
-      <c r="AE5" s="24" t="inlineStr"/>
+      <c r="AC5" s="22" t="inlineStr"/>
+      <c r="AD5" s="21" t="inlineStr"/>
+      <c r="AE5" s="23" t="inlineStr"/>
       <c r="AF5" s="24" t="inlineStr"/>
       <c r="AG5" s="24" t="inlineStr"/>
       <c r="AH5" s="24" t="inlineStr"/>
-      <c r="AI5" s="25" t="inlineStr"/>
-      <c r="AJ5" s="26" t="inlineStr"/>
-      <c r="AK5" s="27" t="inlineStr"/>
-      <c r="AL5" s="28" t="inlineStr"/>
-      <c r="AM5" s="29" t="inlineStr"/>
-      <c r="AN5" s="30" t="inlineStr"/>
-      <c r="AO5" s="17" t="inlineStr"/>
+      <c r="AI5" s="24" t="inlineStr"/>
+      <c r="AJ5" s="25" t="inlineStr"/>
+      <c r="AK5" s="26" t="inlineStr"/>
+      <c r="AL5" s="27" t="inlineStr"/>
+      <c r="AM5" s="28" t="inlineStr"/>
+      <c r="AN5" s="29" t="inlineStr"/>
+      <c r="AO5" s="30" t="inlineStr"/>
       <c r="AP5" s="17" t="inlineStr"/>
-      <c r="AQ5" s="31" t="inlineStr"/>
-      <c r="AR5" s="18" t="inlineStr"/>
-      <c r="AS5" s="19" t="inlineStr"/>
+      <c r="AQ5" s="17" t="inlineStr"/>
+      <c r="AR5" s="31" t="inlineStr"/>
+      <c r="AS5" s="18" t="inlineStr"/>
       <c r="AT5" s="19" t="inlineStr"/>
       <c r="AU5" s="19" t="inlineStr"/>
       <c r="AV5" s="19" t="inlineStr"/>
@@ -1961,11 +2215,11 @@
       <c r="AY5" s="19" t="inlineStr"/>
       <c r="AZ5" s="19" t="inlineStr"/>
       <c r="BA5" s="19" t="inlineStr"/>
-      <c r="BB5" s="20" t="inlineStr"/>
-      <c r="BC5" s="21" t="inlineStr"/>
+      <c r="BB5" s="19" t="inlineStr"/>
+      <c r="BC5" s="20" t="inlineStr"/>
       <c r="BD5" s="21" t="inlineStr"/>
-      <c r="BE5" s="23" t="inlineStr"/>
-      <c r="BF5" s="24" t="inlineStr"/>
+      <c r="BE5" s="21" t="inlineStr"/>
+      <c r="BF5" s="23" t="inlineStr"/>
       <c r="BG5" s="32" t="inlineStr"/>
       <c r="BH5" s="32" t="inlineStr"/>
       <c r="BI5" s="32" t="inlineStr"/>
@@ -1982,13 +2236,16 @@
       <c r="BT5" s="32" t="inlineStr"/>
       <c r="BU5" s="32" t="inlineStr"/>
       <c r="BV5" s="32" t="inlineStr"/>
-      <c r="BW5" s="25" t="inlineStr"/>
-      <c r="BX5" s="33" t="inlineStr"/>
-      <c r="BY5" s="33" t="inlineStr"/>
+      <c r="BW5" s="32" t="inlineStr"/>
+      <c r="BX5" s="32" t="inlineStr"/>
+      <c r="BY5" s="25" t="inlineStr"/>
       <c r="BZ5" s="33" t="inlineStr"/>
       <c r="CA5" s="33" t="inlineStr"/>
-      <c r="CB5" s="26" t="inlineStr"/>
-      <c r="CC5" s="27" t="inlineStr"/>
+      <c r="CB5" s="33" t="inlineStr"/>
+      <c r="CC5" s="33" t="inlineStr"/>
+      <c r="CD5" s="26" t="inlineStr"/>
+      <c r="CE5" s="27" t="inlineStr"/>
+      <c r="CF5" s="27" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2014,28 +2271,28 @@
       <c r="U6" s="19" t="inlineStr"/>
       <c r="V6" s="19" t="inlineStr"/>
       <c r="W6" s="19" t="inlineStr"/>
-      <c r="X6" s="20" t="inlineStr"/>
-      <c r="Y6" s="21" t="inlineStr"/>
+      <c r="X6" s="19" t="inlineStr"/>
+      <c r="Y6" s="20" t="inlineStr"/>
       <c r="Z6" s="21" t="inlineStr"/>
-      <c r="AA6" s="22" t="inlineStr"/>
+      <c r="AA6" s="21" t="inlineStr"/>
       <c r="AB6" s="22" t="inlineStr"/>
-      <c r="AC6" s="21" t="inlineStr"/>
-      <c r="AD6" s="23" t="inlineStr"/>
-      <c r="AE6" s="24" t="inlineStr"/>
+      <c r="AC6" s="22" t="inlineStr"/>
+      <c r="AD6" s="21" t="inlineStr"/>
+      <c r="AE6" s="23" t="inlineStr"/>
       <c r="AF6" s="24" t="inlineStr"/>
       <c r="AG6" s="24" t="inlineStr"/>
       <c r="AH6" s="24" t="inlineStr"/>
-      <c r="AI6" s="25" t="inlineStr"/>
-      <c r="AJ6" s="26" t="inlineStr"/>
-      <c r="AK6" s="27" t="inlineStr"/>
-      <c r="AL6" s="28" t="inlineStr"/>
-      <c r="AM6" s="29" t="inlineStr"/>
-      <c r="AN6" s="30" t="inlineStr"/>
-      <c r="AO6" s="17" t="inlineStr"/>
+      <c r="AI6" s="24" t="inlineStr"/>
+      <c r="AJ6" s="25" t="inlineStr"/>
+      <c r="AK6" s="26" t="inlineStr"/>
+      <c r="AL6" s="27" t="inlineStr"/>
+      <c r="AM6" s="28" t="inlineStr"/>
+      <c r="AN6" s="29" t="inlineStr"/>
+      <c r="AO6" s="30" t="inlineStr"/>
       <c r="AP6" s="17" t="inlineStr"/>
-      <c r="AQ6" s="31" t="inlineStr"/>
-      <c r="AR6" s="18" t="inlineStr"/>
-      <c r="AS6" s="19" t="inlineStr"/>
+      <c r="AQ6" s="17" t="inlineStr"/>
+      <c r="AR6" s="31" t="inlineStr"/>
+      <c r="AS6" s="18" t="inlineStr"/>
       <c r="AT6" s="19" t="inlineStr"/>
       <c r="AU6" s="19" t="inlineStr"/>
       <c r="AV6" s="19" t="inlineStr"/>
@@ -2044,11 +2301,11 @@
       <c r="AY6" s="19" t="inlineStr"/>
       <c r="AZ6" s="19" t="inlineStr"/>
       <c r="BA6" s="19" t="inlineStr"/>
-      <c r="BB6" s="20" t="inlineStr"/>
-      <c r="BC6" s="21" t="inlineStr"/>
+      <c r="BB6" s="19" t="inlineStr"/>
+      <c r="BC6" s="20" t="inlineStr"/>
       <c r="BD6" s="21" t="inlineStr"/>
-      <c r="BE6" s="23" t="inlineStr"/>
-      <c r="BF6" s="24" t="inlineStr"/>
+      <c r="BE6" s="21" t="inlineStr"/>
+      <c r="BF6" s="23" t="inlineStr"/>
       <c r="BG6" s="32" t="inlineStr"/>
       <c r="BH6" s="32" t="inlineStr"/>
       <c r="BI6" s="32" t="inlineStr"/>
@@ -2065,13 +2322,16 @@
       <c r="BT6" s="32" t="inlineStr"/>
       <c r="BU6" s="32" t="inlineStr"/>
       <c r="BV6" s="32" t="inlineStr"/>
-      <c r="BW6" s="25" t="inlineStr"/>
-      <c r="BX6" s="33" t="inlineStr"/>
-      <c r="BY6" s="33" t="inlineStr"/>
+      <c r="BW6" s="32" t="inlineStr"/>
+      <c r="BX6" s="32" t="inlineStr"/>
+      <c r="BY6" s="25" t="inlineStr"/>
       <c r="BZ6" s="33" t="inlineStr"/>
       <c r="CA6" s="33" t="inlineStr"/>
-      <c r="CB6" s="26" t="inlineStr"/>
-      <c r="CC6" s="27" t="inlineStr"/>
+      <c r="CB6" s="33" t="inlineStr"/>
+      <c r="CC6" s="33" t="inlineStr"/>
+      <c r="CD6" s="26" t="inlineStr"/>
+      <c r="CE6" s="27" t="inlineStr"/>
+      <c r="CF6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2097,28 +2357,28 @@
       <c r="U7" s="19" t="inlineStr"/>
       <c r="V7" s="19" t="inlineStr"/>
       <c r="W7" s="19" t="inlineStr"/>
-      <c r="X7" s="20" t="inlineStr"/>
-      <c r="Y7" s="21" t="inlineStr"/>
+      <c r="X7" s="19" t="inlineStr"/>
+      <c r="Y7" s="20" t="inlineStr"/>
       <c r="Z7" s="21" t="inlineStr"/>
-      <c r="AA7" s="22" t="inlineStr"/>
+      <c r="AA7" s="21" t="inlineStr"/>
       <c r="AB7" s="22" t="inlineStr"/>
-      <c r="AC7" s="21" t="inlineStr"/>
-      <c r="AD7" s="23" t="inlineStr"/>
-      <c r="AE7" s="24" t="inlineStr"/>
+      <c r="AC7" s="22" t="inlineStr"/>
+      <c r="AD7" s="21" t="inlineStr"/>
+      <c r="AE7" s="23" t="inlineStr"/>
       <c r="AF7" s="24" t="inlineStr"/>
       <c r="AG7" s="24" t="inlineStr"/>
       <c r="AH7" s="24" t="inlineStr"/>
-      <c r="AI7" s="25" t="inlineStr"/>
-      <c r="AJ7" s="26" t="inlineStr"/>
-      <c r="AK7" s="27" t="inlineStr"/>
-      <c r="AL7" s="28" t="inlineStr"/>
-      <c r="AM7" s="29" t="inlineStr"/>
-      <c r="AN7" s="30" t="inlineStr"/>
-      <c r="AO7" s="17" t="inlineStr"/>
+      <c r="AI7" s="24" t="inlineStr"/>
+      <c r="AJ7" s="25" t="inlineStr"/>
+      <c r="AK7" s="26" t="inlineStr"/>
+      <c r="AL7" s="27" t="inlineStr"/>
+      <c r="AM7" s="28" t="inlineStr"/>
+      <c r="AN7" s="29" t="inlineStr"/>
+      <c r="AO7" s="30" t="inlineStr"/>
       <c r="AP7" s="17" t="inlineStr"/>
-      <c r="AQ7" s="31" t="inlineStr"/>
-      <c r="AR7" s="18" t="inlineStr"/>
-      <c r="AS7" s="19" t="inlineStr"/>
+      <c r="AQ7" s="17" t="inlineStr"/>
+      <c r="AR7" s="31" t="inlineStr"/>
+      <c r="AS7" s="18" t="inlineStr"/>
       <c r="AT7" s="19" t="inlineStr"/>
       <c r="AU7" s="19" t="inlineStr"/>
       <c r="AV7" s="19" t="inlineStr"/>
@@ -2127,11 +2387,11 @@
       <c r="AY7" s="19" t="inlineStr"/>
       <c r="AZ7" s="19" t="inlineStr"/>
       <c r="BA7" s="19" t="inlineStr"/>
-      <c r="BB7" s="20" t="inlineStr"/>
-      <c r="BC7" s="21" t="inlineStr"/>
+      <c r="BB7" s="19" t="inlineStr"/>
+      <c r="BC7" s="20" t="inlineStr"/>
       <c r="BD7" s="21" t="inlineStr"/>
-      <c r="BE7" s="23" t="inlineStr"/>
-      <c r="BF7" s="24" t="inlineStr"/>
+      <c r="BE7" s="21" t="inlineStr"/>
+      <c r="BF7" s="23" t="inlineStr"/>
       <c r="BG7" s="32" t="inlineStr"/>
       <c r="BH7" s="32" t="inlineStr"/>
       <c r="BI7" s="32" t="inlineStr"/>
@@ -2148,13 +2408,16 @@
       <c r="BT7" s="32" t="inlineStr"/>
       <c r="BU7" s="32" t="inlineStr"/>
       <c r="BV7" s="32" t="inlineStr"/>
-      <c r="BW7" s="25" t="inlineStr"/>
-      <c r="BX7" s="33" t="inlineStr"/>
-      <c r="BY7" s="33" t="inlineStr"/>
+      <c r="BW7" s="32" t="inlineStr"/>
+      <c r="BX7" s="32" t="inlineStr"/>
+      <c r="BY7" s="25" t="inlineStr"/>
       <c r="BZ7" s="33" t="inlineStr"/>
       <c r="CA7" s="33" t="inlineStr"/>
-      <c r="CB7" s="26" t="inlineStr"/>
-      <c r="CC7" s="27" t="inlineStr"/>
+      <c r="CB7" s="33" t="inlineStr"/>
+      <c r="CC7" s="33" t="inlineStr"/>
+      <c r="CD7" s="26" t="inlineStr"/>
+      <c r="CE7" s="27" t="inlineStr"/>
+      <c r="CF7" s="27" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2180,28 +2443,28 @@
       <c r="U8" s="19" t="inlineStr"/>
       <c r="V8" s="19" t="inlineStr"/>
       <c r="W8" s="19" t="inlineStr"/>
-      <c r="X8" s="20" t="inlineStr"/>
-      <c r="Y8" s="21" t="inlineStr"/>
+      <c r="X8" s="19" t="inlineStr"/>
+      <c r="Y8" s="20" t="inlineStr"/>
       <c r="Z8" s="21" t="inlineStr"/>
-      <c r="AA8" s="22" t="inlineStr"/>
+      <c r="AA8" s="21" t="inlineStr"/>
       <c r="AB8" s="22" t="inlineStr"/>
-      <c r="AC8" s="21" t="inlineStr"/>
-      <c r="AD8" s="23" t="inlineStr"/>
-      <c r="AE8" s="24" t="inlineStr"/>
+      <c r="AC8" s="22" t="inlineStr"/>
+      <c r="AD8" s="21" t="inlineStr"/>
+      <c r="AE8" s="23" t="inlineStr"/>
       <c r="AF8" s="24" t="inlineStr"/>
       <c r="AG8" s="24" t="inlineStr"/>
       <c r="AH8" s="24" t="inlineStr"/>
-      <c r="AI8" s="25" t="inlineStr"/>
-      <c r="AJ8" s="26" t="inlineStr"/>
-      <c r="AK8" s="27" t="inlineStr"/>
-      <c r="AL8" s="28" t="inlineStr"/>
-      <c r="AM8" s="29" t="inlineStr"/>
-      <c r="AN8" s="30" t="inlineStr"/>
-      <c r="AO8" s="17" t="inlineStr"/>
+      <c r="AI8" s="24" t="inlineStr"/>
+      <c r="AJ8" s="25" t="inlineStr"/>
+      <c r="AK8" s="26" t="inlineStr"/>
+      <c r="AL8" s="27" t="inlineStr"/>
+      <c r="AM8" s="28" t="inlineStr"/>
+      <c r="AN8" s="29" t="inlineStr"/>
+      <c r="AO8" s="30" t="inlineStr"/>
       <c r="AP8" s="17" t="inlineStr"/>
-      <c r="AQ8" s="31" t="inlineStr"/>
-      <c r="AR8" s="18" t="inlineStr"/>
-      <c r="AS8" s="19" t="inlineStr"/>
+      <c r="AQ8" s="17" t="inlineStr"/>
+      <c r="AR8" s="31" t="inlineStr"/>
+      <c r="AS8" s="18" t="inlineStr"/>
       <c r="AT8" s="19" t="inlineStr"/>
       <c r="AU8" s="19" t="inlineStr"/>
       <c r="AV8" s="19" t="inlineStr"/>
@@ -2210,11 +2473,11 @@
       <c r="AY8" s="19" t="inlineStr"/>
       <c r="AZ8" s="19" t="inlineStr"/>
       <c r="BA8" s="19" t="inlineStr"/>
-      <c r="BB8" s="20" t="inlineStr"/>
-      <c r="BC8" s="21" t="inlineStr"/>
+      <c r="BB8" s="19" t="inlineStr"/>
+      <c r="BC8" s="20" t="inlineStr"/>
       <c r="BD8" s="21" t="inlineStr"/>
-      <c r="BE8" s="23" t="inlineStr"/>
-      <c r="BF8" s="24" t="inlineStr"/>
+      <c r="BE8" s="21" t="inlineStr"/>
+      <c r="BF8" s="23" t="inlineStr"/>
       <c r="BG8" s="32" t="inlineStr"/>
       <c r="BH8" s="32" t="inlineStr"/>
       <c r="BI8" s="32" t="inlineStr"/>
@@ -2231,13 +2494,16 @@
       <c r="BT8" s="32" t="inlineStr"/>
       <c r="BU8" s="32" t="inlineStr"/>
       <c r="BV8" s="32" t="inlineStr"/>
-      <c r="BW8" s="25" t="inlineStr"/>
-      <c r="BX8" s="33" t="inlineStr"/>
-      <c r="BY8" s="33" t="inlineStr"/>
+      <c r="BW8" s="32" t="inlineStr"/>
+      <c r="BX8" s="32" t="inlineStr"/>
+      <c r="BY8" s="25" t="inlineStr"/>
       <c r="BZ8" s="33" t="inlineStr"/>
       <c r="CA8" s="33" t="inlineStr"/>
-      <c r="CB8" s="26" t="inlineStr"/>
-      <c r="CC8" s="27" t="inlineStr"/>
+      <c r="CB8" s="33" t="inlineStr"/>
+      <c r="CC8" s="33" t="inlineStr"/>
+      <c r="CD8" s="26" t="inlineStr"/>
+      <c r="CE8" s="27" t="inlineStr"/>
+      <c r="CF8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2263,28 +2529,28 @@
       <c r="U9" s="19" t="inlineStr"/>
       <c r="V9" s="19" t="inlineStr"/>
       <c r="W9" s="19" t="inlineStr"/>
-      <c r="X9" s="20" t="inlineStr"/>
-      <c r="Y9" s="21" t="inlineStr"/>
+      <c r="X9" s="19" t="inlineStr"/>
+      <c r="Y9" s="20" t="inlineStr"/>
       <c r="Z9" s="21" t="inlineStr"/>
-      <c r="AA9" s="22" t="inlineStr"/>
+      <c r="AA9" s="21" t="inlineStr"/>
       <c r="AB9" s="22" t="inlineStr"/>
-      <c r="AC9" s="21" t="inlineStr"/>
-      <c r="AD9" s="23" t="inlineStr"/>
-      <c r="AE9" s="24" t="inlineStr"/>
+      <c r="AC9" s="22" t="inlineStr"/>
+      <c r="AD9" s="21" t="inlineStr"/>
+      <c r="AE9" s="23" t="inlineStr"/>
       <c r="AF9" s="24" t="inlineStr"/>
       <c r="AG9" s="24" t="inlineStr"/>
       <c r="AH9" s="24" t="inlineStr"/>
-      <c r="AI9" s="25" t="inlineStr"/>
-      <c r="AJ9" s="26" t="inlineStr"/>
-      <c r="AK9" s="27" t="inlineStr"/>
-      <c r="AL9" s="28" t="inlineStr"/>
-      <c r="AM9" s="29" t="inlineStr"/>
-      <c r="AN9" s="30" t="inlineStr"/>
-      <c r="AO9" s="17" t="inlineStr"/>
+      <c r="AI9" s="24" t="inlineStr"/>
+      <c r="AJ9" s="25" t="inlineStr"/>
+      <c r="AK9" s="26" t="inlineStr"/>
+      <c r="AL9" s="27" t="inlineStr"/>
+      <c r="AM9" s="28" t="inlineStr"/>
+      <c r="AN9" s="29" t="inlineStr"/>
+      <c r="AO9" s="30" t="inlineStr"/>
       <c r="AP9" s="17" t="inlineStr"/>
-      <c r="AQ9" s="31" t="inlineStr"/>
-      <c r="AR9" s="18" t="inlineStr"/>
-      <c r="AS9" s="19" t="inlineStr"/>
+      <c r="AQ9" s="17" t="inlineStr"/>
+      <c r="AR9" s="31" t="inlineStr"/>
+      <c r="AS9" s="18" t="inlineStr"/>
       <c r="AT9" s="19" t="inlineStr"/>
       <c r="AU9" s="19" t="inlineStr"/>
       <c r="AV9" s="19" t="inlineStr"/>
@@ -2293,11 +2559,11 @@
       <c r="AY9" s="19" t="inlineStr"/>
       <c r="AZ9" s="19" t="inlineStr"/>
       <c r="BA9" s="19" t="inlineStr"/>
-      <c r="BB9" s="20" t="inlineStr"/>
-      <c r="BC9" s="21" t="inlineStr"/>
+      <c r="BB9" s="19" t="inlineStr"/>
+      <c r="BC9" s="20" t="inlineStr"/>
       <c r="BD9" s="21" t="inlineStr"/>
-      <c r="BE9" s="23" t="inlineStr"/>
-      <c r="BF9" s="24" t="inlineStr"/>
+      <c r="BE9" s="21" t="inlineStr"/>
+      <c r="BF9" s="23" t="inlineStr"/>
       <c r="BG9" s="32" t="inlineStr"/>
       <c r="BH9" s="32" t="inlineStr"/>
       <c r="BI9" s="32" t="inlineStr"/>
@@ -2314,13 +2580,16 @@
       <c r="BT9" s="32" t="inlineStr"/>
       <c r="BU9" s="32" t="inlineStr"/>
       <c r="BV9" s="32" t="inlineStr"/>
-      <c r="BW9" s="25" t="inlineStr"/>
-      <c r="BX9" s="33" t="inlineStr"/>
-      <c r="BY9" s="33" t="inlineStr"/>
+      <c r="BW9" s="32" t="inlineStr"/>
+      <c r="BX9" s="32" t="inlineStr"/>
+      <c r="BY9" s="25" t="inlineStr"/>
       <c r="BZ9" s="33" t="inlineStr"/>
       <c r="CA9" s="33" t="inlineStr"/>
-      <c r="CB9" s="26" t="inlineStr"/>
-      <c r="CC9" s="27" t="inlineStr"/>
+      <c r="CB9" s="33" t="inlineStr"/>
+      <c r="CC9" s="33" t="inlineStr"/>
+      <c r="CD9" s="26" t="inlineStr"/>
+      <c r="CE9" s="27" t="inlineStr"/>
+      <c r="CF9" s="27" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2346,28 +2615,28 @@
       <c r="U10" s="19" t="inlineStr"/>
       <c r="V10" s="19" t="inlineStr"/>
       <c r="W10" s="19" t="inlineStr"/>
-      <c r="X10" s="20" t="inlineStr"/>
-      <c r="Y10" s="21" t="inlineStr"/>
+      <c r="X10" s="19" t="inlineStr"/>
+      <c r="Y10" s="20" t="inlineStr"/>
       <c r="Z10" s="21" t="inlineStr"/>
-      <c r="AA10" s="22" t="inlineStr"/>
+      <c r="AA10" s="21" t="inlineStr"/>
       <c r="AB10" s="22" t="inlineStr"/>
-      <c r="AC10" s="21" t="inlineStr"/>
-      <c r="AD10" s="23" t="inlineStr"/>
-      <c r="AE10" s="24" t="inlineStr"/>
+      <c r="AC10" s="22" t="inlineStr"/>
+      <c r="AD10" s="21" t="inlineStr"/>
+      <c r="AE10" s="23" t="inlineStr"/>
       <c r="AF10" s="24" t="inlineStr"/>
       <c r="AG10" s="24" t="inlineStr"/>
       <c r="AH10" s="24" t="inlineStr"/>
-      <c r="AI10" s="25" t="inlineStr"/>
-      <c r="AJ10" s="26" t="inlineStr"/>
-      <c r="AK10" s="27" t="inlineStr"/>
-      <c r="AL10" s="28" t="inlineStr"/>
-      <c r="AM10" s="29" t="inlineStr"/>
-      <c r="AN10" s="30" t="inlineStr"/>
-      <c r="AO10" s="17" t="inlineStr"/>
+      <c r="AI10" s="24" t="inlineStr"/>
+      <c r="AJ10" s="25" t="inlineStr"/>
+      <c r="AK10" s="26" t="inlineStr"/>
+      <c r="AL10" s="27" t="inlineStr"/>
+      <c r="AM10" s="28" t="inlineStr"/>
+      <c r="AN10" s="29" t="inlineStr"/>
+      <c r="AO10" s="30" t="inlineStr"/>
       <c r="AP10" s="17" t="inlineStr"/>
-      <c r="AQ10" s="31" t="inlineStr"/>
-      <c r="AR10" s="18" t="inlineStr"/>
-      <c r="AS10" s="19" t="inlineStr"/>
+      <c r="AQ10" s="17" t="inlineStr"/>
+      <c r="AR10" s="31" t="inlineStr"/>
+      <c r="AS10" s="18" t="inlineStr"/>
       <c r="AT10" s="19" t="inlineStr"/>
       <c r="AU10" s="19" t="inlineStr"/>
       <c r="AV10" s="19" t="inlineStr"/>
@@ -2376,11 +2645,11 @@
       <c r="AY10" s="19" t="inlineStr"/>
       <c r="AZ10" s="19" t="inlineStr"/>
       <c r="BA10" s="19" t="inlineStr"/>
-      <c r="BB10" s="20" t="inlineStr"/>
-      <c r="BC10" s="21" t="inlineStr"/>
+      <c r="BB10" s="19" t="inlineStr"/>
+      <c r="BC10" s="20" t="inlineStr"/>
       <c r="BD10" s="21" t="inlineStr"/>
-      <c r="BE10" s="23" t="inlineStr"/>
-      <c r="BF10" s="24" t="inlineStr"/>
+      <c r="BE10" s="21" t="inlineStr"/>
+      <c r="BF10" s="23" t="inlineStr"/>
       <c r="BG10" s="32" t="inlineStr"/>
       <c r="BH10" s="32" t="inlineStr"/>
       <c r="BI10" s="32" t="inlineStr"/>
@@ -2397,13 +2666,16 @@
       <c r="BT10" s="32" t="inlineStr"/>
       <c r="BU10" s="32" t="inlineStr"/>
       <c r="BV10" s="32" t="inlineStr"/>
-      <c r="BW10" s="25" t="inlineStr"/>
-      <c r="BX10" s="33" t="inlineStr"/>
-      <c r="BY10" s="33" t="inlineStr"/>
+      <c r="BW10" s="32" t="inlineStr"/>
+      <c r="BX10" s="32" t="inlineStr"/>
+      <c r="BY10" s="25" t="inlineStr"/>
       <c r="BZ10" s="33" t="inlineStr"/>
       <c r="CA10" s="33" t="inlineStr"/>
-      <c r="CB10" s="26" t="inlineStr"/>
-      <c r="CC10" s="27" t="inlineStr"/>
+      <c r="CB10" s="33" t="inlineStr"/>
+      <c r="CC10" s="33" t="inlineStr"/>
+      <c r="CD10" s="26" t="inlineStr"/>
+      <c r="CE10" s="27" t="inlineStr"/>
+      <c r="CF10" s="27" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2429,28 +2701,28 @@
       <c r="U11" s="19" t="inlineStr"/>
       <c r="V11" s="19" t="inlineStr"/>
       <c r="W11" s="19" t="inlineStr"/>
-      <c r="X11" s="20" t="inlineStr"/>
-      <c r="Y11" s="21" t="inlineStr"/>
+      <c r="X11" s="19" t="inlineStr"/>
+      <c r="Y11" s="20" t="inlineStr"/>
       <c r="Z11" s="21" t="inlineStr"/>
-      <c r="AA11" s="22" t="inlineStr"/>
+      <c r="AA11" s="21" t="inlineStr"/>
       <c r="AB11" s="22" t="inlineStr"/>
-      <c r="AC11" s="21" t="inlineStr"/>
-      <c r="AD11" s="23" t="inlineStr"/>
-      <c r="AE11" s="24" t="inlineStr"/>
+      <c r="AC11" s="22" t="inlineStr"/>
+      <c r="AD11" s="21" t="inlineStr"/>
+      <c r="AE11" s="23" t="inlineStr"/>
       <c r="AF11" s="24" t="inlineStr"/>
       <c r="AG11" s="24" t="inlineStr"/>
       <c r="AH11" s="24" t="inlineStr"/>
-      <c r="AI11" s="25" t="inlineStr"/>
-      <c r="AJ11" s="26" t="inlineStr"/>
-      <c r="AK11" s="27" t="inlineStr"/>
-      <c r="AL11" s="28" t="inlineStr"/>
-      <c r="AM11" s="29" t="inlineStr"/>
-      <c r="AN11" s="30" t="inlineStr"/>
-      <c r="AO11" s="17" t="inlineStr"/>
+      <c r="AI11" s="24" t="inlineStr"/>
+      <c r="AJ11" s="25" t="inlineStr"/>
+      <c r="AK11" s="26" t="inlineStr"/>
+      <c r="AL11" s="27" t="inlineStr"/>
+      <c r="AM11" s="28" t="inlineStr"/>
+      <c r="AN11" s="29" t="inlineStr"/>
+      <c r="AO11" s="30" t="inlineStr"/>
       <c r="AP11" s="17" t="inlineStr"/>
-      <c r="AQ11" s="31" t="inlineStr"/>
-      <c r="AR11" s="18" t="inlineStr"/>
-      <c r="AS11" s="19" t="inlineStr"/>
+      <c r="AQ11" s="17" t="inlineStr"/>
+      <c r="AR11" s="31" t="inlineStr"/>
+      <c r="AS11" s="18" t="inlineStr"/>
       <c r="AT11" s="19" t="inlineStr"/>
       <c r="AU11" s="19" t="inlineStr"/>
       <c r="AV11" s="19" t="inlineStr"/>
@@ -2459,11 +2731,11 @@
       <c r="AY11" s="19" t="inlineStr"/>
       <c r="AZ11" s="19" t="inlineStr"/>
       <c r="BA11" s="19" t="inlineStr"/>
-      <c r="BB11" s="20" t="inlineStr"/>
-      <c r="BC11" s="21" t="inlineStr"/>
+      <c r="BB11" s="19" t="inlineStr"/>
+      <c r="BC11" s="20" t="inlineStr"/>
       <c r="BD11" s="21" t="inlineStr"/>
-      <c r="BE11" s="23" t="inlineStr"/>
-      <c r="BF11" s="24" t="inlineStr"/>
+      <c r="BE11" s="21" t="inlineStr"/>
+      <c r="BF11" s="23" t="inlineStr"/>
       <c r="BG11" s="32" t="inlineStr"/>
       <c r="BH11" s="32" t="inlineStr"/>
       <c r="BI11" s="32" t="inlineStr"/>
@@ -2480,13 +2752,16 @@
       <c r="BT11" s="32" t="inlineStr"/>
       <c r="BU11" s="32" t="inlineStr"/>
       <c r="BV11" s="32" t="inlineStr"/>
-      <c r="BW11" s="25" t="inlineStr"/>
-      <c r="BX11" s="33" t="inlineStr"/>
-      <c r="BY11" s="33" t="inlineStr"/>
+      <c r="BW11" s="32" t="inlineStr"/>
+      <c r="BX11" s="32" t="inlineStr"/>
+      <c r="BY11" s="25" t="inlineStr"/>
       <c r="BZ11" s="33" t="inlineStr"/>
       <c r="CA11" s="33" t="inlineStr"/>
-      <c r="CB11" s="26" t="inlineStr"/>
-      <c r="CC11" s="27" t="inlineStr"/>
+      <c r="CB11" s="33" t="inlineStr"/>
+      <c r="CC11" s="33" t="inlineStr"/>
+      <c r="CD11" s="26" t="inlineStr"/>
+      <c r="CE11" s="27" t="inlineStr"/>
+      <c r="CF11" s="27" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2512,28 +2787,28 @@
       <c r="U12" s="19" t="inlineStr"/>
       <c r="V12" s="19" t="inlineStr"/>
       <c r="W12" s="19" t="inlineStr"/>
-      <c r="X12" s="20" t="inlineStr"/>
-      <c r="Y12" s="21" t="inlineStr"/>
+      <c r="X12" s="19" t="inlineStr"/>
+      <c r="Y12" s="20" t="inlineStr"/>
       <c r="Z12" s="21" t="inlineStr"/>
-      <c r="AA12" s="22" t="inlineStr"/>
+      <c r="AA12" s="21" t="inlineStr"/>
       <c r="AB12" s="22" t="inlineStr"/>
-      <c r="AC12" s="21" t="inlineStr"/>
-      <c r="AD12" s="23" t="inlineStr"/>
-      <c r="AE12" s="24" t="inlineStr"/>
+      <c r="AC12" s="22" t="inlineStr"/>
+      <c r="AD12" s="21" t="inlineStr"/>
+      <c r="AE12" s="23" t="inlineStr"/>
       <c r="AF12" s="24" t="inlineStr"/>
       <c r="AG12" s="24" t="inlineStr"/>
       <c r="AH12" s="24" t="inlineStr"/>
-      <c r="AI12" s="25" t="inlineStr"/>
-      <c r="AJ12" s="26" t="inlineStr"/>
-      <c r="AK12" s="27" t="inlineStr"/>
-      <c r="AL12" s="28" t="inlineStr"/>
-      <c r="AM12" s="29" t="inlineStr"/>
-      <c r="AN12" s="30" t="inlineStr"/>
-      <c r="AO12" s="17" t="inlineStr"/>
+      <c r="AI12" s="24" t="inlineStr"/>
+      <c r="AJ12" s="25" t="inlineStr"/>
+      <c r="AK12" s="26" t="inlineStr"/>
+      <c r="AL12" s="27" t="inlineStr"/>
+      <c r="AM12" s="28" t="inlineStr"/>
+      <c r="AN12" s="29" t="inlineStr"/>
+      <c r="AO12" s="30" t="inlineStr"/>
       <c r="AP12" s="17" t="inlineStr"/>
-      <c r="AQ12" s="31" t="inlineStr"/>
-      <c r="AR12" s="18" t="inlineStr"/>
-      <c r="AS12" s="19" t="inlineStr"/>
+      <c r="AQ12" s="17" t="inlineStr"/>
+      <c r="AR12" s="31" t="inlineStr"/>
+      <c r="AS12" s="18" t="inlineStr"/>
       <c r="AT12" s="19" t="inlineStr"/>
       <c r="AU12" s="19" t="inlineStr"/>
       <c r="AV12" s="19" t="inlineStr"/>
@@ -2542,11 +2817,11 @@
       <c r="AY12" s="19" t="inlineStr"/>
       <c r="AZ12" s="19" t="inlineStr"/>
       <c r="BA12" s="19" t="inlineStr"/>
-      <c r="BB12" s="20" t="inlineStr"/>
-      <c r="BC12" s="21" t="inlineStr"/>
+      <c r="BB12" s="19" t="inlineStr"/>
+      <c r="BC12" s="20" t="inlineStr"/>
       <c r="BD12" s="21" t="inlineStr"/>
-      <c r="BE12" s="23" t="inlineStr"/>
-      <c r="BF12" s="24" t="inlineStr"/>
+      <c r="BE12" s="21" t="inlineStr"/>
+      <c r="BF12" s="23" t="inlineStr"/>
       <c r="BG12" s="32" t="inlineStr"/>
       <c r="BH12" s="32" t="inlineStr"/>
       <c r="BI12" s="32" t="inlineStr"/>
@@ -2563,13 +2838,16 @@
       <c r="BT12" s="32" t="inlineStr"/>
       <c r="BU12" s="32" t="inlineStr"/>
       <c r="BV12" s="32" t="inlineStr"/>
-      <c r="BW12" s="25" t="inlineStr"/>
-      <c r="BX12" s="33" t="inlineStr"/>
-      <c r="BY12" s="33" t="inlineStr"/>
+      <c r="BW12" s="32" t="inlineStr"/>
+      <c r="BX12" s="32" t="inlineStr"/>
+      <c r="BY12" s="25" t="inlineStr"/>
       <c r="BZ12" s="33" t="inlineStr"/>
       <c r="CA12" s="33" t="inlineStr"/>
-      <c r="CB12" s="26" t="inlineStr"/>
-      <c r="CC12" s="27" t="inlineStr"/>
+      <c r="CB12" s="33" t="inlineStr"/>
+      <c r="CC12" s="33" t="inlineStr"/>
+      <c r="CD12" s="26" t="inlineStr"/>
+      <c r="CE12" s="27" t="inlineStr"/>
+      <c r="CF12" s="27" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2595,28 +2873,28 @@
       <c r="U13" s="19" t="inlineStr"/>
       <c r="V13" s="19" t="inlineStr"/>
       <c r="W13" s="19" t="inlineStr"/>
-      <c r="X13" s="20" t="inlineStr"/>
-      <c r="Y13" s="21" t="inlineStr"/>
+      <c r="X13" s="19" t="inlineStr"/>
+      <c r="Y13" s="20" t="inlineStr"/>
       <c r="Z13" s="21" t="inlineStr"/>
-      <c r="AA13" s="22" t="inlineStr"/>
+      <c r="AA13" s="21" t="inlineStr"/>
       <c r="AB13" s="22" t="inlineStr"/>
-      <c r="AC13" s="21" t="inlineStr"/>
-      <c r="AD13" s="23" t="inlineStr"/>
-      <c r="AE13" s="24" t="inlineStr"/>
+      <c r="AC13" s="22" t="inlineStr"/>
+      <c r="AD13" s="21" t="inlineStr"/>
+      <c r="AE13" s="23" t="inlineStr"/>
       <c r="AF13" s="24" t="inlineStr"/>
       <c r="AG13" s="24" t="inlineStr"/>
       <c r="AH13" s="24" t="inlineStr"/>
-      <c r="AI13" s="25" t="inlineStr"/>
-      <c r="AJ13" s="26" t="inlineStr"/>
-      <c r="AK13" s="27" t="inlineStr"/>
-      <c r="AL13" s="28" t="inlineStr"/>
-      <c r="AM13" s="29" t="inlineStr"/>
-      <c r="AN13" s="30" t="inlineStr"/>
-      <c r="AO13" s="17" t="inlineStr"/>
+      <c r="AI13" s="24" t="inlineStr"/>
+      <c r="AJ13" s="25" t="inlineStr"/>
+      <c r="AK13" s="26" t="inlineStr"/>
+      <c r="AL13" s="27" t="inlineStr"/>
+      <c r="AM13" s="28" t="inlineStr"/>
+      <c r="AN13" s="29" t="inlineStr"/>
+      <c r="AO13" s="30" t="inlineStr"/>
       <c r="AP13" s="17" t="inlineStr"/>
-      <c r="AQ13" s="31" t="inlineStr"/>
-      <c r="AR13" s="18" t="inlineStr"/>
-      <c r="AS13" s="19" t="inlineStr"/>
+      <c r="AQ13" s="17" t="inlineStr"/>
+      <c r="AR13" s="31" t="inlineStr"/>
+      <c r="AS13" s="18" t="inlineStr"/>
       <c r="AT13" s="19" t="inlineStr"/>
       <c r="AU13" s="19" t="inlineStr"/>
       <c r="AV13" s="19" t="inlineStr"/>
@@ -2625,11 +2903,11 @@
       <c r="AY13" s="19" t="inlineStr"/>
       <c r="AZ13" s="19" t="inlineStr"/>
       <c r="BA13" s="19" t="inlineStr"/>
-      <c r="BB13" s="20" t="inlineStr"/>
-      <c r="BC13" s="21" t="inlineStr"/>
+      <c r="BB13" s="19" t="inlineStr"/>
+      <c r="BC13" s="20" t="inlineStr"/>
       <c r="BD13" s="21" t="inlineStr"/>
-      <c r="BE13" s="23" t="inlineStr"/>
-      <c r="BF13" s="24" t="inlineStr"/>
+      <c r="BE13" s="21" t="inlineStr"/>
+      <c r="BF13" s="23" t="inlineStr"/>
       <c r="BG13" s="32" t="inlineStr"/>
       <c r="BH13" s="32" t="inlineStr"/>
       <c r="BI13" s="32" t="inlineStr"/>
@@ -2646,13 +2924,16 @@
       <c r="BT13" s="32" t="inlineStr"/>
       <c r="BU13" s="32" t="inlineStr"/>
       <c r="BV13" s="32" t="inlineStr"/>
-      <c r="BW13" s="25" t="inlineStr"/>
-      <c r="BX13" s="33" t="inlineStr"/>
-      <c r="BY13" s="33" t="inlineStr"/>
+      <c r="BW13" s="32" t="inlineStr"/>
+      <c r="BX13" s="32" t="inlineStr"/>
+      <c r="BY13" s="25" t="inlineStr"/>
       <c r="BZ13" s="33" t="inlineStr"/>
       <c r="CA13" s="33" t="inlineStr"/>
-      <c r="CB13" s="26" t="inlineStr"/>
-      <c r="CC13" s="27" t="inlineStr"/>
+      <c r="CB13" s="33" t="inlineStr"/>
+      <c r="CC13" s="33" t="inlineStr"/>
+      <c r="CD13" s="26" t="inlineStr"/>
+      <c r="CE13" s="27" t="inlineStr"/>
+      <c r="CF13" s="27" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2678,28 +2959,28 @@
       <c r="U14" s="19" t="inlineStr"/>
       <c r="V14" s="19" t="inlineStr"/>
       <c r="W14" s="19" t="inlineStr"/>
-      <c r="X14" s="20" t="inlineStr"/>
-      <c r="Y14" s="21" t="inlineStr"/>
+      <c r="X14" s="19" t="inlineStr"/>
+      <c r="Y14" s="20" t="inlineStr"/>
       <c r="Z14" s="21" t="inlineStr"/>
-      <c r="AA14" s="22" t="inlineStr"/>
+      <c r="AA14" s="21" t="inlineStr"/>
       <c r="AB14" s="22" t="inlineStr"/>
-      <c r="AC14" s="21" t="inlineStr"/>
-      <c r="AD14" s="23" t="inlineStr"/>
-      <c r="AE14" s="24" t="inlineStr"/>
+      <c r="AC14" s="22" t="inlineStr"/>
+      <c r="AD14" s="21" t="inlineStr"/>
+      <c r="AE14" s="23" t="inlineStr"/>
       <c r="AF14" s="24" t="inlineStr"/>
       <c r="AG14" s="24" t="inlineStr"/>
       <c r="AH14" s="24" t="inlineStr"/>
-      <c r="AI14" s="25" t="inlineStr"/>
-      <c r="AJ14" s="26" t="inlineStr"/>
-      <c r="AK14" s="27" t="inlineStr"/>
-      <c r="AL14" s="28" t="inlineStr"/>
-      <c r="AM14" s="29" t="inlineStr"/>
-      <c r="AN14" s="30" t="inlineStr"/>
-      <c r="AO14" s="17" t="inlineStr"/>
+      <c r="AI14" s="24" t="inlineStr"/>
+      <c r="AJ14" s="25" t="inlineStr"/>
+      <c r="AK14" s="26" t="inlineStr"/>
+      <c r="AL14" s="27" t="inlineStr"/>
+      <c r="AM14" s="28" t="inlineStr"/>
+      <c r="AN14" s="29" t="inlineStr"/>
+      <c r="AO14" s="30" t="inlineStr"/>
       <c r="AP14" s="17" t="inlineStr"/>
-      <c r="AQ14" s="31" t="inlineStr"/>
-      <c r="AR14" s="18" t="inlineStr"/>
-      <c r="AS14" s="19" t="inlineStr"/>
+      <c r="AQ14" s="17" t="inlineStr"/>
+      <c r="AR14" s="31" t="inlineStr"/>
+      <c r="AS14" s="18" t="inlineStr"/>
       <c r="AT14" s="19" t="inlineStr"/>
       <c r="AU14" s="19" t="inlineStr"/>
       <c r="AV14" s="19" t="inlineStr"/>
@@ -2708,11 +2989,11 @@
       <c r="AY14" s="19" t="inlineStr"/>
       <c r="AZ14" s="19" t="inlineStr"/>
       <c r="BA14" s="19" t="inlineStr"/>
-      <c r="BB14" s="20" t="inlineStr"/>
-      <c r="BC14" s="21" t="inlineStr"/>
+      <c r="BB14" s="19" t="inlineStr"/>
+      <c r="BC14" s="20" t="inlineStr"/>
       <c r="BD14" s="21" t="inlineStr"/>
-      <c r="BE14" s="23" t="inlineStr"/>
-      <c r="BF14" s="24" t="inlineStr"/>
+      <c r="BE14" s="21" t="inlineStr"/>
+      <c r="BF14" s="23" t="inlineStr"/>
       <c r="BG14" s="32" t="inlineStr"/>
       <c r="BH14" s="32" t="inlineStr"/>
       <c r="BI14" s="32" t="inlineStr"/>
@@ -2729,13 +3010,16 @@
       <c r="BT14" s="32" t="inlineStr"/>
       <c r="BU14" s="32" t="inlineStr"/>
       <c r="BV14" s="32" t="inlineStr"/>
-      <c r="BW14" s="25" t="inlineStr"/>
-      <c r="BX14" s="33" t="inlineStr"/>
-      <c r="BY14" s="33" t="inlineStr"/>
+      <c r="BW14" s="32" t="inlineStr"/>
+      <c r="BX14" s="32" t="inlineStr"/>
+      <c r="BY14" s="25" t="inlineStr"/>
       <c r="BZ14" s="33" t="inlineStr"/>
       <c r="CA14" s="33" t="inlineStr"/>
-      <c r="CB14" s="26" t="inlineStr"/>
-      <c r="CC14" s="27" t="inlineStr"/>
+      <c r="CB14" s="33" t="inlineStr"/>
+      <c r="CC14" s="33" t="inlineStr"/>
+      <c r="CD14" s="26" t="inlineStr"/>
+      <c r="CE14" s="27" t="inlineStr"/>
+      <c r="CF14" s="27" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2761,28 +3045,28 @@
       <c r="U15" s="19" t="inlineStr"/>
       <c r="V15" s="19" t="inlineStr"/>
       <c r="W15" s="19" t="inlineStr"/>
-      <c r="X15" s="20" t="inlineStr"/>
-      <c r="Y15" s="21" t="inlineStr"/>
+      <c r="X15" s="19" t="inlineStr"/>
+      <c r="Y15" s="20" t="inlineStr"/>
       <c r="Z15" s="21" t="inlineStr"/>
-      <c r="AA15" s="22" t="inlineStr"/>
+      <c r="AA15" s="21" t="inlineStr"/>
       <c r="AB15" s="22" t="inlineStr"/>
-      <c r="AC15" s="21" t="inlineStr"/>
-      <c r="AD15" s="23" t="inlineStr"/>
-      <c r="AE15" s="24" t="inlineStr"/>
+      <c r="AC15" s="22" t="inlineStr"/>
+      <c r="AD15" s="21" t="inlineStr"/>
+      <c r="AE15" s="23" t="inlineStr"/>
       <c r="AF15" s="24" t="inlineStr"/>
       <c r="AG15" s="24" t="inlineStr"/>
       <c r="AH15" s="24" t="inlineStr"/>
-      <c r="AI15" s="25" t="inlineStr"/>
-      <c r="AJ15" s="26" t="inlineStr"/>
-      <c r="AK15" s="27" t="inlineStr"/>
-      <c r="AL15" s="28" t="inlineStr"/>
-      <c r="AM15" s="29" t="inlineStr"/>
-      <c r="AN15" s="30" t="inlineStr"/>
-      <c r="AO15" s="17" t="inlineStr"/>
+      <c r="AI15" s="24" t="inlineStr"/>
+      <c r="AJ15" s="25" t="inlineStr"/>
+      <c r="AK15" s="26" t="inlineStr"/>
+      <c r="AL15" s="27" t="inlineStr"/>
+      <c r="AM15" s="28" t="inlineStr"/>
+      <c r="AN15" s="29" t="inlineStr"/>
+      <c r="AO15" s="30" t="inlineStr"/>
       <c r="AP15" s="17" t="inlineStr"/>
-      <c r="AQ15" s="31" t="inlineStr"/>
-      <c r="AR15" s="18" t="inlineStr"/>
-      <c r="AS15" s="19" t="inlineStr"/>
+      <c r="AQ15" s="17" t="inlineStr"/>
+      <c r="AR15" s="31" t="inlineStr"/>
+      <c r="AS15" s="18" t="inlineStr"/>
       <c r="AT15" s="19" t="inlineStr"/>
       <c r="AU15" s="19" t="inlineStr"/>
       <c r="AV15" s="19" t="inlineStr"/>
@@ -2791,11 +3075,11 @@
       <c r="AY15" s="19" t="inlineStr"/>
       <c r="AZ15" s="19" t="inlineStr"/>
       <c r="BA15" s="19" t="inlineStr"/>
-      <c r="BB15" s="20" t="inlineStr"/>
-      <c r="BC15" s="21" t="inlineStr"/>
+      <c r="BB15" s="19" t="inlineStr"/>
+      <c r="BC15" s="20" t="inlineStr"/>
       <c r="BD15" s="21" t="inlineStr"/>
-      <c r="BE15" s="23" t="inlineStr"/>
-      <c r="BF15" s="24" t="inlineStr"/>
+      <c r="BE15" s="21" t="inlineStr"/>
+      <c r="BF15" s="23" t="inlineStr"/>
       <c r="BG15" s="32" t="inlineStr"/>
       <c r="BH15" s="32" t="inlineStr"/>
       <c r="BI15" s="32" t="inlineStr"/>
@@ -2812,13 +3096,16 @@
       <c r="BT15" s="32" t="inlineStr"/>
       <c r="BU15" s="32" t="inlineStr"/>
       <c r="BV15" s="32" t="inlineStr"/>
-      <c r="BW15" s="25" t="inlineStr"/>
-      <c r="BX15" s="33" t="inlineStr"/>
-      <c r="BY15" s="33" t="inlineStr"/>
+      <c r="BW15" s="32" t="inlineStr"/>
+      <c r="BX15" s="32" t="inlineStr"/>
+      <c r="BY15" s="25" t="inlineStr"/>
       <c r="BZ15" s="33" t="inlineStr"/>
       <c r="CA15" s="33" t="inlineStr"/>
-      <c r="CB15" s="26" t="inlineStr"/>
-      <c r="CC15" s="27" t="inlineStr"/>
+      <c r="CB15" s="33" t="inlineStr"/>
+      <c r="CC15" s="33" t="inlineStr"/>
+      <c r="CD15" s="26" t="inlineStr"/>
+      <c r="CE15" s="27" t="inlineStr"/>
+      <c r="CF15" s="27" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2844,28 +3131,28 @@
       <c r="U16" s="19" t="inlineStr"/>
       <c r="V16" s="19" t="inlineStr"/>
       <c r="W16" s="19" t="inlineStr"/>
-      <c r="X16" s="20" t="inlineStr"/>
-      <c r="Y16" s="21" t="inlineStr"/>
+      <c r="X16" s="19" t="inlineStr"/>
+      <c r="Y16" s="20" t="inlineStr"/>
       <c r="Z16" s="21" t="inlineStr"/>
-      <c r="AA16" s="22" t="inlineStr"/>
+      <c r="AA16" s="21" t="inlineStr"/>
       <c r="AB16" s="22" t="inlineStr"/>
-      <c r="AC16" s="21" t="inlineStr"/>
-      <c r="AD16" s="23" t="inlineStr"/>
-      <c r="AE16" s="24" t="inlineStr"/>
+      <c r="AC16" s="22" t="inlineStr"/>
+      <c r="AD16" s="21" t="inlineStr"/>
+      <c r="AE16" s="23" t="inlineStr"/>
       <c r="AF16" s="24" t="inlineStr"/>
       <c r="AG16" s="24" t="inlineStr"/>
       <c r="AH16" s="24" t="inlineStr"/>
-      <c r="AI16" s="25" t="inlineStr"/>
-      <c r="AJ16" s="26" t="inlineStr"/>
-      <c r="AK16" s="27" t="inlineStr"/>
-      <c r="AL16" s="28" t="inlineStr"/>
-      <c r="AM16" s="29" t="inlineStr"/>
-      <c r="AN16" s="30" t="inlineStr"/>
-      <c r="AO16" s="17" t="inlineStr"/>
+      <c r="AI16" s="24" t="inlineStr"/>
+      <c r="AJ16" s="25" t="inlineStr"/>
+      <c r="AK16" s="26" t="inlineStr"/>
+      <c r="AL16" s="27" t="inlineStr"/>
+      <c r="AM16" s="28" t="inlineStr"/>
+      <c r="AN16" s="29" t="inlineStr"/>
+      <c r="AO16" s="30" t="inlineStr"/>
       <c r="AP16" s="17" t="inlineStr"/>
-      <c r="AQ16" s="31" t="inlineStr"/>
-      <c r="AR16" s="18" t="inlineStr"/>
-      <c r="AS16" s="19" t="inlineStr"/>
+      <c r="AQ16" s="17" t="inlineStr"/>
+      <c r="AR16" s="31" t="inlineStr"/>
+      <c r="AS16" s="18" t="inlineStr"/>
       <c r="AT16" s="19" t="inlineStr"/>
       <c r="AU16" s="19" t="inlineStr"/>
       <c r="AV16" s="19" t="inlineStr"/>
@@ -2874,11 +3161,11 @@
       <c r="AY16" s="19" t="inlineStr"/>
       <c r="AZ16" s="19" t="inlineStr"/>
       <c r="BA16" s="19" t="inlineStr"/>
-      <c r="BB16" s="20" t="inlineStr"/>
-      <c r="BC16" s="21" t="inlineStr"/>
+      <c r="BB16" s="19" t="inlineStr"/>
+      <c r="BC16" s="20" t="inlineStr"/>
       <c r="BD16" s="21" t="inlineStr"/>
-      <c r="BE16" s="23" t="inlineStr"/>
-      <c r="BF16" s="24" t="inlineStr"/>
+      <c r="BE16" s="21" t="inlineStr"/>
+      <c r="BF16" s="23" t="inlineStr"/>
       <c r="BG16" s="32" t="inlineStr"/>
       <c r="BH16" s="32" t="inlineStr"/>
       <c r="BI16" s="32" t="inlineStr"/>
@@ -2895,13 +3182,16 @@
       <c r="BT16" s="32" t="inlineStr"/>
       <c r="BU16" s="32" t="inlineStr"/>
       <c r="BV16" s="32" t="inlineStr"/>
-      <c r="BW16" s="25" t="inlineStr"/>
-      <c r="BX16" s="33" t="inlineStr"/>
-      <c r="BY16" s="33" t="inlineStr"/>
+      <c r="BW16" s="32" t="inlineStr"/>
+      <c r="BX16" s="32" t="inlineStr"/>
+      <c r="BY16" s="25" t="inlineStr"/>
       <c r="BZ16" s="33" t="inlineStr"/>
       <c r="CA16" s="33" t="inlineStr"/>
-      <c r="CB16" s="26" t="inlineStr"/>
-      <c r="CC16" s="27" t="inlineStr"/>
+      <c r="CB16" s="33" t="inlineStr"/>
+      <c r="CC16" s="33" t="inlineStr"/>
+      <c r="CD16" s="26" t="inlineStr"/>
+      <c r="CE16" s="27" t="inlineStr"/>
+      <c r="CF16" s="27" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -2927,28 +3217,28 @@
       <c r="U17" s="19" t="inlineStr"/>
       <c r="V17" s="19" t="inlineStr"/>
       <c r="W17" s="19" t="inlineStr"/>
-      <c r="X17" s="20" t="inlineStr"/>
-      <c r="Y17" s="21" t="inlineStr"/>
+      <c r="X17" s="19" t="inlineStr"/>
+      <c r="Y17" s="20" t="inlineStr"/>
       <c r="Z17" s="21" t="inlineStr"/>
-      <c r="AA17" s="22" t="inlineStr"/>
+      <c r="AA17" s="21" t="inlineStr"/>
       <c r="AB17" s="22" t="inlineStr"/>
-      <c r="AC17" s="21" t="inlineStr"/>
-      <c r="AD17" s="23" t="inlineStr"/>
-      <c r="AE17" s="24" t="inlineStr"/>
+      <c r="AC17" s="22" t="inlineStr"/>
+      <c r="AD17" s="21" t="inlineStr"/>
+      <c r="AE17" s="23" t="inlineStr"/>
       <c r="AF17" s="24" t="inlineStr"/>
       <c r="AG17" s="24" t="inlineStr"/>
       <c r="AH17" s="24" t="inlineStr"/>
-      <c r="AI17" s="25" t="inlineStr"/>
-      <c r="AJ17" s="26" t="inlineStr"/>
-      <c r="AK17" s="27" t="inlineStr"/>
-      <c r="AL17" s="28" t="inlineStr"/>
-      <c r="AM17" s="29" t="inlineStr"/>
-      <c r="AN17" s="30" t="inlineStr"/>
-      <c r="AO17" s="17" t="inlineStr"/>
+      <c r="AI17" s="24" t="inlineStr"/>
+      <c r="AJ17" s="25" t="inlineStr"/>
+      <c r="AK17" s="26" t="inlineStr"/>
+      <c r="AL17" s="27" t="inlineStr"/>
+      <c r="AM17" s="28" t="inlineStr"/>
+      <c r="AN17" s="29" t="inlineStr"/>
+      <c r="AO17" s="30" t="inlineStr"/>
       <c r="AP17" s="17" t="inlineStr"/>
-      <c r="AQ17" s="31" t="inlineStr"/>
-      <c r="AR17" s="18" t="inlineStr"/>
-      <c r="AS17" s="19" t="inlineStr"/>
+      <c r="AQ17" s="17" t="inlineStr"/>
+      <c r="AR17" s="31" t="inlineStr"/>
+      <c r="AS17" s="18" t="inlineStr"/>
       <c r="AT17" s="19" t="inlineStr"/>
       <c r="AU17" s="19" t="inlineStr"/>
       <c r="AV17" s="19" t="inlineStr"/>
@@ -2957,11 +3247,11 @@
       <c r="AY17" s="19" t="inlineStr"/>
       <c r="AZ17" s="19" t="inlineStr"/>
       <c r="BA17" s="19" t="inlineStr"/>
-      <c r="BB17" s="20" t="inlineStr"/>
-      <c r="BC17" s="21" t="inlineStr"/>
+      <c r="BB17" s="19" t="inlineStr"/>
+      <c r="BC17" s="20" t="inlineStr"/>
       <c r="BD17" s="21" t="inlineStr"/>
-      <c r="BE17" s="23" t="inlineStr"/>
-      <c r="BF17" s="24" t="inlineStr"/>
+      <c r="BE17" s="21" t="inlineStr"/>
+      <c r="BF17" s="23" t="inlineStr"/>
       <c r="BG17" s="32" t="inlineStr"/>
       <c r="BH17" s="32" t="inlineStr"/>
       <c r="BI17" s="32" t="inlineStr"/>
@@ -2978,13 +3268,16 @@
       <c r="BT17" s="32" t="inlineStr"/>
       <c r="BU17" s="32" t="inlineStr"/>
       <c r="BV17" s="32" t="inlineStr"/>
-      <c r="BW17" s="25" t="inlineStr"/>
-      <c r="BX17" s="33" t="inlineStr"/>
-      <c r="BY17" s="33" t="inlineStr"/>
+      <c r="BW17" s="32" t="inlineStr"/>
+      <c r="BX17" s="32" t="inlineStr"/>
+      <c r="BY17" s="25" t="inlineStr"/>
       <c r="BZ17" s="33" t="inlineStr"/>
       <c r="CA17" s="33" t="inlineStr"/>
-      <c r="CB17" s="26" t="inlineStr"/>
-      <c r="CC17" s="27" t="inlineStr"/>
+      <c r="CB17" s="33" t="inlineStr"/>
+      <c r="CC17" s="33" t="inlineStr"/>
+      <c r="CD17" s="26" t="inlineStr"/>
+      <c r="CE17" s="27" t="inlineStr"/>
+      <c r="CF17" s="27" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3010,28 +3303,28 @@
       <c r="U18" s="19" t="inlineStr"/>
       <c r="V18" s="19" t="inlineStr"/>
       <c r="W18" s="19" t="inlineStr"/>
-      <c r="X18" s="20" t="inlineStr"/>
-      <c r="Y18" s="21" t="inlineStr"/>
+      <c r="X18" s="19" t="inlineStr"/>
+      <c r="Y18" s="20" t="inlineStr"/>
       <c r="Z18" s="21" t="inlineStr"/>
-      <c r="AA18" s="22" t="inlineStr"/>
+      <c r="AA18" s="21" t="inlineStr"/>
       <c r="AB18" s="22" t="inlineStr"/>
-      <c r="AC18" s="21" t="inlineStr"/>
-      <c r="AD18" s="23" t="inlineStr"/>
-      <c r="AE18" s="24" t="inlineStr"/>
+      <c r="AC18" s="22" t="inlineStr"/>
+      <c r="AD18" s="21" t="inlineStr"/>
+      <c r="AE18" s="23" t="inlineStr"/>
       <c r="AF18" s="24" t="inlineStr"/>
       <c r="AG18" s="24" t="inlineStr"/>
       <c r="AH18" s="24" t="inlineStr"/>
-      <c r="AI18" s="25" t="inlineStr"/>
-      <c r="AJ18" s="26" t="inlineStr"/>
-      <c r="AK18" s="27" t="inlineStr"/>
-      <c r="AL18" s="28" t="inlineStr"/>
-      <c r="AM18" s="29" t="inlineStr"/>
-      <c r="AN18" s="30" t="inlineStr"/>
-      <c r="AO18" s="17" t="inlineStr"/>
+      <c r="AI18" s="24" t="inlineStr"/>
+      <c r="AJ18" s="25" t="inlineStr"/>
+      <c r="AK18" s="26" t="inlineStr"/>
+      <c r="AL18" s="27" t="inlineStr"/>
+      <c r="AM18" s="28" t="inlineStr"/>
+      <c r="AN18" s="29" t="inlineStr"/>
+      <c r="AO18" s="30" t="inlineStr"/>
       <c r="AP18" s="17" t="inlineStr"/>
-      <c r="AQ18" s="31" t="inlineStr"/>
-      <c r="AR18" s="18" t="inlineStr"/>
-      <c r="AS18" s="19" t="inlineStr"/>
+      <c r="AQ18" s="17" t="inlineStr"/>
+      <c r="AR18" s="31" t="inlineStr"/>
+      <c r="AS18" s="18" t="inlineStr"/>
       <c r="AT18" s="19" t="inlineStr"/>
       <c r="AU18" s="19" t="inlineStr"/>
       <c r="AV18" s="19" t="inlineStr"/>
@@ -3040,11 +3333,11 @@
       <c r="AY18" s="19" t="inlineStr"/>
       <c r="AZ18" s="19" t="inlineStr"/>
       <c r="BA18" s="19" t="inlineStr"/>
-      <c r="BB18" s="20" t="inlineStr"/>
-      <c r="BC18" s="21" t="inlineStr"/>
+      <c r="BB18" s="19" t="inlineStr"/>
+      <c r="BC18" s="20" t="inlineStr"/>
       <c r="BD18" s="21" t="inlineStr"/>
-      <c r="BE18" s="23" t="inlineStr"/>
-      <c r="BF18" s="24" t="inlineStr"/>
+      <c r="BE18" s="21" t="inlineStr"/>
+      <c r="BF18" s="23" t="inlineStr"/>
       <c r="BG18" s="32" t="inlineStr"/>
       <c r="BH18" s="32" t="inlineStr"/>
       <c r="BI18" s="32" t="inlineStr"/>
@@ -3061,13 +3354,16 @@
       <c r="BT18" s="32" t="inlineStr"/>
       <c r="BU18" s="32" t="inlineStr"/>
       <c r="BV18" s="32" t="inlineStr"/>
-      <c r="BW18" s="25" t="inlineStr"/>
-      <c r="BX18" s="33" t="inlineStr"/>
-      <c r="BY18" s="33" t="inlineStr"/>
+      <c r="BW18" s="32" t="inlineStr"/>
+      <c r="BX18" s="32" t="inlineStr"/>
+      <c r="BY18" s="25" t="inlineStr"/>
       <c r="BZ18" s="33" t="inlineStr"/>
       <c r="CA18" s="33" t="inlineStr"/>
-      <c r="CB18" s="26" t="inlineStr"/>
-      <c r="CC18" s="27" t="inlineStr"/>
+      <c r="CB18" s="33" t="inlineStr"/>
+      <c r="CC18" s="33" t="inlineStr"/>
+      <c r="CD18" s="26" t="inlineStr"/>
+      <c r="CE18" s="27" t="inlineStr"/>
+      <c r="CF18" s="27" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3093,28 +3389,28 @@
       <c r="U19" s="19" t="inlineStr"/>
       <c r="V19" s="19" t="inlineStr"/>
       <c r="W19" s="19" t="inlineStr"/>
-      <c r="X19" s="20" t="inlineStr"/>
-      <c r="Y19" s="21" t="inlineStr"/>
+      <c r="X19" s="19" t="inlineStr"/>
+      <c r="Y19" s="20" t="inlineStr"/>
       <c r="Z19" s="21" t="inlineStr"/>
-      <c r="AA19" s="22" t="inlineStr"/>
+      <c r="AA19" s="21" t="inlineStr"/>
       <c r="AB19" s="22" t="inlineStr"/>
-      <c r="AC19" s="21" t="inlineStr"/>
-      <c r="AD19" s="23" t="inlineStr"/>
-      <c r="AE19" s="24" t="inlineStr"/>
+      <c r="AC19" s="22" t="inlineStr"/>
+      <c r="AD19" s="21" t="inlineStr"/>
+      <c r="AE19" s="23" t="inlineStr"/>
       <c r="AF19" s="24" t="inlineStr"/>
       <c r="AG19" s="24" t="inlineStr"/>
       <c r="AH19" s="24" t="inlineStr"/>
-      <c r="AI19" s="25" t="inlineStr"/>
-      <c r="AJ19" s="26" t="inlineStr"/>
-      <c r="AK19" s="27" t="inlineStr"/>
-      <c r="AL19" s="28" t="inlineStr"/>
-      <c r="AM19" s="29" t="inlineStr"/>
-      <c r="AN19" s="30" t="inlineStr"/>
-      <c r="AO19" s="17" t="inlineStr"/>
+      <c r="AI19" s="24" t="inlineStr"/>
+      <c r="AJ19" s="25" t="inlineStr"/>
+      <c r="AK19" s="26" t="inlineStr"/>
+      <c r="AL19" s="27" t="inlineStr"/>
+      <c r="AM19" s="28" t="inlineStr"/>
+      <c r="AN19" s="29" t="inlineStr"/>
+      <c r="AO19" s="30" t="inlineStr"/>
       <c r="AP19" s="17" t="inlineStr"/>
-      <c r="AQ19" s="31" t="inlineStr"/>
-      <c r="AR19" s="18" t="inlineStr"/>
-      <c r="AS19" s="19" t="inlineStr"/>
+      <c r="AQ19" s="17" t="inlineStr"/>
+      <c r="AR19" s="31" t="inlineStr"/>
+      <c r="AS19" s="18" t="inlineStr"/>
       <c r="AT19" s="19" t="inlineStr"/>
       <c r="AU19" s="19" t="inlineStr"/>
       <c r="AV19" s="19" t="inlineStr"/>
@@ -3123,11 +3419,11 @@
       <c r="AY19" s="19" t="inlineStr"/>
       <c r="AZ19" s="19" t="inlineStr"/>
       <c r="BA19" s="19" t="inlineStr"/>
-      <c r="BB19" s="20" t="inlineStr"/>
-      <c r="BC19" s="21" t="inlineStr"/>
+      <c r="BB19" s="19" t="inlineStr"/>
+      <c r="BC19" s="20" t="inlineStr"/>
       <c r="BD19" s="21" t="inlineStr"/>
-      <c r="BE19" s="23" t="inlineStr"/>
-      <c r="BF19" s="24" t="inlineStr"/>
+      <c r="BE19" s="21" t="inlineStr"/>
+      <c r="BF19" s="23" t="inlineStr"/>
       <c r="BG19" s="32" t="inlineStr"/>
       <c r="BH19" s="32" t="inlineStr"/>
       <c r="BI19" s="32" t="inlineStr"/>
@@ -3144,13 +3440,16 @@
       <c r="BT19" s="32" t="inlineStr"/>
       <c r="BU19" s="32" t="inlineStr"/>
       <c r="BV19" s="32" t="inlineStr"/>
-      <c r="BW19" s="25" t="inlineStr"/>
-      <c r="BX19" s="33" t="inlineStr"/>
-      <c r="BY19" s="33" t="inlineStr"/>
+      <c r="BW19" s="32" t="inlineStr"/>
+      <c r="BX19" s="32" t="inlineStr"/>
+      <c r="BY19" s="25" t="inlineStr"/>
       <c r="BZ19" s="33" t="inlineStr"/>
       <c r="CA19" s="33" t="inlineStr"/>
-      <c r="CB19" s="26" t="inlineStr"/>
-      <c r="CC19" s="27" t="inlineStr"/>
+      <c r="CB19" s="33" t="inlineStr"/>
+      <c r="CC19" s="33" t="inlineStr"/>
+      <c r="CD19" s="26" t="inlineStr"/>
+      <c r="CE19" s="27" t="inlineStr"/>
+      <c r="CF19" s="27" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3176,28 +3475,28 @@
       <c r="U20" s="19" t="inlineStr"/>
       <c r="V20" s="19" t="inlineStr"/>
       <c r="W20" s="19" t="inlineStr"/>
-      <c r="X20" s="20" t="inlineStr"/>
-      <c r="Y20" s="21" t="inlineStr"/>
+      <c r="X20" s="19" t="inlineStr"/>
+      <c r="Y20" s="20" t="inlineStr"/>
       <c r="Z20" s="21" t="inlineStr"/>
-      <c r="AA20" s="22" t="inlineStr"/>
+      <c r="AA20" s="21" t="inlineStr"/>
       <c r="AB20" s="22" t="inlineStr"/>
-      <c r="AC20" s="21" t="inlineStr"/>
-      <c r="AD20" s="23" t="inlineStr"/>
-      <c r="AE20" s="24" t="inlineStr"/>
+      <c r="AC20" s="22" t="inlineStr"/>
+      <c r="AD20" s="21" t="inlineStr"/>
+      <c r="AE20" s="23" t="inlineStr"/>
       <c r="AF20" s="24" t="inlineStr"/>
       <c r="AG20" s="24" t="inlineStr"/>
       <c r="AH20" s="24" t="inlineStr"/>
-      <c r="AI20" s="25" t="inlineStr"/>
-      <c r="AJ20" s="26" t="inlineStr"/>
-      <c r="AK20" s="27" t="inlineStr"/>
-      <c r="AL20" s="28" t="inlineStr"/>
-      <c r="AM20" s="29" t="inlineStr"/>
-      <c r="AN20" s="30" t="inlineStr"/>
-      <c r="AO20" s="17" t="inlineStr"/>
+      <c r="AI20" s="24" t="inlineStr"/>
+      <c r="AJ20" s="25" t="inlineStr"/>
+      <c r="AK20" s="26" t="inlineStr"/>
+      <c r="AL20" s="27" t="inlineStr"/>
+      <c r="AM20" s="28" t="inlineStr"/>
+      <c r="AN20" s="29" t="inlineStr"/>
+      <c r="AO20" s="30" t="inlineStr"/>
       <c r="AP20" s="17" t="inlineStr"/>
-      <c r="AQ20" s="31" t="inlineStr"/>
-      <c r="AR20" s="18" t="inlineStr"/>
-      <c r="AS20" s="19" t="inlineStr"/>
+      <c r="AQ20" s="17" t="inlineStr"/>
+      <c r="AR20" s="31" t="inlineStr"/>
+      <c r="AS20" s="18" t="inlineStr"/>
       <c r="AT20" s="19" t="inlineStr"/>
       <c r="AU20" s="19" t="inlineStr"/>
       <c r="AV20" s="19" t="inlineStr"/>
@@ -3206,11 +3505,11 @@
       <c r="AY20" s="19" t="inlineStr"/>
       <c r="AZ20" s="19" t="inlineStr"/>
       <c r="BA20" s="19" t="inlineStr"/>
-      <c r="BB20" s="20" t="inlineStr"/>
-      <c r="BC20" s="21" t="inlineStr"/>
+      <c r="BB20" s="19" t="inlineStr"/>
+      <c r="BC20" s="20" t="inlineStr"/>
       <c r="BD20" s="21" t="inlineStr"/>
-      <c r="BE20" s="23" t="inlineStr"/>
-      <c r="BF20" s="24" t="inlineStr"/>
+      <c r="BE20" s="21" t="inlineStr"/>
+      <c r="BF20" s="23" t="inlineStr"/>
       <c r="BG20" s="32" t="inlineStr"/>
       <c r="BH20" s="32" t="inlineStr"/>
       <c r="BI20" s="32" t="inlineStr"/>
@@ -3227,13 +3526,16 @@
       <c r="BT20" s="32" t="inlineStr"/>
       <c r="BU20" s="32" t="inlineStr"/>
       <c r="BV20" s="32" t="inlineStr"/>
-      <c r="BW20" s="25" t="inlineStr"/>
-      <c r="BX20" s="33" t="inlineStr"/>
-      <c r="BY20" s="33" t="inlineStr"/>
+      <c r="BW20" s="32" t="inlineStr"/>
+      <c r="BX20" s="32" t="inlineStr"/>
+      <c r="BY20" s="25" t="inlineStr"/>
       <c r="BZ20" s="33" t="inlineStr"/>
       <c r="CA20" s="33" t="inlineStr"/>
-      <c r="CB20" s="26" t="inlineStr"/>
-      <c r="CC20" s="27" t="inlineStr"/>
+      <c r="CB20" s="33" t="inlineStr"/>
+      <c r="CC20" s="33" t="inlineStr"/>
+      <c r="CD20" s="26" t="inlineStr"/>
+      <c r="CE20" s="27" t="inlineStr"/>
+      <c r="CF20" s="27" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3259,28 +3561,28 @@
       <c r="U21" s="19" t="inlineStr"/>
       <c r="V21" s="19" t="inlineStr"/>
       <c r="W21" s="19" t="inlineStr"/>
-      <c r="X21" s="20" t="inlineStr"/>
-      <c r="Y21" s="21" t="inlineStr"/>
+      <c r="X21" s="19" t="inlineStr"/>
+      <c r="Y21" s="20" t="inlineStr"/>
       <c r="Z21" s="21" t="inlineStr"/>
-      <c r="AA21" s="22" t="inlineStr"/>
+      <c r="AA21" s="21" t="inlineStr"/>
       <c r="AB21" s="22" t="inlineStr"/>
-      <c r="AC21" s="21" t="inlineStr"/>
-      <c r="AD21" s="23" t="inlineStr"/>
-      <c r="AE21" s="24" t="inlineStr"/>
+      <c r="AC21" s="22" t="inlineStr"/>
+      <c r="AD21" s="21" t="inlineStr"/>
+      <c r="AE21" s="23" t="inlineStr"/>
       <c r="AF21" s="24" t="inlineStr"/>
       <c r="AG21" s="24" t="inlineStr"/>
       <c r="AH21" s="24" t="inlineStr"/>
-      <c r="AI21" s="25" t="inlineStr"/>
-      <c r="AJ21" s="26" t="inlineStr"/>
-      <c r="AK21" s="27" t="inlineStr"/>
-      <c r="AL21" s="28" t="inlineStr"/>
-      <c r="AM21" s="29" t="inlineStr"/>
-      <c r="AN21" s="30" t="inlineStr"/>
-      <c r="AO21" s="17" t="inlineStr"/>
+      <c r="AI21" s="24" t="inlineStr"/>
+      <c r="AJ21" s="25" t="inlineStr"/>
+      <c r="AK21" s="26" t="inlineStr"/>
+      <c r="AL21" s="27" t="inlineStr"/>
+      <c r="AM21" s="28" t="inlineStr"/>
+      <c r="AN21" s="29" t="inlineStr"/>
+      <c r="AO21" s="30" t="inlineStr"/>
       <c r="AP21" s="17" t="inlineStr"/>
-      <c r="AQ21" s="31" t="inlineStr"/>
-      <c r="AR21" s="18" t="inlineStr"/>
-      <c r="AS21" s="19" t="inlineStr"/>
+      <c r="AQ21" s="17" t="inlineStr"/>
+      <c r="AR21" s="31" t="inlineStr"/>
+      <c r="AS21" s="18" t="inlineStr"/>
       <c r="AT21" s="19" t="inlineStr"/>
       <c r="AU21" s="19" t="inlineStr"/>
       <c r="AV21" s="19" t="inlineStr"/>
@@ -3289,11 +3591,11 @@
       <c r="AY21" s="19" t="inlineStr"/>
       <c r="AZ21" s="19" t="inlineStr"/>
       <c r="BA21" s="19" t="inlineStr"/>
-      <c r="BB21" s="20" t="inlineStr"/>
-      <c r="BC21" s="21" t="inlineStr"/>
+      <c r="BB21" s="19" t="inlineStr"/>
+      <c r="BC21" s="20" t="inlineStr"/>
       <c r="BD21" s="21" t="inlineStr"/>
-      <c r="BE21" s="23" t="inlineStr"/>
-      <c r="BF21" s="24" t="inlineStr"/>
+      <c r="BE21" s="21" t="inlineStr"/>
+      <c r="BF21" s="23" t="inlineStr"/>
       <c r="BG21" s="32" t="inlineStr"/>
       <c r="BH21" s="32" t="inlineStr"/>
       <c r="BI21" s="32" t="inlineStr"/>
@@ -3310,13 +3612,16 @@
       <c r="BT21" s="32" t="inlineStr"/>
       <c r="BU21" s="32" t="inlineStr"/>
       <c r="BV21" s="32" t="inlineStr"/>
-      <c r="BW21" s="25" t="inlineStr"/>
-      <c r="BX21" s="33" t="inlineStr"/>
-      <c r="BY21" s="33" t="inlineStr"/>
+      <c r="BW21" s="32" t="inlineStr"/>
+      <c r="BX21" s="32" t="inlineStr"/>
+      <c r="BY21" s="25" t="inlineStr"/>
       <c r="BZ21" s="33" t="inlineStr"/>
       <c r="CA21" s="33" t="inlineStr"/>
-      <c r="CB21" s="26" t="inlineStr"/>
-      <c r="CC21" s="27" t="inlineStr"/>
+      <c r="CB21" s="33" t="inlineStr"/>
+      <c r="CC21" s="33" t="inlineStr"/>
+      <c r="CD21" s="26" t="inlineStr"/>
+      <c r="CE21" s="27" t="inlineStr"/>
+      <c r="CF21" s="27" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3342,28 +3647,28 @@
       <c r="U22" s="19" t="inlineStr"/>
       <c r="V22" s="19" t="inlineStr"/>
       <c r="W22" s="19" t="inlineStr"/>
-      <c r="X22" s="20" t="inlineStr"/>
-      <c r="Y22" s="21" t="inlineStr"/>
+      <c r="X22" s="19" t="inlineStr"/>
+      <c r="Y22" s="20" t="inlineStr"/>
       <c r="Z22" s="21" t="inlineStr"/>
-      <c r="AA22" s="22" t="inlineStr"/>
+      <c r="AA22" s="21" t="inlineStr"/>
       <c r="AB22" s="22" t="inlineStr"/>
-      <c r="AC22" s="21" t="inlineStr"/>
-      <c r="AD22" s="23" t="inlineStr"/>
-      <c r="AE22" s="24" t="inlineStr"/>
+      <c r="AC22" s="22" t="inlineStr"/>
+      <c r="AD22" s="21" t="inlineStr"/>
+      <c r="AE22" s="23" t="inlineStr"/>
       <c r="AF22" s="24" t="inlineStr"/>
       <c r="AG22" s="24" t="inlineStr"/>
       <c r="AH22" s="24" t="inlineStr"/>
-      <c r="AI22" s="25" t="inlineStr"/>
-      <c r="AJ22" s="26" t="inlineStr"/>
-      <c r="AK22" s="27" t="inlineStr"/>
-      <c r="AL22" s="28" t="inlineStr"/>
-      <c r="AM22" s="29" t="inlineStr"/>
-      <c r="AN22" s="30" t="inlineStr"/>
-      <c r="AO22" s="17" t="inlineStr"/>
+      <c r="AI22" s="24" t="inlineStr"/>
+      <c r="AJ22" s="25" t="inlineStr"/>
+      <c r="AK22" s="26" t="inlineStr"/>
+      <c r="AL22" s="27" t="inlineStr"/>
+      <c r="AM22" s="28" t="inlineStr"/>
+      <c r="AN22" s="29" t="inlineStr"/>
+      <c r="AO22" s="30" t="inlineStr"/>
       <c r="AP22" s="17" t="inlineStr"/>
-      <c r="AQ22" s="31" t="inlineStr"/>
-      <c r="AR22" s="18" t="inlineStr"/>
-      <c r="AS22" s="19" t="inlineStr"/>
+      <c r="AQ22" s="17" t="inlineStr"/>
+      <c r="AR22" s="31" t="inlineStr"/>
+      <c r="AS22" s="18" t="inlineStr"/>
       <c r="AT22" s="19" t="inlineStr"/>
       <c r="AU22" s="19" t="inlineStr"/>
       <c r="AV22" s="19" t="inlineStr"/>
@@ -3372,11 +3677,11 @@
       <c r="AY22" s="19" t="inlineStr"/>
       <c r="AZ22" s="19" t="inlineStr"/>
       <c r="BA22" s="19" t="inlineStr"/>
-      <c r="BB22" s="20" t="inlineStr"/>
-      <c r="BC22" s="21" t="inlineStr"/>
+      <c r="BB22" s="19" t="inlineStr"/>
+      <c r="BC22" s="20" t="inlineStr"/>
       <c r="BD22" s="21" t="inlineStr"/>
-      <c r="BE22" s="23" t="inlineStr"/>
-      <c r="BF22" s="24" t="inlineStr"/>
+      <c r="BE22" s="21" t="inlineStr"/>
+      <c r="BF22" s="23" t="inlineStr"/>
       <c r="BG22" s="32" t="inlineStr"/>
       <c r="BH22" s="32" t="inlineStr"/>
       <c r="BI22" s="32" t="inlineStr"/>
@@ -3393,13 +3698,16 @@
       <c r="BT22" s="32" t="inlineStr"/>
       <c r="BU22" s="32" t="inlineStr"/>
       <c r="BV22" s="32" t="inlineStr"/>
-      <c r="BW22" s="25" t="inlineStr"/>
-      <c r="BX22" s="33" t="inlineStr"/>
-      <c r="BY22" s="33" t="inlineStr"/>
+      <c r="BW22" s="32" t="inlineStr"/>
+      <c r="BX22" s="32" t="inlineStr"/>
+      <c r="BY22" s="25" t="inlineStr"/>
       <c r="BZ22" s="33" t="inlineStr"/>
       <c r="CA22" s="33" t="inlineStr"/>
-      <c r="CB22" s="26" t="inlineStr"/>
-      <c r="CC22" s="27" t="inlineStr"/>
+      <c r="CB22" s="33" t="inlineStr"/>
+      <c r="CC22" s="33" t="inlineStr"/>
+      <c r="CD22" s="26" t="inlineStr"/>
+      <c r="CE22" s="27" t="inlineStr"/>
+      <c r="CF22" s="27" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3425,28 +3733,28 @@
       <c r="U23" s="19" t="inlineStr"/>
       <c r="V23" s="19" t="inlineStr"/>
       <c r="W23" s="19" t="inlineStr"/>
-      <c r="X23" s="20" t="inlineStr"/>
-      <c r="Y23" s="21" t="inlineStr"/>
+      <c r="X23" s="19" t="inlineStr"/>
+      <c r="Y23" s="20" t="inlineStr"/>
       <c r="Z23" s="21" t="inlineStr"/>
-      <c r="AA23" s="22" t="inlineStr"/>
+      <c r="AA23" s="21" t="inlineStr"/>
       <c r="AB23" s="22" t="inlineStr"/>
-      <c r="AC23" s="21" t="inlineStr"/>
-      <c r="AD23" s="23" t="inlineStr"/>
-      <c r="AE23" s="24" t="inlineStr"/>
+      <c r="AC23" s="22" t="inlineStr"/>
+      <c r="AD23" s="21" t="inlineStr"/>
+      <c r="AE23" s="23" t="inlineStr"/>
       <c r="AF23" s="24" t="inlineStr"/>
       <c r="AG23" s="24" t="inlineStr"/>
       <c r="AH23" s="24" t="inlineStr"/>
-      <c r="AI23" s="25" t="inlineStr"/>
-      <c r="AJ23" s="26" t="inlineStr"/>
-      <c r="AK23" s="27" t="inlineStr"/>
-      <c r="AL23" s="28" t="inlineStr"/>
-      <c r="AM23" s="29" t="inlineStr"/>
-      <c r="AN23" s="30" t="inlineStr"/>
-      <c r="AO23" s="17" t="inlineStr"/>
+      <c r="AI23" s="24" t="inlineStr"/>
+      <c r="AJ23" s="25" t="inlineStr"/>
+      <c r="AK23" s="26" t="inlineStr"/>
+      <c r="AL23" s="27" t="inlineStr"/>
+      <c r="AM23" s="28" t="inlineStr"/>
+      <c r="AN23" s="29" t="inlineStr"/>
+      <c r="AO23" s="30" t="inlineStr"/>
       <c r="AP23" s="17" t="inlineStr"/>
-      <c r="AQ23" s="31" t="inlineStr"/>
-      <c r="AR23" s="18" t="inlineStr"/>
-      <c r="AS23" s="19" t="inlineStr"/>
+      <c r="AQ23" s="17" t="inlineStr"/>
+      <c r="AR23" s="31" t="inlineStr"/>
+      <c r="AS23" s="18" t="inlineStr"/>
       <c r="AT23" s="19" t="inlineStr"/>
       <c r="AU23" s="19" t="inlineStr"/>
       <c r="AV23" s="19" t="inlineStr"/>
@@ -3455,11 +3763,11 @@
       <c r="AY23" s="19" t="inlineStr"/>
       <c r="AZ23" s="19" t="inlineStr"/>
       <c r="BA23" s="19" t="inlineStr"/>
-      <c r="BB23" s="20" t="inlineStr"/>
-      <c r="BC23" s="21" t="inlineStr"/>
+      <c r="BB23" s="19" t="inlineStr"/>
+      <c r="BC23" s="20" t="inlineStr"/>
       <c r="BD23" s="21" t="inlineStr"/>
-      <c r="BE23" s="23" t="inlineStr"/>
-      <c r="BF23" s="24" t="inlineStr"/>
+      <c r="BE23" s="21" t="inlineStr"/>
+      <c r="BF23" s="23" t="inlineStr"/>
       <c r="BG23" s="32" t="inlineStr"/>
       <c r="BH23" s="32" t="inlineStr"/>
       <c r="BI23" s="32" t="inlineStr"/>
@@ -3476,13 +3784,16 @@
       <c r="BT23" s="32" t="inlineStr"/>
       <c r="BU23" s="32" t="inlineStr"/>
       <c r="BV23" s="32" t="inlineStr"/>
-      <c r="BW23" s="25" t="inlineStr"/>
-      <c r="BX23" s="33" t="inlineStr"/>
-      <c r="BY23" s="33" t="inlineStr"/>
+      <c r="BW23" s="32" t="inlineStr"/>
+      <c r="BX23" s="32" t="inlineStr"/>
+      <c r="BY23" s="25" t="inlineStr"/>
       <c r="BZ23" s="33" t="inlineStr"/>
       <c r="CA23" s="33" t="inlineStr"/>
-      <c r="CB23" s="26" t="inlineStr"/>
-      <c r="CC23" s="27" t="inlineStr"/>
+      <c r="CB23" s="33" t="inlineStr"/>
+      <c r="CC23" s="33" t="inlineStr"/>
+      <c r="CD23" s="26" t="inlineStr"/>
+      <c r="CE23" s="27" t="inlineStr"/>
+      <c r="CF23" s="27" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3508,28 +3819,28 @@
       <c r="U24" s="19" t="inlineStr"/>
       <c r="V24" s="19" t="inlineStr"/>
       <c r="W24" s="19" t="inlineStr"/>
-      <c r="X24" s="20" t="inlineStr"/>
-      <c r="Y24" s="21" t="inlineStr"/>
+      <c r="X24" s="19" t="inlineStr"/>
+      <c r="Y24" s="20" t="inlineStr"/>
       <c r="Z24" s="21" t="inlineStr"/>
-      <c r="AA24" s="22" t="inlineStr"/>
+      <c r="AA24" s="21" t="inlineStr"/>
       <c r="AB24" s="22" t="inlineStr"/>
-      <c r="AC24" s="21" t="inlineStr"/>
-      <c r="AD24" s="23" t="inlineStr"/>
-      <c r="AE24" s="24" t="inlineStr"/>
+      <c r="AC24" s="22" t="inlineStr"/>
+      <c r="AD24" s="21" t="inlineStr"/>
+      <c r="AE24" s="23" t="inlineStr"/>
       <c r="AF24" s="24" t="inlineStr"/>
       <c r="AG24" s="24" t="inlineStr"/>
       <c r="AH24" s="24" t="inlineStr"/>
-      <c r="AI24" s="25" t="inlineStr"/>
-      <c r="AJ24" s="26" t="inlineStr"/>
-      <c r="AK24" s="27" t="inlineStr"/>
-      <c r="AL24" s="28" t="inlineStr"/>
-      <c r="AM24" s="29" t="inlineStr"/>
-      <c r="AN24" s="30" t="inlineStr"/>
-      <c r="AO24" s="17" t="inlineStr"/>
+      <c r="AI24" s="24" t="inlineStr"/>
+      <c r="AJ24" s="25" t="inlineStr"/>
+      <c r="AK24" s="26" t="inlineStr"/>
+      <c r="AL24" s="27" t="inlineStr"/>
+      <c r="AM24" s="28" t="inlineStr"/>
+      <c r="AN24" s="29" t="inlineStr"/>
+      <c r="AO24" s="30" t="inlineStr"/>
       <c r="AP24" s="17" t="inlineStr"/>
-      <c r="AQ24" s="31" t="inlineStr"/>
-      <c r="AR24" s="18" t="inlineStr"/>
-      <c r="AS24" s="19" t="inlineStr"/>
+      <c r="AQ24" s="17" t="inlineStr"/>
+      <c r="AR24" s="31" t="inlineStr"/>
+      <c r="AS24" s="18" t="inlineStr"/>
       <c r="AT24" s="19" t="inlineStr"/>
       <c r="AU24" s="19" t="inlineStr"/>
       <c r="AV24" s="19" t="inlineStr"/>
@@ -3538,11 +3849,11 @@
       <c r="AY24" s="19" t="inlineStr"/>
       <c r="AZ24" s="19" t="inlineStr"/>
       <c r="BA24" s="19" t="inlineStr"/>
-      <c r="BB24" s="20" t="inlineStr"/>
-      <c r="BC24" s="21" t="inlineStr"/>
+      <c r="BB24" s="19" t="inlineStr"/>
+      <c r="BC24" s="20" t="inlineStr"/>
       <c r="BD24" s="21" t="inlineStr"/>
-      <c r="BE24" s="23" t="inlineStr"/>
-      <c r="BF24" s="24" t="inlineStr"/>
+      <c r="BE24" s="21" t="inlineStr"/>
+      <c r="BF24" s="23" t="inlineStr"/>
       <c r="BG24" s="32" t="inlineStr"/>
       <c r="BH24" s="32" t="inlineStr"/>
       <c r="BI24" s="32" t="inlineStr"/>
@@ -3559,13 +3870,16 @@
       <c r="BT24" s="32" t="inlineStr"/>
       <c r="BU24" s="32" t="inlineStr"/>
       <c r="BV24" s="32" t="inlineStr"/>
-      <c r="BW24" s="25" t="inlineStr"/>
-      <c r="BX24" s="33" t="inlineStr"/>
-      <c r="BY24" s="33" t="inlineStr"/>
+      <c r="BW24" s="32" t="inlineStr"/>
+      <c r="BX24" s="32" t="inlineStr"/>
+      <c r="BY24" s="25" t="inlineStr"/>
       <c r="BZ24" s="33" t="inlineStr"/>
       <c r="CA24" s="33" t="inlineStr"/>
-      <c r="CB24" s="26" t="inlineStr"/>
-      <c r="CC24" s="27" t="inlineStr"/>
+      <c r="CB24" s="33" t="inlineStr"/>
+      <c r="CC24" s="33" t="inlineStr"/>
+      <c r="CD24" s="26" t="inlineStr"/>
+      <c r="CE24" s="27" t="inlineStr"/>
+      <c r="CF24" s="27" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3591,28 +3905,28 @@
       <c r="U25" s="19" t="inlineStr"/>
       <c r="V25" s="19" t="inlineStr"/>
       <c r="W25" s="19" t="inlineStr"/>
-      <c r="X25" s="20" t="inlineStr"/>
-      <c r="Y25" s="21" t="inlineStr"/>
+      <c r="X25" s="19" t="inlineStr"/>
+      <c r="Y25" s="20" t="inlineStr"/>
       <c r="Z25" s="21" t="inlineStr"/>
-      <c r="AA25" s="22" t="inlineStr"/>
+      <c r="AA25" s="21" t="inlineStr"/>
       <c r="AB25" s="22" t="inlineStr"/>
-      <c r="AC25" s="21" t="inlineStr"/>
-      <c r="AD25" s="23" t="inlineStr"/>
-      <c r="AE25" s="24" t="inlineStr"/>
+      <c r="AC25" s="22" t="inlineStr"/>
+      <c r="AD25" s="21" t="inlineStr"/>
+      <c r="AE25" s="23" t="inlineStr"/>
       <c r="AF25" s="24" t="inlineStr"/>
       <c r="AG25" s="24" t="inlineStr"/>
       <c r="AH25" s="24" t="inlineStr"/>
-      <c r="AI25" s="25" t="inlineStr"/>
-      <c r="AJ25" s="26" t="inlineStr"/>
-      <c r="AK25" s="27" t="inlineStr"/>
-      <c r="AL25" s="28" t="inlineStr"/>
-      <c r="AM25" s="29" t="inlineStr"/>
-      <c r="AN25" s="30" t="inlineStr"/>
-      <c r="AO25" s="17" t="inlineStr"/>
+      <c r="AI25" s="24" t="inlineStr"/>
+      <c r="AJ25" s="25" t="inlineStr"/>
+      <c r="AK25" s="26" t="inlineStr"/>
+      <c r="AL25" s="27" t="inlineStr"/>
+      <c r="AM25" s="28" t="inlineStr"/>
+      <c r="AN25" s="29" t="inlineStr"/>
+      <c r="AO25" s="30" t="inlineStr"/>
       <c r="AP25" s="17" t="inlineStr"/>
-      <c r="AQ25" s="31" t="inlineStr"/>
-      <c r="AR25" s="18" t="inlineStr"/>
-      <c r="AS25" s="19" t="inlineStr"/>
+      <c r="AQ25" s="17" t="inlineStr"/>
+      <c r="AR25" s="31" t="inlineStr"/>
+      <c r="AS25" s="18" t="inlineStr"/>
       <c r="AT25" s="19" t="inlineStr"/>
       <c r="AU25" s="19" t="inlineStr"/>
       <c r="AV25" s="19" t="inlineStr"/>
@@ -3621,11 +3935,11 @@
       <c r="AY25" s="19" t="inlineStr"/>
       <c r="AZ25" s="19" t="inlineStr"/>
       <c r="BA25" s="19" t="inlineStr"/>
-      <c r="BB25" s="20" t="inlineStr"/>
-      <c r="BC25" s="21" t="inlineStr"/>
+      <c r="BB25" s="19" t="inlineStr"/>
+      <c r="BC25" s="20" t="inlineStr"/>
       <c r="BD25" s="21" t="inlineStr"/>
-      <c r="BE25" s="23" t="inlineStr"/>
-      <c r="BF25" s="24" t="inlineStr"/>
+      <c r="BE25" s="21" t="inlineStr"/>
+      <c r="BF25" s="23" t="inlineStr"/>
       <c r="BG25" s="32" t="inlineStr"/>
       <c r="BH25" s="32" t="inlineStr"/>
       <c r="BI25" s="32" t="inlineStr"/>
@@ -3642,13 +3956,16 @@
       <c r="BT25" s="32" t="inlineStr"/>
       <c r="BU25" s="32" t="inlineStr"/>
       <c r="BV25" s="32" t="inlineStr"/>
-      <c r="BW25" s="25" t="inlineStr"/>
-      <c r="BX25" s="33" t="inlineStr"/>
-      <c r="BY25" s="33" t="inlineStr"/>
+      <c r="BW25" s="32" t="inlineStr"/>
+      <c r="BX25" s="32" t="inlineStr"/>
+      <c r="BY25" s="25" t="inlineStr"/>
       <c r="BZ25" s="33" t="inlineStr"/>
       <c r="CA25" s="33" t="inlineStr"/>
-      <c r="CB25" s="26" t="inlineStr"/>
-      <c r="CC25" s="27" t="inlineStr"/>
+      <c r="CB25" s="33" t="inlineStr"/>
+      <c r="CC25" s="33" t="inlineStr"/>
+      <c r="CD25" s="26" t="inlineStr"/>
+      <c r="CE25" s="27" t="inlineStr"/>
+      <c r="CF25" s="27" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3674,28 +3991,28 @@
       <c r="U26" s="19" t="inlineStr"/>
       <c r="V26" s="19" t="inlineStr"/>
       <c r="W26" s="19" t="inlineStr"/>
-      <c r="X26" s="20" t="inlineStr"/>
-      <c r="Y26" s="21" t="inlineStr"/>
+      <c r="X26" s="19" t="inlineStr"/>
+      <c r="Y26" s="20" t="inlineStr"/>
       <c r="Z26" s="21" t="inlineStr"/>
-      <c r="AA26" s="22" t="inlineStr"/>
+      <c r="AA26" s="21" t="inlineStr"/>
       <c r="AB26" s="22" t="inlineStr"/>
-      <c r="AC26" s="21" t="inlineStr"/>
-      <c r="AD26" s="23" t="inlineStr"/>
-      <c r="AE26" s="24" t="inlineStr"/>
+      <c r="AC26" s="22" t="inlineStr"/>
+      <c r="AD26" s="21" t="inlineStr"/>
+      <c r="AE26" s="23" t="inlineStr"/>
       <c r="AF26" s="24" t="inlineStr"/>
       <c r="AG26" s="24" t="inlineStr"/>
       <c r="AH26" s="24" t="inlineStr"/>
-      <c r="AI26" s="25" t="inlineStr"/>
-      <c r="AJ26" s="26" t="inlineStr"/>
-      <c r="AK26" s="27" t="inlineStr"/>
-      <c r="AL26" s="28" t="inlineStr"/>
-      <c r="AM26" s="29" t="inlineStr"/>
-      <c r="AN26" s="30" t="inlineStr"/>
-      <c r="AO26" s="17" t="inlineStr"/>
+      <c r="AI26" s="24" t="inlineStr"/>
+      <c r="AJ26" s="25" t="inlineStr"/>
+      <c r="AK26" s="26" t="inlineStr"/>
+      <c r="AL26" s="27" t="inlineStr"/>
+      <c r="AM26" s="28" t="inlineStr"/>
+      <c r="AN26" s="29" t="inlineStr"/>
+      <c r="AO26" s="30" t="inlineStr"/>
       <c r="AP26" s="17" t="inlineStr"/>
-      <c r="AQ26" s="31" t="inlineStr"/>
-      <c r="AR26" s="18" t="inlineStr"/>
-      <c r="AS26" s="19" t="inlineStr"/>
+      <c r="AQ26" s="17" t="inlineStr"/>
+      <c r="AR26" s="31" t="inlineStr"/>
+      <c r="AS26" s="18" t="inlineStr"/>
       <c r="AT26" s="19" t="inlineStr"/>
       <c r="AU26" s="19" t="inlineStr"/>
       <c r="AV26" s="19" t="inlineStr"/>
@@ -3704,11 +4021,11 @@
       <c r="AY26" s="19" t="inlineStr"/>
       <c r="AZ26" s="19" t="inlineStr"/>
       <c r="BA26" s="19" t="inlineStr"/>
-      <c r="BB26" s="20" t="inlineStr"/>
-      <c r="BC26" s="21" t="inlineStr"/>
+      <c r="BB26" s="19" t="inlineStr"/>
+      <c r="BC26" s="20" t="inlineStr"/>
       <c r="BD26" s="21" t="inlineStr"/>
-      <c r="BE26" s="23" t="inlineStr"/>
-      <c r="BF26" s="24" t="inlineStr"/>
+      <c r="BE26" s="21" t="inlineStr"/>
+      <c r="BF26" s="23" t="inlineStr"/>
       <c r="BG26" s="32" t="inlineStr"/>
       <c r="BH26" s="32" t="inlineStr"/>
       <c r="BI26" s="32" t="inlineStr"/>
@@ -3725,13 +4042,16 @@
       <c r="BT26" s="32" t="inlineStr"/>
       <c r="BU26" s="32" t="inlineStr"/>
       <c r="BV26" s="32" t="inlineStr"/>
-      <c r="BW26" s="25" t="inlineStr"/>
-      <c r="BX26" s="33" t="inlineStr"/>
-      <c r="BY26" s="33" t="inlineStr"/>
+      <c r="BW26" s="32" t="inlineStr"/>
+      <c r="BX26" s="32" t="inlineStr"/>
+      <c r="BY26" s="25" t="inlineStr"/>
       <c r="BZ26" s="33" t="inlineStr"/>
       <c r="CA26" s="33" t="inlineStr"/>
-      <c r="CB26" s="26" t="inlineStr"/>
-      <c r="CC26" s="27" t="inlineStr"/>
+      <c r="CB26" s="33" t="inlineStr"/>
+      <c r="CC26" s="33" t="inlineStr"/>
+      <c r="CD26" s="26" t="inlineStr"/>
+      <c r="CE26" s="27" t="inlineStr"/>
+      <c r="CF26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3757,28 +4077,28 @@
       <c r="U27" s="19" t="inlineStr"/>
       <c r="V27" s="19" t="inlineStr"/>
       <c r="W27" s="19" t="inlineStr"/>
-      <c r="X27" s="20" t="inlineStr"/>
-      <c r="Y27" s="21" t="inlineStr"/>
+      <c r="X27" s="19" t="inlineStr"/>
+      <c r="Y27" s="20" t="inlineStr"/>
       <c r="Z27" s="21" t="inlineStr"/>
-      <c r="AA27" s="22" t="inlineStr"/>
+      <c r="AA27" s="21" t="inlineStr"/>
       <c r="AB27" s="22" t="inlineStr"/>
-      <c r="AC27" s="21" t="inlineStr"/>
-      <c r="AD27" s="23" t="inlineStr"/>
-      <c r="AE27" s="24" t="inlineStr"/>
+      <c r="AC27" s="22" t="inlineStr"/>
+      <c r="AD27" s="21" t="inlineStr"/>
+      <c r="AE27" s="23" t="inlineStr"/>
       <c r="AF27" s="24" t="inlineStr"/>
       <c r="AG27" s="24" t="inlineStr"/>
       <c r="AH27" s="24" t="inlineStr"/>
-      <c r="AI27" s="25" t="inlineStr"/>
-      <c r="AJ27" s="26" t="inlineStr"/>
-      <c r="AK27" s="27" t="inlineStr"/>
-      <c r="AL27" s="28" t="inlineStr"/>
-      <c r="AM27" s="29" t="inlineStr"/>
-      <c r="AN27" s="30" t="inlineStr"/>
-      <c r="AO27" s="17" t="inlineStr"/>
+      <c r="AI27" s="24" t="inlineStr"/>
+      <c r="AJ27" s="25" t="inlineStr"/>
+      <c r="AK27" s="26" t="inlineStr"/>
+      <c r="AL27" s="27" t="inlineStr"/>
+      <c r="AM27" s="28" t="inlineStr"/>
+      <c r="AN27" s="29" t="inlineStr"/>
+      <c r="AO27" s="30" t="inlineStr"/>
       <c r="AP27" s="17" t="inlineStr"/>
-      <c r="AQ27" s="31" t="inlineStr"/>
-      <c r="AR27" s="18" t="inlineStr"/>
-      <c r="AS27" s="19" t="inlineStr"/>
+      <c r="AQ27" s="17" t="inlineStr"/>
+      <c r="AR27" s="31" t="inlineStr"/>
+      <c r="AS27" s="18" t="inlineStr"/>
       <c r="AT27" s="19" t="inlineStr"/>
       <c r="AU27" s="19" t="inlineStr"/>
       <c r="AV27" s="19" t="inlineStr"/>
@@ -3787,11 +4107,11 @@
       <c r="AY27" s="19" t="inlineStr"/>
       <c r="AZ27" s="19" t="inlineStr"/>
       <c r="BA27" s="19" t="inlineStr"/>
-      <c r="BB27" s="20" t="inlineStr"/>
-      <c r="BC27" s="21" t="inlineStr"/>
+      <c r="BB27" s="19" t="inlineStr"/>
+      <c r="BC27" s="20" t="inlineStr"/>
       <c r="BD27" s="21" t="inlineStr"/>
-      <c r="BE27" s="23" t="inlineStr"/>
-      <c r="BF27" s="24" t="inlineStr"/>
+      <c r="BE27" s="21" t="inlineStr"/>
+      <c r="BF27" s="23" t="inlineStr"/>
       <c r="BG27" s="32" t="inlineStr"/>
       <c r="BH27" s="32" t="inlineStr"/>
       <c r="BI27" s="32" t="inlineStr"/>
@@ -3808,13 +4128,16 @@
       <c r="BT27" s="32" t="inlineStr"/>
       <c r="BU27" s="32" t="inlineStr"/>
       <c r="BV27" s="32" t="inlineStr"/>
-      <c r="BW27" s="25" t="inlineStr"/>
-      <c r="BX27" s="33" t="inlineStr"/>
-      <c r="BY27" s="33" t="inlineStr"/>
+      <c r="BW27" s="32" t="inlineStr"/>
+      <c r="BX27" s="32" t="inlineStr"/>
+      <c r="BY27" s="25" t="inlineStr"/>
       <c r="BZ27" s="33" t="inlineStr"/>
       <c r="CA27" s="33" t="inlineStr"/>
-      <c r="CB27" s="26" t="inlineStr"/>
-      <c r="CC27" s="27" t="inlineStr"/>
+      <c r="CB27" s="33" t="inlineStr"/>
+      <c r="CC27" s="33" t="inlineStr"/>
+      <c r="CD27" s="26" t="inlineStr"/>
+      <c r="CE27" s="27" t="inlineStr"/>
+      <c r="CF27" s="27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3840,28 +4163,28 @@
       <c r="U28" s="19" t="inlineStr"/>
       <c r="V28" s="19" t="inlineStr"/>
       <c r="W28" s="19" t="inlineStr"/>
-      <c r="X28" s="20" t="inlineStr"/>
-      <c r="Y28" s="21" t="inlineStr"/>
+      <c r="X28" s="19" t="inlineStr"/>
+      <c r="Y28" s="20" t="inlineStr"/>
       <c r="Z28" s="21" t="inlineStr"/>
-      <c r="AA28" s="22" t="inlineStr"/>
+      <c r="AA28" s="21" t="inlineStr"/>
       <c r="AB28" s="22" t="inlineStr"/>
-      <c r="AC28" s="21" t="inlineStr"/>
-      <c r="AD28" s="23" t="inlineStr"/>
-      <c r="AE28" s="24" t="inlineStr"/>
+      <c r="AC28" s="22" t="inlineStr"/>
+      <c r="AD28" s="21" t="inlineStr"/>
+      <c r="AE28" s="23" t="inlineStr"/>
       <c r="AF28" s="24" t="inlineStr"/>
       <c r="AG28" s="24" t="inlineStr"/>
       <c r="AH28" s="24" t="inlineStr"/>
-      <c r="AI28" s="25" t="inlineStr"/>
-      <c r="AJ28" s="26" t="inlineStr"/>
-      <c r="AK28" s="27" t="inlineStr"/>
-      <c r="AL28" s="28" t="inlineStr"/>
-      <c r="AM28" s="29" t="inlineStr"/>
-      <c r="AN28" s="30" t="inlineStr"/>
-      <c r="AO28" s="17" t="inlineStr"/>
+      <c r="AI28" s="24" t="inlineStr"/>
+      <c r="AJ28" s="25" t="inlineStr"/>
+      <c r="AK28" s="26" t="inlineStr"/>
+      <c r="AL28" s="27" t="inlineStr"/>
+      <c r="AM28" s="28" t="inlineStr"/>
+      <c r="AN28" s="29" t="inlineStr"/>
+      <c r="AO28" s="30" t="inlineStr"/>
       <c r="AP28" s="17" t="inlineStr"/>
-      <c r="AQ28" s="31" t="inlineStr"/>
-      <c r="AR28" s="18" t="inlineStr"/>
-      <c r="AS28" s="19" t="inlineStr"/>
+      <c r="AQ28" s="17" t="inlineStr"/>
+      <c r="AR28" s="31" t="inlineStr"/>
+      <c r="AS28" s="18" t="inlineStr"/>
       <c r="AT28" s="19" t="inlineStr"/>
       <c r="AU28" s="19" t="inlineStr"/>
       <c r="AV28" s="19" t="inlineStr"/>
@@ -3870,11 +4193,11 @@
       <c r="AY28" s="19" t="inlineStr"/>
       <c r="AZ28" s="19" t="inlineStr"/>
       <c r="BA28" s="19" t="inlineStr"/>
-      <c r="BB28" s="20" t="inlineStr"/>
-      <c r="BC28" s="21" t="inlineStr"/>
+      <c r="BB28" s="19" t="inlineStr"/>
+      <c r="BC28" s="20" t="inlineStr"/>
       <c r="BD28" s="21" t="inlineStr"/>
-      <c r="BE28" s="23" t="inlineStr"/>
-      <c r="BF28" s="24" t="inlineStr"/>
+      <c r="BE28" s="21" t="inlineStr"/>
+      <c r="BF28" s="23" t="inlineStr"/>
       <c r="BG28" s="32" t="inlineStr"/>
       <c r="BH28" s="32" t="inlineStr"/>
       <c r="BI28" s="32" t="inlineStr"/>
@@ -3891,13 +4214,16 @@
       <c r="BT28" s="32" t="inlineStr"/>
       <c r="BU28" s="32" t="inlineStr"/>
       <c r="BV28" s="32" t="inlineStr"/>
-      <c r="BW28" s="25" t="inlineStr"/>
-      <c r="BX28" s="33" t="inlineStr"/>
-      <c r="BY28" s="33" t="inlineStr"/>
+      <c r="BW28" s="32" t="inlineStr"/>
+      <c r="BX28" s="32" t="inlineStr"/>
+      <c r="BY28" s="25" t="inlineStr"/>
       <c r="BZ28" s="33" t="inlineStr"/>
       <c r="CA28" s="33" t="inlineStr"/>
-      <c r="CB28" s="26" t="inlineStr"/>
-      <c r="CC28" s="27" t="inlineStr"/>
+      <c r="CB28" s="33" t="inlineStr"/>
+      <c r="CC28" s="33" t="inlineStr"/>
+      <c r="CD28" s="26" t="inlineStr"/>
+      <c r="CE28" s="27" t="inlineStr"/>
+      <c r="CF28" s="27" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -3923,28 +4249,28 @@
       <c r="U29" s="19" t="inlineStr"/>
       <c r="V29" s="19" t="inlineStr"/>
       <c r="W29" s="19" t="inlineStr"/>
-      <c r="X29" s="20" t="inlineStr"/>
-      <c r="Y29" s="21" t="inlineStr"/>
+      <c r="X29" s="19" t="inlineStr"/>
+      <c r="Y29" s="20" t="inlineStr"/>
       <c r="Z29" s="21" t="inlineStr"/>
-      <c r="AA29" s="22" t="inlineStr"/>
+      <c r="AA29" s="21" t="inlineStr"/>
       <c r="AB29" s="22" t="inlineStr"/>
-      <c r="AC29" s="21" t="inlineStr"/>
-      <c r="AD29" s="23" t="inlineStr"/>
-      <c r="AE29" s="24" t="inlineStr"/>
+      <c r="AC29" s="22" t="inlineStr"/>
+      <c r="AD29" s="21" t="inlineStr"/>
+      <c r="AE29" s="23" t="inlineStr"/>
       <c r="AF29" s="24" t="inlineStr"/>
       <c r="AG29" s="24" t="inlineStr"/>
       <c r="AH29" s="24" t="inlineStr"/>
-      <c r="AI29" s="25" t="inlineStr"/>
-      <c r="AJ29" s="26" t="inlineStr"/>
-      <c r="AK29" s="27" t="inlineStr"/>
-      <c r="AL29" s="28" t="inlineStr"/>
-      <c r="AM29" s="29" t="inlineStr"/>
-      <c r="AN29" s="30" t="inlineStr"/>
-      <c r="AO29" s="17" t="inlineStr"/>
+      <c r="AI29" s="24" t="inlineStr"/>
+      <c r="AJ29" s="25" t="inlineStr"/>
+      <c r="AK29" s="26" t="inlineStr"/>
+      <c r="AL29" s="27" t="inlineStr"/>
+      <c r="AM29" s="28" t="inlineStr"/>
+      <c r="AN29" s="29" t="inlineStr"/>
+      <c r="AO29" s="30" t="inlineStr"/>
       <c r="AP29" s="17" t="inlineStr"/>
-      <c r="AQ29" s="31" t="inlineStr"/>
-      <c r="AR29" s="18" t="inlineStr"/>
-      <c r="AS29" s="19" t="inlineStr"/>
+      <c r="AQ29" s="17" t="inlineStr"/>
+      <c r="AR29" s="31" t="inlineStr"/>
+      <c r="AS29" s="18" t="inlineStr"/>
       <c r="AT29" s="19" t="inlineStr"/>
       <c r="AU29" s="19" t="inlineStr"/>
       <c r="AV29" s="19" t="inlineStr"/>
@@ -3953,11 +4279,11 @@
       <c r="AY29" s="19" t="inlineStr"/>
       <c r="AZ29" s="19" t="inlineStr"/>
       <c r="BA29" s="19" t="inlineStr"/>
-      <c r="BB29" s="20" t="inlineStr"/>
-      <c r="BC29" s="21" t="inlineStr"/>
+      <c r="BB29" s="19" t="inlineStr"/>
+      <c r="BC29" s="20" t="inlineStr"/>
       <c r="BD29" s="21" t="inlineStr"/>
-      <c r="BE29" s="23" t="inlineStr"/>
-      <c r="BF29" s="24" t="inlineStr"/>
+      <c r="BE29" s="21" t="inlineStr"/>
+      <c r="BF29" s="23" t="inlineStr"/>
       <c r="BG29" s="32" t="inlineStr"/>
       <c r="BH29" s="32" t="inlineStr"/>
       <c r="BI29" s="32" t="inlineStr"/>
@@ -3974,13 +4300,16 @@
       <c r="BT29" s="32" t="inlineStr"/>
       <c r="BU29" s="32" t="inlineStr"/>
       <c r="BV29" s="32" t="inlineStr"/>
-      <c r="BW29" s="25" t="inlineStr"/>
-      <c r="BX29" s="33" t="inlineStr"/>
-      <c r="BY29" s="33" t="inlineStr"/>
+      <c r="BW29" s="32" t="inlineStr"/>
+      <c r="BX29" s="32" t="inlineStr"/>
+      <c r="BY29" s="25" t="inlineStr"/>
       <c r="BZ29" s="33" t="inlineStr"/>
       <c r="CA29" s="33" t="inlineStr"/>
-      <c r="CB29" s="26" t="inlineStr"/>
-      <c r="CC29" s="27" t="inlineStr"/>
+      <c r="CB29" s="33" t="inlineStr"/>
+      <c r="CC29" s="33" t="inlineStr"/>
+      <c r="CD29" s="26" t="inlineStr"/>
+      <c r="CE29" s="27" t="inlineStr"/>
+      <c r="CF29" s="27" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4006,28 +4335,28 @@
       <c r="U30" s="19" t="inlineStr"/>
       <c r="V30" s="19" t="inlineStr"/>
       <c r="W30" s="19" t="inlineStr"/>
-      <c r="X30" s="20" t="inlineStr"/>
-      <c r="Y30" s="21" t="inlineStr"/>
+      <c r="X30" s="19" t="inlineStr"/>
+      <c r="Y30" s="20" t="inlineStr"/>
       <c r="Z30" s="21" t="inlineStr"/>
-      <c r="AA30" s="22" t="inlineStr"/>
+      <c r="AA30" s="21" t="inlineStr"/>
       <c r="AB30" s="22" t="inlineStr"/>
-      <c r="AC30" s="21" t="inlineStr"/>
-      <c r="AD30" s="23" t="inlineStr"/>
-      <c r="AE30" s="24" t="inlineStr"/>
+      <c r="AC30" s="22" t="inlineStr"/>
+      <c r="AD30" s="21" t="inlineStr"/>
+      <c r="AE30" s="23" t="inlineStr"/>
       <c r="AF30" s="24" t="inlineStr"/>
       <c r="AG30" s="24" t="inlineStr"/>
       <c r="AH30" s="24" t="inlineStr"/>
-      <c r="AI30" s="25" t="inlineStr"/>
-      <c r="AJ30" s="26" t="inlineStr"/>
-      <c r="AK30" s="27" t="inlineStr"/>
-      <c r="AL30" s="28" t="inlineStr"/>
-      <c r="AM30" s="29" t="inlineStr"/>
-      <c r="AN30" s="30" t="inlineStr"/>
-      <c r="AO30" s="17" t="inlineStr"/>
+      <c r="AI30" s="24" t="inlineStr"/>
+      <c r="AJ30" s="25" t="inlineStr"/>
+      <c r="AK30" s="26" t="inlineStr"/>
+      <c r="AL30" s="27" t="inlineStr"/>
+      <c r="AM30" s="28" t="inlineStr"/>
+      <c r="AN30" s="29" t="inlineStr"/>
+      <c r="AO30" s="30" t="inlineStr"/>
       <c r="AP30" s="17" t="inlineStr"/>
-      <c r="AQ30" s="31" t="inlineStr"/>
-      <c r="AR30" s="18" t="inlineStr"/>
-      <c r="AS30" s="19" t="inlineStr"/>
+      <c r="AQ30" s="17" t="inlineStr"/>
+      <c r="AR30" s="31" t="inlineStr"/>
+      <c r="AS30" s="18" t="inlineStr"/>
       <c r="AT30" s="19" t="inlineStr"/>
       <c r="AU30" s="19" t="inlineStr"/>
       <c r="AV30" s="19" t="inlineStr"/>
@@ -4036,11 +4365,11 @@
       <c r="AY30" s="19" t="inlineStr"/>
       <c r="AZ30" s="19" t="inlineStr"/>
       <c r="BA30" s="19" t="inlineStr"/>
-      <c r="BB30" s="20" t="inlineStr"/>
-      <c r="BC30" s="21" t="inlineStr"/>
+      <c r="BB30" s="19" t="inlineStr"/>
+      <c r="BC30" s="20" t="inlineStr"/>
       <c r="BD30" s="21" t="inlineStr"/>
-      <c r="BE30" s="23" t="inlineStr"/>
-      <c r="BF30" s="24" t="inlineStr"/>
+      <c r="BE30" s="21" t="inlineStr"/>
+      <c r="BF30" s="23" t="inlineStr"/>
       <c r="BG30" s="32" t="inlineStr"/>
       <c r="BH30" s="32" t="inlineStr"/>
       <c r="BI30" s="32" t="inlineStr"/>
@@ -4057,13 +4386,16 @@
       <c r="BT30" s="32" t="inlineStr"/>
       <c r="BU30" s="32" t="inlineStr"/>
       <c r="BV30" s="32" t="inlineStr"/>
-      <c r="BW30" s="25" t="inlineStr"/>
-      <c r="BX30" s="33" t="inlineStr"/>
-      <c r="BY30" s="33" t="inlineStr"/>
+      <c r="BW30" s="32" t="inlineStr"/>
+      <c r="BX30" s="32" t="inlineStr"/>
+      <c r="BY30" s="25" t="inlineStr"/>
       <c r="BZ30" s="33" t="inlineStr"/>
       <c r="CA30" s="33" t="inlineStr"/>
-      <c r="CB30" s="26" t="inlineStr"/>
-      <c r="CC30" s="27" t="inlineStr"/>
+      <c r="CB30" s="33" t="inlineStr"/>
+      <c r="CC30" s="33" t="inlineStr"/>
+      <c r="CD30" s="26" t="inlineStr"/>
+      <c r="CE30" s="27" t="inlineStr"/>
+      <c r="CF30" s="27" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4089,28 +4421,28 @@
       <c r="U31" s="19" t="inlineStr"/>
       <c r="V31" s="19" t="inlineStr"/>
       <c r="W31" s="19" t="inlineStr"/>
-      <c r="X31" s="20" t="inlineStr"/>
-      <c r="Y31" s="21" t="inlineStr"/>
+      <c r="X31" s="19" t="inlineStr"/>
+      <c r="Y31" s="20" t="inlineStr"/>
       <c r="Z31" s="21" t="inlineStr"/>
-      <c r="AA31" s="22" t="inlineStr"/>
+      <c r="AA31" s="21" t="inlineStr"/>
       <c r="AB31" s="22" t="inlineStr"/>
-      <c r="AC31" s="21" t="inlineStr"/>
-      <c r="AD31" s="23" t="inlineStr"/>
-      <c r="AE31" s="24" t="inlineStr"/>
+      <c r="AC31" s="22" t="inlineStr"/>
+      <c r="AD31" s="21" t="inlineStr"/>
+      <c r="AE31" s="23" t="inlineStr"/>
       <c r="AF31" s="24" t="inlineStr"/>
       <c r="AG31" s="24" t="inlineStr"/>
       <c r="AH31" s="24" t="inlineStr"/>
-      <c r="AI31" s="25" t="inlineStr"/>
-      <c r="AJ31" s="26" t="inlineStr"/>
-      <c r="AK31" s="27" t="inlineStr"/>
-      <c r="AL31" s="28" t="inlineStr"/>
-      <c r="AM31" s="29" t="inlineStr"/>
-      <c r="AN31" s="30" t="inlineStr"/>
-      <c r="AO31" s="17" t="inlineStr"/>
+      <c r="AI31" s="24" t="inlineStr"/>
+      <c r="AJ31" s="25" t="inlineStr"/>
+      <c r="AK31" s="26" t="inlineStr"/>
+      <c r="AL31" s="27" t="inlineStr"/>
+      <c r="AM31" s="28" t="inlineStr"/>
+      <c r="AN31" s="29" t="inlineStr"/>
+      <c r="AO31" s="30" t="inlineStr"/>
       <c r="AP31" s="17" t="inlineStr"/>
-      <c r="AQ31" s="31" t="inlineStr"/>
-      <c r="AR31" s="18" t="inlineStr"/>
-      <c r="AS31" s="19" t="inlineStr"/>
+      <c r="AQ31" s="17" t="inlineStr"/>
+      <c r="AR31" s="31" t="inlineStr"/>
+      <c r="AS31" s="18" t="inlineStr"/>
       <c r="AT31" s="19" t="inlineStr"/>
       <c r="AU31" s="19" t="inlineStr"/>
       <c r="AV31" s="19" t="inlineStr"/>
@@ -4119,11 +4451,11 @@
       <c r="AY31" s="19" t="inlineStr"/>
       <c r="AZ31" s="19" t="inlineStr"/>
       <c r="BA31" s="19" t="inlineStr"/>
-      <c r="BB31" s="20" t="inlineStr"/>
-      <c r="BC31" s="21" t="inlineStr"/>
+      <c r="BB31" s="19" t="inlineStr"/>
+      <c r="BC31" s="20" t="inlineStr"/>
       <c r="BD31" s="21" t="inlineStr"/>
-      <c r="BE31" s="23" t="inlineStr"/>
-      <c r="BF31" s="24" t="inlineStr"/>
+      <c r="BE31" s="21" t="inlineStr"/>
+      <c r="BF31" s="23" t="inlineStr"/>
       <c r="BG31" s="32" t="inlineStr"/>
       <c r="BH31" s="32" t="inlineStr"/>
       <c r="BI31" s="32" t="inlineStr"/>
@@ -4140,13 +4472,16 @@
       <c r="BT31" s="32" t="inlineStr"/>
       <c r="BU31" s="32" t="inlineStr"/>
       <c r="BV31" s="32" t="inlineStr"/>
-      <c r="BW31" s="25" t="inlineStr"/>
-      <c r="BX31" s="33" t="inlineStr"/>
-      <c r="BY31" s="33" t="inlineStr"/>
+      <c r="BW31" s="32" t="inlineStr"/>
+      <c r="BX31" s="32" t="inlineStr"/>
+      <c r="BY31" s="25" t="inlineStr"/>
       <c r="BZ31" s="33" t="inlineStr"/>
       <c r="CA31" s="33" t="inlineStr"/>
-      <c r="CB31" s="26" t="inlineStr"/>
-      <c r="CC31" s="27" t="inlineStr"/>
+      <c r="CB31" s="33" t="inlineStr"/>
+      <c r="CC31" s="33" t="inlineStr"/>
+      <c r="CD31" s="26" t="inlineStr"/>
+      <c r="CE31" s="27" t="inlineStr"/>
+      <c r="CF31" s="27" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4172,28 +4507,28 @@
       <c r="U32" s="19" t="inlineStr"/>
       <c r="V32" s="19" t="inlineStr"/>
       <c r="W32" s="19" t="inlineStr"/>
-      <c r="X32" s="20" t="inlineStr"/>
-      <c r="Y32" s="21" t="inlineStr"/>
+      <c r="X32" s="19" t="inlineStr"/>
+      <c r="Y32" s="20" t="inlineStr"/>
       <c r="Z32" s="21" t="inlineStr"/>
-      <c r="AA32" s="22" t="inlineStr"/>
+      <c r="AA32" s="21" t="inlineStr"/>
       <c r="AB32" s="22" t="inlineStr"/>
-      <c r="AC32" s="21" t="inlineStr"/>
-      <c r="AD32" s="23" t="inlineStr"/>
-      <c r="AE32" s="24" t="inlineStr"/>
+      <c r="AC32" s="22" t="inlineStr"/>
+      <c r="AD32" s="21" t="inlineStr"/>
+      <c r="AE32" s="23" t="inlineStr"/>
       <c r="AF32" s="24" t="inlineStr"/>
       <c r="AG32" s="24" t="inlineStr"/>
       <c r="AH32" s="24" t="inlineStr"/>
-      <c r="AI32" s="25" t="inlineStr"/>
-      <c r="AJ32" s="26" t="inlineStr"/>
-      <c r="AK32" s="27" t="inlineStr"/>
-      <c r="AL32" s="28" t="inlineStr"/>
-      <c r="AM32" s="29" t="inlineStr"/>
-      <c r="AN32" s="30" t="inlineStr"/>
-      <c r="AO32" s="17" t="inlineStr"/>
+      <c r="AI32" s="24" t="inlineStr"/>
+      <c r="AJ32" s="25" t="inlineStr"/>
+      <c r="AK32" s="26" t="inlineStr"/>
+      <c r="AL32" s="27" t="inlineStr"/>
+      <c r="AM32" s="28" t="inlineStr"/>
+      <c r="AN32" s="29" t="inlineStr"/>
+      <c r="AO32" s="30" t="inlineStr"/>
       <c r="AP32" s="17" t="inlineStr"/>
-      <c r="AQ32" s="31" t="inlineStr"/>
-      <c r="AR32" s="18" t="inlineStr"/>
-      <c r="AS32" s="19" t="inlineStr"/>
+      <c r="AQ32" s="17" t="inlineStr"/>
+      <c r="AR32" s="31" t="inlineStr"/>
+      <c r="AS32" s="18" t="inlineStr"/>
       <c r="AT32" s="19" t="inlineStr"/>
       <c r="AU32" s="19" t="inlineStr"/>
       <c r="AV32" s="19" t="inlineStr"/>
@@ -4202,11 +4537,11 @@
       <c r="AY32" s="19" t="inlineStr"/>
       <c r="AZ32" s="19" t="inlineStr"/>
       <c r="BA32" s="19" t="inlineStr"/>
-      <c r="BB32" s="20" t="inlineStr"/>
-      <c r="BC32" s="21" t="inlineStr"/>
+      <c r="BB32" s="19" t="inlineStr"/>
+      <c r="BC32" s="20" t="inlineStr"/>
       <c r="BD32" s="21" t="inlineStr"/>
-      <c r="BE32" s="23" t="inlineStr"/>
-      <c r="BF32" s="24" t="inlineStr"/>
+      <c r="BE32" s="21" t="inlineStr"/>
+      <c r="BF32" s="23" t="inlineStr"/>
       <c r="BG32" s="32" t="inlineStr"/>
       <c r="BH32" s="32" t="inlineStr"/>
       <c r="BI32" s="32" t="inlineStr"/>
@@ -4223,13 +4558,16 @@
       <c r="BT32" s="32" t="inlineStr"/>
       <c r="BU32" s="32" t="inlineStr"/>
       <c r="BV32" s="32" t="inlineStr"/>
-      <c r="BW32" s="25" t="inlineStr"/>
-      <c r="BX32" s="33" t="inlineStr"/>
-      <c r="BY32" s="33" t="inlineStr"/>
+      <c r="BW32" s="32" t="inlineStr"/>
+      <c r="BX32" s="32" t="inlineStr"/>
+      <c r="BY32" s="25" t="inlineStr"/>
       <c r="BZ32" s="33" t="inlineStr"/>
       <c r="CA32" s="33" t="inlineStr"/>
-      <c r="CB32" s="26" t="inlineStr"/>
-      <c r="CC32" s="27" t="inlineStr"/>
+      <c r="CB32" s="33" t="inlineStr"/>
+      <c r="CC32" s="33" t="inlineStr"/>
+      <c r="CD32" s="26" t="inlineStr"/>
+      <c r="CE32" s="27" t="inlineStr"/>
+      <c r="CF32" s="27" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4255,28 +4593,28 @@
       <c r="U33" s="19" t="inlineStr"/>
       <c r="V33" s="19" t="inlineStr"/>
       <c r="W33" s="19" t="inlineStr"/>
-      <c r="X33" s="20" t="inlineStr"/>
-      <c r="Y33" s="21" t="inlineStr"/>
+      <c r="X33" s="19" t="inlineStr"/>
+      <c r="Y33" s="20" t="inlineStr"/>
       <c r="Z33" s="21" t="inlineStr"/>
-      <c r="AA33" s="22" t="inlineStr"/>
+      <c r="AA33" s="21" t="inlineStr"/>
       <c r="AB33" s="22" t="inlineStr"/>
-      <c r="AC33" s="21" t="inlineStr"/>
-      <c r="AD33" s="23" t="inlineStr"/>
-      <c r="AE33" s="24" t="inlineStr"/>
+      <c r="AC33" s="22" t="inlineStr"/>
+      <c r="AD33" s="21" t="inlineStr"/>
+      <c r="AE33" s="23" t="inlineStr"/>
       <c r="AF33" s="24" t="inlineStr"/>
       <c r="AG33" s="24" t="inlineStr"/>
       <c r="AH33" s="24" t="inlineStr"/>
-      <c r="AI33" s="25" t="inlineStr"/>
-      <c r="AJ33" s="26" t="inlineStr"/>
-      <c r="AK33" s="27" t="inlineStr"/>
-      <c r="AL33" s="28" t="inlineStr"/>
-      <c r="AM33" s="29" t="inlineStr"/>
-      <c r="AN33" s="30" t="inlineStr"/>
-      <c r="AO33" s="17" t="inlineStr"/>
+      <c r="AI33" s="24" t="inlineStr"/>
+      <c r="AJ33" s="25" t="inlineStr"/>
+      <c r="AK33" s="26" t="inlineStr"/>
+      <c r="AL33" s="27" t="inlineStr"/>
+      <c r="AM33" s="28" t="inlineStr"/>
+      <c r="AN33" s="29" t="inlineStr"/>
+      <c r="AO33" s="30" t="inlineStr"/>
       <c r="AP33" s="17" t="inlineStr"/>
-      <c r="AQ33" s="31" t="inlineStr"/>
-      <c r="AR33" s="18" t="inlineStr"/>
-      <c r="AS33" s="19" t="inlineStr"/>
+      <c r="AQ33" s="17" t="inlineStr"/>
+      <c r="AR33" s="31" t="inlineStr"/>
+      <c r="AS33" s="18" t="inlineStr"/>
       <c r="AT33" s="19" t="inlineStr"/>
       <c r="AU33" s="19" t="inlineStr"/>
       <c r="AV33" s="19" t="inlineStr"/>
@@ -4285,11 +4623,11 @@
       <c r="AY33" s="19" t="inlineStr"/>
       <c r="AZ33" s="19" t="inlineStr"/>
       <c r="BA33" s="19" t="inlineStr"/>
-      <c r="BB33" s="20" t="inlineStr"/>
-      <c r="BC33" s="21" t="inlineStr"/>
+      <c r="BB33" s="19" t="inlineStr"/>
+      <c r="BC33" s="20" t="inlineStr"/>
       <c r="BD33" s="21" t="inlineStr"/>
-      <c r="BE33" s="23" t="inlineStr"/>
-      <c r="BF33" s="24" t="inlineStr"/>
+      <c r="BE33" s="21" t="inlineStr"/>
+      <c r="BF33" s="23" t="inlineStr"/>
       <c r="BG33" s="32" t="inlineStr"/>
       <c r="BH33" s="32" t="inlineStr"/>
       <c r="BI33" s="32" t="inlineStr"/>
@@ -4306,13 +4644,16 @@
       <c r="BT33" s="32" t="inlineStr"/>
       <c r="BU33" s="32" t="inlineStr"/>
       <c r="BV33" s="32" t="inlineStr"/>
-      <c r="BW33" s="25" t="inlineStr"/>
-      <c r="BX33" s="33" t="inlineStr"/>
-      <c r="BY33" s="33" t="inlineStr"/>
+      <c r="BW33" s="32" t="inlineStr"/>
+      <c r="BX33" s="32" t="inlineStr"/>
+      <c r="BY33" s="25" t="inlineStr"/>
       <c r="BZ33" s="33" t="inlineStr"/>
       <c r="CA33" s="33" t="inlineStr"/>
-      <c r="CB33" s="26" t="inlineStr"/>
-      <c r="CC33" s="27" t="inlineStr"/>
+      <c r="CB33" s="33" t="inlineStr"/>
+      <c r="CC33" s="33" t="inlineStr"/>
+      <c r="CD33" s="26" t="inlineStr"/>
+      <c r="CE33" s="27" t="inlineStr"/>
+      <c r="CF33" s="27" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4338,28 +4679,28 @@
       <c r="U34" s="19" t="inlineStr"/>
       <c r="V34" s="19" t="inlineStr"/>
       <c r="W34" s="19" t="inlineStr"/>
-      <c r="X34" s="20" t="inlineStr"/>
-      <c r="Y34" s="21" t="inlineStr"/>
+      <c r="X34" s="19" t="inlineStr"/>
+      <c r="Y34" s="20" t="inlineStr"/>
       <c r="Z34" s="21" t="inlineStr"/>
-      <c r="AA34" s="22" t="inlineStr"/>
+      <c r="AA34" s="21" t="inlineStr"/>
       <c r="AB34" s="22" t="inlineStr"/>
-      <c r="AC34" s="21" t="inlineStr"/>
-      <c r="AD34" s="23" t="inlineStr"/>
-      <c r="AE34" s="24" t="inlineStr"/>
+      <c r="AC34" s="22" t="inlineStr"/>
+      <c r="AD34" s="21" t="inlineStr"/>
+      <c r="AE34" s="23" t="inlineStr"/>
       <c r="AF34" s="24" t="inlineStr"/>
       <c r="AG34" s="24" t="inlineStr"/>
       <c r="AH34" s="24" t="inlineStr"/>
-      <c r="AI34" s="25" t="inlineStr"/>
-      <c r="AJ34" s="26" t="inlineStr"/>
-      <c r="AK34" s="27" t="inlineStr"/>
-      <c r="AL34" s="28" t="inlineStr"/>
-      <c r="AM34" s="29" t="inlineStr"/>
-      <c r="AN34" s="30" t="inlineStr"/>
-      <c r="AO34" s="17" t="inlineStr"/>
+      <c r="AI34" s="24" t="inlineStr"/>
+      <c r="AJ34" s="25" t="inlineStr"/>
+      <c r="AK34" s="26" t="inlineStr"/>
+      <c r="AL34" s="27" t="inlineStr"/>
+      <c r="AM34" s="28" t="inlineStr"/>
+      <c r="AN34" s="29" t="inlineStr"/>
+      <c r="AO34" s="30" t="inlineStr"/>
       <c r="AP34" s="17" t="inlineStr"/>
-      <c r="AQ34" s="31" t="inlineStr"/>
-      <c r="AR34" s="18" t="inlineStr"/>
-      <c r="AS34" s="19" t="inlineStr"/>
+      <c r="AQ34" s="17" t="inlineStr"/>
+      <c r="AR34" s="31" t="inlineStr"/>
+      <c r="AS34" s="18" t="inlineStr"/>
       <c r="AT34" s="19" t="inlineStr"/>
       <c r="AU34" s="19" t="inlineStr"/>
       <c r="AV34" s="19" t="inlineStr"/>
@@ -4368,11 +4709,11 @@
       <c r="AY34" s="19" t="inlineStr"/>
       <c r="AZ34" s="19" t="inlineStr"/>
       <c r="BA34" s="19" t="inlineStr"/>
-      <c r="BB34" s="20" t="inlineStr"/>
-      <c r="BC34" s="21" t="inlineStr"/>
+      <c r="BB34" s="19" t="inlineStr"/>
+      <c r="BC34" s="20" t="inlineStr"/>
       <c r="BD34" s="21" t="inlineStr"/>
-      <c r="BE34" s="23" t="inlineStr"/>
-      <c r="BF34" s="24" t="inlineStr"/>
+      <c r="BE34" s="21" t="inlineStr"/>
+      <c r="BF34" s="23" t="inlineStr"/>
       <c r="BG34" s="32" t="inlineStr"/>
       <c r="BH34" s="32" t="inlineStr"/>
       <c r="BI34" s="32" t="inlineStr"/>
@@ -4389,13 +4730,16 @@
       <c r="BT34" s="32" t="inlineStr"/>
       <c r="BU34" s="32" t="inlineStr"/>
       <c r="BV34" s="32" t="inlineStr"/>
-      <c r="BW34" s="25" t="inlineStr"/>
-      <c r="BX34" s="33" t="inlineStr"/>
-      <c r="BY34" s="33" t="inlineStr"/>
+      <c r="BW34" s="32" t="inlineStr"/>
+      <c r="BX34" s="32" t="inlineStr"/>
+      <c r="BY34" s="25" t="inlineStr"/>
       <c r="BZ34" s="33" t="inlineStr"/>
       <c r="CA34" s="33" t="inlineStr"/>
-      <c r="CB34" s="26" t="inlineStr"/>
-      <c r="CC34" s="27" t="inlineStr"/>
+      <c r="CB34" s="33" t="inlineStr"/>
+      <c r="CC34" s="33" t="inlineStr"/>
+      <c r="CD34" s="26" t="inlineStr"/>
+      <c r="CE34" s="27" t="inlineStr"/>
+      <c r="CF34" s="27" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4421,28 +4765,28 @@
       <c r="U35" s="19" t="inlineStr"/>
       <c r="V35" s="19" t="inlineStr"/>
       <c r="W35" s="19" t="inlineStr"/>
-      <c r="X35" s="20" t="inlineStr"/>
-      <c r="Y35" s="21" t="inlineStr"/>
+      <c r="X35" s="19" t="inlineStr"/>
+      <c r="Y35" s="20" t="inlineStr"/>
       <c r="Z35" s="21" t="inlineStr"/>
-      <c r="AA35" s="22" t="inlineStr"/>
+      <c r="AA35" s="21" t="inlineStr"/>
       <c r="AB35" s="22" t="inlineStr"/>
-      <c r="AC35" s="21" t="inlineStr"/>
-      <c r="AD35" s="23" t="inlineStr"/>
-      <c r="AE35" s="24" t="inlineStr"/>
+      <c r="AC35" s="22" t="inlineStr"/>
+      <c r="AD35" s="21" t="inlineStr"/>
+      <c r="AE35" s="23" t="inlineStr"/>
       <c r="AF35" s="24" t="inlineStr"/>
       <c r="AG35" s="24" t="inlineStr"/>
       <c r="AH35" s="24" t="inlineStr"/>
-      <c r="AI35" s="25" t="inlineStr"/>
-      <c r="AJ35" s="26" t="inlineStr"/>
-      <c r="AK35" s="27" t="inlineStr"/>
-      <c r="AL35" s="28" t="inlineStr"/>
-      <c r="AM35" s="29" t="inlineStr"/>
-      <c r="AN35" s="30" t="inlineStr"/>
-      <c r="AO35" s="17" t="inlineStr"/>
+      <c r="AI35" s="24" t="inlineStr"/>
+      <c r="AJ35" s="25" t="inlineStr"/>
+      <c r="AK35" s="26" t="inlineStr"/>
+      <c r="AL35" s="27" t="inlineStr"/>
+      <c r="AM35" s="28" t="inlineStr"/>
+      <c r="AN35" s="29" t="inlineStr"/>
+      <c r="AO35" s="30" t="inlineStr"/>
       <c r="AP35" s="17" t="inlineStr"/>
-      <c r="AQ35" s="31" t="inlineStr"/>
-      <c r="AR35" s="18" t="inlineStr"/>
-      <c r="AS35" s="19" t="inlineStr"/>
+      <c r="AQ35" s="17" t="inlineStr"/>
+      <c r="AR35" s="31" t="inlineStr"/>
+      <c r="AS35" s="18" t="inlineStr"/>
       <c r="AT35" s="19" t="inlineStr"/>
       <c r="AU35" s="19" t="inlineStr"/>
       <c r="AV35" s="19" t="inlineStr"/>
@@ -4451,11 +4795,11 @@
       <c r="AY35" s="19" t="inlineStr"/>
       <c r="AZ35" s="19" t="inlineStr"/>
       <c r="BA35" s="19" t="inlineStr"/>
-      <c r="BB35" s="20" t="inlineStr"/>
-      <c r="BC35" s="21" t="inlineStr"/>
+      <c r="BB35" s="19" t="inlineStr"/>
+      <c r="BC35" s="20" t="inlineStr"/>
       <c r="BD35" s="21" t="inlineStr"/>
-      <c r="BE35" s="23" t="inlineStr"/>
-      <c r="BF35" s="24" t="inlineStr"/>
+      <c r="BE35" s="21" t="inlineStr"/>
+      <c r="BF35" s="23" t="inlineStr"/>
       <c r="BG35" s="32" t="inlineStr"/>
       <c r="BH35" s="32" t="inlineStr"/>
       <c r="BI35" s="32" t="inlineStr"/>
@@ -4472,13 +4816,16 @@
       <c r="BT35" s="32" t="inlineStr"/>
       <c r="BU35" s="32" t="inlineStr"/>
       <c r="BV35" s="32" t="inlineStr"/>
-      <c r="BW35" s="25" t="inlineStr"/>
-      <c r="BX35" s="33" t="inlineStr"/>
-      <c r="BY35" s="33" t="inlineStr"/>
+      <c r="BW35" s="32" t="inlineStr"/>
+      <c r="BX35" s="32" t="inlineStr"/>
+      <c r="BY35" s="25" t="inlineStr"/>
       <c r="BZ35" s="33" t="inlineStr"/>
       <c r="CA35" s="33" t="inlineStr"/>
-      <c r="CB35" s="26" t="inlineStr"/>
-      <c r="CC35" s="27" t="inlineStr"/>
+      <c r="CB35" s="33" t="inlineStr"/>
+      <c r="CC35" s="33" t="inlineStr"/>
+      <c r="CD35" s="26" t="inlineStr"/>
+      <c r="CE35" s="27" t="inlineStr"/>
+      <c r="CF35" s="27" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4504,28 +4851,28 @@
       <c r="U36" s="19" t="inlineStr"/>
       <c r="V36" s="19" t="inlineStr"/>
       <c r="W36" s="19" t="inlineStr"/>
-      <c r="X36" s="20" t="inlineStr"/>
-      <c r="Y36" s="21" t="inlineStr"/>
+      <c r="X36" s="19" t="inlineStr"/>
+      <c r="Y36" s="20" t="inlineStr"/>
       <c r="Z36" s="21" t="inlineStr"/>
-      <c r="AA36" s="22" t="inlineStr"/>
+      <c r="AA36" s="21" t="inlineStr"/>
       <c r="AB36" s="22" t="inlineStr"/>
-      <c r="AC36" s="21" t="inlineStr"/>
-      <c r="AD36" s="23" t="inlineStr"/>
-      <c r="AE36" s="24" t="inlineStr"/>
+      <c r="AC36" s="22" t="inlineStr"/>
+      <c r="AD36" s="21" t="inlineStr"/>
+      <c r="AE36" s="23" t="inlineStr"/>
       <c r="AF36" s="24" t="inlineStr"/>
       <c r="AG36" s="24" t="inlineStr"/>
       <c r="AH36" s="24" t="inlineStr"/>
-      <c r="AI36" s="25" t="inlineStr"/>
-      <c r="AJ36" s="26" t="inlineStr"/>
-      <c r="AK36" s="27" t="inlineStr"/>
-      <c r="AL36" s="28" t="inlineStr"/>
-      <c r="AM36" s="29" t="inlineStr"/>
-      <c r="AN36" s="30" t="inlineStr"/>
-      <c r="AO36" s="17" t="inlineStr"/>
+      <c r="AI36" s="24" t="inlineStr"/>
+      <c r="AJ36" s="25" t="inlineStr"/>
+      <c r="AK36" s="26" t="inlineStr"/>
+      <c r="AL36" s="27" t="inlineStr"/>
+      <c r="AM36" s="28" t="inlineStr"/>
+      <c r="AN36" s="29" t="inlineStr"/>
+      <c r="AO36" s="30" t="inlineStr"/>
       <c r="AP36" s="17" t="inlineStr"/>
-      <c r="AQ36" s="31" t="inlineStr"/>
-      <c r="AR36" s="18" t="inlineStr"/>
-      <c r="AS36" s="19" t="inlineStr"/>
+      <c r="AQ36" s="17" t="inlineStr"/>
+      <c r="AR36" s="31" t="inlineStr"/>
+      <c r="AS36" s="18" t="inlineStr"/>
       <c r="AT36" s="19" t="inlineStr"/>
       <c r="AU36" s="19" t="inlineStr"/>
       <c r="AV36" s="19" t="inlineStr"/>
@@ -4534,11 +4881,11 @@
       <c r="AY36" s="19" t="inlineStr"/>
       <c r="AZ36" s="19" t="inlineStr"/>
       <c r="BA36" s="19" t="inlineStr"/>
-      <c r="BB36" s="20" t="inlineStr"/>
-      <c r="BC36" s="21" t="inlineStr"/>
+      <c r="BB36" s="19" t="inlineStr"/>
+      <c r="BC36" s="20" t="inlineStr"/>
       <c r="BD36" s="21" t="inlineStr"/>
-      <c r="BE36" s="23" t="inlineStr"/>
-      <c r="BF36" s="24" t="inlineStr"/>
+      <c r="BE36" s="21" t="inlineStr"/>
+      <c r="BF36" s="23" t="inlineStr"/>
       <c r="BG36" s="32" t="inlineStr"/>
       <c r="BH36" s="32" t="inlineStr"/>
       <c r="BI36" s="32" t="inlineStr"/>
@@ -4555,13 +4902,16 @@
       <c r="BT36" s="32" t="inlineStr"/>
       <c r="BU36" s="32" t="inlineStr"/>
       <c r="BV36" s="32" t="inlineStr"/>
-      <c r="BW36" s="25" t="inlineStr"/>
-      <c r="BX36" s="33" t="inlineStr"/>
-      <c r="BY36" s="33" t="inlineStr"/>
+      <c r="BW36" s="32" t="inlineStr"/>
+      <c r="BX36" s="32" t="inlineStr"/>
+      <c r="BY36" s="25" t="inlineStr"/>
       <c r="BZ36" s="33" t="inlineStr"/>
       <c r="CA36" s="33" t="inlineStr"/>
-      <c r="CB36" s="26" t="inlineStr"/>
-      <c r="CC36" s="27" t="inlineStr"/>
+      <c r="CB36" s="33" t="inlineStr"/>
+      <c r="CC36" s="33" t="inlineStr"/>
+      <c r="CD36" s="26" t="inlineStr"/>
+      <c r="CE36" s="27" t="inlineStr"/>
+      <c r="CF36" s="27" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4587,28 +4937,28 @@
       <c r="U37" s="19" t="inlineStr"/>
       <c r="V37" s="19" t="inlineStr"/>
       <c r="W37" s="19" t="inlineStr"/>
-      <c r="X37" s="20" t="inlineStr"/>
-      <c r="Y37" s="21" t="inlineStr"/>
+      <c r="X37" s="19" t="inlineStr"/>
+      <c r="Y37" s="20" t="inlineStr"/>
       <c r="Z37" s="21" t="inlineStr"/>
-      <c r="AA37" s="22" t="inlineStr"/>
+      <c r="AA37" s="21" t="inlineStr"/>
       <c r="AB37" s="22" t="inlineStr"/>
-      <c r="AC37" s="21" t="inlineStr"/>
-      <c r="AD37" s="23" t="inlineStr"/>
-      <c r="AE37" s="24" t="inlineStr"/>
+      <c r="AC37" s="22" t="inlineStr"/>
+      <c r="AD37" s="21" t="inlineStr"/>
+      <c r="AE37" s="23" t="inlineStr"/>
       <c r="AF37" s="24" t="inlineStr"/>
       <c r="AG37" s="24" t="inlineStr"/>
       <c r="AH37" s="24" t="inlineStr"/>
-      <c r="AI37" s="25" t="inlineStr"/>
-      <c r="AJ37" s="26" t="inlineStr"/>
-      <c r="AK37" s="27" t="inlineStr"/>
-      <c r="AL37" s="28" t="inlineStr"/>
-      <c r="AM37" s="29" t="inlineStr"/>
-      <c r="AN37" s="30" t="inlineStr"/>
-      <c r="AO37" s="17" t="inlineStr"/>
+      <c r="AI37" s="24" t="inlineStr"/>
+      <c r="AJ37" s="25" t="inlineStr"/>
+      <c r="AK37" s="26" t="inlineStr"/>
+      <c r="AL37" s="27" t="inlineStr"/>
+      <c r="AM37" s="28" t="inlineStr"/>
+      <c r="AN37" s="29" t="inlineStr"/>
+      <c r="AO37" s="30" t="inlineStr"/>
       <c r="AP37" s="17" t="inlineStr"/>
-      <c r="AQ37" s="31" t="inlineStr"/>
-      <c r="AR37" s="18" t="inlineStr"/>
-      <c r="AS37" s="19" t="inlineStr"/>
+      <c r="AQ37" s="17" t="inlineStr"/>
+      <c r="AR37" s="31" t="inlineStr"/>
+      <c r="AS37" s="18" t="inlineStr"/>
       <c r="AT37" s="19" t="inlineStr"/>
       <c r="AU37" s="19" t="inlineStr"/>
       <c r="AV37" s="19" t="inlineStr"/>
@@ -4617,11 +4967,11 @@
       <c r="AY37" s="19" t="inlineStr"/>
       <c r="AZ37" s="19" t="inlineStr"/>
       <c r="BA37" s="19" t="inlineStr"/>
-      <c r="BB37" s="20" t="inlineStr"/>
-      <c r="BC37" s="21" t="inlineStr"/>
+      <c r="BB37" s="19" t="inlineStr"/>
+      <c r="BC37" s="20" t="inlineStr"/>
       <c r="BD37" s="21" t="inlineStr"/>
-      <c r="BE37" s="23" t="inlineStr"/>
-      <c r="BF37" s="24" t="inlineStr"/>
+      <c r="BE37" s="21" t="inlineStr"/>
+      <c r="BF37" s="23" t="inlineStr"/>
       <c r="BG37" s="32" t="inlineStr"/>
       <c r="BH37" s="32" t="inlineStr"/>
       <c r="BI37" s="32" t="inlineStr"/>
@@ -4638,13 +4988,16 @@
       <c r="BT37" s="32" t="inlineStr"/>
       <c r="BU37" s="32" t="inlineStr"/>
       <c r="BV37" s="32" t="inlineStr"/>
-      <c r="BW37" s="25" t="inlineStr"/>
-      <c r="BX37" s="33" t="inlineStr"/>
-      <c r="BY37" s="33" t="inlineStr"/>
+      <c r="BW37" s="32" t="inlineStr"/>
+      <c r="BX37" s="32" t="inlineStr"/>
+      <c r="BY37" s="25" t="inlineStr"/>
       <c r="BZ37" s="33" t="inlineStr"/>
       <c r="CA37" s="33" t="inlineStr"/>
-      <c r="CB37" s="26" t="inlineStr"/>
-      <c r="CC37" s="27" t="inlineStr"/>
+      <c r="CB37" s="33" t="inlineStr"/>
+      <c r="CC37" s="33" t="inlineStr"/>
+      <c r="CD37" s="26" t="inlineStr"/>
+      <c r="CE37" s="27" t="inlineStr"/>
+      <c r="CF37" s="27" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4670,28 +5023,28 @@
       <c r="U38" s="19" t="inlineStr"/>
       <c r="V38" s="19" t="inlineStr"/>
       <c r="W38" s="19" t="inlineStr"/>
-      <c r="X38" s="20" t="inlineStr"/>
-      <c r="Y38" s="21" t="inlineStr"/>
+      <c r="X38" s="19" t="inlineStr"/>
+      <c r="Y38" s="20" t="inlineStr"/>
       <c r="Z38" s="21" t="inlineStr"/>
-      <c r="AA38" s="22" t="inlineStr"/>
+      <c r="AA38" s="21" t="inlineStr"/>
       <c r="AB38" s="22" t="inlineStr"/>
-      <c r="AC38" s="21" t="inlineStr"/>
-      <c r="AD38" s="23" t="inlineStr"/>
-      <c r="AE38" s="24" t="inlineStr"/>
+      <c r="AC38" s="22" t="inlineStr"/>
+      <c r="AD38" s="21" t="inlineStr"/>
+      <c r="AE38" s="23" t="inlineStr"/>
       <c r="AF38" s="24" t="inlineStr"/>
       <c r="AG38" s="24" t="inlineStr"/>
       <c r="AH38" s="24" t="inlineStr"/>
-      <c r="AI38" s="25" t="inlineStr"/>
-      <c r="AJ38" s="26" t="inlineStr"/>
-      <c r="AK38" s="27" t="inlineStr"/>
-      <c r="AL38" s="28" t="inlineStr"/>
-      <c r="AM38" s="29" t="inlineStr"/>
-      <c r="AN38" s="30" t="inlineStr"/>
-      <c r="AO38" s="17" t="inlineStr"/>
+      <c r="AI38" s="24" t="inlineStr"/>
+      <c r="AJ38" s="25" t="inlineStr"/>
+      <c r="AK38" s="26" t="inlineStr"/>
+      <c r="AL38" s="27" t="inlineStr"/>
+      <c r="AM38" s="28" t="inlineStr"/>
+      <c r="AN38" s="29" t="inlineStr"/>
+      <c r="AO38" s="30" t="inlineStr"/>
       <c r="AP38" s="17" t="inlineStr"/>
-      <c r="AQ38" s="31" t="inlineStr"/>
-      <c r="AR38" s="18" t="inlineStr"/>
-      <c r="AS38" s="19" t="inlineStr"/>
+      <c r="AQ38" s="17" t="inlineStr"/>
+      <c r="AR38" s="31" t="inlineStr"/>
+      <c r="AS38" s="18" t="inlineStr"/>
       <c r="AT38" s="19" t="inlineStr"/>
       <c r="AU38" s="19" t="inlineStr"/>
       <c r="AV38" s="19" t="inlineStr"/>
@@ -4700,11 +5053,11 @@
       <c r="AY38" s="19" t="inlineStr"/>
       <c r="AZ38" s="19" t="inlineStr"/>
       <c r="BA38" s="19" t="inlineStr"/>
-      <c r="BB38" s="20" t="inlineStr"/>
-      <c r="BC38" s="21" t="inlineStr"/>
+      <c r="BB38" s="19" t="inlineStr"/>
+      <c r="BC38" s="20" t="inlineStr"/>
       <c r="BD38" s="21" t="inlineStr"/>
-      <c r="BE38" s="23" t="inlineStr"/>
-      <c r="BF38" s="24" t="inlineStr"/>
+      <c r="BE38" s="21" t="inlineStr"/>
+      <c r="BF38" s="23" t="inlineStr"/>
       <c r="BG38" s="32" t="inlineStr"/>
       <c r="BH38" s="32" t="inlineStr"/>
       <c r="BI38" s="32" t="inlineStr"/>
@@ -4721,13 +5074,16 @@
       <c r="BT38" s="32" t="inlineStr"/>
       <c r="BU38" s="32" t="inlineStr"/>
       <c r="BV38" s="32" t="inlineStr"/>
-      <c r="BW38" s="25" t="inlineStr"/>
-      <c r="BX38" s="33" t="inlineStr"/>
-      <c r="BY38" s="33" t="inlineStr"/>
+      <c r="BW38" s="32" t="inlineStr"/>
+      <c r="BX38" s="32" t="inlineStr"/>
+      <c r="BY38" s="25" t="inlineStr"/>
       <c r="BZ38" s="33" t="inlineStr"/>
       <c r="CA38" s="33" t="inlineStr"/>
-      <c r="CB38" s="26" t="inlineStr"/>
-      <c r="CC38" s="27" t="inlineStr"/>
+      <c r="CB38" s="33" t="inlineStr"/>
+      <c r="CC38" s="33" t="inlineStr"/>
+      <c r="CD38" s="26" t="inlineStr"/>
+      <c r="CE38" s="27" t="inlineStr"/>
+      <c r="CF38" s="27" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4753,28 +5109,28 @@
       <c r="U39" s="19" t="inlineStr"/>
       <c r="V39" s="19" t="inlineStr"/>
       <c r="W39" s="19" t="inlineStr"/>
-      <c r="X39" s="20" t="inlineStr"/>
-      <c r="Y39" s="21" t="inlineStr"/>
+      <c r="X39" s="19" t="inlineStr"/>
+      <c r="Y39" s="20" t="inlineStr"/>
       <c r="Z39" s="21" t="inlineStr"/>
-      <c r="AA39" s="22" t="inlineStr"/>
+      <c r="AA39" s="21" t="inlineStr"/>
       <c r="AB39" s="22" t="inlineStr"/>
-      <c r="AC39" s="21" t="inlineStr"/>
-      <c r="AD39" s="23" t="inlineStr"/>
-      <c r="AE39" s="24" t="inlineStr"/>
+      <c r="AC39" s="22" t="inlineStr"/>
+      <c r="AD39" s="21" t="inlineStr"/>
+      <c r="AE39" s="23" t="inlineStr"/>
       <c r="AF39" s="24" t="inlineStr"/>
       <c r="AG39" s="24" t="inlineStr"/>
       <c r="AH39" s="24" t="inlineStr"/>
-      <c r="AI39" s="25" t="inlineStr"/>
-      <c r="AJ39" s="26" t="inlineStr"/>
-      <c r="AK39" s="27" t="inlineStr"/>
-      <c r="AL39" s="28" t="inlineStr"/>
-      <c r="AM39" s="29" t="inlineStr"/>
-      <c r="AN39" s="30" t="inlineStr"/>
-      <c r="AO39" s="17" t="inlineStr"/>
+      <c r="AI39" s="24" t="inlineStr"/>
+      <c r="AJ39" s="25" t="inlineStr"/>
+      <c r="AK39" s="26" t="inlineStr"/>
+      <c r="AL39" s="27" t="inlineStr"/>
+      <c r="AM39" s="28" t="inlineStr"/>
+      <c r="AN39" s="29" t="inlineStr"/>
+      <c r="AO39" s="30" t="inlineStr"/>
       <c r="AP39" s="17" t="inlineStr"/>
-      <c r="AQ39" s="31" t="inlineStr"/>
-      <c r="AR39" s="18" t="inlineStr"/>
-      <c r="AS39" s="19" t="inlineStr"/>
+      <c r="AQ39" s="17" t="inlineStr"/>
+      <c r="AR39" s="31" t="inlineStr"/>
+      <c r="AS39" s="18" t="inlineStr"/>
       <c r="AT39" s="19" t="inlineStr"/>
       <c r="AU39" s="19" t="inlineStr"/>
       <c r="AV39" s="19" t="inlineStr"/>
@@ -4783,11 +5139,11 @@
       <c r="AY39" s="19" t="inlineStr"/>
       <c r="AZ39" s="19" t="inlineStr"/>
       <c r="BA39" s="19" t="inlineStr"/>
-      <c r="BB39" s="20" t="inlineStr"/>
-      <c r="BC39" s="21" t="inlineStr"/>
+      <c r="BB39" s="19" t="inlineStr"/>
+      <c r="BC39" s="20" t="inlineStr"/>
       <c r="BD39" s="21" t="inlineStr"/>
-      <c r="BE39" s="23" t="inlineStr"/>
-      <c r="BF39" s="24" t="inlineStr"/>
+      <c r="BE39" s="21" t="inlineStr"/>
+      <c r="BF39" s="23" t="inlineStr"/>
       <c r="BG39" s="32" t="inlineStr"/>
       <c r="BH39" s="32" t="inlineStr"/>
       <c r="BI39" s="32" t="inlineStr"/>
@@ -4804,13 +5160,16 @@
       <c r="BT39" s="32" t="inlineStr"/>
       <c r="BU39" s="32" t="inlineStr"/>
       <c r="BV39" s="32" t="inlineStr"/>
-      <c r="BW39" s="25" t="inlineStr"/>
-      <c r="BX39" s="33" t="inlineStr"/>
-      <c r="BY39" s="33" t="inlineStr"/>
+      <c r="BW39" s="32" t="inlineStr"/>
+      <c r="BX39" s="32" t="inlineStr"/>
+      <c r="BY39" s="25" t="inlineStr"/>
       <c r="BZ39" s="33" t="inlineStr"/>
       <c r="CA39" s="33" t="inlineStr"/>
-      <c r="CB39" s="26" t="inlineStr"/>
-      <c r="CC39" s="27" t="inlineStr"/>
+      <c r="CB39" s="33" t="inlineStr"/>
+      <c r="CC39" s="33" t="inlineStr"/>
+      <c r="CD39" s="26" t="inlineStr"/>
+      <c r="CE39" s="27" t="inlineStr"/>
+      <c r="CF39" s="27" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4836,28 +5195,28 @@
       <c r="U40" s="19" t="inlineStr"/>
       <c r="V40" s="19" t="inlineStr"/>
       <c r="W40" s="19" t="inlineStr"/>
-      <c r="X40" s="20" t="inlineStr"/>
-      <c r="Y40" s="21" t="inlineStr"/>
+      <c r="X40" s="19" t="inlineStr"/>
+      <c r="Y40" s="20" t="inlineStr"/>
       <c r="Z40" s="21" t="inlineStr"/>
-      <c r="AA40" s="22" t="inlineStr"/>
+      <c r="AA40" s="21" t="inlineStr"/>
       <c r="AB40" s="22" t="inlineStr"/>
-      <c r="AC40" s="21" t="inlineStr"/>
-      <c r="AD40" s="23" t="inlineStr"/>
-      <c r="AE40" s="24" t="inlineStr"/>
+      <c r="AC40" s="22" t="inlineStr"/>
+      <c r="AD40" s="21" t="inlineStr"/>
+      <c r="AE40" s="23" t="inlineStr"/>
       <c r="AF40" s="24" t="inlineStr"/>
       <c r="AG40" s="24" t="inlineStr"/>
       <c r="AH40" s="24" t="inlineStr"/>
-      <c r="AI40" s="25" t="inlineStr"/>
-      <c r="AJ40" s="26" t="inlineStr"/>
-      <c r="AK40" s="27" t="inlineStr"/>
-      <c r="AL40" s="28" t="inlineStr"/>
-      <c r="AM40" s="29" t="inlineStr"/>
-      <c r="AN40" s="30" t="inlineStr"/>
-      <c r="AO40" s="17" t="inlineStr"/>
+      <c r="AI40" s="24" t="inlineStr"/>
+      <c r="AJ40" s="25" t="inlineStr"/>
+      <c r="AK40" s="26" t="inlineStr"/>
+      <c r="AL40" s="27" t="inlineStr"/>
+      <c r="AM40" s="28" t="inlineStr"/>
+      <c r="AN40" s="29" t="inlineStr"/>
+      <c r="AO40" s="30" t="inlineStr"/>
       <c r="AP40" s="17" t="inlineStr"/>
-      <c r="AQ40" s="31" t="inlineStr"/>
-      <c r="AR40" s="18" t="inlineStr"/>
-      <c r="AS40" s="19" t="inlineStr"/>
+      <c r="AQ40" s="17" t="inlineStr"/>
+      <c r="AR40" s="31" t="inlineStr"/>
+      <c r="AS40" s="18" t="inlineStr"/>
       <c r="AT40" s="19" t="inlineStr"/>
       <c r="AU40" s="19" t="inlineStr"/>
       <c r="AV40" s="19" t="inlineStr"/>
@@ -4866,11 +5225,11 @@
       <c r="AY40" s="19" t="inlineStr"/>
       <c r="AZ40" s="19" t="inlineStr"/>
       <c r="BA40" s="19" t="inlineStr"/>
-      <c r="BB40" s="20" t="inlineStr"/>
-      <c r="BC40" s="21" t="inlineStr"/>
+      <c r="BB40" s="19" t="inlineStr"/>
+      <c r="BC40" s="20" t="inlineStr"/>
       <c r="BD40" s="21" t="inlineStr"/>
-      <c r="BE40" s="23" t="inlineStr"/>
-      <c r="BF40" s="24" t="inlineStr"/>
+      <c r="BE40" s="21" t="inlineStr"/>
+      <c r="BF40" s="23" t="inlineStr"/>
       <c r="BG40" s="32" t="inlineStr"/>
       <c r="BH40" s="32" t="inlineStr"/>
       <c r="BI40" s="32" t="inlineStr"/>
@@ -4887,13 +5246,16 @@
       <c r="BT40" s="32" t="inlineStr"/>
       <c r="BU40" s="32" t="inlineStr"/>
       <c r="BV40" s="32" t="inlineStr"/>
-      <c r="BW40" s="25" t="inlineStr"/>
-      <c r="BX40" s="33" t="inlineStr"/>
-      <c r="BY40" s="33" t="inlineStr"/>
+      <c r="BW40" s="32" t="inlineStr"/>
+      <c r="BX40" s="32" t="inlineStr"/>
+      <c r="BY40" s="25" t="inlineStr"/>
       <c r="BZ40" s="33" t="inlineStr"/>
       <c r="CA40" s="33" t="inlineStr"/>
-      <c r="CB40" s="26" t="inlineStr"/>
-      <c r="CC40" s="27" t="inlineStr"/>
+      <c r="CB40" s="33" t="inlineStr"/>
+      <c r="CC40" s="33" t="inlineStr"/>
+      <c r="CD40" s="26" t="inlineStr"/>
+      <c r="CE40" s="27" t="inlineStr"/>
+      <c r="CF40" s="27" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -4919,28 +5281,28 @@
       <c r="U41" s="19" t="inlineStr"/>
       <c r="V41" s="19" t="inlineStr"/>
       <c r="W41" s="19" t="inlineStr"/>
-      <c r="X41" s="20" t="inlineStr"/>
-      <c r="Y41" s="21" t="inlineStr"/>
+      <c r="X41" s="19" t="inlineStr"/>
+      <c r="Y41" s="20" t="inlineStr"/>
       <c r="Z41" s="21" t="inlineStr"/>
-      <c r="AA41" s="22" t="inlineStr"/>
+      <c r="AA41" s="21" t="inlineStr"/>
       <c r="AB41" s="22" t="inlineStr"/>
-      <c r="AC41" s="21" t="inlineStr"/>
-      <c r="AD41" s="23" t="inlineStr"/>
-      <c r="AE41" s="24" t="inlineStr"/>
+      <c r="AC41" s="22" t="inlineStr"/>
+      <c r="AD41" s="21" t="inlineStr"/>
+      <c r="AE41" s="23" t="inlineStr"/>
       <c r="AF41" s="24" t="inlineStr"/>
       <c r="AG41" s="24" t="inlineStr"/>
       <c r="AH41" s="24" t="inlineStr"/>
-      <c r="AI41" s="25" t="inlineStr"/>
-      <c r="AJ41" s="26" t="inlineStr"/>
-      <c r="AK41" s="27" t="inlineStr"/>
-      <c r="AL41" s="28" t="inlineStr"/>
-      <c r="AM41" s="29" t="inlineStr"/>
-      <c r="AN41" s="30" t="inlineStr"/>
-      <c r="AO41" s="17" t="inlineStr"/>
+      <c r="AI41" s="24" t="inlineStr"/>
+      <c r="AJ41" s="25" t="inlineStr"/>
+      <c r="AK41" s="26" t="inlineStr"/>
+      <c r="AL41" s="27" t="inlineStr"/>
+      <c r="AM41" s="28" t="inlineStr"/>
+      <c r="AN41" s="29" t="inlineStr"/>
+      <c r="AO41" s="30" t="inlineStr"/>
       <c r="AP41" s="17" t="inlineStr"/>
-      <c r="AQ41" s="31" t="inlineStr"/>
-      <c r="AR41" s="18" t="inlineStr"/>
-      <c r="AS41" s="19" t="inlineStr"/>
+      <c r="AQ41" s="17" t="inlineStr"/>
+      <c r="AR41" s="31" t="inlineStr"/>
+      <c r="AS41" s="18" t="inlineStr"/>
       <c r="AT41" s="19" t="inlineStr"/>
       <c r="AU41" s="19" t="inlineStr"/>
       <c r="AV41" s="19" t="inlineStr"/>
@@ -4949,11 +5311,11 @@
       <c r="AY41" s="19" t="inlineStr"/>
       <c r="AZ41" s="19" t="inlineStr"/>
       <c r="BA41" s="19" t="inlineStr"/>
-      <c r="BB41" s="20" t="inlineStr"/>
-      <c r="BC41" s="21" t="inlineStr"/>
+      <c r="BB41" s="19" t="inlineStr"/>
+      <c r="BC41" s="20" t="inlineStr"/>
       <c r="BD41" s="21" t="inlineStr"/>
-      <c r="BE41" s="23" t="inlineStr"/>
-      <c r="BF41" s="24" t="inlineStr"/>
+      <c r="BE41" s="21" t="inlineStr"/>
+      <c r="BF41" s="23" t="inlineStr"/>
       <c r="BG41" s="32" t="inlineStr"/>
       <c r="BH41" s="32" t="inlineStr"/>
       <c r="BI41" s="32" t="inlineStr"/>
@@ -4970,13 +5332,16 @@
       <c r="BT41" s="32" t="inlineStr"/>
       <c r="BU41" s="32" t="inlineStr"/>
       <c r="BV41" s="32" t="inlineStr"/>
-      <c r="BW41" s="25" t="inlineStr"/>
-      <c r="BX41" s="33" t="inlineStr"/>
-      <c r="BY41" s="33" t="inlineStr"/>
+      <c r="BW41" s="32" t="inlineStr"/>
+      <c r="BX41" s="32" t="inlineStr"/>
+      <c r="BY41" s="25" t="inlineStr"/>
       <c r="BZ41" s="33" t="inlineStr"/>
       <c r="CA41" s="33" t="inlineStr"/>
-      <c r="CB41" s="26" t="inlineStr"/>
-      <c r="CC41" s="27" t="inlineStr"/>
+      <c r="CB41" s="33" t="inlineStr"/>
+      <c r="CC41" s="33" t="inlineStr"/>
+      <c r="CD41" s="26" t="inlineStr"/>
+      <c r="CE41" s="27" t="inlineStr"/>
+      <c r="CF41" s="27" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5002,28 +5367,28 @@
       <c r="U42" s="19" t="inlineStr"/>
       <c r="V42" s="19" t="inlineStr"/>
       <c r="W42" s="19" t="inlineStr"/>
-      <c r="X42" s="20" t="inlineStr"/>
-      <c r="Y42" s="21" t="inlineStr"/>
+      <c r="X42" s="19" t="inlineStr"/>
+      <c r="Y42" s="20" t="inlineStr"/>
       <c r="Z42" s="21" t="inlineStr"/>
-      <c r="AA42" s="22" t="inlineStr"/>
+      <c r="AA42" s="21" t="inlineStr"/>
       <c r="AB42" s="22" t="inlineStr"/>
-      <c r="AC42" s="21" t="inlineStr"/>
-      <c r="AD42" s="23" t="inlineStr"/>
-      <c r="AE42" s="24" t="inlineStr"/>
+      <c r="AC42" s="22" t="inlineStr"/>
+      <c r="AD42" s="21" t="inlineStr"/>
+      <c r="AE42" s="23" t="inlineStr"/>
       <c r="AF42" s="24" t="inlineStr"/>
       <c r="AG42" s="24" t="inlineStr"/>
       <c r="AH42" s="24" t="inlineStr"/>
-      <c r="AI42" s="25" t="inlineStr"/>
-      <c r="AJ42" s="26" t="inlineStr"/>
-      <c r="AK42" s="27" t="inlineStr"/>
-      <c r="AL42" s="28" t="inlineStr"/>
-      <c r="AM42" s="29" t="inlineStr"/>
-      <c r="AN42" s="30" t="inlineStr"/>
-      <c r="AO42" s="17" t="inlineStr"/>
+      <c r="AI42" s="24" t="inlineStr"/>
+      <c r="AJ42" s="25" t="inlineStr"/>
+      <c r="AK42" s="26" t="inlineStr"/>
+      <c r="AL42" s="27" t="inlineStr"/>
+      <c r="AM42" s="28" t="inlineStr"/>
+      <c r="AN42" s="29" t="inlineStr"/>
+      <c r="AO42" s="30" t="inlineStr"/>
       <c r="AP42" s="17" t="inlineStr"/>
-      <c r="AQ42" s="31" t="inlineStr"/>
-      <c r="AR42" s="18" t="inlineStr"/>
-      <c r="AS42" s="19" t="inlineStr"/>
+      <c r="AQ42" s="17" t="inlineStr"/>
+      <c r="AR42" s="31" t="inlineStr"/>
+      <c r="AS42" s="18" t="inlineStr"/>
       <c r="AT42" s="19" t="inlineStr"/>
       <c r="AU42" s="19" t="inlineStr"/>
       <c r="AV42" s="19" t="inlineStr"/>
@@ -5032,11 +5397,11 @@
       <c r="AY42" s="19" t="inlineStr"/>
       <c r="AZ42" s="19" t="inlineStr"/>
       <c r="BA42" s="19" t="inlineStr"/>
-      <c r="BB42" s="20" t="inlineStr"/>
-      <c r="BC42" s="21" t="inlineStr"/>
+      <c r="BB42" s="19" t="inlineStr"/>
+      <c r="BC42" s="20" t="inlineStr"/>
       <c r="BD42" s="21" t="inlineStr"/>
-      <c r="BE42" s="23" t="inlineStr"/>
-      <c r="BF42" s="24" t="inlineStr"/>
+      <c r="BE42" s="21" t="inlineStr"/>
+      <c r="BF42" s="23" t="inlineStr"/>
       <c r="BG42" s="32" t="inlineStr"/>
       <c r="BH42" s="32" t="inlineStr"/>
       <c r="BI42" s="32" t="inlineStr"/>
@@ -5053,13 +5418,16 @@
       <c r="BT42" s="32" t="inlineStr"/>
       <c r="BU42" s="32" t="inlineStr"/>
       <c r="BV42" s="32" t="inlineStr"/>
-      <c r="BW42" s="25" t="inlineStr"/>
-      <c r="BX42" s="33" t="inlineStr"/>
-      <c r="BY42" s="33" t="inlineStr"/>
+      <c r="BW42" s="32" t="inlineStr"/>
+      <c r="BX42" s="32" t="inlineStr"/>
+      <c r="BY42" s="25" t="inlineStr"/>
       <c r="BZ42" s="33" t="inlineStr"/>
       <c r="CA42" s="33" t="inlineStr"/>
-      <c r="CB42" s="26" t="inlineStr"/>
-      <c r="CC42" s="27" t="inlineStr"/>
+      <c r="CB42" s="33" t="inlineStr"/>
+      <c r="CC42" s="33" t="inlineStr"/>
+      <c r="CD42" s="26" t="inlineStr"/>
+      <c r="CE42" s="27" t="inlineStr"/>
+      <c r="CF42" s="27" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5085,28 +5453,28 @@
       <c r="U43" s="19" t="inlineStr"/>
       <c r="V43" s="19" t="inlineStr"/>
       <c r="W43" s="19" t="inlineStr"/>
-      <c r="X43" s="20" t="inlineStr"/>
-      <c r="Y43" s="21" t="inlineStr"/>
+      <c r="X43" s="19" t="inlineStr"/>
+      <c r="Y43" s="20" t="inlineStr"/>
       <c r="Z43" s="21" t="inlineStr"/>
-      <c r="AA43" s="22" t="inlineStr"/>
+      <c r="AA43" s="21" t="inlineStr"/>
       <c r="AB43" s="22" t="inlineStr"/>
-      <c r="AC43" s="21" t="inlineStr"/>
-      <c r="AD43" s="23" t="inlineStr"/>
-      <c r="AE43" s="24" t="inlineStr"/>
+      <c r="AC43" s="22" t="inlineStr"/>
+      <c r="AD43" s="21" t="inlineStr"/>
+      <c r="AE43" s="23" t="inlineStr"/>
       <c r="AF43" s="24" t="inlineStr"/>
       <c r="AG43" s="24" t="inlineStr"/>
       <c r="AH43" s="24" t="inlineStr"/>
-      <c r="AI43" s="25" t="inlineStr"/>
-      <c r="AJ43" s="26" t="inlineStr"/>
-      <c r="AK43" s="27" t="inlineStr"/>
-      <c r="AL43" s="28" t="inlineStr"/>
-      <c r="AM43" s="29" t="inlineStr"/>
-      <c r="AN43" s="30" t="inlineStr"/>
-      <c r="AO43" s="17" t="inlineStr"/>
+      <c r="AI43" s="24" t="inlineStr"/>
+      <c r="AJ43" s="25" t="inlineStr"/>
+      <c r="AK43" s="26" t="inlineStr"/>
+      <c r="AL43" s="27" t="inlineStr"/>
+      <c r="AM43" s="28" t="inlineStr"/>
+      <c r="AN43" s="29" t="inlineStr"/>
+      <c r="AO43" s="30" t="inlineStr"/>
       <c r="AP43" s="17" t="inlineStr"/>
-      <c r="AQ43" s="31" t="inlineStr"/>
-      <c r="AR43" s="18" t="inlineStr"/>
-      <c r="AS43" s="19" t="inlineStr"/>
+      <c r="AQ43" s="17" t="inlineStr"/>
+      <c r="AR43" s="31" t="inlineStr"/>
+      <c r="AS43" s="18" t="inlineStr"/>
       <c r="AT43" s="19" t="inlineStr"/>
       <c r="AU43" s="19" t="inlineStr"/>
       <c r="AV43" s="19" t="inlineStr"/>
@@ -5115,11 +5483,11 @@
       <c r="AY43" s="19" t="inlineStr"/>
       <c r="AZ43" s="19" t="inlineStr"/>
       <c r="BA43" s="19" t="inlineStr"/>
-      <c r="BB43" s="20" t="inlineStr"/>
-      <c r="BC43" s="21" t="inlineStr"/>
+      <c r="BB43" s="19" t="inlineStr"/>
+      <c r="BC43" s="20" t="inlineStr"/>
       <c r="BD43" s="21" t="inlineStr"/>
-      <c r="BE43" s="23" t="inlineStr"/>
-      <c r="BF43" s="24" t="inlineStr"/>
+      <c r="BE43" s="21" t="inlineStr"/>
+      <c r="BF43" s="23" t="inlineStr"/>
       <c r="BG43" s="32" t="inlineStr"/>
       <c r="BH43" s="32" t="inlineStr"/>
       <c r="BI43" s="32" t="inlineStr"/>
@@ -5136,13 +5504,16 @@
       <c r="BT43" s="32" t="inlineStr"/>
       <c r="BU43" s="32" t="inlineStr"/>
       <c r="BV43" s="32" t="inlineStr"/>
-      <c r="BW43" s="25" t="inlineStr"/>
-      <c r="BX43" s="33" t="inlineStr"/>
-      <c r="BY43" s="33" t="inlineStr"/>
+      <c r="BW43" s="32" t="inlineStr"/>
+      <c r="BX43" s="32" t="inlineStr"/>
+      <c r="BY43" s="25" t="inlineStr"/>
       <c r="BZ43" s="33" t="inlineStr"/>
       <c r="CA43" s="33" t="inlineStr"/>
-      <c r="CB43" s="26" t="inlineStr"/>
-      <c r="CC43" s="27" t="inlineStr"/>
+      <c r="CB43" s="33" t="inlineStr"/>
+      <c r="CC43" s="33" t="inlineStr"/>
+      <c r="CD43" s="26" t="inlineStr"/>
+      <c r="CE43" s="27" t="inlineStr"/>
+      <c r="CF43" s="27" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5168,28 +5539,28 @@
       <c r="U44" s="19" t="inlineStr"/>
       <c r="V44" s="19" t="inlineStr"/>
       <c r="W44" s="19" t="inlineStr"/>
-      <c r="X44" s="20" t="inlineStr"/>
-      <c r="Y44" s="21" t="inlineStr"/>
+      <c r="X44" s="19" t="inlineStr"/>
+      <c r="Y44" s="20" t="inlineStr"/>
       <c r="Z44" s="21" t="inlineStr"/>
-      <c r="AA44" s="22" t="inlineStr"/>
+      <c r="AA44" s="21" t="inlineStr"/>
       <c r="AB44" s="22" t="inlineStr"/>
-      <c r="AC44" s="21" t="inlineStr"/>
-      <c r="AD44" s="23" t="inlineStr"/>
-      <c r="AE44" s="24" t="inlineStr"/>
+      <c r="AC44" s="22" t="inlineStr"/>
+      <c r="AD44" s="21" t="inlineStr"/>
+      <c r="AE44" s="23" t="inlineStr"/>
       <c r="AF44" s="24" t="inlineStr"/>
       <c r="AG44" s="24" t="inlineStr"/>
       <c r="AH44" s="24" t="inlineStr"/>
-      <c r="AI44" s="25" t="inlineStr"/>
-      <c r="AJ44" s="26" t="inlineStr"/>
-      <c r="AK44" s="27" t="inlineStr"/>
-      <c r="AL44" s="28" t="inlineStr"/>
-      <c r="AM44" s="29" t="inlineStr"/>
-      <c r="AN44" s="30" t="inlineStr"/>
-      <c r="AO44" s="17" t="inlineStr"/>
+      <c r="AI44" s="24" t="inlineStr"/>
+      <c r="AJ44" s="25" t="inlineStr"/>
+      <c r="AK44" s="26" t="inlineStr"/>
+      <c r="AL44" s="27" t="inlineStr"/>
+      <c r="AM44" s="28" t="inlineStr"/>
+      <c r="AN44" s="29" t="inlineStr"/>
+      <c r="AO44" s="30" t="inlineStr"/>
       <c r="AP44" s="17" t="inlineStr"/>
-      <c r="AQ44" s="31" t="inlineStr"/>
-      <c r="AR44" s="18" t="inlineStr"/>
-      <c r="AS44" s="19" t="inlineStr"/>
+      <c r="AQ44" s="17" t="inlineStr"/>
+      <c r="AR44" s="31" t="inlineStr"/>
+      <c r="AS44" s="18" t="inlineStr"/>
       <c r="AT44" s="19" t="inlineStr"/>
       <c r="AU44" s="19" t="inlineStr"/>
       <c r="AV44" s="19" t="inlineStr"/>
@@ -5198,11 +5569,11 @@
       <c r="AY44" s="19" t="inlineStr"/>
       <c r="AZ44" s="19" t="inlineStr"/>
       <c r="BA44" s="19" t="inlineStr"/>
-      <c r="BB44" s="20" t="inlineStr"/>
-      <c r="BC44" s="21" t="inlineStr"/>
+      <c r="BB44" s="19" t="inlineStr"/>
+      <c r="BC44" s="20" t="inlineStr"/>
       <c r="BD44" s="21" t="inlineStr"/>
-      <c r="BE44" s="23" t="inlineStr"/>
-      <c r="BF44" s="24" t="inlineStr"/>
+      <c r="BE44" s="21" t="inlineStr"/>
+      <c r="BF44" s="23" t="inlineStr"/>
       <c r="BG44" s="32" t="inlineStr"/>
       <c r="BH44" s="32" t="inlineStr"/>
       <c r="BI44" s="32" t="inlineStr"/>
@@ -5219,13 +5590,16 @@
       <c r="BT44" s="32" t="inlineStr"/>
       <c r="BU44" s="32" t="inlineStr"/>
       <c r="BV44" s="32" t="inlineStr"/>
-      <c r="BW44" s="25" t="inlineStr"/>
-      <c r="BX44" s="33" t="inlineStr"/>
-      <c r="BY44" s="33" t="inlineStr"/>
+      <c r="BW44" s="32" t="inlineStr"/>
+      <c r="BX44" s="32" t="inlineStr"/>
+      <c r="BY44" s="25" t="inlineStr"/>
       <c r="BZ44" s="33" t="inlineStr"/>
       <c r="CA44" s="33" t="inlineStr"/>
-      <c r="CB44" s="26" t="inlineStr"/>
-      <c r="CC44" s="27" t="inlineStr"/>
+      <c r="CB44" s="33" t="inlineStr"/>
+      <c r="CC44" s="33" t="inlineStr"/>
+      <c r="CD44" s="26" t="inlineStr"/>
+      <c r="CE44" s="27" t="inlineStr"/>
+      <c r="CF44" s="27" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5251,28 +5625,28 @@
       <c r="U45" s="19" t="inlineStr"/>
       <c r="V45" s="19" t="inlineStr"/>
       <c r="W45" s="19" t="inlineStr"/>
-      <c r="X45" s="20" t="inlineStr"/>
-      <c r="Y45" s="21" t="inlineStr"/>
+      <c r="X45" s="19" t="inlineStr"/>
+      <c r="Y45" s="20" t="inlineStr"/>
       <c r="Z45" s="21" t="inlineStr"/>
-      <c r="AA45" s="22" t="inlineStr"/>
+      <c r="AA45" s="21" t="inlineStr"/>
       <c r="AB45" s="22" t="inlineStr"/>
-      <c r="AC45" s="21" t="inlineStr"/>
-      <c r="AD45" s="23" t="inlineStr"/>
-      <c r="AE45" s="24" t="inlineStr"/>
+      <c r="AC45" s="22" t="inlineStr"/>
+      <c r="AD45" s="21" t="inlineStr"/>
+      <c r="AE45" s="23" t="inlineStr"/>
       <c r="AF45" s="24" t="inlineStr"/>
       <c r="AG45" s="24" t="inlineStr"/>
       <c r="AH45" s="24" t="inlineStr"/>
-      <c r="AI45" s="25" t="inlineStr"/>
-      <c r="AJ45" s="26" t="inlineStr"/>
-      <c r="AK45" s="27" t="inlineStr"/>
-      <c r="AL45" s="28" t="inlineStr"/>
-      <c r="AM45" s="29" t="inlineStr"/>
-      <c r="AN45" s="30" t="inlineStr"/>
-      <c r="AO45" s="17" t="inlineStr"/>
+      <c r="AI45" s="24" t="inlineStr"/>
+      <c r="AJ45" s="25" t="inlineStr"/>
+      <c r="AK45" s="26" t="inlineStr"/>
+      <c r="AL45" s="27" t="inlineStr"/>
+      <c r="AM45" s="28" t="inlineStr"/>
+      <c r="AN45" s="29" t="inlineStr"/>
+      <c r="AO45" s="30" t="inlineStr"/>
       <c r="AP45" s="17" t="inlineStr"/>
-      <c r="AQ45" s="31" t="inlineStr"/>
-      <c r="AR45" s="18" t="inlineStr"/>
-      <c r="AS45" s="19" t="inlineStr"/>
+      <c r="AQ45" s="17" t="inlineStr"/>
+      <c r="AR45" s="31" t="inlineStr"/>
+      <c r="AS45" s="18" t="inlineStr"/>
       <c r="AT45" s="19" t="inlineStr"/>
       <c r="AU45" s="19" t="inlineStr"/>
       <c r="AV45" s="19" t="inlineStr"/>
@@ -5281,11 +5655,11 @@
       <c r="AY45" s="19" t="inlineStr"/>
       <c r="AZ45" s="19" t="inlineStr"/>
       <c r="BA45" s="19" t="inlineStr"/>
-      <c r="BB45" s="20" t="inlineStr"/>
-      <c r="BC45" s="21" t="inlineStr"/>
+      <c r="BB45" s="19" t="inlineStr"/>
+      <c r="BC45" s="20" t="inlineStr"/>
       <c r="BD45" s="21" t="inlineStr"/>
-      <c r="BE45" s="23" t="inlineStr"/>
-      <c r="BF45" s="24" t="inlineStr"/>
+      <c r="BE45" s="21" t="inlineStr"/>
+      <c r="BF45" s="23" t="inlineStr"/>
       <c r="BG45" s="32" t="inlineStr"/>
       <c r="BH45" s="32" t="inlineStr"/>
       <c r="BI45" s="32" t="inlineStr"/>
@@ -5302,13 +5676,16 @@
       <c r="BT45" s="32" t="inlineStr"/>
       <c r="BU45" s="32" t="inlineStr"/>
       <c r="BV45" s="32" t="inlineStr"/>
-      <c r="BW45" s="25" t="inlineStr"/>
-      <c r="BX45" s="33" t="inlineStr"/>
-      <c r="BY45" s="33" t="inlineStr"/>
+      <c r="BW45" s="32" t="inlineStr"/>
+      <c r="BX45" s="32" t="inlineStr"/>
+      <c r="BY45" s="25" t="inlineStr"/>
       <c r="BZ45" s="33" t="inlineStr"/>
       <c r="CA45" s="33" t="inlineStr"/>
-      <c r="CB45" s="26" t="inlineStr"/>
-      <c r="CC45" s="27" t="inlineStr"/>
+      <c r="CB45" s="33" t="inlineStr"/>
+      <c r="CC45" s="33" t="inlineStr"/>
+      <c r="CD45" s="26" t="inlineStr"/>
+      <c r="CE45" s="27" t="inlineStr"/>
+      <c r="CF45" s="27" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5334,28 +5711,28 @@
       <c r="U46" s="19" t="inlineStr"/>
       <c r="V46" s="19" t="inlineStr"/>
       <c r="W46" s="19" t="inlineStr"/>
-      <c r="X46" s="20" t="inlineStr"/>
-      <c r="Y46" s="21" t="inlineStr"/>
+      <c r="X46" s="19" t="inlineStr"/>
+      <c r="Y46" s="20" t="inlineStr"/>
       <c r="Z46" s="21" t="inlineStr"/>
-      <c r="AA46" s="22" t="inlineStr"/>
+      <c r="AA46" s="21" t="inlineStr"/>
       <c r="AB46" s="22" t="inlineStr"/>
-      <c r="AC46" s="21" t="inlineStr"/>
-      <c r="AD46" s="23" t="inlineStr"/>
-      <c r="AE46" s="24" t="inlineStr"/>
+      <c r="AC46" s="22" t="inlineStr"/>
+      <c r="AD46" s="21" t="inlineStr"/>
+      <c r="AE46" s="23" t="inlineStr"/>
       <c r="AF46" s="24" t="inlineStr"/>
       <c r="AG46" s="24" t="inlineStr"/>
       <c r="AH46" s="24" t="inlineStr"/>
-      <c r="AI46" s="25" t="inlineStr"/>
-      <c r="AJ46" s="26" t="inlineStr"/>
-      <c r="AK46" s="27" t="inlineStr"/>
-      <c r="AL46" s="28" t="inlineStr"/>
-      <c r="AM46" s="29" t="inlineStr"/>
-      <c r="AN46" s="30" t="inlineStr"/>
-      <c r="AO46" s="17" t="inlineStr"/>
+      <c r="AI46" s="24" t="inlineStr"/>
+      <c r="AJ46" s="25" t="inlineStr"/>
+      <c r="AK46" s="26" t="inlineStr"/>
+      <c r="AL46" s="27" t="inlineStr"/>
+      <c r="AM46" s="28" t="inlineStr"/>
+      <c r="AN46" s="29" t="inlineStr"/>
+      <c r="AO46" s="30" t="inlineStr"/>
       <c r="AP46" s="17" t="inlineStr"/>
-      <c r="AQ46" s="31" t="inlineStr"/>
-      <c r="AR46" s="18" t="inlineStr"/>
-      <c r="AS46" s="19" t="inlineStr"/>
+      <c r="AQ46" s="17" t="inlineStr"/>
+      <c r="AR46" s="31" t="inlineStr"/>
+      <c r="AS46" s="18" t="inlineStr"/>
       <c r="AT46" s="19" t="inlineStr"/>
       <c r="AU46" s="19" t="inlineStr"/>
       <c r="AV46" s="19" t="inlineStr"/>
@@ -5364,11 +5741,11 @@
       <c r="AY46" s="19" t="inlineStr"/>
       <c r="AZ46" s="19" t="inlineStr"/>
       <c r="BA46" s="19" t="inlineStr"/>
-      <c r="BB46" s="20" t="inlineStr"/>
-      <c r="BC46" s="21" t="inlineStr"/>
+      <c r="BB46" s="19" t="inlineStr"/>
+      <c r="BC46" s="20" t="inlineStr"/>
       <c r="BD46" s="21" t="inlineStr"/>
-      <c r="BE46" s="23" t="inlineStr"/>
-      <c r="BF46" s="24" t="inlineStr"/>
+      <c r="BE46" s="21" t="inlineStr"/>
+      <c r="BF46" s="23" t="inlineStr"/>
       <c r="BG46" s="32" t="inlineStr"/>
       <c r="BH46" s="32" t="inlineStr"/>
       <c r="BI46" s="32" t="inlineStr"/>
@@ -5385,13 +5762,16 @@
       <c r="BT46" s="32" t="inlineStr"/>
       <c r="BU46" s="32" t="inlineStr"/>
       <c r="BV46" s="32" t="inlineStr"/>
-      <c r="BW46" s="25" t="inlineStr"/>
-      <c r="BX46" s="33" t="inlineStr"/>
-      <c r="BY46" s="33" t="inlineStr"/>
+      <c r="BW46" s="32" t="inlineStr"/>
+      <c r="BX46" s="32" t="inlineStr"/>
+      <c r="BY46" s="25" t="inlineStr"/>
       <c r="BZ46" s="33" t="inlineStr"/>
       <c r="CA46" s="33" t="inlineStr"/>
-      <c r="CB46" s="26" t="inlineStr"/>
-      <c r="CC46" s="27" t="inlineStr"/>
+      <c r="CB46" s="33" t="inlineStr"/>
+      <c r="CC46" s="33" t="inlineStr"/>
+      <c r="CD46" s="26" t="inlineStr"/>
+      <c r="CE46" s="27" t="inlineStr"/>
+      <c r="CF46" s="27" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5417,28 +5797,28 @@
       <c r="U47" s="19" t="inlineStr"/>
       <c r="V47" s="19" t="inlineStr"/>
       <c r="W47" s="19" t="inlineStr"/>
-      <c r="X47" s="20" t="inlineStr"/>
-      <c r="Y47" s="21" t="inlineStr"/>
+      <c r="X47" s="19" t="inlineStr"/>
+      <c r="Y47" s="20" t="inlineStr"/>
       <c r="Z47" s="21" t="inlineStr"/>
-      <c r="AA47" s="22" t="inlineStr"/>
+      <c r="AA47" s="21" t="inlineStr"/>
       <c r="AB47" s="22" t="inlineStr"/>
-      <c r="AC47" s="21" t="inlineStr"/>
-      <c r="AD47" s="23" t="inlineStr"/>
-      <c r="AE47" s="24" t="inlineStr"/>
+      <c r="AC47" s="22" t="inlineStr"/>
+      <c r="AD47" s="21" t="inlineStr"/>
+      <c r="AE47" s="23" t="inlineStr"/>
       <c r="AF47" s="24" t="inlineStr"/>
       <c r="AG47" s="24" t="inlineStr"/>
       <c r="AH47" s="24" t="inlineStr"/>
-      <c r="AI47" s="25" t="inlineStr"/>
-      <c r="AJ47" s="26" t="inlineStr"/>
-      <c r="AK47" s="27" t="inlineStr"/>
-      <c r="AL47" s="28" t="inlineStr"/>
-      <c r="AM47" s="29" t="inlineStr"/>
-      <c r="AN47" s="30" t="inlineStr"/>
-      <c r="AO47" s="17" t="inlineStr"/>
+      <c r="AI47" s="24" t="inlineStr"/>
+      <c r="AJ47" s="25" t="inlineStr"/>
+      <c r="AK47" s="26" t="inlineStr"/>
+      <c r="AL47" s="27" t="inlineStr"/>
+      <c r="AM47" s="28" t="inlineStr"/>
+      <c r="AN47" s="29" t="inlineStr"/>
+      <c r="AO47" s="30" t="inlineStr"/>
       <c r="AP47" s="17" t="inlineStr"/>
-      <c r="AQ47" s="31" t="inlineStr"/>
-      <c r="AR47" s="18" t="inlineStr"/>
-      <c r="AS47" s="19" t="inlineStr"/>
+      <c r="AQ47" s="17" t="inlineStr"/>
+      <c r="AR47" s="31" t="inlineStr"/>
+      <c r="AS47" s="18" t="inlineStr"/>
       <c r="AT47" s="19" t="inlineStr"/>
       <c r="AU47" s="19" t="inlineStr"/>
       <c r="AV47" s="19" t="inlineStr"/>
@@ -5447,11 +5827,11 @@
       <c r="AY47" s="19" t="inlineStr"/>
       <c r="AZ47" s="19" t="inlineStr"/>
       <c r="BA47" s="19" t="inlineStr"/>
-      <c r="BB47" s="20" t="inlineStr"/>
-      <c r="BC47" s="21" t="inlineStr"/>
+      <c r="BB47" s="19" t="inlineStr"/>
+      <c r="BC47" s="20" t="inlineStr"/>
       <c r="BD47" s="21" t="inlineStr"/>
-      <c r="BE47" s="23" t="inlineStr"/>
-      <c r="BF47" s="24" t="inlineStr"/>
+      <c r="BE47" s="21" t="inlineStr"/>
+      <c r="BF47" s="23" t="inlineStr"/>
       <c r="BG47" s="32" t="inlineStr"/>
       <c r="BH47" s="32" t="inlineStr"/>
       <c r="BI47" s="32" t="inlineStr"/>
@@ -5468,13 +5848,16 @@
       <c r="BT47" s="32" t="inlineStr"/>
       <c r="BU47" s="32" t="inlineStr"/>
       <c r="BV47" s="32" t="inlineStr"/>
-      <c r="BW47" s="25" t="inlineStr"/>
-      <c r="BX47" s="33" t="inlineStr"/>
-      <c r="BY47" s="33" t="inlineStr"/>
+      <c r="BW47" s="32" t="inlineStr"/>
+      <c r="BX47" s="32" t="inlineStr"/>
+      <c r="BY47" s="25" t="inlineStr"/>
       <c r="BZ47" s="33" t="inlineStr"/>
       <c r="CA47" s="33" t="inlineStr"/>
-      <c r="CB47" s="26" t="inlineStr"/>
-      <c r="CC47" s="27" t="inlineStr"/>
+      <c r="CB47" s="33" t="inlineStr"/>
+      <c r="CC47" s="33" t="inlineStr"/>
+      <c r="CD47" s="26" t="inlineStr"/>
+      <c r="CE47" s="27" t="inlineStr"/>
+      <c r="CF47" s="27" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5500,28 +5883,28 @@
       <c r="U48" s="19" t="inlineStr"/>
       <c r="V48" s="19" t="inlineStr"/>
       <c r="W48" s="19" t="inlineStr"/>
-      <c r="X48" s="20" t="inlineStr"/>
-      <c r="Y48" s="21" t="inlineStr"/>
+      <c r="X48" s="19" t="inlineStr"/>
+      <c r="Y48" s="20" t="inlineStr"/>
       <c r="Z48" s="21" t="inlineStr"/>
-      <c r="AA48" s="22" t="inlineStr"/>
+      <c r="AA48" s="21" t="inlineStr"/>
       <c r="AB48" s="22" t="inlineStr"/>
-      <c r="AC48" s="21" t="inlineStr"/>
-      <c r="AD48" s="23" t="inlineStr"/>
-      <c r="AE48" s="24" t="inlineStr"/>
+      <c r="AC48" s="22" t="inlineStr"/>
+      <c r="AD48" s="21" t="inlineStr"/>
+      <c r="AE48" s="23" t="inlineStr"/>
       <c r="AF48" s="24" t="inlineStr"/>
       <c r="AG48" s="24" t="inlineStr"/>
       <c r="AH48" s="24" t="inlineStr"/>
-      <c r="AI48" s="25" t="inlineStr"/>
-      <c r="AJ48" s="26" t="inlineStr"/>
-      <c r="AK48" s="27" t="inlineStr"/>
-      <c r="AL48" s="28" t="inlineStr"/>
-      <c r="AM48" s="29" t="inlineStr"/>
-      <c r="AN48" s="30" t="inlineStr"/>
-      <c r="AO48" s="17" t="inlineStr"/>
+      <c r="AI48" s="24" t="inlineStr"/>
+      <c r="AJ48" s="25" t="inlineStr"/>
+      <c r="AK48" s="26" t="inlineStr"/>
+      <c r="AL48" s="27" t="inlineStr"/>
+      <c r="AM48" s="28" t="inlineStr"/>
+      <c r="AN48" s="29" t="inlineStr"/>
+      <c r="AO48" s="30" t="inlineStr"/>
       <c r="AP48" s="17" t="inlineStr"/>
-      <c r="AQ48" s="31" t="inlineStr"/>
-      <c r="AR48" s="18" t="inlineStr"/>
-      <c r="AS48" s="19" t="inlineStr"/>
+      <c r="AQ48" s="17" t="inlineStr"/>
+      <c r="AR48" s="31" t="inlineStr"/>
+      <c r="AS48" s="18" t="inlineStr"/>
       <c r="AT48" s="19" t="inlineStr"/>
       <c r="AU48" s="19" t="inlineStr"/>
       <c r="AV48" s="19" t="inlineStr"/>
@@ -5530,11 +5913,11 @@
       <c r="AY48" s="19" t="inlineStr"/>
       <c r="AZ48" s="19" t="inlineStr"/>
       <c r="BA48" s="19" t="inlineStr"/>
-      <c r="BB48" s="20" t="inlineStr"/>
-      <c r="BC48" s="21" t="inlineStr"/>
+      <c r="BB48" s="19" t="inlineStr"/>
+      <c r="BC48" s="20" t="inlineStr"/>
       <c r="BD48" s="21" t="inlineStr"/>
-      <c r="BE48" s="23" t="inlineStr"/>
-      <c r="BF48" s="24" t="inlineStr"/>
+      <c r="BE48" s="21" t="inlineStr"/>
+      <c r="BF48" s="23" t="inlineStr"/>
       <c r="BG48" s="32" t="inlineStr"/>
       <c r="BH48" s="32" t="inlineStr"/>
       <c r="BI48" s="32" t="inlineStr"/>
@@ -5551,13 +5934,16 @@
       <c r="BT48" s="32" t="inlineStr"/>
       <c r="BU48" s="32" t="inlineStr"/>
       <c r="BV48" s="32" t="inlineStr"/>
-      <c r="BW48" s="25" t="inlineStr"/>
-      <c r="BX48" s="33" t="inlineStr"/>
-      <c r="BY48" s="33" t="inlineStr"/>
+      <c r="BW48" s="32" t="inlineStr"/>
+      <c r="BX48" s="32" t="inlineStr"/>
+      <c r="BY48" s="25" t="inlineStr"/>
       <c r="BZ48" s="33" t="inlineStr"/>
       <c r="CA48" s="33" t="inlineStr"/>
-      <c r="CB48" s="26" t="inlineStr"/>
-      <c r="CC48" s="27" t="inlineStr"/>
+      <c r="CB48" s="33" t="inlineStr"/>
+      <c r="CC48" s="33" t="inlineStr"/>
+      <c r="CD48" s="26" t="inlineStr"/>
+      <c r="CE48" s="27" t="inlineStr"/>
+      <c r="CF48" s="27" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5583,28 +5969,28 @@
       <c r="U49" s="19" t="inlineStr"/>
       <c r="V49" s="19" t="inlineStr"/>
       <c r="W49" s="19" t="inlineStr"/>
-      <c r="X49" s="20" t="inlineStr"/>
-      <c r="Y49" s="21" t="inlineStr"/>
+      <c r="X49" s="19" t="inlineStr"/>
+      <c r="Y49" s="20" t="inlineStr"/>
       <c r="Z49" s="21" t="inlineStr"/>
-      <c r="AA49" s="22" t="inlineStr"/>
+      <c r="AA49" s="21" t="inlineStr"/>
       <c r="AB49" s="22" t="inlineStr"/>
-      <c r="AC49" s="21" t="inlineStr"/>
-      <c r="AD49" s="23" t="inlineStr"/>
-      <c r="AE49" s="24" t="inlineStr"/>
+      <c r="AC49" s="22" t="inlineStr"/>
+      <c r="AD49" s="21" t="inlineStr"/>
+      <c r="AE49" s="23" t="inlineStr"/>
       <c r="AF49" s="24" t="inlineStr"/>
       <c r="AG49" s="24" t="inlineStr"/>
       <c r="AH49" s="24" t="inlineStr"/>
-      <c r="AI49" s="25" t="inlineStr"/>
-      <c r="AJ49" s="26" t="inlineStr"/>
-      <c r="AK49" s="27" t="inlineStr"/>
-      <c r="AL49" s="28" t="inlineStr"/>
-      <c r="AM49" s="29" t="inlineStr"/>
-      <c r="AN49" s="30" t="inlineStr"/>
-      <c r="AO49" s="17" t="inlineStr"/>
+      <c r="AI49" s="24" t="inlineStr"/>
+      <c r="AJ49" s="25" t="inlineStr"/>
+      <c r="AK49" s="26" t="inlineStr"/>
+      <c r="AL49" s="27" t="inlineStr"/>
+      <c r="AM49" s="28" t="inlineStr"/>
+      <c r="AN49" s="29" t="inlineStr"/>
+      <c r="AO49" s="30" t="inlineStr"/>
       <c r="AP49" s="17" t="inlineStr"/>
-      <c r="AQ49" s="31" t="inlineStr"/>
-      <c r="AR49" s="18" t="inlineStr"/>
-      <c r="AS49" s="19" t="inlineStr"/>
+      <c r="AQ49" s="17" t="inlineStr"/>
+      <c r="AR49" s="31" t="inlineStr"/>
+      <c r="AS49" s="18" t="inlineStr"/>
       <c r="AT49" s="19" t="inlineStr"/>
       <c r="AU49" s="19" t="inlineStr"/>
       <c r="AV49" s="19" t="inlineStr"/>
@@ -5613,11 +5999,11 @@
       <c r="AY49" s="19" t="inlineStr"/>
       <c r="AZ49" s="19" t="inlineStr"/>
       <c r="BA49" s="19" t="inlineStr"/>
-      <c r="BB49" s="20" t="inlineStr"/>
-      <c r="BC49" s="21" t="inlineStr"/>
+      <c r="BB49" s="19" t="inlineStr"/>
+      <c r="BC49" s="20" t="inlineStr"/>
       <c r="BD49" s="21" t="inlineStr"/>
-      <c r="BE49" s="23" t="inlineStr"/>
-      <c r="BF49" s="24" t="inlineStr"/>
+      <c r="BE49" s="21" t="inlineStr"/>
+      <c r="BF49" s="23" t="inlineStr"/>
       <c r="BG49" s="32" t="inlineStr"/>
       <c r="BH49" s="32" t="inlineStr"/>
       <c r="BI49" s="32" t="inlineStr"/>
@@ -5634,13 +6020,16 @@
       <c r="BT49" s="32" t="inlineStr"/>
       <c r="BU49" s="32" t="inlineStr"/>
       <c r="BV49" s="32" t="inlineStr"/>
-      <c r="BW49" s="25" t="inlineStr"/>
-      <c r="BX49" s="33" t="inlineStr"/>
-      <c r="BY49" s="33" t="inlineStr"/>
+      <c r="BW49" s="32" t="inlineStr"/>
+      <c r="BX49" s="32" t="inlineStr"/>
+      <c r="BY49" s="25" t="inlineStr"/>
       <c r="BZ49" s="33" t="inlineStr"/>
       <c r="CA49" s="33" t="inlineStr"/>
-      <c r="CB49" s="26" t="inlineStr"/>
-      <c r="CC49" s="27" t="inlineStr"/>
+      <c r="CB49" s="33" t="inlineStr"/>
+      <c r="CC49" s="33" t="inlineStr"/>
+      <c r="CD49" s="26" t="inlineStr"/>
+      <c r="CE49" s="27" t="inlineStr"/>
+      <c r="CF49" s="27" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5666,28 +6055,28 @@
       <c r="U50" s="19" t="inlineStr"/>
       <c r="V50" s="19" t="inlineStr"/>
       <c r="W50" s="19" t="inlineStr"/>
-      <c r="X50" s="20" t="inlineStr"/>
-      <c r="Y50" s="21" t="inlineStr"/>
+      <c r="X50" s="19" t="inlineStr"/>
+      <c r="Y50" s="20" t="inlineStr"/>
       <c r="Z50" s="21" t="inlineStr"/>
-      <c r="AA50" s="22" t="inlineStr"/>
+      <c r="AA50" s="21" t="inlineStr"/>
       <c r="AB50" s="22" t="inlineStr"/>
-      <c r="AC50" s="21" t="inlineStr"/>
-      <c r="AD50" s="23" t="inlineStr"/>
-      <c r="AE50" s="24" t="inlineStr"/>
+      <c r="AC50" s="22" t="inlineStr"/>
+      <c r="AD50" s="21" t="inlineStr"/>
+      <c r="AE50" s="23" t="inlineStr"/>
       <c r="AF50" s="24" t="inlineStr"/>
       <c r="AG50" s="24" t="inlineStr"/>
       <c r="AH50" s="24" t="inlineStr"/>
-      <c r="AI50" s="25" t="inlineStr"/>
-      <c r="AJ50" s="26" t="inlineStr"/>
-      <c r="AK50" s="27" t="inlineStr"/>
-      <c r="AL50" s="28" t="inlineStr"/>
-      <c r="AM50" s="29" t="inlineStr"/>
-      <c r="AN50" s="30" t="inlineStr"/>
-      <c r="AO50" s="17" t="inlineStr"/>
+      <c r="AI50" s="24" t="inlineStr"/>
+      <c r="AJ50" s="25" t="inlineStr"/>
+      <c r="AK50" s="26" t="inlineStr"/>
+      <c r="AL50" s="27" t="inlineStr"/>
+      <c r="AM50" s="28" t="inlineStr"/>
+      <c r="AN50" s="29" t="inlineStr"/>
+      <c r="AO50" s="30" t="inlineStr"/>
       <c r="AP50" s="17" t="inlineStr"/>
-      <c r="AQ50" s="31" t="inlineStr"/>
-      <c r="AR50" s="18" t="inlineStr"/>
-      <c r="AS50" s="19" t="inlineStr"/>
+      <c r="AQ50" s="17" t="inlineStr"/>
+      <c r="AR50" s="31" t="inlineStr"/>
+      <c r="AS50" s="18" t="inlineStr"/>
       <c r="AT50" s="19" t="inlineStr"/>
       <c r="AU50" s="19" t="inlineStr"/>
       <c r="AV50" s="19" t="inlineStr"/>
@@ -5696,11 +6085,11 @@
       <c r="AY50" s="19" t="inlineStr"/>
       <c r="AZ50" s="19" t="inlineStr"/>
       <c r="BA50" s="19" t="inlineStr"/>
-      <c r="BB50" s="20" t="inlineStr"/>
-      <c r="BC50" s="21" t="inlineStr"/>
+      <c r="BB50" s="19" t="inlineStr"/>
+      <c r="BC50" s="20" t="inlineStr"/>
       <c r="BD50" s="21" t="inlineStr"/>
-      <c r="BE50" s="23" t="inlineStr"/>
-      <c r="BF50" s="24" t="inlineStr"/>
+      <c r="BE50" s="21" t="inlineStr"/>
+      <c r="BF50" s="23" t="inlineStr"/>
       <c r="BG50" s="32" t="inlineStr"/>
       <c r="BH50" s="32" t="inlineStr"/>
       <c r="BI50" s="32" t="inlineStr"/>
@@ -5717,13 +6106,16 @@
       <c r="BT50" s="32" t="inlineStr"/>
       <c r="BU50" s="32" t="inlineStr"/>
       <c r="BV50" s="32" t="inlineStr"/>
-      <c r="BW50" s="25" t="inlineStr"/>
-      <c r="BX50" s="33" t="inlineStr"/>
-      <c r="BY50" s="33" t="inlineStr"/>
+      <c r="BW50" s="32" t="inlineStr"/>
+      <c r="BX50" s="32" t="inlineStr"/>
+      <c r="BY50" s="25" t="inlineStr"/>
       <c r="BZ50" s="33" t="inlineStr"/>
       <c r="CA50" s="33" t="inlineStr"/>
-      <c r="CB50" s="26" t="inlineStr"/>
-      <c r="CC50" s="27" t="inlineStr"/>
+      <c r="CB50" s="33" t="inlineStr"/>
+      <c r="CC50" s="33" t="inlineStr"/>
+      <c r="CD50" s="26" t="inlineStr"/>
+      <c r="CE50" s="27" t="inlineStr"/>
+      <c r="CF50" s="27" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5749,28 +6141,28 @@
       <c r="U51" s="19" t="inlineStr"/>
       <c r="V51" s="19" t="inlineStr"/>
       <c r="W51" s="19" t="inlineStr"/>
-      <c r="X51" s="20" t="inlineStr"/>
-      <c r="Y51" s="21" t="inlineStr"/>
+      <c r="X51" s="19" t="inlineStr"/>
+      <c r="Y51" s="20" t="inlineStr"/>
       <c r="Z51" s="21" t="inlineStr"/>
-      <c r="AA51" s="22" t="inlineStr"/>
+      <c r="AA51" s="21" t="inlineStr"/>
       <c r="AB51" s="22" t="inlineStr"/>
-      <c r="AC51" s="21" t="inlineStr"/>
-      <c r="AD51" s="23" t="inlineStr"/>
-      <c r="AE51" s="24" t="inlineStr"/>
+      <c r="AC51" s="22" t="inlineStr"/>
+      <c r="AD51" s="21" t="inlineStr"/>
+      <c r="AE51" s="23" t="inlineStr"/>
       <c r="AF51" s="24" t="inlineStr"/>
       <c r="AG51" s="24" t="inlineStr"/>
       <c r="AH51" s="24" t="inlineStr"/>
-      <c r="AI51" s="25" t="inlineStr"/>
-      <c r="AJ51" s="26" t="inlineStr"/>
-      <c r="AK51" s="27" t="inlineStr"/>
-      <c r="AL51" s="28" t="inlineStr"/>
-      <c r="AM51" s="29" t="inlineStr"/>
-      <c r="AN51" s="30" t="inlineStr"/>
-      <c r="AO51" s="17" t="inlineStr"/>
+      <c r="AI51" s="24" t="inlineStr"/>
+      <c r="AJ51" s="25" t="inlineStr"/>
+      <c r="AK51" s="26" t="inlineStr"/>
+      <c r="AL51" s="27" t="inlineStr"/>
+      <c r="AM51" s="28" t="inlineStr"/>
+      <c r="AN51" s="29" t="inlineStr"/>
+      <c r="AO51" s="30" t="inlineStr"/>
       <c r="AP51" s="17" t="inlineStr"/>
-      <c r="AQ51" s="31" t="inlineStr"/>
-      <c r="AR51" s="18" t="inlineStr"/>
-      <c r="AS51" s="19" t="inlineStr"/>
+      <c r="AQ51" s="17" t="inlineStr"/>
+      <c r="AR51" s="31" t="inlineStr"/>
+      <c r="AS51" s="18" t="inlineStr"/>
       <c r="AT51" s="19" t="inlineStr"/>
       <c r="AU51" s="19" t="inlineStr"/>
       <c r="AV51" s="19" t="inlineStr"/>
@@ -5779,11 +6171,11 @@
       <c r="AY51" s="19" t="inlineStr"/>
       <c r="AZ51" s="19" t="inlineStr"/>
       <c r="BA51" s="19" t="inlineStr"/>
-      <c r="BB51" s="20" t="inlineStr"/>
-      <c r="BC51" s="21" t="inlineStr"/>
+      <c r="BB51" s="19" t="inlineStr"/>
+      <c r="BC51" s="20" t="inlineStr"/>
       <c r="BD51" s="21" t="inlineStr"/>
-      <c r="BE51" s="23" t="inlineStr"/>
-      <c r="BF51" s="24" t="inlineStr"/>
+      <c r="BE51" s="21" t="inlineStr"/>
+      <c r="BF51" s="23" t="inlineStr"/>
       <c r="BG51" s="32" t="inlineStr"/>
       <c r="BH51" s="32" t="inlineStr"/>
       <c r="BI51" s="32" t="inlineStr"/>
@@ -5800,13 +6192,16 @@
       <c r="BT51" s="32" t="inlineStr"/>
       <c r="BU51" s="32" t="inlineStr"/>
       <c r="BV51" s="32" t="inlineStr"/>
-      <c r="BW51" s="25" t="inlineStr"/>
-      <c r="BX51" s="33" t="inlineStr"/>
-      <c r="BY51" s="33" t="inlineStr"/>
+      <c r="BW51" s="32" t="inlineStr"/>
+      <c r="BX51" s="32" t="inlineStr"/>
+      <c r="BY51" s="25" t="inlineStr"/>
       <c r="BZ51" s="33" t="inlineStr"/>
       <c r="CA51" s="33" t="inlineStr"/>
-      <c r="CB51" s="26" t="inlineStr"/>
-      <c r="CC51" s="27" t="inlineStr"/>
+      <c r="CB51" s="33" t="inlineStr"/>
+      <c r="CC51" s="33" t="inlineStr"/>
+      <c r="CD51" s="26" t="inlineStr"/>
+      <c r="CE51" s="27" t="inlineStr"/>
+      <c r="CF51" s="27" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -5832,28 +6227,28 @@
       <c r="U52" s="19" t="inlineStr"/>
       <c r="V52" s="19" t="inlineStr"/>
       <c r="W52" s="19" t="inlineStr"/>
-      <c r="X52" s="20" t="inlineStr"/>
-      <c r="Y52" s="21" t="inlineStr"/>
+      <c r="X52" s="19" t="inlineStr"/>
+      <c r="Y52" s="20" t="inlineStr"/>
       <c r="Z52" s="21" t="inlineStr"/>
-      <c r="AA52" s="22" t="inlineStr"/>
+      <c r="AA52" s="21" t="inlineStr"/>
       <c r="AB52" s="22" t="inlineStr"/>
-      <c r="AC52" s="21" t="inlineStr"/>
-      <c r="AD52" s="23" t="inlineStr"/>
-      <c r="AE52" s="24" t="inlineStr"/>
+      <c r="AC52" s="22" t="inlineStr"/>
+      <c r="AD52" s="21" t="inlineStr"/>
+      <c r="AE52" s="23" t="inlineStr"/>
       <c r="AF52" s="24" t="inlineStr"/>
       <c r="AG52" s="24" t="inlineStr"/>
       <c r="AH52" s="24" t="inlineStr"/>
-      <c r="AI52" s="25" t="inlineStr"/>
-      <c r="AJ52" s="26" t="inlineStr"/>
-      <c r="AK52" s="27" t="inlineStr"/>
-      <c r="AL52" s="28" t="inlineStr"/>
-      <c r="AM52" s="29" t="inlineStr"/>
-      <c r="AN52" s="30" t="inlineStr"/>
-      <c r="AO52" s="17" t="inlineStr"/>
+      <c r="AI52" s="24" t="inlineStr"/>
+      <c r="AJ52" s="25" t="inlineStr"/>
+      <c r="AK52" s="26" t="inlineStr"/>
+      <c r="AL52" s="27" t="inlineStr"/>
+      <c r="AM52" s="28" t="inlineStr"/>
+      <c r="AN52" s="29" t="inlineStr"/>
+      <c r="AO52" s="30" t="inlineStr"/>
       <c r="AP52" s="17" t="inlineStr"/>
-      <c r="AQ52" s="31" t="inlineStr"/>
-      <c r="AR52" s="18" t="inlineStr"/>
-      <c r="AS52" s="19" t="inlineStr"/>
+      <c r="AQ52" s="17" t="inlineStr"/>
+      <c r="AR52" s="31" t="inlineStr"/>
+      <c r="AS52" s="18" t="inlineStr"/>
       <c r="AT52" s="19" t="inlineStr"/>
       <c r="AU52" s="19" t="inlineStr"/>
       <c r="AV52" s="19" t="inlineStr"/>
@@ -5862,11 +6257,11 @@
       <c r="AY52" s="19" t="inlineStr"/>
       <c r="AZ52" s="19" t="inlineStr"/>
       <c r="BA52" s="19" t="inlineStr"/>
-      <c r="BB52" s="20" t="inlineStr"/>
-      <c r="BC52" s="21" t="inlineStr"/>
+      <c r="BB52" s="19" t="inlineStr"/>
+      <c r="BC52" s="20" t="inlineStr"/>
       <c r="BD52" s="21" t="inlineStr"/>
-      <c r="BE52" s="23" t="inlineStr"/>
-      <c r="BF52" s="24" t="inlineStr"/>
+      <c r="BE52" s="21" t="inlineStr"/>
+      <c r="BF52" s="23" t="inlineStr"/>
       <c r="BG52" s="32" t="inlineStr"/>
       <c r="BH52" s="32" t="inlineStr"/>
       <c r="BI52" s="32" t="inlineStr"/>
@@ -5883,13 +6278,16 @@
       <c r="BT52" s="32" t="inlineStr"/>
       <c r="BU52" s="32" t="inlineStr"/>
       <c r="BV52" s="32" t="inlineStr"/>
-      <c r="BW52" s="25" t="inlineStr"/>
-      <c r="BX52" s="33" t="inlineStr"/>
-      <c r="BY52" s="33" t="inlineStr"/>
+      <c r="BW52" s="32" t="inlineStr"/>
+      <c r="BX52" s="32" t="inlineStr"/>
+      <c r="BY52" s="25" t="inlineStr"/>
       <c r="BZ52" s="33" t="inlineStr"/>
       <c r="CA52" s="33" t="inlineStr"/>
-      <c r="CB52" s="26" t="inlineStr"/>
-      <c r="CC52" s="27" t="inlineStr"/>
+      <c r="CB52" s="33" t="inlineStr"/>
+      <c r="CC52" s="33" t="inlineStr"/>
+      <c r="CD52" s="26" t="inlineStr"/>
+      <c r="CE52" s="27" t="inlineStr"/>
+      <c r="CF52" s="27" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -5915,28 +6313,28 @@
       <c r="U53" s="19" t="inlineStr"/>
       <c r="V53" s="19" t="inlineStr"/>
       <c r="W53" s="19" t="inlineStr"/>
-      <c r="X53" s="20" t="inlineStr"/>
-      <c r="Y53" s="21" t="inlineStr"/>
+      <c r="X53" s="19" t="inlineStr"/>
+      <c r="Y53" s="20" t="inlineStr"/>
       <c r="Z53" s="21" t="inlineStr"/>
-      <c r="AA53" s="22" t="inlineStr"/>
+      <c r="AA53" s="21" t="inlineStr"/>
       <c r="AB53" s="22" t="inlineStr"/>
-      <c r="AC53" s="21" t="inlineStr"/>
-      <c r="AD53" s="23" t="inlineStr"/>
-      <c r="AE53" s="24" t="inlineStr"/>
+      <c r="AC53" s="22" t="inlineStr"/>
+      <c r="AD53" s="21" t="inlineStr"/>
+      <c r="AE53" s="23" t="inlineStr"/>
       <c r="AF53" s="24" t="inlineStr"/>
       <c r="AG53" s="24" t="inlineStr"/>
       <c r="AH53" s="24" t="inlineStr"/>
-      <c r="AI53" s="25" t="inlineStr"/>
-      <c r="AJ53" s="26" t="inlineStr"/>
-      <c r="AK53" s="27" t="inlineStr"/>
-      <c r="AL53" s="28" t="inlineStr"/>
-      <c r="AM53" s="29" t="inlineStr"/>
-      <c r="AN53" s="30" t="inlineStr"/>
-      <c r="AO53" s="17" t="inlineStr"/>
+      <c r="AI53" s="24" t="inlineStr"/>
+      <c r="AJ53" s="25" t="inlineStr"/>
+      <c r="AK53" s="26" t="inlineStr"/>
+      <c r="AL53" s="27" t="inlineStr"/>
+      <c r="AM53" s="28" t="inlineStr"/>
+      <c r="AN53" s="29" t="inlineStr"/>
+      <c r="AO53" s="30" t="inlineStr"/>
       <c r="AP53" s="17" t="inlineStr"/>
-      <c r="AQ53" s="31" t="inlineStr"/>
-      <c r="AR53" s="18" t="inlineStr"/>
-      <c r="AS53" s="19" t="inlineStr"/>
+      <c r="AQ53" s="17" t="inlineStr"/>
+      <c r="AR53" s="31" t="inlineStr"/>
+      <c r="AS53" s="18" t="inlineStr"/>
       <c r="AT53" s="19" t="inlineStr"/>
       <c r="AU53" s="19" t="inlineStr"/>
       <c r="AV53" s="19" t="inlineStr"/>
@@ -5945,11 +6343,11 @@
       <c r="AY53" s="19" t="inlineStr"/>
       <c r="AZ53" s="19" t="inlineStr"/>
       <c r="BA53" s="19" t="inlineStr"/>
-      <c r="BB53" s="20" t="inlineStr"/>
-      <c r="BC53" s="21" t="inlineStr"/>
+      <c r="BB53" s="19" t="inlineStr"/>
+      <c r="BC53" s="20" t="inlineStr"/>
       <c r="BD53" s="21" t="inlineStr"/>
-      <c r="BE53" s="23" t="inlineStr"/>
-      <c r="BF53" s="24" t="inlineStr"/>
+      <c r="BE53" s="21" t="inlineStr"/>
+      <c r="BF53" s="23" t="inlineStr"/>
       <c r="BG53" s="32" t="inlineStr"/>
       <c r="BH53" s="32" t="inlineStr"/>
       <c r="BI53" s="32" t="inlineStr"/>
@@ -5966,13 +6364,16 @@
       <c r="BT53" s="32" t="inlineStr"/>
       <c r="BU53" s="32" t="inlineStr"/>
       <c r="BV53" s="32" t="inlineStr"/>
-      <c r="BW53" s="25" t="inlineStr"/>
-      <c r="BX53" s="33" t="inlineStr"/>
-      <c r="BY53" s="33" t="inlineStr"/>
+      <c r="BW53" s="32" t="inlineStr"/>
+      <c r="BX53" s="32" t="inlineStr"/>
+      <c r="BY53" s="25" t="inlineStr"/>
       <c r="BZ53" s="33" t="inlineStr"/>
       <c r="CA53" s="33" t="inlineStr"/>
-      <c r="CB53" s="26" t="inlineStr"/>
-      <c r="CC53" s="27" t="inlineStr"/>
+      <c r="CB53" s="33" t="inlineStr"/>
+      <c r="CC53" s="33" t="inlineStr"/>
+      <c r="CD53" s="26" t="inlineStr"/>
+      <c r="CE53" s="27" t="inlineStr"/>
+      <c r="CF53" s="27" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -5998,28 +6399,28 @@
       <c r="U54" s="19" t="inlineStr"/>
       <c r="V54" s="19" t="inlineStr"/>
       <c r="W54" s="19" t="inlineStr"/>
-      <c r="X54" s="20" t="inlineStr"/>
-      <c r="Y54" s="21" t="inlineStr"/>
+      <c r="X54" s="19" t="inlineStr"/>
+      <c r="Y54" s="20" t="inlineStr"/>
       <c r="Z54" s="21" t="inlineStr"/>
-      <c r="AA54" s="22" t="inlineStr"/>
+      <c r="AA54" s="21" t="inlineStr"/>
       <c r="AB54" s="22" t="inlineStr"/>
-      <c r="AC54" s="21" t="inlineStr"/>
-      <c r="AD54" s="23" t="inlineStr"/>
-      <c r="AE54" s="24" t="inlineStr"/>
+      <c r="AC54" s="22" t="inlineStr"/>
+      <c r="AD54" s="21" t="inlineStr"/>
+      <c r="AE54" s="23" t="inlineStr"/>
       <c r="AF54" s="24" t="inlineStr"/>
       <c r="AG54" s="24" t="inlineStr"/>
       <c r="AH54" s="24" t="inlineStr"/>
-      <c r="AI54" s="25" t="inlineStr"/>
-      <c r="AJ54" s="26" t="inlineStr"/>
-      <c r="AK54" s="27" t="inlineStr"/>
-      <c r="AL54" s="28" t="inlineStr"/>
-      <c r="AM54" s="29" t="inlineStr"/>
-      <c r="AN54" s="30" t="inlineStr"/>
-      <c r="AO54" s="17" t="inlineStr"/>
+      <c r="AI54" s="24" t="inlineStr"/>
+      <c r="AJ54" s="25" t="inlineStr"/>
+      <c r="AK54" s="26" t="inlineStr"/>
+      <c r="AL54" s="27" t="inlineStr"/>
+      <c r="AM54" s="28" t="inlineStr"/>
+      <c r="AN54" s="29" t="inlineStr"/>
+      <c r="AO54" s="30" t="inlineStr"/>
       <c r="AP54" s="17" t="inlineStr"/>
-      <c r="AQ54" s="31" t="inlineStr"/>
-      <c r="AR54" s="18" t="inlineStr"/>
-      <c r="AS54" s="19" t="inlineStr"/>
+      <c r="AQ54" s="17" t="inlineStr"/>
+      <c r="AR54" s="31" t="inlineStr"/>
+      <c r="AS54" s="18" t="inlineStr"/>
       <c r="AT54" s="19" t="inlineStr"/>
       <c r="AU54" s="19" t="inlineStr"/>
       <c r="AV54" s="19" t="inlineStr"/>
@@ -6028,11 +6429,11 @@
       <c r="AY54" s="19" t="inlineStr"/>
       <c r="AZ54" s="19" t="inlineStr"/>
       <c r="BA54" s="19" t="inlineStr"/>
-      <c r="BB54" s="20" t="inlineStr"/>
-      <c r="BC54" s="21" t="inlineStr"/>
+      <c r="BB54" s="19" t="inlineStr"/>
+      <c r="BC54" s="20" t="inlineStr"/>
       <c r="BD54" s="21" t="inlineStr"/>
-      <c r="BE54" s="23" t="inlineStr"/>
-      <c r="BF54" s="24" t="inlineStr"/>
+      <c r="BE54" s="21" t="inlineStr"/>
+      <c r="BF54" s="23" t="inlineStr"/>
       <c r="BG54" s="32" t="inlineStr"/>
       <c r="BH54" s="32" t="inlineStr"/>
       <c r="BI54" s="32" t="inlineStr"/>
@@ -6049,13 +6450,16 @@
       <c r="BT54" s="32" t="inlineStr"/>
       <c r="BU54" s="32" t="inlineStr"/>
       <c r="BV54" s="32" t="inlineStr"/>
-      <c r="BW54" s="25" t="inlineStr"/>
-      <c r="BX54" s="33" t="inlineStr"/>
-      <c r="BY54" s="33" t="inlineStr"/>
+      <c r="BW54" s="32" t="inlineStr"/>
+      <c r="BX54" s="32" t="inlineStr"/>
+      <c r="BY54" s="25" t="inlineStr"/>
       <c r="BZ54" s="33" t="inlineStr"/>
       <c r="CA54" s="33" t="inlineStr"/>
-      <c r="CB54" s="26" t="inlineStr"/>
-      <c r="CC54" s="27" t="inlineStr"/>
+      <c r="CB54" s="33" t="inlineStr"/>
+      <c r="CC54" s="33" t="inlineStr"/>
+      <c r="CD54" s="26" t="inlineStr"/>
+      <c r="CE54" s="27" t="inlineStr"/>
+      <c r="CF54" s="27" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6081,28 +6485,28 @@
       <c r="U55" s="19" t="inlineStr"/>
       <c r="V55" s="19" t="inlineStr"/>
       <c r="W55" s="19" t="inlineStr"/>
-      <c r="X55" s="20" t="inlineStr"/>
-      <c r="Y55" s="21" t="inlineStr"/>
+      <c r="X55" s="19" t="inlineStr"/>
+      <c r="Y55" s="20" t="inlineStr"/>
       <c r="Z55" s="21" t="inlineStr"/>
-      <c r="AA55" s="22" t="inlineStr"/>
+      <c r="AA55" s="21" t="inlineStr"/>
       <c r="AB55" s="22" t="inlineStr"/>
-      <c r="AC55" s="21" t="inlineStr"/>
-      <c r="AD55" s="23" t="inlineStr"/>
-      <c r="AE55" s="24" t="inlineStr"/>
+      <c r="AC55" s="22" t="inlineStr"/>
+      <c r="AD55" s="21" t="inlineStr"/>
+      <c r="AE55" s="23" t="inlineStr"/>
       <c r="AF55" s="24" t="inlineStr"/>
       <c r="AG55" s="24" t="inlineStr"/>
       <c r="AH55" s="24" t="inlineStr"/>
-      <c r="AI55" s="25" t="inlineStr"/>
-      <c r="AJ55" s="26" t="inlineStr"/>
-      <c r="AK55" s="27" t="inlineStr"/>
-      <c r="AL55" s="28" t="inlineStr"/>
-      <c r="AM55" s="29" t="inlineStr"/>
-      <c r="AN55" s="30" t="inlineStr"/>
-      <c r="AO55" s="17" t="inlineStr"/>
+      <c r="AI55" s="24" t="inlineStr"/>
+      <c r="AJ55" s="25" t="inlineStr"/>
+      <c r="AK55" s="26" t="inlineStr"/>
+      <c r="AL55" s="27" t="inlineStr"/>
+      <c r="AM55" s="28" t="inlineStr"/>
+      <c r="AN55" s="29" t="inlineStr"/>
+      <c r="AO55" s="30" t="inlineStr"/>
       <c r="AP55" s="17" t="inlineStr"/>
-      <c r="AQ55" s="31" t="inlineStr"/>
-      <c r="AR55" s="18" t="inlineStr"/>
-      <c r="AS55" s="19" t="inlineStr"/>
+      <c r="AQ55" s="17" t="inlineStr"/>
+      <c r="AR55" s="31" t="inlineStr"/>
+      <c r="AS55" s="18" t="inlineStr"/>
       <c r="AT55" s="19" t="inlineStr"/>
       <c r="AU55" s="19" t="inlineStr"/>
       <c r="AV55" s="19" t="inlineStr"/>
@@ -6111,11 +6515,11 @@
       <c r="AY55" s="19" t="inlineStr"/>
       <c r="AZ55" s="19" t="inlineStr"/>
       <c r="BA55" s="19" t="inlineStr"/>
-      <c r="BB55" s="20" t="inlineStr"/>
-      <c r="BC55" s="21" t="inlineStr"/>
+      <c r="BB55" s="19" t="inlineStr"/>
+      <c r="BC55" s="20" t="inlineStr"/>
       <c r="BD55" s="21" t="inlineStr"/>
-      <c r="BE55" s="23" t="inlineStr"/>
-      <c r="BF55" s="24" t="inlineStr"/>
+      <c r="BE55" s="21" t="inlineStr"/>
+      <c r="BF55" s="23" t="inlineStr"/>
       <c r="BG55" s="32" t="inlineStr"/>
       <c r="BH55" s="32" t="inlineStr"/>
       <c r="BI55" s="32" t="inlineStr"/>
@@ -6132,13 +6536,16 @@
       <c r="BT55" s="32" t="inlineStr"/>
       <c r="BU55" s="32" t="inlineStr"/>
       <c r="BV55" s="32" t="inlineStr"/>
-      <c r="BW55" s="25" t="inlineStr"/>
-      <c r="BX55" s="33" t="inlineStr"/>
-      <c r="BY55" s="33" t="inlineStr"/>
+      <c r="BW55" s="32" t="inlineStr"/>
+      <c r="BX55" s="32" t="inlineStr"/>
+      <c r="BY55" s="25" t="inlineStr"/>
       <c r="BZ55" s="33" t="inlineStr"/>
       <c r="CA55" s="33" t="inlineStr"/>
-      <c r="CB55" s="26" t="inlineStr"/>
-      <c r="CC55" s="27" t="inlineStr"/>
+      <c r="CB55" s="33" t="inlineStr"/>
+      <c r="CC55" s="33" t="inlineStr"/>
+      <c r="CD55" s="26" t="inlineStr"/>
+      <c r="CE55" s="27" t="inlineStr"/>
+      <c r="CF55" s="27" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6164,28 +6571,28 @@
       <c r="U56" s="19" t="inlineStr"/>
       <c r="V56" s="19" t="inlineStr"/>
       <c r="W56" s="19" t="inlineStr"/>
-      <c r="X56" s="20" t="inlineStr"/>
-      <c r="Y56" s="21" t="inlineStr"/>
+      <c r="X56" s="19" t="inlineStr"/>
+      <c r="Y56" s="20" t="inlineStr"/>
       <c r="Z56" s="21" t="inlineStr"/>
-      <c r="AA56" s="22" t="inlineStr"/>
+      <c r="AA56" s="21" t="inlineStr"/>
       <c r="AB56" s="22" t="inlineStr"/>
-      <c r="AC56" s="21" t="inlineStr"/>
-      <c r="AD56" s="23" t="inlineStr"/>
-      <c r="AE56" s="24" t="inlineStr"/>
+      <c r="AC56" s="22" t="inlineStr"/>
+      <c r="AD56" s="21" t="inlineStr"/>
+      <c r="AE56" s="23" t="inlineStr"/>
       <c r="AF56" s="24" t="inlineStr"/>
       <c r="AG56" s="24" t="inlineStr"/>
       <c r="AH56" s="24" t="inlineStr"/>
-      <c r="AI56" s="25" t="inlineStr"/>
-      <c r="AJ56" s="26" t="inlineStr"/>
-      <c r="AK56" s="27" t="inlineStr"/>
-      <c r="AL56" s="28" t="inlineStr"/>
-      <c r="AM56" s="29" t="inlineStr"/>
-      <c r="AN56" s="30" t="inlineStr"/>
-      <c r="AO56" s="17" t="inlineStr"/>
+      <c r="AI56" s="24" t="inlineStr"/>
+      <c r="AJ56" s="25" t="inlineStr"/>
+      <c r="AK56" s="26" t="inlineStr"/>
+      <c r="AL56" s="27" t="inlineStr"/>
+      <c r="AM56" s="28" t="inlineStr"/>
+      <c r="AN56" s="29" t="inlineStr"/>
+      <c r="AO56" s="30" t="inlineStr"/>
       <c r="AP56" s="17" t="inlineStr"/>
-      <c r="AQ56" s="31" t="inlineStr"/>
-      <c r="AR56" s="18" t="inlineStr"/>
-      <c r="AS56" s="19" t="inlineStr"/>
+      <c r="AQ56" s="17" t="inlineStr"/>
+      <c r="AR56" s="31" t="inlineStr"/>
+      <c r="AS56" s="18" t="inlineStr"/>
       <c r="AT56" s="19" t="inlineStr"/>
       <c r="AU56" s="19" t="inlineStr"/>
       <c r="AV56" s="19" t="inlineStr"/>
@@ -6194,11 +6601,11 @@
       <c r="AY56" s="19" t="inlineStr"/>
       <c r="AZ56" s="19" t="inlineStr"/>
       <c r="BA56" s="19" t="inlineStr"/>
-      <c r="BB56" s="20" t="inlineStr"/>
-      <c r="BC56" s="21" t="inlineStr"/>
+      <c r="BB56" s="19" t="inlineStr"/>
+      <c r="BC56" s="20" t="inlineStr"/>
       <c r="BD56" s="21" t="inlineStr"/>
-      <c r="BE56" s="23" t="inlineStr"/>
-      <c r="BF56" s="24" t="inlineStr"/>
+      <c r="BE56" s="21" t="inlineStr"/>
+      <c r="BF56" s="23" t="inlineStr"/>
       <c r="BG56" s="32" t="inlineStr"/>
       <c r="BH56" s="32" t="inlineStr"/>
       <c r="BI56" s="32" t="inlineStr"/>
@@ -6215,13 +6622,16 @@
       <c r="BT56" s="32" t="inlineStr"/>
       <c r="BU56" s="32" t="inlineStr"/>
       <c r="BV56" s="32" t="inlineStr"/>
-      <c r="BW56" s="25" t="inlineStr"/>
-      <c r="BX56" s="33" t="inlineStr"/>
-      <c r="BY56" s="33" t="inlineStr"/>
+      <c r="BW56" s="32" t="inlineStr"/>
+      <c r="BX56" s="32" t="inlineStr"/>
+      <c r="BY56" s="25" t="inlineStr"/>
       <c r="BZ56" s="33" t="inlineStr"/>
       <c r="CA56" s="33" t="inlineStr"/>
-      <c r="CB56" s="26" t="inlineStr"/>
-      <c r="CC56" s="27" t="inlineStr"/>
+      <c r="CB56" s="33" t="inlineStr"/>
+      <c r="CC56" s="33" t="inlineStr"/>
+      <c r="CD56" s="26" t="inlineStr"/>
+      <c r="CE56" s="27" t="inlineStr"/>
+      <c r="CF56" s="27" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6247,28 +6657,28 @@
       <c r="U57" s="19" t="inlineStr"/>
       <c r="V57" s="19" t="inlineStr"/>
       <c r="W57" s="19" t="inlineStr"/>
-      <c r="X57" s="20" t="inlineStr"/>
-      <c r="Y57" s="21" t="inlineStr"/>
+      <c r="X57" s="19" t="inlineStr"/>
+      <c r="Y57" s="20" t="inlineStr"/>
       <c r="Z57" s="21" t="inlineStr"/>
-      <c r="AA57" s="22" t="inlineStr"/>
+      <c r="AA57" s="21" t="inlineStr"/>
       <c r="AB57" s="22" t="inlineStr"/>
-      <c r="AC57" s="21" t="inlineStr"/>
-      <c r="AD57" s="23" t="inlineStr"/>
-      <c r="AE57" s="24" t="inlineStr"/>
+      <c r="AC57" s="22" t="inlineStr"/>
+      <c r="AD57" s="21" t="inlineStr"/>
+      <c r="AE57" s="23" t="inlineStr"/>
       <c r="AF57" s="24" t="inlineStr"/>
       <c r="AG57" s="24" t="inlineStr"/>
       <c r="AH57" s="24" t="inlineStr"/>
-      <c r="AI57" s="25" t="inlineStr"/>
-      <c r="AJ57" s="26" t="inlineStr"/>
-      <c r="AK57" s="27" t="inlineStr"/>
-      <c r="AL57" s="28" t="inlineStr"/>
-      <c r="AM57" s="29" t="inlineStr"/>
-      <c r="AN57" s="30" t="inlineStr"/>
-      <c r="AO57" s="17" t="inlineStr"/>
+      <c r="AI57" s="24" t="inlineStr"/>
+      <c r="AJ57" s="25" t="inlineStr"/>
+      <c r="AK57" s="26" t="inlineStr"/>
+      <c r="AL57" s="27" t="inlineStr"/>
+      <c r="AM57" s="28" t="inlineStr"/>
+      <c r="AN57" s="29" t="inlineStr"/>
+      <c r="AO57" s="30" t="inlineStr"/>
       <c r="AP57" s="17" t="inlineStr"/>
-      <c r="AQ57" s="31" t="inlineStr"/>
-      <c r="AR57" s="18" t="inlineStr"/>
-      <c r="AS57" s="19" t="inlineStr"/>
+      <c r="AQ57" s="17" t="inlineStr"/>
+      <c r="AR57" s="31" t="inlineStr"/>
+      <c r="AS57" s="18" t="inlineStr"/>
       <c r="AT57" s="19" t="inlineStr"/>
       <c r="AU57" s="19" t="inlineStr"/>
       <c r="AV57" s="19" t="inlineStr"/>
@@ -6277,11 +6687,11 @@
       <c r="AY57" s="19" t="inlineStr"/>
       <c r="AZ57" s="19" t="inlineStr"/>
       <c r="BA57" s="19" t="inlineStr"/>
-      <c r="BB57" s="20" t="inlineStr"/>
-      <c r="BC57" s="21" t="inlineStr"/>
+      <c r="BB57" s="19" t="inlineStr"/>
+      <c r="BC57" s="20" t="inlineStr"/>
       <c r="BD57" s="21" t="inlineStr"/>
-      <c r="BE57" s="23" t="inlineStr"/>
-      <c r="BF57" s="24" t="inlineStr"/>
+      <c r="BE57" s="21" t="inlineStr"/>
+      <c r="BF57" s="23" t="inlineStr"/>
       <c r="BG57" s="32" t="inlineStr"/>
       <c r="BH57" s="32" t="inlineStr"/>
       <c r="BI57" s="32" t="inlineStr"/>
@@ -6298,13 +6708,16 @@
       <c r="BT57" s="32" t="inlineStr"/>
       <c r="BU57" s="32" t="inlineStr"/>
       <c r="BV57" s="32" t="inlineStr"/>
-      <c r="BW57" s="25" t="inlineStr"/>
-      <c r="BX57" s="33" t="inlineStr"/>
-      <c r="BY57" s="33" t="inlineStr"/>
+      <c r="BW57" s="32" t="inlineStr"/>
+      <c r="BX57" s="32" t="inlineStr"/>
+      <c r="BY57" s="25" t="inlineStr"/>
       <c r="BZ57" s="33" t="inlineStr"/>
       <c r="CA57" s="33" t="inlineStr"/>
-      <c r="CB57" s="26" t="inlineStr"/>
-      <c r="CC57" s="27" t="inlineStr"/>
+      <c r="CB57" s="33" t="inlineStr"/>
+      <c r="CC57" s="33" t="inlineStr"/>
+      <c r="CD57" s="26" t="inlineStr"/>
+      <c r="CE57" s="27" t="inlineStr"/>
+      <c r="CF57" s="27" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6330,28 +6743,28 @@
       <c r="U58" s="19" t="inlineStr"/>
       <c r="V58" s="19" t="inlineStr"/>
       <c r="W58" s="19" t="inlineStr"/>
-      <c r="X58" s="20" t="inlineStr"/>
-      <c r="Y58" s="21" t="inlineStr"/>
+      <c r="X58" s="19" t="inlineStr"/>
+      <c r="Y58" s="20" t="inlineStr"/>
       <c r="Z58" s="21" t="inlineStr"/>
-      <c r="AA58" s="22" t="inlineStr"/>
+      <c r="AA58" s="21" t="inlineStr"/>
       <c r="AB58" s="22" t="inlineStr"/>
-      <c r="AC58" s="21" t="inlineStr"/>
-      <c r="AD58" s="23" t="inlineStr"/>
-      <c r="AE58" s="24" t="inlineStr"/>
+      <c r="AC58" s="22" t="inlineStr"/>
+      <c r="AD58" s="21" t="inlineStr"/>
+      <c r="AE58" s="23" t="inlineStr"/>
       <c r="AF58" s="24" t="inlineStr"/>
       <c r="AG58" s="24" t="inlineStr"/>
       <c r="AH58" s="24" t="inlineStr"/>
-      <c r="AI58" s="25" t="inlineStr"/>
-      <c r="AJ58" s="26" t="inlineStr"/>
-      <c r="AK58" s="27" t="inlineStr"/>
-      <c r="AL58" s="28" t="inlineStr"/>
-      <c r="AM58" s="29" t="inlineStr"/>
-      <c r="AN58" s="30" t="inlineStr"/>
-      <c r="AO58" s="17" t="inlineStr"/>
+      <c r="AI58" s="24" t="inlineStr"/>
+      <c r="AJ58" s="25" t="inlineStr"/>
+      <c r="AK58" s="26" t="inlineStr"/>
+      <c r="AL58" s="27" t="inlineStr"/>
+      <c r="AM58" s="28" t="inlineStr"/>
+      <c r="AN58" s="29" t="inlineStr"/>
+      <c r="AO58" s="30" t="inlineStr"/>
       <c r="AP58" s="17" t="inlineStr"/>
-      <c r="AQ58" s="31" t="inlineStr"/>
-      <c r="AR58" s="18" t="inlineStr"/>
-      <c r="AS58" s="19" t="inlineStr"/>
+      <c r="AQ58" s="17" t="inlineStr"/>
+      <c r="AR58" s="31" t="inlineStr"/>
+      <c r="AS58" s="18" t="inlineStr"/>
       <c r="AT58" s="19" t="inlineStr"/>
       <c r="AU58" s="19" t="inlineStr"/>
       <c r="AV58" s="19" t="inlineStr"/>
@@ -6360,11 +6773,11 @@
       <c r="AY58" s="19" t="inlineStr"/>
       <c r="AZ58" s="19" t="inlineStr"/>
       <c r="BA58" s="19" t="inlineStr"/>
-      <c r="BB58" s="20" t="inlineStr"/>
-      <c r="BC58" s="21" t="inlineStr"/>
+      <c r="BB58" s="19" t="inlineStr"/>
+      <c r="BC58" s="20" t="inlineStr"/>
       <c r="BD58" s="21" t="inlineStr"/>
-      <c r="BE58" s="23" t="inlineStr"/>
-      <c r="BF58" s="24" t="inlineStr"/>
+      <c r="BE58" s="21" t="inlineStr"/>
+      <c r="BF58" s="23" t="inlineStr"/>
       <c r="BG58" s="32" t="inlineStr"/>
       <c r="BH58" s="32" t="inlineStr"/>
       <c r="BI58" s="32" t="inlineStr"/>
@@ -6381,13 +6794,16 @@
       <c r="BT58" s="32" t="inlineStr"/>
       <c r="BU58" s="32" t="inlineStr"/>
       <c r="BV58" s="32" t="inlineStr"/>
-      <c r="BW58" s="25" t="inlineStr"/>
-      <c r="BX58" s="33" t="inlineStr"/>
-      <c r="BY58" s="33" t="inlineStr"/>
+      <c r="BW58" s="32" t="inlineStr"/>
+      <c r="BX58" s="32" t="inlineStr"/>
+      <c r="BY58" s="25" t="inlineStr"/>
       <c r="BZ58" s="33" t="inlineStr"/>
       <c r="CA58" s="33" t="inlineStr"/>
-      <c r="CB58" s="26" t="inlineStr"/>
-      <c r="CC58" s="27" t="inlineStr"/>
+      <c r="CB58" s="33" t="inlineStr"/>
+      <c r="CC58" s="33" t="inlineStr"/>
+      <c r="CD58" s="26" t="inlineStr"/>
+      <c r="CE58" s="27" t="inlineStr"/>
+      <c r="CF58" s="27" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6413,28 +6829,28 @@
       <c r="U59" s="19" t="inlineStr"/>
       <c r="V59" s="19" t="inlineStr"/>
       <c r="W59" s="19" t="inlineStr"/>
-      <c r="X59" s="20" t="inlineStr"/>
-      <c r="Y59" s="21" t="inlineStr"/>
+      <c r="X59" s="19" t="inlineStr"/>
+      <c r="Y59" s="20" t="inlineStr"/>
       <c r="Z59" s="21" t="inlineStr"/>
-      <c r="AA59" s="22" t="inlineStr"/>
+      <c r="AA59" s="21" t="inlineStr"/>
       <c r="AB59" s="22" t="inlineStr"/>
-      <c r="AC59" s="21" t="inlineStr"/>
-      <c r="AD59" s="23" t="inlineStr"/>
-      <c r="AE59" s="24" t="inlineStr"/>
+      <c r="AC59" s="22" t="inlineStr"/>
+      <c r="AD59" s="21" t="inlineStr"/>
+      <c r="AE59" s="23" t="inlineStr"/>
       <c r="AF59" s="24" t="inlineStr"/>
       <c r="AG59" s="24" t="inlineStr"/>
       <c r="AH59" s="24" t="inlineStr"/>
-      <c r="AI59" s="25" t="inlineStr"/>
-      <c r="AJ59" s="26" t="inlineStr"/>
-      <c r="AK59" s="27" t="inlineStr"/>
-      <c r="AL59" s="28" t="inlineStr"/>
-      <c r="AM59" s="29" t="inlineStr"/>
-      <c r="AN59" s="30" t="inlineStr"/>
-      <c r="AO59" s="17" t="inlineStr"/>
+      <c r="AI59" s="24" t="inlineStr"/>
+      <c r="AJ59" s="25" t="inlineStr"/>
+      <c r="AK59" s="26" t="inlineStr"/>
+      <c r="AL59" s="27" t="inlineStr"/>
+      <c r="AM59" s="28" t="inlineStr"/>
+      <c r="AN59" s="29" t="inlineStr"/>
+      <c r="AO59" s="30" t="inlineStr"/>
       <c r="AP59" s="17" t="inlineStr"/>
-      <c r="AQ59" s="31" t="inlineStr"/>
-      <c r="AR59" s="18" t="inlineStr"/>
-      <c r="AS59" s="19" t="inlineStr"/>
+      <c r="AQ59" s="17" t="inlineStr"/>
+      <c r="AR59" s="31" t="inlineStr"/>
+      <c r="AS59" s="18" t="inlineStr"/>
       <c r="AT59" s="19" t="inlineStr"/>
       <c r="AU59" s="19" t="inlineStr"/>
       <c r="AV59" s="19" t="inlineStr"/>
@@ -6443,11 +6859,11 @@
       <c r="AY59" s="19" t="inlineStr"/>
       <c r="AZ59" s="19" t="inlineStr"/>
       <c r="BA59" s="19" t="inlineStr"/>
-      <c r="BB59" s="20" t="inlineStr"/>
-      <c r="BC59" s="21" t="inlineStr"/>
+      <c r="BB59" s="19" t="inlineStr"/>
+      <c r="BC59" s="20" t="inlineStr"/>
       <c r="BD59" s="21" t="inlineStr"/>
-      <c r="BE59" s="23" t="inlineStr"/>
-      <c r="BF59" s="24" t="inlineStr"/>
+      <c r="BE59" s="21" t="inlineStr"/>
+      <c r="BF59" s="23" t="inlineStr"/>
       <c r="BG59" s="32" t="inlineStr"/>
       <c r="BH59" s="32" t="inlineStr"/>
       <c r="BI59" s="32" t="inlineStr"/>
@@ -6464,13 +6880,16 @@
       <c r="BT59" s="32" t="inlineStr"/>
       <c r="BU59" s="32" t="inlineStr"/>
       <c r="BV59" s="32" t="inlineStr"/>
-      <c r="BW59" s="25" t="inlineStr"/>
-      <c r="BX59" s="33" t="inlineStr"/>
-      <c r="BY59" s="33" t="inlineStr"/>
+      <c r="BW59" s="32" t="inlineStr"/>
+      <c r="BX59" s="32" t="inlineStr"/>
+      <c r="BY59" s="25" t="inlineStr"/>
       <c r="BZ59" s="33" t="inlineStr"/>
       <c r="CA59" s="33" t="inlineStr"/>
-      <c r="CB59" s="26" t="inlineStr"/>
-      <c r="CC59" s="27" t="inlineStr"/>
+      <c r="CB59" s="33" t="inlineStr"/>
+      <c r="CC59" s="33" t="inlineStr"/>
+      <c r="CD59" s="26" t="inlineStr"/>
+      <c r="CE59" s="27" t="inlineStr"/>
+      <c r="CF59" s="27" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6496,28 +6915,28 @@
       <c r="U60" s="19" t="inlineStr"/>
       <c r="V60" s="19" t="inlineStr"/>
       <c r="W60" s="19" t="inlineStr"/>
-      <c r="X60" s="20" t="inlineStr"/>
-      <c r="Y60" s="21" t="inlineStr"/>
+      <c r="X60" s="19" t="inlineStr"/>
+      <c r="Y60" s="20" t="inlineStr"/>
       <c r="Z60" s="21" t="inlineStr"/>
-      <c r="AA60" s="22" t="inlineStr"/>
+      <c r="AA60" s="21" t="inlineStr"/>
       <c r="AB60" s="22" t="inlineStr"/>
-      <c r="AC60" s="21" t="inlineStr"/>
-      <c r="AD60" s="23" t="inlineStr"/>
-      <c r="AE60" s="24" t="inlineStr"/>
+      <c r="AC60" s="22" t="inlineStr"/>
+      <c r="AD60" s="21" t="inlineStr"/>
+      <c r="AE60" s="23" t="inlineStr"/>
       <c r="AF60" s="24" t="inlineStr"/>
       <c r="AG60" s="24" t="inlineStr"/>
       <c r="AH60" s="24" t="inlineStr"/>
-      <c r="AI60" s="25" t="inlineStr"/>
-      <c r="AJ60" s="26" t="inlineStr"/>
-      <c r="AK60" s="27" t="inlineStr"/>
-      <c r="AL60" s="28" t="inlineStr"/>
-      <c r="AM60" s="29" t="inlineStr"/>
-      <c r="AN60" s="30" t="inlineStr"/>
-      <c r="AO60" s="17" t="inlineStr"/>
+      <c r="AI60" s="24" t="inlineStr"/>
+      <c r="AJ60" s="25" t="inlineStr"/>
+      <c r="AK60" s="26" t="inlineStr"/>
+      <c r="AL60" s="27" t="inlineStr"/>
+      <c r="AM60" s="28" t="inlineStr"/>
+      <c r="AN60" s="29" t="inlineStr"/>
+      <c r="AO60" s="30" t="inlineStr"/>
       <c r="AP60" s="17" t="inlineStr"/>
-      <c r="AQ60" s="31" t="inlineStr"/>
-      <c r="AR60" s="18" t="inlineStr"/>
-      <c r="AS60" s="19" t="inlineStr"/>
+      <c r="AQ60" s="17" t="inlineStr"/>
+      <c r="AR60" s="31" t="inlineStr"/>
+      <c r="AS60" s="18" t="inlineStr"/>
       <c r="AT60" s="19" t="inlineStr"/>
       <c r="AU60" s="19" t="inlineStr"/>
       <c r="AV60" s="19" t="inlineStr"/>
@@ -6526,11 +6945,11 @@
       <c r="AY60" s="19" t="inlineStr"/>
       <c r="AZ60" s="19" t="inlineStr"/>
       <c r="BA60" s="19" t="inlineStr"/>
-      <c r="BB60" s="20" t="inlineStr"/>
-      <c r="BC60" s="21" t="inlineStr"/>
+      <c r="BB60" s="19" t="inlineStr"/>
+      <c r="BC60" s="20" t="inlineStr"/>
       <c r="BD60" s="21" t="inlineStr"/>
-      <c r="BE60" s="23" t="inlineStr"/>
-      <c r="BF60" s="24" t="inlineStr"/>
+      <c r="BE60" s="21" t="inlineStr"/>
+      <c r="BF60" s="23" t="inlineStr"/>
       <c r="BG60" s="32" t="inlineStr"/>
       <c r="BH60" s="32" t="inlineStr"/>
       <c r="BI60" s="32" t="inlineStr"/>
@@ -6547,13 +6966,16 @@
       <c r="BT60" s="32" t="inlineStr"/>
       <c r="BU60" s="32" t="inlineStr"/>
       <c r="BV60" s="32" t="inlineStr"/>
-      <c r="BW60" s="25" t="inlineStr"/>
-      <c r="BX60" s="33" t="inlineStr"/>
-      <c r="BY60" s="33" t="inlineStr"/>
+      <c r="BW60" s="32" t="inlineStr"/>
+      <c r="BX60" s="32" t="inlineStr"/>
+      <c r="BY60" s="25" t="inlineStr"/>
       <c r="BZ60" s="33" t="inlineStr"/>
       <c r="CA60" s="33" t="inlineStr"/>
-      <c r="CB60" s="26" t="inlineStr"/>
-      <c r="CC60" s="27" t="inlineStr"/>
+      <c r="CB60" s="33" t="inlineStr"/>
+      <c r="CC60" s="33" t="inlineStr"/>
+      <c r="CD60" s="26" t="inlineStr"/>
+      <c r="CE60" s="27" t="inlineStr"/>
+      <c r="CF60" s="27" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6579,28 +7001,28 @@
       <c r="U61" s="19" t="inlineStr"/>
       <c r="V61" s="19" t="inlineStr"/>
       <c r="W61" s="19" t="inlineStr"/>
-      <c r="X61" s="20" t="inlineStr"/>
-      <c r="Y61" s="21" t="inlineStr"/>
+      <c r="X61" s="19" t="inlineStr"/>
+      <c r="Y61" s="20" t="inlineStr"/>
       <c r="Z61" s="21" t="inlineStr"/>
-      <c r="AA61" s="22" t="inlineStr"/>
+      <c r="AA61" s="21" t="inlineStr"/>
       <c r="AB61" s="22" t="inlineStr"/>
-      <c r="AC61" s="21" t="inlineStr"/>
-      <c r="AD61" s="23" t="inlineStr"/>
-      <c r="AE61" s="24" t="inlineStr"/>
+      <c r="AC61" s="22" t="inlineStr"/>
+      <c r="AD61" s="21" t="inlineStr"/>
+      <c r="AE61" s="23" t="inlineStr"/>
       <c r="AF61" s="24" t="inlineStr"/>
       <c r="AG61" s="24" t="inlineStr"/>
       <c r="AH61" s="24" t="inlineStr"/>
-      <c r="AI61" s="25" t="inlineStr"/>
-      <c r="AJ61" s="26" t="inlineStr"/>
-      <c r="AK61" s="27" t="inlineStr"/>
-      <c r="AL61" s="28" t="inlineStr"/>
-      <c r="AM61" s="29" t="inlineStr"/>
-      <c r="AN61" s="30" t="inlineStr"/>
-      <c r="AO61" s="17" t="inlineStr"/>
+      <c r="AI61" s="24" t="inlineStr"/>
+      <c r="AJ61" s="25" t="inlineStr"/>
+      <c r="AK61" s="26" t="inlineStr"/>
+      <c r="AL61" s="27" t="inlineStr"/>
+      <c r="AM61" s="28" t="inlineStr"/>
+      <c r="AN61" s="29" t="inlineStr"/>
+      <c r="AO61" s="30" t="inlineStr"/>
       <c r="AP61" s="17" t="inlineStr"/>
-      <c r="AQ61" s="31" t="inlineStr"/>
-      <c r="AR61" s="18" t="inlineStr"/>
-      <c r="AS61" s="19" t="inlineStr"/>
+      <c r="AQ61" s="17" t="inlineStr"/>
+      <c r="AR61" s="31" t="inlineStr"/>
+      <c r="AS61" s="18" t="inlineStr"/>
       <c r="AT61" s="19" t="inlineStr"/>
       <c r="AU61" s="19" t="inlineStr"/>
       <c r="AV61" s="19" t="inlineStr"/>
@@ -6609,11 +7031,11 @@
       <c r="AY61" s="19" t="inlineStr"/>
       <c r="AZ61" s="19" t="inlineStr"/>
       <c r="BA61" s="19" t="inlineStr"/>
-      <c r="BB61" s="20" t="inlineStr"/>
-      <c r="BC61" s="21" t="inlineStr"/>
+      <c r="BB61" s="19" t="inlineStr"/>
+      <c r="BC61" s="20" t="inlineStr"/>
       <c r="BD61" s="21" t="inlineStr"/>
-      <c r="BE61" s="23" t="inlineStr"/>
-      <c r="BF61" s="24" t="inlineStr"/>
+      <c r="BE61" s="21" t="inlineStr"/>
+      <c r="BF61" s="23" t="inlineStr"/>
       <c r="BG61" s="32" t="inlineStr"/>
       <c r="BH61" s="32" t="inlineStr"/>
       <c r="BI61" s="32" t="inlineStr"/>
@@ -6630,13 +7052,16 @@
       <c r="BT61" s="32" t="inlineStr"/>
       <c r="BU61" s="32" t="inlineStr"/>
       <c r="BV61" s="32" t="inlineStr"/>
-      <c r="BW61" s="25" t="inlineStr"/>
-      <c r="BX61" s="33" t="inlineStr"/>
-      <c r="BY61" s="33" t="inlineStr"/>
+      <c r="BW61" s="32" t="inlineStr"/>
+      <c r="BX61" s="32" t="inlineStr"/>
+      <c r="BY61" s="25" t="inlineStr"/>
       <c r="BZ61" s="33" t="inlineStr"/>
       <c r="CA61" s="33" t="inlineStr"/>
-      <c r="CB61" s="26" t="inlineStr"/>
-      <c r="CC61" s="27" t="inlineStr"/>
+      <c r="CB61" s="33" t="inlineStr"/>
+      <c r="CC61" s="33" t="inlineStr"/>
+      <c r="CD61" s="26" t="inlineStr"/>
+      <c r="CE61" s="27" t="inlineStr"/>
+      <c r="CF61" s="27" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6662,28 +7087,28 @@
       <c r="U62" s="19" t="inlineStr"/>
       <c r="V62" s="19" t="inlineStr"/>
       <c r="W62" s="19" t="inlineStr"/>
-      <c r="X62" s="20" t="inlineStr"/>
-      <c r="Y62" s="21" t="inlineStr"/>
+      <c r="X62" s="19" t="inlineStr"/>
+      <c r="Y62" s="20" t="inlineStr"/>
       <c r="Z62" s="21" t="inlineStr"/>
-      <c r="AA62" s="22" t="inlineStr"/>
+      <c r="AA62" s="21" t="inlineStr"/>
       <c r="AB62" s="22" t="inlineStr"/>
-      <c r="AC62" s="21" t="inlineStr"/>
-      <c r="AD62" s="23" t="inlineStr"/>
-      <c r="AE62" s="24" t="inlineStr"/>
+      <c r="AC62" s="22" t="inlineStr"/>
+      <c r="AD62" s="21" t="inlineStr"/>
+      <c r="AE62" s="23" t="inlineStr"/>
       <c r="AF62" s="24" t="inlineStr"/>
       <c r="AG62" s="24" t="inlineStr"/>
       <c r="AH62" s="24" t="inlineStr"/>
-      <c r="AI62" s="25" t="inlineStr"/>
-      <c r="AJ62" s="26" t="inlineStr"/>
-      <c r="AK62" s="27" t="inlineStr"/>
-      <c r="AL62" s="28" t="inlineStr"/>
-      <c r="AM62" s="29" t="inlineStr"/>
-      <c r="AN62" s="30" t="inlineStr"/>
-      <c r="AO62" s="17" t="inlineStr"/>
+      <c r="AI62" s="24" t="inlineStr"/>
+      <c r="AJ62" s="25" t="inlineStr"/>
+      <c r="AK62" s="26" t="inlineStr"/>
+      <c r="AL62" s="27" t="inlineStr"/>
+      <c r="AM62" s="28" t="inlineStr"/>
+      <c r="AN62" s="29" t="inlineStr"/>
+      <c r="AO62" s="30" t="inlineStr"/>
       <c r="AP62" s="17" t="inlineStr"/>
-      <c r="AQ62" s="31" t="inlineStr"/>
-      <c r="AR62" s="18" t="inlineStr"/>
-      <c r="AS62" s="19" t="inlineStr"/>
+      <c r="AQ62" s="17" t="inlineStr"/>
+      <c r="AR62" s="31" t="inlineStr"/>
+      <c r="AS62" s="18" t="inlineStr"/>
       <c r="AT62" s="19" t="inlineStr"/>
       <c r="AU62" s="19" t="inlineStr"/>
       <c r="AV62" s="19" t="inlineStr"/>
@@ -6692,11 +7117,11 @@
       <c r="AY62" s="19" t="inlineStr"/>
       <c r="AZ62" s="19" t="inlineStr"/>
       <c r="BA62" s="19" t="inlineStr"/>
-      <c r="BB62" s="20" t="inlineStr"/>
-      <c r="BC62" s="21" t="inlineStr"/>
+      <c r="BB62" s="19" t="inlineStr"/>
+      <c r="BC62" s="20" t="inlineStr"/>
       <c r="BD62" s="21" t="inlineStr"/>
-      <c r="BE62" s="23" t="inlineStr"/>
-      <c r="BF62" s="24" t="inlineStr"/>
+      <c r="BE62" s="21" t="inlineStr"/>
+      <c r="BF62" s="23" t="inlineStr"/>
       <c r="BG62" s="32" t="inlineStr"/>
       <c r="BH62" s="32" t="inlineStr"/>
       <c r="BI62" s="32" t="inlineStr"/>
@@ -6713,13 +7138,16 @@
       <c r="BT62" s="32" t="inlineStr"/>
       <c r="BU62" s="32" t="inlineStr"/>
       <c r="BV62" s="32" t="inlineStr"/>
-      <c r="BW62" s="25" t="inlineStr"/>
-      <c r="BX62" s="33" t="inlineStr"/>
-      <c r="BY62" s="33" t="inlineStr"/>
+      <c r="BW62" s="32" t="inlineStr"/>
+      <c r="BX62" s="32" t="inlineStr"/>
+      <c r="BY62" s="25" t="inlineStr"/>
       <c r="BZ62" s="33" t="inlineStr"/>
       <c r="CA62" s="33" t="inlineStr"/>
-      <c r="CB62" s="26" t="inlineStr"/>
-      <c r="CC62" s="27" t="inlineStr"/>
+      <c r="CB62" s="33" t="inlineStr"/>
+      <c r="CC62" s="33" t="inlineStr"/>
+      <c r="CD62" s="26" t="inlineStr"/>
+      <c r="CE62" s="27" t="inlineStr"/>
+      <c r="CF62" s="27" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6745,28 +7173,28 @@
       <c r="U63" s="19" t="inlineStr"/>
       <c r="V63" s="19" t="inlineStr"/>
       <c r="W63" s="19" t="inlineStr"/>
-      <c r="X63" s="20" t="inlineStr"/>
-      <c r="Y63" s="21" t="inlineStr"/>
+      <c r="X63" s="19" t="inlineStr"/>
+      <c r="Y63" s="20" t="inlineStr"/>
       <c r="Z63" s="21" t="inlineStr"/>
-      <c r="AA63" s="22" t="inlineStr"/>
+      <c r="AA63" s="21" t="inlineStr"/>
       <c r="AB63" s="22" t="inlineStr"/>
-      <c r="AC63" s="21" t="inlineStr"/>
-      <c r="AD63" s="23" t="inlineStr"/>
-      <c r="AE63" s="24" t="inlineStr"/>
+      <c r="AC63" s="22" t="inlineStr"/>
+      <c r="AD63" s="21" t="inlineStr"/>
+      <c r="AE63" s="23" t="inlineStr"/>
       <c r="AF63" s="24" t="inlineStr"/>
       <c r="AG63" s="24" t="inlineStr"/>
       <c r="AH63" s="24" t="inlineStr"/>
-      <c r="AI63" s="25" t="inlineStr"/>
-      <c r="AJ63" s="26" t="inlineStr"/>
-      <c r="AK63" s="27" t="inlineStr"/>
-      <c r="AL63" s="28" t="inlineStr"/>
-      <c r="AM63" s="29" t="inlineStr"/>
-      <c r="AN63" s="30" t="inlineStr"/>
-      <c r="AO63" s="17" t="inlineStr"/>
+      <c r="AI63" s="24" t="inlineStr"/>
+      <c r="AJ63" s="25" t="inlineStr"/>
+      <c r="AK63" s="26" t="inlineStr"/>
+      <c r="AL63" s="27" t="inlineStr"/>
+      <c r="AM63" s="28" t="inlineStr"/>
+      <c r="AN63" s="29" t="inlineStr"/>
+      <c r="AO63" s="30" t="inlineStr"/>
       <c r="AP63" s="17" t="inlineStr"/>
-      <c r="AQ63" s="31" t="inlineStr"/>
-      <c r="AR63" s="18" t="inlineStr"/>
-      <c r="AS63" s="19" t="inlineStr"/>
+      <c r="AQ63" s="17" t="inlineStr"/>
+      <c r="AR63" s="31" t="inlineStr"/>
+      <c r="AS63" s="18" t="inlineStr"/>
       <c r="AT63" s="19" t="inlineStr"/>
       <c r="AU63" s="19" t="inlineStr"/>
       <c r="AV63" s="19" t="inlineStr"/>
@@ -6775,11 +7203,11 @@
       <c r="AY63" s="19" t="inlineStr"/>
       <c r="AZ63" s="19" t="inlineStr"/>
       <c r="BA63" s="19" t="inlineStr"/>
-      <c r="BB63" s="20" t="inlineStr"/>
-      <c r="BC63" s="21" t="inlineStr"/>
+      <c r="BB63" s="19" t="inlineStr"/>
+      <c r="BC63" s="20" t="inlineStr"/>
       <c r="BD63" s="21" t="inlineStr"/>
-      <c r="BE63" s="23" t="inlineStr"/>
-      <c r="BF63" s="24" t="inlineStr"/>
+      <c r="BE63" s="21" t="inlineStr"/>
+      <c r="BF63" s="23" t="inlineStr"/>
       <c r="BG63" s="32" t="inlineStr"/>
       <c r="BH63" s="32" t="inlineStr"/>
       <c r="BI63" s="32" t="inlineStr"/>
@@ -6796,13 +7224,16 @@
       <c r="BT63" s="32" t="inlineStr"/>
       <c r="BU63" s="32" t="inlineStr"/>
       <c r="BV63" s="32" t="inlineStr"/>
-      <c r="BW63" s="25" t="inlineStr"/>
-      <c r="BX63" s="33" t="inlineStr"/>
-      <c r="BY63" s="33" t="inlineStr"/>
+      <c r="BW63" s="32" t="inlineStr"/>
+      <c r="BX63" s="32" t="inlineStr"/>
+      <c r="BY63" s="25" t="inlineStr"/>
       <c r="BZ63" s="33" t="inlineStr"/>
       <c r="CA63" s="33" t="inlineStr"/>
-      <c r="CB63" s="26" t="inlineStr"/>
-      <c r="CC63" s="27" t="inlineStr"/>
+      <c r="CB63" s="33" t="inlineStr"/>
+      <c r="CC63" s="33" t="inlineStr"/>
+      <c r="CD63" s="26" t="inlineStr"/>
+      <c r="CE63" s="27" t="inlineStr"/>
+      <c r="CF63" s="27" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -6828,28 +7259,28 @@
       <c r="U64" s="19" t="inlineStr"/>
       <c r="V64" s="19" t="inlineStr"/>
       <c r="W64" s="19" t="inlineStr"/>
-      <c r="X64" s="20" t="inlineStr"/>
-      <c r="Y64" s="21" t="inlineStr"/>
+      <c r="X64" s="19" t="inlineStr"/>
+      <c r="Y64" s="20" t="inlineStr"/>
       <c r="Z64" s="21" t="inlineStr"/>
-      <c r="AA64" s="22" t="inlineStr"/>
+      <c r="AA64" s="21" t="inlineStr"/>
       <c r="AB64" s="22" t="inlineStr"/>
-      <c r="AC64" s="21" t="inlineStr"/>
-      <c r="AD64" s="23" t="inlineStr"/>
-      <c r="AE64" s="24" t="inlineStr"/>
+      <c r="AC64" s="22" t="inlineStr"/>
+      <c r="AD64" s="21" t="inlineStr"/>
+      <c r="AE64" s="23" t="inlineStr"/>
       <c r="AF64" s="24" t="inlineStr"/>
       <c r="AG64" s="24" t="inlineStr"/>
       <c r="AH64" s="24" t="inlineStr"/>
-      <c r="AI64" s="25" t="inlineStr"/>
-      <c r="AJ64" s="26" t="inlineStr"/>
-      <c r="AK64" s="27" t="inlineStr"/>
-      <c r="AL64" s="28" t="inlineStr"/>
-      <c r="AM64" s="29" t="inlineStr"/>
-      <c r="AN64" s="30" t="inlineStr"/>
-      <c r="AO64" s="17" t="inlineStr"/>
+      <c r="AI64" s="24" t="inlineStr"/>
+      <c r="AJ64" s="25" t="inlineStr"/>
+      <c r="AK64" s="26" t="inlineStr"/>
+      <c r="AL64" s="27" t="inlineStr"/>
+      <c r="AM64" s="28" t="inlineStr"/>
+      <c r="AN64" s="29" t="inlineStr"/>
+      <c r="AO64" s="30" t="inlineStr"/>
       <c r="AP64" s="17" t="inlineStr"/>
-      <c r="AQ64" s="31" t="inlineStr"/>
-      <c r="AR64" s="18" t="inlineStr"/>
-      <c r="AS64" s="19" t="inlineStr"/>
+      <c r="AQ64" s="17" t="inlineStr"/>
+      <c r="AR64" s="31" t="inlineStr"/>
+      <c r="AS64" s="18" t="inlineStr"/>
       <c r="AT64" s="19" t="inlineStr"/>
       <c r="AU64" s="19" t="inlineStr"/>
       <c r="AV64" s="19" t="inlineStr"/>
@@ -6858,11 +7289,11 @@
       <c r="AY64" s="19" t="inlineStr"/>
       <c r="AZ64" s="19" t="inlineStr"/>
       <c r="BA64" s="19" t="inlineStr"/>
-      <c r="BB64" s="20" t="inlineStr"/>
-      <c r="BC64" s="21" t="inlineStr"/>
+      <c r="BB64" s="19" t="inlineStr"/>
+      <c r="BC64" s="20" t="inlineStr"/>
       <c r="BD64" s="21" t="inlineStr"/>
-      <c r="BE64" s="23" t="inlineStr"/>
-      <c r="BF64" s="24" t="inlineStr"/>
+      <c r="BE64" s="21" t="inlineStr"/>
+      <c r="BF64" s="23" t="inlineStr"/>
       <c r="BG64" s="32" t="inlineStr"/>
       <c r="BH64" s="32" t="inlineStr"/>
       <c r="BI64" s="32" t="inlineStr"/>
@@ -6879,13 +7310,16 @@
       <c r="BT64" s="32" t="inlineStr"/>
       <c r="BU64" s="32" t="inlineStr"/>
       <c r="BV64" s="32" t="inlineStr"/>
-      <c r="BW64" s="25" t="inlineStr"/>
-      <c r="BX64" s="33" t="inlineStr"/>
-      <c r="BY64" s="33" t="inlineStr"/>
+      <c r="BW64" s="32" t="inlineStr"/>
+      <c r="BX64" s="32" t="inlineStr"/>
+      <c r="BY64" s="25" t="inlineStr"/>
       <c r="BZ64" s="33" t="inlineStr"/>
       <c r="CA64" s="33" t="inlineStr"/>
-      <c r="CB64" s="26" t="inlineStr"/>
-      <c r="CC64" s="27" t="inlineStr"/>
+      <c r="CB64" s="33" t="inlineStr"/>
+      <c r="CC64" s="33" t="inlineStr"/>
+      <c r="CD64" s="26" t="inlineStr"/>
+      <c r="CE64" s="27" t="inlineStr"/>
+      <c r="CF64" s="27" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -6911,28 +7345,28 @@
       <c r="U65" s="19" t="inlineStr"/>
       <c r="V65" s="19" t="inlineStr"/>
       <c r="W65" s="19" t="inlineStr"/>
-      <c r="X65" s="20" t="inlineStr"/>
-      <c r="Y65" s="21" t="inlineStr"/>
+      <c r="X65" s="19" t="inlineStr"/>
+      <c r="Y65" s="20" t="inlineStr"/>
       <c r="Z65" s="21" t="inlineStr"/>
-      <c r="AA65" s="22" t="inlineStr"/>
+      <c r="AA65" s="21" t="inlineStr"/>
       <c r="AB65" s="22" t="inlineStr"/>
-      <c r="AC65" s="21" t="inlineStr"/>
-      <c r="AD65" s="23" t="inlineStr"/>
-      <c r="AE65" s="24" t="inlineStr"/>
+      <c r="AC65" s="22" t="inlineStr"/>
+      <c r="AD65" s="21" t="inlineStr"/>
+      <c r="AE65" s="23" t="inlineStr"/>
       <c r="AF65" s="24" t="inlineStr"/>
       <c r="AG65" s="24" t="inlineStr"/>
       <c r="AH65" s="24" t="inlineStr"/>
-      <c r="AI65" s="25" t="inlineStr"/>
-      <c r="AJ65" s="26" t="inlineStr"/>
-      <c r="AK65" s="27" t="inlineStr"/>
-      <c r="AL65" s="28" t="inlineStr"/>
-      <c r="AM65" s="29" t="inlineStr"/>
-      <c r="AN65" s="30" t="inlineStr"/>
-      <c r="AO65" s="17" t="inlineStr"/>
+      <c r="AI65" s="24" t="inlineStr"/>
+      <c r="AJ65" s="25" t="inlineStr"/>
+      <c r="AK65" s="26" t="inlineStr"/>
+      <c r="AL65" s="27" t="inlineStr"/>
+      <c r="AM65" s="28" t="inlineStr"/>
+      <c r="AN65" s="29" t="inlineStr"/>
+      <c r="AO65" s="30" t="inlineStr"/>
       <c r="AP65" s="17" t="inlineStr"/>
-      <c r="AQ65" s="31" t="inlineStr"/>
-      <c r="AR65" s="18" t="inlineStr"/>
-      <c r="AS65" s="19" t="inlineStr"/>
+      <c r="AQ65" s="17" t="inlineStr"/>
+      <c r="AR65" s="31" t="inlineStr"/>
+      <c r="AS65" s="18" t="inlineStr"/>
       <c r="AT65" s="19" t="inlineStr"/>
       <c r="AU65" s="19" t="inlineStr"/>
       <c r="AV65" s="19" t="inlineStr"/>
@@ -6941,11 +7375,11 @@
       <c r="AY65" s="19" t="inlineStr"/>
       <c r="AZ65" s="19" t="inlineStr"/>
       <c r="BA65" s="19" t="inlineStr"/>
-      <c r="BB65" s="20" t="inlineStr"/>
-      <c r="BC65" s="21" t="inlineStr"/>
+      <c r="BB65" s="19" t="inlineStr"/>
+      <c r="BC65" s="20" t="inlineStr"/>
       <c r="BD65" s="21" t="inlineStr"/>
-      <c r="BE65" s="23" t="inlineStr"/>
-      <c r="BF65" s="24" t="inlineStr"/>
+      <c r="BE65" s="21" t="inlineStr"/>
+      <c r="BF65" s="23" t="inlineStr"/>
       <c r="BG65" s="32" t="inlineStr"/>
       <c r="BH65" s="32" t="inlineStr"/>
       <c r="BI65" s="32" t="inlineStr"/>
@@ -6962,13 +7396,16 @@
       <c r="BT65" s="32" t="inlineStr"/>
       <c r="BU65" s="32" t="inlineStr"/>
       <c r="BV65" s="32" t="inlineStr"/>
-      <c r="BW65" s="25" t="inlineStr"/>
-      <c r="BX65" s="33" t="inlineStr"/>
-      <c r="BY65" s="33" t="inlineStr"/>
+      <c r="BW65" s="32" t="inlineStr"/>
+      <c r="BX65" s="32" t="inlineStr"/>
+      <c r="BY65" s="25" t="inlineStr"/>
       <c r="BZ65" s="33" t="inlineStr"/>
       <c r="CA65" s="33" t="inlineStr"/>
-      <c r="CB65" s="26" t="inlineStr"/>
-      <c r="CC65" s="27" t="inlineStr"/>
+      <c r="CB65" s="33" t="inlineStr"/>
+      <c r="CC65" s="33" t="inlineStr"/>
+      <c r="CD65" s="26" t="inlineStr"/>
+      <c r="CE65" s="27" t="inlineStr"/>
+      <c r="CF65" s="27" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -6994,28 +7431,28 @@
       <c r="U66" s="19" t="inlineStr"/>
       <c r="V66" s="19" t="inlineStr"/>
       <c r="W66" s="19" t="inlineStr"/>
-      <c r="X66" s="20" t="inlineStr"/>
-      <c r="Y66" s="21" t="inlineStr"/>
+      <c r="X66" s="19" t="inlineStr"/>
+      <c r="Y66" s="20" t="inlineStr"/>
       <c r="Z66" s="21" t="inlineStr"/>
-      <c r="AA66" s="22" t="inlineStr"/>
+      <c r="AA66" s="21" t="inlineStr"/>
       <c r="AB66" s="22" t="inlineStr"/>
-      <c r="AC66" s="21" t="inlineStr"/>
-      <c r="AD66" s="23" t="inlineStr"/>
-      <c r="AE66" s="24" t="inlineStr"/>
+      <c r="AC66" s="22" t="inlineStr"/>
+      <c r="AD66" s="21" t="inlineStr"/>
+      <c r="AE66" s="23" t="inlineStr"/>
       <c r="AF66" s="24" t="inlineStr"/>
       <c r="AG66" s="24" t="inlineStr"/>
       <c r="AH66" s="24" t="inlineStr"/>
-      <c r="AI66" s="25" t="inlineStr"/>
-      <c r="AJ66" s="26" t="inlineStr"/>
-      <c r="AK66" s="27" t="inlineStr"/>
-      <c r="AL66" s="28" t="inlineStr"/>
-      <c r="AM66" s="29" t="inlineStr"/>
-      <c r="AN66" s="30" t="inlineStr"/>
-      <c r="AO66" s="17" t="inlineStr"/>
+      <c r="AI66" s="24" t="inlineStr"/>
+      <c r="AJ66" s="25" t="inlineStr"/>
+      <c r="AK66" s="26" t="inlineStr"/>
+      <c r="AL66" s="27" t="inlineStr"/>
+      <c r="AM66" s="28" t="inlineStr"/>
+      <c r="AN66" s="29" t="inlineStr"/>
+      <c r="AO66" s="30" t="inlineStr"/>
       <c r="AP66" s="17" t="inlineStr"/>
-      <c r="AQ66" s="31" t="inlineStr"/>
-      <c r="AR66" s="18" t="inlineStr"/>
-      <c r="AS66" s="19" t="inlineStr"/>
+      <c r="AQ66" s="17" t="inlineStr"/>
+      <c r="AR66" s="31" t="inlineStr"/>
+      <c r="AS66" s="18" t="inlineStr"/>
       <c r="AT66" s="19" t="inlineStr"/>
       <c r="AU66" s="19" t="inlineStr"/>
       <c r="AV66" s="19" t="inlineStr"/>
@@ -7024,11 +7461,11 @@
       <c r="AY66" s="19" t="inlineStr"/>
       <c r="AZ66" s="19" t="inlineStr"/>
       <c r="BA66" s="19" t="inlineStr"/>
-      <c r="BB66" s="20" t="inlineStr"/>
-      <c r="BC66" s="21" t="inlineStr"/>
+      <c r="BB66" s="19" t="inlineStr"/>
+      <c r="BC66" s="20" t="inlineStr"/>
       <c r="BD66" s="21" t="inlineStr"/>
-      <c r="BE66" s="23" t="inlineStr"/>
-      <c r="BF66" s="24" t="inlineStr"/>
+      <c r="BE66" s="21" t="inlineStr"/>
+      <c r="BF66" s="23" t="inlineStr"/>
       <c r="BG66" s="32" t="inlineStr"/>
       <c r="BH66" s="32" t="inlineStr"/>
       <c r="BI66" s="32" t="inlineStr"/>
@@ -7045,13 +7482,16 @@
       <c r="BT66" s="32" t="inlineStr"/>
       <c r="BU66" s="32" t="inlineStr"/>
       <c r="BV66" s="32" t="inlineStr"/>
-      <c r="BW66" s="25" t="inlineStr"/>
-      <c r="BX66" s="33" t="inlineStr"/>
-      <c r="BY66" s="33" t="inlineStr"/>
+      <c r="BW66" s="32" t="inlineStr"/>
+      <c r="BX66" s="32" t="inlineStr"/>
+      <c r="BY66" s="25" t="inlineStr"/>
       <c r="BZ66" s="33" t="inlineStr"/>
       <c r="CA66" s="33" t="inlineStr"/>
-      <c r="CB66" s="26" t="inlineStr"/>
-      <c r="CC66" s="27" t="inlineStr"/>
+      <c r="CB66" s="33" t="inlineStr"/>
+      <c r="CC66" s="33" t="inlineStr"/>
+      <c r="CD66" s="26" t="inlineStr"/>
+      <c r="CE66" s="27" t="inlineStr"/>
+      <c r="CF66" s="27" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -7077,28 +7517,28 @@
       <c r="U67" s="19" t="inlineStr"/>
       <c r="V67" s="19" t="inlineStr"/>
       <c r="W67" s="19" t="inlineStr"/>
-      <c r="X67" s="20" t="inlineStr"/>
-      <c r="Y67" s="21" t="inlineStr"/>
+      <c r="X67" s="19" t="inlineStr"/>
+      <c r="Y67" s="20" t="inlineStr"/>
       <c r="Z67" s="21" t="inlineStr"/>
-      <c r="AA67" s="22" t="inlineStr"/>
+      <c r="AA67" s="21" t="inlineStr"/>
       <c r="AB67" s="22" t="inlineStr"/>
-      <c r="AC67" s="21" t="inlineStr"/>
-      <c r="AD67" s="23" t="inlineStr"/>
-      <c r="AE67" s="24" t="inlineStr"/>
+      <c r="AC67" s="22" t="inlineStr"/>
+      <c r="AD67" s="21" t="inlineStr"/>
+      <c r="AE67" s="23" t="inlineStr"/>
       <c r="AF67" s="24" t="inlineStr"/>
       <c r="AG67" s="24" t="inlineStr"/>
       <c r="AH67" s="24" t="inlineStr"/>
-      <c r="AI67" s="25" t="inlineStr"/>
-      <c r="AJ67" s="26" t="inlineStr"/>
-      <c r="AK67" s="27" t="inlineStr"/>
-      <c r="AL67" s="28" t="inlineStr"/>
-      <c r="AM67" s="29" t="inlineStr"/>
-      <c r="AN67" s="30" t="inlineStr"/>
-      <c r="AO67" s="17" t="inlineStr"/>
+      <c r="AI67" s="24" t="inlineStr"/>
+      <c r="AJ67" s="25" t="inlineStr"/>
+      <c r="AK67" s="26" t="inlineStr"/>
+      <c r="AL67" s="27" t="inlineStr"/>
+      <c r="AM67" s="28" t="inlineStr"/>
+      <c r="AN67" s="29" t="inlineStr"/>
+      <c r="AO67" s="30" t="inlineStr"/>
       <c r="AP67" s="17" t="inlineStr"/>
-      <c r="AQ67" s="31" t="inlineStr"/>
-      <c r="AR67" s="18" t="inlineStr"/>
-      <c r="AS67" s="19" t="inlineStr"/>
+      <c r="AQ67" s="17" t="inlineStr"/>
+      <c r="AR67" s="31" t="inlineStr"/>
+      <c r="AS67" s="18" t="inlineStr"/>
       <c r="AT67" s="19" t="inlineStr"/>
       <c r="AU67" s="19" t="inlineStr"/>
       <c r="AV67" s="19" t="inlineStr"/>
@@ -7107,11 +7547,11 @@
       <c r="AY67" s="19" t="inlineStr"/>
       <c r="AZ67" s="19" t="inlineStr"/>
       <c r="BA67" s="19" t="inlineStr"/>
-      <c r="BB67" s="20" t="inlineStr"/>
-      <c r="BC67" s="21" t="inlineStr"/>
+      <c r="BB67" s="19" t="inlineStr"/>
+      <c r="BC67" s="20" t="inlineStr"/>
       <c r="BD67" s="21" t="inlineStr"/>
-      <c r="BE67" s="23" t="inlineStr"/>
-      <c r="BF67" s="24" t="inlineStr"/>
+      <c r="BE67" s="21" t="inlineStr"/>
+      <c r="BF67" s="23" t="inlineStr"/>
       <c r="BG67" s="32" t="inlineStr"/>
       <c r="BH67" s="32" t="inlineStr"/>
       <c r="BI67" s="32" t="inlineStr"/>
@@ -7128,13 +7568,16 @@
       <c r="BT67" s="32" t="inlineStr"/>
       <c r="BU67" s="32" t="inlineStr"/>
       <c r="BV67" s="32" t="inlineStr"/>
-      <c r="BW67" s="25" t="inlineStr"/>
-      <c r="BX67" s="33" t="inlineStr"/>
-      <c r="BY67" s="33" t="inlineStr"/>
+      <c r="BW67" s="32" t="inlineStr"/>
+      <c r="BX67" s="32" t="inlineStr"/>
+      <c r="BY67" s="25" t="inlineStr"/>
       <c r="BZ67" s="33" t="inlineStr"/>
       <c r="CA67" s="33" t="inlineStr"/>
-      <c r="CB67" s="26" t="inlineStr"/>
-      <c r="CC67" s="27" t="inlineStr"/>
+      <c r="CB67" s="33" t="inlineStr"/>
+      <c r="CC67" s="33" t="inlineStr"/>
+      <c r="CD67" s="26" t="inlineStr"/>
+      <c r="CE67" s="27" t="inlineStr"/>
+      <c r="CF67" s="27" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7160,28 +7603,28 @@
       <c r="U68" s="19" t="inlineStr"/>
       <c r="V68" s="19" t="inlineStr"/>
       <c r="W68" s="19" t="inlineStr"/>
-      <c r="X68" s="20" t="inlineStr"/>
-      <c r="Y68" s="21" t="inlineStr"/>
+      <c r="X68" s="19" t="inlineStr"/>
+      <c r="Y68" s="20" t="inlineStr"/>
       <c r="Z68" s="21" t="inlineStr"/>
-      <c r="AA68" s="22" t="inlineStr"/>
+      <c r="AA68" s="21" t="inlineStr"/>
       <c r="AB68" s="22" t="inlineStr"/>
-      <c r="AC68" s="21" t="inlineStr"/>
-      <c r="AD68" s="23" t="inlineStr"/>
-      <c r="AE68" s="24" t="inlineStr"/>
+      <c r="AC68" s="22" t="inlineStr"/>
+      <c r="AD68" s="21" t="inlineStr"/>
+      <c r="AE68" s="23" t="inlineStr"/>
       <c r="AF68" s="24" t="inlineStr"/>
       <c r="AG68" s="24" t="inlineStr"/>
       <c r="AH68" s="24" t="inlineStr"/>
-      <c r="AI68" s="25" t="inlineStr"/>
-      <c r="AJ68" s="26" t="inlineStr"/>
-      <c r="AK68" s="27" t="inlineStr"/>
-      <c r="AL68" s="28" t="inlineStr"/>
-      <c r="AM68" s="29" t="inlineStr"/>
-      <c r="AN68" s="30" t="inlineStr"/>
-      <c r="AO68" s="17" t="inlineStr"/>
+      <c r="AI68" s="24" t="inlineStr"/>
+      <c r="AJ68" s="25" t="inlineStr"/>
+      <c r="AK68" s="26" t="inlineStr"/>
+      <c r="AL68" s="27" t="inlineStr"/>
+      <c r="AM68" s="28" t="inlineStr"/>
+      <c r="AN68" s="29" t="inlineStr"/>
+      <c r="AO68" s="30" t="inlineStr"/>
       <c r="AP68" s="17" t="inlineStr"/>
-      <c r="AQ68" s="31" t="inlineStr"/>
-      <c r="AR68" s="18" t="inlineStr"/>
-      <c r="AS68" s="19" t="inlineStr"/>
+      <c r="AQ68" s="17" t="inlineStr"/>
+      <c r="AR68" s="31" t="inlineStr"/>
+      <c r="AS68" s="18" t="inlineStr"/>
       <c r="AT68" s="19" t="inlineStr"/>
       <c r="AU68" s="19" t="inlineStr"/>
       <c r="AV68" s="19" t="inlineStr"/>
@@ -7190,11 +7633,11 @@
       <c r="AY68" s="19" t="inlineStr"/>
       <c r="AZ68" s="19" t="inlineStr"/>
       <c r="BA68" s="19" t="inlineStr"/>
-      <c r="BB68" s="20" t="inlineStr"/>
-      <c r="BC68" s="21" t="inlineStr"/>
+      <c r="BB68" s="19" t="inlineStr"/>
+      <c r="BC68" s="20" t="inlineStr"/>
       <c r="BD68" s="21" t="inlineStr"/>
-      <c r="BE68" s="23" t="inlineStr"/>
-      <c r="BF68" s="24" t="inlineStr"/>
+      <c r="BE68" s="21" t="inlineStr"/>
+      <c r="BF68" s="23" t="inlineStr"/>
       <c r="BG68" s="32" t="inlineStr"/>
       <c r="BH68" s="32" t="inlineStr"/>
       <c r="BI68" s="32" t="inlineStr"/>
@@ -7211,13 +7654,16 @@
       <c r="BT68" s="32" t="inlineStr"/>
       <c r="BU68" s="32" t="inlineStr"/>
       <c r="BV68" s="32" t="inlineStr"/>
-      <c r="BW68" s="25" t="inlineStr"/>
-      <c r="BX68" s="33" t="inlineStr"/>
-      <c r="BY68" s="33" t="inlineStr"/>
+      <c r="BW68" s="32" t="inlineStr"/>
+      <c r="BX68" s="32" t="inlineStr"/>
+      <c r="BY68" s="25" t="inlineStr"/>
       <c r="BZ68" s="33" t="inlineStr"/>
       <c r="CA68" s="33" t="inlineStr"/>
-      <c r="CB68" s="26" t="inlineStr"/>
-      <c r="CC68" s="27" t="inlineStr"/>
+      <c r="CB68" s="33" t="inlineStr"/>
+      <c r="CC68" s="33" t="inlineStr"/>
+      <c r="CD68" s="26" t="inlineStr"/>
+      <c r="CE68" s="27" t="inlineStr"/>
+      <c r="CF68" s="27" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7243,28 +7689,28 @@
       <c r="U69" s="19" t="inlineStr"/>
       <c r="V69" s="19" t="inlineStr"/>
       <c r="W69" s="19" t="inlineStr"/>
-      <c r="X69" s="20" t="inlineStr"/>
-      <c r="Y69" s="21" t="inlineStr"/>
+      <c r="X69" s="19" t="inlineStr"/>
+      <c r="Y69" s="20" t="inlineStr"/>
       <c r="Z69" s="21" t="inlineStr"/>
-      <c r="AA69" s="22" t="inlineStr"/>
+      <c r="AA69" s="21" t="inlineStr"/>
       <c r="AB69" s="22" t="inlineStr"/>
-      <c r="AC69" s="21" t="inlineStr"/>
-      <c r="AD69" s="23" t="inlineStr"/>
-      <c r="AE69" s="24" t="inlineStr"/>
+      <c r="AC69" s="22" t="inlineStr"/>
+      <c r="AD69" s="21" t="inlineStr"/>
+      <c r="AE69" s="23" t="inlineStr"/>
       <c r="AF69" s="24" t="inlineStr"/>
       <c r="AG69" s="24" t="inlineStr"/>
       <c r="AH69" s="24" t="inlineStr"/>
-      <c r="AI69" s="25" t="inlineStr"/>
-      <c r="AJ69" s="26" t="inlineStr"/>
-      <c r="AK69" s="27" t="inlineStr"/>
-      <c r="AL69" s="28" t="inlineStr"/>
-      <c r="AM69" s="29" t="inlineStr"/>
-      <c r="AN69" s="30" t="inlineStr"/>
-      <c r="AO69" s="17" t="inlineStr"/>
+      <c r="AI69" s="24" t="inlineStr"/>
+      <c r="AJ69" s="25" t="inlineStr"/>
+      <c r="AK69" s="26" t="inlineStr"/>
+      <c r="AL69" s="27" t="inlineStr"/>
+      <c r="AM69" s="28" t="inlineStr"/>
+      <c r="AN69" s="29" t="inlineStr"/>
+      <c r="AO69" s="30" t="inlineStr"/>
       <c r="AP69" s="17" t="inlineStr"/>
-      <c r="AQ69" s="31" t="inlineStr"/>
-      <c r="AR69" s="18" t="inlineStr"/>
-      <c r="AS69" s="19" t="inlineStr"/>
+      <c r="AQ69" s="17" t="inlineStr"/>
+      <c r="AR69" s="31" t="inlineStr"/>
+      <c r="AS69" s="18" t="inlineStr"/>
       <c r="AT69" s="19" t="inlineStr"/>
       <c r="AU69" s="19" t="inlineStr"/>
       <c r="AV69" s="19" t="inlineStr"/>
@@ -7273,11 +7719,11 @@
       <c r="AY69" s="19" t="inlineStr"/>
       <c r="AZ69" s="19" t="inlineStr"/>
       <c r="BA69" s="19" t="inlineStr"/>
-      <c r="BB69" s="20" t="inlineStr"/>
-      <c r="BC69" s="21" t="inlineStr"/>
+      <c r="BB69" s="19" t="inlineStr"/>
+      <c r="BC69" s="20" t="inlineStr"/>
       <c r="BD69" s="21" t="inlineStr"/>
-      <c r="BE69" s="23" t="inlineStr"/>
-      <c r="BF69" s="24" t="inlineStr"/>
+      <c r="BE69" s="21" t="inlineStr"/>
+      <c r="BF69" s="23" t="inlineStr"/>
       <c r="BG69" s="32" t="inlineStr"/>
       <c r="BH69" s="32" t="inlineStr"/>
       <c r="BI69" s="32" t="inlineStr"/>
@@ -7294,13 +7740,16 @@
       <c r="BT69" s="32" t="inlineStr"/>
       <c r="BU69" s="32" t="inlineStr"/>
       <c r="BV69" s="32" t="inlineStr"/>
-      <c r="BW69" s="25" t="inlineStr"/>
-      <c r="BX69" s="33" t="inlineStr"/>
-      <c r="BY69" s="33" t="inlineStr"/>
+      <c r="BW69" s="32" t="inlineStr"/>
+      <c r="BX69" s="32" t="inlineStr"/>
+      <c r="BY69" s="25" t="inlineStr"/>
       <c r="BZ69" s="33" t="inlineStr"/>
       <c r="CA69" s="33" t="inlineStr"/>
-      <c r="CB69" s="26" t="inlineStr"/>
-      <c r="CC69" s="27" t="inlineStr"/>
+      <c r="CB69" s="33" t="inlineStr"/>
+      <c r="CC69" s="33" t="inlineStr"/>
+      <c r="CD69" s="26" t="inlineStr"/>
+      <c r="CE69" s="27" t="inlineStr"/>
+      <c r="CF69" s="27" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7326,28 +7775,28 @@
       <c r="U70" s="19" t="inlineStr"/>
       <c r="V70" s="19" t="inlineStr"/>
       <c r="W70" s="19" t="inlineStr"/>
-      <c r="X70" s="20" t="inlineStr"/>
-      <c r="Y70" s="21" t="inlineStr"/>
+      <c r="X70" s="19" t="inlineStr"/>
+      <c r="Y70" s="20" t="inlineStr"/>
       <c r="Z70" s="21" t="inlineStr"/>
-      <c r="AA70" s="22" t="inlineStr"/>
+      <c r="AA70" s="21" t="inlineStr"/>
       <c r="AB70" s="22" t="inlineStr"/>
-      <c r="AC70" s="21" t="inlineStr"/>
-      <c r="AD70" s="23" t="inlineStr"/>
-      <c r="AE70" s="24" t="inlineStr"/>
+      <c r="AC70" s="22" t="inlineStr"/>
+      <c r="AD70" s="21" t="inlineStr"/>
+      <c r="AE70" s="23" t="inlineStr"/>
       <c r="AF70" s="24" t="inlineStr"/>
       <c r="AG70" s="24" t="inlineStr"/>
       <c r="AH70" s="24" t="inlineStr"/>
-      <c r="AI70" s="25" t="inlineStr"/>
-      <c r="AJ70" s="26" t="inlineStr"/>
-      <c r="AK70" s="27" t="inlineStr"/>
-      <c r="AL70" s="28" t="inlineStr"/>
-      <c r="AM70" s="29" t="inlineStr"/>
-      <c r="AN70" s="30" t="inlineStr"/>
-      <c r="AO70" s="17" t="inlineStr"/>
+      <c r="AI70" s="24" t="inlineStr"/>
+      <c r="AJ70" s="25" t="inlineStr"/>
+      <c r="AK70" s="26" t="inlineStr"/>
+      <c r="AL70" s="27" t="inlineStr"/>
+      <c r="AM70" s="28" t="inlineStr"/>
+      <c r="AN70" s="29" t="inlineStr"/>
+      <c r="AO70" s="30" t="inlineStr"/>
       <c r="AP70" s="17" t="inlineStr"/>
-      <c r="AQ70" s="31" t="inlineStr"/>
-      <c r="AR70" s="18" t="inlineStr"/>
-      <c r="AS70" s="19" t="inlineStr"/>
+      <c r="AQ70" s="17" t="inlineStr"/>
+      <c r="AR70" s="31" t="inlineStr"/>
+      <c r="AS70" s="18" t="inlineStr"/>
       <c r="AT70" s="19" t="inlineStr"/>
       <c r="AU70" s="19" t="inlineStr"/>
       <c r="AV70" s="19" t="inlineStr"/>
@@ -7356,11 +7805,11 @@
       <c r="AY70" s="19" t="inlineStr"/>
       <c r="AZ70" s="19" t="inlineStr"/>
       <c r="BA70" s="19" t="inlineStr"/>
-      <c r="BB70" s="20" t="inlineStr"/>
-      <c r="BC70" s="21" t="inlineStr"/>
+      <c r="BB70" s="19" t="inlineStr"/>
+      <c r="BC70" s="20" t="inlineStr"/>
       <c r="BD70" s="21" t="inlineStr"/>
-      <c r="BE70" s="23" t="inlineStr"/>
-      <c r="BF70" s="24" t="inlineStr"/>
+      <c r="BE70" s="21" t="inlineStr"/>
+      <c r="BF70" s="23" t="inlineStr"/>
       <c r="BG70" s="32" t="inlineStr"/>
       <c r="BH70" s="32" t="inlineStr"/>
       <c r="BI70" s="32" t="inlineStr"/>
@@ -7377,13 +7826,16 @@
       <c r="BT70" s="32" t="inlineStr"/>
       <c r="BU70" s="32" t="inlineStr"/>
       <c r="BV70" s="32" t="inlineStr"/>
-      <c r="BW70" s="25" t="inlineStr"/>
-      <c r="BX70" s="33" t="inlineStr"/>
-      <c r="BY70" s="33" t="inlineStr"/>
+      <c r="BW70" s="32" t="inlineStr"/>
+      <c r="BX70" s="32" t="inlineStr"/>
+      <c r="BY70" s="25" t="inlineStr"/>
       <c r="BZ70" s="33" t="inlineStr"/>
       <c r="CA70" s="33" t="inlineStr"/>
-      <c r="CB70" s="26" t="inlineStr"/>
-      <c r="CC70" s="27" t="inlineStr"/>
+      <c r="CB70" s="33" t="inlineStr"/>
+      <c r="CC70" s="33" t="inlineStr"/>
+      <c r="CD70" s="26" t="inlineStr"/>
+      <c r="CE70" s="27" t="inlineStr"/>
+      <c r="CF70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7409,28 +7861,28 @@
       <c r="U71" s="19" t="inlineStr"/>
       <c r="V71" s="19" t="inlineStr"/>
       <c r="W71" s="19" t="inlineStr"/>
-      <c r="X71" s="20" t="inlineStr"/>
-      <c r="Y71" s="21" t="inlineStr"/>
+      <c r="X71" s="19" t="inlineStr"/>
+      <c r="Y71" s="20" t="inlineStr"/>
       <c r="Z71" s="21" t="inlineStr"/>
-      <c r="AA71" s="22" t="inlineStr"/>
+      <c r="AA71" s="21" t="inlineStr"/>
       <c r="AB71" s="22" t="inlineStr"/>
-      <c r="AC71" s="21" t="inlineStr"/>
-      <c r="AD71" s="23" t="inlineStr"/>
-      <c r="AE71" s="24" t="inlineStr"/>
+      <c r="AC71" s="22" t="inlineStr"/>
+      <c r="AD71" s="21" t="inlineStr"/>
+      <c r="AE71" s="23" t="inlineStr"/>
       <c r="AF71" s="24" t="inlineStr"/>
       <c r="AG71" s="24" t="inlineStr"/>
       <c r="AH71" s="24" t="inlineStr"/>
-      <c r="AI71" s="25" t="inlineStr"/>
-      <c r="AJ71" s="26" t="inlineStr"/>
-      <c r="AK71" s="27" t="inlineStr"/>
-      <c r="AL71" s="28" t="inlineStr"/>
-      <c r="AM71" s="29" t="inlineStr"/>
-      <c r="AN71" s="30" t="inlineStr"/>
-      <c r="AO71" s="17" t="inlineStr"/>
+      <c r="AI71" s="24" t="inlineStr"/>
+      <c r="AJ71" s="25" t="inlineStr"/>
+      <c r="AK71" s="26" t="inlineStr"/>
+      <c r="AL71" s="27" t="inlineStr"/>
+      <c r="AM71" s="28" t="inlineStr"/>
+      <c r="AN71" s="29" t="inlineStr"/>
+      <c r="AO71" s="30" t="inlineStr"/>
       <c r="AP71" s="17" t="inlineStr"/>
-      <c r="AQ71" s="31" t="inlineStr"/>
-      <c r="AR71" s="18" t="inlineStr"/>
-      <c r="AS71" s="19" t="inlineStr"/>
+      <c r="AQ71" s="17" t="inlineStr"/>
+      <c r="AR71" s="31" t="inlineStr"/>
+      <c r="AS71" s="18" t="inlineStr"/>
       <c r="AT71" s="19" t="inlineStr"/>
       <c r="AU71" s="19" t="inlineStr"/>
       <c r="AV71" s="19" t="inlineStr"/>
@@ -7439,11 +7891,11 @@
       <c r="AY71" s="19" t="inlineStr"/>
       <c r="AZ71" s="19" t="inlineStr"/>
       <c r="BA71" s="19" t="inlineStr"/>
-      <c r="BB71" s="20" t="inlineStr"/>
-      <c r="BC71" s="21" t="inlineStr"/>
+      <c r="BB71" s="19" t="inlineStr"/>
+      <c r="BC71" s="20" t="inlineStr"/>
       <c r="BD71" s="21" t="inlineStr"/>
-      <c r="BE71" s="23" t="inlineStr"/>
-      <c r="BF71" s="24" t="inlineStr"/>
+      <c r="BE71" s="21" t="inlineStr"/>
+      <c r="BF71" s="23" t="inlineStr"/>
       <c r="BG71" s="32" t="inlineStr"/>
       <c r="BH71" s="32" t="inlineStr"/>
       <c r="BI71" s="32" t="inlineStr"/>
@@ -7460,13 +7912,16 @@
       <c r="BT71" s="32" t="inlineStr"/>
       <c r="BU71" s="32" t="inlineStr"/>
       <c r="BV71" s="32" t="inlineStr"/>
-      <c r="BW71" s="25" t="inlineStr"/>
-      <c r="BX71" s="33" t="inlineStr"/>
-      <c r="BY71" s="33" t="inlineStr"/>
+      <c r="BW71" s="32" t="inlineStr"/>
+      <c r="BX71" s="32" t="inlineStr"/>
+      <c r="BY71" s="25" t="inlineStr"/>
       <c r="BZ71" s="33" t="inlineStr"/>
       <c r="CA71" s="33" t="inlineStr"/>
-      <c r="CB71" s="26" t="inlineStr"/>
-      <c r="CC71" s="27" t="inlineStr"/>
+      <c r="CB71" s="33" t="inlineStr"/>
+      <c r="CC71" s="33" t="inlineStr"/>
+      <c r="CD71" s="26" t="inlineStr"/>
+      <c r="CE71" s="27" t="inlineStr"/>
+      <c r="CF71" s="27" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7492,28 +7947,28 @@
       <c r="U72" s="19" t="inlineStr"/>
       <c r="V72" s="19" t="inlineStr"/>
       <c r="W72" s="19" t="inlineStr"/>
-      <c r="X72" s="20" t="inlineStr"/>
-      <c r="Y72" s="21" t="inlineStr"/>
+      <c r="X72" s="19" t="inlineStr"/>
+      <c r="Y72" s="20" t="inlineStr"/>
       <c r="Z72" s="21" t="inlineStr"/>
-      <c r="AA72" s="22" t="inlineStr"/>
+      <c r="AA72" s="21" t="inlineStr"/>
       <c r="AB72" s="22" t="inlineStr"/>
-      <c r="AC72" s="21" t="inlineStr"/>
-      <c r="AD72" s="23" t="inlineStr"/>
-      <c r="AE72" s="24" t="inlineStr"/>
+      <c r="AC72" s="22" t="inlineStr"/>
+      <c r="AD72" s="21" t="inlineStr"/>
+      <c r="AE72" s="23" t="inlineStr"/>
       <c r="AF72" s="24" t="inlineStr"/>
       <c r="AG72" s="24" t="inlineStr"/>
       <c r="AH72" s="24" t="inlineStr"/>
-      <c r="AI72" s="25" t="inlineStr"/>
-      <c r="AJ72" s="26" t="inlineStr"/>
-      <c r="AK72" s="27" t="inlineStr"/>
-      <c r="AL72" s="28" t="inlineStr"/>
-      <c r="AM72" s="29" t="inlineStr"/>
-      <c r="AN72" s="30" t="inlineStr"/>
-      <c r="AO72" s="17" t="inlineStr"/>
+      <c r="AI72" s="24" t="inlineStr"/>
+      <c r="AJ72" s="25" t="inlineStr"/>
+      <c r="AK72" s="26" t="inlineStr"/>
+      <c r="AL72" s="27" t="inlineStr"/>
+      <c r="AM72" s="28" t="inlineStr"/>
+      <c r="AN72" s="29" t="inlineStr"/>
+      <c r="AO72" s="30" t="inlineStr"/>
       <c r="AP72" s="17" t="inlineStr"/>
-      <c r="AQ72" s="31" t="inlineStr"/>
-      <c r="AR72" s="18" t="inlineStr"/>
-      <c r="AS72" s="19" t="inlineStr"/>
+      <c r="AQ72" s="17" t="inlineStr"/>
+      <c r="AR72" s="31" t="inlineStr"/>
+      <c r="AS72" s="18" t="inlineStr"/>
       <c r="AT72" s="19" t="inlineStr"/>
       <c r="AU72" s="19" t="inlineStr"/>
       <c r="AV72" s="19" t="inlineStr"/>
@@ -7522,11 +7977,11 @@
       <c r="AY72" s="19" t="inlineStr"/>
       <c r="AZ72" s="19" t="inlineStr"/>
       <c r="BA72" s="19" t="inlineStr"/>
-      <c r="BB72" s="20" t="inlineStr"/>
-      <c r="BC72" s="21" t="inlineStr"/>
+      <c r="BB72" s="19" t="inlineStr"/>
+      <c r="BC72" s="20" t="inlineStr"/>
       <c r="BD72" s="21" t="inlineStr"/>
-      <c r="BE72" s="23" t="inlineStr"/>
-      <c r="BF72" s="24" t="inlineStr"/>
+      <c r="BE72" s="21" t="inlineStr"/>
+      <c r="BF72" s="23" t="inlineStr"/>
       <c r="BG72" s="32" t="inlineStr"/>
       <c r="BH72" s="32" t="inlineStr"/>
       <c r="BI72" s="32" t="inlineStr"/>
@@ -7543,13 +7998,16 @@
       <c r="BT72" s="32" t="inlineStr"/>
       <c r="BU72" s="32" t="inlineStr"/>
       <c r="BV72" s="32" t="inlineStr"/>
-      <c r="BW72" s="25" t="inlineStr"/>
-      <c r="BX72" s="33" t="inlineStr"/>
-      <c r="BY72" s="33" t="inlineStr"/>
+      <c r="BW72" s="32" t="inlineStr"/>
+      <c r="BX72" s="32" t="inlineStr"/>
+      <c r="BY72" s="25" t="inlineStr"/>
       <c r="BZ72" s="33" t="inlineStr"/>
       <c r="CA72" s="33" t="inlineStr"/>
-      <c r="CB72" s="26" t="inlineStr"/>
-      <c r="CC72" s="27" t="inlineStr"/>
+      <c r="CB72" s="33" t="inlineStr"/>
+      <c r="CC72" s="33" t="inlineStr"/>
+      <c r="CD72" s="26" t="inlineStr"/>
+      <c r="CE72" s="27" t="inlineStr"/>
+      <c r="CF72" s="27" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7575,28 +8033,28 @@
       <c r="U73" s="19" t="inlineStr"/>
       <c r="V73" s="19" t="inlineStr"/>
       <c r="W73" s="19" t="inlineStr"/>
-      <c r="X73" s="20" t="inlineStr"/>
-      <c r="Y73" s="21" t="inlineStr"/>
+      <c r="X73" s="19" t="inlineStr"/>
+      <c r="Y73" s="20" t="inlineStr"/>
       <c r="Z73" s="21" t="inlineStr"/>
-      <c r="AA73" s="22" t="inlineStr"/>
+      <c r="AA73" s="21" t="inlineStr"/>
       <c r="AB73" s="22" t="inlineStr"/>
-      <c r="AC73" s="21" t="inlineStr"/>
-      <c r="AD73" s="23" t="inlineStr"/>
-      <c r="AE73" s="24" t="inlineStr"/>
+      <c r="AC73" s="22" t="inlineStr"/>
+      <c r="AD73" s="21" t="inlineStr"/>
+      <c r="AE73" s="23" t="inlineStr"/>
       <c r="AF73" s="24" t="inlineStr"/>
       <c r="AG73" s="24" t="inlineStr"/>
       <c r="AH73" s="24" t="inlineStr"/>
-      <c r="AI73" s="25" t="inlineStr"/>
-      <c r="AJ73" s="26" t="inlineStr"/>
-      <c r="AK73" s="27" t="inlineStr"/>
-      <c r="AL73" s="28" t="inlineStr"/>
-      <c r="AM73" s="29" t="inlineStr"/>
-      <c r="AN73" s="30" t="inlineStr"/>
-      <c r="AO73" s="17" t="inlineStr"/>
+      <c r="AI73" s="24" t="inlineStr"/>
+      <c r="AJ73" s="25" t="inlineStr"/>
+      <c r="AK73" s="26" t="inlineStr"/>
+      <c r="AL73" s="27" t="inlineStr"/>
+      <c r="AM73" s="28" t="inlineStr"/>
+      <c r="AN73" s="29" t="inlineStr"/>
+      <c r="AO73" s="30" t="inlineStr"/>
       <c r="AP73" s="17" t="inlineStr"/>
-      <c r="AQ73" s="31" t="inlineStr"/>
-      <c r="AR73" s="18" t="inlineStr"/>
-      <c r="AS73" s="19" t="inlineStr"/>
+      <c r="AQ73" s="17" t="inlineStr"/>
+      <c r="AR73" s="31" t="inlineStr"/>
+      <c r="AS73" s="18" t="inlineStr"/>
       <c r="AT73" s="19" t="inlineStr"/>
       <c r="AU73" s="19" t="inlineStr"/>
       <c r="AV73" s="19" t="inlineStr"/>
@@ -7605,11 +8063,11 @@
       <c r="AY73" s="19" t="inlineStr"/>
       <c r="AZ73" s="19" t="inlineStr"/>
       <c r="BA73" s="19" t="inlineStr"/>
-      <c r="BB73" s="20" t="inlineStr"/>
-      <c r="BC73" s="21" t="inlineStr"/>
+      <c r="BB73" s="19" t="inlineStr"/>
+      <c r="BC73" s="20" t="inlineStr"/>
       <c r="BD73" s="21" t="inlineStr"/>
-      <c r="BE73" s="23" t="inlineStr"/>
-      <c r="BF73" s="24" t="inlineStr"/>
+      <c r="BE73" s="21" t="inlineStr"/>
+      <c r="BF73" s="23" t="inlineStr"/>
       <c r="BG73" s="32" t="inlineStr"/>
       <c r="BH73" s="32" t="inlineStr"/>
       <c r="BI73" s="32" t="inlineStr"/>
@@ -7626,13 +8084,16 @@
       <c r="BT73" s="32" t="inlineStr"/>
       <c r="BU73" s="32" t="inlineStr"/>
       <c r="BV73" s="32" t="inlineStr"/>
-      <c r="BW73" s="25" t="inlineStr"/>
-      <c r="BX73" s="33" t="inlineStr"/>
-      <c r="BY73" s="33" t="inlineStr"/>
+      <c r="BW73" s="32" t="inlineStr"/>
+      <c r="BX73" s="32" t="inlineStr"/>
+      <c r="BY73" s="25" t="inlineStr"/>
       <c r="BZ73" s="33" t="inlineStr"/>
       <c r="CA73" s="33" t="inlineStr"/>
-      <c r="CB73" s="26" t="inlineStr"/>
-      <c r="CC73" s="27" t="inlineStr"/>
+      <c r="CB73" s="33" t="inlineStr"/>
+      <c r="CC73" s="33" t="inlineStr"/>
+      <c r="CD73" s="26" t="inlineStr"/>
+      <c r="CE73" s="27" t="inlineStr"/>
+      <c r="CF73" s="27" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7658,28 +8119,28 @@
       <c r="U74" s="19" t="inlineStr"/>
       <c r="V74" s="19" t="inlineStr"/>
       <c r="W74" s="19" t="inlineStr"/>
-      <c r="X74" s="20" t="inlineStr"/>
-      <c r="Y74" s="21" t="inlineStr"/>
+      <c r="X74" s="19" t="inlineStr"/>
+      <c r="Y74" s="20" t="inlineStr"/>
       <c r="Z74" s="21" t="inlineStr"/>
-      <c r="AA74" s="22" t="inlineStr"/>
+      <c r="AA74" s="21" t="inlineStr"/>
       <c r="AB74" s="22" t="inlineStr"/>
-      <c r="AC74" s="21" t="inlineStr"/>
-      <c r="AD74" s="23" t="inlineStr"/>
-      <c r="AE74" s="24" t="inlineStr"/>
+      <c r="AC74" s="22" t="inlineStr"/>
+      <c r="AD74" s="21" t="inlineStr"/>
+      <c r="AE74" s="23" t="inlineStr"/>
       <c r="AF74" s="24" t="inlineStr"/>
       <c r="AG74" s="24" t="inlineStr"/>
       <c r="AH74" s="24" t="inlineStr"/>
-      <c r="AI74" s="25" t="inlineStr"/>
-      <c r="AJ74" s="26" t="inlineStr"/>
-      <c r="AK74" s="27" t="inlineStr"/>
-      <c r="AL74" s="28" t="inlineStr"/>
-      <c r="AM74" s="29" t="inlineStr"/>
-      <c r="AN74" s="30" t="inlineStr"/>
-      <c r="AO74" s="17" t="inlineStr"/>
+      <c r="AI74" s="24" t="inlineStr"/>
+      <c r="AJ74" s="25" t="inlineStr"/>
+      <c r="AK74" s="26" t="inlineStr"/>
+      <c r="AL74" s="27" t="inlineStr"/>
+      <c r="AM74" s="28" t="inlineStr"/>
+      <c r="AN74" s="29" t="inlineStr"/>
+      <c r="AO74" s="30" t="inlineStr"/>
       <c r="AP74" s="17" t="inlineStr"/>
-      <c r="AQ74" s="31" t="inlineStr"/>
-      <c r="AR74" s="18" t="inlineStr"/>
-      <c r="AS74" s="19" t="inlineStr"/>
+      <c r="AQ74" s="17" t="inlineStr"/>
+      <c r="AR74" s="31" t="inlineStr"/>
+      <c r="AS74" s="18" t="inlineStr"/>
       <c r="AT74" s="19" t="inlineStr"/>
       <c r="AU74" s="19" t="inlineStr"/>
       <c r="AV74" s="19" t="inlineStr"/>
@@ -7688,11 +8149,11 @@
       <c r="AY74" s="19" t="inlineStr"/>
       <c r="AZ74" s="19" t="inlineStr"/>
       <c r="BA74" s="19" t="inlineStr"/>
-      <c r="BB74" s="20" t="inlineStr"/>
-      <c r="BC74" s="21" t="inlineStr"/>
+      <c r="BB74" s="19" t="inlineStr"/>
+      <c r="BC74" s="20" t="inlineStr"/>
       <c r="BD74" s="21" t="inlineStr"/>
-      <c r="BE74" s="23" t="inlineStr"/>
-      <c r="BF74" s="24" t="inlineStr"/>
+      <c r="BE74" s="21" t="inlineStr"/>
+      <c r="BF74" s="23" t="inlineStr"/>
       <c r="BG74" s="32" t="inlineStr"/>
       <c r="BH74" s="32" t="inlineStr"/>
       <c r="BI74" s="32" t="inlineStr"/>
@@ -7709,13 +8170,16 @@
       <c r="BT74" s="32" t="inlineStr"/>
       <c r="BU74" s="32" t="inlineStr"/>
       <c r="BV74" s="32" t="inlineStr"/>
-      <c r="BW74" s="25" t="inlineStr"/>
-      <c r="BX74" s="33" t="inlineStr"/>
-      <c r="BY74" s="33" t="inlineStr"/>
+      <c r="BW74" s="32" t="inlineStr"/>
+      <c r="BX74" s="32" t="inlineStr"/>
+      <c r="BY74" s="25" t="inlineStr"/>
       <c r="BZ74" s="33" t="inlineStr"/>
       <c r="CA74" s="33" t="inlineStr"/>
-      <c r="CB74" s="26" t="inlineStr"/>
-      <c r="CC74" s="27" t="inlineStr"/>
+      <c r="CB74" s="33" t="inlineStr"/>
+      <c r="CC74" s="33" t="inlineStr"/>
+      <c r="CD74" s="26" t="inlineStr"/>
+      <c r="CE74" s="27" t="inlineStr"/>
+      <c r="CF74" s="27" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7741,28 +8205,28 @@
       <c r="U75" s="19" t="inlineStr"/>
       <c r="V75" s="19" t="inlineStr"/>
       <c r="W75" s="19" t="inlineStr"/>
-      <c r="X75" s="20" t="inlineStr"/>
-      <c r="Y75" s="21" t="inlineStr"/>
+      <c r="X75" s="19" t="inlineStr"/>
+      <c r="Y75" s="20" t="inlineStr"/>
       <c r="Z75" s="21" t="inlineStr"/>
-      <c r="AA75" s="22" t="inlineStr"/>
+      <c r="AA75" s="21" t="inlineStr"/>
       <c r="AB75" s="22" t="inlineStr"/>
-      <c r="AC75" s="21" t="inlineStr"/>
-      <c r="AD75" s="23" t="inlineStr"/>
-      <c r="AE75" s="24" t="inlineStr"/>
+      <c r="AC75" s="22" t="inlineStr"/>
+      <c r="AD75" s="21" t="inlineStr"/>
+      <c r="AE75" s="23" t="inlineStr"/>
       <c r="AF75" s="24" t="inlineStr"/>
       <c r="AG75" s="24" t="inlineStr"/>
       <c r="AH75" s="24" t="inlineStr"/>
-      <c r="AI75" s="25" t="inlineStr"/>
-      <c r="AJ75" s="26" t="inlineStr"/>
-      <c r="AK75" s="27" t="inlineStr"/>
-      <c r="AL75" s="28" t="inlineStr"/>
-      <c r="AM75" s="29" t="inlineStr"/>
-      <c r="AN75" s="30" t="inlineStr"/>
-      <c r="AO75" s="17" t="inlineStr"/>
+      <c r="AI75" s="24" t="inlineStr"/>
+      <c r="AJ75" s="25" t="inlineStr"/>
+      <c r="AK75" s="26" t="inlineStr"/>
+      <c r="AL75" s="27" t="inlineStr"/>
+      <c r="AM75" s="28" t="inlineStr"/>
+      <c r="AN75" s="29" t="inlineStr"/>
+      <c r="AO75" s="30" t="inlineStr"/>
       <c r="AP75" s="17" t="inlineStr"/>
-      <c r="AQ75" s="31" t="inlineStr"/>
-      <c r="AR75" s="18" t="inlineStr"/>
-      <c r="AS75" s="19" t="inlineStr"/>
+      <c r="AQ75" s="17" t="inlineStr"/>
+      <c r="AR75" s="31" t="inlineStr"/>
+      <c r="AS75" s="18" t="inlineStr"/>
       <c r="AT75" s="19" t="inlineStr"/>
       <c r="AU75" s="19" t="inlineStr"/>
       <c r="AV75" s="19" t="inlineStr"/>
@@ -7771,11 +8235,11 @@
       <c r="AY75" s="19" t="inlineStr"/>
       <c r="AZ75" s="19" t="inlineStr"/>
       <c r="BA75" s="19" t="inlineStr"/>
-      <c r="BB75" s="20" t="inlineStr"/>
-      <c r="BC75" s="21" t="inlineStr"/>
+      <c r="BB75" s="19" t="inlineStr"/>
+      <c r="BC75" s="20" t="inlineStr"/>
       <c r="BD75" s="21" t="inlineStr"/>
-      <c r="BE75" s="23" t="inlineStr"/>
-      <c r="BF75" s="24" t="inlineStr"/>
+      <c r="BE75" s="21" t="inlineStr"/>
+      <c r="BF75" s="23" t="inlineStr"/>
       <c r="BG75" s="32" t="inlineStr"/>
       <c r="BH75" s="32" t="inlineStr"/>
       <c r="BI75" s="32" t="inlineStr"/>
@@ -7792,13 +8256,16 @@
       <c r="BT75" s="32" t="inlineStr"/>
       <c r="BU75" s="32" t="inlineStr"/>
       <c r="BV75" s="32" t="inlineStr"/>
-      <c r="BW75" s="25" t="inlineStr"/>
-      <c r="BX75" s="33" t="inlineStr"/>
-      <c r="BY75" s="33" t="inlineStr"/>
+      <c r="BW75" s="32" t="inlineStr"/>
+      <c r="BX75" s="32" t="inlineStr"/>
+      <c r="BY75" s="25" t="inlineStr"/>
       <c r="BZ75" s="33" t="inlineStr"/>
       <c r="CA75" s="33" t="inlineStr"/>
-      <c r="CB75" s="26" t="inlineStr"/>
-      <c r="CC75" s="27" t="inlineStr"/>
+      <c r="CB75" s="33" t="inlineStr"/>
+      <c r="CC75" s="33" t="inlineStr"/>
+      <c r="CD75" s="26" t="inlineStr"/>
+      <c r="CE75" s="27" t="inlineStr"/>
+      <c r="CF75" s="27" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -7824,28 +8291,28 @@
       <c r="U76" s="19" t="inlineStr"/>
       <c r="V76" s="19" t="inlineStr"/>
       <c r="W76" s="19" t="inlineStr"/>
-      <c r="X76" s="20" t="inlineStr"/>
-      <c r="Y76" s="21" t="inlineStr"/>
+      <c r="X76" s="19" t="inlineStr"/>
+      <c r="Y76" s="20" t="inlineStr"/>
       <c r="Z76" s="21" t="inlineStr"/>
-      <c r="AA76" s="22" t="inlineStr"/>
+      <c r="AA76" s="21" t="inlineStr"/>
       <c r="AB76" s="22" t="inlineStr"/>
-      <c r="AC76" s="21" t="inlineStr"/>
-      <c r="AD76" s="23" t="inlineStr"/>
-      <c r="AE76" s="24" t="inlineStr"/>
+      <c r="AC76" s="22" t="inlineStr"/>
+      <c r="AD76" s="21" t="inlineStr"/>
+      <c r="AE76" s="23" t="inlineStr"/>
       <c r="AF76" s="24" t="inlineStr"/>
       <c r="AG76" s="24" t="inlineStr"/>
       <c r="AH76" s="24" t="inlineStr"/>
-      <c r="AI76" s="25" t="inlineStr"/>
-      <c r="AJ76" s="26" t="inlineStr"/>
-      <c r="AK76" s="27" t="inlineStr"/>
-      <c r="AL76" s="28" t="inlineStr"/>
-      <c r="AM76" s="29" t="inlineStr"/>
-      <c r="AN76" s="30" t="inlineStr"/>
-      <c r="AO76" s="17" t="inlineStr"/>
+      <c r="AI76" s="24" t="inlineStr"/>
+      <c r="AJ76" s="25" t="inlineStr"/>
+      <c r="AK76" s="26" t="inlineStr"/>
+      <c r="AL76" s="27" t="inlineStr"/>
+      <c r="AM76" s="28" t="inlineStr"/>
+      <c r="AN76" s="29" t="inlineStr"/>
+      <c r="AO76" s="30" t="inlineStr"/>
       <c r="AP76" s="17" t="inlineStr"/>
-      <c r="AQ76" s="31" t="inlineStr"/>
-      <c r="AR76" s="18" t="inlineStr"/>
-      <c r="AS76" s="19" t="inlineStr"/>
+      <c r="AQ76" s="17" t="inlineStr"/>
+      <c r="AR76" s="31" t="inlineStr"/>
+      <c r="AS76" s="18" t="inlineStr"/>
       <c r="AT76" s="19" t="inlineStr"/>
       <c r="AU76" s="19" t="inlineStr"/>
       <c r="AV76" s="19" t="inlineStr"/>
@@ -7854,11 +8321,11 @@
       <c r="AY76" s="19" t="inlineStr"/>
       <c r="AZ76" s="19" t="inlineStr"/>
       <c r="BA76" s="19" t="inlineStr"/>
-      <c r="BB76" s="20" t="inlineStr"/>
-      <c r="BC76" s="21" t="inlineStr"/>
+      <c r="BB76" s="19" t="inlineStr"/>
+      <c r="BC76" s="20" t="inlineStr"/>
       <c r="BD76" s="21" t="inlineStr"/>
-      <c r="BE76" s="23" t="inlineStr"/>
-      <c r="BF76" s="24" t="inlineStr"/>
+      <c r="BE76" s="21" t="inlineStr"/>
+      <c r="BF76" s="23" t="inlineStr"/>
       <c r="BG76" s="32" t="inlineStr"/>
       <c r="BH76" s="32" t="inlineStr"/>
       <c r="BI76" s="32" t="inlineStr"/>
@@ -7875,13 +8342,16 @@
       <c r="BT76" s="32" t="inlineStr"/>
       <c r="BU76" s="32" t="inlineStr"/>
       <c r="BV76" s="32" t="inlineStr"/>
-      <c r="BW76" s="25" t="inlineStr"/>
-      <c r="BX76" s="33" t="inlineStr"/>
-      <c r="BY76" s="33" t="inlineStr"/>
+      <c r="BW76" s="32" t="inlineStr"/>
+      <c r="BX76" s="32" t="inlineStr"/>
+      <c r="BY76" s="25" t="inlineStr"/>
       <c r="BZ76" s="33" t="inlineStr"/>
       <c r="CA76" s="33" t="inlineStr"/>
-      <c r="CB76" s="26" t="inlineStr"/>
-      <c r="CC76" s="27" t="inlineStr"/>
+      <c r="CB76" s="33" t="inlineStr"/>
+      <c r="CC76" s="33" t="inlineStr"/>
+      <c r="CD76" s="26" t="inlineStr"/>
+      <c r="CE76" s="27" t="inlineStr"/>
+      <c r="CF76" s="27" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -7907,28 +8377,28 @@
       <c r="U77" s="19" t="inlineStr"/>
       <c r="V77" s="19" t="inlineStr"/>
       <c r="W77" s="19" t="inlineStr"/>
-      <c r="X77" s="20" t="inlineStr"/>
-      <c r="Y77" s="21" t="inlineStr"/>
+      <c r="X77" s="19" t="inlineStr"/>
+      <c r="Y77" s="20" t="inlineStr"/>
       <c r="Z77" s="21" t="inlineStr"/>
-      <c r="AA77" s="22" t="inlineStr"/>
+      <c r="AA77" s="21" t="inlineStr"/>
       <c r="AB77" s="22" t="inlineStr"/>
-      <c r="AC77" s="21" t="inlineStr"/>
-      <c r="AD77" s="23" t="inlineStr"/>
-      <c r="AE77" s="24" t="inlineStr"/>
+      <c r="AC77" s="22" t="inlineStr"/>
+      <c r="AD77" s="21" t="inlineStr"/>
+      <c r="AE77" s="23" t="inlineStr"/>
       <c r="AF77" s="24" t="inlineStr"/>
       <c r="AG77" s="24" t="inlineStr"/>
       <c r="AH77" s="24" t="inlineStr"/>
-      <c r="AI77" s="25" t="inlineStr"/>
-      <c r="AJ77" s="26" t="inlineStr"/>
-      <c r="AK77" s="27" t="inlineStr"/>
-      <c r="AL77" s="28" t="inlineStr"/>
-      <c r="AM77" s="29" t="inlineStr"/>
-      <c r="AN77" s="30" t="inlineStr"/>
-      <c r="AO77" s="17" t="inlineStr"/>
+      <c r="AI77" s="24" t="inlineStr"/>
+      <c r="AJ77" s="25" t="inlineStr"/>
+      <c r="AK77" s="26" t="inlineStr"/>
+      <c r="AL77" s="27" t="inlineStr"/>
+      <c r="AM77" s="28" t="inlineStr"/>
+      <c r="AN77" s="29" t="inlineStr"/>
+      <c r="AO77" s="30" t="inlineStr"/>
       <c r="AP77" s="17" t="inlineStr"/>
-      <c r="AQ77" s="31" t="inlineStr"/>
-      <c r="AR77" s="18" t="inlineStr"/>
-      <c r="AS77" s="19" t="inlineStr"/>
+      <c r="AQ77" s="17" t="inlineStr"/>
+      <c r="AR77" s="31" t="inlineStr"/>
+      <c r="AS77" s="18" t="inlineStr"/>
       <c r="AT77" s="19" t="inlineStr"/>
       <c r="AU77" s="19" t="inlineStr"/>
       <c r="AV77" s="19" t="inlineStr"/>
@@ -7937,11 +8407,11 @@
       <c r="AY77" s="19" t="inlineStr"/>
       <c r="AZ77" s="19" t="inlineStr"/>
       <c r="BA77" s="19" t="inlineStr"/>
-      <c r="BB77" s="20" t="inlineStr"/>
-      <c r="BC77" s="21" t="inlineStr"/>
+      <c r="BB77" s="19" t="inlineStr"/>
+      <c r="BC77" s="20" t="inlineStr"/>
       <c r="BD77" s="21" t="inlineStr"/>
-      <c r="BE77" s="23" t="inlineStr"/>
-      <c r="BF77" s="24" t="inlineStr"/>
+      <c r="BE77" s="21" t="inlineStr"/>
+      <c r="BF77" s="23" t="inlineStr"/>
       <c r="BG77" s="32" t="inlineStr"/>
       <c r="BH77" s="32" t="inlineStr"/>
       <c r="BI77" s="32" t="inlineStr"/>
@@ -7958,13 +8428,16 @@
       <c r="BT77" s="32" t="inlineStr"/>
       <c r="BU77" s="32" t="inlineStr"/>
       <c r="BV77" s="32" t="inlineStr"/>
-      <c r="BW77" s="25" t="inlineStr"/>
-      <c r="BX77" s="33" t="inlineStr"/>
-      <c r="BY77" s="33" t="inlineStr"/>
+      <c r="BW77" s="32" t="inlineStr"/>
+      <c r="BX77" s="32" t="inlineStr"/>
+      <c r="BY77" s="25" t="inlineStr"/>
       <c r="BZ77" s="33" t="inlineStr"/>
       <c r="CA77" s="33" t="inlineStr"/>
-      <c r="CB77" s="26" t="inlineStr"/>
-      <c r="CC77" s="27" t="inlineStr"/>
+      <c r="CB77" s="33" t="inlineStr"/>
+      <c r="CC77" s="33" t="inlineStr"/>
+      <c r="CD77" s="26" t="inlineStr"/>
+      <c r="CE77" s="27" t="inlineStr"/>
+      <c r="CF77" s="27" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -7990,28 +8463,28 @@
       <c r="U78" s="19" t="inlineStr"/>
       <c r="V78" s="19" t="inlineStr"/>
       <c r="W78" s="19" t="inlineStr"/>
-      <c r="X78" s="20" t="inlineStr"/>
-      <c r="Y78" s="21" t="inlineStr"/>
+      <c r="X78" s="19" t="inlineStr"/>
+      <c r="Y78" s="20" t="inlineStr"/>
       <c r="Z78" s="21" t="inlineStr"/>
-      <c r="AA78" s="22" t="inlineStr"/>
+      <c r="AA78" s="21" t="inlineStr"/>
       <c r="AB78" s="22" t="inlineStr"/>
-      <c r="AC78" s="21" t="inlineStr"/>
-      <c r="AD78" s="23" t="inlineStr"/>
-      <c r="AE78" s="24" t="inlineStr"/>
+      <c r="AC78" s="22" t="inlineStr"/>
+      <c r="AD78" s="21" t="inlineStr"/>
+      <c r="AE78" s="23" t="inlineStr"/>
       <c r="AF78" s="24" t="inlineStr"/>
       <c r="AG78" s="24" t="inlineStr"/>
       <c r="AH78" s="24" t="inlineStr"/>
-      <c r="AI78" s="25" t="inlineStr"/>
-      <c r="AJ78" s="26" t="inlineStr"/>
-      <c r="AK78" s="27" t="inlineStr"/>
-      <c r="AL78" s="28" t="inlineStr"/>
-      <c r="AM78" s="29" t="inlineStr"/>
-      <c r="AN78" s="30" t="inlineStr"/>
-      <c r="AO78" s="17" t="inlineStr"/>
+      <c r="AI78" s="24" t="inlineStr"/>
+      <c r="AJ78" s="25" t="inlineStr"/>
+      <c r="AK78" s="26" t="inlineStr"/>
+      <c r="AL78" s="27" t="inlineStr"/>
+      <c r="AM78" s="28" t="inlineStr"/>
+      <c r="AN78" s="29" t="inlineStr"/>
+      <c r="AO78" s="30" t="inlineStr"/>
       <c r="AP78" s="17" t="inlineStr"/>
-      <c r="AQ78" s="31" t="inlineStr"/>
-      <c r="AR78" s="18" t="inlineStr"/>
-      <c r="AS78" s="19" t="inlineStr"/>
+      <c r="AQ78" s="17" t="inlineStr"/>
+      <c r="AR78" s="31" t="inlineStr"/>
+      <c r="AS78" s="18" t="inlineStr"/>
       <c r="AT78" s="19" t="inlineStr"/>
       <c r="AU78" s="19" t="inlineStr"/>
       <c r="AV78" s="19" t="inlineStr"/>
@@ -8020,11 +8493,11 @@
       <c r="AY78" s="19" t="inlineStr"/>
       <c r="AZ78" s="19" t="inlineStr"/>
       <c r="BA78" s="19" t="inlineStr"/>
-      <c r="BB78" s="20" t="inlineStr"/>
-      <c r="BC78" s="21" t="inlineStr"/>
+      <c r="BB78" s="19" t="inlineStr"/>
+      <c r="BC78" s="20" t="inlineStr"/>
       <c r="BD78" s="21" t="inlineStr"/>
-      <c r="BE78" s="23" t="inlineStr"/>
-      <c r="BF78" s="24" t="inlineStr"/>
+      <c r="BE78" s="21" t="inlineStr"/>
+      <c r="BF78" s="23" t="inlineStr"/>
       <c r="BG78" s="32" t="inlineStr"/>
       <c r="BH78" s="32" t="inlineStr"/>
       <c r="BI78" s="32" t="inlineStr"/>
@@ -8041,13 +8514,16 @@
       <c r="BT78" s="32" t="inlineStr"/>
       <c r="BU78" s="32" t="inlineStr"/>
       <c r="BV78" s="32" t="inlineStr"/>
-      <c r="BW78" s="25" t="inlineStr"/>
-      <c r="BX78" s="33" t="inlineStr"/>
-      <c r="BY78" s="33" t="inlineStr"/>
+      <c r="BW78" s="32" t="inlineStr"/>
+      <c r="BX78" s="32" t="inlineStr"/>
+      <c r="BY78" s="25" t="inlineStr"/>
       <c r="BZ78" s="33" t="inlineStr"/>
       <c r="CA78" s="33" t="inlineStr"/>
-      <c r="CB78" s="26" t="inlineStr"/>
-      <c r="CC78" s="27" t="inlineStr"/>
+      <c r="CB78" s="33" t="inlineStr"/>
+      <c r="CC78" s="33" t="inlineStr"/>
+      <c r="CD78" s="26" t="inlineStr"/>
+      <c r="CE78" s="27" t="inlineStr"/>
+      <c r="CF78" s="27" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -8073,28 +8549,28 @@
       <c r="U79" s="19" t="inlineStr"/>
       <c r="V79" s="19" t="inlineStr"/>
       <c r="W79" s="19" t="inlineStr"/>
-      <c r="X79" s="20" t="inlineStr"/>
-      <c r="Y79" s="21" t="inlineStr"/>
+      <c r="X79" s="19" t="inlineStr"/>
+      <c r="Y79" s="20" t="inlineStr"/>
       <c r="Z79" s="21" t="inlineStr"/>
-      <c r="AA79" s="22" t="inlineStr"/>
+      <c r="AA79" s="21" t="inlineStr"/>
       <c r="AB79" s="22" t="inlineStr"/>
-      <c r="AC79" s="21" t="inlineStr"/>
-      <c r="AD79" s="23" t="inlineStr"/>
-      <c r="AE79" s="24" t="inlineStr"/>
+      <c r="AC79" s="22" t="inlineStr"/>
+      <c r="AD79" s="21" t="inlineStr"/>
+      <c r="AE79" s="23" t="inlineStr"/>
       <c r="AF79" s="24" t="inlineStr"/>
       <c r="AG79" s="24" t="inlineStr"/>
       <c r="AH79" s="24" t="inlineStr"/>
-      <c r="AI79" s="25" t="inlineStr"/>
-      <c r="AJ79" s="26" t="inlineStr"/>
-      <c r="AK79" s="27" t="inlineStr"/>
-      <c r="AL79" s="28" t="inlineStr"/>
-      <c r="AM79" s="29" t="inlineStr"/>
-      <c r="AN79" s="30" t="inlineStr"/>
-      <c r="AO79" s="17" t="inlineStr"/>
+      <c r="AI79" s="24" t="inlineStr"/>
+      <c r="AJ79" s="25" t="inlineStr"/>
+      <c r="AK79" s="26" t="inlineStr"/>
+      <c r="AL79" s="27" t="inlineStr"/>
+      <c r="AM79" s="28" t="inlineStr"/>
+      <c r="AN79" s="29" t="inlineStr"/>
+      <c r="AO79" s="30" t="inlineStr"/>
       <c r="AP79" s="17" t="inlineStr"/>
-      <c r="AQ79" s="31" t="inlineStr"/>
-      <c r="AR79" s="18" t="inlineStr"/>
-      <c r="AS79" s="19" t="inlineStr"/>
+      <c r="AQ79" s="17" t="inlineStr"/>
+      <c r="AR79" s="31" t="inlineStr"/>
+      <c r="AS79" s="18" t="inlineStr"/>
       <c r="AT79" s="19" t="inlineStr"/>
       <c r="AU79" s="19" t="inlineStr"/>
       <c r="AV79" s="19" t="inlineStr"/>
@@ -8103,11 +8579,11 @@
       <c r="AY79" s="19" t="inlineStr"/>
       <c r="AZ79" s="19" t="inlineStr"/>
       <c r="BA79" s="19" t="inlineStr"/>
-      <c r="BB79" s="20" t="inlineStr"/>
-      <c r="BC79" s="21" t="inlineStr"/>
+      <c r="BB79" s="19" t="inlineStr"/>
+      <c r="BC79" s="20" t="inlineStr"/>
       <c r="BD79" s="21" t="inlineStr"/>
-      <c r="BE79" s="23" t="inlineStr"/>
-      <c r="BF79" s="24" t="inlineStr"/>
+      <c r="BE79" s="21" t="inlineStr"/>
+      <c r="BF79" s="23" t="inlineStr"/>
       <c r="BG79" s="32" t="inlineStr"/>
       <c r="BH79" s="32" t="inlineStr"/>
       <c r="BI79" s="32" t="inlineStr"/>
@@ -8124,13 +8600,16 @@
       <c r="BT79" s="32" t="inlineStr"/>
       <c r="BU79" s="32" t="inlineStr"/>
       <c r="BV79" s="32" t="inlineStr"/>
-      <c r="BW79" s="25" t="inlineStr"/>
-      <c r="BX79" s="33" t="inlineStr"/>
-      <c r="BY79" s="33" t="inlineStr"/>
+      <c r="BW79" s="32" t="inlineStr"/>
+      <c r="BX79" s="32" t="inlineStr"/>
+      <c r="BY79" s="25" t="inlineStr"/>
       <c r="BZ79" s="33" t="inlineStr"/>
       <c r="CA79" s="33" t="inlineStr"/>
-      <c r="CB79" s="26" t="inlineStr"/>
-      <c r="CC79" s="27" t="inlineStr"/>
+      <c r="CB79" s="33" t="inlineStr"/>
+      <c r="CC79" s="33" t="inlineStr"/>
+      <c r="CD79" s="26" t="inlineStr"/>
+      <c r="CE79" s="27" t="inlineStr"/>
+      <c r="CF79" s="27" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8156,28 +8635,28 @@
       <c r="U80" s="19" t="inlineStr"/>
       <c r="V80" s="19" t="inlineStr"/>
       <c r="W80" s="19" t="inlineStr"/>
-      <c r="X80" s="20" t="inlineStr"/>
-      <c r="Y80" s="21" t="inlineStr"/>
+      <c r="X80" s="19" t="inlineStr"/>
+      <c r="Y80" s="20" t="inlineStr"/>
       <c r="Z80" s="21" t="inlineStr"/>
-      <c r="AA80" s="22" t="inlineStr"/>
+      <c r="AA80" s="21" t="inlineStr"/>
       <c r="AB80" s="22" t="inlineStr"/>
-      <c r="AC80" s="21" t="inlineStr"/>
-      <c r="AD80" s="23" t="inlineStr"/>
-      <c r="AE80" s="24" t="inlineStr"/>
+      <c r="AC80" s="22" t="inlineStr"/>
+      <c r="AD80" s="21" t="inlineStr"/>
+      <c r="AE80" s="23" t="inlineStr"/>
       <c r="AF80" s="24" t="inlineStr"/>
       <c r="AG80" s="24" t="inlineStr"/>
       <c r="AH80" s="24" t="inlineStr"/>
-      <c r="AI80" s="25" t="inlineStr"/>
-      <c r="AJ80" s="26" t="inlineStr"/>
-      <c r="AK80" s="27" t="inlineStr"/>
-      <c r="AL80" s="28" t="inlineStr"/>
-      <c r="AM80" s="29" t="inlineStr"/>
-      <c r="AN80" s="30" t="inlineStr"/>
-      <c r="AO80" s="17" t="inlineStr"/>
+      <c r="AI80" s="24" t="inlineStr"/>
+      <c r="AJ80" s="25" t="inlineStr"/>
+      <c r="AK80" s="26" t="inlineStr"/>
+      <c r="AL80" s="27" t="inlineStr"/>
+      <c r="AM80" s="28" t="inlineStr"/>
+      <c r="AN80" s="29" t="inlineStr"/>
+      <c r="AO80" s="30" t="inlineStr"/>
       <c r="AP80" s="17" t="inlineStr"/>
-      <c r="AQ80" s="31" t="inlineStr"/>
-      <c r="AR80" s="18" t="inlineStr"/>
-      <c r="AS80" s="19" t="inlineStr"/>
+      <c r="AQ80" s="17" t="inlineStr"/>
+      <c r="AR80" s="31" t="inlineStr"/>
+      <c r="AS80" s="18" t="inlineStr"/>
       <c r="AT80" s="19" t="inlineStr"/>
       <c r="AU80" s="19" t="inlineStr"/>
       <c r="AV80" s="19" t="inlineStr"/>
@@ -8186,11 +8665,11 @@
       <c r="AY80" s="19" t="inlineStr"/>
       <c r="AZ80" s="19" t="inlineStr"/>
       <c r="BA80" s="19" t="inlineStr"/>
-      <c r="BB80" s="20" t="inlineStr"/>
-      <c r="BC80" s="21" t="inlineStr"/>
+      <c r="BB80" s="19" t="inlineStr"/>
+      <c r="BC80" s="20" t="inlineStr"/>
       <c r="BD80" s="21" t="inlineStr"/>
-      <c r="BE80" s="23" t="inlineStr"/>
-      <c r="BF80" s="24" t="inlineStr"/>
+      <c r="BE80" s="21" t="inlineStr"/>
+      <c r="BF80" s="23" t="inlineStr"/>
       <c r="BG80" s="32" t="inlineStr"/>
       <c r="BH80" s="32" t="inlineStr"/>
       <c r="BI80" s="32" t="inlineStr"/>
@@ -8207,13 +8686,16 @@
       <c r="BT80" s="32" t="inlineStr"/>
       <c r="BU80" s="32" t="inlineStr"/>
       <c r="BV80" s="32" t="inlineStr"/>
-      <c r="BW80" s="25" t="inlineStr"/>
-      <c r="BX80" s="33" t="inlineStr"/>
-      <c r="BY80" s="33" t="inlineStr"/>
+      <c r="BW80" s="32" t="inlineStr"/>
+      <c r="BX80" s="32" t="inlineStr"/>
+      <c r="BY80" s="25" t="inlineStr"/>
       <c r="BZ80" s="33" t="inlineStr"/>
       <c r="CA80" s="33" t="inlineStr"/>
-      <c r="CB80" s="26" t="inlineStr"/>
-      <c r="CC80" s="27" t="inlineStr"/>
+      <c r="CB80" s="33" t="inlineStr"/>
+      <c r="CC80" s="33" t="inlineStr"/>
+      <c r="CD80" s="26" t="inlineStr"/>
+      <c r="CE80" s="27" t="inlineStr"/>
+      <c r="CF80" s="27" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8239,28 +8721,28 @@
       <c r="U81" s="19" t="inlineStr"/>
       <c r="V81" s="19" t="inlineStr"/>
       <c r="W81" s="19" t="inlineStr"/>
-      <c r="X81" s="20" t="inlineStr"/>
-      <c r="Y81" s="21" t="inlineStr"/>
+      <c r="X81" s="19" t="inlineStr"/>
+      <c r="Y81" s="20" t="inlineStr"/>
       <c r="Z81" s="21" t="inlineStr"/>
-      <c r="AA81" s="22" t="inlineStr"/>
+      <c r="AA81" s="21" t="inlineStr"/>
       <c r="AB81" s="22" t="inlineStr"/>
-      <c r="AC81" s="21" t="inlineStr"/>
-      <c r="AD81" s="23" t="inlineStr"/>
-      <c r="AE81" s="24" t="inlineStr"/>
+      <c r="AC81" s="22" t="inlineStr"/>
+      <c r="AD81" s="21" t="inlineStr"/>
+      <c r="AE81" s="23" t="inlineStr"/>
       <c r="AF81" s="24" t="inlineStr"/>
       <c r="AG81" s="24" t="inlineStr"/>
       <c r="AH81" s="24" t="inlineStr"/>
-      <c r="AI81" s="25" t="inlineStr"/>
-      <c r="AJ81" s="26" t="inlineStr"/>
-      <c r="AK81" s="27" t="inlineStr"/>
-      <c r="AL81" s="28" t="inlineStr"/>
-      <c r="AM81" s="29" t="inlineStr"/>
-      <c r="AN81" s="30" t="inlineStr"/>
-      <c r="AO81" s="17" t="inlineStr"/>
+      <c r="AI81" s="24" t="inlineStr"/>
+      <c r="AJ81" s="25" t="inlineStr"/>
+      <c r="AK81" s="26" t="inlineStr"/>
+      <c r="AL81" s="27" t="inlineStr"/>
+      <c r="AM81" s="28" t="inlineStr"/>
+      <c r="AN81" s="29" t="inlineStr"/>
+      <c r="AO81" s="30" t="inlineStr"/>
       <c r="AP81" s="17" t="inlineStr"/>
-      <c r="AQ81" s="31" t="inlineStr"/>
-      <c r="AR81" s="18" t="inlineStr"/>
-      <c r="AS81" s="19" t="inlineStr"/>
+      <c r="AQ81" s="17" t="inlineStr"/>
+      <c r="AR81" s="31" t="inlineStr"/>
+      <c r="AS81" s="18" t="inlineStr"/>
       <c r="AT81" s="19" t="inlineStr"/>
       <c r="AU81" s="19" t="inlineStr"/>
       <c r="AV81" s="19" t="inlineStr"/>
@@ -8269,11 +8751,11 @@
       <c r="AY81" s="19" t="inlineStr"/>
       <c r="AZ81" s="19" t="inlineStr"/>
       <c r="BA81" s="19" t="inlineStr"/>
-      <c r="BB81" s="20" t="inlineStr"/>
-      <c r="BC81" s="21" t="inlineStr"/>
+      <c r="BB81" s="19" t="inlineStr"/>
+      <c r="BC81" s="20" t="inlineStr"/>
       <c r="BD81" s="21" t="inlineStr"/>
-      <c r="BE81" s="23" t="inlineStr"/>
-      <c r="BF81" s="24" t="inlineStr"/>
+      <c r="BE81" s="21" t="inlineStr"/>
+      <c r="BF81" s="23" t="inlineStr"/>
       <c r="BG81" s="32" t="inlineStr"/>
       <c r="BH81" s="32" t="inlineStr"/>
       <c r="BI81" s="32" t="inlineStr"/>
@@ -8290,13 +8772,16 @@
       <c r="BT81" s="32" t="inlineStr"/>
       <c r="BU81" s="32" t="inlineStr"/>
       <c r="BV81" s="32" t="inlineStr"/>
-      <c r="BW81" s="25" t="inlineStr"/>
-      <c r="BX81" s="33" t="inlineStr"/>
-      <c r="BY81" s="33" t="inlineStr"/>
+      <c r="BW81" s="32" t="inlineStr"/>
+      <c r="BX81" s="32" t="inlineStr"/>
+      <c r="BY81" s="25" t="inlineStr"/>
       <c r="BZ81" s="33" t="inlineStr"/>
       <c r="CA81" s="33" t="inlineStr"/>
-      <c r="CB81" s="26" t="inlineStr"/>
-      <c r="CC81" s="27" t="inlineStr"/>
+      <c r="CB81" s="33" t="inlineStr"/>
+      <c r="CC81" s="33" t="inlineStr"/>
+      <c r="CD81" s="26" t="inlineStr"/>
+      <c r="CE81" s="27" t="inlineStr"/>
+      <c r="CF81" s="27" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8322,28 +8807,28 @@
       <c r="U82" s="19" t="inlineStr"/>
       <c r="V82" s="19" t="inlineStr"/>
       <c r="W82" s="19" t="inlineStr"/>
-      <c r="X82" s="20" t="inlineStr"/>
-      <c r="Y82" s="21" t="inlineStr"/>
+      <c r="X82" s="19" t="inlineStr"/>
+      <c r="Y82" s="20" t="inlineStr"/>
       <c r="Z82" s="21" t="inlineStr"/>
-      <c r="AA82" s="22" t="inlineStr"/>
+      <c r="AA82" s="21" t="inlineStr"/>
       <c r="AB82" s="22" t="inlineStr"/>
-      <c r="AC82" s="21" t="inlineStr"/>
-      <c r="AD82" s="23" t="inlineStr"/>
-      <c r="AE82" s="24" t="inlineStr"/>
+      <c r="AC82" s="22" t="inlineStr"/>
+      <c r="AD82" s="21" t="inlineStr"/>
+      <c r="AE82" s="23" t="inlineStr"/>
       <c r="AF82" s="24" t="inlineStr"/>
       <c r="AG82" s="24" t="inlineStr"/>
       <c r="AH82" s="24" t="inlineStr"/>
-      <c r="AI82" s="25" t="inlineStr"/>
-      <c r="AJ82" s="26" t="inlineStr"/>
-      <c r="AK82" s="27" t="inlineStr"/>
-      <c r="AL82" s="28" t="inlineStr"/>
-      <c r="AM82" s="29" t="inlineStr"/>
-      <c r="AN82" s="30" t="inlineStr"/>
-      <c r="AO82" s="17" t="inlineStr"/>
+      <c r="AI82" s="24" t="inlineStr"/>
+      <c r="AJ82" s="25" t="inlineStr"/>
+      <c r="AK82" s="26" t="inlineStr"/>
+      <c r="AL82" s="27" t="inlineStr"/>
+      <c r="AM82" s="28" t="inlineStr"/>
+      <c r="AN82" s="29" t="inlineStr"/>
+      <c r="AO82" s="30" t="inlineStr"/>
       <c r="AP82" s="17" t="inlineStr"/>
-      <c r="AQ82" s="31" t="inlineStr"/>
-      <c r="AR82" s="18" t="inlineStr"/>
-      <c r="AS82" s="19" t="inlineStr"/>
+      <c r="AQ82" s="17" t="inlineStr"/>
+      <c r="AR82" s="31" t="inlineStr"/>
+      <c r="AS82" s="18" t="inlineStr"/>
       <c r="AT82" s="19" t="inlineStr"/>
       <c r="AU82" s="19" t="inlineStr"/>
       <c r="AV82" s="19" t="inlineStr"/>
@@ -8352,11 +8837,11 @@
       <c r="AY82" s="19" t="inlineStr"/>
       <c r="AZ82" s="19" t="inlineStr"/>
       <c r="BA82" s="19" t="inlineStr"/>
-      <c r="BB82" s="20" t="inlineStr"/>
-      <c r="BC82" s="21" t="inlineStr"/>
+      <c r="BB82" s="19" t="inlineStr"/>
+      <c r="BC82" s="20" t="inlineStr"/>
       <c r="BD82" s="21" t="inlineStr"/>
-      <c r="BE82" s="23" t="inlineStr"/>
-      <c r="BF82" s="24" t="inlineStr"/>
+      <c r="BE82" s="21" t="inlineStr"/>
+      <c r="BF82" s="23" t="inlineStr"/>
       <c r="BG82" s="32" t="inlineStr"/>
       <c r="BH82" s="32" t="inlineStr"/>
       <c r="BI82" s="32" t="inlineStr"/>
@@ -8373,13 +8858,16 @@
       <c r="BT82" s="32" t="inlineStr"/>
       <c r="BU82" s="32" t="inlineStr"/>
       <c r="BV82" s="32" t="inlineStr"/>
-      <c r="BW82" s="25" t="inlineStr"/>
-      <c r="BX82" s="33" t="inlineStr"/>
-      <c r="BY82" s="33" t="inlineStr"/>
+      <c r="BW82" s="32" t="inlineStr"/>
+      <c r="BX82" s="32" t="inlineStr"/>
+      <c r="BY82" s="25" t="inlineStr"/>
       <c r="BZ82" s="33" t="inlineStr"/>
       <c r="CA82" s="33" t="inlineStr"/>
-      <c r="CB82" s="26" t="inlineStr"/>
-      <c r="CC82" s="27" t="inlineStr"/>
+      <c r="CB82" s="33" t="inlineStr"/>
+      <c r="CC82" s="33" t="inlineStr"/>
+      <c r="CD82" s="26" t="inlineStr"/>
+      <c r="CE82" s="27" t="inlineStr"/>
+      <c r="CF82" s="27" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8405,28 +8893,28 @@
       <c r="U83" s="19" t="inlineStr"/>
       <c r="V83" s="19" t="inlineStr"/>
       <c r="W83" s="19" t="inlineStr"/>
-      <c r="X83" s="20" t="inlineStr"/>
-      <c r="Y83" s="21" t="inlineStr"/>
+      <c r="X83" s="19" t="inlineStr"/>
+      <c r="Y83" s="20" t="inlineStr"/>
       <c r="Z83" s="21" t="inlineStr"/>
-      <c r="AA83" s="22" t="inlineStr"/>
+      <c r="AA83" s="21" t="inlineStr"/>
       <c r="AB83" s="22" t="inlineStr"/>
-      <c r="AC83" s="21" t="inlineStr"/>
-      <c r="AD83" s="23" t="inlineStr"/>
-      <c r="AE83" s="24" t="inlineStr"/>
+      <c r="AC83" s="22" t="inlineStr"/>
+      <c r="AD83" s="21" t="inlineStr"/>
+      <c r="AE83" s="23" t="inlineStr"/>
       <c r="AF83" s="24" t="inlineStr"/>
       <c r="AG83" s="24" t="inlineStr"/>
       <c r="AH83" s="24" t="inlineStr"/>
-      <c r="AI83" s="25" t="inlineStr"/>
-      <c r="AJ83" s="26" t="inlineStr"/>
-      <c r="AK83" s="27" t="inlineStr"/>
-      <c r="AL83" s="28" t="inlineStr"/>
-      <c r="AM83" s="29" t="inlineStr"/>
-      <c r="AN83" s="30" t="inlineStr"/>
-      <c r="AO83" s="17" t="inlineStr"/>
+      <c r="AI83" s="24" t="inlineStr"/>
+      <c r="AJ83" s="25" t="inlineStr"/>
+      <c r="AK83" s="26" t="inlineStr"/>
+      <c r="AL83" s="27" t="inlineStr"/>
+      <c r="AM83" s="28" t="inlineStr"/>
+      <c r="AN83" s="29" t="inlineStr"/>
+      <c r="AO83" s="30" t="inlineStr"/>
       <c r="AP83" s="17" t="inlineStr"/>
-      <c r="AQ83" s="31" t="inlineStr"/>
-      <c r="AR83" s="18" t="inlineStr"/>
-      <c r="AS83" s="19" t="inlineStr"/>
+      <c r="AQ83" s="17" t="inlineStr"/>
+      <c r="AR83" s="31" t="inlineStr"/>
+      <c r="AS83" s="18" t="inlineStr"/>
       <c r="AT83" s="19" t="inlineStr"/>
       <c r="AU83" s="19" t="inlineStr"/>
       <c r="AV83" s="19" t="inlineStr"/>
@@ -8435,11 +8923,11 @@
       <c r="AY83" s="19" t="inlineStr"/>
       <c r="AZ83" s="19" t="inlineStr"/>
       <c r="BA83" s="19" t="inlineStr"/>
-      <c r="BB83" s="20" t="inlineStr"/>
-      <c r="BC83" s="21" t="inlineStr"/>
+      <c r="BB83" s="19" t="inlineStr"/>
+      <c r="BC83" s="20" t="inlineStr"/>
       <c r="BD83" s="21" t="inlineStr"/>
-      <c r="BE83" s="23" t="inlineStr"/>
-      <c r="BF83" s="24" t="inlineStr"/>
+      <c r="BE83" s="21" t="inlineStr"/>
+      <c r="BF83" s="23" t="inlineStr"/>
       <c r="BG83" s="32" t="inlineStr"/>
       <c r="BH83" s="32" t="inlineStr"/>
       <c r="BI83" s="32" t="inlineStr"/>
@@ -8456,13 +8944,16 @@
       <c r="BT83" s="32" t="inlineStr"/>
       <c r="BU83" s="32" t="inlineStr"/>
       <c r="BV83" s="32" t="inlineStr"/>
-      <c r="BW83" s="25" t="inlineStr"/>
-      <c r="BX83" s="33" t="inlineStr"/>
-      <c r="BY83" s="33" t="inlineStr"/>
+      <c r="BW83" s="32" t="inlineStr"/>
+      <c r="BX83" s="32" t="inlineStr"/>
+      <c r="BY83" s="25" t="inlineStr"/>
       <c r="BZ83" s="33" t="inlineStr"/>
       <c r="CA83" s="33" t="inlineStr"/>
-      <c r="CB83" s="26" t="inlineStr"/>
-      <c r="CC83" s="27" t="inlineStr"/>
+      <c r="CB83" s="33" t="inlineStr"/>
+      <c r="CC83" s="33" t="inlineStr"/>
+      <c r="CD83" s="26" t="inlineStr"/>
+      <c r="CE83" s="27" t="inlineStr"/>
+      <c r="CF83" s="27" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8488,28 +8979,28 @@
       <c r="U84" s="19" t="inlineStr"/>
       <c r="V84" s="19" t="inlineStr"/>
       <c r="W84" s="19" t="inlineStr"/>
-      <c r="X84" s="20" t="inlineStr"/>
-      <c r="Y84" s="21" t="inlineStr"/>
+      <c r="X84" s="19" t="inlineStr"/>
+      <c r="Y84" s="20" t="inlineStr"/>
       <c r="Z84" s="21" t="inlineStr"/>
-      <c r="AA84" s="22" t="inlineStr"/>
+      <c r="AA84" s="21" t="inlineStr"/>
       <c r="AB84" s="22" t="inlineStr"/>
-      <c r="AC84" s="21" t="inlineStr"/>
-      <c r="AD84" s="23" t="inlineStr"/>
-      <c r="AE84" s="24" t="inlineStr"/>
+      <c r="AC84" s="22" t="inlineStr"/>
+      <c r="AD84" s="21" t="inlineStr"/>
+      <c r="AE84" s="23" t="inlineStr"/>
       <c r="AF84" s="24" t="inlineStr"/>
       <c r="AG84" s="24" t="inlineStr"/>
       <c r="AH84" s="24" t="inlineStr"/>
-      <c r="AI84" s="25" t="inlineStr"/>
-      <c r="AJ84" s="26" t="inlineStr"/>
-      <c r="AK84" s="27" t="inlineStr"/>
-      <c r="AL84" s="28" t="inlineStr"/>
-      <c r="AM84" s="29" t="inlineStr"/>
-      <c r="AN84" s="30" t="inlineStr"/>
-      <c r="AO84" s="17" t="inlineStr"/>
+      <c r="AI84" s="24" t="inlineStr"/>
+      <c r="AJ84" s="25" t="inlineStr"/>
+      <c r="AK84" s="26" t="inlineStr"/>
+      <c r="AL84" s="27" t="inlineStr"/>
+      <c r="AM84" s="28" t="inlineStr"/>
+      <c r="AN84" s="29" t="inlineStr"/>
+      <c r="AO84" s="30" t="inlineStr"/>
       <c r="AP84" s="17" t="inlineStr"/>
-      <c r="AQ84" s="31" t="inlineStr"/>
-      <c r="AR84" s="18" t="inlineStr"/>
-      <c r="AS84" s="19" t="inlineStr"/>
+      <c r="AQ84" s="17" t="inlineStr"/>
+      <c r="AR84" s="31" t="inlineStr"/>
+      <c r="AS84" s="18" t="inlineStr"/>
       <c r="AT84" s="19" t="inlineStr"/>
       <c r="AU84" s="19" t="inlineStr"/>
       <c r="AV84" s="19" t="inlineStr"/>
@@ -8518,11 +9009,11 @@
       <c r="AY84" s="19" t="inlineStr"/>
       <c r="AZ84" s="19" t="inlineStr"/>
       <c r="BA84" s="19" t="inlineStr"/>
-      <c r="BB84" s="20" t="inlineStr"/>
-      <c r="BC84" s="21" t="inlineStr"/>
+      <c r="BB84" s="19" t="inlineStr"/>
+      <c r="BC84" s="20" t="inlineStr"/>
       <c r="BD84" s="21" t="inlineStr"/>
-      <c r="BE84" s="23" t="inlineStr"/>
-      <c r="BF84" s="24" t="inlineStr"/>
+      <c r="BE84" s="21" t="inlineStr"/>
+      <c r="BF84" s="23" t="inlineStr"/>
       <c r="BG84" s="32" t="inlineStr"/>
       <c r="BH84" s="32" t="inlineStr"/>
       <c r="BI84" s="32" t="inlineStr"/>
@@ -8539,13 +9030,16 @@
       <c r="BT84" s="32" t="inlineStr"/>
       <c r="BU84" s="32" t="inlineStr"/>
       <c r="BV84" s="32" t="inlineStr"/>
-      <c r="BW84" s="25" t="inlineStr"/>
-      <c r="BX84" s="33" t="inlineStr"/>
-      <c r="BY84" s="33" t="inlineStr"/>
+      <c r="BW84" s="32" t="inlineStr"/>
+      <c r="BX84" s="32" t="inlineStr"/>
+      <c r="BY84" s="25" t="inlineStr"/>
       <c r="BZ84" s="33" t="inlineStr"/>
       <c r="CA84" s="33" t="inlineStr"/>
-      <c r="CB84" s="26" t="inlineStr"/>
-      <c r="CC84" s="27" t="inlineStr"/>
+      <c r="CB84" s="33" t="inlineStr"/>
+      <c r="CC84" s="33" t="inlineStr"/>
+      <c r="CD84" s="26" t="inlineStr"/>
+      <c r="CE84" s="27" t="inlineStr"/>
+      <c r="CF84" s="27" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8571,28 +9065,28 @@
       <c r="U85" s="19" t="inlineStr"/>
       <c r="V85" s="19" t="inlineStr"/>
       <c r="W85" s="19" t="inlineStr"/>
-      <c r="X85" s="20" t="inlineStr"/>
-      <c r="Y85" s="21" t="inlineStr"/>
+      <c r="X85" s="19" t="inlineStr"/>
+      <c r="Y85" s="20" t="inlineStr"/>
       <c r="Z85" s="21" t="inlineStr"/>
-      <c r="AA85" s="22" t="inlineStr"/>
+      <c r="AA85" s="21" t="inlineStr"/>
       <c r="AB85" s="22" t="inlineStr"/>
-      <c r="AC85" s="21" t="inlineStr"/>
-      <c r="AD85" s="23" t="inlineStr"/>
-      <c r="AE85" s="24" t="inlineStr"/>
+      <c r="AC85" s="22" t="inlineStr"/>
+      <c r="AD85" s="21" t="inlineStr"/>
+      <c r="AE85" s="23" t="inlineStr"/>
       <c r="AF85" s="24" t="inlineStr"/>
       <c r="AG85" s="24" t="inlineStr"/>
       <c r="AH85" s="24" t="inlineStr"/>
-      <c r="AI85" s="25" t="inlineStr"/>
-      <c r="AJ85" s="26" t="inlineStr"/>
-      <c r="AK85" s="27" t="inlineStr"/>
-      <c r="AL85" s="28" t="inlineStr"/>
-      <c r="AM85" s="29" t="inlineStr"/>
-      <c r="AN85" s="30" t="inlineStr"/>
-      <c r="AO85" s="17" t="inlineStr"/>
+      <c r="AI85" s="24" t="inlineStr"/>
+      <c r="AJ85" s="25" t="inlineStr"/>
+      <c r="AK85" s="26" t="inlineStr"/>
+      <c r="AL85" s="27" t="inlineStr"/>
+      <c r="AM85" s="28" t="inlineStr"/>
+      <c r="AN85" s="29" t="inlineStr"/>
+      <c r="AO85" s="30" t="inlineStr"/>
       <c r="AP85" s="17" t="inlineStr"/>
-      <c r="AQ85" s="31" t="inlineStr"/>
-      <c r="AR85" s="18" t="inlineStr"/>
-      <c r="AS85" s="19" t="inlineStr"/>
+      <c r="AQ85" s="17" t="inlineStr"/>
+      <c r="AR85" s="31" t="inlineStr"/>
+      <c r="AS85" s="18" t="inlineStr"/>
       <c r="AT85" s="19" t="inlineStr"/>
       <c r="AU85" s="19" t="inlineStr"/>
       <c r="AV85" s="19" t="inlineStr"/>
@@ -8601,11 +9095,11 @@
       <c r="AY85" s="19" t="inlineStr"/>
       <c r="AZ85" s="19" t="inlineStr"/>
       <c r="BA85" s="19" t="inlineStr"/>
-      <c r="BB85" s="20" t="inlineStr"/>
-      <c r="BC85" s="21" t="inlineStr"/>
+      <c r="BB85" s="19" t="inlineStr"/>
+      <c r="BC85" s="20" t="inlineStr"/>
       <c r="BD85" s="21" t="inlineStr"/>
-      <c r="BE85" s="23" t="inlineStr"/>
-      <c r="BF85" s="24" t="inlineStr"/>
+      <c r="BE85" s="21" t="inlineStr"/>
+      <c r="BF85" s="23" t="inlineStr"/>
       <c r="BG85" s="32" t="inlineStr"/>
       <c r="BH85" s="32" t="inlineStr"/>
       <c r="BI85" s="32" t="inlineStr"/>
@@ -8622,13 +9116,16 @@
       <c r="BT85" s="32" t="inlineStr"/>
       <c r="BU85" s="32" t="inlineStr"/>
       <c r="BV85" s="32" t="inlineStr"/>
-      <c r="BW85" s="25" t="inlineStr"/>
-      <c r="BX85" s="33" t="inlineStr"/>
-      <c r="BY85" s="33" t="inlineStr"/>
+      <c r="BW85" s="32" t="inlineStr"/>
+      <c r="BX85" s="32" t="inlineStr"/>
+      <c r="BY85" s="25" t="inlineStr"/>
       <c r="BZ85" s="33" t="inlineStr"/>
       <c r="CA85" s="33" t="inlineStr"/>
-      <c r="CB85" s="26" t="inlineStr"/>
-      <c r="CC85" s="27" t="inlineStr"/>
+      <c r="CB85" s="33" t="inlineStr"/>
+      <c r="CC85" s="33" t="inlineStr"/>
+      <c r="CD85" s="26" t="inlineStr"/>
+      <c r="CE85" s="27" t="inlineStr"/>
+      <c r="CF85" s="27" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8654,28 +9151,28 @@
       <c r="U86" s="19" t="inlineStr"/>
       <c r="V86" s="19" t="inlineStr"/>
       <c r="W86" s="19" t="inlineStr"/>
-      <c r="X86" s="20" t="inlineStr"/>
-      <c r="Y86" s="21" t="inlineStr"/>
+      <c r="X86" s="19" t="inlineStr"/>
+      <c r="Y86" s="20" t="inlineStr"/>
       <c r="Z86" s="21" t="inlineStr"/>
-      <c r="AA86" s="22" t="inlineStr"/>
+      <c r="AA86" s="21" t="inlineStr"/>
       <c r="AB86" s="22" t="inlineStr"/>
-      <c r="AC86" s="21" t="inlineStr"/>
-      <c r="AD86" s="23" t="inlineStr"/>
-      <c r="AE86" s="24" t="inlineStr"/>
+      <c r="AC86" s="22" t="inlineStr"/>
+      <c r="AD86" s="21" t="inlineStr"/>
+      <c r="AE86" s="23" t="inlineStr"/>
       <c r="AF86" s="24" t="inlineStr"/>
       <c r="AG86" s="24" t="inlineStr"/>
       <c r="AH86" s="24" t="inlineStr"/>
-      <c r="AI86" s="25" t="inlineStr"/>
-      <c r="AJ86" s="26" t="inlineStr"/>
-      <c r="AK86" s="27" t="inlineStr"/>
-      <c r="AL86" s="28" t="inlineStr"/>
-      <c r="AM86" s="29" t="inlineStr"/>
-      <c r="AN86" s="30" t="inlineStr"/>
-      <c r="AO86" s="17" t="inlineStr"/>
+      <c r="AI86" s="24" t="inlineStr"/>
+      <c r="AJ86" s="25" t="inlineStr"/>
+      <c r="AK86" s="26" t="inlineStr"/>
+      <c r="AL86" s="27" t="inlineStr"/>
+      <c r="AM86" s="28" t="inlineStr"/>
+      <c r="AN86" s="29" t="inlineStr"/>
+      <c r="AO86" s="30" t="inlineStr"/>
       <c r="AP86" s="17" t="inlineStr"/>
-      <c r="AQ86" s="31" t="inlineStr"/>
-      <c r="AR86" s="18" t="inlineStr"/>
-      <c r="AS86" s="19" t="inlineStr"/>
+      <c r="AQ86" s="17" t="inlineStr"/>
+      <c r="AR86" s="31" t="inlineStr"/>
+      <c r="AS86" s="18" t="inlineStr"/>
       <c r="AT86" s="19" t="inlineStr"/>
       <c r="AU86" s="19" t="inlineStr"/>
       <c r="AV86" s="19" t="inlineStr"/>
@@ -8684,11 +9181,11 @@
       <c r="AY86" s="19" t="inlineStr"/>
       <c r="AZ86" s="19" t="inlineStr"/>
       <c r="BA86" s="19" t="inlineStr"/>
-      <c r="BB86" s="20" t="inlineStr"/>
-      <c r="BC86" s="21" t="inlineStr"/>
+      <c r="BB86" s="19" t="inlineStr"/>
+      <c r="BC86" s="20" t="inlineStr"/>
       <c r="BD86" s="21" t="inlineStr"/>
-      <c r="BE86" s="23" t="inlineStr"/>
-      <c r="BF86" s="24" t="inlineStr"/>
+      <c r="BE86" s="21" t="inlineStr"/>
+      <c r="BF86" s="23" t="inlineStr"/>
       <c r="BG86" s="32" t="inlineStr"/>
       <c r="BH86" s="32" t="inlineStr"/>
       <c r="BI86" s="32" t="inlineStr"/>
@@ -8705,13 +9202,16 @@
       <c r="BT86" s="32" t="inlineStr"/>
       <c r="BU86" s="32" t="inlineStr"/>
       <c r="BV86" s="32" t="inlineStr"/>
-      <c r="BW86" s="25" t="inlineStr"/>
-      <c r="BX86" s="33" t="inlineStr"/>
-      <c r="BY86" s="33" t="inlineStr"/>
+      <c r="BW86" s="32" t="inlineStr"/>
+      <c r="BX86" s="32" t="inlineStr"/>
+      <c r="BY86" s="25" t="inlineStr"/>
       <c r="BZ86" s="33" t="inlineStr"/>
       <c r="CA86" s="33" t="inlineStr"/>
-      <c r="CB86" s="26" t="inlineStr"/>
-      <c r="CC86" s="27" t="inlineStr"/>
+      <c r="CB86" s="33" t="inlineStr"/>
+      <c r="CC86" s="33" t="inlineStr"/>
+      <c r="CD86" s="26" t="inlineStr"/>
+      <c r="CE86" s="27" t="inlineStr"/>
+      <c r="CF86" s="27" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8737,28 +9237,28 @@
       <c r="U87" s="19" t="inlineStr"/>
       <c r="V87" s="19" t="inlineStr"/>
       <c r="W87" s="19" t="inlineStr"/>
-      <c r="X87" s="20" t="inlineStr"/>
-      <c r="Y87" s="21" t="inlineStr"/>
+      <c r="X87" s="19" t="inlineStr"/>
+      <c r="Y87" s="20" t="inlineStr"/>
       <c r="Z87" s="21" t="inlineStr"/>
-      <c r="AA87" s="22" t="inlineStr"/>
+      <c r="AA87" s="21" t="inlineStr"/>
       <c r="AB87" s="22" t="inlineStr"/>
-      <c r="AC87" s="21" t="inlineStr"/>
-      <c r="AD87" s="23" t="inlineStr"/>
-      <c r="AE87" s="24" t="inlineStr"/>
+      <c r="AC87" s="22" t="inlineStr"/>
+      <c r="AD87" s="21" t="inlineStr"/>
+      <c r="AE87" s="23" t="inlineStr"/>
       <c r="AF87" s="24" t="inlineStr"/>
       <c r="AG87" s="24" t="inlineStr"/>
       <c r="AH87" s="24" t="inlineStr"/>
-      <c r="AI87" s="25" t="inlineStr"/>
-      <c r="AJ87" s="26" t="inlineStr"/>
-      <c r="AK87" s="27" t="inlineStr"/>
-      <c r="AL87" s="28" t="inlineStr"/>
-      <c r="AM87" s="29" t="inlineStr"/>
-      <c r="AN87" s="30" t="inlineStr"/>
-      <c r="AO87" s="17" t="inlineStr"/>
+      <c r="AI87" s="24" t="inlineStr"/>
+      <c r="AJ87" s="25" t="inlineStr"/>
+      <c r="AK87" s="26" t="inlineStr"/>
+      <c r="AL87" s="27" t="inlineStr"/>
+      <c r="AM87" s="28" t="inlineStr"/>
+      <c r="AN87" s="29" t="inlineStr"/>
+      <c r="AO87" s="30" t="inlineStr"/>
       <c r="AP87" s="17" t="inlineStr"/>
-      <c r="AQ87" s="31" t="inlineStr"/>
-      <c r="AR87" s="18" t="inlineStr"/>
-      <c r="AS87" s="19" t="inlineStr"/>
+      <c r="AQ87" s="17" t="inlineStr"/>
+      <c r="AR87" s="31" t="inlineStr"/>
+      <c r="AS87" s="18" t="inlineStr"/>
       <c r="AT87" s="19" t="inlineStr"/>
       <c r="AU87" s="19" t="inlineStr"/>
       <c r="AV87" s="19" t="inlineStr"/>
@@ -8767,11 +9267,11 @@
       <c r="AY87" s="19" t="inlineStr"/>
       <c r="AZ87" s="19" t="inlineStr"/>
       <c r="BA87" s="19" t="inlineStr"/>
-      <c r="BB87" s="20" t="inlineStr"/>
-      <c r="BC87" s="21" t="inlineStr"/>
+      <c r="BB87" s="19" t="inlineStr"/>
+      <c r="BC87" s="20" t="inlineStr"/>
       <c r="BD87" s="21" t="inlineStr"/>
-      <c r="BE87" s="23" t="inlineStr"/>
-      <c r="BF87" s="24" t="inlineStr"/>
+      <c r="BE87" s="21" t="inlineStr"/>
+      <c r="BF87" s="23" t="inlineStr"/>
       <c r="BG87" s="32" t="inlineStr"/>
       <c r="BH87" s="32" t="inlineStr"/>
       <c r="BI87" s="32" t="inlineStr"/>
@@ -8788,13 +9288,16 @@
       <c r="BT87" s="32" t="inlineStr"/>
       <c r="BU87" s="32" t="inlineStr"/>
       <c r="BV87" s="32" t="inlineStr"/>
-      <c r="BW87" s="25" t="inlineStr"/>
-      <c r="BX87" s="33" t="inlineStr"/>
-      <c r="BY87" s="33" t="inlineStr"/>
+      <c r="BW87" s="32" t="inlineStr"/>
+      <c r="BX87" s="32" t="inlineStr"/>
+      <c r="BY87" s="25" t="inlineStr"/>
       <c r="BZ87" s="33" t="inlineStr"/>
       <c r="CA87" s="33" t="inlineStr"/>
-      <c r="CB87" s="26" t="inlineStr"/>
-      <c r="CC87" s="27" t="inlineStr"/>
+      <c r="CB87" s="33" t="inlineStr"/>
+      <c r="CC87" s="33" t="inlineStr"/>
+      <c r="CD87" s="26" t="inlineStr"/>
+      <c r="CE87" s="27" t="inlineStr"/>
+      <c r="CF87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -8820,28 +9323,28 @@
       <c r="U88" s="19" t="inlineStr"/>
       <c r="V88" s="19" t="inlineStr"/>
       <c r="W88" s="19" t="inlineStr"/>
-      <c r="X88" s="20" t="inlineStr"/>
-      <c r="Y88" s="21" t="inlineStr"/>
+      <c r="X88" s="19" t="inlineStr"/>
+      <c r="Y88" s="20" t="inlineStr"/>
       <c r="Z88" s="21" t="inlineStr"/>
-      <c r="AA88" s="22" t="inlineStr"/>
+      <c r="AA88" s="21" t="inlineStr"/>
       <c r="AB88" s="22" t="inlineStr"/>
-      <c r="AC88" s="21" t="inlineStr"/>
-      <c r="AD88" s="23" t="inlineStr"/>
-      <c r="AE88" s="24" t="inlineStr"/>
+      <c r="AC88" s="22" t="inlineStr"/>
+      <c r="AD88" s="21" t="inlineStr"/>
+      <c r="AE88" s="23" t="inlineStr"/>
       <c r="AF88" s="24" t="inlineStr"/>
       <c r="AG88" s="24" t="inlineStr"/>
       <c r="AH88" s="24" t="inlineStr"/>
-      <c r="AI88" s="25" t="inlineStr"/>
-      <c r="AJ88" s="26" t="inlineStr"/>
-      <c r="AK88" s="27" t="inlineStr"/>
-      <c r="AL88" s="28" t="inlineStr"/>
-      <c r="AM88" s="29" t="inlineStr"/>
-      <c r="AN88" s="30" t="inlineStr"/>
-      <c r="AO88" s="17" t="inlineStr"/>
+      <c r="AI88" s="24" t="inlineStr"/>
+      <c r="AJ88" s="25" t="inlineStr"/>
+      <c r="AK88" s="26" t="inlineStr"/>
+      <c r="AL88" s="27" t="inlineStr"/>
+      <c r="AM88" s="28" t="inlineStr"/>
+      <c r="AN88" s="29" t="inlineStr"/>
+      <c r="AO88" s="30" t="inlineStr"/>
       <c r="AP88" s="17" t="inlineStr"/>
-      <c r="AQ88" s="31" t="inlineStr"/>
-      <c r="AR88" s="18" t="inlineStr"/>
-      <c r="AS88" s="19" t="inlineStr"/>
+      <c r="AQ88" s="17" t="inlineStr"/>
+      <c r="AR88" s="31" t="inlineStr"/>
+      <c r="AS88" s="18" t="inlineStr"/>
       <c r="AT88" s="19" t="inlineStr"/>
       <c r="AU88" s="19" t="inlineStr"/>
       <c r="AV88" s="19" t="inlineStr"/>
@@ -8850,11 +9353,11 @@
       <c r="AY88" s="19" t="inlineStr"/>
       <c r="AZ88" s="19" t="inlineStr"/>
       <c r="BA88" s="19" t="inlineStr"/>
-      <c r="BB88" s="20" t="inlineStr"/>
-      <c r="BC88" s="21" t="inlineStr"/>
+      <c r="BB88" s="19" t="inlineStr"/>
+      <c r="BC88" s="20" t="inlineStr"/>
       <c r="BD88" s="21" t="inlineStr"/>
-      <c r="BE88" s="23" t="inlineStr"/>
-      <c r="BF88" s="24" t="inlineStr"/>
+      <c r="BE88" s="21" t="inlineStr"/>
+      <c r="BF88" s="23" t="inlineStr"/>
       <c r="BG88" s="32" t="inlineStr"/>
       <c r="BH88" s="32" t="inlineStr"/>
       <c r="BI88" s="32" t="inlineStr"/>
@@ -8871,13 +9374,16 @@
       <c r="BT88" s="32" t="inlineStr"/>
       <c r="BU88" s="32" t="inlineStr"/>
       <c r="BV88" s="32" t="inlineStr"/>
-      <c r="BW88" s="25" t="inlineStr"/>
-      <c r="BX88" s="33" t="inlineStr"/>
-      <c r="BY88" s="33" t="inlineStr"/>
+      <c r="BW88" s="32" t="inlineStr"/>
+      <c r="BX88" s="32" t="inlineStr"/>
+      <c r="BY88" s="25" t="inlineStr"/>
       <c r="BZ88" s="33" t="inlineStr"/>
       <c r="CA88" s="33" t="inlineStr"/>
-      <c r="CB88" s="26" t="inlineStr"/>
-      <c r="CC88" s="27" t="inlineStr"/>
+      <c r="CB88" s="33" t="inlineStr"/>
+      <c r="CC88" s="33" t="inlineStr"/>
+      <c r="CD88" s="26" t="inlineStr"/>
+      <c r="CE88" s="27" t="inlineStr"/>
+      <c r="CF88" s="27" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -8903,28 +9409,28 @@
       <c r="U89" s="19" t="inlineStr"/>
       <c r="V89" s="19" t="inlineStr"/>
       <c r="W89" s="19" t="inlineStr"/>
-      <c r="X89" s="20" t="inlineStr"/>
-      <c r="Y89" s="21" t="inlineStr"/>
+      <c r="X89" s="19" t="inlineStr"/>
+      <c r="Y89" s="20" t="inlineStr"/>
       <c r="Z89" s="21" t="inlineStr"/>
-      <c r="AA89" s="22" t="inlineStr"/>
+      <c r="AA89" s="21" t="inlineStr"/>
       <c r="AB89" s="22" t="inlineStr"/>
-      <c r="AC89" s="21" t="inlineStr"/>
-      <c r="AD89" s="23" t="inlineStr"/>
-      <c r="AE89" s="24" t="inlineStr"/>
+      <c r="AC89" s="22" t="inlineStr"/>
+      <c r="AD89" s="21" t="inlineStr"/>
+      <c r="AE89" s="23" t="inlineStr"/>
       <c r="AF89" s="24" t="inlineStr"/>
       <c r="AG89" s="24" t="inlineStr"/>
       <c r="AH89" s="24" t="inlineStr"/>
-      <c r="AI89" s="25" t="inlineStr"/>
-      <c r="AJ89" s="26" t="inlineStr"/>
-      <c r="AK89" s="27" t="inlineStr"/>
-      <c r="AL89" s="28" t="inlineStr"/>
-      <c r="AM89" s="29" t="inlineStr"/>
-      <c r="AN89" s="30" t="inlineStr"/>
-      <c r="AO89" s="17" t="inlineStr"/>
+      <c r="AI89" s="24" t="inlineStr"/>
+      <c r="AJ89" s="25" t="inlineStr"/>
+      <c r="AK89" s="26" t="inlineStr"/>
+      <c r="AL89" s="27" t="inlineStr"/>
+      <c r="AM89" s="28" t="inlineStr"/>
+      <c r="AN89" s="29" t="inlineStr"/>
+      <c r="AO89" s="30" t="inlineStr"/>
       <c r="AP89" s="17" t="inlineStr"/>
-      <c r="AQ89" s="31" t="inlineStr"/>
-      <c r="AR89" s="18" t="inlineStr"/>
-      <c r="AS89" s="19" t="inlineStr"/>
+      <c r="AQ89" s="17" t="inlineStr"/>
+      <c r="AR89" s="31" t="inlineStr"/>
+      <c r="AS89" s="18" t="inlineStr"/>
       <c r="AT89" s="19" t="inlineStr"/>
       <c r="AU89" s="19" t="inlineStr"/>
       <c r="AV89" s="19" t="inlineStr"/>
@@ -8933,11 +9439,11 @@
       <c r="AY89" s="19" t="inlineStr"/>
       <c r="AZ89" s="19" t="inlineStr"/>
       <c r="BA89" s="19" t="inlineStr"/>
-      <c r="BB89" s="20" t="inlineStr"/>
-      <c r="BC89" s="21" t="inlineStr"/>
+      <c r="BB89" s="19" t="inlineStr"/>
+      <c r="BC89" s="20" t="inlineStr"/>
       <c r="BD89" s="21" t="inlineStr"/>
-      <c r="BE89" s="23" t="inlineStr"/>
-      <c r="BF89" s="24" t="inlineStr"/>
+      <c r="BE89" s="21" t="inlineStr"/>
+      <c r="BF89" s="23" t="inlineStr"/>
       <c r="BG89" s="32" t="inlineStr"/>
       <c r="BH89" s="32" t="inlineStr"/>
       <c r="BI89" s="32" t="inlineStr"/>
@@ -8954,13 +9460,16 @@
       <c r="BT89" s="32" t="inlineStr"/>
       <c r="BU89" s="32" t="inlineStr"/>
       <c r="BV89" s="32" t="inlineStr"/>
-      <c r="BW89" s="25" t="inlineStr"/>
-      <c r="BX89" s="33" t="inlineStr"/>
-      <c r="BY89" s="33" t="inlineStr"/>
+      <c r="BW89" s="32" t="inlineStr"/>
+      <c r="BX89" s="32" t="inlineStr"/>
+      <c r="BY89" s="25" t="inlineStr"/>
       <c r="BZ89" s="33" t="inlineStr"/>
       <c r="CA89" s="33" t="inlineStr"/>
-      <c r="CB89" s="26" t="inlineStr"/>
-      <c r="CC89" s="27" t="inlineStr"/>
+      <c r="CB89" s="33" t="inlineStr"/>
+      <c r="CC89" s="33" t="inlineStr"/>
+      <c r="CD89" s="26" t="inlineStr"/>
+      <c r="CE89" s="27" t="inlineStr"/>
+      <c r="CF89" s="27" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -8986,28 +9495,28 @@
       <c r="U90" s="19" t="inlineStr"/>
       <c r="V90" s="19" t="inlineStr"/>
       <c r="W90" s="19" t="inlineStr"/>
-      <c r="X90" s="20" t="inlineStr"/>
-      <c r="Y90" s="21" t="inlineStr"/>
+      <c r="X90" s="19" t="inlineStr"/>
+      <c r="Y90" s="20" t="inlineStr"/>
       <c r="Z90" s="21" t="inlineStr"/>
-      <c r="AA90" s="22" t="inlineStr"/>
+      <c r="AA90" s="21" t="inlineStr"/>
       <c r="AB90" s="22" t="inlineStr"/>
-      <c r="AC90" s="21" t="inlineStr"/>
-      <c r="AD90" s="23" t="inlineStr"/>
-      <c r="AE90" s="24" t="inlineStr"/>
+      <c r="AC90" s="22" t="inlineStr"/>
+      <c r="AD90" s="21" t="inlineStr"/>
+      <c r="AE90" s="23" t="inlineStr"/>
       <c r="AF90" s="24" t="inlineStr"/>
       <c r="AG90" s="24" t="inlineStr"/>
       <c r="AH90" s="24" t="inlineStr"/>
-      <c r="AI90" s="25" t="inlineStr"/>
-      <c r="AJ90" s="26" t="inlineStr"/>
-      <c r="AK90" s="27" t="inlineStr"/>
-      <c r="AL90" s="28" t="inlineStr"/>
-      <c r="AM90" s="29" t="inlineStr"/>
-      <c r="AN90" s="30" t="inlineStr"/>
-      <c r="AO90" s="17" t="inlineStr"/>
+      <c r="AI90" s="24" t="inlineStr"/>
+      <c r="AJ90" s="25" t="inlineStr"/>
+      <c r="AK90" s="26" t="inlineStr"/>
+      <c r="AL90" s="27" t="inlineStr"/>
+      <c r="AM90" s="28" t="inlineStr"/>
+      <c r="AN90" s="29" t="inlineStr"/>
+      <c r="AO90" s="30" t="inlineStr"/>
       <c r="AP90" s="17" t="inlineStr"/>
-      <c r="AQ90" s="31" t="inlineStr"/>
-      <c r="AR90" s="18" t="inlineStr"/>
-      <c r="AS90" s="19" t="inlineStr"/>
+      <c r="AQ90" s="17" t="inlineStr"/>
+      <c r="AR90" s="31" t="inlineStr"/>
+      <c r="AS90" s="18" t="inlineStr"/>
       <c r="AT90" s="19" t="inlineStr"/>
       <c r="AU90" s="19" t="inlineStr"/>
       <c r="AV90" s="19" t="inlineStr"/>
@@ -9016,11 +9525,11 @@
       <c r="AY90" s="19" t="inlineStr"/>
       <c r="AZ90" s="19" t="inlineStr"/>
       <c r="BA90" s="19" t="inlineStr"/>
-      <c r="BB90" s="20" t="inlineStr"/>
-      <c r="BC90" s="21" t="inlineStr"/>
+      <c r="BB90" s="19" t="inlineStr"/>
+      <c r="BC90" s="20" t="inlineStr"/>
       <c r="BD90" s="21" t="inlineStr"/>
-      <c r="BE90" s="23" t="inlineStr"/>
-      <c r="BF90" s="24" t="inlineStr"/>
+      <c r="BE90" s="21" t="inlineStr"/>
+      <c r="BF90" s="23" t="inlineStr"/>
       <c r="BG90" s="32" t="inlineStr"/>
       <c r="BH90" s="32" t="inlineStr"/>
       <c r="BI90" s="32" t="inlineStr"/>
@@ -9037,13 +9546,16 @@
       <c r="BT90" s="32" t="inlineStr"/>
       <c r="BU90" s="32" t="inlineStr"/>
       <c r="BV90" s="32" t="inlineStr"/>
-      <c r="BW90" s="25" t="inlineStr"/>
-      <c r="BX90" s="33" t="inlineStr"/>
-      <c r="BY90" s="33" t="inlineStr"/>
+      <c r="BW90" s="32" t="inlineStr"/>
+      <c r="BX90" s="32" t="inlineStr"/>
+      <c r="BY90" s="25" t="inlineStr"/>
       <c r="BZ90" s="33" t="inlineStr"/>
       <c r="CA90" s="33" t="inlineStr"/>
-      <c r="CB90" s="26" t="inlineStr"/>
-      <c r="CC90" s="27" t="inlineStr"/>
+      <c r="CB90" s="33" t="inlineStr"/>
+      <c r="CC90" s="33" t="inlineStr"/>
+      <c r="CD90" s="26" t="inlineStr"/>
+      <c r="CE90" s="27" t="inlineStr"/>
+      <c r="CF90" s="27" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -9069,28 +9581,28 @@
       <c r="U91" s="19" t="inlineStr"/>
       <c r="V91" s="19" t="inlineStr"/>
       <c r="W91" s="19" t="inlineStr"/>
-      <c r="X91" s="20" t="inlineStr"/>
-      <c r="Y91" s="21" t="inlineStr"/>
+      <c r="X91" s="19" t="inlineStr"/>
+      <c r="Y91" s="20" t="inlineStr"/>
       <c r="Z91" s="21" t="inlineStr"/>
-      <c r="AA91" s="22" t="inlineStr"/>
+      <c r="AA91" s="21" t="inlineStr"/>
       <c r="AB91" s="22" t="inlineStr"/>
-      <c r="AC91" s="21" t="inlineStr"/>
-      <c r="AD91" s="23" t="inlineStr"/>
-      <c r="AE91" s="24" t="inlineStr"/>
+      <c r="AC91" s="22" t="inlineStr"/>
+      <c r="AD91" s="21" t="inlineStr"/>
+      <c r="AE91" s="23" t="inlineStr"/>
       <c r="AF91" s="24" t="inlineStr"/>
       <c r="AG91" s="24" t="inlineStr"/>
       <c r="AH91" s="24" t="inlineStr"/>
-      <c r="AI91" s="25" t="inlineStr"/>
-      <c r="AJ91" s="26" t="inlineStr"/>
-      <c r="AK91" s="27" t="inlineStr"/>
-      <c r="AL91" s="28" t="inlineStr"/>
-      <c r="AM91" s="29" t="inlineStr"/>
-      <c r="AN91" s="30" t="inlineStr"/>
-      <c r="AO91" s="17" t="inlineStr"/>
+      <c r="AI91" s="24" t="inlineStr"/>
+      <c r="AJ91" s="25" t="inlineStr"/>
+      <c r="AK91" s="26" t="inlineStr"/>
+      <c r="AL91" s="27" t="inlineStr"/>
+      <c r="AM91" s="28" t="inlineStr"/>
+      <c r="AN91" s="29" t="inlineStr"/>
+      <c r="AO91" s="30" t="inlineStr"/>
       <c r="AP91" s="17" t="inlineStr"/>
-      <c r="AQ91" s="31" t="inlineStr"/>
-      <c r="AR91" s="18" t="inlineStr"/>
-      <c r="AS91" s="19" t="inlineStr"/>
+      <c r="AQ91" s="17" t="inlineStr"/>
+      <c r="AR91" s="31" t="inlineStr"/>
+      <c r="AS91" s="18" t="inlineStr"/>
       <c r="AT91" s="19" t="inlineStr"/>
       <c r="AU91" s="19" t="inlineStr"/>
       <c r="AV91" s="19" t="inlineStr"/>
@@ -9099,11 +9611,11 @@
       <c r="AY91" s="19" t="inlineStr"/>
       <c r="AZ91" s="19" t="inlineStr"/>
       <c r="BA91" s="19" t="inlineStr"/>
-      <c r="BB91" s="20" t="inlineStr"/>
-      <c r="BC91" s="21" t="inlineStr"/>
+      <c r="BB91" s="19" t="inlineStr"/>
+      <c r="BC91" s="20" t="inlineStr"/>
       <c r="BD91" s="21" t="inlineStr"/>
-      <c r="BE91" s="23" t="inlineStr"/>
-      <c r="BF91" s="24" t="inlineStr"/>
+      <c r="BE91" s="21" t="inlineStr"/>
+      <c r="BF91" s="23" t="inlineStr"/>
       <c r="BG91" s="32" t="inlineStr"/>
       <c r="BH91" s="32" t="inlineStr"/>
       <c r="BI91" s="32" t="inlineStr"/>
@@ -9120,13 +9632,16 @@
       <c r="BT91" s="32" t="inlineStr"/>
       <c r="BU91" s="32" t="inlineStr"/>
       <c r="BV91" s="32" t="inlineStr"/>
-      <c r="BW91" s="25" t="inlineStr"/>
-      <c r="BX91" s="33" t="inlineStr"/>
-      <c r="BY91" s="33" t="inlineStr"/>
+      <c r="BW91" s="32" t="inlineStr"/>
+      <c r="BX91" s="32" t="inlineStr"/>
+      <c r="BY91" s="25" t="inlineStr"/>
       <c r="BZ91" s="33" t="inlineStr"/>
       <c r="CA91" s="33" t="inlineStr"/>
-      <c r="CB91" s="26" t="inlineStr"/>
-      <c r="CC91" s="27" t="inlineStr"/>
+      <c r="CB91" s="33" t="inlineStr"/>
+      <c r="CC91" s="33" t="inlineStr"/>
+      <c r="CD91" s="26" t="inlineStr"/>
+      <c r="CE91" s="27" t="inlineStr"/>
+      <c r="CF91" s="27" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9152,28 +9667,28 @@
       <c r="U92" s="19" t="inlineStr"/>
       <c r="V92" s="19" t="inlineStr"/>
       <c r="W92" s="19" t="inlineStr"/>
-      <c r="X92" s="20" t="inlineStr"/>
-      <c r="Y92" s="21" t="inlineStr"/>
+      <c r="X92" s="19" t="inlineStr"/>
+      <c r="Y92" s="20" t="inlineStr"/>
       <c r="Z92" s="21" t="inlineStr"/>
-      <c r="AA92" s="22" t="inlineStr"/>
+      <c r="AA92" s="21" t="inlineStr"/>
       <c r="AB92" s="22" t="inlineStr"/>
-      <c r="AC92" s="21" t="inlineStr"/>
-      <c r="AD92" s="23" t="inlineStr"/>
-      <c r="AE92" s="24" t="inlineStr"/>
+      <c r="AC92" s="22" t="inlineStr"/>
+      <c r="AD92" s="21" t="inlineStr"/>
+      <c r="AE92" s="23" t="inlineStr"/>
       <c r="AF92" s="24" t="inlineStr"/>
       <c r="AG92" s="24" t="inlineStr"/>
       <c r="AH92" s="24" t="inlineStr"/>
-      <c r="AI92" s="25" t="inlineStr"/>
-      <c r="AJ92" s="26" t="inlineStr"/>
-      <c r="AK92" s="27" t="inlineStr"/>
-      <c r="AL92" s="28" t="inlineStr"/>
-      <c r="AM92" s="29" t="inlineStr"/>
-      <c r="AN92" s="30" t="inlineStr"/>
-      <c r="AO92" s="17" t="inlineStr"/>
+      <c r="AI92" s="24" t="inlineStr"/>
+      <c r="AJ92" s="25" t="inlineStr"/>
+      <c r="AK92" s="26" t="inlineStr"/>
+      <c r="AL92" s="27" t="inlineStr"/>
+      <c r="AM92" s="28" t="inlineStr"/>
+      <c r="AN92" s="29" t="inlineStr"/>
+      <c r="AO92" s="30" t="inlineStr"/>
       <c r="AP92" s="17" t="inlineStr"/>
-      <c r="AQ92" s="31" t="inlineStr"/>
-      <c r="AR92" s="18" t="inlineStr"/>
-      <c r="AS92" s="19" t="inlineStr"/>
+      <c r="AQ92" s="17" t="inlineStr"/>
+      <c r="AR92" s="31" t="inlineStr"/>
+      <c r="AS92" s="18" t="inlineStr"/>
       <c r="AT92" s="19" t="inlineStr"/>
       <c r="AU92" s="19" t="inlineStr"/>
       <c r="AV92" s="19" t="inlineStr"/>
@@ -9182,11 +9697,11 @@
       <c r="AY92" s="19" t="inlineStr"/>
       <c r="AZ92" s="19" t="inlineStr"/>
       <c r="BA92" s="19" t="inlineStr"/>
-      <c r="BB92" s="20" t="inlineStr"/>
-      <c r="BC92" s="21" t="inlineStr"/>
+      <c r="BB92" s="19" t="inlineStr"/>
+      <c r="BC92" s="20" t="inlineStr"/>
       <c r="BD92" s="21" t="inlineStr"/>
-      <c r="BE92" s="23" t="inlineStr"/>
-      <c r="BF92" s="24" t="inlineStr"/>
+      <c r="BE92" s="21" t="inlineStr"/>
+      <c r="BF92" s="23" t="inlineStr"/>
       <c r="BG92" s="32" t="inlineStr"/>
       <c r="BH92" s="32" t="inlineStr"/>
       <c r="BI92" s="32" t="inlineStr"/>
@@ -9203,13 +9718,16 @@
       <c r="BT92" s="32" t="inlineStr"/>
       <c r="BU92" s="32" t="inlineStr"/>
       <c r="BV92" s="32" t="inlineStr"/>
-      <c r="BW92" s="25" t="inlineStr"/>
-      <c r="BX92" s="33" t="inlineStr"/>
-      <c r="BY92" s="33" t="inlineStr"/>
+      <c r="BW92" s="32" t="inlineStr"/>
+      <c r="BX92" s="32" t="inlineStr"/>
+      <c r="BY92" s="25" t="inlineStr"/>
       <c r="BZ92" s="33" t="inlineStr"/>
       <c r="CA92" s="33" t="inlineStr"/>
-      <c r="CB92" s="26" t="inlineStr"/>
-      <c r="CC92" s="27" t="inlineStr"/>
+      <c r="CB92" s="33" t="inlineStr"/>
+      <c r="CC92" s="33" t="inlineStr"/>
+      <c r="CD92" s="26" t="inlineStr"/>
+      <c r="CE92" s="27" t="inlineStr"/>
+      <c r="CF92" s="27" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9235,28 +9753,28 @@
       <c r="U93" s="19" t="inlineStr"/>
       <c r="V93" s="19" t="inlineStr"/>
       <c r="W93" s="19" t="inlineStr"/>
-      <c r="X93" s="20" t="inlineStr"/>
-      <c r="Y93" s="21" t="inlineStr"/>
+      <c r="X93" s="19" t="inlineStr"/>
+      <c r="Y93" s="20" t="inlineStr"/>
       <c r="Z93" s="21" t="inlineStr"/>
-      <c r="AA93" s="22" t="inlineStr"/>
+      <c r="AA93" s="21" t="inlineStr"/>
       <c r="AB93" s="22" t="inlineStr"/>
-      <c r="AC93" s="21" t="inlineStr"/>
-      <c r="AD93" s="23" t="inlineStr"/>
-      <c r="AE93" s="24" t="inlineStr"/>
+      <c r="AC93" s="22" t="inlineStr"/>
+      <c r="AD93" s="21" t="inlineStr"/>
+      <c r="AE93" s="23" t="inlineStr"/>
       <c r="AF93" s="24" t="inlineStr"/>
       <c r="AG93" s="24" t="inlineStr"/>
       <c r="AH93" s="24" t="inlineStr"/>
-      <c r="AI93" s="25" t="inlineStr"/>
-      <c r="AJ93" s="26" t="inlineStr"/>
-      <c r="AK93" s="27" t="inlineStr"/>
-      <c r="AL93" s="28" t="inlineStr"/>
-      <c r="AM93" s="29" t="inlineStr"/>
-      <c r="AN93" s="30" t="inlineStr"/>
-      <c r="AO93" s="17" t="inlineStr"/>
+      <c r="AI93" s="24" t="inlineStr"/>
+      <c r="AJ93" s="25" t="inlineStr"/>
+      <c r="AK93" s="26" t="inlineStr"/>
+      <c r="AL93" s="27" t="inlineStr"/>
+      <c r="AM93" s="28" t="inlineStr"/>
+      <c r="AN93" s="29" t="inlineStr"/>
+      <c r="AO93" s="30" t="inlineStr"/>
       <c r="AP93" s="17" t="inlineStr"/>
-      <c r="AQ93" s="31" t="inlineStr"/>
-      <c r="AR93" s="18" t="inlineStr"/>
-      <c r="AS93" s="19" t="inlineStr"/>
+      <c r="AQ93" s="17" t="inlineStr"/>
+      <c r="AR93" s="31" t="inlineStr"/>
+      <c r="AS93" s="18" t="inlineStr"/>
       <c r="AT93" s="19" t="inlineStr"/>
       <c r="AU93" s="19" t="inlineStr"/>
       <c r="AV93" s="19" t="inlineStr"/>
@@ -9265,11 +9783,11 @@
       <c r="AY93" s="19" t="inlineStr"/>
       <c r="AZ93" s="19" t="inlineStr"/>
       <c r="BA93" s="19" t="inlineStr"/>
-      <c r="BB93" s="20" t="inlineStr"/>
-      <c r="BC93" s="21" t="inlineStr"/>
+      <c r="BB93" s="19" t="inlineStr"/>
+      <c r="BC93" s="20" t="inlineStr"/>
       <c r="BD93" s="21" t="inlineStr"/>
-      <c r="BE93" s="23" t="inlineStr"/>
-      <c r="BF93" s="24" t="inlineStr"/>
+      <c r="BE93" s="21" t="inlineStr"/>
+      <c r="BF93" s="23" t="inlineStr"/>
       <c r="BG93" s="32" t="inlineStr"/>
       <c r="BH93" s="32" t="inlineStr"/>
       <c r="BI93" s="32" t="inlineStr"/>
@@ -9286,13 +9804,16 @@
       <c r="BT93" s="32" t="inlineStr"/>
       <c r="BU93" s="32" t="inlineStr"/>
       <c r="BV93" s="32" t="inlineStr"/>
-      <c r="BW93" s="25" t="inlineStr"/>
-      <c r="BX93" s="33" t="inlineStr"/>
-      <c r="BY93" s="33" t="inlineStr"/>
+      <c r="BW93" s="32" t="inlineStr"/>
+      <c r="BX93" s="32" t="inlineStr"/>
+      <c r="BY93" s="25" t="inlineStr"/>
       <c r="BZ93" s="33" t="inlineStr"/>
       <c r="CA93" s="33" t="inlineStr"/>
-      <c r="CB93" s="26" t="inlineStr"/>
-      <c r="CC93" s="27" t="inlineStr"/>
+      <c r="CB93" s="33" t="inlineStr"/>
+      <c r="CC93" s="33" t="inlineStr"/>
+      <c r="CD93" s="26" t="inlineStr"/>
+      <c r="CE93" s="27" t="inlineStr"/>
+      <c r="CF93" s="27" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9318,28 +9839,28 @@
       <c r="U94" s="19" t="inlineStr"/>
       <c r="V94" s="19" t="inlineStr"/>
       <c r="W94" s="19" t="inlineStr"/>
-      <c r="X94" s="20" t="inlineStr"/>
-      <c r="Y94" s="21" t="inlineStr"/>
+      <c r="X94" s="19" t="inlineStr"/>
+      <c r="Y94" s="20" t="inlineStr"/>
       <c r="Z94" s="21" t="inlineStr"/>
-      <c r="AA94" s="22" t="inlineStr"/>
+      <c r="AA94" s="21" t="inlineStr"/>
       <c r="AB94" s="22" t="inlineStr"/>
-      <c r="AC94" s="21" t="inlineStr"/>
-      <c r="AD94" s="23" t="inlineStr"/>
-      <c r="AE94" s="24" t="inlineStr"/>
+      <c r="AC94" s="22" t="inlineStr"/>
+      <c r="AD94" s="21" t="inlineStr"/>
+      <c r="AE94" s="23" t="inlineStr"/>
       <c r="AF94" s="24" t="inlineStr"/>
       <c r="AG94" s="24" t="inlineStr"/>
       <c r="AH94" s="24" t="inlineStr"/>
-      <c r="AI94" s="25" t="inlineStr"/>
-      <c r="AJ94" s="26" t="inlineStr"/>
-      <c r="AK94" s="27" t="inlineStr"/>
-      <c r="AL94" s="28" t="inlineStr"/>
-      <c r="AM94" s="29" t="inlineStr"/>
-      <c r="AN94" s="30" t="inlineStr"/>
-      <c r="AO94" s="17" t="inlineStr"/>
+      <c r="AI94" s="24" t="inlineStr"/>
+      <c r="AJ94" s="25" t="inlineStr"/>
+      <c r="AK94" s="26" t="inlineStr"/>
+      <c r="AL94" s="27" t="inlineStr"/>
+      <c r="AM94" s="28" t="inlineStr"/>
+      <c r="AN94" s="29" t="inlineStr"/>
+      <c r="AO94" s="30" t="inlineStr"/>
       <c r="AP94" s="17" t="inlineStr"/>
-      <c r="AQ94" s="31" t="inlineStr"/>
-      <c r="AR94" s="18" t="inlineStr"/>
-      <c r="AS94" s="19" t="inlineStr"/>
+      <c r="AQ94" s="17" t="inlineStr"/>
+      <c r="AR94" s="31" t="inlineStr"/>
+      <c r="AS94" s="18" t="inlineStr"/>
       <c r="AT94" s="19" t="inlineStr"/>
       <c r="AU94" s="19" t="inlineStr"/>
       <c r="AV94" s="19" t="inlineStr"/>
@@ -9348,11 +9869,11 @@
       <c r="AY94" s="19" t="inlineStr"/>
       <c r="AZ94" s="19" t="inlineStr"/>
       <c r="BA94" s="19" t="inlineStr"/>
-      <c r="BB94" s="20" t="inlineStr"/>
-      <c r="BC94" s="21" t="inlineStr"/>
+      <c r="BB94" s="19" t="inlineStr"/>
+      <c r="BC94" s="20" t="inlineStr"/>
       <c r="BD94" s="21" t="inlineStr"/>
-      <c r="BE94" s="23" t="inlineStr"/>
-      <c r="BF94" s="24" t="inlineStr"/>
+      <c r="BE94" s="21" t="inlineStr"/>
+      <c r="BF94" s="23" t="inlineStr"/>
       <c r="BG94" s="32" t="inlineStr"/>
       <c r="BH94" s="32" t="inlineStr"/>
       <c r="BI94" s="32" t="inlineStr"/>
@@ -9369,13 +9890,16 @@
       <c r="BT94" s="32" t="inlineStr"/>
       <c r="BU94" s="32" t="inlineStr"/>
       <c r="BV94" s="32" t="inlineStr"/>
-      <c r="BW94" s="25" t="inlineStr"/>
-      <c r="BX94" s="33" t="inlineStr"/>
-      <c r="BY94" s="33" t="inlineStr"/>
+      <c r="BW94" s="32" t="inlineStr"/>
+      <c r="BX94" s="32" t="inlineStr"/>
+      <c r="BY94" s="25" t="inlineStr"/>
       <c r="BZ94" s="33" t="inlineStr"/>
       <c r="CA94" s="33" t="inlineStr"/>
-      <c r="CB94" s="26" t="inlineStr"/>
-      <c r="CC94" s="27" t="inlineStr"/>
+      <c r="CB94" s="33" t="inlineStr"/>
+      <c r="CC94" s="33" t="inlineStr"/>
+      <c r="CD94" s="26" t="inlineStr"/>
+      <c r="CE94" s="27" t="inlineStr"/>
+      <c r="CF94" s="27" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9401,28 +9925,28 @@
       <c r="U95" s="19" t="inlineStr"/>
       <c r="V95" s="19" t="inlineStr"/>
       <c r="W95" s="19" t="inlineStr"/>
-      <c r="X95" s="20" t="inlineStr"/>
-      <c r="Y95" s="21" t="inlineStr"/>
+      <c r="X95" s="19" t="inlineStr"/>
+      <c r="Y95" s="20" t="inlineStr"/>
       <c r="Z95" s="21" t="inlineStr"/>
-      <c r="AA95" s="22" t="inlineStr"/>
+      <c r="AA95" s="21" t="inlineStr"/>
       <c r="AB95" s="22" t="inlineStr"/>
-      <c r="AC95" s="21" t="inlineStr"/>
-      <c r="AD95" s="23" t="inlineStr"/>
-      <c r="AE95" s="24" t="inlineStr"/>
+      <c r="AC95" s="22" t="inlineStr"/>
+      <c r="AD95" s="21" t="inlineStr"/>
+      <c r="AE95" s="23" t="inlineStr"/>
       <c r="AF95" s="24" t="inlineStr"/>
       <c r="AG95" s="24" t="inlineStr"/>
       <c r="AH95" s="24" t="inlineStr"/>
-      <c r="AI95" s="25" t="inlineStr"/>
-      <c r="AJ95" s="26" t="inlineStr"/>
-      <c r="AK95" s="27" t="inlineStr"/>
-      <c r="AL95" s="28" t="inlineStr"/>
-      <c r="AM95" s="29" t="inlineStr"/>
-      <c r="AN95" s="30" t="inlineStr"/>
-      <c r="AO95" s="17" t="inlineStr"/>
+      <c r="AI95" s="24" t="inlineStr"/>
+      <c r="AJ95" s="25" t="inlineStr"/>
+      <c r="AK95" s="26" t="inlineStr"/>
+      <c r="AL95" s="27" t="inlineStr"/>
+      <c r="AM95" s="28" t="inlineStr"/>
+      <c r="AN95" s="29" t="inlineStr"/>
+      <c r="AO95" s="30" t="inlineStr"/>
       <c r="AP95" s="17" t="inlineStr"/>
-      <c r="AQ95" s="31" t="inlineStr"/>
-      <c r="AR95" s="18" t="inlineStr"/>
-      <c r="AS95" s="19" t="inlineStr"/>
+      <c r="AQ95" s="17" t="inlineStr"/>
+      <c r="AR95" s="31" t="inlineStr"/>
+      <c r="AS95" s="18" t="inlineStr"/>
       <c r="AT95" s="19" t="inlineStr"/>
       <c r="AU95" s="19" t="inlineStr"/>
       <c r="AV95" s="19" t="inlineStr"/>
@@ -9431,11 +9955,11 @@
       <c r="AY95" s="19" t="inlineStr"/>
       <c r="AZ95" s="19" t="inlineStr"/>
       <c r="BA95" s="19" t="inlineStr"/>
-      <c r="BB95" s="20" t="inlineStr"/>
-      <c r="BC95" s="21" t="inlineStr"/>
+      <c r="BB95" s="19" t="inlineStr"/>
+      <c r="BC95" s="20" t="inlineStr"/>
       <c r="BD95" s="21" t="inlineStr"/>
-      <c r="BE95" s="23" t="inlineStr"/>
-      <c r="BF95" s="24" t="inlineStr"/>
+      <c r="BE95" s="21" t="inlineStr"/>
+      <c r="BF95" s="23" t="inlineStr"/>
       <c r="BG95" s="32" t="inlineStr"/>
       <c r="BH95" s="32" t="inlineStr"/>
       <c r="BI95" s="32" t="inlineStr"/>
@@ -9452,13 +9976,16 @@
       <c r="BT95" s="32" t="inlineStr"/>
       <c r="BU95" s="32" t="inlineStr"/>
       <c r="BV95" s="32" t="inlineStr"/>
-      <c r="BW95" s="25" t="inlineStr"/>
-      <c r="BX95" s="33" t="inlineStr"/>
-      <c r="BY95" s="33" t="inlineStr"/>
+      <c r="BW95" s="32" t="inlineStr"/>
+      <c r="BX95" s="32" t="inlineStr"/>
+      <c r="BY95" s="25" t="inlineStr"/>
       <c r="BZ95" s="33" t="inlineStr"/>
       <c r="CA95" s="33" t="inlineStr"/>
-      <c r="CB95" s="26" t="inlineStr"/>
-      <c r="CC95" s="27" t="inlineStr"/>
+      <c r="CB95" s="33" t="inlineStr"/>
+      <c r="CC95" s="33" t="inlineStr"/>
+      <c r="CD95" s="26" t="inlineStr"/>
+      <c r="CE95" s="27" t="inlineStr"/>
+      <c r="CF95" s="27" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9484,28 +10011,28 @@
       <c r="U96" s="19" t="inlineStr"/>
       <c r="V96" s="19" t="inlineStr"/>
       <c r="W96" s="19" t="inlineStr"/>
-      <c r="X96" s="20" t="inlineStr"/>
-      <c r="Y96" s="21" t="inlineStr"/>
+      <c r="X96" s="19" t="inlineStr"/>
+      <c r="Y96" s="20" t="inlineStr"/>
       <c r="Z96" s="21" t="inlineStr"/>
-      <c r="AA96" s="22" t="inlineStr"/>
+      <c r="AA96" s="21" t="inlineStr"/>
       <c r="AB96" s="22" t="inlineStr"/>
-      <c r="AC96" s="21" t="inlineStr"/>
-      <c r="AD96" s="23" t="inlineStr"/>
-      <c r="AE96" s="24" t="inlineStr"/>
+      <c r="AC96" s="22" t="inlineStr"/>
+      <c r="AD96" s="21" t="inlineStr"/>
+      <c r="AE96" s="23" t="inlineStr"/>
       <c r="AF96" s="24" t="inlineStr"/>
       <c r="AG96" s="24" t="inlineStr"/>
       <c r="AH96" s="24" t="inlineStr"/>
-      <c r="AI96" s="25" t="inlineStr"/>
-      <c r="AJ96" s="26" t="inlineStr"/>
-      <c r="AK96" s="27" t="inlineStr"/>
-      <c r="AL96" s="28" t="inlineStr"/>
-      <c r="AM96" s="29" t="inlineStr"/>
-      <c r="AN96" s="30" t="inlineStr"/>
-      <c r="AO96" s="17" t="inlineStr"/>
+      <c r="AI96" s="24" t="inlineStr"/>
+      <c r="AJ96" s="25" t="inlineStr"/>
+      <c r="AK96" s="26" t="inlineStr"/>
+      <c r="AL96" s="27" t="inlineStr"/>
+      <c r="AM96" s="28" t="inlineStr"/>
+      <c r="AN96" s="29" t="inlineStr"/>
+      <c r="AO96" s="30" t="inlineStr"/>
       <c r="AP96" s="17" t="inlineStr"/>
-      <c r="AQ96" s="31" t="inlineStr"/>
-      <c r="AR96" s="18" t="inlineStr"/>
-      <c r="AS96" s="19" t="inlineStr"/>
+      <c r="AQ96" s="17" t="inlineStr"/>
+      <c r="AR96" s="31" t="inlineStr"/>
+      <c r="AS96" s="18" t="inlineStr"/>
       <c r="AT96" s="19" t="inlineStr"/>
       <c r="AU96" s="19" t="inlineStr"/>
       <c r="AV96" s="19" t="inlineStr"/>
@@ -9514,11 +10041,11 @@
       <c r="AY96" s="19" t="inlineStr"/>
       <c r="AZ96" s="19" t="inlineStr"/>
       <c r="BA96" s="19" t="inlineStr"/>
-      <c r="BB96" s="20" t="inlineStr"/>
-      <c r="BC96" s="21" t="inlineStr"/>
+      <c r="BB96" s="19" t="inlineStr"/>
+      <c r="BC96" s="20" t="inlineStr"/>
       <c r="BD96" s="21" t="inlineStr"/>
-      <c r="BE96" s="23" t="inlineStr"/>
-      <c r="BF96" s="24" t="inlineStr"/>
+      <c r="BE96" s="21" t="inlineStr"/>
+      <c r="BF96" s="23" t="inlineStr"/>
       <c r="BG96" s="32" t="inlineStr"/>
       <c r="BH96" s="32" t="inlineStr"/>
       <c r="BI96" s="32" t="inlineStr"/>
@@ -9535,13 +10062,16 @@
       <c r="BT96" s="32" t="inlineStr"/>
       <c r="BU96" s="32" t="inlineStr"/>
       <c r="BV96" s="32" t="inlineStr"/>
-      <c r="BW96" s="25" t="inlineStr"/>
-      <c r="BX96" s="33" t="inlineStr"/>
-      <c r="BY96" s="33" t="inlineStr"/>
+      <c r="BW96" s="32" t="inlineStr"/>
+      <c r="BX96" s="32" t="inlineStr"/>
+      <c r="BY96" s="25" t="inlineStr"/>
       <c r="BZ96" s="33" t="inlineStr"/>
       <c r="CA96" s="33" t="inlineStr"/>
-      <c r="CB96" s="26" t="inlineStr"/>
-      <c r="CC96" s="27" t="inlineStr"/>
+      <c r="CB96" s="33" t="inlineStr"/>
+      <c r="CC96" s="33" t="inlineStr"/>
+      <c r="CD96" s="26" t="inlineStr"/>
+      <c r="CE96" s="27" t="inlineStr"/>
+      <c r="CF96" s="27" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9567,28 +10097,28 @@
       <c r="U97" s="19" t="inlineStr"/>
       <c r="V97" s="19" t="inlineStr"/>
       <c r="W97" s="19" t="inlineStr"/>
-      <c r="X97" s="20" t="inlineStr"/>
-      <c r="Y97" s="21" t="inlineStr"/>
+      <c r="X97" s="19" t="inlineStr"/>
+      <c r="Y97" s="20" t="inlineStr"/>
       <c r="Z97" s="21" t="inlineStr"/>
-      <c r="AA97" s="22" t="inlineStr"/>
+      <c r="AA97" s="21" t="inlineStr"/>
       <c r="AB97" s="22" t="inlineStr"/>
-      <c r="AC97" s="21" t="inlineStr"/>
-      <c r="AD97" s="23" t="inlineStr"/>
-      <c r="AE97" s="24" t="inlineStr"/>
+      <c r="AC97" s="22" t="inlineStr"/>
+      <c r="AD97" s="21" t="inlineStr"/>
+      <c r="AE97" s="23" t="inlineStr"/>
       <c r="AF97" s="24" t="inlineStr"/>
       <c r="AG97" s="24" t="inlineStr"/>
       <c r="AH97" s="24" t="inlineStr"/>
-      <c r="AI97" s="25" t="inlineStr"/>
-      <c r="AJ97" s="26" t="inlineStr"/>
-      <c r="AK97" s="27" t="inlineStr"/>
-      <c r="AL97" s="28" t="inlineStr"/>
-      <c r="AM97" s="29" t="inlineStr"/>
-      <c r="AN97" s="30" t="inlineStr"/>
-      <c r="AO97" s="17" t="inlineStr"/>
+      <c r="AI97" s="24" t="inlineStr"/>
+      <c r="AJ97" s="25" t="inlineStr"/>
+      <c r="AK97" s="26" t="inlineStr"/>
+      <c r="AL97" s="27" t="inlineStr"/>
+      <c r="AM97" s="28" t="inlineStr"/>
+      <c r="AN97" s="29" t="inlineStr"/>
+      <c r="AO97" s="30" t="inlineStr"/>
       <c r="AP97" s="17" t="inlineStr"/>
-      <c r="AQ97" s="31" t="inlineStr"/>
-      <c r="AR97" s="18" t="inlineStr"/>
-      <c r="AS97" s="19" t="inlineStr"/>
+      <c r="AQ97" s="17" t="inlineStr"/>
+      <c r="AR97" s="31" t="inlineStr"/>
+      <c r="AS97" s="18" t="inlineStr"/>
       <c r="AT97" s="19" t="inlineStr"/>
       <c r="AU97" s="19" t="inlineStr"/>
       <c r="AV97" s="19" t="inlineStr"/>
@@ -9597,11 +10127,11 @@
       <c r="AY97" s="19" t="inlineStr"/>
       <c r="AZ97" s="19" t="inlineStr"/>
       <c r="BA97" s="19" t="inlineStr"/>
-      <c r="BB97" s="20" t="inlineStr"/>
-      <c r="BC97" s="21" t="inlineStr"/>
+      <c r="BB97" s="19" t="inlineStr"/>
+      <c r="BC97" s="20" t="inlineStr"/>
       <c r="BD97" s="21" t="inlineStr"/>
-      <c r="BE97" s="23" t="inlineStr"/>
-      <c r="BF97" s="24" t="inlineStr"/>
+      <c r="BE97" s="21" t="inlineStr"/>
+      <c r="BF97" s="23" t="inlineStr"/>
       <c r="BG97" s="32" t="inlineStr"/>
       <c r="BH97" s="32" t="inlineStr"/>
       <c r="BI97" s="32" t="inlineStr"/>
@@ -9618,13 +10148,16 @@
       <c r="BT97" s="32" t="inlineStr"/>
       <c r="BU97" s="32" t="inlineStr"/>
       <c r="BV97" s="32" t="inlineStr"/>
-      <c r="BW97" s="25" t="inlineStr"/>
-      <c r="BX97" s="33" t="inlineStr"/>
-      <c r="BY97" s="33" t="inlineStr"/>
+      <c r="BW97" s="32" t="inlineStr"/>
+      <c r="BX97" s="32" t="inlineStr"/>
+      <c r="BY97" s="25" t="inlineStr"/>
       <c r="BZ97" s="33" t="inlineStr"/>
       <c r="CA97" s="33" t="inlineStr"/>
-      <c r="CB97" s="26" t="inlineStr"/>
-      <c r="CC97" s="27" t="inlineStr"/>
+      <c r="CB97" s="33" t="inlineStr"/>
+      <c r="CC97" s="33" t="inlineStr"/>
+      <c r="CD97" s="26" t="inlineStr"/>
+      <c r="CE97" s="27" t="inlineStr"/>
+      <c r="CF97" s="27" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9650,28 +10183,28 @@
       <c r="U98" s="19" t="inlineStr"/>
       <c r="V98" s="19" t="inlineStr"/>
       <c r="W98" s="19" t="inlineStr"/>
-      <c r="X98" s="20" t="inlineStr"/>
-      <c r="Y98" s="21" t="inlineStr"/>
+      <c r="X98" s="19" t="inlineStr"/>
+      <c r="Y98" s="20" t="inlineStr"/>
       <c r="Z98" s="21" t="inlineStr"/>
-      <c r="AA98" s="22" t="inlineStr"/>
+      <c r="AA98" s="21" t="inlineStr"/>
       <c r="AB98" s="22" t="inlineStr"/>
-      <c r="AC98" s="21" t="inlineStr"/>
-      <c r="AD98" s="23" t="inlineStr"/>
-      <c r="AE98" s="24" t="inlineStr"/>
+      <c r="AC98" s="22" t="inlineStr"/>
+      <c r="AD98" s="21" t="inlineStr"/>
+      <c r="AE98" s="23" t="inlineStr"/>
       <c r="AF98" s="24" t="inlineStr"/>
       <c r="AG98" s="24" t="inlineStr"/>
       <c r="AH98" s="24" t="inlineStr"/>
-      <c r="AI98" s="25" t="inlineStr"/>
-      <c r="AJ98" s="26" t="inlineStr"/>
-      <c r="AK98" s="27" t="inlineStr"/>
-      <c r="AL98" s="28" t="inlineStr"/>
-      <c r="AM98" s="29" t="inlineStr"/>
-      <c r="AN98" s="30" t="inlineStr"/>
-      <c r="AO98" s="17" t="inlineStr"/>
+      <c r="AI98" s="24" t="inlineStr"/>
+      <c r="AJ98" s="25" t="inlineStr"/>
+      <c r="AK98" s="26" t="inlineStr"/>
+      <c r="AL98" s="27" t="inlineStr"/>
+      <c r="AM98" s="28" t="inlineStr"/>
+      <c r="AN98" s="29" t="inlineStr"/>
+      <c r="AO98" s="30" t="inlineStr"/>
       <c r="AP98" s="17" t="inlineStr"/>
-      <c r="AQ98" s="31" t="inlineStr"/>
-      <c r="AR98" s="18" t="inlineStr"/>
-      <c r="AS98" s="19" t="inlineStr"/>
+      <c r="AQ98" s="17" t="inlineStr"/>
+      <c r="AR98" s="31" t="inlineStr"/>
+      <c r="AS98" s="18" t="inlineStr"/>
       <c r="AT98" s="19" t="inlineStr"/>
       <c r="AU98" s="19" t="inlineStr"/>
       <c r="AV98" s="19" t="inlineStr"/>
@@ -9680,11 +10213,11 @@
       <c r="AY98" s="19" t="inlineStr"/>
       <c r="AZ98" s="19" t="inlineStr"/>
       <c r="BA98" s="19" t="inlineStr"/>
-      <c r="BB98" s="20" t="inlineStr"/>
-      <c r="BC98" s="21" t="inlineStr"/>
+      <c r="BB98" s="19" t="inlineStr"/>
+      <c r="BC98" s="20" t="inlineStr"/>
       <c r="BD98" s="21" t="inlineStr"/>
-      <c r="BE98" s="23" t="inlineStr"/>
-      <c r="BF98" s="24" t="inlineStr"/>
+      <c r="BE98" s="21" t="inlineStr"/>
+      <c r="BF98" s="23" t="inlineStr"/>
       <c r="BG98" s="32" t="inlineStr"/>
       <c r="BH98" s="32" t="inlineStr"/>
       <c r="BI98" s="32" t="inlineStr"/>
@@ -9701,13 +10234,16 @@
       <c r="BT98" s="32" t="inlineStr"/>
       <c r="BU98" s="32" t="inlineStr"/>
       <c r="BV98" s="32" t="inlineStr"/>
-      <c r="BW98" s="25" t="inlineStr"/>
-      <c r="BX98" s="33" t="inlineStr"/>
-      <c r="BY98" s="33" t="inlineStr"/>
+      <c r="BW98" s="32" t="inlineStr"/>
+      <c r="BX98" s="32" t="inlineStr"/>
+      <c r="BY98" s="25" t="inlineStr"/>
       <c r="BZ98" s="33" t="inlineStr"/>
       <c r="CA98" s="33" t="inlineStr"/>
-      <c r="CB98" s="26" t="inlineStr"/>
-      <c r="CC98" s="27" t="inlineStr"/>
+      <c r="CB98" s="33" t="inlineStr"/>
+      <c r="CC98" s="33" t="inlineStr"/>
+      <c r="CD98" s="26" t="inlineStr"/>
+      <c r="CE98" s="27" t="inlineStr"/>
+      <c r="CF98" s="27" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -9733,28 +10269,28 @@
       <c r="U99" s="19" t="inlineStr"/>
       <c r="V99" s="19" t="inlineStr"/>
       <c r="W99" s="19" t="inlineStr"/>
-      <c r="X99" s="20" t="inlineStr"/>
-      <c r="Y99" s="21" t="inlineStr"/>
+      <c r="X99" s="19" t="inlineStr"/>
+      <c r="Y99" s="20" t="inlineStr"/>
       <c r="Z99" s="21" t="inlineStr"/>
-      <c r="AA99" s="22" t="inlineStr"/>
+      <c r="AA99" s="21" t="inlineStr"/>
       <c r="AB99" s="22" t="inlineStr"/>
-      <c r="AC99" s="21" t="inlineStr"/>
-      <c r="AD99" s="23" t="inlineStr"/>
-      <c r="AE99" s="24" t="inlineStr"/>
+      <c r="AC99" s="22" t="inlineStr"/>
+      <c r="AD99" s="21" t="inlineStr"/>
+      <c r="AE99" s="23" t="inlineStr"/>
       <c r="AF99" s="24" t="inlineStr"/>
       <c r="AG99" s="24" t="inlineStr"/>
       <c r="AH99" s="24" t="inlineStr"/>
-      <c r="AI99" s="25" t="inlineStr"/>
-      <c r="AJ99" s="26" t="inlineStr"/>
-      <c r="AK99" s="27" t="inlineStr"/>
-      <c r="AL99" s="28" t="inlineStr"/>
-      <c r="AM99" s="29" t="inlineStr"/>
-      <c r="AN99" s="30" t="inlineStr"/>
-      <c r="AO99" s="17" t="inlineStr"/>
+      <c r="AI99" s="24" t="inlineStr"/>
+      <c r="AJ99" s="25" t="inlineStr"/>
+      <c r="AK99" s="26" t="inlineStr"/>
+      <c r="AL99" s="27" t="inlineStr"/>
+      <c r="AM99" s="28" t="inlineStr"/>
+      <c r="AN99" s="29" t="inlineStr"/>
+      <c r="AO99" s="30" t="inlineStr"/>
       <c r="AP99" s="17" t="inlineStr"/>
-      <c r="AQ99" s="31" t="inlineStr"/>
-      <c r="AR99" s="18" t="inlineStr"/>
-      <c r="AS99" s="19" t="inlineStr"/>
+      <c r="AQ99" s="17" t="inlineStr"/>
+      <c r="AR99" s="31" t="inlineStr"/>
+      <c r="AS99" s="18" t="inlineStr"/>
       <c r="AT99" s="19" t="inlineStr"/>
       <c r="AU99" s="19" t="inlineStr"/>
       <c r="AV99" s="19" t="inlineStr"/>
@@ -9763,11 +10299,11 @@
       <c r="AY99" s="19" t="inlineStr"/>
       <c r="AZ99" s="19" t="inlineStr"/>
       <c r="BA99" s="19" t="inlineStr"/>
-      <c r="BB99" s="20" t="inlineStr"/>
-      <c r="BC99" s="21" t="inlineStr"/>
+      <c r="BB99" s="19" t="inlineStr"/>
+      <c r="BC99" s="20" t="inlineStr"/>
       <c r="BD99" s="21" t="inlineStr"/>
-      <c r="BE99" s="23" t="inlineStr"/>
-      <c r="BF99" s="24" t="inlineStr"/>
+      <c r="BE99" s="21" t="inlineStr"/>
+      <c r="BF99" s="23" t="inlineStr"/>
       <c r="BG99" s="32" t="inlineStr"/>
       <c r="BH99" s="32" t="inlineStr"/>
       <c r="BI99" s="32" t="inlineStr"/>
@@ -9784,25 +10320,34 @@
       <c r="BT99" s="32" t="inlineStr"/>
       <c r="BU99" s="32" t="inlineStr"/>
       <c r="BV99" s="32" t="inlineStr"/>
-      <c r="BW99" s="25" t="inlineStr"/>
-      <c r="BX99" s="33" t="inlineStr"/>
-      <c r="BY99" s="33" t="inlineStr"/>
+      <c r="BW99" s="32" t="inlineStr"/>
+      <c r="BX99" s="32" t="inlineStr"/>
+      <c r="BY99" s="25" t="inlineStr"/>
       <c r="BZ99" s="33" t="inlineStr"/>
       <c r="CA99" s="33" t="inlineStr"/>
-      <c r="CB99" s="26" t="inlineStr"/>
-      <c r="CC99" s="27" t="inlineStr"/>
+      <c r="CB99" s="33" t="inlineStr"/>
+      <c r="CC99" s="33" t="inlineStr"/>
+      <c r="CD99" s="26" t="inlineStr"/>
+      <c r="CE99" s="27" t="inlineStr"/>
+      <c r="CF99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="AA2:AA100 AB2:AB100 AN2:AN100 AQ2:AQ100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <dataValidations count="6">
+    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 AU2:AU100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
-    <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;public restricted&quot; " type="list">
-      <formula1>"public,non-public,public restricted"</formula1>
+    <dataValidation sqref="H2:H100 AV2:AV100 CE2:CE100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
+      <formula1>"public,non-public,restricted public"</formula1>
     </dataValidation>
-    <dataValidation sqref="Z2:Z100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
+    <dataValidation sqref="G2:G100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot; or &quot;non-public&quot; " type="list">
+      <formula1>"public,non-public"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>
+    </dataValidation>
+    <dataValidation sqref="A2:A100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be string with no spaces and a max of 128 chars" type="custom">
+      <formula1>AND(LEN(A2)&lt;129,NOT(ISNUMBER(SEARCH(" ",A2))))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
